--- a/src/customerView/客户视图.xlsx
+++ b/src/customerView/客户视图.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\qdgz\02工程活动\04设计与实现\交易数据统计\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD7EE66-DAC3-4003-A07E-D63B74271B1D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="客户视图" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="189">
   <si>
     <t>CV 客户视图</t>
   </si>
@@ -267,39 +273,24 @@
     <t>00201014</t>
   </si>
   <si>
-    <t>custom-selector-crtfTypCd</t>
-  </si>
-  <si>
     <t>CV00023</t>
   </si>
   <si>
-    <t>custom-selector-crdhldCrtfTypCd</t>
-  </si>
-  <si>
     <t>CV00024</t>
   </si>
   <si>
     <t>00201015</t>
   </si>
   <si>
-    <t>custom-selector_5</t>
-  </si>
-  <si>
     <t>CV00025</t>
   </si>
   <si>
     <t>00201016</t>
   </si>
   <si>
-    <t>custom-selector-crtfTypCd1</t>
-  </si>
-  <si>
     <t>CV00026</t>
   </si>
   <si>
-    <t>custom-selector-crtfTypCd2</t>
-  </si>
-  <si>
     <t>CV00027</t>
   </si>
   <si>
@@ -592,19 +583,22 @@
   </si>
   <si>
     <t>00101001</t>
+  </si>
+  <si>
+    <t>custom-input-accNo1</t>
+  </si>
+  <si>
+    <t>custom-input-oldCardCardNo</t>
+  </si>
+  <si>
+    <t>custom-input-cardNo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -627,151 +621,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -792,13 +649,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799890133365886"/>
+        <fgColor theme="3" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,188 +671,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1044,253 +721,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1305,12 +740,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1330,69 +761,25 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1650,19 +1037,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="N80" sqref="N80"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="8.375" customWidth="1"/>
@@ -1677,7 +1064,7 @@
     <col min="22" max="22" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="60.75" spans="1:22">
+    <row r="1" spans="1:22" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1745,7 +1132,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>200001</v>
       </c>
@@ -1770,7 +1157,7 @@
       <c r="H2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="10" t="s">
         <v>28</v>
       </c>
       <c r="J2" s="7" t="s">
@@ -1792,12 +1179,12 @@
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
-      <c r="S2" s="14"/>
+      <c r="S2" s="12"/>
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>200001</v>
       </c>
@@ -1822,7 +1209,7 @@
       <c r="H3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="10" t="s">
         <v>32</v>
       </c>
       <c r="J3" s="7" t="s">
@@ -1844,12 +1231,12 @@
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
-      <c r="S3" s="14"/>
+      <c r="S3" s="12"/>
       <c r="T3" s="6"/>
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>200002</v>
       </c>
@@ -1896,12 +1283,12 @@
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
-      <c r="S4" s="14"/>
+      <c r="S4" s="12"/>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>200003</v>
       </c>
@@ -1948,12 +1335,12 @@
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
-      <c r="S5" s="14"/>
+      <c r="S5" s="12"/>
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>200004</v>
       </c>
@@ -2000,12 +1387,12 @@
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
-      <c r="S6" s="14"/>
+      <c r="S6" s="12"/>
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>200005</v>
       </c>
@@ -2052,12 +1439,12 @@
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
-      <c r="S7" s="14"/>
+      <c r="S7" s="12"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>200006</v>
       </c>
@@ -2104,12 +1491,12 @@
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
-      <c r="S8" s="14"/>
+      <c r="S8" s="12"/>
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>200007</v>
       </c>
@@ -2153,15 +1540,15 @@
         <v>30</v>
       </c>
       <c r="O9" s="6"/>
-      <c r="P9" s="13"/>
+      <c r="P9" s="11"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
-      <c r="S9" s="14"/>
+      <c r="S9" s="12"/>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
-      <c r="V9" s="13"/>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="V9" s="11"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>200008</v>
       </c>
@@ -2205,15 +1592,15 @@
         <v>30</v>
       </c>
       <c r="O10" s="6"/>
-      <c r="P10" s="13"/>
+      <c r="P10" s="11"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
-      <c r="S10" s="14"/>
+      <c r="S10" s="12"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>200009</v>
       </c>
@@ -2260,12 +1647,12 @@
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
-      <c r="S11" s="14"/>
+      <c r="S11" s="12"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>200010</v>
       </c>
@@ -2312,12 +1699,12 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
-      <c r="S12" s="14"/>
+      <c r="S12" s="12"/>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>200011</v>
       </c>
@@ -2364,12 +1751,12 @@
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
-      <c r="S13" s="14"/>
+      <c r="S13" s="12"/>
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>200012</v>
       </c>
@@ -2416,12 +1803,12 @@
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
-      <c r="S14" s="14"/>
+      <c r="S14" s="12"/>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>200013</v>
       </c>
@@ -2468,12 +1855,12 @@
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
-      <c r="S15" s="14"/>
+      <c r="S15" s="12"/>
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>200014</v>
       </c>
@@ -2520,12 +1907,12 @@
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
-      <c r="S16" s="14"/>
+      <c r="S16" s="12"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>200015</v>
       </c>
@@ -2572,12 +1959,12 @@
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
-      <c r="S17" s="14"/>
+      <c r="S17" s="12"/>
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>200016</v>
       </c>
@@ -2624,12 +2011,12 @@
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
-      <c r="S18" s="14"/>
+      <c r="S18" s="12"/>
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>200017</v>
       </c>
@@ -2676,12 +2063,12 @@
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
-      <c r="S19" s="14"/>
+      <c r="S19" s="12"/>
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>200018</v>
       </c>
@@ -2728,12 +2115,12 @@
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
-      <c r="S20" s="14"/>
+      <c r="S20" s="12"/>
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>200019</v>
       </c>
@@ -2780,12 +2167,12 @@
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
-      <c r="S21" s="14"/>
+      <c r="S21" s="12"/>
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>200020</v>
       </c>
@@ -2832,12 +2219,12 @@
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
-      <c r="S22" s="14"/>
+      <c r="S22" s="12"/>
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>200021</v>
       </c>
@@ -2884,12 +2271,12 @@
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
-      <c r="S23" s="14"/>
+      <c r="S23" s="12"/>
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>200022</v>
       </c>
@@ -2915,7 +2302,7 @@
         <v>81</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>29</v>
@@ -2936,17 +2323,17 @@
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
-      <c r="S24" s="14"/>
+      <c r="S24" s="12"/>
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>200023</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C25" s="6">
         <v>23</v>
@@ -2967,7 +2354,7 @@
         <v>81</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>84</v>
+        <v>187</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>29</v>
@@ -2988,17 +2375,17 @@
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
-      <c r="S25" s="14"/>
+      <c r="S25" s="12"/>
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>200024</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C26" s="6">
         <v>24</v>
@@ -3016,10 +2403,10 @@
         <v>26</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>29</v>
@@ -3040,17 +2427,17 @@
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
-      <c r="S26" s="14"/>
+      <c r="S26" s="12"/>
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
       <c r="V26" s="6"/>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>200025</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C27" s="6">
         <v>25</v>
@@ -3068,10 +2455,10 @@
         <v>26</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>90</v>
+        <v>186</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>29</v>
@@ -3092,17 +2479,17 @@
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
-      <c r="S27" s="14"/>
+      <c r="S27" s="12"/>
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
       <c r="V27" s="6"/>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>200026</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C28" s="6">
         <v>26</v>
@@ -3120,10 +2507,10 @@
         <v>26</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>29</v>
@@ -3144,17 +2531,17 @@
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
-      <c r="S28" s="14"/>
+      <c r="S28" s="12"/>
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
       <c r="V28" s="6"/>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>200027</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C29" s="6">
         <v>27</v>
@@ -3172,10 +2559,10 @@
         <v>26</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>84</v>
+        <v>188</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>29</v>
@@ -3196,17 +2583,17 @@
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
-      <c r="S29" s="14"/>
+      <c r="S29" s="12"/>
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
       <c r="V29" s="6"/>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>200028</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C30" s="6">
         <v>28</v>
@@ -3224,7 +2611,7 @@
         <v>26</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>32</v>
@@ -3248,17 +2635,17 @@
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
-      <c r="S30" s="14"/>
+      <c r="S30" s="12"/>
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
       <c r="V30" s="6"/>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>200029</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C31" s="6">
         <v>29</v>
@@ -3275,8 +2662,8 @@
       <c r="G31" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H31" s="23" t="s">
-        <v>97</v>
+      <c r="H31" s="21" t="s">
+        <v>92</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>32</v>
@@ -3300,17 +2687,17 @@
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
-      <c r="S31" s="14"/>
+      <c r="S31" s="12"/>
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
       <c r="V31" s="6"/>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>200030</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C32" s="6">
         <v>30</v>
@@ -3327,8 +2714,8 @@
       <c r="G32" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H32" s="23" t="s">
-        <v>99</v>
+      <c r="H32" s="21" t="s">
+        <v>94</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>32</v>
@@ -3352,17 +2739,17 @@
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
-      <c r="S32" s="14"/>
+      <c r="S32" s="12"/>
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>200031</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C33" s="6">
         <v>31</v>
@@ -3379,8 +2766,8 @@
       <c r="G33" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H33" s="23" t="s">
-        <v>101</v>
+      <c r="H33" s="21" t="s">
+        <v>96</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>32</v>
@@ -3404,17 +2791,17 @@
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
-      <c r="S33" s="14"/>
+      <c r="S33" s="12"/>
       <c r="T33" s="6"/>
       <c r="U33" s="6"/>
       <c r="V33" s="6"/>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>200032</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C34" s="6">
         <v>32</v>
@@ -3432,10 +2819,10 @@
         <v>26</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>29</v>
@@ -3456,17 +2843,17 @@
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
-      <c r="S34" s="14"/>
+      <c r="S34" s="12"/>
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
       <c r="V34" s="6"/>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>200033</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C35" s="6">
         <v>33</v>
@@ -3484,10 +2871,10 @@
         <v>26</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>29</v>
@@ -3508,17 +2895,17 @@
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
-      <c r="S35" s="14"/>
+      <c r="S35" s="12"/>
       <c r="T35" s="6"/>
       <c r="U35" s="6"/>
       <c r="V35" s="6"/>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>200034</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C36" s="6">
         <v>34</v>
@@ -3536,7 +2923,7 @@
         <v>26</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>56</v>
@@ -3560,17 +2947,17 @@
       <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
-      <c r="S36" s="14"/>
+      <c r="S36" s="12"/>
       <c r="T36" s="6"/>
       <c r="U36" s="6"/>
       <c r="V36" s="6"/>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>200035</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C37" s="6">
         <v>35</v>
@@ -3588,7 +2975,7 @@
         <v>26</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>56</v>
@@ -3612,17 +2999,17 @@
       <c r="P37" s="6"/>
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
-      <c r="S37" s="14"/>
+      <c r="S37" s="12"/>
       <c r="T37" s="6"/>
       <c r="U37" s="6"/>
       <c r="V37" s="6"/>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>200036</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C38" s="6">
         <v>36</v>
@@ -3640,7 +3027,7 @@
         <v>26</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>32</v>
@@ -3664,17 +3051,17 @@
       <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
-      <c r="S38" s="14"/>
+      <c r="S38" s="12"/>
       <c r="T38" s="6"/>
       <c r="U38" s="6"/>
       <c r="V38" s="6"/>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>200037</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C39" s="6">
         <v>37</v>
@@ -3692,7 +3079,7 @@
         <v>26</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>56</v>
@@ -3716,17 +3103,17 @@
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
-      <c r="S39" s="14"/>
+      <c r="S39" s="12"/>
       <c r="T39" s="6"/>
       <c r="U39" s="6"/>
       <c r="V39" s="6"/>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>200038</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C40" s="6">
         <v>38</v>
@@ -3744,7 +3131,7 @@
         <v>26</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>56</v>
@@ -3768,17 +3155,17 @@
       <c r="P40" s="6"/>
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
-      <c r="S40" s="14"/>
+      <c r="S40" s="12"/>
       <c r="T40" s="6"/>
       <c r="U40" s="6"/>
       <c r="V40" s="6"/>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>200039</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C41" s="6">
         <v>39</v>
@@ -3796,7 +3183,7 @@
         <v>26</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I41" s="7" t="s">
         <v>56</v>
@@ -3820,17 +3207,17 @@
       <c r="P41" s="6"/>
       <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
-      <c r="S41" s="14"/>
+      <c r="S41" s="12"/>
       <c r="T41" s="6"/>
       <c r="U41" s="6"/>
       <c r="V41" s="6"/>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>200040</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C42" s="6">
         <v>40</v>
@@ -3848,7 +3235,7 @@
         <v>26</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>32</v>
@@ -3872,17 +3259,17 @@
       <c r="P42" s="6"/>
       <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
-      <c r="S42" s="14"/>
+      <c r="S42" s="12"/>
       <c r="T42" s="6"/>
       <c r="U42" s="6"/>
       <c r="V42" s="6"/>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>200041</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C43" s="6">
         <v>41</v>
@@ -3900,7 +3287,7 @@
         <v>26</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I43" s="7" t="s">
         <v>32</v>
@@ -3924,17 +3311,17 @@
       <c r="P43" s="6"/>
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
-      <c r="S43" s="14"/>
+      <c r="S43" s="12"/>
       <c r="T43" s="6"/>
       <c r="U43" s="6"/>
       <c r="V43" s="6"/>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>200042</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C44" s="6">
         <v>42</v>
@@ -3976,17 +3363,17 @@
       <c r="P44" s="6"/>
       <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
-      <c r="S44" s="14"/>
+      <c r="S44" s="12"/>
       <c r="T44" s="6"/>
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>200043</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C45" s="6">
         <v>43</v>
@@ -4004,10 +3391,10 @@
         <v>26</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>29</v>
@@ -4028,17 +3415,17 @@
       <c r="P45" s="6"/>
       <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
-      <c r="S45" s="14"/>
+      <c r="S45" s="12"/>
       <c r="T45" s="6"/>
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>200044</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C46" s="6">
         <v>44</v>
@@ -4056,10 +3443,10 @@
         <v>26</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="J46" s="7" t="s">
         <v>29</v>
@@ -4080,17 +3467,17 @@
       <c r="P46" s="6"/>
       <c r="Q46" s="6"/>
       <c r="R46" s="6"/>
-      <c r="S46" s="14"/>
+      <c r="S46" s="12"/>
       <c r="T46" s="6"/>
       <c r="U46" s="6"/>
       <c r="V46" s="6"/>
     </row>
-    <row r="47" spans="1:22">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>200045</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C47" s="6">
         <v>45</v>
@@ -4108,7 +3495,7 @@
         <v>26</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I47" s="7" t="s">
         <v>56</v>
@@ -4132,17 +3519,17 @@
       <c r="P47" s="6"/>
       <c r="Q47" s="6"/>
       <c r="R47" s="6"/>
-      <c r="S47" s="14"/>
+      <c r="S47" s="12"/>
       <c r="T47" s="6"/>
       <c r="U47" s="6"/>
       <c r="V47" s="6"/>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>200046</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C48" s="6">
         <v>46</v>
@@ -4160,7 +3547,7 @@
         <v>26</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="I48" s="7" t="s">
         <v>56</v>
@@ -4184,17 +3571,17 @@
       <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
       <c r="R48" s="6"/>
-      <c r="S48" s="14"/>
+      <c r="S48" s="12"/>
       <c r="T48" s="6"/>
       <c r="U48" s="6"/>
       <c r="V48" s="6"/>
     </row>
-    <row r="49" spans="1:22">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>200047</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C49" s="6">
         <v>47</v>
@@ -4212,7 +3599,7 @@
         <v>26</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I49" s="7" t="s">
         <v>56</v>
@@ -4236,17 +3623,17 @@
       <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
       <c r="R49" s="6"/>
-      <c r="S49" s="14"/>
+      <c r="S49" s="12"/>
       <c r="T49" s="6"/>
       <c r="U49" s="6"/>
       <c r="V49" s="6"/>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>200048</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C50" s="6">
         <v>48</v>
@@ -4264,7 +3651,7 @@
         <v>26</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I50" s="7" t="s">
         <v>56</v>
@@ -4288,17 +3675,17 @@
       <c r="P50" s="6"/>
       <c r="Q50" s="6"/>
       <c r="R50" s="6"/>
-      <c r="S50" s="14"/>
+      <c r="S50" s="12"/>
       <c r="T50" s="6"/>
       <c r="U50" s="6"/>
       <c r="V50" s="6"/>
     </row>
-    <row r="51" spans="1:22">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>200049</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C51" s="6">
         <v>49</v>
@@ -4316,7 +3703,7 @@
         <v>26</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I51" s="7" t="s">
         <v>56</v>
@@ -4340,17 +3727,17 @@
       <c r="P51" s="6"/>
       <c r="Q51" s="6"/>
       <c r="R51" s="6"/>
-      <c r="S51" s="14"/>
+      <c r="S51" s="12"/>
       <c r="T51" s="6"/>
       <c r="U51" s="6"/>
       <c r="V51" s="6"/>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>200050</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C52" s="6">
         <v>50</v>
@@ -4368,7 +3755,7 @@
         <v>26</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="I52" s="7" t="s">
         <v>56</v>
@@ -4392,17 +3779,17 @@
       <c r="P52" s="6"/>
       <c r="Q52" s="6"/>
       <c r="R52" s="6"/>
-      <c r="S52" s="14"/>
+      <c r="S52" s="12"/>
       <c r="T52" s="6"/>
       <c r="U52" s="6"/>
       <c r="V52" s="6"/>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>200051</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C53" s="6">
         <v>51</v>
@@ -4420,7 +3807,7 @@
         <v>26</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="I53" s="7" t="s">
         <v>56</v>
@@ -4444,17 +3831,17 @@
       <c r="P53" s="6"/>
       <c r="Q53" s="6"/>
       <c r="R53" s="6"/>
-      <c r="S53" s="14"/>
+      <c r="S53" s="12"/>
       <c r="T53" s="6"/>
       <c r="U53" s="6"/>
       <c r="V53" s="6"/>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>200052</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C54" s="6">
         <v>52</v>
@@ -4472,7 +3859,7 @@
         <v>26</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="I54" s="7" t="s">
         <v>56</v>
@@ -4496,17 +3883,17 @@
       <c r="P54" s="6"/>
       <c r="Q54" s="6"/>
       <c r="R54" s="6"/>
-      <c r="S54" s="14"/>
+      <c r="S54" s="12"/>
       <c r="T54" s="6"/>
       <c r="U54" s="6"/>
       <c r="V54" s="6"/>
     </row>
-    <row r="55" spans="1:22">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>200053</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C55" s="6">
         <v>53</v>
@@ -4524,10 +3911,10 @@
         <v>26</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J55" s="7" t="s">
         <v>29</v>
@@ -4548,17 +3935,17 @@
       <c r="P55" s="6"/>
       <c r="Q55" s="6"/>
       <c r="R55" s="6"/>
-      <c r="S55" s="14"/>
+      <c r="S55" s="12"/>
       <c r="T55" s="6"/>
       <c r="U55" s="6"/>
       <c r="V55" s="6"/>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>200054</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C56" s="6">
         <v>54</v>
@@ -4576,10 +3963,10 @@
         <v>26</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J56" s="7" t="s">
         <v>29</v>
@@ -4600,17 +3987,17 @@
       <c r="P56" s="6"/>
       <c r="Q56" s="6"/>
       <c r="R56" s="6"/>
-      <c r="S56" s="14"/>
+      <c r="S56" s="12"/>
       <c r="T56" s="6"/>
       <c r="U56" s="6"/>
       <c r="V56" s="6"/>
     </row>
-    <row r="57" spans="1:22">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>200055</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C57" s="6">
         <v>55</v>
@@ -4628,10 +4015,10 @@
         <v>26</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>29</v>
@@ -4652,17 +4039,17 @@
       <c r="P57" s="6"/>
       <c r="Q57" s="6"/>
       <c r="R57" s="6"/>
-      <c r="S57" s="14"/>
+      <c r="S57" s="12"/>
       <c r="T57" s="6"/>
       <c r="U57" s="6"/>
       <c r="V57" s="6"/>
     </row>
-    <row r="58" spans="1:22">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>200056</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C58" s="6">
         <v>56</v>
@@ -4680,7 +4067,7 @@
         <v>26</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="I58" s="7" t="s">
         <v>41</v>
@@ -4704,17 +4091,17 @@
       <c r="P58" s="6"/>
       <c r="Q58" s="6"/>
       <c r="R58" s="6"/>
-      <c r="S58" s="14"/>
+      <c r="S58" s="12"/>
       <c r="T58" s="6"/>
       <c r="U58" s="6"/>
       <c r="V58" s="6"/>
     </row>
-    <row r="59" spans="1:22">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <v>200057</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C59" s="6">
         <v>57</v>
@@ -4732,7 +4119,7 @@
         <v>26</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="I59" s="7" t="s">
         <v>56</v>
@@ -4756,17 +4143,17 @@
       <c r="P59" s="6"/>
       <c r="Q59" s="6"/>
       <c r="R59" s="6"/>
-      <c r="S59" s="14"/>
+      <c r="S59" s="12"/>
       <c r="T59" s="6"/>
       <c r="U59" s="6"/>
       <c r="V59" s="6"/>
     </row>
-    <row r="60" spans="1:22">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>200058</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C60" s="6">
         <v>58</v>
@@ -4784,7 +4171,7 @@
         <v>26</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="I60" s="7" t="s">
         <v>56</v>
@@ -4808,17 +4195,17 @@
       <c r="P60" s="6"/>
       <c r="Q60" s="6"/>
       <c r="R60" s="6"/>
-      <c r="S60" s="14"/>
+      <c r="S60" s="12"/>
       <c r="T60" s="6"/>
       <c r="U60" s="6"/>
       <c r="V60" s="6"/>
     </row>
-    <row r="61" spans="1:22">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>200059</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C61" s="6">
         <v>59</v>
@@ -4836,7 +4223,7 @@
         <v>26</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I61" s="7" t="s">
         <v>56</v>
@@ -4860,610 +4247,610 @@
       <c r="P61" s="6"/>
       <c r="Q61" s="6"/>
       <c r="R61" s="6"/>
-      <c r="S61" s="14"/>
+      <c r="S61" s="12"/>
       <c r="T61" s="6"/>
       <c r="U61" s="6"/>
       <c r="V61" s="6"/>
     </row>
-    <row r="62" spans="1:22">
-      <c r="A62" s="9">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A62" s="8">
         <v>200060</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C62" s="8">
+        <v>60</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H62" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K62" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L62" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M62" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N62" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="8"/>
+      <c r="R62" s="8"/>
+      <c r="S62" s="13"/>
+      <c r="T62" s="8"/>
+      <c r="U62" s="8"/>
+      <c r="V62" s="8"/>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A63" s="8">
+        <v>200061</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63" s="8">
+        <v>61</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H63" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K63" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L63" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M63" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N63" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c r="P63" s="8"/>
+      <c r="Q63" s="8"/>
+      <c r="R63" s="8"/>
+      <c r="S63" s="13"/>
+      <c r="T63" s="8"/>
+      <c r="U63" s="8"/>
+      <c r="V63" s="8"/>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A64" s="8">
+        <v>200062</v>
+      </c>
+      <c r="B64" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C62" s="9">
-        <v>60</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F62" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G62" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H62" s="24" t="s">
+      <c r="C64" s="8">
+        <v>62</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H64" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="I62" s="10" t="s">
+      <c r="I64" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K64" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L64" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M64" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N64" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="8"/>
+      <c r="R64" s="8"/>
+      <c r="S64" s="13"/>
+      <c r="T64" s="8"/>
+      <c r="U64" s="8"/>
+      <c r="V64" s="8"/>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A65" s="8">
+        <v>200063</v>
+      </c>
+      <c r="B65" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="J62" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K62" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L62" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M62" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N62" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="O62" s="9"/>
-      <c r="P62" s="9"/>
-      <c r="Q62" s="9"/>
-      <c r="R62" s="9"/>
-      <c r="S62" s="15"/>
-      <c r="T62" s="9"/>
-      <c r="U62" s="9"/>
-      <c r="V62" s="9"/>
-    </row>
-    <row r="63" spans="1:22">
-      <c r="A63" s="9">
-        <v>200061</v>
-      </c>
-      <c r="B63" s="9" t="s">
+      <c r="C65" s="8">
+        <v>63</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H65" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="C63" s="9">
-        <v>61</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H63" s="24" t="s">
+      <c r="I65" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K65" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L65" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M65" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N65" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="8"/>
+      <c r="S65" s="13"/>
+      <c r="T65" s="8"/>
+      <c r="U65" s="8"/>
+      <c r="V65" s="8"/>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A66" s="8">
+        <v>200064</v>
+      </c>
+      <c r="B66" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="I63" s="10" t="s">
+      <c r="C66" s="8">
+        <v>64</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H66" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="I66" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="J63" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K63" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L63" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M63" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N63" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="O63" s="9"/>
-      <c r="P63" s="9"/>
-      <c r="Q63" s="9"/>
-      <c r="R63" s="9"/>
-      <c r="S63" s="15"/>
-      <c r="T63" s="9"/>
-      <c r="U63" s="9"/>
-      <c r="V63" s="9"/>
-    </row>
-    <row r="64" spans="1:22">
-      <c r="A64" s="9">
-        <v>200062</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C64" s="9">
-        <v>62</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H64" s="24" t="s">
+      <c r="J66" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K66" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L66" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M66" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N66" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="8"/>
+      <c r="R66" s="8"/>
+      <c r="S66" s="13"/>
+      <c r="T66" s="8"/>
+      <c r="U66" s="8"/>
+      <c r="V66" s="8"/>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A67" s="14">
+        <v>200065</v>
+      </c>
+      <c r="B67" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="I64" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="J64" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K64" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L64" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M64" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N64" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="O64" s="9"/>
-      <c r="P64" s="9"/>
-      <c r="Q64" s="9"/>
-      <c r="R64" s="9"/>
-      <c r="S64" s="15"/>
-      <c r="T64" s="9"/>
-      <c r="U64" s="9"/>
-      <c r="V64" s="9"/>
-    </row>
-    <row r="65" spans="1:22">
-      <c r="A65" s="9">
-        <v>200063</v>
-      </c>
-      <c r="B65" s="9" t="s">
+      <c r="C67" s="14">
+        <v>65</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G67" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H67" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="C65" s="9">
-        <v>63</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F65" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G65" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H65" s="24" t="s">
+      <c r="I67" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="J67" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K67" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L67" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="M67" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N67" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O67" s="14"/>
+      <c r="P67" s="14"/>
+      <c r="Q67" s="14"/>
+      <c r="R67" s="14"/>
+      <c r="S67" s="20"/>
+      <c r="T67" s="14"/>
+      <c r="U67" s="14"/>
+      <c r="V67" s="8"/>
+    </row>
+    <row r="68" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="16">
+        <v>200066</v>
+      </c>
+      <c r="B68" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="I65" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J65" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K65" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L65" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M65" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N65" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="O65" s="9"/>
-      <c r="P65" s="9"/>
-      <c r="Q65" s="9"/>
-      <c r="R65" s="9"/>
-      <c r="S65" s="15"/>
-      <c r="T65" s="9"/>
-      <c r="U65" s="9"/>
-      <c r="V65" s="9"/>
-    </row>
-    <row r="66" spans="1:22">
-      <c r="A66" s="9">
-        <v>200064</v>
-      </c>
-      <c r="B66" s="9" t="s">
+      <c r="C68" s="16">
+        <v>66</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F68" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G68" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H68" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="C66" s="9">
-        <v>64</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F66" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H66" s="24" t="s">
+      <c r="I68" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I66" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J66" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K66" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L66" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M66" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N66" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="O66" s="9"/>
-      <c r="P66" s="9"/>
-      <c r="Q66" s="9"/>
-      <c r="R66" s="9"/>
-      <c r="S66" s="15"/>
-      <c r="T66" s="9"/>
-      <c r="U66" s="9"/>
-      <c r="V66" s="9"/>
-    </row>
-    <row r="67" spans="1:22">
-      <c r="A67" s="16">
-        <v>200065</v>
-      </c>
-      <c r="B67" s="16" t="s">
+      <c r="J68" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="C67" s="16">
-        <v>65</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F67" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G67" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H67" s="24" t="s">
+      <c r="K68" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="L68" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M68" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="N68" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="O68" s="16"/>
+      <c r="P68" s="16"/>
+      <c r="Q68" s="16"/>
+      <c r="R68" s="16"/>
+      <c r="S68" s="16"/>
+      <c r="T68" s="16"/>
+      <c r="U68" s="16"/>
+      <c r="V68" s="16"/>
+    </row>
+    <row r="69" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="16">
+        <v>200067</v>
+      </c>
+      <c r="B69" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="I67" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="J67" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="K67" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="L67" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="M67" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="N67" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="O67" s="16"/>
-      <c r="P67" s="16"/>
-      <c r="Q67" s="16"/>
-      <c r="R67" s="16"/>
-      <c r="S67" s="22"/>
-      <c r="T67" s="16"/>
-      <c r="U67" s="16"/>
-      <c r="V67" s="9"/>
-    </row>
-    <row r="68" s="1" customFormat="1" spans="1:22">
-      <c r="A68" s="18">
-        <v>200066</v>
-      </c>
-      <c r="B68" s="18" t="s">
+      <c r="C69" s="16">
+        <v>67</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F69" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G69" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H69" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="C68" s="18">
-        <v>66</v>
-      </c>
-      <c r="D68" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E68" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F68" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G68" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H68" s="25" t="s">
+      <c r="I69" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="J69" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="K69" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="L69" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M69" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="N69" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="O69" s="16"/>
+      <c r="P69" s="16"/>
+      <c r="Q69" s="16"/>
+      <c r="R69" s="16"/>
+      <c r="S69" s="16"/>
+      <c r="T69" s="16"/>
+      <c r="U69" s="16"/>
+      <c r="V69" s="16"/>
+    </row>
+    <row r="70" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="16">
+        <v>200068</v>
+      </c>
+      <c r="B70" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="I68" s="18" t="s">
+      <c r="C70" s="16">
+        <v>68</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F70" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G70" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H70" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="J68" s="19" t="s">
+      <c r="I70" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="K68" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="L68" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="M68" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="N68" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="O68" s="18"/>
-      <c r="P68" s="18"/>
-      <c r="Q68" s="18"/>
-      <c r="R68" s="18"/>
-      <c r="S68" s="18"/>
-      <c r="T68" s="18"/>
-      <c r="U68" s="18"/>
-      <c r="V68" s="18"/>
-    </row>
-    <row r="69" s="1" customFormat="1" spans="1:22">
-      <c r="A69" s="18">
-        <v>200067</v>
-      </c>
-      <c r="B69" s="18" t="s">
+      <c r="J70" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K70" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="L70" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M70" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="N70" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="O70" s="16"/>
+      <c r="P70" s="16"/>
+      <c r="Q70" s="16"/>
+      <c r="R70" s="16"/>
+      <c r="S70" s="16"/>
+      <c r="T70" s="16"/>
+      <c r="U70" s="16"/>
+      <c r="V70" s="16"/>
+    </row>
+    <row r="71" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="16">
+        <v>200069</v>
+      </c>
+      <c r="B71" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="C69" s="18">
-        <v>67</v>
-      </c>
-      <c r="D69" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E69" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F69" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G69" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H69" s="25" t="s">
+      <c r="C71" s="16">
+        <v>69</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F71" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G71" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H71" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="I71" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="I69" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="J69" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="K69" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="L69" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="M69" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="N69" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="O69" s="18"/>
-      <c r="P69" s="18"/>
-      <c r="Q69" s="18"/>
-      <c r="R69" s="18"/>
-      <c r="S69" s="18"/>
-      <c r="T69" s="18"/>
-      <c r="U69" s="18"/>
-      <c r="V69" s="18"/>
-    </row>
-    <row r="70" s="1" customFormat="1" spans="1:22">
-      <c r="A70" s="18">
-        <v>200068</v>
-      </c>
-      <c r="B70" s="18" t="s">
+      <c r="J71" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K71" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="L71" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M71" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="N71" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="O71" s="16"/>
+      <c r="P71" s="16"/>
+      <c r="Q71" s="16"/>
+      <c r="R71" s="16"/>
+      <c r="S71" s="16"/>
+      <c r="T71" s="16"/>
+      <c r="U71" s="16"/>
+      <c r="V71" s="16"/>
+    </row>
+    <row r="72" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="16">
+        <v>200070</v>
+      </c>
+      <c r="B72" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="C70" s="18">
-        <v>68</v>
-      </c>
-      <c r="D70" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E70" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F70" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G70" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H70" s="25" t="s">
+      <c r="C72" s="16">
+        <v>70</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F72" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G72" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H72" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="I70" s="18" t="s">
+      <c r="I72" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="J72" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K72" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="L72" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M72" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="N72" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="O72" s="16"/>
+      <c r="P72" s="16"/>
+      <c r="Q72" s="16"/>
+      <c r="R72" s="16"/>
+      <c r="S72" s="16"/>
+      <c r="T72" s="16"/>
+      <c r="U72" s="16"/>
+      <c r="V72" s="16"/>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A73" s="16">
+        <v>200071</v>
+      </c>
+      <c r="B73" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="J70" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="K70" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="L70" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="M70" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="N70" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="O70" s="18"/>
-      <c r="P70" s="18"/>
-      <c r="Q70" s="18"/>
-      <c r="R70" s="18"/>
-      <c r="S70" s="18"/>
-      <c r="T70" s="18"/>
-      <c r="U70" s="18"/>
-      <c r="V70" s="18"/>
-    </row>
-    <row r="71" s="1" customFormat="1" spans="1:22">
-      <c r="A71" s="18">
-        <v>200069</v>
-      </c>
-      <c r="B71" s="18" t="s">
+      <c r="C73" s="16">
+        <v>71</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G73" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H73" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="C71" s="18">
-        <v>69</v>
-      </c>
-      <c r="D71" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E71" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F71" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G71" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H71" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="I71" s="18" t="s">
+      <c r="I73" t="s">
         <v>184</v>
-      </c>
-      <c r="J71" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="K71" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="L71" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="M71" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="N71" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="O71" s="18"/>
-      <c r="P71" s="18"/>
-      <c r="Q71" s="18"/>
-      <c r="R71" s="18"/>
-      <c r="S71" s="18"/>
-      <c r="T71" s="18"/>
-      <c r="U71" s="18"/>
-      <c r="V71" s="18"/>
-    </row>
-    <row r="72" s="1" customFormat="1" spans="1:22">
-      <c r="A72" s="18">
-        <v>200070</v>
-      </c>
-      <c r="B72" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="C72" s="18">
-        <v>70</v>
-      </c>
-      <c r="D72" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E72" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F72" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G72" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H72" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="I72" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="J72" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="K72" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="L72" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="M72" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="N72" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="O72" s="18"/>
-      <c r="P72" s="18"/>
-      <c r="Q72" s="18"/>
-      <c r="R72" s="18"/>
-      <c r="S72" s="18"/>
-      <c r="T72" s="18"/>
-      <c r="U72" s="18"/>
-      <c r="V72" s="18"/>
-    </row>
-    <row r="73" spans="1:14">
-      <c r="A73" s="18">
-        <v>200071</v>
-      </c>
-      <c r="B73" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="C73" s="18">
-        <v>71</v>
-      </c>
-      <c r="D73" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E73" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F73" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G73" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H73" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="I73" t="s">
-        <v>189</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -5477,36 +4864,35 @@
       <c r="M73">
         <v>1</v>
       </c>
-      <c r="N73" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="74" s="2" customFormat="1" spans="1:14">
-      <c r="A74" s="20">
+      <c r="N73" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="18">
         <v>200071</v>
       </c>
-      <c r="B74" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="C74" s="20">
+      <c r="B74" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C74" s="18">
         <v>71</v>
       </c>
-      <c r="D74" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E74" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F74" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G74" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H74" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="I74" s="2"/>
+      <c r="D74" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E74" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F74" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G74" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H74" s="25" t="s">
+        <v>185</v>
+      </c>
       <c r="J74" s="2">
         <v>1</v>
       </c>
@@ -5519,21 +4905,21 @@
       <c r="M74" s="2">
         <v>1</v>
       </c>
-      <c r="N74" s="20" t="s">
+      <c r="N74" s="18" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1 R2 R3:R67">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1 R2 R3:R67" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"'==,&gt;,&lt;,&gt;=,&lt;="</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"等于,大于,小于,大于等于,小于等于"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/customerView/客户视图.xlsx
+++ b/src/customerView/客户视图.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\qdgz\02工程活动\04设计与实现\交易数据统计\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD7EE66-DAC3-4003-A07E-D63B74271B1D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="客户视图" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="191">
   <si>
     <t>CV 客户视图</t>
   </si>
@@ -273,9 +267,15 @@
     <t>00201014</t>
   </si>
   <si>
+    <t>custom-input-accNo1</t>
+  </si>
+  <si>
     <t>CV00023</t>
   </si>
   <si>
+    <t>custom-input-oldCardCardNo</t>
+  </si>
+  <si>
     <t>CV00024</t>
   </si>
   <si>
@@ -294,6 +294,9 @@
     <t>CV00027</t>
   </si>
   <si>
+    <t>custom-input-cardNo</t>
+  </si>
+  <si>
     <t>CV00028</t>
   </si>
   <si>
@@ -585,20 +588,23 @@
     <t>00101001</t>
   </si>
   <si>
-    <t>custom-input-accNo1</t>
-  </si>
-  <si>
-    <t>custom-input-oldCardCardNo</t>
-  </si>
-  <si>
-    <t>custom-input-cardNo</t>
+    <t>refref</t>
+  </si>
+  <si>
+    <t>00101001_1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -621,14 +627,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -649,13 +792,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79985961485641044"/>
+        <fgColor theme="3" tint="0.79985961485641"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,12 +810,186 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -721,11 +1038,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -740,8 +1299,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -756,30 +1319,74 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1037,25 +1644,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:V75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="K78" sqref="K78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="8.375" customWidth="1"/>
     <col min="3" max="4" width="9.625" customWidth="1"/>
     <col min="5" max="7" width="7" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="8" max="8" width="14.75" customWidth="1"/>
     <col min="9" max="9" width="25.75" customWidth="1"/>
     <col min="10" max="13" width="17.625" customWidth="1"/>
     <col min="14" max="14" width="12.5" customWidth="1"/>
@@ -1064,7 +1671,7 @@
     <col min="22" max="22" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="60.75" x14ac:dyDescent="0.2">
+    <row r="1" ht="60.75" spans="1:22">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1132,7 +1739,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22">
       <c r="A2" s="6">
         <v>200001</v>
       </c>
@@ -1157,7 +1764,7 @@
       <c r="H2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="12" t="s">
         <v>28</v>
       </c>
       <c r="J2" s="7" t="s">
@@ -1179,12 +1786,12 @@
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
-      <c r="S2" s="12"/>
+      <c r="S2" s="14"/>
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22">
       <c r="A3" s="6">
         <v>200001</v>
       </c>
@@ -1209,7 +1816,7 @@
       <c r="H3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="12" t="s">
         <v>32</v>
       </c>
       <c r="J3" s="7" t="s">
@@ -1231,12 +1838,12 @@
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
-      <c r="S3" s="12"/>
+      <c r="S3" s="14"/>
       <c r="T3" s="6"/>
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22">
       <c r="A4" s="6">
         <v>200002</v>
       </c>
@@ -1283,12 +1890,12 @@
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
-      <c r="S4" s="12"/>
+      <c r="S4" s="14"/>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22">
       <c r="A5" s="6">
         <v>200003</v>
       </c>
@@ -1335,12 +1942,12 @@
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
-      <c r="S5" s="12"/>
+      <c r="S5" s="14"/>
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22">
       <c r="A6" s="6">
         <v>200004</v>
       </c>
@@ -1387,12 +1994,12 @@
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
-      <c r="S6" s="12"/>
+      <c r="S6" s="14"/>
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22">
       <c r="A7" s="6">
         <v>200005</v>
       </c>
@@ -1439,12 +2046,12 @@
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
-      <c r="S7" s="12"/>
+      <c r="S7" s="14"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22">
       <c r="A8" s="6">
         <v>200006</v>
       </c>
@@ -1491,12 +2098,12 @@
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
-      <c r="S8" s="12"/>
+      <c r="S8" s="14"/>
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22">
       <c r="A9" s="6">
         <v>200007</v>
       </c>
@@ -1540,15 +2147,15 @@
         <v>30</v>
       </c>
       <c r="O9" s="6"/>
-      <c r="P9" s="11"/>
+      <c r="P9" s="13"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
-      <c r="S9" s="12"/>
+      <c r="S9" s="14"/>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
-      <c r="V9" s="11"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V9" s="13"/>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="6">
         <v>200008</v>
       </c>
@@ -1592,15 +2199,15 @@
         <v>30</v>
       </c>
       <c r="O10" s="6"/>
-      <c r="P10" s="11"/>
+      <c r="P10" s="13"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
-      <c r="S10" s="12"/>
+      <c r="S10" s="14"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22">
       <c r="A11" s="6">
         <v>200009</v>
       </c>
@@ -1647,12 +2254,12 @@
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
-      <c r="S11" s="12"/>
+      <c r="S11" s="14"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22">
       <c r="A12" s="6">
         <v>200010</v>
       </c>
@@ -1699,12 +2306,12 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
-      <c r="S12" s="12"/>
+      <c r="S12" s="14"/>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22">
       <c r="A13" s="6">
         <v>200011</v>
       </c>
@@ -1751,12 +2358,12 @@
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
-      <c r="S13" s="12"/>
+      <c r="S13" s="14"/>
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22">
       <c r="A14" s="6">
         <v>200012</v>
       </c>
@@ -1803,12 +2410,12 @@
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
-      <c r="S14" s="12"/>
+      <c r="S14" s="14"/>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22">
       <c r="A15" s="6">
         <v>200013</v>
       </c>
@@ -1855,12 +2462,12 @@
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
-      <c r="S15" s="12"/>
+      <c r="S15" s="14"/>
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22">
       <c r="A16" s="6">
         <v>200014</v>
       </c>
@@ -1907,12 +2514,12 @@
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
-      <c r="S16" s="12"/>
+      <c r="S16" s="14"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22">
       <c r="A17" s="6">
         <v>200015</v>
       </c>
@@ -1959,12 +2566,12 @@
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
-      <c r="S17" s="12"/>
+      <c r="S17" s="14"/>
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22">
       <c r="A18" s="6">
         <v>200016</v>
       </c>
@@ -2011,12 +2618,12 @@
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
-      <c r="S18" s="12"/>
+      <c r="S18" s="14"/>
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22">
       <c r="A19" s="6">
         <v>200017</v>
       </c>
@@ -2063,12 +2670,12 @@
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
-      <c r="S19" s="12"/>
+      <c r="S19" s="14"/>
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22">
       <c r="A20" s="6">
         <v>200018</v>
       </c>
@@ -2115,12 +2722,12 @@
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
-      <c r="S20" s="12"/>
+      <c r="S20" s="14"/>
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22">
       <c r="A21" s="6">
         <v>200019</v>
       </c>
@@ -2167,12 +2774,12 @@
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
-      <c r="S21" s="12"/>
+      <c r="S21" s="14"/>
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22">
       <c r="A22" s="6">
         <v>200020</v>
       </c>
@@ -2219,12 +2826,12 @@
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
-      <c r="S22" s="12"/>
+      <c r="S22" s="14"/>
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22">
       <c r="A23" s="6">
         <v>200021</v>
       </c>
@@ -2271,12 +2878,12 @@
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
-      <c r="S23" s="12"/>
+      <c r="S23" s="14"/>
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22">
       <c r="A24" s="6">
         <v>200022</v>
       </c>
@@ -2302,7 +2909,7 @@
         <v>81</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>186</v>
+        <v>82</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>29</v>
@@ -2323,17 +2930,17 @@
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
-      <c r="S24" s="12"/>
+      <c r="S24" s="14"/>
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22">
       <c r="A25" s="6">
         <v>200023</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C25" s="6">
         <v>23</v>
@@ -2354,7 +2961,7 @@
         <v>81</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>187</v>
+        <v>84</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>29</v>
@@ -2375,17 +2982,17 @@
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
-      <c r="S25" s="12"/>
+      <c r="S25" s="14"/>
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22">
       <c r="A26" s="6">
         <v>200024</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C26" s="6">
         <v>24</v>
@@ -2403,7 +3010,7 @@
         <v>26</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>56</v>
@@ -2427,17 +3034,17 @@
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
-      <c r="S26" s="12"/>
+      <c r="S26" s="14"/>
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
       <c r="V26" s="6"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22">
       <c r="A27" s="6">
         <v>200025</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C27" s="6">
         <v>25</v>
@@ -2455,10 +3062,10 @@
         <v>26</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>186</v>
+        <v>82</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>29</v>
@@ -2479,17 +3086,17 @@
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
-      <c r="S27" s="12"/>
+      <c r="S27" s="14"/>
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
       <c r="V27" s="6"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22">
       <c r="A28" s="6">
         <v>200026</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C28" s="6">
         <v>26</v>
@@ -2507,10 +3114,10 @@
         <v>26</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>187</v>
+        <v>84</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>29</v>
@@ -2531,17 +3138,17 @@
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
-      <c r="S28" s="12"/>
+      <c r="S28" s="14"/>
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
       <c r="V28" s="6"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22">
       <c r="A29" s="6">
         <v>200027</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C29" s="6">
         <v>27</v>
@@ -2559,10 +3166,10 @@
         <v>26</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>188</v>
+        <v>91</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>29</v>
@@ -2583,17 +3190,17 @@
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
-      <c r="S29" s="12"/>
+      <c r="S29" s="14"/>
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
       <c r="V29" s="6"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22">
       <c r="A30" s="6">
         <v>200028</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C30" s="6">
         <v>28</v>
@@ -2611,7 +3218,7 @@
         <v>26</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>32</v>
@@ -2635,17 +3242,17 @@
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
-      <c r="S30" s="12"/>
+      <c r="S30" s="14"/>
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
       <c r="V30" s="6"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22">
       <c r="A31" s="6">
         <v>200029</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C31" s="6">
         <v>29</v>
@@ -2662,8 +3269,8 @@
       <c r="G31" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H31" s="21" t="s">
-        <v>92</v>
+      <c r="H31" s="23" t="s">
+        <v>95</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>32</v>
@@ -2687,17 +3294,17 @@
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
-      <c r="S31" s="12"/>
+      <c r="S31" s="14"/>
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
       <c r="V31" s="6"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22">
       <c r="A32" s="6">
         <v>200030</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C32" s="6">
         <v>30</v>
@@ -2714,8 +3321,8 @@
       <c r="G32" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H32" s="21" t="s">
-        <v>94</v>
+      <c r="H32" s="23" t="s">
+        <v>97</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>32</v>
@@ -2739,17 +3346,17 @@
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
-      <c r="S32" s="12"/>
+      <c r="S32" s="14"/>
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22">
       <c r="A33" s="6">
         <v>200031</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C33" s="6">
         <v>31</v>
@@ -2766,8 +3373,8 @@
       <c r="G33" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H33" s="21" t="s">
-        <v>96</v>
+      <c r="H33" s="23" t="s">
+        <v>99</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>32</v>
@@ -2791,17 +3398,17 @@
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
-      <c r="S33" s="12"/>
+      <c r="S33" s="14"/>
       <c r="T33" s="6"/>
       <c r="U33" s="6"/>
       <c r="V33" s="6"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22">
       <c r="A34" s="6">
         <v>200032</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C34" s="6">
         <v>32</v>
@@ -2819,10 +3426,10 @@
         <v>26</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>29</v>
@@ -2843,17 +3450,17 @@
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
-      <c r="S34" s="12"/>
+      <c r="S34" s="14"/>
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
       <c r="V34" s="6"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22">
       <c r="A35" s="6">
         <v>200033</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C35" s="6">
         <v>33</v>
@@ -2871,10 +3478,10 @@
         <v>26</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>29</v>
@@ -2895,17 +3502,17 @@
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
-      <c r="S35" s="12"/>
+      <c r="S35" s="14"/>
       <c r="T35" s="6"/>
       <c r="U35" s="6"/>
       <c r="V35" s="6"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22">
       <c r="A36" s="6">
         <v>200034</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C36" s="6">
         <v>34</v>
@@ -2923,7 +3530,7 @@
         <v>26</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>56</v>
@@ -2947,17 +3554,17 @@
       <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
-      <c r="S36" s="12"/>
+      <c r="S36" s="14"/>
       <c r="T36" s="6"/>
       <c r="U36" s="6"/>
       <c r="V36" s="6"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22">
       <c r="A37" s="6">
         <v>200035</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C37" s="6">
         <v>35</v>
@@ -2975,7 +3582,7 @@
         <v>26</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>56</v>
@@ -2999,17 +3606,17 @@
       <c r="P37" s="6"/>
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
-      <c r="S37" s="12"/>
+      <c r="S37" s="14"/>
       <c r="T37" s="6"/>
       <c r="U37" s="6"/>
       <c r="V37" s="6"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22">
       <c r="A38" s="6">
         <v>200036</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C38" s="6">
         <v>36</v>
@@ -3027,7 +3634,7 @@
         <v>26</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>32</v>
@@ -3051,17 +3658,17 @@
       <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
-      <c r="S38" s="12"/>
+      <c r="S38" s="14"/>
       <c r="T38" s="6"/>
       <c r="U38" s="6"/>
       <c r="V38" s="6"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22">
       <c r="A39" s="6">
         <v>200037</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C39" s="6">
         <v>37</v>
@@ -3079,7 +3686,7 @@
         <v>26</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>56</v>
@@ -3103,17 +3710,17 @@
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
-      <c r="S39" s="12"/>
+      <c r="S39" s="14"/>
       <c r="T39" s="6"/>
       <c r="U39" s="6"/>
       <c r="V39" s="6"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22">
       <c r="A40" s="6">
         <v>200038</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C40" s="6">
         <v>38</v>
@@ -3131,7 +3738,7 @@
         <v>26</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>56</v>
@@ -3155,17 +3762,17 @@
       <c r="P40" s="6"/>
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
-      <c r="S40" s="12"/>
+      <c r="S40" s="14"/>
       <c r="T40" s="6"/>
       <c r="U40" s="6"/>
       <c r="V40" s="6"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22">
       <c r="A41" s="6">
         <v>200039</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C41" s="6">
         <v>39</v>
@@ -3183,7 +3790,7 @@
         <v>26</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I41" s="7" t="s">
         <v>56</v>
@@ -3207,17 +3814,17 @@
       <c r="P41" s="6"/>
       <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
-      <c r="S41" s="12"/>
+      <c r="S41" s="14"/>
       <c r="T41" s="6"/>
       <c r="U41" s="6"/>
       <c r="V41" s="6"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22">
       <c r="A42" s="6">
         <v>200040</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C42" s="6">
         <v>40</v>
@@ -3235,7 +3842,7 @@
         <v>26</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>32</v>
@@ -3259,17 +3866,17 @@
       <c r="P42" s="6"/>
       <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
-      <c r="S42" s="12"/>
+      <c r="S42" s="14"/>
       <c r="T42" s="6"/>
       <c r="U42" s="6"/>
       <c r="V42" s="6"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22">
       <c r="A43" s="6">
         <v>200041</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C43" s="6">
         <v>41</v>
@@ -3287,7 +3894,7 @@
         <v>26</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I43" s="7" t="s">
         <v>32</v>
@@ -3311,17 +3918,17 @@
       <c r="P43" s="6"/>
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
-      <c r="S43" s="12"/>
+      <c r="S43" s="14"/>
       <c r="T43" s="6"/>
       <c r="U43" s="6"/>
       <c r="V43" s="6"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22">
       <c r="A44" s="6">
         <v>200042</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C44" s="6">
         <v>42</v>
@@ -3363,17 +3970,17 @@
       <c r="P44" s="6"/>
       <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
-      <c r="S44" s="12"/>
+      <c r="S44" s="14"/>
       <c r="T44" s="6"/>
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22">
       <c r="A45" s="6">
         <v>200043</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C45" s="6">
         <v>43</v>
@@ -3391,10 +3998,10 @@
         <v>26</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>29</v>
@@ -3415,17 +4022,17 @@
       <c r="P45" s="6"/>
       <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
-      <c r="S45" s="12"/>
+      <c r="S45" s="14"/>
       <c r="T45" s="6"/>
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22">
       <c r="A46" s="6">
         <v>200044</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C46" s="6">
         <v>44</v>
@@ -3443,10 +4050,10 @@
         <v>26</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="J46" s="7" t="s">
         <v>29</v>
@@ -3467,17 +4074,17 @@
       <c r="P46" s="6"/>
       <c r="Q46" s="6"/>
       <c r="R46" s="6"/>
-      <c r="S46" s="12"/>
+      <c r="S46" s="14"/>
       <c r="T46" s="6"/>
       <c r="U46" s="6"/>
       <c r="V46" s="6"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22">
       <c r="A47" s="6">
         <v>200045</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C47" s="6">
         <v>45</v>
@@ -3495,7 +4102,7 @@
         <v>26</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I47" s="7" t="s">
         <v>56</v>
@@ -3519,17 +4126,17 @@
       <c r="P47" s="6"/>
       <c r="Q47" s="6"/>
       <c r="R47" s="6"/>
-      <c r="S47" s="12"/>
+      <c r="S47" s="14"/>
       <c r="T47" s="6"/>
       <c r="U47" s="6"/>
       <c r="V47" s="6"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22">
       <c r="A48" s="6">
         <v>200046</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C48" s="6">
         <v>46</v>
@@ -3547,7 +4154,7 @@
         <v>26</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="I48" s="7" t="s">
         <v>56</v>
@@ -3571,17 +4178,17 @@
       <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
       <c r="R48" s="6"/>
-      <c r="S48" s="12"/>
+      <c r="S48" s="14"/>
       <c r="T48" s="6"/>
       <c r="U48" s="6"/>
       <c r="V48" s="6"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22">
       <c r="A49" s="6">
         <v>200047</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C49" s="6">
         <v>47</v>
@@ -3599,7 +4206,7 @@
         <v>26</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I49" s="7" t="s">
         <v>56</v>
@@ -3623,17 +4230,17 @@
       <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
       <c r="R49" s="6"/>
-      <c r="S49" s="12"/>
+      <c r="S49" s="14"/>
       <c r="T49" s="6"/>
       <c r="U49" s="6"/>
       <c r="V49" s="6"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22">
       <c r="A50" s="6">
         <v>200048</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C50" s="6">
         <v>48</v>
@@ -3651,7 +4258,7 @@
         <v>26</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I50" s="7" t="s">
         <v>56</v>
@@ -3675,17 +4282,17 @@
       <c r="P50" s="6"/>
       <c r="Q50" s="6"/>
       <c r="R50" s="6"/>
-      <c r="S50" s="12"/>
+      <c r="S50" s="14"/>
       <c r="T50" s="6"/>
       <c r="U50" s="6"/>
       <c r="V50" s="6"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22">
       <c r="A51" s="6">
         <v>200049</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C51" s="6">
         <v>49</v>
@@ -3703,7 +4310,7 @@
         <v>26</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I51" s="7" t="s">
         <v>56</v>
@@ -3727,17 +4334,17 @@
       <c r="P51" s="6"/>
       <c r="Q51" s="6"/>
       <c r="R51" s="6"/>
-      <c r="S51" s="12"/>
+      <c r="S51" s="14"/>
       <c r="T51" s="6"/>
       <c r="U51" s="6"/>
       <c r="V51" s="6"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22">
       <c r="A52" s="6">
         <v>200050</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C52" s="6">
         <v>50</v>
@@ -3755,7 +4362,7 @@
         <v>26</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I52" s="7" t="s">
         <v>56</v>
@@ -3779,17 +4386,17 @@
       <c r="P52" s="6"/>
       <c r="Q52" s="6"/>
       <c r="R52" s="6"/>
-      <c r="S52" s="12"/>
+      <c r="S52" s="14"/>
       <c r="T52" s="6"/>
       <c r="U52" s="6"/>
       <c r="V52" s="6"/>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:22">
       <c r="A53" s="6">
         <v>200051</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C53" s="6">
         <v>51</v>
@@ -3807,7 +4414,7 @@
         <v>26</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="I53" s="7" t="s">
         <v>56</v>
@@ -3831,17 +4438,17 @@
       <c r="P53" s="6"/>
       <c r="Q53" s="6"/>
       <c r="R53" s="6"/>
-      <c r="S53" s="12"/>
+      <c r="S53" s="14"/>
       <c r="T53" s="6"/>
       <c r="U53" s="6"/>
       <c r="V53" s="6"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22">
       <c r="A54" s="6">
         <v>200052</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C54" s="6">
         <v>52</v>
@@ -3859,7 +4466,7 @@
         <v>26</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I54" s="7" t="s">
         <v>56</v>
@@ -3883,17 +4490,17 @@
       <c r="P54" s="6"/>
       <c r="Q54" s="6"/>
       <c r="R54" s="6"/>
-      <c r="S54" s="12"/>
+      <c r="S54" s="14"/>
       <c r="T54" s="6"/>
       <c r="U54" s="6"/>
       <c r="V54" s="6"/>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22">
       <c r="A55" s="6">
         <v>200053</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C55" s="6">
         <v>53</v>
@@ -3911,10 +4518,10 @@
         <v>26</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J55" s="7" t="s">
         <v>29</v>
@@ -3935,17 +4542,17 @@
       <c r="P55" s="6"/>
       <c r="Q55" s="6"/>
       <c r="R55" s="6"/>
-      <c r="S55" s="12"/>
+      <c r="S55" s="14"/>
       <c r="T55" s="6"/>
       <c r="U55" s="6"/>
       <c r="V55" s="6"/>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22">
       <c r="A56" s="6">
         <v>200054</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C56" s="6">
         <v>54</v>
@@ -3963,10 +4570,10 @@
         <v>26</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J56" s="7" t="s">
         <v>29</v>
@@ -3987,17 +4594,17 @@
       <c r="P56" s="6"/>
       <c r="Q56" s="6"/>
       <c r="R56" s="6"/>
-      <c r="S56" s="12"/>
+      <c r="S56" s="14"/>
       <c r="T56" s="6"/>
       <c r="U56" s="6"/>
       <c r="V56" s="6"/>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22">
       <c r="A57" s="6">
         <v>200055</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C57" s="6">
         <v>55</v>
@@ -4015,10 +4622,10 @@
         <v>26</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>29</v>
@@ -4039,17 +4646,17 @@
       <c r="P57" s="6"/>
       <c r="Q57" s="6"/>
       <c r="R57" s="6"/>
-      <c r="S57" s="12"/>
+      <c r="S57" s="14"/>
       <c r="T57" s="6"/>
       <c r="U57" s="6"/>
       <c r="V57" s="6"/>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22">
       <c r="A58" s="6">
         <v>200056</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C58" s="6">
         <v>56</v>
@@ -4067,7 +4674,7 @@
         <v>26</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="I58" s="7" t="s">
         <v>41</v>
@@ -4091,17 +4698,17 @@
       <c r="P58" s="6"/>
       <c r="Q58" s="6"/>
       <c r="R58" s="6"/>
-      <c r="S58" s="12"/>
+      <c r="S58" s="14"/>
       <c r="T58" s="6"/>
       <c r="U58" s="6"/>
       <c r="V58" s="6"/>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:22">
       <c r="A59" s="6">
         <v>200057</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C59" s="6">
         <v>57</v>
@@ -4119,7 +4726,7 @@
         <v>26</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I59" s="7" t="s">
         <v>56</v>
@@ -4143,17 +4750,17 @@
       <c r="P59" s="6"/>
       <c r="Q59" s="6"/>
       <c r="R59" s="6"/>
-      <c r="S59" s="12"/>
+      <c r="S59" s="14"/>
       <c r="T59" s="6"/>
       <c r="U59" s="6"/>
       <c r="V59" s="6"/>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:22">
       <c r="A60" s="6">
         <v>200058</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C60" s="6">
         <v>58</v>
@@ -4171,7 +4778,7 @@
         <v>26</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I60" s="7" t="s">
         <v>56</v>
@@ -4195,17 +4802,17 @@
       <c r="P60" s="6"/>
       <c r="Q60" s="6"/>
       <c r="R60" s="6"/>
-      <c r="S60" s="12"/>
+      <c r="S60" s="14"/>
       <c r="T60" s="6"/>
       <c r="U60" s="6"/>
       <c r="V60" s="6"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:22">
       <c r="A61" s="6">
         <v>200059</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C61" s="6">
         <v>59</v>
@@ -4223,7 +4830,7 @@
         <v>26</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I61" s="7" t="s">
         <v>56</v>
@@ -4247,610 +4854,610 @@
       <c r="P61" s="6"/>
       <c r="Q61" s="6"/>
       <c r="R61" s="6"/>
-      <c r="S61" s="12"/>
+      <c r="S61" s="14"/>
       <c r="T61" s="6"/>
       <c r="U61" s="6"/>
       <c r="V61" s="6"/>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A62" s="8">
+    <row r="62" spans="1:22">
+      <c r="A62" s="9">
         <v>200060</v>
       </c>
-      <c r="B62" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C62" s="8">
+      <c r="B62" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C62" s="9">
         <v>60</v>
       </c>
-      <c r="D62" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H62" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="I62" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="J62" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K62" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="L62" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M62" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N62" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="O62" s="8"/>
-      <c r="P62" s="8"/>
-      <c r="Q62" s="8"/>
-      <c r="R62" s="8"/>
-      <c r="S62" s="13"/>
-      <c r="T62" s="8"/>
-      <c r="U62" s="8"/>
-      <c r="V62" s="8"/>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A63" s="8">
+      <c r="D62" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H62" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="I62" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="J62" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K62" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L62" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M62" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N62" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O62" s="9"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="15"/>
+      <c r="T62" s="9"/>
+      <c r="U62" s="9"/>
+      <c r="V62" s="9"/>
+    </row>
+    <row r="63" spans="1:22">
+      <c r="A63" s="9">
         <v>200061</v>
       </c>
-      <c r="B63" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C63" s="8">
+      <c r="B63" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C63" s="9">
         <v>61</v>
       </c>
-      <c r="D63" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H63" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="I63" s="9" t="s">
+      <c r="D63" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H63" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="I63" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="J63" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K63" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="L63" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M63" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N63" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="O63" s="8"/>
-      <c r="P63" s="8"/>
-      <c r="Q63" s="8"/>
-      <c r="R63" s="8"/>
-      <c r="S63" s="13"/>
-      <c r="T63" s="8"/>
-      <c r="U63" s="8"/>
-      <c r="V63" s="8"/>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A64" s="8">
+      <c r="J63" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K63" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L63" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M63" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N63" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="9"/>
+      <c r="S63" s="15"/>
+      <c r="T63" s="9"/>
+      <c r="U63" s="9"/>
+      <c r="V63" s="9"/>
+    </row>
+    <row r="64" spans="1:22">
+      <c r="A64" s="9">
         <v>200062</v>
       </c>
-      <c r="B64" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C64" s="8">
+      <c r="B64" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C64" s="9">
         <v>62</v>
       </c>
-      <c r="D64" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G64" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H64" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="I64" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="J64" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K64" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="L64" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M64" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N64" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="O64" s="8"/>
-      <c r="P64" s="8"/>
-      <c r="Q64" s="8"/>
-      <c r="R64" s="8"/>
-      <c r="S64" s="13"/>
-      <c r="T64" s="8"/>
-      <c r="U64" s="8"/>
-      <c r="V64" s="8"/>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A65" s="8">
+      <c r="D64" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H64" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="I64" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J64" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K64" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L64" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M64" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N64" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O64" s="9"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="9"/>
+      <c r="R64" s="9"/>
+      <c r="S64" s="15"/>
+      <c r="T64" s="9"/>
+      <c r="U64" s="9"/>
+      <c r="V64" s="9"/>
+    </row>
+    <row r="65" spans="1:22">
+      <c r="A65" s="9">
         <v>200063</v>
       </c>
-      <c r="B65" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C65" s="8">
+      <c r="B65" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C65" s="9">
         <v>63</v>
       </c>
-      <c r="D65" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H65" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="I65" s="9" t="s">
+      <c r="D65" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H65" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="I65" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="J65" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K65" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="L65" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M65" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N65" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="O65" s="8"/>
-      <c r="P65" s="8"/>
-      <c r="Q65" s="8"/>
-      <c r="R65" s="8"/>
-      <c r="S65" s="13"/>
-      <c r="T65" s="8"/>
-      <c r="U65" s="8"/>
-      <c r="V65" s="8"/>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A66" s="8">
+      <c r="J65" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K65" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L65" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M65" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N65" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="9"/>
+      <c r="S65" s="15"/>
+      <c r="T65" s="9"/>
+      <c r="U65" s="9"/>
+      <c r="V65" s="9"/>
+    </row>
+    <row r="66" spans="1:22">
+      <c r="A66" s="9">
         <v>200064</v>
       </c>
-      <c r="B66" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C66" s="8">
+      <c r="B66" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C66" s="9">
         <v>64</v>
       </c>
-      <c r="D66" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G66" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H66" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="I66" s="9" t="s">
+      <c r="D66" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H66" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="I66" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="J66" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K66" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="L66" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M66" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N66" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="O66" s="8"/>
-      <c r="P66" s="8"/>
-      <c r="Q66" s="8"/>
-      <c r="R66" s="8"/>
-      <c r="S66" s="13"/>
-      <c r="T66" s="8"/>
-      <c r="U66" s="8"/>
-      <c r="V66" s="8"/>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A67" s="14">
+      <c r="J66" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K66" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L66" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M66" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N66" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O66" s="9"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="9"/>
+      <c r="R66" s="9"/>
+      <c r="S66" s="15"/>
+      <c r="T66" s="9"/>
+      <c r="U66" s="9"/>
+      <c r="V66" s="9"/>
+    </row>
+    <row r="67" spans="1:22">
+      <c r="A67" s="16">
         <v>200065</v>
       </c>
-      <c r="B67" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="C67" s="14">
+      <c r="B67" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C67" s="16">
         <v>65</v>
       </c>
-      <c r="D67" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E67" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F67" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G67" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H67" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="I67" s="15" t="s">
+      <c r="D67" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F67" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G67" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H67" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="I67" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="J67" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K67" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="L67" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="M67" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="N67" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="O67" s="14"/>
-      <c r="P67" s="14"/>
-      <c r="Q67" s="14"/>
-      <c r="R67" s="14"/>
-      <c r="S67" s="20"/>
-      <c r="T67" s="14"/>
-      <c r="U67" s="14"/>
-      <c r="V67" s="8"/>
-    </row>
-    <row r="68" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="16">
+      <c r="J67" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K67" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="L67" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M67" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="N67" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="O67" s="16"/>
+      <c r="P67" s="16"/>
+      <c r="Q67" s="16"/>
+      <c r="R67" s="16"/>
+      <c r="S67" s="22"/>
+      <c r="T67" s="16"/>
+      <c r="U67" s="16"/>
+      <c r="V67" s="9"/>
+    </row>
+    <row r="68" s="1" customFormat="1" spans="1:22">
+      <c r="A68" s="18">
         <v>200066</v>
       </c>
-      <c r="B68" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="C68" s="16">
+      <c r="B68" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C68" s="18">
         <v>66</v>
       </c>
-      <c r="D68" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F68" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G68" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H68" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="I68" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="J68" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="K68" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="L68" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="M68" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="N68" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="O68" s="16"/>
-      <c r="P68" s="16"/>
-      <c r="Q68" s="16"/>
-      <c r="R68" s="16"/>
-      <c r="S68" s="16"/>
-      <c r="T68" s="16"/>
-      <c r="U68" s="16"/>
-      <c r="V68" s="16"/>
-    </row>
-    <row r="69" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="16">
+      <c r="D68" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E68" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F68" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G68" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H68" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="I68" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="J68" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="K68" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="L68" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="M68" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="N68" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O68" s="18"/>
+      <c r="P68" s="18"/>
+      <c r="Q68" s="18"/>
+      <c r="R68" s="18"/>
+      <c r="S68" s="18"/>
+      <c r="T68" s="18"/>
+      <c r="U68" s="18"/>
+      <c r="V68" s="18"/>
+    </row>
+    <row r="69" s="1" customFormat="1" spans="1:22">
+      <c r="A69" s="18">
         <v>200067</v>
       </c>
-      <c r="B69" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="C69" s="16">
+      <c r="B69" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="C69" s="18">
         <v>67</v>
       </c>
-      <c r="D69" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E69" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F69" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G69" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H69" s="23" t="s">
+      <c r="D69" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E69" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F69" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G69" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H69" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="I69" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="I69" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="J69" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="K69" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="L69" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="M69" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="N69" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="O69" s="16"/>
-      <c r="P69" s="16"/>
-      <c r="Q69" s="16"/>
-      <c r="R69" s="16"/>
-      <c r="S69" s="16"/>
-      <c r="T69" s="16"/>
-      <c r="U69" s="16"/>
-      <c r="V69" s="16"/>
-    </row>
-    <row r="70" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="16">
+      <c r="J69" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="K69" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="L69" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="M69" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="N69" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O69" s="18"/>
+      <c r="P69" s="18"/>
+      <c r="Q69" s="18"/>
+      <c r="R69" s="18"/>
+      <c r="S69" s="18"/>
+      <c r="T69" s="18"/>
+      <c r="U69" s="18"/>
+      <c r="V69" s="18"/>
+    </row>
+    <row r="70" s="1" customFormat="1" spans="1:22">
+      <c r="A70" s="18">
         <v>200068</v>
       </c>
-      <c r="B70" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="C70" s="16">
+      <c r="B70" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C70" s="18">
         <v>68</v>
       </c>
-      <c r="D70" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E70" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F70" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G70" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H70" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="I70" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="J70" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="K70" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="L70" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="M70" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="N70" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="O70" s="16"/>
-      <c r="P70" s="16"/>
-      <c r="Q70" s="16"/>
-      <c r="R70" s="16"/>
-      <c r="S70" s="16"/>
-      <c r="T70" s="16"/>
-      <c r="U70" s="16"/>
-      <c r="V70" s="16"/>
-    </row>
-    <row r="71" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="16">
+      <c r="D70" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E70" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F70" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G70" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H70" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="I70" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="J70" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="K70" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="L70" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="M70" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="N70" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O70" s="18"/>
+      <c r="P70" s="18"/>
+      <c r="Q70" s="18"/>
+      <c r="R70" s="18"/>
+      <c r="S70" s="18"/>
+      <c r="T70" s="18"/>
+      <c r="U70" s="18"/>
+      <c r="V70" s="18"/>
+    </row>
+    <row r="71" s="1" customFormat="1" spans="1:22">
+      <c r="A71" s="18">
         <v>200069</v>
       </c>
-      <c r="B71" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="C71" s="16">
+      <c r="B71" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C71" s="18">
         <v>69</v>
       </c>
-      <c r="D71" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E71" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F71" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G71" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H71" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="I71" s="16" t="s">
+      <c r="D71" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E71" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F71" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G71" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H71" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="J71" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="K71" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="L71" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="M71" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="N71" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="O71" s="16"/>
-      <c r="P71" s="16"/>
-      <c r="Q71" s="16"/>
-      <c r="R71" s="16"/>
-      <c r="S71" s="16"/>
-      <c r="T71" s="16"/>
-      <c r="U71" s="16"/>
-      <c r="V71" s="16"/>
-    </row>
-    <row r="72" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="16">
+      <c r="I71" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="J71" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="K71" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="L71" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="M71" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="N71" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O71" s="18"/>
+      <c r="P71" s="18"/>
+      <c r="Q71" s="18"/>
+      <c r="R71" s="18"/>
+      <c r="S71" s="18"/>
+      <c r="T71" s="18"/>
+      <c r="U71" s="18"/>
+      <c r="V71" s="18"/>
+    </row>
+    <row r="72" s="1" customFormat="1" spans="1:22">
+      <c r="A72" s="18">
         <v>200070</v>
       </c>
-      <c r="B72" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="C72" s="16">
+      <c r="B72" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="C72" s="18">
         <v>70</v>
       </c>
-      <c r="D72" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E72" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F72" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G72" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H72" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="I72" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="J72" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="K72" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="L72" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="M72" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="N72" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="O72" s="16"/>
-      <c r="P72" s="16"/>
-      <c r="Q72" s="16"/>
-      <c r="R72" s="16"/>
-      <c r="S72" s="16"/>
-      <c r="T72" s="16"/>
-      <c r="U72" s="16"/>
-      <c r="V72" s="16"/>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A73" s="16">
+      <c r="D72" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E72" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F72" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G72" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H72" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="I72" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="J72" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="K72" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="L72" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="M72" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="N72" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O72" s="18"/>
+      <c r="P72" s="18"/>
+      <c r="Q72" s="18"/>
+      <c r="R72" s="18"/>
+      <c r="S72" s="18"/>
+      <c r="T72" s="18"/>
+      <c r="U72" s="18"/>
+      <c r="V72" s="18"/>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="18">
         <v>200071</v>
       </c>
-      <c r="B73" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="C73" s="16">
+      <c r="B73" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C73" s="18">
         <v>71</v>
       </c>
-      <c r="D73" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E73" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F73" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G73" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H73" s="24" t="s">
-        <v>183</v>
+      <c r="D73" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E73" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F73" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G73" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H73" s="26" t="s">
+        <v>186</v>
       </c>
       <c r="I73" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -4864,34 +5471,37 @@
       <c r="M73">
         <v>1</v>
       </c>
-      <c r="N73" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="18">
+      <c r="N73" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" s="2" customFormat="1" spans="1:14">
+      <c r="A74" s="20">
         <v>200071</v>
       </c>
-      <c r="B74" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="C74" s="18">
+      <c r="B74" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C74" s="20">
         <v>71</v>
       </c>
-      <c r="D74" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E74" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F74" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G74" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H74" s="25" t="s">
-        <v>185</v>
+      <c r="D74" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E74" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F74" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G74" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H74" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="J74" s="2">
         <v>1</v>
@@ -4905,21 +5515,65 @@
       <c r="M74" s="2">
         <v>1</v>
       </c>
-      <c r="N74" s="18" t="s">
+      <c r="N74" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" s="2" customFormat="1" spans="1:14">
+      <c r="A75" s="20">
+        <v>200071</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C75" s="20">
+        <v>71</v>
+      </c>
+      <c r="D75" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E75" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F75" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G75" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H75" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J75" s="2">
+        <v>1</v>
+      </c>
+      <c r="K75" s="2">
+        <v>1</v>
+      </c>
+      <c r="L75" s="2">
+        <v>1</v>
+      </c>
+      <c r="M75" s="2">
+        <v>1</v>
+      </c>
+      <c r="N75" s="20" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1 R2 R3:R67" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1 R2 R3:R67">
       <formula1>"'==,&gt;,&lt;,&gt;=,&lt;="</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1">
       <formula1>"等于,大于,小于,大于等于,小于等于"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/customerView/客户视图.xlsx
+++ b/src/customerView/客户视图.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="194">
   <si>
     <t>CV 客户视图</t>
   </si>
@@ -210,24 +210,24 @@
     <t>00502102</t>
   </si>
   <si>
+    <t>CV00015</t>
+  </si>
+  <si>
+    <t>00502104</t>
+  </si>
+  <si>
+    <t>custom-selector_3</t>
+  </si>
+  <si>
+    <t>CV00016</t>
+  </si>
+  <si>
+    <t>00502201</t>
+  </si>
+  <si>
     <t>custom-selector_6</t>
   </si>
   <si>
-    <t>CV00015</t>
-  </si>
-  <si>
-    <t>00502104</t>
-  </si>
-  <si>
-    <t>custom-selector_3</t>
-  </si>
-  <si>
-    <t>CV00016</t>
-  </si>
-  <si>
-    <t>00502201</t>
-  </si>
-  <si>
     <t>CV00017</t>
   </si>
   <si>
@@ -549,6 +549,9 @@
     <t>0</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>CV00067</t>
   </si>
   <si>
@@ -592,6 +595,12 @@
   </si>
   <si>
     <t>00101001_1</t>
+  </si>
+  <si>
+    <t>CV00072</t>
+  </si>
+  <si>
+    <t>00502202</t>
   </si>
 </sst>
 </file>
@@ -627,16 +636,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -651,14 +674,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -673,6 +719,13 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -680,8 +733,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -689,45 +751,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -741,29 +765,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -810,13 +819,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,31 +849,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,31 +879,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,13 +909,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -924,7 +933,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,31 +987,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,26 +997,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1040,16 +1049,32 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1080,11 +1105,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1092,23 +1130,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1128,11 +1151,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1142,10 +1171,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1154,137 +1183,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1319,8 +1348,15 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1329,8 +1365,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1650,10 +1686,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V75"/>
+  <dimension ref="A1:V76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="K78" sqref="K78"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2493,7 +2529,7 @@
         <v>62</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>29</v>
@@ -2524,7 +2560,7 @@
         <v>200015</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" s="6">
         <v>15</v>
@@ -2542,10 +2578,10 @@
         <v>26</v>
       </c>
       <c r="H17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>29</v>
@@ -2576,7 +2612,7 @@
         <v>200016</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="6">
         <v>16</v>
@@ -2594,10 +2630,10 @@
         <v>26</v>
       </c>
       <c r="H18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>29</v>
@@ -2649,7 +2685,7 @@
         <v>70</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>29</v>
@@ -3269,7 +3305,7 @@
       <c r="G31" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H31" s="23" t="s">
+      <c r="H31" s="28" t="s">
         <v>95</v>
       </c>
       <c r="I31" s="7" t="s">
@@ -3321,7 +3357,7 @@
       <c r="G32" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H32" s="23" t="s">
+      <c r="H32" s="28" t="s">
         <v>97</v>
       </c>
       <c r="I32" s="7" t="s">
@@ -3373,7 +3409,7 @@
       <c r="G33" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H33" s="23" t="s">
+      <c r="H33" s="28" t="s">
         <v>99</v>
       </c>
       <c r="I33" s="7" t="s">
@@ -4881,7 +4917,7 @@
       <c r="G62" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H62" s="24" t="s">
+      <c r="H62" s="29" t="s">
         <v>160</v>
       </c>
       <c r="I62" s="10" t="s">
@@ -4933,7 +4969,7 @@
       <c r="G63" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H63" s="24" t="s">
+      <c r="H63" s="29" t="s">
         <v>163</v>
       </c>
       <c r="I63" s="10" t="s">
@@ -4985,7 +5021,7 @@
       <c r="G64" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H64" s="24" t="s">
+      <c r="H64" s="29" t="s">
         <v>165</v>
       </c>
       <c r="I64" s="10" t="s">
@@ -5037,7 +5073,7 @@
       <c r="G65" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H65" s="24" t="s">
+      <c r="H65" s="29" t="s">
         <v>167</v>
       </c>
       <c r="I65" s="10" t="s">
@@ -5089,7 +5125,7 @@
       <c r="G66" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H66" s="24" t="s">
+      <c r="H66" s="29" t="s">
         <v>169</v>
       </c>
       <c r="I66" s="10" t="s">
@@ -5141,7 +5177,7 @@
       <c r="G67" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H67" s="24" t="s">
+      <c r="H67" s="29" t="s">
         <v>171</v>
       </c>
       <c r="I67" s="17" t="s">
@@ -5166,7 +5202,7 @@
       <c r="P67" s="16"/>
       <c r="Q67" s="16"/>
       <c r="R67" s="16"/>
-      <c r="S67" s="22"/>
+      <c r="S67" s="27"/>
       <c r="T67" s="16"/>
       <c r="U67" s="16"/>
       <c r="V67" s="9"/>
@@ -5193,7 +5229,7 @@
       <c r="G68" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H68" s="25" t="s">
+      <c r="H68" s="30" t="s">
         <v>173</v>
       </c>
       <c r="I68" s="18" t="s">
@@ -5206,7 +5242,7 @@
         <v>175</v>
       </c>
       <c r="L68" s="19" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="M68" s="19" t="s">
         <v>29</v>
@@ -5228,7 +5264,7 @@
         <v>200067</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C69" s="18">
         <v>67</v>
@@ -5245,8 +5281,8 @@
       <c r="G69" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H69" s="25" t="s">
-        <v>177</v>
+      <c r="H69" s="30" t="s">
+        <v>178</v>
       </c>
       <c r="I69" s="18" t="s">
         <v>174</v>
@@ -5280,7 +5316,7 @@
         <v>200068</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C70" s="18">
         <v>68</v>
@@ -5297,11 +5333,11 @@
       <c r="G70" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H70" s="25" t="s">
-        <v>179</v>
+      <c r="H70" s="30" t="s">
+        <v>180</v>
       </c>
       <c r="I70" s="18" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J70" s="19" t="s">
         <v>29</v>
@@ -5332,7 +5368,7 @@
         <v>200069</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C71" s="18">
         <v>69</v>
@@ -5349,11 +5385,11 @@
       <c r="G71" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H71" s="25" t="s">
-        <v>179</v>
+      <c r="H71" s="30" t="s">
+        <v>180</v>
       </c>
       <c r="I71" s="18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J71" s="19" t="s">
         <v>29</v>
@@ -5384,7 +5420,7 @@
         <v>200070</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C72" s="18">
         <v>70</v>
@@ -5401,8 +5437,8 @@
       <c r="G72" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H72" s="25" t="s">
-        <v>184</v>
+      <c r="H72" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="I72" s="18" t="s">
         <v>174</v>
@@ -5436,7 +5472,7 @@
         <v>200071</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C73" s="18">
         <v>71</v>
@@ -5453,113 +5489,157 @@
       <c r="G73" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H73" s="26" t="s">
+      <c r="H73" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="I73" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="J73" s="20">
+        <v>1</v>
+      </c>
+      <c r="K73" s="20">
+        <v>1</v>
+      </c>
+      <c r="L73" s="20">
+        <v>1</v>
+      </c>
+      <c r="M73" s="20">
+        <v>1</v>
+      </c>
+      <c r="N73" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" s="2" customFormat="1" spans="1:14">
+      <c r="A74" s="21">
+        <v>200071</v>
+      </c>
+      <c r="B74" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="I73" t="s">
-        <v>187</v>
-      </c>
-      <c r="J73">
+      <c r="C74" s="21">
+        <v>71</v>
+      </c>
+      <c r="D74" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E74" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F74" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G74" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H74" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="I74" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="J74" s="23">
         <v>1</v>
       </c>
-      <c r="K73">
+      <c r="K74" s="23">
         <v>1</v>
       </c>
-      <c r="L73">
+      <c r="L74" s="23">
         <v>1</v>
       </c>
-      <c r="M73">
+      <c r="M74" s="23">
         <v>1</v>
       </c>
-      <c r="N73" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="74" s="2" customFormat="1" spans="1:14">
-      <c r="A74" s="20">
+      <c r="N74" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" s="2" customFormat="1" spans="1:14">
+      <c r="A75" s="21">
         <v>200071</v>
       </c>
-      <c r="B74" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="C74" s="20">
+      <c r="B75" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="C75" s="21">
         <v>71</v>
       </c>
-      <c r="D74" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E74" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F74" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G74" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H74" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="J74" s="2">
+      <c r="D75" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E75" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F75" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G75" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H75" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="I75" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="J75" s="23">
         <v>1</v>
       </c>
-      <c r="K74" s="2">
+      <c r="K75" s="23">
         <v>1</v>
       </c>
-      <c r="L74" s="2">
+      <c r="L75" s="23">
         <v>1</v>
       </c>
-      <c r="M74" s="2">
+      <c r="M75" s="23">
         <v>1</v>
       </c>
-      <c r="N74" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="75" s="2" customFormat="1" spans="1:14">
-      <c r="A75" s="20">
+      <c r="N75" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" customFormat="1" spans="1:14">
+      <c r="A76" s="24">
         <v>200071</v>
       </c>
-      <c r="B75" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="C75" s="20">
-        <v>71</v>
-      </c>
-      <c r="D75" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E75" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F75" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G75" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H75" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="J75" s="2">
+      <c r="B76" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="C76" s="24">
+        <v>72</v>
+      </c>
+      <c r="D76" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E76" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F76" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G76" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H76" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="I76" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="J76">
         <v>1</v>
       </c>
-      <c r="K75" s="2">
+      <c r="K76">
         <v>1</v>
       </c>
-      <c r="L75" s="2">
+      <c r="L76">
         <v>1</v>
       </c>
-      <c r="M75" s="2">
+      <c r="M76">
         <v>1</v>
       </c>
-      <c r="N75" s="20" t="s">
+      <c r="N76" s="24" t="s">
         <v>30</v>
       </c>
     </row>

--- a/src/customerView/客户视图.xlsx
+++ b/src/customerView/客户视图.xlsx
@@ -608,10 +608,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -636,13 +636,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -651,6 +645,28 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -665,48 +681,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -726,8 +712,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -741,9 +758,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -757,24 +773,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -819,7 +819,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,25 +879,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,133 +987,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1079,15 +1079,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1107,7 +1098,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1130,8 +1121,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1147,6 +1138,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1171,10 +1171,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1183,133 +1183,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1688,8 +1688,8 @@
   <sheetPr/>
   <dimension ref="A1:V76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4713,7 +4713,7 @@
         <v>152</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="J58" s="7" t="s">
         <v>29</v>

--- a/src/customerView/客户视图.xlsx
+++ b/src/customerView/客户视图.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="194">
   <si>
     <t>CV 客户视图</t>
   </si>
@@ -591,9 +591,6 @@
     <t>00101001</t>
   </si>
   <si>
-    <t>refref</t>
-  </si>
-  <si>
     <t>00101001_1</t>
   </si>
   <si>
@@ -601,6 +598,9 @@
   </si>
   <si>
     <t>00502202</t>
+  </si>
+  <si>
+    <t>00103003</t>
   </si>
 </sst>
 </file>
@@ -608,10 +608,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -636,46 +636,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -688,11 +650,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -721,7 +682,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -729,6 +690,59 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -758,25 +772,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -819,55 +819,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,7 +843,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,19 +945,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,19 +957,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -945,13 +975,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,37 +993,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1070,11 +1070,33 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1096,24 +1118,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1122,7 +1131,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1142,26 +1151,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1171,10 +1171,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1183,133 +1183,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1686,10 +1686,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V76"/>
+  <dimension ref="A1:V77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5537,7 +5537,7 @@
         <v>189</v>
       </c>
       <c r="I74" s="23" t="s">
-        <v>190</v>
+        <v>56</v>
       </c>
       <c r="J74" s="23">
         <v>1</v>
@@ -5578,10 +5578,10 @@
         <v>26</v>
       </c>
       <c r="H75" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I75" s="23" t="s">
-        <v>190</v>
+        <v>56</v>
       </c>
       <c r="J75" s="23">
         <v>1</v>
@@ -5604,7 +5604,7 @@
         <v>200071</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C76" s="24">
         <v>72</v>
@@ -5622,7 +5622,7 @@
         <v>26</v>
       </c>
       <c r="H76" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I76" s="26" t="s">
         <v>46</v>
@@ -5640,6 +5640,50 @@
         <v>1</v>
       </c>
       <c r="N76" s="24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" customFormat="1" spans="1:14">
+      <c r="A77" s="24">
+        <v>200071</v>
+      </c>
+      <c r="B77" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="C77" s="24">
+        <v>72</v>
+      </c>
+      <c r="D77" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E77" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F77" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G77" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H77" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="I77" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77" s="24" t="s">
         <v>30</v>
       </c>
     </row>

--- a/src/customerView/客户视图.xlsx
+++ b/src/customerView/客户视图.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="195">
   <si>
     <t>CV 客户视图</t>
   </si>
@@ -601,6 +601,9 @@
   </si>
   <si>
     <t>00103003</t>
+  </si>
+  <si>
+    <t>aui-button_submit</t>
   </si>
 </sst>
 </file>
@@ -637,6 +640,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -644,14 +654,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -682,67 +722,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -766,7 +746,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -777,6 +757,29 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -819,7 +822,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,7 +924,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,13 +942,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,13 +972,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,121 +990,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1071,32 +1074,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1116,26 +1095,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1147,6 +1106,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1165,16 +1142,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1183,133 +1186,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1367,6 +1370,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1686,10 +1690,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V77"/>
+  <dimension ref="A1:V78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1775,7 +1779,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" ht="20.25" spans="1:22">
       <c r="A2" s="6">
         <v>200001</v>
       </c>
@@ -1818,8 +1822,8 @@
       <c r="N2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
       <c r="S2" s="14"/>
@@ -1835,7 +1839,7 @@
         <v>22</v>
       </c>
       <c r="C3" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>23</v>
@@ -1887,7 +1891,7 @@
         <v>33</v>
       </c>
       <c r="C4" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>23</v>
@@ -1939,7 +1943,7 @@
         <v>35</v>
       </c>
       <c r="C5" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>23</v>
@@ -1991,7 +1995,7 @@
         <v>37</v>
       </c>
       <c r="C6" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>23</v>
@@ -2043,7 +2047,7 @@
         <v>39</v>
       </c>
       <c r="C7" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>23</v>
@@ -2095,7 +2099,7 @@
         <v>42</v>
       </c>
       <c r="C8" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>23</v>
@@ -2147,7 +2151,7 @@
         <v>44</v>
       </c>
       <c r="C9" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>23</v>
@@ -2199,7 +2203,7 @@
         <v>47</v>
       </c>
       <c r="C10" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>23</v>
@@ -2251,7 +2255,7 @@
         <v>49</v>
       </c>
       <c r="C11" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>23</v>
@@ -2303,7 +2307,7 @@
         <v>51</v>
       </c>
       <c r="C12" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>23</v>
@@ -2355,7 +2359,7 @@
         <v>54</v>
       </c>
       <c r="C13" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>23</v>
@@ -2407,7 +2411,7 @@
         <v>57</v>
       </c>
       <c r="C14" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>23</v>
@@ -2459,7 +2463,7 @@
         <v>59</v>
       </c>
       <c r="C15" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>23</v>
@@ -2511,7 +2515,7 @@
         <v>61</v>
       </c>
       <c r="C16" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>23</v>
@@ -2563,7 +2567,7 @@
         <v>63</v>
       </c>
       <c r="C17" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>23</v>
@@ -2615,7 +2619,7 @@
         <v>66</v>
       </c>
       <c r="C18" s="6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>23</v>
@@ -2667,7 +2671,7 @@
         <v>69</v>
       </c>
       <c r="C19" s="6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>23</v>
@@ -2719,7 +2723,7 @@
         <v>71</v>
       </c>
       <c r="C20" s="6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>23</v>
@@ -2771,7 +2775,7 @@
         <v>74</v>
       </c>
       <c r="C21" s="6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>23</v>
@@ -2823,7 +2827,7 @@
         <v>76</v>
       </c>
       <c r="C22" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>23</v>
@@ -2875,7 +2879,7 @@
         <v>78</v>
       </c>
       <c r="C23" s="6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>23</v>
@@ -2927,7 +2931,7 @@
         <v>80</v>
       </c>
       <c r="C24" s="6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>23</v>
@@ -2979,7 +2983,7 @@
         <v>83</v>
       </c>
       <c r="C25" s="6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>23</v>
@@ -3031,7 +3035,7 @@
         <v>85</v>
       </c>
       <c r="C26" s="6">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>23</v>
@@ -3083,7 +3087,7 @@
         <v>87</v>
       </c>
       <c r="C27" s="6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>23</v>
@@ -3135,7 +3139,7 @@
         <v>89</v>
       </c>
       <c r="C28" s="6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>23</v>
@@ -3187,7 +3191,7 @@
         <v>90</v>
       </c>
       <c r="C29" s="6">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>23</v>
@@ -3239,7 +3243,7 @@
         <v>92</v>
       </c>
       <c r="C30" s="6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>23</v>
@@ -3291,7 +3295,7 @@
         <v>94</v>
       </c>
       <c r="C31" s="6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>23</v>
@@ -3343,7 +3347,7 @@
         <v>96</v>
       </c>
       <c r="C32" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>23</v>
@@ -3395,7 +3399,7 @@
         <v>98</v>
       </c>
       <c r="C33" s="6">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>23</v>
@@ -3447,7 +3451,7 @@
         <v>100</v>
       </c>
       <c r="C34" s="6">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>23</v>
@@ -3499,7 +3503,7 @@
         <v>103</v>
       </c>
       <c r="C35" s="6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>23</v>
@@ -3551,7 +3555,7 @@
         <v>106</v>
       </c>
       <c r="C36" s="6">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>23</v>
@@ -3603,7 +3607,7 @@
         <v>108</v>
       </c>
       <c r="C37" s="6">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>23</v>
@@ -3655,7 +3659,7 @@
         <v>110</v>
       </c>
       <c r="C38" s="6">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>23</v>
@@ -3707,7 +3711,7 @@
         <v>112</v>
       </c>
       <c r="C39" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>23</v>
@@ -3759,7 +3763,7 @@
         <v>114</v>
       </c>
       <c r="C40" s="6">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>23</v>
@@ -3811,7 +3815,7 @@
         <v>116</v>
       </c>
       <c r="C41" s="6">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>23</v>
@@ -3863,7 +3867,7 @@
         <v>118</v>
       </c>
       <c r="C42" s="6">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>23</v>
@@ -3915,7 +3919,7 @@
         <v>120</v>
       </c>
       <c r="C43" s="6">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>23</v>
@@ -3967,7 +3971,7 @@
         <v>122</v>
       </c>
       <c r="C44" s="6">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>23</v>
@@ -4019,7 +4023,7 @@
         <v>123</v>
       </c>
       <c r="C45" s="6">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>23</v>
@@ -4071,7 +4075,7 @@
         <v>126</v>
       </c>
       <c r="C46" s="6">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>23</v>
@@ -4123,7 +4127,7 @@
         <v>128</v>
       </c>
       <c r="C47" s="6">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>23</v>
@@ -4175,7 +4179,7 @@
         <v>130</v>
       </c>
       <c r="C48" s="6">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>23</v>
@@ -4227,7 +4231,7 @@
         <v>132</v>
       </c>
       <c r="C49" s="6">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>23</v>
@@ -4279,7 +4283,7 @@
         <v>134</v>
       </c>
       <c r="C50" s="6">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>23</v>
@@ -4331,7 +4335,7 @@
         <v>136</v>
       </c>
       <c r="C51" s="6">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>23</v>
@@ -4383,7 +4387,7 @@
         <v>138</v>
       </c>
       <c r="C52" s="6">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>23</v>
@@ -4435,7 +4439,7 @@
         <v>140</v>
       </c>
       <c r="C53" s="6">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>23</v>
@@ -4487,7 +4491,7 @@
         <v>142</v>
       </c>
       <c r="C54" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>23</v>
@@ -4539,7 +4543,7 @@
         <v>144</v>
       </c>
       <c r="C55" s="6">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>23</v>
@@ -4591,7 +4595,7 @@
         <v>147</v>
       </c>
       <c r="C56" s="6">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>23</v>
@@ -4643,7 +4647,7 @@
         <v>149</v>
       </c>
       <c r="C57" s="6">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>23</v>
@@ -4695,7 +4699,7 @@
         <v>151</v>
       </c>
       <c r="C58" s="6">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>23</v>
@@ -4747,7 +4751,7 @@
         <v>153</v>
       </c>
       <c r="C59" s="6">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>23</v>
@@ -4799,7 +4803,7 @@
         <v>155</v>
       </c>
       <c r="C60" s="6">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>23</v>
@@ -4851,7 +4855,7 @@
         <v>157</v>
       </c>
       <c r="C61" s="6">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>23</v>
@@ -4902,8 +4906,8 @@
       <c r="B62" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C62" s="9">
-        <v>60</v>
+      <c r="C62" s="6">
+        <v>61</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>23</v>
@@ -4954,8 +4958,8 @@
       <c r="B63" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C63" s="9">
-        <v>61</v>
+      <c r="C63" s="6">
+        <v>62</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>23</v>
@@ -5006,8 +5010,8 @@
       <c r="B64" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C64" s="9">
-        <v>62</v>
+      <c r="C64" s="6">
+        <v>63</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>23</v>
@@ -5058,8 +5062,8 @@
       <c r="B65" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C65" s="9">
-        <v>63</v>
+      <c r="C65" s="6">
+        <v>64</v>
       </c>
       <c r="D65" s="9" t="s">
         <v>23</v>
@@ -5110,8 +5114,8 @@
       <c r="B66" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C66" s="9">
-        <v>64</v>
+      <c r="C66" s="6">
+        <v>65</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>23</v>
@@ -5162,8 +5166,8 @@
       <c r="B67" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C67" s="16">
-        <v>65</v>
+      <c r="C67" s="6">
+        <v>66</v>
       </c>
       <c r="D67" s="16" t="s">
         <v>23</v>
@@ -5214,8 +5218,8 @@
       <c r="B68" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="C68" s="18">
-        <v>66</v>
+      <c r="C68" s="6">
+        <v>67</v>
       </c>
       <c r="D68" s="18" t="s">
         <v>23</v>
@@ -5266,8 +5270,8 @@
       <c r="B69" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="C69" s="18">
-        <v>67</v>
+      <c r="C69" s="6">
+        <v>68</v>
       </c>
       <c r="D69" s="18" t="s">
         <v>23</v>
@@ -5318,8 +5322,8 @@
       <c r="B70" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="C70" s="18">
-        <v>68</v>
+      <c r="C70" s="6">
+        <v>69</v>
       </c>
       <c r="D70" s="18" t="s">
         <v>23</v>
@@ -5370,8 +5374,8 @@
       <c r="B71" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="C71" s="18">
-        <v>69</v>
+      <c r="C71" s="6">
+        <v>70</v>
       </c>
       <c r="D71" s="18" t="s">
         <v>23</v>
@@ -5422,8 +5426,8 @@
       <c r="B72" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="C72" s="18">
-        <v>70</v>
+      <c r="C72" s="6">
+        <v>71</v>
       </c>
       <c r="D72" s="18" t="s">
         <v>23</v>
@@ -5474,8 +5478,8 @@
       <c r="B73" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="C73" s="18">
-        <v>71</v>
+      <c r="C73" s="6">
+        <v>72</v>
       </c>
       <c r="D73" s="18" t="s">
         <v>23</v>
@@ -5518,8 +5522,8 @@
       <c r="B74" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="C74" s="21">
-        <v>71</v>
+      <c r="C74" s="6">
+        <v>73</v>
       </c>
       <c r="D74" s="21" t="s">
         <v>23</v>
@@ -5562,8 +5566,8 @@
       <c r="B75" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="C75" s="21">
-        <v>71</v>
+      <c r="C75" s="6">
+        <v>74</v>
       </c>
       <c r="D75" s="21" t="s">
         <v>23</v>
@@ -5606,8 +5610,8 @@
       <c r="B76" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="C76" s="24">
-        <v>72</v>
+      <c r="C76" s="6">
+        <v>75</v>
       </c>
       <c r="D76" s="21" t="s">
         <v>23</v>
@@ -5650,8 +5654,8 @@
       <c r="B77" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="C77" s="24">
-        <v>72</v>
+      <c r="C77" s="6">
+        <v>76</v>
       </c>
       <c r="D77" s="21" t="s">
         <v>23</v>
@@ -5684,6 +5688,50 @@
         <v>1</v>
       </c>
       <c r="N77" s="24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="24">
+        <v>200071</v>
+      </c>
+      <c r="B78" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="C78" s="6">
+        <v>77</v>
+      </c>
+      <c r="D78" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E78" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F78" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G78" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H78" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="I78" t="s">
+        <v>194</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78" s="24" t="s">
         <v>30</v>
       </c>
     </row>

--- a/src/customerView/客户视图.xlsx
+++ b/src/customerView/客户视图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9515"/>
+    <workbookView windowWidth="22368" windowHeight="9924"/>
   </bookViews>
   <sheets>
     <sheet name="客户视图" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216">
   <si>
     <t>CV 客户视图</t>
   </si>
@@ -653,6 +653,9 @@
   </si>
   <si>
     <t>00103005</t>
+  </si>
+  <si>
+    <t>input-cstnm</t>
   </si>
   <si>
     <t>CV00077</t>
@@ -673,9 +676,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -711,11 +714,48 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -727,9 +767,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -751,83 +799,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -835,6 +807,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -850,6 +830,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -882,7 +885,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -894,49 +903,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,7 +921,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,7 +1053,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -978,91 +1065,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1108,6 +1111,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1128,30 +1140,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1167,16 +1155,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1201,16 +1189,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1219,133 +1222,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1755,10 +1758,10 @@
   <sheetPr/>
   <dimension ref="A1:V85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J87" sqref="J87"/>
+      <selection pane="bottomLeft" activeCell="K87" sqref="K87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -6142,16 +6145,16 @@
         <v>210</v>
       </c>
       <c r="I84" s="34" t="s">
-        <v>56</v>
+        <v>211</v>
       </c>
       <c r="J84" s="35" t="s">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="K84" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L84" s="37" t="s">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="M84" s="37" t="s">
         <v>29</v>
@@ -6165,7 +6168,7 @@
         <v>200076</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C85" s="7">
         <v>83</v>
@@ -6183,7 +6186,7 @@
         <v>26</v>
       </c>
       <c r="H85" s="43" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I85" s="34" t="s">
         <v>56</v>
@@ -6242,7 +6245,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="24" customHeight="1" spans="1:12">
@@ -6288,7 +6291,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/src/customerView/客户视图.xlsx
+++ b/src/customerView/客户视图.xlsx
@@ -10,12 +10,15 @@
     <sheet name="客户视图" sheetId="1" r:id="rId1"/>
     <sheet name="填写说明" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户视图!$A$1:$V$85</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212">
   <si>
     <t>CV 客户视图</t>
   </si>
@@ -598,70 +601,58 @@
     <t>CV00072</t>
   </si>
   <si>
+    <t>00103003</t>
+  </si>
+  <si>
+    <t>CV00073</t>
+  </si>
+  <si>
+    <t>CV00074</t>
+  </si>
+  <si>
+    <t>00103002</t>
+  </si>
+  <si>
+    <t>custom-input_acctNo</t>
+  </si>
+  <si>
+    <t>CV00075</t>
+  </si>
+  <si>
+    <t>00503012_1</t>
+  </si>
+  <si>
+    <t>custom-input_19</t>
+  </si>
+  <si>
+    <t>CV00076</t>
+  </si>
+  <si>
+    <t>00103005</t>
+  </si>
+  <si>
+    <t>input-cstnm</t>
+  </si>
+  <si>
+    <t>CV00077</t>
+  </si>
+  <si>
+    <t>00101002</t>
+  </si>
+  <si>
+    <t>CV00078</t>
+  </si>
+  <si>
+    <t>CV00079</t>
+  </si>
+  <si>
+    <t>00103004</t>
+  </si>
+  <si>
+    <t>CV00080</t>
+  </si>
+  <si>
     <t>00502202</t>
-  </si>
-  <si>
-    <t>金额大于5万</t>
-  </si>
-  <si>
-    <t>totlAmt</t>
-  </si>
-  <si>
-    <t>金额</t>
-  </si>
-  <si>
-    <t>&gt;=</t>
-  </si>
-  <si>
-    <t>75_1</t>
-  </si>
-  <si>
-    <t>金额小于5万</t>
-  </si>
-  <si>
-    <t>&lt;</t>
-  </si>
-  <si>
-    <t>00103003</t>
-  </si>
-  <si>
-    <t>aui-button_submit</t>
-  </si>
-  <si>
-    <t>CV00073</t>
-  </si>
-  <si>
-    <t>CV00074</t>
-  </si>
-  <si>
-    <t>00103002</t>
-  </si>
-  <si>
-    <t>custom-input_acctNo</t>
-  </si>
-  <si>
-    <t>CV00075</t>
-  </si>
-  <si>
-    <t>00503012_1</t>
-  </si>
-  <si>
-    <t>custom-input_19</t>
-  </si>
-  <si>
-    <t>CV00076</t>
-  </si>
-  <si>
-    <t>00103005</t>
-  </si>
-  <si>
-    <t>input-cstnm</t>
-  </si>
-  <si>
-    <t>CV00077</t>
-  </si>
-  <si>
-    <t>00101002</t>
   </si>
   <si>
     <t>必填：</t>
@@ -676,8 +667,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -709,13 +700,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <name val="Consolas"/>
+      <sz val="11"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -729,14 +729,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -745,6 +737,43 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -752,8 +781,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -767,9 +804,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -777,44 +813,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -828,6 +827,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -835,17 +835,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -891,7 +883,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,13 +895,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,7 +967,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,7 +1021,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,55 +1039,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,66 +1057,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1095,23 +1087,16 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1125,17 +1110,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1156,36 +1135,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1204,155 +1163,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1361,9 +1340,9 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1376,9 +1355,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1392,11 +1369,9 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1404,22 +1379,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1435,7 +1401,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1756,27 +1721,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V85"/>
+  <dimension ref="A1:V86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K87" sqref="K87"/>
+      <selection pane="bottomLeft" activeCell="K82" sqref="K82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="16.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="4" width="9.66666666666667" customWidth="1"/>
-    <col min="5" max="7" width="7" customWidth="1"/>
-    <col min="8" max="8" width="14.7777777777778" customWidth="1"/>
-    <col min="9" max="9" width="25.7777777777778" customWidth="1"/>
-    <col min="10" max="13" width="17.6666666666667" customWidth="1"/>
-    <col min="14" max="14" width="12.4444444444444" customWidth="1"/>
-    <col min="15" max="15" width="16.7777777777778" customWidth="1"/>
-    <col min="17" max="21" width="7" customWidth="1"/>
-    <col min="22" max="22" width="29.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="16.3333333333333" style="7" customWidth="1"/>
+    <col min="2" max="2" width="15" style="7" customWidth="1"/>
+    <col min="3" max="4" width="9.66666666666667" style="7" customWidth="1"/>
+    <col min="5" max="7" width="7" style="7" customWidth="1"/>
+    <col min="8" max="8" width="14.7777777777778" style="7" customWidth="1"/>
+    <col min="9" max="9" width="25.7777777777778" style="7" customWidth="1"/>
+    <col min="10" max="13" width="17.6666666666667" style="7" customWidth="1"/>
+    <col min="14" max="14" width="12.4444444444444" style="7" customWidth="1"/>
+    <col min="15" max="15" width="16.7777777777778" style="7" customWidth="1"/>
+    <col min="16" max="16" width="9" style="7"/>
+    <col min="17" max="21" width="7" style="7" customWidth="1"/>
+    <col min="22" max="22" width="29.6666666666667" style="7" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="61.2" spans="1:22">
@@ -1872,7 +1839,7 @@
       <c r="H2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J2" s="11" t="s">
@@ -1894,7 +1861,7 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
-      <c r="S2" s="18"/>
+      <c r="S2" s="16"/>
       <c r="T2" s="10"/>
       <c r="U2" s="10"/>
       <c r="V2" s="10"/>
@@ -1924,7 +1891,7 @@
       <c r="H3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="14" t="s">
         <v>32</v>
       </c>
       <c r="J3" s="11" t="s">
@@ -1946,7 +1913,7 @@
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
-      <c r="S3" s="18"/>
+      <c r="S3" s="16"/>
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
       <c r="V3" s="10"/>
@@ -1998,7 +1965,7 @@
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
-      <c r="S4" s="18"/>
+      <c r="S4" s="16"/>
       <c r="T4" s="10"/>
       <c r="U4" s="10"/>
       <c r="V4" s="10"/>
@@ -2050,7 +2017,7 @@
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
-      <c r="S5" s="18"/>
+      <c r="S5" s="16"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
@@ -2102,7 +2069,7 @@
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
-      <c r="S6" s="18"/>
+      <c r="S6" s="16"/>
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
@@ -2154,7 +2121,7 @@
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
-      <c r="S7" s="18"/>
+      <c r="S7" s="16"/>
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
@@ -2206,7 +2173,7 @@
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
-      <c r="S8" s="18"/>
+      <c r="S8" s="16"/>
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
       <c r="V8" s="10"/>
@@ -2255,13 +2222,13 @@
         <v>30</v>
       </c>
       <c r="O9" s="10"/>
-      <c r="P9" s="17"/>
+      <c r="P9" s="15"/>
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
-      <c r="S9" s="18"/>
+      <c r="S9" s="16"/>
       <c r="T9" s="10"/>
       <c r="U9" s="10"/>
-      <c r="V9" s="17"/>
+      <c r="V9" s="15"/>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="10">
@@ -2307,10 +2274,10 @@
         <v>30</v>
       </c>
       <c r="O10" s="10"/>
-      <c r="P10" s="17"/>
+      <c r="P10" s="15"/>
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
-      <c r="S10" s="18"/>
+      <c r="S10" s="16"/>
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
       <c r="V10" s="10"/>
@@ -2362,7 +2329,7 @@
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
-      <c r="S11" s="18"/>
+      <c r="S11" s="16"/>
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
       <c r="V11" s="10"/>
@@ -2414,7 +2381,7 @@
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
-      <c r="S12" s="18"/>
+      <c r="S12" s="16"/>
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
       <c r="V12" s="10"/>
@@ -2466,7 +2433,7 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
-      <c r="S13" s="18"/>
+      <c r="S13" s="16"/>
       <c r="T13" s="10"/>
       <c r="U13" s="10"/>
       <c r="V13" s="10"/>
@@ -2518,7 +2485,7 @@
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
-      <c r="S14" s="18"/>
+      <c r="S14" s="16"/>
       <c r="T14" s="10"/>
       <c r="U14" s="10"/>
       <c r="V14" s="10"/>
@@ -2570,7 +2537,7 @@
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
-      <c r="S15" s="18"/>
+      <c r="S15" s="16"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
@@ -2622,7 +2589,7 @@
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
-      <c r="S16" s="18"/>
+      <c r="S16" s="16"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
@@ -2674,7 +2641,7 @@
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
-      <c r="S17" s="18"/>
+      <c r="S17" s="16"/>
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
       <c r="V17" s="10"/>
@@ -2726,7 +2693,7 @@
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
-      <c r="S18" s="18"/>
+      <c r="S18" s="16"/>
       <c r="T18" s="10"/>
       <c r="U18" s="10"/>
       <c r="V18" s="10"/>
@@ -2778,7 +2745,7 @@
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
-      <c r="S19" s="18"/>
+      <c r="S19" s="16"/>
       <c r="T19" s="10"/>
       <c r="U19" s="10"/>
       <c r="V19" s="10"/>
@@ -2830,7 +2797,7 @@
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
-      <c r="S20" s="18"/>
+      <c r="S20" s="16"/>
       <c r="T20" s="10"/>
       <c r="U20" s="10"/>
       <c r="V20" s="10"/>
@@ -2882,7 +2849,7 @@
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
-      <c r="S21" s="18"/>
+      <c r="S21" s="16"/>
       <c r="T21" s="10"/>
       <c r="U21" s="10"/>
       <c r="V21" s="10"/>
@@ -2934,7 +2901,7 @@
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
-      <c r="S22" s="18"/>
+      <c r="S22" s="16"/>
       <c r="T22" s="10"/>
       <c r="U22" s="10"/>
       <c r="V22" s="10"/>
@@ -2986,7 +2953,7 @@
       <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
       <c r="R23" s="10"/>
-      <c r="S23" s="18"/>
+      <c r="S23" s="16"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
@@ -3038,7 +3005,7 @@
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
-      <c r="S24" s="18"/>
+      <c r="S24" s="16"/>
       <c r="T24" s="10"/>
       <c r="U24" s="10"/>
       <c r="V24" s="10"/>
@@ -3090,7 +3057,7 @@
       <c r="P25" s="10"/>
       <c r="Q25" s="10"/>
       <c r="R25" s="10"/>
-      <c r="S25" s="18"/>
+      <c r="S25" s="16"/>
       <c r="T25" s="10"/>
       <c r="U25" s="10"/>
       <c r="V25" s="10"/>
@@ -3142,7 +3109,7 @@
       <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
       <c r="R26" s="10"/>
-      <c r="S26" s="18"/>
+      <c r="S26" s="16"/>
       <c r="T26" s="10"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
@@ -3194,7 +3161,7 @@
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
       <c r="R27" s="10"/>
-      <c r="S27" s="18"/>
+      <c r="S27" s="16"/>
       <c r="T27" s="10"/>
       <c r="U27" s="10"/>
       <c r="V27" s="10"/>
@@ -3246,7 +3213,7 @@
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
       <c r="R28" s="10"/>
-      <c r="S28" s="18"/>
+      <c r="S28" s="16"/>
       <c r="T28" s="10"/>
       <c r="U28" s="10"/>
       <c r="V28" s="10"/>
@@ -3298,7 +3265,7 @@
       <c r="P29" s="10"/>
       <c r="Q29" s="10"/>
       <c r="R29" s="10"/>
-      <c r="S29" s="18"/>
+      <c r="S29" s="16"/>
       <c r="T29" s="10"/>
       <c r="U29" s="10"/>
       <c r="V29" s="10"/>
@@ -3350,7 +3317,7 @@
       <c r="P30" s="10"/>
       <c r="Q30" s="10"/>
       <c r="R30" s="10"/>
-      <c r="S30" s="18"/>
+      <c r="S30" s="16"/>
       <c r="T30" s="10"/>
       <c r="U30" s="10"/>
       <c r="V30" s="10"/>
@@ -3377,7 +3344,7 @@
       <c r="G31" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H31" s="38" t="s">
+      <c r="H31" s="31" t="s">
         <v>95</v>
       </c>
       <c r="I31" s="11" t="s">
@@ -3402,7 +3369,7 @@
       <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
       <c r="R31" s="10"/>
-      <c r="S31" s="18"/>
+      <c r="S31" s="16"/>
       <c r="T31" s="10"/>
       <c r="U31" s="10"/>
       <c r="V31" s="10"/>
@@ -3429,7 +3396,7 @@
       <c r="G32" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H32" s="38" t="s">
+      <c r="H32" s="31" t="s">
         <v>97</v>
       </c>
       <c r="I32" s="11" t="s">
@@ -3454,7 +3421,7 @@
       <c r="P32" s="10"/>
       <c r="Q32" s="10"/>
       <c r="R32" s="10"/>
-      <c r="S32" s="18"/>
+      <c r="S32" s="16"/>
       <c r="T32" s="10"/>
       <c r="U32" s="10"/>
       <c r="V32" s="10"/>
@@ -3481,7 +3448,7 @@
       <c r="G33" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H33" s="38" t="s">
+      <c r="H33" s="31" t="s">
         <v>99</v>
       </c>
       <c r="I33" s="11" t="s">
@@ -3506,7 +3473,7 @@
       <c r="P33" s="10"/>
       <c r="Q33" s="10"/>
       <c r="R33" s="10"/>
-      <c r="S33" s="18"/>
+      <c r="S33" s="16"/>
       <c r="T33" s="10"/>
       <c r="U33" s="10"/>
       <c r="V33" s="10"/>
@@ -3558,7 +3525,7 @@
       <c r="P34" s="10"/>
       <c r="Q34" s="10"/>
       <c r="R34" s="10"/>
-      <c r="S34" s="18"/>
+      <c r="S34" s="16"/>
       <c r="T34" s="10"/>
       <c r="U34" s="10"/>
       <c r="V34" s="10"/>
@@ -3610,7 +3577,7 @@
       <c r="P35" s="10"/>
       <c r="Q35" s="10"/>
       <c r="R35" s="10"/>
-      <c r="S35" s="18"/>
+      <c r="S35" s="16"/>
       <c r="T35" s="10"/>
       <c r="U35" s="10"/>
       <c r="V35" s="10"/>
@@ -3662,7 +3629,7 @@
       <c r="P36" s="10"/>
       <c r="Q36" s="10"/>
       <c r="R36" s="10"/>
-      <c r="S36" s="18"/>
+      <c r="S36" s="16"/>
       <c r="T36" s="10"/>
       <c r="U36" s="10"/>
       <c r="V36" s="10"/>
@@ -3714,7 +3681,7 @@
       <c r="P37" s="10"/>
       <c r="Q37" s="10"/>
       <c r="R37" s="10"/>
-      <c r="S37" s="18"/>
+      <c r="S37" s="16"/>
       <c r="T37" s="10"/>
       <c r="U37" s="10"/>
       <c r="V37" s="10"/>
@@ -3766,7 +3733,7 @@
       <c r="P38" s="10"/>
       <c r="Q38" s="10"/>
       <c r="R38" s="10"/>
-      <c r="S38" s="18"/>
+      <c r="S38" s="16"/>
       <c r="T38" s="10"/>
       <c r="U38" s="10"/>
       <c r="V38" s="10"/>
@@ -3818,7 +3785,7 @@
       <c r="P39" s="10"/>
       <c r="Q39" s="10"/>
       <c r="R39" s="10"/>
-      <c r="S39" s="18"/>
+      <c r="S39" s="16"/>
       <c r="T39" s="10"/>
       <c r="U39" s="10"/>
       <c r="V39" s="10"/>
@@ -3870,7 +3837,7 @@
       <c r="P40" s="10"/>
       <c r="Q40" s="10"/>
       <c r="R40" s="10"/>
-      <c r="S40" s="18"/>
+      <c r="S40" s="16"/>
       <c r="T40" s="10"/>
       <c r="U40" s="10"/>
       <c r="V40" s="10"/>
@@ -3922,7 +3889,7 @@
       <c r="P41" s="10"/>
       <c r="Q41" s="10"/>
       <c r="R41" s="10"/>
-      <c r="S41" s="18"/>
+      <c r="S41" s="16"/>
       <c r="T41" s="10"/>
       <c r="U41" s="10"/>
       <c r="V41" s="10"/>
@@ -3974,7 +3941,7 @@
       <c r="P42" s="10"/>
       <c r="Q42" s="10"/>
       <c r="R42" s="10"/>
-      <c r="S42" s="18"/>
+      <c r="S42" s="16"/>
       <c r="T42" s="10"/>
       <c r="U42" s="10"/>
       <c r="V42" s="10"/>
@@ -4026,7 +3993,7 @@
       <c r="P43" s="10"/>
       <c r="Q43" s="10"/>
       <c r="R43" s="10"/>
-      <c r="S43" s="18"/>
+      <c r="S43" s="16"/>
       <c r="T43" s="10"/>
       <c r="U43" s="10"/>
       <c r="V43" s="10"/>
@@ -4078,7 +4045,7 @@
       <c r="P44" s="10"/>
       <c r="Q44" s="10"/>
       <c r="R44" s="10"/>
-      <c r="S44" s="18"/>
+      <c r="S44" s="16"/>
       <c r="T44" s="10"/>
       <c r="U44" s="10"/>
       <c r="V44" s="10"/>
@@ -4130,7 +4097,7 @@
       <c r="P45" s="10"/>
       <c r="Q45" s="10"/>
       <c r="R45" s="10"/>
-      <c r="S45" s="18"/>
+      <c r="S45" s="16"/>
       <c r="T45" s="10"/>
       <c r="U45" s="10"/>
       <c r="V45" s="10"/>
@@ -4182,7 +4149,7 @@
       <c r="P46" s="10"/>
       <c r="Q46" s="10"/>
       <c r="R46" s="10"/>
-      <c r="S46" s="18"/>
+      <c r="S46" s="16"/>
       <c r="T46" s="10"/>
       <c r="U46" s="10"/>
       <c r="V46" s="10"/>
@@ -4234,7 +4201,7 @@
       <c r="P47" s="10"/>
       <c r="Q47" s="10"/>
       <c r="R47" s="10"/>
-      <c r="S47" s="18"/>
+      <c r="S47" s="16"/>
       <c r="T47" s="10"/>
       <c r="U47" s="10"/>
       <c r="V47" s="10"/>
@@ -4286,7 +4253,7 @@
       <c r="P48" s="10"/>
       <c r="Q48" s="10"/>
       <c r="R48" s="10"/>
-      <c r="S48" s="18"/>
+      <c r="S48" s="16"/>
       <c r="T48" s="10"/>
       <c r="U48" s="10"/>
       <c r="V48" s="10"/>
@@ -4338,7 +4305,7 @@
       <c r="P49" s="10"/>
       <c r="Q49" s="10"/>
       <c r="R49" s="10"/>
-      <c r="S49" s="18"/>
+      <c r="S49" s="16"/>
       <c r="T49" s="10"/>
       <c r="U49" s="10"/>
       <c r="V49" s="10"/>
@@ -4390,7 +4357,7 @@
       <c r="P50" s="10"/>
       <c r="Q50" s="10"/>
       <c r="R50" s="10"/>
-      <c r="S50" s="18"/>
+      <c r="S50" s="16"/>
       <c r="T50" s="10"/>
       <c r="U50" s="10"/>
       <c r="V50" s="10"/>
@@ -4442,7 +4409,7 @@
       <c r="P51" s="10"/>
       <c r="Q51" s="10"/>
       <c r="R51" s="10"/>
-      <c r="S51" s="18"/>
+      <c r="S51" s="16"/>
       <c r="T51" s="10"/>
       <c r="U51" s="10"/>
       <c r="V51" s="10"/>
@@ -4494,7 +4461,7 @@
       <c r="P52" s="10"/>
       <c r="Q52" s="10"/>
       <c r="R52" s="10"/>
-      <c r="S52" s="18"/>
+      <c r="S52" s="16"/>
       <c r="T52" s="10"/>
       <c r="U52" s="10"/>
       <c r="V52" s="10"/>
@@ -4546,7 +4513,7 @@
       <c r="P53" s="10"/>
       <c r="Q53" s="10"/>
       <c r="R53" s="10"/>
-      <c r="S53" s="18"/>
+      <c r="S53" s="16"/>
       <c r="T53" s="10"/>
       <c r="U53" s="10"/>
       <c r="V53" s="10"/>
@@ -4598,7 +4565,7 @@
       <c r="P54" s="10"/>
       <c r="Q54" s="10"/>
       <c r="R54" s="10"/>
-      <c r="S54" s="18"/>
+      <c r="S54" s="16"/>
       <c r="T54" s="10"/>
       <c r="U54" s="10"/>
       <c r="V54" s="10"/>
@@ -4650,7 +4617,7 @@
       <c r="P55" s="10"/>
       <c r="Q55" s="10"/>
       <c r="R55" s="10"/>
-      <c r="S55" s="18"/>
+      <c r="S55" s="16"/>
       <c r="T55" s="10"/>
       <c r="U55" s="10"/>
       <c r="V55" s="10"/>
@@ -4702,7 +4669,7 @@
       <c r="P56" s="10"/>
       <c r="Q56" s="10"/>
       <c r="R56" s="10"/>
-      <c r="S56" s="18"/>
+      <c r="S56" s="16"/>
       <c r="T56" s="10"/>
       <c r="U56" s="10"/>
       <c r="V56" s="10"/>
@@ -4754,7 +4721,7 @@
       <c r="P57" s="10"/>
       <c r="Q57" s="10"/>
       <c r="R57" s="10"/>
-      <c r="S57" s="18"/>
+      <c r="S57" s="16"/>
       <c r="T57" s="10"/>
       <c r="U57" s="10"/>
       <c r="V57" s="10"/>
@@ -4806,7 +4773,7 @@
       <c r="P58" s="10"/>
       <c r="Q58" s="10"/>
       <c r="R58" s="10"/>
-      <c r="S58" s="18"/>
+      <c r="S58" s="16"/>
       <c r="T58" s="10"/>
       <c r="U58" s="10"/>
       <c r="V58" s="10"/>
@@ -4858,7 +4825,7 @@
       <c r="P59" s="10"/>
       <c r="Q59" s="10"/>
       <c r="R59" s="10"/>
-      <c r="S59" s="18"/>
+      <c r="S59" s="16"/>
       <c r="T59" s="10"/>
       <c r="U59" s="10"/>
       <c r="V59" s="10"/>
@@ -4910,7 +4877,7 @@
       <c r="P60" s="10"/>
       <c r="Q60" s="10"/>
       <c r="R60" s="10"/>
-      <c r="S60" s="18"/>
+      <c r="S60" s="16"/>
       <c r="T60" s="10"/>
       <c r="U60" s="10"/>
       <c r="V60" s="10"/>
@@ -4962,1252 +4929,1143 @@
       <c r="P61" s="10"/>
       <c r="Q61" s="10"/>
       <c r="R61" s="10"/>
-      <c r="S61" s="18"/>
+      <c r="S61" s="16"/>
       <c r="T61" s="10"/>
       <c r="U61" s="10"/>
       <c r="V61" s="10"/>
     </row>
     <row r="62" s="4" customFormat="1" spans="1:22">
-      <c r="A62" s="13">
+      <c r="A62" s="5">
         <v>200060</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C62" s="13">
+      <c r="C62" s="5">
         <v>61</v>
       </c>
-      <c r="D62" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F62" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G62" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H62" s="39" t="s">
+      <c r="D62" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H62" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="I62" s="14" t="s">
+      <c r="I62" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="J62" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K62" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L62" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="M62" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N62" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="O62" s="13"/>
-      <c r="P62" s="13"/>
-      <c r="Q62" s="13"/>
-      <c r="R62" s="13"/>
-      <c r="S62" s="19"/>
-      <c r="T62" s="13"/>
-      <c r="U62" s="13"/>
-      <c r="V62" s="13"/>
+      <c r="J62" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K62" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L62" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M62" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N62" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="5"/>
+      <c r="S62" s="17"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="5"/>
+      <c r="V62" s="5"/>
     </row>
     <row r="63" s="4" customFormat="1" spans="1:22">
-      <c r="A63" s="13">
+      <c r="A63" s="5">
         <v>200061</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C63" s="13">
+      <c r="C63" s="5">
         <v>62</v>
       </c>
-      <c r="D63" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F63" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G63" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H63" s="39" t="s">
+      <c r="D63" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H63" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="I63" s="14" t="s">
+      <c r="I63" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="J63" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K63" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L63" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="M63" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N63" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="O63" s="13"/>
-      <c r="P63" s="13"/>
-      <c r="Q63" s="13"/>
-      <c r="R63" s="13"/>
-      <c r="S63" s="19"/>
-      <c r="T63" s="13"/>
-      <c r="U63" s="13"/>
-      <c r="V63" s="13"/>
+      <c r="J63" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K63" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L63" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M63" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N63" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="5"/>
+      <c r="S63" s="17"/>
+      <c r="T63" s="5"/>
+      <c r="U63" s="5"/>
+      <c r="V63" s="5"/>
     </row>
     <row r="64" s="4" customFormat="1" spans="1:22">
-      <c r="A64" s="13">
+      <c r="A64" s="5">
         <v>200062</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C64" s="13">
+      <c r="C64" s="5">
         <v>63</v>
       </c>
-      <c r="D64" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E64" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F64" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G64" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H64" s="39" t="s">
+      <c r="D64" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H64" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="I64" s="14" t="s">
+      <c r="I64" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="J64" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K64" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L64" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="M64" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N64" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="O64" s="13"/>
-      <c r="P64" s="13"/>
-      <c r="Q64" s="13"/>
-      <c r="R64" s="13"/>
-      <c r="S64" s="19"/>
-      <c r="T64" s="13"/>
-      <c r="U64" s="13"/>
-      <c r="V64" s="13"/>
+      <c r="J64" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K64" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L64" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M64" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N64" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O64" s="5"/>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="5"/>
+      <c r="S64" s="17"/>
+      <c r="T64" s="5"/>
+      <c r="U64" s="5"/>
+      <c r="V64" s="5"/>
     </row>
     <row r="65" s="4" customFormat="1" spans="1:22">
-      <c r="A65" s="13">
+      <c r="A65" s="5">
         <v>200063</v>
       </c>
-      <c r="B65" s="13" t="s">
+      <c r="B65" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C65" s="13">
+      <c r="C65" s="5">
         <v>64</v>
       </c>
-      <c r="D65" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E65" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F65" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G65" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H65" s="39" t="s">
+      <c r="D65" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H65" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="I65" s="14" t="s">
+      <c r="I65" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="J65" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K65" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L65" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="M65" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N65" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="O65" s="13"/>
-      <c r="P65" s="13"/>
-      <c r="Q65" s="13"/>
-      <c r="R65" s="13"/>
-      <c r="S65" s="19"/>
-      <c r="T65" s="13"/>
-      <c r="U65" s="13"/>
-      <c r="V65" s="13"/>
+      <c r="J65" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K65" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L65" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M65" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N65" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="5"/>
+      <c r="S65" s="17"/>
+      <c r="T65" s="5"/>
+      <c r="U65" s="5"/>
+      <c r="V65" s="5"/>
     </row>
     <row r="66" s="4" customFormat="1" spans="1:22">
-      <c r="A66" s="13">
+      <c r="A66" s="5">
         <v>200064</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="B66" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C66" s="13">
+      <c r="C66" s="5">
         <v>65</v>
       </c>
-      <c r="D66" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E66" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F66" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G66" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H66" s="39" t="s">
+      <c r="D66" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H66" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="I66" s="14" t="s">
+      <c r="I66" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="J66" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K66" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L66" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="M66" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N66" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="O66" s="13"/>
-      <c r="P66" s="13"/>
-      <c r="Q66" s="13"/>
-      <c r="R66" s="13"/>
-      <c r="S66" s="19"/>
-      <c r="T66" s="13"/>
-      <c r="U66" s="13"/>
-      <c r="V66" s="13"/>
+      <c r="J66" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K66" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L66" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M66" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N66" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="17"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="5"/>
+      <c r="V66" s="5"/>
     </row>
     <row r="67" s="4" customFormat="1" spans="1:22">
-      <c r="A67" s="13">
+      <c r="A67" s="5">
         <v>200065</v>
       </c>
-      <c r="B67" s="13" t="s">
+      <c r="B67" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C67" s="13">
+      <c r="C67" s="5">
         <v>66</v>
       </c>
-      <c r="D67" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F67" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G67" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H67" s="39" t="s">
+      <c r="D67" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H67" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="I67" s="14" t="s">
+      <c r="I67" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="J67" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K67" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L67" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="M67" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N67" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="O67" s="13"/>
-      <c r="P67" s="13"/>
-      <c r="Q67" s="13"/>
-      <c r="R67" s="13"/>
-      <c r="S67" s="19"/>
-      <c r="T67" s="13"/>
-      <c r="U67" s="13"/>
-      <c r="V67" s="13"/>
-    </row>
-    <row r="68" s="5" customFormat="1" spans="1:22">
-      <c r="A68" s="13">
+      <c r="J67" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K67" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L67" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M67" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N67" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="5"/>
+      <c r="S67" s="17"/>
+      <c r="T67" s="5"/>
+      <c r="U67" s="5"/>
+      <c r="V67" s="5"/>
+    </row>
+    <row r="68" s="5" customFormat="1" spans="1:14">
+      <c r="A68" s="5">
         <v>200066</v>
       </c>
-      <c r="B68" s="13" t="s">
+      <c r="B68" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C68" s="13">
+      <c r="C68" s="5">
         <v>67</v>
       </c>
-      <c r="D68" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E68" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F68" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G68" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H68" s="40" t="s">
+      <c r="D68" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H68" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="I68" s="13" t="s">
+      <c r="I68" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="J68" s="14" t="s">
+      <c r="J68" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="K68" s="14" t="s">
+      <c r="K68" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="L68" s="14" t="s">
+      <c r="L68" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="M68" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N68" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="O68" s="13"/>
-      <c r="P68" s="13"/>
-      <c r="Q68" s="13"/>
-      <c r="R68" s="13"/>
-      <c r="S68" s="13"/>
-      <c r="T68" s="13"/>
-      <c r="U68" s="13"/>
-      <c r="V68" s="13"/>
-    </row>
-    <row r="69" s="5" customFormat="1" spans="1:22">
-      <c r="A69" s="13">
+      <c r="M68" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N68" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" s="5" customFormat="1" spans="1:14">
+      <c r="A69" s="5">
         <v>200067</v>
       </c>
-      <c r="B69" s="13" t="s">
+      <c r="B69" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C69" s="13">
+      <c r="C69" s="5">
         <v>68</v>
       </c>
-      <c r="D69" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E69" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F69" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G69" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H69" s="40" t="s">
+      <c r="D69" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H69" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="I69" s="13" t="s">
+      <c r="I69" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="J69" s="14" t="s">
+      <c r="J69" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="K69" s="14" t="s">
+      <c r="K69" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="L69" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="M69" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N69" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="O69" s="13"/>
-      <c r="P69" s="13"/>
-      <c r="Q69" s="13"/>
-      <c r="R69" s="13"/>
-      <c r="S69" s="13"/>
-      <c r="T69" s="13"/>
-      <c r="U69" s="13"/>
-      <c r="V69" s="13"/>
-    </row>
-    <row r="70" s="5" customFormat="1" spans="1:22">
-      <c r="A70" s="13">
+      <c r="L69" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M69" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N69" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" s="5" customFormat="1" spans="1:14">
+      <c r="A70" s="5">
         <v>200068</v>
       </c>
-      <c r="B70" s="13" t="s">
+      <c r="B70" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C70" s="13">
+      <c r="C70" s="5">
         <v>69</v>
       </c>
-      <c r="D70" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E70" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F70" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G70" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H70" s="40" t="s">
+      <c r="D70" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H70" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="I70" s="13" t="s">
+      <c r="I70" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="J70" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K70" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L70" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="M70" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N70" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="O70" s="13"/>
-      <c r="P70" s="13"/>
-      <c r="Q70" s="13"/>
-      <c r="R70" s="13"/>
-      <c r="S70" s="13"/>
-      <c r="T70" s="13"/>
-      <c r="U70" s="13"/>
-      <c r="V70" s="13"/>
-    </row>
-    <row r="71" s="5" customFormat="1" spans="1:22">
-      <c r="A71" s="13">
+      <c r="J70" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K70" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L70" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M70" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N70" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" s="5" customFormat="1" spans="1:14">
+      <c r="A71" s="5">
         <v>200069</v>
       </c>
-      <c r="B71" s="13" t="s">
+      <c r="B71" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C71" s="13">
+      <c r="C71" s="5">
         <v>70</v>
       </c>
-      <c r="D71" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E71" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F71" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G71" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H71" s="40" t="s">
+      <c r="D71" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F71" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H71" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="I71" s="13" t="s">
+      <c r="I71" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="J71" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K71" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L71" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="M71" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N71" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="O71" s="13"/>
-      <c r="P71" s="13"/>
-      <c r="Q71" s="13"/>
-      <c r="R71" s="13"/>
-      <c r="S71" s="13"/>
-      <c r="T71" s="13"/>
-      <c r="U71" s="13"/>
-      <c r="V71" s="13"/>
-    </row>
-    <row r="72" s="5" customFormat="1" spans="1:22">
-      <c r="A72" s="13">
+      <c r="J71" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K71" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L71" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M71" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N71" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" s="5" customFormat="1" spans="1:14">
+      <c r="A72" s="5">
         <v>200070</v>
       </c>
-      <c r="B72" s="13" t="s">
+      <c r="B72" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C72" s="13">
+      <c r="C72" s="5">
         <v>71</v>
       </c>
-      <c r="D72" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E72" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F72" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G72" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H72" s="40" t="s">
+      <c r="D72" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H72" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="I72" s="13" t="s">
+      <c r="I72" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="J72" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K72" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L72" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="M72" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N72" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="O72" s="13"/>
-      <c r="P72" s="13"/>
-      <c r="Q72" s="13"/>
-      <c r="R72" s="13"/>
-      <c r="S72" s="13"/>
-      <c r="T72" s="13"/>
-      <c r="U72" s="13"/>
-      <c r="V72" s="13"/>
-    </row>
-    <row r="73" s="4" customFormat="1" spans="1:22">
-      <c r="A73" s="13">
+      <c r="J72" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K72" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L72" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M72" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N72" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" s="4" customFormat="1" spans="1:14">
+      <c r="A73" s="5">
         <v>200071</v>
       </c>
-      <c r="B73" s="13" t="s">
+      <c r="B73" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C73" s="13">
+      <c r="C73" s="5">
         <v>72</v>
       </c>
-      <c r="D73" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E73" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F73" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G73" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H73" s="39" t="s">
+      <c r="D73" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F73" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H73" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="I73" s="15" t="s">
+      <c r="I73" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="J73" s="26">
+      <c r="J73" s="22">
         <v>1</v>
       </c>
-      <c r="K73" s="27">
+      <c r="K73" s="23">
         <v>1</v>
       </c>
-      <c r="L73" s="28">
+      <c r="L73" s="24">
         <v>1</v>
       </c>
-      <c r="M73" s="28">
+      <c r="M73" s="24">
         <v>1</v>
       </c>
-      <c r="N73" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="O73" s="15"/>
-      <c r="P73" s="15"/>
-      <c r="Q73" s="15"/>
-      <c r="R73" s="15"/>
-      <c r="S73" s="15"/>
-      <c r="T73" s="15"/>
-      <c r="U73" s="15"/>
-      <c r="V73" s="15"/>
-    </row>
-    <row r="74" s="4" customFormat="1" spans="1:22">
-      <c r="A74" s="13">
+      <c r="N73" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" s="4" customFormat="1" spans="1:14">
+      <c r="A74" s="5">
         <v>200071</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="B74" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C74" s="13">
+      <c r="C74" s="5">
         <v>73</v>
       </c>
-      <c r="D74" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E74" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F74" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G74" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H74" s="39" t="s">
+      <c r="D74" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H74" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="I74" s="15" t="s">
+      <c r="I74" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J74" s="26">
+      <c r="J74" s="22">
         <v>1</v>
       </c>
-      <c r="K74" s="27">
+      <c r="K74" s="23">
         <v>1</v>
       </c>
-      <c r="L74" s="28">
+      <c r="L74" s="24">
         <v>1</v>
       </c>
-      <c r="M74" s="28">
+      <c r="M74" s="24">
         <v>1</v>
       </c>
-      <c r="N74" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="O74" s="15"/>
-      <c r="P74" s="15"/>
-      <c r="Q74" s="15"/>
-      <c r="R74" s="15"/>
-      <c r="S74" s="15"/>
-      <c r="T74" s="15"/>
-      <c r="U74" s="15"/>
-      <c r="V74" s="15"/>
-    </row>
-    <row r="75" s="4" customFormat="1" spans="1:22">
-      <c r="A75" s="13">
+      <c r="N74" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" s="4" customFormat="1" spans="1:14">
+      <c r="A75" s="5">
         <v>200071</v>
       </c>
-      <c r="B75" s="13" t="s">
+      <c r="B75" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C75" s="13">
+      <c r="C75" s="5">
         <v>74</v>
       </c>
-      <c r="D75" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E75" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F75" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G75" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H75" s="39" t="s">
+      <c r="D75" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H75" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="I75" s="15" t="s">
+      <c r="I75" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J75" s="26">
+      <c r="J75" s="22">
         <v>1</v>
       </c>
-      <c r="K75" s="27">
+      <c r="K75" s="23">
         <v>1</v>
       </c>
-      <c r="L75" s="28">
+      <c r="L75" s="24">
         <v>1</v>
       </c>
-      <c r="M75" s="28">
+      <c r="M75" s="24">
         <v>1</v>
       </c>
-      <c r="N75" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="O75" s="15"/>
-      <c r="P75" s="15"/>
-      <c r="Q75" s="15"/>
-      <c r="R75" s="15"/>
-      <c r="S75" s="15"/>
-      <c r="T75" s="15"/>
-      <c r="U75" s="15"/>
-      <c r="V75" s="15"/>
-    </row>
-    <row r="76" s="4" customFormat="1" ht="14.4" spans="1:22">
-      <c r="A76" s="13">
+      <c r="N75" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" s="4" customFormat="1" spans="1:14">
+      <c r="A76" s="5">
         <v>200071</v>
       </c>
-      <c r="B76" s="13" t="s">
+      <c r="B76" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C76" s="13">
-        <v>75</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E76" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F76" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G76" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H76" s="20" t="s">
+      <c r="C76" s="5">
+        <v>76</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H76" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="I76" s="13" t="s">
+      <c r="I76" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J76" s="22">
+        <v>1</v>
+      </c>
+      <c r="K76" s="23">
+        <v>1</v>
+      </c>
+      <c r="L76" s="24">
+        <v>1</v>
+      </c>
+      <c r="M76" s="24">
+        <v>1</v>
+      </c>
+      <c r="N76" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" s="6" customFormat="1" ht="21" customHeight="1" spans="1:14">
+      <c r="A77" s="6">
+        <v>200072</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C77" s="5">
+        <v>78</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F77" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H77" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J77" s="25">
+        <v>1</v>
+      </c>
+      <c r="K77" s="26">
+        <v>1</v>
+      </c>
+      <c r="L77" s="19">
+        <v>1</v>
+      </c>
+      <c r="M77" s="19">
+        <v>1</v>
+      </c>
+      <c r="N77" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" s="6" customFormat="1" ht="21" customHeight="1" spans="1:14">
+      <c r="A78" s="6">
+        <v>200072</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C78" s="5">
+        <v>79</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F78" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H78" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J78" s="25">
+        <v>1</v>
+      </c>
+      <c r="K78" s="26">
+        <v>1</v>
+      </c>
+      <c r="L78" s="19">
+        <v>1</v>
+      </c>
+      <c r="M78" s="19">
+        <v>1</v>
+      </c>
+      <c r="N78" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22">
+      <c r="A79" s="6">
+        <v>200073</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C79" s="5">
+        <v>80</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F79" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H79" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="J79" s="25">
+        <v>0</v>
+      </c>
+      <c r="K79" s="26">
+        <v>1</v>
+      </c>
+      <c r="L79" s="19">
+        <v>1</v>
+      </c>
+      <c r="M79" s="19">
+        <v>1</v>
+      </c>
+      <c r="N79" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O79" s="6"/>
+      <c r="P79" s="6"/>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="6"/>
+      <c r="T79" s="6"/>
+      <c r="U79" s="6"/>
+      <c r="V79" s="6"/>
+    </row>
+    <row r="80" s="7" customFormat="1" spans="1:14">
+      <c r="A80" s="6">
+        <v>200074</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C80" s="7">
+        <v>81</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F80" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="I80" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="J80" s="28">
+        <v>1</v>
+      </c>
+      <c r="K80" s="29">
+        <v>1</v>
+      </c>
+      <c r="L80" s="30">
+        <v>1</v>
+      </c>
+      <c r="M80" s="30">
+        <v>1</v>
+      </c>
+      <c r="N80" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" s="7" customFormat="1" spans="1:14">
+      <c r="A81" s="6">
+        <v>200075</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C81" s="7">
+        <v>82</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F81" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H81" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="I81" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="J81" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="K81" s="29">
+        <v>1</v>
+      </c>
+      <c r="L81" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="M81" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="N81" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" s="7" customFormat="1" spans="1:14">
+      <c r="A82" s="6">
+        <v>200076</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C82" s="7">
+        <v>83</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F82" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H82" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="I82" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="J82" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="K82" s="29">
+        <v>0</v>
+      </c>
+      <c r="L82" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="M82" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="N82" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" s="4" customFormat="1" spans="1:14">
+      <c r="A83" s="6">
+        <v>200078</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C83" s="7">
+        <v>84</v>
+      </c>
+      <c r="D83" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E83" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F83" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H83" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="J83" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="K83" s="23">
+        <v>1</v>
+      </c>
+      <c r="L83" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="M83" s="24">
+        <v>1</v>
+      </c>
+      <c r="N83" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" s="6">
+        <v>200079</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C84" s="7">
+        <v>85</v>
+      </c>
+      <c r="D84" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E84" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F84" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H84" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="J84" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="K84" s="23">
+        <v>1</v>
+      </c>
+      <c r="L84" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="M84" s="24">
+        <v>1</v>
+      </c>
+      <c r="N84" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" s="6">
+        <v>200080</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C85" s="7">
+        <v>86</v>
+      </c>
+      <c r="D85" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E85" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F85" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H85" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="I85" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J76" s="26">
+      <c r="J85" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="K85" s="23">
         <v>1</v>
       </c>
-      <c r="K76" s="27">
-        <v>1</v>
-      </c>
-      <c r="L76" s="28">
-        <v>1</v>
-      </c>
-      <c r="M76" s="28">
-        <v>1</v>
-      </c>
-      <c r="N76" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="O76" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="P76" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q76" s="15"/>
-      <c r="R76" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="S76" s="15">
-        <v>50000</v>
-      </c>
-      <c r="T76" s="15"/>
-      <c r="U76" s="15"/>
-      <c r="V76" s="15"/>
-    </row>
-    <row r="77" s="4" customFormat="1" ht="14.4" spans="1:22">
-      <c r="A77" s="13">
-        <v>200071</v>
-      </c>
-      <c r="B77" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E77" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F77" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G77" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H77" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="I77" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="J77" s="26">
-        <v>1</v>
-      </c>
-      <c r="K77" s="27">
-        <v>1</v>
-      </c>
-      <c r="L77" s="28">
-        <v>0</v>
-      </c>
-      <c r="M77" s="28">
-        <v>1</v>
-      </c>
-      <c r="N77" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="O77" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="P77" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q77" s="15"/>
-      <c r="R77" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="S77" s="15">
-        <v>50000</v>
-      </c>
-      <c r="T77" s="15"/>
-      <c r="U77" s="15"/>
-      <c r="V77" s="15"/>
-    </row>
-    <row r="78" s="4" customFormat="1" spans="1:22">
-      <c r="A78" s="13">
-        <v>200071</v>
-      </c>
-      <c r="B78" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="C78" s="13">
-        <v>76</v>
-      </c>
-      <c r="D78" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E78" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F78" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G78" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H78" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="I78" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J78" s="26">
-        <v>1</v>
-      </c>
-      <c r="K78" s="27">
-        <v>1</v>
-      </c>
-      <c r="L78" s="28">
-        <v>1</v>
-      </c>
-      <c r="M78" s="28">
-        <v>1</v>
-      </c>
-      <c r="N78" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="O78" s="15"/>
-      <c r="P78" s="15"/>
-      <c r="Q78" s="15"/>
-      <c r="R78" s="15"/>
-      <c r="S78" s="15"/>
-      <c r="T78" s="15"/>
-      <c r="U78" s="15"/>
-      <c r="V78" s="15"/>
-    </row>
-    <row r="79" s="4" customFormat="1" spans="1:22">
-      <c r="A79" s="13">
-        <v>200071</v>
-      </c>
-      <c r="B79" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="C79" s="13">
-        <v>77</v>
-      </c>
-      <c r="D79" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E79" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F79" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G79" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H79" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="I79" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="J79" s="26">
-        <v>0</v>
-      </c>
-      <c r="K79" s="27">
-        <v>0</v>
-      </c>
-      <c r="L79" s="28">
-        <v>0</v>
-      </c>
-      <c r="M79" s="28">
-        <v>1</v>
-      </c>
-      <c r="N79" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="O79" s="15"/>
-      <c r="P79" s="15"/>
-      <c r="Q79" s="15"/>
-      <c r="R79" s="15"/>
-      <c r="S79" s="15"/>
-      <c r="T79" s="15"/>
-      <c r="U79" s="15"/>
-      <c r="V79" s="15"/>
-    </row>
-    <row r="80" s="6" customFormat="1" ht="21" customHeight="1" spans="1:22">
-      <c r="A80" s="21">
-        <v>200072</v>
-      </c>
-      <c r="B80" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="C80" s="13">
-        <v>78</v>
-      </c>
-      <c r="D80" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E80" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F80" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G80" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="H80" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="I80" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="J80" s="30">
-        <v>1</v>
-      </c>
-      <c r="K80" s="31">
-        <v>1</v>
-      </c>
-      <c r="L80" s="22">
-        <v>1</v>
-      </c>
-      <c r="M80" s="22">
-        <v>1</v>
-      </c>
-      <c r="N80" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="O80" s="21"/>
-      <c r="P80" s="21"/>
-      <c r="Q80" s="21"/>
-      <c r="R80" s="21"/>
-      <c r="S80" s="21"/>
-      <c r="T80" s="21"/>
-      <c r="U80" s="21"/>
-      <c r="V80" s="21"/>
-    </row>
-    <row r="81" s="6" customFormat="1" ht="21" customHeight="1" spans="1:22">
-      <c r="A81" s="21">
-        <v>200072</v>
-      </c>
-      <c r="B81" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="C81" s="13">
-        <v>79</v>
-      </c>
-      <c r="D81" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E81" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F81" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G81" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="H81" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="I81" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="J81" s="30">
-        <v>1</v>
-      </c>
-      <c r="K81" s="31">
-        <v>1</v>
-      </c>
-      <c r="L81" s="22">
-        <v>1</v>
-      </c>
-      <c r="M81" s="22">
-        <v>1</v>
-      </c>
-      <c r="N81" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="O81" s="21"/>
-      <c r="P81" s="21"/>
-      <c r="Q81" s="21"/>
-      <c r="R81" s="21"/>
-      <c r="S81" s="21"/>
-      <c r="T81" s="21"/>
-      <c r="U81" s="21"/>
-      <c r="V81" s="21"/>
-    </row>
-    <row r="82" spans="1:22">
-      <c r="A82" s="23">
-        <v>200073</v>
-      </c>
-      <c r="B82" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="C82" s="24">
-        <v>80</v>
-      </c>
-      <c r="D82" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E82" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="F82" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="G82" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="H82" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="I82" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="J82" s="32">
-        <v>0</v>
-      </c>
-      <c r="K82" s="33">
-        <v>1</v>
-      </c>
-      <c r="L82" s="25">
-        <v>1</v>
-      </c>
-      <c r="M82" s="25">
-        <v>1</v>
-      </c>
-      <c r="N82" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="O82" s="23"/>
-      <c r="P82" s="23"/>
-      <c r="Q82" s="23"/>
-      <c r="R82" s="23"/>
-      <c r="S82" s="23"/>
-      <c r="T82" s="23"/>
-      <c r="U82" s="23"/>
-      <c r="V82" s="23"/>
-    </row>
-    <row r="83" s="7" customFormat="1" spans="1:14">
-      <c r="A83" s="23">
-        <v>200074</v>
-      </c>
-      <c r="B83" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="C83" s="7">
-        <v>81</v>
-      </c>
-      <c r="D83" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E83" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="F83" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="G83" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="H83" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="I83" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="J83" s="35">
-        <v>1</v>
-      </c>
-      <c r="K83" s="36">
-        <v>1</v>
-      </c>
-      <c r="L83" s="37">
-        <v>1</v>
-      </c>
-      <c r="M83" s="37">
-        <v>1</v>
-      </c>
-      <c r="N83" s="23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="84" s="7" customFormat="1" spans="1:14">
-      <c r="A84" s="23">
-        <v>200075</v>
-      </c>
-      <c r="B84" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="C84" s="7">
-        <v>82</v>
-      </c>
-      <c r="D84" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E84" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="F84" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="G84" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="H84" s="43" t="s">
-        <v>210</v>
-      </c>
-      <c r="I84" s="34" t="s">
-        <v>211</v>
-      </c>
-      <c r="J84" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="K84" s="36">
-        <v>1</v>
-      </c>
-      <c r="L84" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="M84" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="N84" s="23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="85" s="7" customFormat="1" spans="1:14">
-      <c r="A85" s="23">
-        <v>200076</v>
-      </c>
-      <c r="B85" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="C85" s="7">
-        <v>83</v>
-      </c>
-      <c r="D85" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E85" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="F85" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="G85" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="H85" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="I85" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="J85" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="K85" s="36">
-        <v>0</v>
-      </c>
-      <c r="L85" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="M85" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="N85" s="23" t="s">
-        <v>30</v>
-      </c>
+      <c r="L85" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="M85" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="N85" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="22"/>
+      <c r="K86" s="23"/>
+      <c r="L86" s="24"/>
+      <c r="M86" s="24"/>
+      <c r="N86" s="5"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:V85">
+    <extLst/>
+  </autoFilter>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1">
       <formula1>"等于,大于,小于,大于等于,小于等于"</formula1>
@@ -6245,7 +6103,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="24" customHeight="1" spans="1:12">
@@ -6291,7 +6149,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/src/customerView/客户视图.xlsx
+++ b/src/customerView/客户视图.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9924"/>
+    <workbookView windowWidth="21600" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="客户视图" sheetId="1" r:id="rId1"/>
     <sheet name="填写说明" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户视图!$A$1:$V$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户视图!$A$1:$V$89</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="229">
   <si>
     <t>CV 客户视图</t>
   </si>
@@ -157,6 +157,9 @@
     <t>00303007</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>CV00007</t>
   </si>
   <si>
@@ -238,6 +241,9 @@
     <t>00502008</t>
   </si>
   <si>
+    <t>customer</t>
+  </si>
+  <si>
     <t>CV00018</t>
   </si>
   <si>
@@ -553,9 +559,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>CV00067</t>
   </si>
   <si>
@@ -653,6 +656,54 @@
   </si>
   <si>
     <t>00502202</t>
+  </si>
+  <si>
+    <t>CV00081</t>
+  </si>
+  <si>
+    <t>00502306</t>
+  </si>
+  <si>
+    <t>custom-input-accOther</t>
+  </si>
+  <si>
+    <t>金额大于5万</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>金额</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>CV00082</t>
+  </si>
+  <si>
+    <t>00502307</t>
+  </si>
+  <si>
+    <t>CV00083</t>
+  </si>
+  <si>
+    <t>00502314_2</t>
+  </si>
+  <si>
+    <t>custom-input-payFeeCardNoOrAcctNo</t>
+  </si>
+  <si>
+    <t>totlAmt</t>
+  </si>
+  <si>
+    <t>CV00084</t>
+  </si>
+  <si>
+    <t>00502314_3</t>
+  </si>
+  <si>
+    <t>custom-input-spcuseAcctNo</t>
   </si>
   <si>
     <t>必填：</t>
@@ -706,6 +757,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -715,7 +781,52 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -728,22 +839,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -752,8 +847,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -768,36 +864,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -813,38 +895,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -877,7 +928,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,37 +1012,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,43 +1054,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -985,7 +1072,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -997,67 +1108,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1087,25 +1138,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1119,17 +1161,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1164,11 +1200,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1183,16 +1225,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1201,133 +1252,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1721,32 +1772,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V86"/>
+  <dimension ref="A1:V89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K82" sqref="K82"/>
+      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="16.3333333333333" style="7" customWidth="1"/>
     <col min="2" max="2" width="15" style="7" customWidth="1"/>
     <col min="3" max="4" width="9.66666666666667" style="7" customWidth="1"/>
     <col min="5" max="7" width="7" style="7" customWidth="1"/>
-    <col min="8" max="8" width="14.7777777777778" style="7" customWidth="1"/>
-    <col min="9" max="9" width="25.7777777777778" style="7" customWidth="1"/>
+    <col min="8" max="8" width="14.775" style="7" customWidth="1"/>
+    <col min="9" max="9" width="25.775" style="7" customWidth="1"/>
     <col min="10" max="13" width="17.6666666666667" style="7" customWidth="1"/>
-    <col min="14" max="14" width="12.4444444444444" style="7" customWidth="1"/>
-    <col min="15" max="15" width="16.7777777777778" style="7" customWidth="1"/>
+    <col min="14" max="14" width="12.4416666666667" style="7" customWidth="1"/>
+    <col min="15" max="15" width="16.775" style="7" customWidth="1"/>
     <col min="16" max="16" width="9" style="7"/>
     <col min="17" max="21" width="7" style="7" customWidth="1"/>
     <col min="22" max="22" width="29.6666666666667" style="7" customWidth="1"/>
     <col min="23" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="61.2" spans="1:22">
+    <row r="1" ht="60.75" spans="1:22">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2161,10 +2212,10 @@
         <v>29</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="N8" s="10" t="s">
         <v>30</v>
@@ -2183,7 +2234,7 @@
         <v>200007</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" s="10">
         <v>8</v>
@@ -2201,10 +2252,10 @@
         <v>26</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J9" s="11" t="s">
         <v>29</v>
@@ -2235,7 +2286,7 @@
         <v>200008</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" s="10">
         <v>9</v>
@@ -2253,10 +2304,10 @@
         <v>26</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>29</v>
@@ -2287,7 +2338,7 @@
         <v>200009</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" s="10">
         <v>10</v>
@@ -2305,10 +2356,10 @@
         <v>26</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J11" s="11" t="s">
         <v>29</v>
@@ -2339,7 +2390,7 @@
         <v>200010</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12" s="10">
         <v>11</v>
@@ -2357,10 +2408,10 @@
         <v>26</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J12" s="11" t="s">
         <v>29</v>
@@ -2391,7 +2442,7 @@
         <v>200011</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C13" s="10">
         <v>12</v>
@@ -2409,10 +2460,10 @@
         <v>26</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J13" s="11" t="s">
         <v>29</v>
@@ -2443,7 +2494,7 @@
         <v>200012</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14" s="10">
         <v>13</v>
@@ -2461,10 +2512,10 @@
         <v>26</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J14" s="11" t="s">
         <v>29</v>
@@ -2495,7 +2546,7 @@
         <v>200013</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C15" s="10">
         <v>14</v>
@@ -2513,10 +2564,10 @@
         <v>26</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J15" s="11" t="s">
         <v>29</v>
@@ -2547,7 +2598,7 @@
         <v>200014</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C16" s="10">
         <v>15</v>
@@ -2565,10 +2616,10 @@
         <v>26</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J16" s="11" t="s">
         <v>29</v>
@@ -2599,7 +2650,7 @@
         <v>200015</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C17" s="10">
         <v>16</v>
@@ -2617,10 +2668,10 @@
         <v>26</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J17" s="11" t="s">
         <v>29</v>
@@ -2651,7 +2702,7 @@
         <v>200016</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C18" s="10">
         <v>17</v>
@@ -2669,10 +2720,10 @@
         <v>26</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J18" s="11" t="s">
         <v>29</v>
@@ -2703,7 +2754,7 @@
         <v>200017</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C19" s="10">
         <v>18</v>
@@ -2721,10 +2772,10 @@
         <v>26</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="J19" s="11" t="s">
         <v>29</v>
@@ -2755,7 +2806,7 @@
         <v>200018</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C20" s="10">
         <v>19</v>
@@ -2773,10 +2824,10 @@
         <v>26</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J20" s="11" t="s">
         <v>29</v>
@@ -2807,7 +2858,7 @@
         <v>200019</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C21" s="10">
         <v>20</v>
@@ -2825,10 +2876,10 @@
         <v>26</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J21" s="11" t="s">
         <v>29</v>
@@ -2859,7 +2910,7 @@
         <v>200020</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C22" s="10">
         <v>21</v>
@@ -2877,7 +2928,7 @@
         <v>26</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I22" s="11" t="s">
         <v>41</v>
@@ -2911,7 +2962,7 @@
         <v>200021</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C23" s="10">
         <v>22</v>
@@ -2929,10 +2980,10 @@
         <v>26</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J23" s="11" t="s">
         <v>29</v>
@@ -2963,7 +3014,7 @@
         <v>200022</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C24" s="10">
         <v>23</v>
@@ -2981,10 +3032,10 @@
         <v>26</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J24" s="11" t="s">
         <v>29</v>
@@ -3015,28 +3066,28 @@
         <v>200023</v>
       </c>
       <c r="B25" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="10">
+        <v>24</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="10">
-        <v>24</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>81</v>
-      </c>
       <c r="I25" s="11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J25" s="11" t="s">
         <v>29</v>
@@ -3067,7 +3118,7 @@
         <v>200024</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C26" s="10">
         <v>25</v>
@@ -3085,10 +3136,10 @@
         <v>26</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J26" s="11" t="s">
         <v>29</v>
@@ -3119,7 +3170,7 @@
         <v>200025</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C27" s="10">
         <v>26</v>
@@ -3137,10 +3188,10 @@
         <v>26</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J27" s="11" t="s">
         <v>29</v>
@@ -3171,7 +3222,7 @@
         <v>200026</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C28" s="10">
         <v>27</v>
@@ -3189,10 +3240,10 @@
         <v>26</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J28" s="11" t="s">
         <v>29</v>
@@ -3223,7 +3274,7 @@
         <v>200027</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C29" s="10">
         <v>28</v>
@@ -3241,10 +3292,10 @@
         <v>26</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J29" s="11" t="s">
         <v>29</v>
@@ -3275,7 +3326,7 @@
         <v>200028</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C30" s="10">
         <v>29</v>
@@ -3293,7 +3344,7 @@
         <v>26</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I30" s="11" t="s">
         <v>32</v>
@@ -3327,7 +3378,7 @@
         <v>200029</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C31" s="10">
         <v>30</v>
@@ -3345,7 +3396,7 @@
         <v>26</v>
       </c>
       <c r="H31" s="31" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I31" s="11" t="s">
         <v>32</v>
@@ -3379,7 +3430,7 @@
         <v>200030</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C32" s="10">
         <v>31</v>
@@ -3397,7 +3448,7 @@
         <v>26</v>
       </c>
       <c r="H32" s="31" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I32" s="11" t="s">
         <v>32</v>
@@ -3431,7 +3482,7 @@
         <v>200031</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C33" s="10">
         <v>32</v>
@@ -3449,7 +3500,7 @@
         <v>26</v>
       </c>
       <c r="H33" s="31" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I33" s="11" t="s">
         <v>32</v>
@@ -3483,7 +3534,7 @@
         <v>200032</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C34" s="10">
         <v>33</v>
@@ -3501,10 +3552,10 @@
         <v>26</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J34" s="11" t="s">
         <v>29</v>
@@ -3535,7 +3586,7 @@
         <v>200033</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C35" s="10">
         <v>34</v>
@@ -3553,10 +3604,10 @@
         <v>26</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J35" s="11" t="s">
         <v>29</v>
@@ -3587,7 +3638,7 @@
         <v>200034</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C36" s="10">
         <v>35</v>
@@ -3605,10 +3656,10 @@
         <v>26</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J36" s="11" t="s">
         <v>29</v>
@@ -3617,10 +3668,10 @@
         <v>29</v>
       </c>
       <c r="L36" s="11" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="N36" s="10" t="s">
         <v>30</v>
@@ -3639,7 +3690,7 @@
         <v>200035</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C37" s="10">
         <v>36</v>
@@ -3657,10 +3708,10 @@
         <v>26</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J37" s="11" t="s">
         <v>29</v>
@@ -3669,10 +3720,10 @@
         <v>29</v>
       </c>
       <c r="L37" s="11" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="N37" s="10" t="s">
         <v>30</v>
@@ -3691,7 +3742,7 @@
         <v>200036</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C38" s="10">
         <v>37</v>
@@ -3709,7 +3760,7 @@
         <v>26</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I38" s="11" t="s">
         <v>32</v>
@@ -3743,7 +3794,7 @@
         <v>200037</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C39" s="10">
         <v>38</v>
@@ -3761,10 +3812,10 @@
         <v>26</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J39" s="11" t="s">
         <v>29</v>
@@ -3795,7 +3846,7 @@
         <v>200038</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C40" s="10">
         <v>39</v>
@@ -3813,10 +3864,10 @@
         <v>26</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J40" s="11" t="s">
         <v>29</v>
@@ -3847,7 +3898,7 @@
         <v>200039</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C41" s="10">
         <v>40</v>
@@ -3865,10 +3916,10 @@
         <v>26</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J41" s="11" t="s">
         <v>29</v>
@@ -3899,7 +3950,7 @@
         <v>200040</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C42" s="10">
         <v>41</v>
@@ -3917,7 +3968,7 @@
         <v>26</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I42" s="11" t="s">
         <v>32</v>
@@ -3951,7 +4002,7 @@
         <v>200041</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C43" s="10">
         <v>42</v>
@@ -3969,7 +4020,7 @@
         <v>26</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I43" s="11" t="s">
         <v>32</v>
@@ -4003,7 +4054,7 @@
         <v>200042</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C44" s="10">
         <v>43</v>
@@ -4055,7 +4106,7 @@
         <v>200043</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C45" s="10">
         <v>44</v>
@@ -4073,10 +4124,10 @@
         <v>26</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J45" s="11" t="s">
         <v>29</v>
@@ -4107,7 +4158,7 @@
         <v>200044</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C46" s="10">
         <v>45</v>
@@ -4125,10 +4176,10 @@
         <v>26</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J46" s="11" t="s">
         <v>29</v>
@@ -4159,7 +4210,7 @@
         <v>200045</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C47" s="10">
         <v>46</v>
@@ -4177,10 +4228,10 @@
         <v>26</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J47" s="11" t="s">
         <v>29</v>
@@ -4211,7 +4262,7 @@
         <v>200046</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C48" s="10">
         <v>47</v>
@@ -4229,10 +4280,10 @@
         <v>26</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J48" s="11" t="s">
         <v>29</v>
@@ -4263,7 +4314,7 @@
         <v>200047</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C49" s="10">
         <v>48</v>
@@ -4281,10 +4332,10 @@
         <v>26</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J49" s="11" t="s">
         <v>29</v>
@@ -4315,7 +4366,7 @@
         <v>200048</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C50" s="10">
         <v>49</v>
@@ -4333,10 +4384,10 @@
         <v>26</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J50" s="11" t="s">
         <v>29</v>
@@ -4367,7 +4418,7 @@
         <v>200049</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C51" s="10">
         <v>50</v>
@@ -4385,10 +4436,10 @@
         <v>26</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J51" s="11" t="s">
         <v>29</v>
@@ -4419,7 +4470,7 @@
         <v>200050</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C52" s="10">
         <v>51</v>
@@ -4437,10 +4488,10 @@
         <v>26</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J52" s="11" t="s">
         <v>29</v>
@@ -4471,7 +4522,7 @@
         <v>200051</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C53" s="10">
         <v>52</v>
@@ -4489,10 +4540,10 @@
         <v>26</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J53" s="11" t="s">
         <v>29</v>
@@ -4523,7 +4574,7 @@
         <v>200052</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C54" s="10">
         <v>53</v>
@@ -4541,10 +4592,10 @@
         <v>26</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J54" s="11" t="s">
         <v>29</v>
@@ -4575,7 +4626,7 @@
         <v>200053</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C55" s="10">
         <v>54</v>
@@ -4593,10 +4644,10 @@
         <v>26</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J55" s="11" t="s">
         <v>29</v>
@@ -4627,7 +4678,7 @@
         <v>200054</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C56" s="10">
         <v>55</v>
@@ -4645,10 +4696,10 @@
         <v>26</v>
       </c>
       <c r="H56" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="I56" s="11" t="s">
         <v>148</v>
-      </c>
-      <c r="I56" s="11" t="s">
-        <v>146</v>
       </c>
       <c r="J56" s="11" t="s">
         <v>29</v>
@@ -4679,7 +4730,7 @@
         <v>200055</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C57" s="10">
         <v>56</v>
@@ -4697,10 +4748,10 @@
         <v>26</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J57" s="11" t="s">
         <v>29</v>
@@ -4731,7 +4782,7 @@
         <v>200056</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C58" s="10">
         <v>57</v>
@@ -4749,10 +4800,10 @@
         <v>26</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J58" s="11" t="s">
         <v>29</v>
@@ -4761,10 +4812,10 @@
         <v>29</v>
       </c>
       <c r="L58" s="11" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="M58" s="11" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="N58" s="10" t="s">
         <v>30</v>
@@ -4783,7 +4834,7 @@
         <v>200057</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C59" s="10">
         <v>58</v>
@@ -4801,10 +4852,10 @@
         <v>26</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J59" s="11" t="s">
         <v>29</v>
@@ -4835,7 +4886,7 @@
         <v>200058</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C60" s="10">
         <v>59</v>
@@ -4853,10 +4904,10 @@
         <v>26</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J60" s="11" t="s">
         <v>29</v>
@@ -4887,7 +4938,7 @@
         <v>200059</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C61" s="10">
         <v>60</v>
@@ -4905,10 +4956,10 @@
         <v>26</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J61" s="11" t="s">
         <v>29</v>
@@ -4939,7 +4990,7 @@
         <v>200060</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C62" s="5">
         <v>61</v>
@@ -4957,10 +5008,10 @@
         <v>26</v>
       </c>
       <c r="H62" s="32" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J62" s="13" t="s">
         <v>29</v>
@@ -4969,10 +5020,10 @@
         <v>29</v>
       </c>
       <c r="L62" s="13" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="M62" s="13" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="N62" s="5" t="s">
         <v>30</v>
@@ -4991,7 +5042,7 @@
         <v>200061</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C63" s="5">
         <v>62</v>
@@ -5009,10 +5060,10 @@
         <v>26</v>
       </c>
       <c r="H63" s="32" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I63" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J63" s="13" t="s">
         <v>29</v>
@@ -5021,10 +5072,10 @@
         <v>29</v>
       </c>
       <c r="L63" s="13" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="M63" s="13" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="N63" s="5" t="s">
         <v>30</v>
@@ -5043,7 +5094,7 @@
         <v>200062</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C64" s="5">
         <v>63</v>
@@ -5061,10 +5112,10 @@
         <v>26</v>
       </c>
       <c r="H64" s="32" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I64" s="13" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J64" s="13" t="s">
         <v>29</v>
@@ -5073,10 +5124,10 @@
         <v>29</v>
       </c>
       <c r="L64" s="13" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="M64" s="13" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="N64" s="5" t="s">
         <v>30</v>
@@ -5095,7 +5146,7 @@
         <v>200063</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C65" s="5">
         <v>64</v>
@@ -5113,10 +5164,10 @@
         <v>26</v>
       </c>
       <c r="H65" s="32" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J65" s="13" t="s">
         <v>29</v>
@@ -5125,10 +5176,10 @@
         <v>29</v>
       </c>
       <c r="L65" s="13" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="M65" s="13" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="N65" s="5" t="s">
         <v>30</v>
@@ -5147,7 +5198,7 @@
         <v>200064</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C66" s="5">
         <v>65</v>
@@ -5165,10 +5216,10 @@
         <v>26</v>
       </c>
       <c r="H66" s="32" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I66" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J66" s="13" t="s">
         <v>29</v>
@@ -5177,10 +5228,10 @@
         <v>29</v>
       </c>
       <c r="L66" s="13" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="M66" s="13" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="N66" s="5" t="s">
         <v>30</v>
@@ -5199,7 +5250,7 @@
         <v>200065</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C67" s="5">
         <v>66</v>
@@ -5217,10 +5268,10 @@
         <v>26</v>
       </c>
       <c r="H67" s="32" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I67" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J67" s="13" t="s">
         <v>29</v>
@@ -5251,7 +5302,7 @@
         <v>200066</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C68" s="5">
         <v>67</v>
@@ -5269,19 +5320,19 @@
         <v>26</v>
       </c>
       <c r="H68" s="33" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J68" s="13" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K68" s="13" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L68" s="13" t="s">
-        <v>176</v>
+        <v>44</v>
       </c>
       <c r="M68" s="13" t="s">
         <v>29</v>
@@ -5295,7 +5346,7 @@
         <v>200067</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C69" s="5">
         <v>68</v>
@@ -5313,16 +5364,16 @@
         <v>26</v>
       </c>
       <c r="H69" s="33" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J69" s="13" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K69" s="13" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L69" s="13" t="s">
         <v>29</v>
@@ -5339,7 +5390,7 @@
         <v>200068</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C70" s="5">
         <v>69</v>
@@ -5357,10 +5408,10 @@
         <v>26</v>
       </c>
       <c r="H70" s="33" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J70" s="13" t="s">
         <v>29</v>
@@ -5383,7 +5434,7 @@
         <v>200069</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C71" s="5">
         <v>70</v>
@@ -5401,10 +5452,10 @@
         <v>26</v>
       </c>
       <c r="H71" s="33" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J71" s="13" t="s">
         <v>29</v>
@@ -5427,7 +5478,7 @@
         <v>200070</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C72" s="5">
         <v>71</v>
@@ -5445,10 +5496,10 @@
         <v>26</v>
       </c>
       <c r="H72" s="33" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J72" s="13" t="s">
         <v>29</v>
@@ -5471,7 +5522,7 @@
         <v>200071</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C73" s="5">
         <v>72</v>
@@ -5489,10 +5540,10 @@
         <v>26</v>
       </c>
       <c r="H73" s="32" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J73" s="22">
         <v>1</v>
@@ -5515,7 +5566,7 @@
         <v>200071</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C74" s="5">
         <v>73</v>
@@ -5533,10 +5584,10 @@
         <v>26</v>
       </c>
       <c r="H74" s="32" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J74" s="22">
         <v>1</v>
@@ -5559,7 +5610,7 @@
         <v>200071</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C75" s="5">
         <v>74</v>
@@ -5577,10 +5628,10 @@
         <v>26</v>
       </c>
       <c r="H75" s="32" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J75" s="22">
         <v>1</v>
@@ -5603,7 +5654,7 @@
         <v>200071</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C76" s="5">
         <v>76</v>
@@ -5621,10 +5672,10 @@
         <v>26</v>
       </c>
       <c r="H76" s="18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J76" s="22">
         <v>1</v>
@@ -5647,7 +5698,7 @@
         <v>200072</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C77" s="5">
         <v>78</v>
@@ -5665,10 +5716,10 @@
         <v>26</v>
       </c>
       <c r="H77" s="34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J77" s="25">
         <v>1</v>
@@ -5691,7 +5742,7 @@
         <v>200072</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C78" s="5">
         <v>79</v>
@@ -5709,10 +5760,10 @@
         <v>26</v>
       </c>
       <c r="H78" s="34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J78" s="25">
         <v>1</v>
@@ -5735,7 +5786,7 @@
         <v>200073</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C79" s="5">
         <v>80</v>
@@ -5753,10 +5804,10 @@
         <v>26</v>
       </c>
       <c r="H79" s="34" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J79" s="25">
         <v>0</v>
@@ -5787,7 +5838,7 @@
         <v>200074</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C80" s="7">
         <v>81</v>
@@ -5805,10 +5856,10 @@
         <v>26</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I80" s="27" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J80" s="28">
         <v>1</v>
@@ -5831,7 +5882,7 @@
         <v>200075</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C81" s="7">
         <v>82</v>
@@ -5849,10 +5900,10 @@
         <v>26</v>
       </c>
       <c r="H81" s="35" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I81" s="27" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J81" s="28" t="s">
         <v>29</v>
@@ -5875,7 +5926,7 @@
         <v>200076</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C82" s="7">
         <v>83</v>
@@ -5893,10 +5944,10 @@
         <v>26</v>
       </c>
       <c r="H82" s="35" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I82" s="27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J82" s="28" t="s">
         <v>29</v>
@@ -5919,7 +5970,7 @@
         <v>200078</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C83" s="7">
         <v>84</v>
@@ -5937,10 +5988,10 @@
         <v>26</v>
       </c>
       <c r="H83" s="32" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J83" s="22" t="s">
         <v>29</v>
@@ -5963,7 +6014,7 @@
         <v>200079</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C84" s="7">
         <v>85</v>
@@ -5981,10 +6032,10 @@
         <v>26</v>
       </c>
       <c r="H84" s="32" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J84" s="22" t="s">
         <v>29</v>
@@ -6007,7 +6058,7 @@
         <v>200080</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C85" s="7">
         <v>86</v>
@@ -6025,10 +6076,10 @@
         <v>26</v>
       </c>
       <c r="H85" s="32" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J85" s="22" t="s">
         <v>29</v>
@@ -6046,24 +6097,232 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
-      <c r="A86" s="5"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="18"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="22"/>
-      <c r="K86" s="23"/>
-      <c r="L86" s="24"/>
-      <c r="M86" s="24"/>
-      <c r="N86" s="5"/>
+    <row r="86" customFormat="1" spans="1:19">
+      <c r="A86" s="6">
+        <v>200081</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C86" s="7">
+        <v>85</v>
+      </c>
+      <c r="D86" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E86" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F86" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="J86" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="K86" s="23">
+        <v>1</v>
+      </c>
+      <c r="L86" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="M86" s="24">
+        <v>1</v>
+      </c>
+      <c r="N86" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="O86" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P86" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="R86" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="S86" s="7">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="87" customFormat="1" spans="1:19">
+      <c r="A87" s="6">
+        <v>200082</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C87" s="7">
+        <v>86</v>
+      </c>
+      <c r="D87" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E87" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F87" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="J87" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="K87" s="23">
+        <v>1</v>
+      </c>
+      <c r="L87" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="M87" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="N87" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="O87" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P87" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="R87" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="S87" s="7">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="88" customFormat="1" spans="1:19">
+      <c r="A88" s="6">
+        <v>200083</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C88" s="7">
+        <v>87</v>
+      </c>
+      <c r="D88" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E88" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F88" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="J88" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="K88" s="23">
+        <v>1</v>
+      </c>
+      <c r="L88" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="M88" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="N88" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="O88" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P88" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="R88" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="S88" s="7">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="89" customFormat="1" spans="1:19">
+      <c r="A89" s="6">
+        <v>200084</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C89" s="7">
+        <v>88</v>
+      </c>
+      <c r="D89" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E89" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F89" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="J89" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="K89" s="23">
+        <v>1</v>
+      </c>
+      <c r="L89" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="M89" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="N89" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="O89" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P89" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="R89" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="S89" s="7">
+        <v>50000</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V85">
+  <autoFilter ref="A1:V89">
     <extLst/>
   </autoFilter>
   <dataValidations count="2">
@@ -6089,21 +6348,21 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="18.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="11.8888888888889" customWidth="1"/>
-    <col min="7" max="7" width="13.4444444444444" customWidth="1"/>
-    <col min="8" max="8" width="15.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="18.775" customWidth="1"/>
+    <col min="2" max="2" width="11.8916666666667" customWidth="1"/>
+    <col min="7" max="7" width="13.4416666666667" customWidth="1"/>
+    <col min="8" max="8" width="15.8916666666667" customWidth="1"/>
     <col min="9" max="9" width="16.3333333333333" customWidth="1"/>
     <col min="10" max="10" width="24" customWidth="1"/>
     <col min="11" max="11" width="19.3333333333333" customWidth="1"/>
-    <col min="12" max="12" width="23.1111111111111" customWidth="1"/>
+    <col min="12" max="12" width="23.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="24" customHeight="1" spans="1:12">
@@ -6149,7 +6408,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/src/customerView/客户视图.xlsx
+++ b/src/customerView/客户视图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="客户视图" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228">
   <si>
     <t>CV 客户视图</t>
   </si>
@@ -670,7 +670,7 @@
     <t>金额大于5万</t>
   </si>
   <si>
-    <t>amount</t>
+    <t>totlAmt</t>
   </si>
   <si>
     <t>金额</t>
@@ -692,9 +692,6 @@
   </si>
   <si>
     <t>custom-input-payFeeCardNoOrAcctNo</t>
-  </si>
-  <si>
-    <t>totlAmt</t>
   </si>
   <si>
     <t>CV00084</t>
@@ -718,9 +715,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -758,15 +755,76 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -781,19 +839,20 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -802,23 +861,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -833,23 +885,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -857,45 +893,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -928,7 +925,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -940,85 +1033,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1036,7 +1069,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,7 +1081,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1060,55 +1099,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1133,6 +1130,54 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1163,39 +1208,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1214,36 +1231,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1252,133 +1249,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1774,10 +1771,10 @@
   <sheetPr/>
   <dimension ref="A1:V89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomLeft" activeCell="S83" sqref="S83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6253,7 +6250,7 @@
         <v>214</v>
       </c>
       <c r="O88" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="P88" s="7" t="s">
         <v>216</v>
@@ -6270,7 +6267,7 @@
         <v>200084</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C89" s="7">
         <v>88</v>
@@ -6288,10 +6285,10 @@
         <v>26</v>
       </c>
       <c r="H89" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="I89" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="I89" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="J89" s="22" t="s">
         <v>177</v>
@@ -6309,7 +6306,7 @@
         <v>214</v>
       </c>
       <c r="O89" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="P89" s="7" t="s">
         <v>216</v>
@@ -6362,7 +6359,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="24" customHeight="1" spans="1:12">
@@ -6408,7 +6405,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/src/customerView/客户视图.xlsx
+++ b/src/customerView/客户视图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="客户视图" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="228">
   <si>
     <t>CV 客户视图</t>
   </si>
@@ -715,9 +715,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -754,61 +754,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -816,8 +761,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -846,7 +792,84 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -861,38 +884,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -925,7 +925,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,13 +991,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -955,13 +1015,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,7 +1069,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -985,13 +1081,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1003,109 +1105,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1136,9 +1136,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1158,26 +1175,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1205,42 +1231,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1249,133 +1249,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1771,10 +1771,10 @@
   <sheetPr/>
   <dimension ref="A1:V89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="S83" sqref="S83"/>
+      <selection pane="bottomLeft" activeCell="J79" sqref="J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5806,8 +5806,8 @@
       <c r="I79" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="J79" s="25">
-        <v>0</v>
+      <c r="J79" s="25" t="s">
+        <v>29</v>
       </c>
       <c r="K79" s="26">
         <v>1</v>

--- a/src/customerView/客户视图.xlsx
+++ b/src/customerView/客户视图.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22485" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="客户视图" sheetId="1" r:id="rId1"/>
     <sheet name="填写说明" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户视图!$A$1:$V$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户视图!$A$1:$V$135</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="337">
   <si>
     <t>CV 客户视图</t>
   </si>
@@ -647,39 +647,6 @@
   </si>
   <si>
     <t>00502202</t>
-  </si>
-  <si>
-    <t>CV00081</t>
-  </si>
-  <si>
-    <t>00502306</t>
-  </si>
-  <si>
-    <t>custom-input-accOther</t>
-  </si>
-  <si>
-    <t>CV00082</t>
-  </si>
-  <si>
-    <t>00502307</t>
-  </si>
-  <si>
-    <t>CV00083</t>
-  </si>
-  <si>
-    <t>00502314_2</t>
-  </si>
-  <si>
-    <t>custom-input-payFeeCardNoOrAcctNo</t>
-  </si>
-  <si>
-    <t>CV00084</t>
-  </si>
-  <si>
-    <t>00502314_3</t>
-  </si>
-  <si>
-    <t>custom-input-spcuseAcctNo</t>
   </si>
   <si>
     <t>CV00085</t>
@@ -690,6 +657,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -699,6 +667,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -708,6 +677,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>101005</t>
@@ -816,72 +786,66 @@
     <t>aui-button_query</t>
   </si>
   <si>
-    <t>CV00099</t>
-  </si>
-  <si>
-    <t>00502301</t>
-  </si>
-  <si>
-    <t>custom-input-colltnAcctNo</t>
-  </si>
-  <si>
-    <t>CV00100</t>
-  </si>
-  <si>
-    <t>00502302</t>
+    <t>CV00081</t>
+  </si>
+  <si>
+    <t>00502306</t>
+  </si>
+  <si>
+    <t>custom-input-accOther</t>
+  </si>
+  <si>
+    <t>CV00082</t>
+  </si>
+  <si>
+    <t>00502307</t>
+  </si>
+  <si>
+    <t>CV00083</t>
+  </si>
+  <si>
+    <t>00502314_2</t>
+  </si>
+  <si>
+    <t>custom-input-payFeeCardNoOrAcctNo</t>
+  </si>
+  <si>
+    <t>CV00084</t>
+  </si>
+  <si>
+    <t>00502314_3</t>
+  </si>
+  <si>
+    <t>custom-input-spcuseAcctNo</t>
+  </si>
+  <si>
+    <t>CV00105</t>
+  </si>
+  <si>
+    <t>00102004</t>
+  </si>
+  <si>
+    <t>custom-input-mergeCustNo</t>
+  </si>
+  <si>
+    <t>CV00106</t>
+  </si>
+  <si>
+    <t>00102007</t>
+  </si>
+  <si>
+    <t>custom-input-cardNoOrAcctNo</t>
+  </si>
+  <si>
+    <t>CV00107</t>
+  </si>
+  <si>
+    <t>00407002</t>
   </si>
   <si>
     <t>aui-button_submit</t>
   </si>
   <si>
-    <t>CV00101</t>
-  </si>
-  <si>
-    <t>00502303</t>
-  </si>
-  <si>
-    <t>CV00102</t>
-  </si>
-  <si>
-    <t>00502304</t>
-  </si>
-  <si>
-    <t>CV00103</t>
-  </si>
-  <si>
-    <t>00502305</t>
-  </si>
-  <si>
-    <t>CV00104</t>
-  </si>
-  <si>
-    <t>00502308</t>
-  </si>
-  <si>
-    <t>CV00105</t>
-  </si>
-  <si>
-    <t>00102004</t>
-  </si>
-  <si>
-    <t>custom-input-mergeCustNo</t>
-  </si>
-  <si>
-    <t>CV00106</t>
-  </si>
-  <si>
-    <t>00102007</t>
-  </si>
-  <si>
-    <t>custom-input-cardNoOrAcctNo</t>
-  </si>
-  <si>
-    <t>CV00107</t>
-  </si>
-  <si>
-    <t>00407002</t>
-  </si>
-  <si>
     <t>CV00108</t>
   </si>
   <si>
@@ -906,23 +870,209 @@
     <t>custom-input_pan</t>
   </si>
   <si>
+    <t>CV00111</t>
+  </si>
+  <si>
+    <t>00701001</t>
+  </si>
+  <si>
+    <t>custom-input-check</t>
+  </si>
+  <si>
+    <t>CV00112</t>
+  </si>
+  <si>
+    <t>00701002</t>
+  </si>
+  <si>
+    <t>CV00113</t>
+  </si>
+  <si>
+    <t>00701003</t>
+  </si>
+  <si>
+    <t>CV00114</t>
+  </si>
+  <si>
+    <t>00701004</t>
+  </si>
+  <si>
+    <t>CV00115</t>
+  </si>
+  <si>
+    <t>00701005</t>
+  </si>
+  <si>
+    <t>CV00116</t>
+  </si>
+  <si>
+    <t>00701006</t>
+  </si>
+  <si>
+    <t>CV00117</t>
+  </si>
+  <si>
+    <t>00701007</t>
+  </si>
+  <si>
+    <t>CV00118</t>
+  </si>
+  <si>
+    <t>00701008</t>
+  </si>
+  <si>
+    <t>CV00119</t>
+  </si>
+  <si>
+    <t>00701009</t>
+  </si>
+  <si>
+    <t>CV00120</t>
+  </si>
+  <si>
+    <t>00702001</t>
+  </si>
+  <si>
+    <t>CV00121</t>
+  </si>
+  <si>
+    <t>00702002</t>
+  </si>
+  <si>
+    <t>CV00122</t>
+  </si>
+  <si>
+    <t>00702003</t>
+  </si>
+  <si>
+    <t>CV00123</t>
+  </si>
+  <si>
+    <t>00702004</t>
+  </si>
+  <si>
+    <t>CV00124</t>
+  </si>
+  <si>
+    <t>00703001</t>
+  </si>
+  <si>
+    <t>CV00125</t>
+  </si>
+  <si>
+    <t>00703002</t>
+  </si>
+  <si>
+    <t>CV00126</t>
+  </si>
+  <si>
+    <t>00704001</t>
+  </si>
+  <si>
+    <t>CV00127</t>
+  </si>
+  <si>
+    <t>00704002</t>
+  </si>
+  <si>
+    <t>CV00128</t>
+  </si>
+  <si>
+    <t>00704003</t>
+  </si>
+  <si>
+    <t>CV00129</t>
+  </si>
+  <si>
+    <t>00704004</t>
+  </si>
+  <si>
+    <t>CV00130</t>
+  </si>
+  <si>
+    <t>00704005</t>
+  </si>
+  <si>
+    <t>CV00131</t>
+  </si>
+  <si>
+    <t>00704006</t>
+  </si>
+  <si>
+    <t>CV00132</t>
+  </si>
+  <si>
+    <t>00704007</t>
+  </si>
+  <si>
+    <t>CV00133</t>
+  </si>
+  <si>
+    <t>00704008</t>
+  </si>
+  <si>
+    <t>CV00134</t>
+  </si>
+  <si>
+    <t>00704009</t>
+  </si>
+  <si>
+    <t>CV00135</t>
+  </si>
+  <si>
+    <t>00704010</t>
+  </si>
+  <si>
+    <t>CV00136</t>
+  </si>
+  <si>
+    <t>00704011</t>
+  </si>
+  <si>
+    <t>CV00137</t>
+  </si>
+  <si>
+    <t>00704012</t>
+  </si>
+  <si>
+    <t>CV00138</t>
+  </si>
+  <si>
+    <t>00704013</t>
+  </si>
+  <si>
+    <t>CV00139</t>
+  </si>
+  <si>
+    <t>00704014</t>
+  </si>
+  <si>
     <t>必填：</t>
   </si>
   <si>
     <t>同一交易码如果多个条件且关系 此项 写成数字相同  否则都写成不同数字</t>
+  </si>
+  <si>
+    <t>CV00140</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>00101004</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>custom-input-cstNum</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -957,157 +1107,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1116,7 +1129,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799645985290078"/>
+        <fgColor theme="3" tint="0.79961546678060247"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1132,194 +1145,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1342,253 +1169,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1609,9 +1194,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1633,7 +1215,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1668,73 +1249,25 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1996,38 +1529,38 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:V112"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:V138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="K106" sqref="K106"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I140" sqref="I140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.3833333333333" style="7" customWidth="1"/>
+    <col min="1" max="1" width="16.375" style="7" customWidth="1"/>
     <col min="2" max="2" width="15" style="7" customWidth="1"/>
-    <col min="3" max="4" width="9.63333333333333" style="7" customWidth="1"/>
+    <col min="3" max="4" width="9.625" style="7" customWidth="1"/>
     <col min="5" max="7" width="7" style="7" customWidth="1"/>
     <col min="8" max="8" width="14.75" style="7" customWidth="1"/>
     <col min="9" max="9" width="25.75" style="7" customWidth="1"/>
-    <col min="10" max="13" width="17.6333333333333" style="7" customWidth="1"/>
-    <col min="14" max="14" width="12.3833333333333" style="7" customWidth="1"/>
+    <col min="10" max="13" width="17.625" style="7" customWidth="1"/>
+    <col min="14" max="14" width="12.375" style="7" customWidth="1"/>
     <col min="15" max="15" width="16.75" style="7" customWidth="1"/>
     <col min="16" max="16" width="9" style="7"/>
     <col min="17" max="21" width="7" style="7" customWidth="1"/>
-    <col min="22" max="22" width="29.6333333333333" style="7" customWidth="1"/>
+    <col min="22" max="22" width="29.625" style="7" customWidth="1"/>
     <col min="23" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="60.75" spans="1:22">
+    <row r="1" spans="1:22" ht="60.75">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2120,7 +1653,7 @@
       <c r="H2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="13" t="s">
         <v>28</v>
       </c>
       <c r="J2" s="11" t="s">
@@ -2142,7 +1675,7 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
-      <c r="S2" s="16"/>
+      <c r="S2" s="15"/>
       <c r="T2" s="10"/>
       <c r="U2" s="10"/>
       <c r="V2" s="10"/>
@@ -2172,7 +1705,7 @@
       <c r="H3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>32</v>
       </c>
       <c r="J3" s="11" t="s">
@@ -2194,7 +1727,7 @@
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
-      <c r="S3" s="16"/>
+      <c r="S3" s="15"/>
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
       <c r="V3" s="10"/>
@@ -2246,7 +1779,7 @@
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
-      <c r="S4" s="16"/>
+      <c r="S4" s="15"/>
       <c r="T4" s="10"/>
       <c r="U4" s="10"/>
       <c r="V4" s="10"/>
@@ -2298,7 +1831,7 @@
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
-      <c r="S5" s="16"/>
+      <c r="S5" s="15"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
@@ -2350,7 +1883,7 @@
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
-      <c r="S6" s="16"/>
+      <c r="S6" s="15"/>
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
@@ -2402,7 +1935,7 @@
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
-      <c r="S7" s="16"/>
+      <c r="S7" s="15"/>
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
@@ -2454,7 +1987,7 @@
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
-      <c r="S8" s="16"/>
+      <c r="S8" s="15"/>
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
       <c r="V8" s="10"/>
@@ -2503,13 +2036,13 @@
         <v>30</v>
       </c>
       <c r="O9" s="10"/>
-      <c r="P9" s="15"/>
+      <c r="P9" s="14"/>
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
-      <c r="S9" s="16"/>
+      <c r="S9" s="15"/>
       <c r="T9" s="10"/>
       <c r="U9" s="10"/>
-      <c r="V9" s="15"/>
+      <c r="V9" s="14"/>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="10">
@@ -2555,10 +2088,10 @@
         <v>30</v>
       </c>
       <c r="O10" s="10"/>
-      <c r="P10" s="15"/>
+      <c r="P10" s="14"/>
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
-      <c r="S10" s="16"/>
+      <c r="S10" s="15"/>
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
       <c r="V10" s="10"/>
@@ -2610,7 +2143,7 @@
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
-      <c r="S11" s="16"/>
+      <c r="S11" s="15"/>
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
       <c r="V11" s="10"/>
@@ -2662,7 +2195,7 @@
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
-      <c r="S12" s="16"/>
+      <c r="S12" s="15"/>
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
       <c r="V12" s="10"/>
@@ -2714,7 +2247,7 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
-      <c r="S13" s="16"/>
+      <c r="S13" s="15"/>
       <c r="T13" s="10"/>
       <c r="U13" s="10"/>
       <c r="V13" s="10"/>
@@ -2766,7 +2299,7 @@
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
-      <c r="S14" s="16"/>
+      <c r="S14" s="15"/>
       <c r="T14" s="10"/>
       <c r="U14" s="10"/>
       <c r="V14" s="10"/>
@@ -2818,7 +2351,7 @@
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
-      <c r="S15" s="16"/>
+      <c r="S15" s="15"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
@@ -2870,7 +2403,7 @@
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
-      <c r="S16" s="16"/>
+      <c r="S16" s="15"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
@@ -2922,7 +2455,7 @@
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
-      <c r="S17" s="16"/>
+      <c r="S17" s="15"/>
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
       <c r="V17" s="10"/>
@@ -2974,7 +2507,7 @@
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
-      <c r="S18" s="16"/>
+      <c r="S18" s="15"/>
       <c r="T18" s="10"/>
       <c r="U18" s="10"/>
       <c r="V18" s="10"/>
@@ -3026,7 +2559,7 @@
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
-      <c r="S19" s="16"/>
+      <c r="S19" s="15"/>
       <c r="T19" s="10"/>
       <c r="U19" s="10"/>
       <c r="V19" s="10"/>
@@ -3078,7 +2611,7 @@
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
-      <c r="S20" s="16"/>
+      <c r="S20" s="15"/>
       <c r="T20" s="10"/>
       <c r="U20" s="10"/>
       <c r="V20" s="10"/>
@@ -3130,7 +2663,7 @@
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
-      <c r="S21" s="16"/>
+      <c r="S21" s="15"/>
       <c r="T21" s="10"/>
       <c r="U21" s="10"/>
       <c r="V21" s="10"/>
@@ -3182,7 +2715,7 @@
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
-      <c r="S22" s="16"/>
+      <c r="S22" s="15"/>
       <c r="T22" s="10"/>
       <c r="U22" s="10"/>
       <c r="V22" s="10"/>
@@ -3234,7 +2767,7 @@
       <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
       <c r="R23" s="10"/>
-      <c r="S23" s="16"/>
+      <c r="S23" s="15"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
@@ -3286,7 +2819,7 @@
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
-      <c r="S24" s="16"/>
+      <c r="S24" s="15"/>
       <c r="T24" s="10"/>
       <c r="U24" s="10"/>
       <c r="V24" s="10"/>
@@ -3338,7 +2871,7 @@
       <c r="P25" s="10"/>
       <c r="Q25" s="10"/>
       <c r="R25" s="10"/>
-      <c r="S25" s="16"/>
+      <c r="S25" s="15"/>
       <c r="T25" s="10"/>
       <c r="U25" s="10"/>
       <c r="V25" s="10"/>
@@ -3390,7 +2923,7 @@
       <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
       <c r="R26" s="10"/>
-      <c r="S26" s="16"/>
+      <c r="S26" s="15"/>
       <c r="T26" s="10"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
@@ -3442,7 +2975,7 @@
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
       <c r="R27" s="10"/>
-      <c r="S27" s="16"/>
+      <c r="S27" s="15"/>
       <c r="T27" s="10"/>
       <c r="U27" s="10"/>
       <c r="V27" s="10"/>
@@ -3494,7 +3027,7 @@
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
       <c r="R28" s="10"/>
-      <c r="S28" s="16"/>
+      <c r="S28" s="15"/>
       <c r="T28" s="10"/>
       <c r="U28" s="10"/>
       <c r="V28" s="10"/>
@@ -3546,7 +3079,7 @@
       <c r="P29" s="10"/>
       <c r="Q29" s="10"/>
       <c r="R29" s="10"/>
-      <c r="S29" s="16"/>
+      <c r="S29" s="15"/>
       <c r="T29" s="10"/>
       <c r="U29" s="10"/>
       <c r="V29" s="10"/>
@@ -3598,7 +3131,7 @@
       <c r="P30" s="10"/>
       <c r="Q30" s="10"/>
       <c r="R30" s="10"/>
-      <c r="S30" s="16"/>
+      <c r="S30" s="15"/>
       <c r="T30" s="10"/>
       <c r="U30" s="10"/>
       <c r="V30" s="10"/>
@@ -3625,7 +3158,7 @@
       <c r="G31" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H31" s="45" t="s">
+      <c r="H31" s="41" t="s">
         <v>96</v>
       </c>
       <c r="I31" s="11" t="s">
@@ -3650,7 +3183,7 @@
       <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
       <c r="R31" s="10"/>
-      <c r="S31" s="16"/>
+      <c r="S31" s="15"/>
       <c r="T31" s="10"/>
       <c r="U31" s="10"/>
       <c r="V31" s="10"/>
@@ -3677,7 +3210,7 @@
       <c r="G32" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H32" s="45" t="s">
+      <c r="H32" s="41" t="s">
         <v>98</v>
       </c>
       <c r="I32" s="11" t="s">
@@ -3702,7 +3235,7 @@
       <c r="P32" s="10"/>
       <c r="Q32" s="10"/>
       <c r="R32" s="10"/>
-      <c r="S32" s="16"/>
+      <c r="S32" s="15"/>
       <c r="T32" s="10"/>
       <c r="U32" s="10"/>
       <c r="V32" s="10"/>
@@ -3729,7 +3262,7 @@
       <c r="G33" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H33" s="45" t="s">
+      <c r="H33" s="41" t="s">
         <v>100</v>
       </c>
       <c r="I33" s="11" t="s">
@@ -3754,7 +3287,7 @@
       <c r="P33" s="10"/>
       <c r="Q33" s="10"/>
       <c r="R33" s="10"/>
-      <c r="S33" s="16"/>
+      <c r="S33" s="15"/>
       <c r="T33" s="10"/>
       <c r="U33" s="10"/>
       <c r="V33" s="10"/>
@@ -3806,7 +3339,7 @@
       <c r="P34" s="10"/>
       <c r="Q34" s="10"/>
       <c r="R34" s="10"/>
-      <c r="S34" s="16"/>
+      <c r="S34" s="15"/>
       <c r="T34" s="10"/>
       <c r="U34" s="10"/>
       <c r="V34" s="10"/>
@@ -3858,7 +3391,7 @@
       <c r="P35" s="10"/>
       <c r="Q35" s="10"/>
       <c r="R35" s="10"/>
-      <c r="S35" s="16"/>
+      <c r="S35" s="15"/>
       <c r="T35" s="10"/>
       <c r="U35" s="10"/>
       <c r="V35" s="10"/>
@@ -3910,7 +3443,7 @@
       <c r="P36" s="10"/>
       <c r="Q36" s="10"/>
       <c r="R36" s="10"/>
-      <c r="S36" s="16"/>
+      <c r="S36" s="15"/>
       <c r="T36" s="10"/>
       <c r="U36" s="10"/>
       <c r="V36" s="10"/>
@@ -3962,7 +3495,7 @@
       <c r="P37" s="10"/>
       <c r="Q37" s="10"/>
       <c r="R37" s="10"/>
-      <c r="S37" s="16"/>
+      <c r="S37" s="15"/>
       <c r="T37" s="10"/>
       <c r="U37" s="10"/>
       <c r="V37" s="10"/>
@@ -4014,7 +3547,7 @@
       <c r="P38" s="10"/>
       <c r="Q38" s="10"/>
       <c r="R38" s="10"/>
-      <c r="S38" s="16"/>
+      <c r="S38" s="15"/>
       <c r="T38" s="10"/>
       <c r="U38" s="10"/>
       <c r="V38" s="10"/>
@@ -4066,7 +3599,7 @@
       <c r="P39" s="10"/>
       <c r="Q39" s="10"/>
       <c r="R39" s="10"/>
-      <c r="S39" s="16"/>
+      <c r="S39" s="15"/>
       <c r="T39" s="10"/>
       <c r="U39" s="10"/>
       <c r="V39" s="10"/>
@@ -4118,7 +3651,7 @@
       <c r="P40" s="10"/>
       <c r="Q40" s="10"/>
       <c r="R40" s="10"/>
-      <c r="S40" s="16"/>
+      <c r="S40" s="15"/>
       <c r="T40" s="10"/>
       <c r="U40" s="10"/>
       <c r="V40" s="10"/>
@@ -4170,7 +3703,7 @@
       <c r="P41" s="10"/>
       <c r="Q41" s="10"/>
       <c r="R41" s="10"/>
-      <c r="S41" s="16"/>
+      <c r="S41" s="15"/>
       <c r="T41" s="10"/>
       <c r="U41" s="10"/>
       <c r="V41" s="10"/>
@@ -4222,7 +3755,7 @@
       <c r="P42" s="10"/>
       <c r="Q42" s="10"/>
       <c r="R42" s="10"/>
-      <c r="S42" s="16"/>
+      <c r="S42" s="15"/>
       <c r="T42" s="10"/>
       <c r="U42" s="10"/>
       <c r="V42" s="10"/>
@@ -4274,7 +3807,7 @@
       <c r="P43" s="10"/>
       <c r="Q43" s="10"/>
       <c r="R43" s="10"/>
-      <c r="S43" s="16"/>
+      <c r="S43" s="15"/>
       <c r="T43" s="10"/>
       <c r="U43" s="10"/>
       <c r="V43" s="10"/>
@@ -4326,7 +3859,7 @@
       <c r="P44" s="10"/>
       <c r="Q44" s="10"/>
       <c r="R44" s="10"/>
-      <c r="S44" s="16"/>
+      <c r="S44" s="15"/>
       <c r="T44" s="10"/>
       <c r="U44" s="10"/>
       <c r="V44" s="10"/>
@@ -4378,7 +3911,7 @@
       <c r="P45" s="10"/>
       <c r="Q45" s="10"/>
       <c r="R45" s="10"/>
-      <c r="S45" s="16"/>
+      <c r="S45" s="15"/>
       <c r="T45" s="10"/>
       <c r="U45" s="10"/>
       <c r="V45" s="10"/>
@@ -4430,7 +3963,7 @@
       <c r="P46" s="10"/>
       <c r="Q46" s="10"/>
       <c r="R46" s="10"/>
-      <c r="S46" s="16"/>
+      <c r="S46" s="15"/>
       <c r="T46" s="10"/>
       <c r="U46" s="10"/>
       <c r="V46" s="10"/>
@@ -4482,7 +4015,7 @@
       <c r="P47" s="10"/>
       <c r="Q47" s="10"/>
       <c r="R47" s="10"/>
-      <c r="S47" s="16"/>
+      <c r="S47" s="15"/>
       <c r="T47" s="10"/>
       <c r="U47" s="10"/>
       <c r="V47" s="10"/>
@@ -4534,7 +4067,7 @@
       <c r="P48" s="10"/>
       <c r="Q48" s="10"/>
       <c r="R48" s="10"/>
-      <c r="S48" s="16"/>
+      <c r="S48" s="15"/>
       <c r="T48" s="10"/>
       <c r="U48" s="10"/>
       <c r="V48" s="10"/>
@@ -4586,7 +4119,7 @@
       <c r="P49" s="10"/>
       <c r="Q49" s="10"/>
       <c r="R49" s="10"/>
-      <c r="S49" s="16"/>
+      <c r="S49" s="15"/>
       <c r="T49" s="10"/>
       <c r="U49" s="10"/>
       <c r="V49" s="10"/>
@@ -4638,7 +4171,7 @@
       <c r="P50" s="10"/>
       <c r="Q50" s="10"/>
       <c r="R50" s="10"/>
-      <c r="S50" s="16"/>
+      <c r="S50" s="15"/>
       <c r="T50" s="10"/>
       <c r="U50" s="10"/>
       <c r="V50" s="10"/>
@@ -4690,7 +4223,7 @@
       <c r="P51" s="10"/>
       <c r="Q51" s="10"/>
       <c r="R51" s="10"/>
-      <c r="S51" s="16"/>
+      <c r="S51" s="15"/>
       <c r="T51" s="10"/>
       <c r="U51" s="10"/>
       <c r="V51" s="10"/>
@@ -4742,7 +4275,7 @@
       <c r="P52" s="10"/>
       <c r="Q52" s="10"/>
       <c r="R52" s="10"/>
-      <c r="S52" s="16"/>
+      <c r="S52" s="15"/>
       <c r="T52" s="10"/>
       <c r="U52" s="10"/>
       <c r="V52" s="10"/>
@@ -4794,7 +4327,7 @@
       <c r="P53" s="10"/>
       <c r="Q53" s="10"/>
       <c r="R53" s="10"/>
-      <c r="S53" s="16"/>
+      <c r="S53" s="15"/>
       <c r="T53" s="10"/>
       <c r="U53" s="10"/>
       <c r="V53" s="10"/>
@@ -4846,7 +4379,7 @@
       <c r="P54" s="10"/>
       <c r="Q54" s="10"/>
       <c r="R54" s="10"/>
-      <c r="S54" s="16"/>
+      <c r="S54" s="15"/>
       <c r="T54" s="10"/>
       <c r="U54" s="10"/>
       <c r="V54" s="10"/>
@@ -4898,7 +4431,7 @@
       <c r="P55" s="10"/>
       <c r="Q55" s="10"/>
       <c r="R55" s="10"/>
-      <c r="S55" s="16"/>
+      <c r="S55" s="15"/>
       <c r="T55" s="10"/>
       <c r="U55" s="10"/>
       <c r="V55" s="10"/>
@@ -4950,7 +4483,7 @@
       <c r="P56" s="10"/>
       <c r="Q56" s="10"/>
       <c r="R56" s="10"/>
-      <c r="S56" s="16"/>
+      <c r="S56" s="15"/>
       <c r="T56" s="10"/>
       <c r="U56" s="10"/>
       <c r="V56" s="10"/>
@@ -5002,7 +4535,7 @@
       <c r="P57" s="10"/>
       <c r="Q57" s="10"/>
       <c r="R57" s="10"/>
-      <c r="S57" s="16"/>
+      <c r="S57" s="15"/>
       <c r="T57" s="10"/>
       <c r="U57" s="10"/>
       <c r="V57" s="10"/>
@@ -5054,7 +4587,7 @@
       <c r="P58" s="10"/>
       <c r="Q58" s="10"/>
       <c r="R58" s="10"/>
-      <c r="S58" s="16"/>
+      <c r="S58" s="15"/>
       <c r="T58" s="10"/>
       <c r="U58" s="10"/>
       <c r="V58" s="10"/>
@@ -5106,7 +4639,7 @@
       <c r="P59" s="10"/>
       <c r="Q59" s="10"/>
       <c r="R59" s="10"/>
-      <c r="S59" s="16"/>
+      <c r="S59" s="15"/>
       <c r="T59" s="10"/>
       <c r="U59" s="10"/>
       <c r="V59" s="10"/>
@@ -5158,7 +4691,7 @@
       <c r="P60" s="10"/>
       <c r="Q60" s="10"/>
       <c r="R60" s="10"/>
-      <c r="S60" s="16"/>
+      <c r="S60" s="15"/>
       <c r="T60" s="10"/>
       <c r="U60" s="10"/>
       <c r="V60" s="10"/>
@@ -5210,12 +4743,12 @@
       <c r="P61" s="10"/>
       <c r="Q61" s="10"/>
       <c r="R61" s="10"/>
-      <c r="S61" s="16"/>
+      <c r="S61" s="15"/>
       <c r="T61" s="10"/>
       <c r="U61" s="10"/>
       <c r="V61" s="10"/>
     </row>
-    <row r="62" s="4" customFormat="1" spans="1:22">
+    <row r="62" spans="1:22" s="4" customFormat="1">
       <c r="A62" s="5">
         <v>200060</v>
       </c>
@@ -5231,28 +4764,28 @@
       <c r="E62" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F62" s="13" t="s">
+      <c r="F62" s="12" t="s">
         <v>25</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H62" s="46" t="s">
+      <c r="H62" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="I62" s="13" t="s">
+      <c r="I62" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="J62" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K62" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="L62" s="13" t="s">
+      <c r="J62" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K62" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L62" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="M62" s="13" t="s">
+      <c r="M62" s="12" t="s">
         <v>44</v>
       </c>
       <c r="N62" s="5" t="s">
@@ -5262,12 +4795,12 @@
       <c r="P62" s="5"/>
       <c r="Q62" s="5"/>
       <c r="R62" s="5"/>
-      <c r="S62" s="17"/>
+      <c r="S62" s="16"/>
       <c r="T62" s="5"/>
       <c r="U62" s="5"/>
       <c r="V62" s="5"/>
     </row>
-    <row r="63" s="4" customFormat="1" spans="1:22">
+    <row r="63" spans="1:22" s="4" customFormat="1">
       <c r="A63" s="5">
         <v>200061</v>
       </c>
@@ -5283,28 +4816,28 @@
       <c r="E63" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F63" s="13" t="s">
+      <c r="F63" s="12" t="s">
         <v>25</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H63" s="46" t="s">
+      <c r="H63" s="42" t="s">
         <v>164</v>
       </c>
-      <c r="I63" s="13" t="s">
+      <c r="I63" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="J63" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K63" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="L63" s="13" t="s">
+      <c r="J63" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K63" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L63" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="M63" s="13" t="s">
+      <c r="M63" s="12" t="s">
         <v>44</v>
       </c>
       <c r="N63" s="5" t="s">
@@ -5314,12 +4847,12 @@
       <c r="P63" s="5"/>
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
-      <c r="S63" s="17"/>
+      <c r="S63" s="16"/>
       <c r="T63" s="5"/>
       <c r="U63" s="5"/>
       <c r="V63" s="5"/>
     </row>
-    <row r="64" s="4" customFormat="1" spans="1:22">
+    <row r="64" spans="1:22" s="4" customFormat="1">
       <c r="A64" s="5">
         <v>200062</v>
       </c>
@@ -5335,28 +4868,28 @@
       <c r="E64" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F64" s="13" t="s">
+      <c r="F64" s="12" t="s">
         <v>25</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H64" s="46" t="s">
+      <c r="H64" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="I64" s="13" t="s">
+      <c r="I64" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="J64" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K64" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="L64" s="13" t="s">
+      <c r="J64" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K64" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L64" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="M64" s="13" t="s">
+      <c r="M64" s="12" t="s">
         <v>44</v>
       </c>
       <c r="N64" s="5" t="s">
@@ -5366,12 +4899,12 @@
       <c r="P64" s="5"/>
       <c r="Q64" s="5"/>
       <c r="R64" s="5"/>
-      <c r="S64" s="17"/>
+      <c r="S64" s="16"/>
       <c r="T64" s="5"/>
       <c r="U64" s="5"/>
       <c r="V64" s="5"/>
     </row>
-    <row r="65" s="4" customFormat="1" spans="1:22">
+    <row r="65" spans="1:22" s="4" customFormat="1">
       <c r="A65" s="5">
         <v>200063</v>
       </c>
@@ -5387,28 +4920,28 @@
       <c r="E65" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F65" s="13" t="s">
+      <c r="F65" s="12" t="s">
         <v>25</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H65" s="46" t="s">
+      <c r="H65" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="I65" s="13" t="s">
+      <c r="I65" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="J65" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K65" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="L65" s="13" t="s">
+      <c r="J65" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K65" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L65" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="M65" s="13" t="s">
+      <c r="M65" s="12" t="s">
         <v>44</v>
       </c>
       <c r="N65" s="5" t="s">
@@ -5418,12 +4951,12 @@
       <c r="P65" s="5"/>
       <c r="Q65" s="5"/>
       <c r="R65" s="5"/>
-      <c r="S65" s="17"/>
+      <c r="S65" s="16"/>
       <c r="T65" s="5"/>
       <c r="U65" s="5"/>
       <c r="V65" s="5"/>
     </row>
-    <row r="66" s="4" customFormat="1" spans="1:22">
+    <row r="66" spans="1:22" s="4" customFormat="1">
       <c r="A66" s="5">
         <v>200064</v>
       </c>
@@ -5439,28 +4972,28 @@
       <c r="E66" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F66" s="13" t="s">
+      <c r="F66" s="12" t="s">
         <v>25</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H66" s="46" t="s">
+      <c r="H66" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="I66" s="13" t="s">
+      <c r="I66" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="J66" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K66" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="L66" s="13" t="s">
+      <c r="J66" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K66" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L66" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="M66" s="13" t="s">
+      <c r="M66" s="12" t="s">
         <v>44</v>
       </c>
       <c r="N66" s="5" t="s">
@@ -5470,12 +5003,12 @@
       <c r="P66" s="5"/>
       <c r="Q66" s="5"/>
       <c r="R66" s="5"/>
-      <c r="S66" s="17"/>
+      <c r="S66" s="16"/>
       <c r="T66" s="5"/>
       <c r="U66" s="5"/>
       <c r="V66" s="5"/>
     </row>
-    <row r="67" s="4" customFormat="1" spans="1:22">
+    <row r="67" spans="1:22" s="4" customFormat="1">
       <c r="A67" s="5">
         <v>200065</v>
       </c>
@@ -5491,28 +5024,28 @@
       <c r="E67" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F67" s="13" t="s">
+      <c r="F67" s="12" t="s">
         <v>25</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H67" s="46" t="s">
+      <c r="H67" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="I67" s="13" t="s">
+      <c r="I67" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="J67" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K67" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="L67" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="M67" s="13" t="s">
+      <c r="J67" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K67" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L67" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M67" s="12" t="s">
         <v>29</v>
       </c>
       <c r="N67" s="5" t="s">
@@ -5522,12 +5055,12 @@
       <c r="P67" s="5"/>
       <c r="Q67" s="5"/>
       <c r="R67" s="5"/>
-      <c r="S67" s="17"/>
+      <c r="S67" s="16"/>
       <c r="T67" s="5"/>
       <c r="U67" s="5"/>
       <c r="V67" s="5"/>
     </row>
-    <row r="68" s="5" customFormat="1" spans="1:14">
+    <row r="68" spans="1:22" s="5" customFormat="1">
       <c r="A68" s="5">
         <v>200066</v>
       </c>
@@ -5543,35 +5076,35 @@
       <c r="E68" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F68" s="13" t="s">
+      <c r="F68" s="12" t="s">
         <v>25</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H68" s="47" t="s">
+      <c r="H68" s="43" t="s">
         <v>174</v>
       </c>
       <c r="I68" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="J68" s="13" t="s">
+      <c r="J68" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="K68" s="13" t="s">
+      <c r="K68" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="L68" s="13" t="s">
+      <c r="L68" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="M68" s="13" t="s">
+      <c r="M68" s="12" t="s">
         <v>29</v>
       </c>
       <c r="N68" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="69" s="5" customFormat="1" spans="1:14">
+    <row r="69" spans="1:22" s="5" customFormat="1">
       <c r="A69" s="5">
         <v>200067</v>
       </c>
@@ -5587,35 +5120,35 @@
       <c r="E69" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F69" s="13" t="s">
+      <c r="F69" s="12" t="s">
         <v>25</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H69" s="47" t="s">
+      <c r="H69" s="43" t="s">
         <v>178</v>
       </c>
       <c r="I69" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="J69" s="13" t="s">
+      <c r="J69" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="K69" s="13" t="s">
+      <c r="K69" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="L69" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="M69" s="13" t="s">
+      <c r="L69" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M69" s="12" t="s">
         <v>29</v>
       </c>
       <c r="N69" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="70" s="5" customFormat="1" spans="1:14">
+    <row r="70" spans="1:22" s="5" customFormat="1">
       <c r="A70" s="5">
         <v>200068</v>
       </c>
@@ -5631,35 +5164,35 @@
       <c r="E70" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F70" s="13" t="s">
+      <c r="F70" s="12" t="s">
         <v>25</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H70" s="47" t="s">
+      <c r="H70" s="43" t="s">
         <v>180</v>
       </c>
       <c r="I70" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="J70" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K70" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="L70" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="M70" s="13" t="s">
+      <c r="J70" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K70" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L70" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M70" s="12" t="s">
         <v>29</v>
       </c>
       <c r="N70" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="71" s="5" customFormat="1" spans="1:14">
+    <row r="71" spans="1:22" s="5" customFormat="1">
       <c r="A71" s="5">
         <v>200069</v>
       </c>
@@ -5675,35 +5208,35 @@
       <c r="E71" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F71" s="13" t="s">
+      <c r="F71" s="12" t="s">
         <v>25</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H71" s="47" t="s">
+      <c r="H71" s="43" t="s">
         <v>180</v>
       </c>
       <c r="I71" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="J71" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K71" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="L71" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="M71" s="13" t="s">
+      <c r="J71" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K71" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L71" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M71" s="12" t="s">
         <v>29</v>
       </c>
       <c r="N71" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="72" s="5" customFormat="1" spans="1:14">
+    <row r="72" spans="1:22" s="5" customFormat="1">
       <c r="A72" s="5">
         <v>200070</v>
       </c>
@@ -5719,35 +5252,35 @@
       <c r="E72" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F72" s="13" t="s">
+      <c r="F72" s="12" t="s">
         <v>25</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H72" s="47" t="s">
+      <c r="H72" s="43" t="s">
         <v>185</v>
       </c>
       <c r="I72" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="J72" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K72" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="L72" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="M72" s="13" t="s">
+      <c r="J72" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K72" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L72" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M72" s="12" t="s">
         <v>29</v>
       </c>
       <c r="N72" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="73" s="4" customFormat="1" spans="1:14">
+    <row r="73" spans="1:22" s="4" customFormat="1">
       <c r="A73" s="5">
         <v>200071</v>
       </c>
@@ -5763,35 +5296,35 @@
       <c r="E73" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F73" s="13" t="s">
+      <c r="F73" s="12" t="s">
         <v>25</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H73" s="46" t="s">
+      <c r="H73" s="42" t="s">
         <v>187</v>
       </c>
       <c r="I73" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="J73" s="29">
-        <v>1</v>
-      </c>
-      <c r="K73" s="30">
-        <v>1</v>
-      </c>
-      <c r="L73" s="31">
-        <v>1</v>
-      </c>
-      <c r="M73" s="31">
+      <c r="J73" s="27">
+        <v>1</v>
+      </c>
+      <c r="K73" s="28">
+        <v>1</v>
+      </c>
+      <c r="L73" s="29">
+        <v>1</v>
+      </c>
+      <c r="M73" s="29">
         <v>1</v>
       </c>
       <c r="N73" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="74" s="4" customFormat="1" spans="1:14">
+    <row r="74" spans="1:22" s="4" customFormat="1">
       <c r="A74" s="5">
         <v>200071</v>
       </c>
@@ -5807,35 +5340,35 @@
       <c r="E74" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F74" s="13" t="s">
+      <c r="F74" s="12" t="s">
         <v>25</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H74" s="46" t="s">
+      <c r="H74" s="42" t="s">
         <v>189</v>
       </c>
       <c r="I74" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="J74" s="29">
-        <v>1</v>
-      </c>
-      <c r="K74" s="30">
-        <v>1</v>
-      </c>
-      <c r="L74" s="31">
-        <v>1</v>
-      </c>
-      <c r="M74" s="31">
+      <c r="J74" s="27">
+        <v>1</v>
+      </c>
+      <c r="K74" s="28">
+        <v>1</v>
+      </c>
+      <c r="L74" s="29">
+        <v>1</v>
+      </c>
+      <c r="M74" s="29">
         <v>1</v>
       </c>
       <c r="N74" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="75" s="4" customFormat="1" spans="1:14">
+    <row r="75" spans="1:22" s="4" customFormat="1">
       <c r="A75" s="5">
         <v>200071</v>
       </c>
@@ -5851,419 +5384,412 @@
       <c r="E75" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F75" s="13" t="s">
+      <c r="F75" s="12" t="s">
         <v>25</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H75" s="46" t="s">
+      <c r="H75" s="42" t="s">
         <v>190</v>
       </c>
       <c r="I75" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="J75" s="29">
-        <v>1</v>
-      </c>
-      <c r="K75" s="30">
-        <v>1</v>
-      </c>
-      <c r="L75" s="31">
-        <v>1</v>
-      </c>
-      <c r="M75" s="31">
+      <c r="J75" s="27">
+        <v>1</v>
+      </c>
+      <c r="K75" s="28">
+        <v>1</v>
+      </c>
+      <c r="L75" s="29">
+        <v>1</v>
+      </c>
+      <c r="M75" s="29">
         <v>1</v>
       </c>
       <c r="N75" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="76" s="6" customFormat="1" spans="1:22">
-      <c r="A76" s="18">
+    <row r="76" spans="1:22" s="6" customFormat="1">
+      <c r="A76" s="17">
         <v>200073</v>
       </c>
-      <c r="B76" s="18" t="s">
+      <c r="B76" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="C76" s="19">
+      <c r="C76" s="18">
         <v>80</v>
       </c>
-      <c r="D76" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E76" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F76" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G76" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H76" s="48" t="s">
+      <c r="D76" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F76" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G76" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H76" s="44" t="s">
         <v>192</v>
       </c>
-      <c r="I76" s="18" t="s">
+      <c r="I76" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="J76" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="K76" s="33">
-        <v>1</v>
-      </c>
-      <c r="L76" s="20" t="s">
+      <c r="J76" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="K76" s="31">
+        <v>1</v>
+      </c>
+      <c r="L76" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="M76" s="20" t="s">
+      <c r="M76" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="N76" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="O76" s="18"/>
-      <c r="P76" s="18"/>
-      <c r="Q76" s="18"/>
-      <c r="R76" s="18"/>
-      <c r="S76" s="18"/>
-      <c r="T76" s="18"/>
-      <c r="U76" s="18"/>
-      <c r="V76" s="18"/>
-    </row>
-    <row r="77" spans="1:14">
-      <c r="A77" s="21">
+      <c r="N76" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
+      <c r="R76" s="17"/>
+      <c r="S76" s="17"/>
+      <c r="T76" s="17"/>
+      <c r="U76" s="17"/>
+      <c r="V76" s="17"/>
+    </row>
+    <row r="77" spans="1:22">
+      <c r="A77" s="20">
         <v>200074</v>
       </c>
-      <c r="B77" s="21" t="s">
+      <c r="B77" s="20" t="s">
         <v>194</v>
       </c>
       <c r="C77" s="7">
         <v>81</v>
       </c>
-      <c r="D77" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E77" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F77" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G77" s="21" t="s">
+      <c r="D77" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E77" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F77" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G77" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H77" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="I77" s="34" t="s">
+      <c r="I77" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="J77" s="35">
-        <v>1</v>
-      </c>
-      <c r="K77" s="36">
-        <v>1</v>
-      </c>
-      <c r="L77" s="37" t="s">
+      <c r="J77" s="33">
+        <v>1</v>
+      </c>
+      <c r="K77" s="34">
+        <v>1</v>
+      </c>
+      <c r="L77" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="M77" s="37">
-        <v>1</v>
-      </c>
-      <c r="N77" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
-      <c r="A78" s="21">
+      <c r="M77" s="35">
+        <v>1</v>
+      </c>
+      <c r="N77" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22">
+      <c r="A78" s="20">
         <v>200075</v>
       </c>
-      <c r="B78" s="21" t="s">
+      <c r="B78" s="20" t="s">
         <v>197</v>
       </c>
       <c r="C78" s="7">
         <v>82</v>
       </c>
-      <c r="D78" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E78" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F78" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G78" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="H78" s="49" t="s">
+      <c r="D78" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E78" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F78" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G78" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H78" s="45" t="s">
         <v>198</v>
       </c>
-      <c r="I78" s="34" t="s">
+      <c r="I78" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="J78" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="K78" s="36">
-        <v>1</v>
-      </c>
-      <c r="L78" s="37" t="s">
+      <c r="J78" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="K78" s="34">
+        <v>1</v>
+      </c>
+      <c r="L78" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="M78" s="37" t="s">
+      <c r="M78" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="N78" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
-      <c r="A79" s="21">
+      <c r="N78" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22">
+      <c r="A79" s="20">
         <v>200076</v>
       </c>
-      <c r="B79" s="21" t="s">
+      <c r="B79" s="20" t="s">
         <v>200</v>
       </c>
       <c r="C79" s="7">
         <v>83</v>
       </c>
-      <c r="D79" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E79" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F79" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G79" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="H79" s="49" t="s">
+      <c r="D79" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E79" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F79" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G79" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H79" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="I79" s="34" t="s">
+      <c r="I79" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="J79" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="K79" s="36">
-        <v>1</v>
-      </c>
-      <c r="L79" s="36">
+      <c r="J79" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="K79" s="34">
+        <v>1</v>
+      </c>
+      <c r="L79" s="34">
         <v>0</v>
       </c>
-      <c r="M79" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="N79" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="80" s="6" customFormat="1" spans="1:14">
-      <c r="A80" s="18">
+      <c r="M79" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="N79" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" s="6" customFormat="1">
+      <c r="A80" s="17">
         <v>200078</v>
       </c>
-      <c r="B80" s="18" t="s">
+      <c r="B80" s="17" t="s">
         <v>202</v>
       </c>
       <c r="C80" s="6">
         <v>84</v>
       </c>
-      <c r="D80" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E80" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="F80" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G80" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H80" s="50" t="s">
+      <c r="D80" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E80" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F80" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G80" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H80" s="46" t="s">
         <v>203</v>
       </c>
       <c r="I80" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="J80" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="K80" s="39">
-        <v>1</v>
-      </c>
-      <c r="L80" s="40" t="s">
+      <c r="J80" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="K80" s="37">
+        <v>1</v>
+      </c>
+      <c r="L80" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="M80" s="40" t="s">
+      <c r="M80" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="N80" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="81" s="6" customFormat="1" spans="1:14">
-      <c r="A81" s="18">
+      <c r="N80" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" s="6" customFormat="1">
+      <c r="A81" s="17">
         <v>200079</v>
       </c>
-      <c r="B81" s="18" t="s">
+      <c r="B81" s="17" t="s">
         <v>204</v>
       </c>
       <c r="C81" s="6">
         <v>85</v>
       </c>
-      <c r="D81" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E81" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="F81" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G81" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H81" s="50" t="s">
+      <c r="D81" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E81" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F81" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G81" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H81" s="46" t="s">
         <v>205</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="J81" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="K81" s="39">
-        <v>1</v>
-      </c>
-      <c r="L81" s="40" t="s">
+      <c r="J81" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="K81" s="37">
+        <v>1</v>
+      </c>
+      <c r="L81" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="M81" s="40" t="s">
+      <c r="M81" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="N81" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14">
-      <c r="A82" s="21">
+      <c r="N81" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82" s="20">
         <v>200080</v>
       </c>
-      <c r="B82" s="21" t="s">
+      <c r="B82" s="20" t="s">
         <v>206</v>
       </c>
       <c r="C82" s="7">
         <v>86</v>
       </c>
-      <c r="D82" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E82" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F82" s="26" t="s">
+      <c r="D82" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E82" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F82" s="25" t="s">
         <v>25</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H82" s="46" t="s">
+      <c r="H82" s="42" t="s">
         <v>207</v>
       </c>
       <c r="I82" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J82" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="K82" s="30">
-        <v>1</v>
-      </c>
-      <c r="L82" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="M82" s="31" t="s">
+      <c r="J82" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="K82" s="28">
+        <v>1</v>
+      </c>
+      <c r="L82" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="M82" s="29" t="s">
         <v>29</v>
       </c>
       <c r="N82" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="83" customFormat="1" spans="1:22">
-      <c r="A83" s="21">
-        <v>200081</v>
-      </c>
-      <c r="B83" s="21" t="s">
+    <row r="83" spans="1:15">
+      <c r="A83" s="20">
+        <v>200085</v>
+      </c>
+      <c r="B83" s="20" t="s">
         <v>208</v>
       </c>
       <c r="C83" s="7">
-        <v>85</v>
-      </c>
-      <c r="D83" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E83" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F83" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D83" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E83" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F83" s="25" t="s">
         <v>25</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H83" s="4" t="s">
+      <c r="H83" s="26" t="s">
         <v>209</v>
       </c>
       <c r="I83" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="J83" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="K83" s="30">
-        <v>1</v>
-      </c>
-      <c r="L83" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="M83" s="31">
-        <v>1</v>
+      <c r="J83" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="K83" s="28">
+        <v>1</v>
+      </c>
+      <c r="L83" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="M83" s="21" t="s">
+        <v>29</v>
       </c>
       <c r="N83" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="O83" s="7"/>
-      <c r="P83" s="7"/>
-      <c r="Q83" s="7"/>
-      <c r="R83" s="7"/>
-      <c r="S83" s="7"/>
-      <c r="T83" s="7"/>
-      <c r="U83" s="7"/>
-      <c r="V83" s="7"/>
-    </row>
-    <row r="84" customFormat="1" spans="1:22">
-      <c r="A84" s="21">
-        <v>200082</v>
-      </c>
-      <c r="B84" s="21" t="s">
+      <c r="O83" s="40"/>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="A84" s="20">
+        <v>200086</v>
+      </c>
+      <c r="B84" s="20" t="s">
         <v>211</v>
       </c>
       <c r="C84" s="7">
-        <v>86</v>
-      </c>
-      <c r="D84" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E84" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F84" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D84" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E84" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F84" s="25" t="s">
         <v>25</v>
       </c>
       <c r="G84" s="5" t="s">
@@ -6273,1012 +5799,987 @@
         <v>212</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="J84" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="K84" s="30">
-        <v>1</v>
-      </c>
-      <c r="L84" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="M84" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="J84" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="K84" s="28">
+        <v>1</v>
+      </c>
+      <c r="L84" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="M84" s="29" t="s">
         <v>29</v>
       </c>
       <c r="N84" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="O84" s="7"/>
-      <c r="P84" s="7"/>
-      <c r="Q84" s="7"/>
-      <c r="R84" s="7"/>
-      <c r="S84" s="7"/>
-      <c r="T84" s="7"/>
-      <c r="U84" s="7"/>
-      <c r="V84" s="7"/>
-    </row>
-    <row r="85" customFormat="1" spans="1:22">
-      <c r="A85" s="21">
+    </row>
+    <row r="85" spans="1:15">
+      <c r="A85" s="20">
+        <v>200087</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="C85" s="7">
+        <v>91</v>
+      </c>
+      <c r="D85" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E85" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F85" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H85" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="I85" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="J85" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="K85" s="28">
+        <v>1</v>
+      </c>
+      <c r="L85" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="M85" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="N85" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="A86" s="20">
+        <v>200088</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="C86" s="7">
+        <v>92</v>
+      </c>
+      <c r="D86" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E86" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F86" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H86" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="J86" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="K86" s="28">
+        <v>1</v>
+      </c>
+      <c r="L86" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="M86" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="N86" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O86" s="40"/>
+    </row>
+    <row r="87" spans="1:15">
+      <c r="A87" s="20">
+        <v>200089</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C87" s="7">
+        <v>93</v>
+      </c>
+      <c r="D87" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E87" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F87" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H87" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="I87" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="J87" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="K87" s="28">
+        <v>1</v>
+      </c>
+      <c r="L87" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="M87" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="N87" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88" s="20">
+        <v>200090</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="C88" s="7">
+        <v>94</v>
+      </c>
+      <c r="D88" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E88" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F88" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J88" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="K88" s="28">
+        <v>1</v>
+      </c>
+      <c r="L88" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="M88" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="N88" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89" s="20">
+        <v>200091</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="C89" s="7">
+        <v>95</v>
+      </c>
+      <c r="D89" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E89" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F89" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="J89" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="K89" s="28">
+        <v>1</v>
+      </c>
+      <c r="L89" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="M89" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="N89" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="A90" s="20">
+        <v>200092</v>
+      </c>
+      <c r="B90" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="C90" s="7">
+        <v>96</v>
+      </c>
+      <c r="D90" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E90" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F90" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J90" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="K90" s="28">
+        <v>1</v>
+      </c>
+      <c r="L90" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="M90" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="N90" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="A91" s="20">
+        <v>200093</v>
+      </c>
+      <c r="B91" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="C91" s="7">
+        <v>97</v>
+      </c>
+      <c r="D91" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E91" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F91" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J91" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="K91" s="28">
+        <v>1</v>
+      </c>
+      <c r="L91" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="M91" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="N91" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92" s="20">
+        <v>200094</v>
+      </c>
+      <c r="B92" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="C92" s="7">
+        <v>98</v>
+      </c>
+      <c r="D92" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E92" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F92" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H92" s="46" t="s">
+        <v>231</v>
+      </c>
+      <c r="I92" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="J92" s="30">
+        <v>1</v>
+      </c>
+      <c r="K92" s="30">
+        <v>1</v>
+      </c>
+      <c r="L92" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="M92" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="N92" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="A93" s="20">
+        <v>200095</v>
+      </c>
+      <c r="B93" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="C93" s="7">
+        <v>99</v>
+      </c>
+      <c r="D93" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E93" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F93" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H93" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="J93" s="30">
+        <v>1</v>
+      </c>
+      <c r="K93" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="L93" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="M93" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="N93" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="A94" s="20">
+        <v>200096</v>
+      </c>
+      <c r="B94" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="C94" s="7">
+        <v>100</v>
+      </c>
+      <c r="D94" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E94" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F94" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H94" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="J94" s="30">
+        <v>1</v>
+      </c>
+      <c r="K94" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="L94" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="M94" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="N94" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="A95" s="20">
+        <v>200097</v>
+      </c>
+      <c r="B95" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="C95" s="7">
+        <v>101</v>
+      </c>
+      <c r="D95" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E95" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F95" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H95" s="46" t="s">
+        <v>239</v>
+      </c>
+      <c r="I95" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="J95" s="30">
+        <v>1</v>
+      </c>
+      <c r="K95" s="30">
+        <v>1</v>
+      </c>
+      <c r="L95" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="M95" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="N95" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="A96" s="7">
+        <v>200098</v>
+      </c>
+      <c r="B96" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="C96" s="7">
+        <v>102</v>
+      </c>
+      <c r="D96" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E96" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F96" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H96" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="I96" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="J96" s="37">
+        <v>1</v>
+      </c>
+      <c r="K96" s="37">
+        <v>1</v>
+      </c>
+      <c r="L96" s="37">
+        <v>0</v>
+      </c>
+      <c r="M96" s="37">
+        <v>2</v>
+      </c>
+      <c r="N96" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" customFormat="1">
+      <c r="A97" s="20">
+        <v>200081</v>
+      </c>
+      <c r="B97" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="C97" s="7">
+        <v>85</v>
+      </c>
+      <c r="D97" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E97" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F97" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="J97" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="K97" s="28">
+        <v>1</v>
+      </c>
+      <c r="L97" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="M97" s="29">
+        <v>1</v>
+      </c>
+      <c r="N97" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" customFormat="1">
+      <c r="A98" s="20">
+        <v>200082</v>
+      </c>
+      <c r="B98" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="C98" s="7">
+        <v>86</v>
+      </c>
+      <c r="D98" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E98" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F98" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="I98" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="J98" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="K98" s="28">
+        <v>1</v>
+      </c>
+      <c r="L98" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="M98" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="N98" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" customFormat="1">
+      <c r="A99" s="20">
         <v>200083</v>
       </c>
-      <c r="B85" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="C85" s="7">
+      <c r="B99" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="C99" s="7">
         <v>87</v>
       </c>
-      <c r="D85" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E85" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F85" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G85" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="I85" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="J85" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="K85" s="30">
-        <v>1</v>
-      </c>
-      <c r="L85" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="M85" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="N85" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="O85" s="7"/>
-      <c r="P85" s="7"/>
-      <c r="Q85" s="7"/>
-      <c r="R85" s="7"/>
-      <c r="S85" s="7"/>
-      <c r="T85" s="7"/>
-      <c r="U85" s="7"/>
-      <c r="V85" s="7"/>
-    </row>
-    <row r="86" customFormat="1" spans="1:22">
-      <c r="A86" s="21">
+      <c r="D99" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E99" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F99" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="I99" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="J99" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="K99" s="28">
+        <v>1</v>
+      </c>
+      <c r="L99" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="M99" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="N99" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" customFormat="1">
+      <c r="A100" s="20">
         <v>200084</v>
       </c>
-      <c r="B86" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="C86" s="7">
+      <c r="B100" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="C100" s="7">
         <v>88</v>
       </c>
-      <c r="D86" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E86" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F86" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G86" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="I86" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="J86" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="K86" s="30">
-        <v>1</v>
-      </c>
-      <c r="L86" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="M86" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="N86" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="O86" s="7"/>
-      <c r="P86" s="7"/>
-      <c r="Q86" s="7"/>
-      <c r="R86" s="7"/>
-      <c r="S86" s="7"/>
-      <c r="T86" s="7"/>
-      <c r="U86" s="7"/>
-      <c r="V86" s="7"/>
-    </row>
-    <row r="87" spans="1:15">
-      <c r="A87" s="21">
-        <v>200085</v>
-      </c>
-      <c r="B87" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="C87" s="7">
-        <v>89</v>
-      </c>
-      <c r="D87" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E87" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F87" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G87" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H87" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="I87" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="J87" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="K87" s="30">
-        <v>1</v>
-      </c>
-      <c r="L87" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="M87" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="N87" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="O87" s="42"/>
-    </row>
-    <row r="88" spans="1:14">
-      <c r="A88" s="21">
-        <v>200086</v>
-      </c>
-      <c r="B88" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="C88" s="7">
-        <v>90</v>
-      </c>
-      <c r="D88" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E88" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F88" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G88" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H88" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="I88" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="J88" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="K88" s="30">
-        <v>1</v>
-      </c>
-      <c r="L88" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="M88" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="N88" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14">
-      <c r="A89" s="21">
-        <v>200087</v>
-      </c>
-      <c r="B89" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="C89" s="7">
-        <v>91</v>
-      </c>
-      <c r="D89" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E89" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F89" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G89" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H89" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="I89" s="42" t="s">
-        <v>227</v>
-      </c>
-      <c r="J89" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="K89" s="30">
-        <v>1</v>
-      </c>
-      <c r="L89" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="M89" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="N89" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15">
-      <c r="A90" s="21">
-        <v>200088</v>
-      </c>
-      <c r="B90" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="C90" s="7">
-        <v>92</v>
-      </c>
-      <c r="D90" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E90" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F90" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G90" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H90" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="I90" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="J90" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="K90" s="30">
-        <v>1</v>
-      </c>
-      <c r="L90" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="M90" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="N90" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="O90" s="42"/>
-    </row>
-    <row r="91" spans="1:14">
-      <c r="A91" s="21">
-        <v>200089</v>
-      </c>
-      <c r="B91" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="C91" s="7">
-        <v>93</v>
-      </c>
-      <c r="D91" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E91" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F91" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G91" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H91" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="I91" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="J91" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="K91" s="30">
-        <v>1</v>
-      </c>
-      <c r="L91" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="M91" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="N91" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14">
-      <c r="A92" s="21">
-        <v>200090</v>
-      </c>
-      <c r="B92" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="C92" s="7">
-        <v>94</v>
-      </c>
-      <c r="D92" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E92" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F92" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G92" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H92" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="I92" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="J92" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="K92" s="30">
-        <v>1</v>
-      </c>
-      <c r="L92" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="M92" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="N92" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14">
-      <c r="A93" s="21">
-        <v>200091</v>
-      </c>
-      <c r="B93" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="C93" s="7">
-        <v>95</v>
-      </c>
-      <c r="D93" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E93" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F93" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H93" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="I93" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="J93" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="K93" s="30">
-        <v>1</v>
-      </c>
-      <c r="L93" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="M93" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="N93" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14">
-      <c r="A94" s="21">
-        <v>200092</v>
-      </c>
-      <c r="B94" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="C94" s="7">
-        <v>96</v>
-      </c>
-      <c r="D94" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E94" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F94" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G94" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H94" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="I94" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="J94" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="K94" s="30">
-        <v>1</v>
-      </c>
-      <c r="L94" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="M94" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="N94" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14">
-      <c r="A95" s="21">
-        <v>200093</v>
-      </c>
-      <c r="B95" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="C95" s="7">
-        <v>97</v>
-      </c>
-      <c r="D95" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E95" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F95" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G95" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H95" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="I95" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="J95" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="K95" s="30">
-        <v>1</v>
-      </c>
-      <c r="L95" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="M95" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="N95" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14">
-      <c r="A96" s="21">
-        <v>200094</v>
-      </c>
-      <c r="B96" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="C96" s="7">
-        <v>98</v>
-      </c>
-      <c r="D96" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E96" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F96" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G96" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H96" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="I96" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="J96" s="43">
-        <v>1</v>
-      </c>
-      <c r="K96" s="43">
-        <v>1</v>
-      </c>
-      <c r="L96" s="43" t="s">
+      <c r="D100" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E100" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F100" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I100" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="J100" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="K100" s="28">
+        <v>1</v>
+      </c>
+      <c r="L100" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="M100" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="N100" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="A101" s="7">
+        <v>200105</v>
+      </c>
+      <c r="B101" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C101" s="7">
+        <v>109</v>
+      </c>
+      <c r="D101" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E101" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F101" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H101" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="J101" s="37">
+        <v>1</v>
+      </c>
+      <c r="K101" s="37">
+        <v>1</v>
+      </c>
+      <c r="L101" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="M96" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="N96" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14">
-      <c r="A97" s="21">
-        <v>200095</v>
-      </c>
-      <c r="B97" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="C97" s="7">
-        <v>99</v>
-      </c>
-      <c r="D97" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E97" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F97" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G97" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H97" s="51" t="s">
-        <v>245</v>
-      </c>
-      <c r="I97" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="J97" s="43">
-        <v>1</v>
-      </c>
-      <c r="K97" s="43" t="s">
+      <c r="M101" s="37">
+        <v>2</v>
+      </c>
+      <c r="N101" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="A102" s="7">
+        <v>200106</v>
+      </c>
+      <c r="B102" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="C102" s="7">
+        <v>110</v>
+      </c>
+      <c r="D102" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E102" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F102" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H102" s="46" t="s">
+        <v>259</v>
+      </c>
+      <c r="I102" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="J102" s="37">
+        <v>1</v>
+      </c>
+      <c r="K102" s="37">
+        <v>1</v>
+      </c>
+      <c r="L102" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="L97" s="43" t="s">
+      <c r="M102" s="37">
+        <v>2</v>
+      </c>
+      <c r="N102" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103" s="7">
+        <v>200107</v>
+      </c>
+      <c r="B103" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="C103" s="7">
+        <v>111</v>
+      </c>
+      <c r="D103" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E103" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F103" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H103" s="46" t="s">
+        <v>262</v>
+      </c>
+      <c r="I103" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="J103" s="37">
+        <v>1</v>
+      </c>
+      <c r="K103" s="37">
+        <v>1</v>
+      </c>
+      <c r="L103" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="M97" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="N97" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14">
-      <c r="A98" s="21">
-        <v>200096</v>
-      </c>
-      <c r="B98" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="C98" s="7">
-        <v>100</v>
-      </c>
-      <c r="D98" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E98" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F98" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G98" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H98" s="51" t="s">
-        <v>248</v>
-      </c>
-      <c r="I98" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="J98" s="43">
-        <v>1</v>
-      </c>
-      <c r="K98" s="43" t="s">
+      <c r="M103" s="37">
+        <v>2</v>
+      </c>
+      <c r="N103" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="A104" s="7">
+        <v>200108</v>
+      </c>
+      <c r="B104" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="C104" s="7">
+        <v>112</v>
+      </c>
+      <c r="D104" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E104" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F104" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H104" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="I104" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="J104" s="37">
+        <v>1</v>
+      </c>
+      <c r="K104" s="37">
+        <v>0</v>
+      </c>
+      <c r="L104" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="L98" s="43" t="s">
+      <c r="M104" s="37">
+        <v>2</v>
+      </c>
+      <c r="N104" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="A105" s="7">
+        <v>200109</v>
+      </c>
+      <c r="B105" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="C105" s="7">
+        <v>113</v>
+      </c>
+      <c r="D105" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E105" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F105" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="I105" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="J105" s="37">
+        <v>1</v>
+      </c>
+      <c r="K105" s="37">
+        <v>0</v>
+      </c>
+      <c r="L105" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="M98" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="N98" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14">
-      <c r="A99" s="21">
-        <v>200097</v>
-      </c>
-      <c r="B99" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="C99" s="7">
-        <v>101</v>
-      </c>
-      <c r="D99" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E99" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F99" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G99" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H99" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="I99" s="28" t="s">
-        <v>251</v>
-      </c>
-      <c r="J99" s="43">
-        <v>1</v>
-      </c>
-      <c r="K99" s="43">
-        <v>1</v>
-      </c>
-      <c r="L99" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="M99" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="N99" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14">
-      <c r="A100" s="7">
-        <v>200098</v>
-      </c>
-      <c r="B100" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="C100" s="7">
-        <v>102</v>
-      </c>
-      <c r="D100" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E100" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F100" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G100" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H100" s="51" t="s">
-        <v>253</v>
-      </c>
-      <c r="I100" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="J100" s="44">
-        <v>1</v>
-      </c>
-      <c r="K100" s="44">
-        <v>1</v>
-      </c>
-      <c r="L100" s="44">
-        <v>0</v>
-      </c>
-      <c r="M100" s="44">
+      <c r="M105" s="37">
         <v>2</v>
       </c>
-      <c r="N100" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="101" customFormat="1" spans="1:14">
-      <c r="A101" s="7">
-        <v>200099</v>
-      </c>
-      <c r="B101" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="C101" s="7">
-        <v>103</v>
-      </c>
-      <c r="D101" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E101" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F101" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G101" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H101" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="I101" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="J101" s="36">
-        <v>1</v>
-      </c>
-      <c r="K101" s="36">
-        <v>1</v>
-      </c>
-      <c r="L101" s="36">
-        <v>1</v>
-      </c>
-      <c r="M101" s="36">
-        <v>1</v>
-      </c>
-      <c r="N101" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="102" customFormat="1" spans="1:14">
-      <c r="A102" s="7">
-        <v>200100</v>
-      </c>
-      <c r="B102" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="C102" s="7">
-        <v>104</v>
-      </c>
-      <c r="D102" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E102" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F102" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G102" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H102" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="I102" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="J102" s="36">
-        <v>1</v>
-      </c>
-      <c r="K102" s="36">
-        <v>0</v>
-      </c>
-      <c r="L102" s="36">
-        <v>1</v>
-      </c>
-      <c r="M102" s="36">
-        <v>1</v>
-      </c>
-      <c r="N102" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="103" customFormat="1" spans="1:14">
-      <c r="A103" s="7">
-        <v>200101</v>
-      </c>
-      <c r="B103" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="C103" s="7">
-        <v>105</v>
-      </c>
-      <c r="D103" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E103" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F103" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G103" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H103" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="I103" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="J103" s="36">
-        <v>1</v>
-      </c>
-      <c r="K103" s="36">
-        <v>0</v>
-      </c>
-      <c r="L103" s="36">
-        <v>1</v>
-      </c>
-      <c r="M103" s="36">
-        <v>1</v>
-      </c>
-      <c r="N103" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="104" customFormat="1" spans="1:14">
-      <c r="A104" s="7">
-        <v>200102</v>
-      </c>
-      <c r="B104" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="C104" s="7">
-        <v>106</v>
-      </c>
-      <c r="D104" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E104" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F104" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G104" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H104" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="I104" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="J104" s="36">
-        <v>1</v>
-      </c>
-      <c r="K104" s="36">
-        <v>0</v>
-      </c>
-      <c r="L104" s="36">
-        <v>1</v>
-      </c>
-      <c r="M104" s="36">
-        <v>1</v>
-      </c>
-      <c r="N104" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="105" customFormat="1" spans="1:14">
-      <c r="A105" s="7">
-        <v>200103</v>
-      </c>
-      <c r="B105" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="C105" s="7">
-        <v>107</v>
-      </c>
-      <c r="D105" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E105" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F105" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G105" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H105" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="I105" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="J105" s="36">
-        <v>1</v>
-      </c>
-      <c r="K105" s="36">
-        <v>0</v>
-      </c>
-      <c r="L105" s="36">
-        <v>1</v>
-      </c>
-      <c r="M105" s="36">
-        <v>1</v>
-      </c>
       <c r="N105" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="106" customFormat="1" spans="1:14">
+    <row r="106" spans="1:14">
       <c r="A106" s="7">
-        <v>200104</v>
-      </c>
-      <c r="B106" s="21" t="s">
-        <v>267</v>
+        <v>200110</v>
+      </c>
+      <c r="B106" s="20" t="s">
+        <v>269</v>
       </c>
       <c r="C106" s="7">
-        <v>108</v>
-      </c>
-      <c r="D106" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E106" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F106" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D106" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E106" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F106" s="25" t="s">
         <v>25</v>
       </c>
       <c r="G106" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H106" s="7" t="s">
-        <v>268</v>
+      <c r="H106" s="45" t="s">
+        <v>270</v>
       </c>
       <c r="I106" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="J106" s="36">
-        <v>1</v>
-      </c>
-      <c r="K106" s="36">
-        <v>0</v>
-      </c>
-      <c r="L106" s="36">
-        <v>1</v>
-      </c>
-      <c r="M106" s="36">
+        <v>271</v>
+      </c>
+      <c r="J106" s="34">
+        <v>1</v>
+      </c>
+      <c r="K106" s="34">
+        <v>1</v>
+      </c>
+      <c r="L106" s="34">
+        <v>1</v>
+      </c>
+      <c r="M106" s="34">
         <v>1</v>
       </c>
       <c r="N106" s="5" t="s">
@@ -7287,131 +6788,131 @@
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="7">
-        <v>200105</v>
-      </c>
-      <c r="B107" s="21" t="s">
-        <v>269</v>
+        <v>200111</v>
+      </c>
+      <c r="B107" s="20" t="s">
+        <v>272</v>
       </c>
       <c r="C107" s="7">
-        <v>109</v>
-      </c>
-      <c r="D107" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E107" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F107" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G107" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H107" s="51" t="s">
-        <v>270</v>
-      </c>
-      <c r="I107" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="J107" s="44">
-        <v>1</v>
-      </c>
-      <c r="K107" s="44">
-        <v>1</v>
-      </c>
-      <c r="L107" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="M107" s="44">
-        <v>2</v>
-      </c>
-      <c r="N107" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D107" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E107" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F107" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G107" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H107" s="47" t="s">
+        <v>273</v>
+      </c>
+      <c r="I107" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="J107" s="34">
+        <v>1</v>
+      </c>
+      <c r="K107" s="34">
+        <v>1</v>
+      </c>
+      <c r="L107" s="34">
+        <v>1</v>
+      </c>
+      <c r="M107" s="34">
+        <v>1</v>
+      </c>
+      <c r="N107" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="7">
-        <v>200106</v>
-      </c>
-      <c r="B108" s="21" t="s">
-        <v>272</v>
+        <v>200112</v>
+      </c>
+      <c r="B108" s="20" t="s">
+        <v>275</v>
       </c>
       <c r="C108" s="7">
-        <v>110</v>
-      </c>
-      <c r="D108" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E108" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F108" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G108" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H108" s="51" t="s">
-        <v>273</v>
-      </c>
-      <c r="I108" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="D108" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E108" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F108" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G108" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H108" s="47" t="s">
+        <v>276</v>
+      </c>
+      <c r="I108" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="J108" s="44">
-        <v>1</v>
-      </c>
-      <c r="K108" s="44">
-        <v>1</v>
-      </c>
-      <c r="L108" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="M108" s="44">
-        <v>2</v>
-      </c>
-      <c r="N108" s="5" t="s">
+      <c r="J108" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="K108" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="L108" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="M108" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="N108" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="7">
-        <v>200107</v>
-      </c>
-      <c r="B109" s="21" t="s">
-        <v>275</v>
+        <v>200113</v>
+      </c>
+      <c r="B109" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="C109" s="7">
-        <v>111</v>
-      </c>
-      <c r="D109" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E109" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F109" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G109" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H109" s="51" t="s">
-        <v>276</v>
-      </c>
-      <c r="I109" s="28" t="s">
-        <v>260</v>
-      </c>
-      <c r="J109" s="44">
-        <v>1</v>
-      </c>
-      <c r="K109" s="44">
-        <v>1</v>
-      </c>
-      <c r="L109" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="M109" s="44">
-        <v>2</v>
+        <v>117</v>
+      </c>
+      <c r="D109" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E109" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F109" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G109" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H109" s="47" t="s">
+        <v>278</v>
+      </c>
+      <c r="I109" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="J109" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="K109" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="L109" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="M109" s="39" t="s">
+        <v>29</v>
       </c>
       <c r="N109" s="5" t="s">
         <v>30</v>
@@ -7419,43 +6920,43 @@
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="7">
-        <v>200108</v>
-      </c>
-      <c r="B110" s="21" t="s">
-        <v>277</v>
+        <v>200114</v>
+      </c>
+      <c r="B110" s="20" t="s">
+        <v>279</v>
       </c>
       <c r="C110" s="7">
-        <v>112</v>
-      </c>
-      <c r="D110" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E110" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F110" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G110" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H110" s="51" t="s">
-        <v>278</v>
-      </c>
-      <c r="I110" s="28" t="s">
-        <v>279</v>
-      </c>
-      <c r="J110" s="44">
-        <v>1</v>
-      </c>
-      <c r="K110" s="44">
-        <v>0</v>
-      </c>
-      <c r="L110" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="M110" s="44">
-        <v>2</v>
+        <v>118</v>
+      </c>
+      <c r="D110" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E110" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F110" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G110" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H110" s="47" t="s">
+        <v>280</v>
+      </c>
+      <c r="I110" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="J110" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="K110" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="L110" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="M110" s="39" t="s">
+        <v>29</v>
       </c>
       <c r="N110" s="5" t="s">
         <v>30</v>
@@ -7463,96 +6964,1157 @@
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="7">
-        <v>200109</v>
-      </c>
-      <c r="B111" s="21" t="s">
-        <v>280</v>
+        <v>200115</v>
+      </c>
+      <c r="B111" s="20" t="s">
+        <v>281</v>
       </c>
       <c r="C111" s="7">
-        <v>113</v>
-      </c>
-      <c r="D111" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E111" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F111" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G111" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H111" s="28" t="s">
-        <v>281</v>
-      </c>
-      <c r="I111" s="28" t="s">
-        <v>279</v>
-      </c>
-      <c r="J111" s="44">
-        <v>1</v>
-      </c>
-      <c r="K111" s="44">
+        <v>119</v>
+      </c>
+      <c r="D111" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E111" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F111" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G111" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H111" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="I111" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="J111" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="K111" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="L111" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="M111" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="N111" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
+      <c r="A112" s="7">
+        <v>200116</v>
+      </c>
+      <c r="B112" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="C112" s="7">
+        <v>120</v>
+      </c>
+      <c r="D112" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E112" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F112" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H112" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="I112" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="J112" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="K112" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="L112" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="M112" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="N112" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
+      <c r="A113" s="7">
+        <v>200117</v>
+      </c>
+      <c r="B113" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="C113" s="7">
+        <v>121</v>
+      </c>
+      <c r="D113" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E113" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F113" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H113" s="47" t="s">
+        <v>286</v>
+      </c>
+      <c r="I113" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="J113" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="K113" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="L113" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="M113" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="N113" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
+      <c r="A114" s="7">
+        <v>200118</v>
+      </c>
+      <c r="B114" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="C114" s="7">
+        <v>122</v>
+      </c>
+      <c r="D114" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E114" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F114" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H114" s="47" t="s">
+        <v>288</v>
+      </c>
+      <c r="I114" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="J114" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="K114" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="L114" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="M114" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="N114" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
+      <c r="A115" s="7">
+        <v>200119</v>
+      </c>
+      <c r="B115" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="C115" s="7">
+        <v>123</v>
+      </c>
+      <c r="D115" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E115" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F115" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H115" s="47" t="s">
+        <v>290</v>
+      </c>
+      <c r="I115" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="J115" s="30">
+        <v>1</v>
+      </c>
+      <c r="K115" s="30">
+        <v>1</v>
+      </c>
+      <c r="L115" s="30">
+        <v>1</v>
+      </c>
+      <c r="M115" s="30">
+        <v>1</v>
+      </c>
+      <c r="N115" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
+      <c r="A116" s="7">
+        <v>200120</v>
+      </c>
+      <c r="B116" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="C116" s="7">
+        <v>124</v>
+      </c>
+      <c r="D116" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E116" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F116" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H116" s="47" t="s">
+        <v>292</v>
+      </c>
+      <c r="I116" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="J116" s="30">
+        <v>1</v>
+      </c>
+      <c r="K116" s="30">
+        <v>1</v>
+      </c>
+      <c r="L116" s="30">
+        <v>1</v>
+      </c>
+      <c r="M116" s="30">
+        <v>1</v>
+      </c>
+      <c r="N116" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
+      <c r="A117" s="7">
+        <v>200121</v>
+      </c>
+      <c r="B117" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="C117" s="7">
+        <v>125</v>
+      </c>
+      <c r="D117" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E117" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F117" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H117" s="47" t="s">
+        <v>294</v>
+      </c>
+      <c r="I117" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="J117" s="30">
+        <v>1</v>
+      </c>
+      <c r="K117" s="30">
+        <v>1</v>
+      </c>
+      <c r="L117" s="30">
+        <v>1</v>
+      </c>
+      <c r="M117" s="30">
+        <v>1</v>
+      </c>
+      <c r="N117" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
+      <c r="A118" s="7">
+        <v>200122</v>
+      </c>
+      <c r="B118" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="C118" s="7">
+        <v>126</v>
+      </c>
+      <c r="D118" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E118" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F118" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H118" s="47" t="s">
+        <v>296</v>
+      </c>
+      <c r="I118" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="J118" s="30">
+        <v>1</v>
+      </c>
+      <c r="K118" s="30">
+        <v>1</v>
+      </c>
+      <c r="L118" s="30">
+        <v>1</v>
+      </c>
+      <c r="M118" s="30">
+        <v>1</v>
+      </c>
+      <c r="N118" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
+      <c r="A119" s="7">
+        <v>200123</v>
+      </c>
+      <c r="B119" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="C119" s="7">
+        <v>127</v>
+      </c>
+      <c r="D119" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E119" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F119" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H119" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="I119" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="J119" s="37">
+        <v>1</v>
+      </c>
+      <c r="K119" s="37">
+        <v>1</v>
+      </c>
+      <c r="L119" s="37">
+        <v>1</v>
+      </c>
+      <c r="M119" s="37">
+        <v>1</v>
+      </c>
+      <c r="N119" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
+      <c r="A120" s="7">
+        <v>200124</v>
+      </c>
+      <c r="B120" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="C120" s="7">
+        <v>128</v>
+      </c>
+      <c r="D120" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E120" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F120" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H120" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="I120" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="J120" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="K120" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="L120" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="M120" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="N120" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
+      <c r="A121" s="7">
+        <v>200125</v>
+      </c>
+      <c r="B121" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="C121" s="7">
+        <v>129</v>
+      </c>
+      <c r="D121" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E121" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F121" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H121" s="47" t="s">
+        <v>302</v>
+      </c>
+      <c r="I121" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="J121" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="K121" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="L121" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="M121" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="N121" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
+      <c r="A122" s="7">
+        <v>200126</v>
+      </c>
+      <c r="B122" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="C122" s="7">
+        <v>130</v>
+      </c>
+      <c r="D122" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E122" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F122" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H122" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="I122" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="J122" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="K122" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="L122" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="M122" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="N122" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
+      <c r="A123" s="7">
+        <v>200127</v>
+      </c>
+      <c r="B123" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="C123" s="7">
+        <v>131</v>
+      </c>
+      <c r="D123" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E123" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F123" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H123" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="I123" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="J123" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="K123" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="L123" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="M123" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="N123" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
+      <c r="A124" s="7">
+        <v>200128</v>
+      </c>
+      <c r="B124" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="C124" s="7">
+        <v>132</v>
+      </c>
+      <c r="D124" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E124" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F124" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H124" s="47" t="s">
+        <v>308</v>
+      </c>
+      <c r="I124" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="J124" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="K124" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="L124" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="M124" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="N124" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
+      <c r="A125" s="7">
+        <v>200129</v>
+      </c>
+      <c r="B125" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="C125" s="7">
+        <v>133</v>
+      </c>
+      <c r="D125" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E125" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F125" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H125" s="47" t="s">
+        <v>310</v>
+      </c>
+      <c r="I125" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="J125" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="K125" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="L125" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="M125" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="N125" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
+      <c r="A126" s="7">
+        <v>200130</v>
+      </c>
+      <c r="B126" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="C126" s="7">
+        <v>134</v>
+      </c>
+      <c r="D126" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E126" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F126" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H126" s="47" t="s">
+        <v>312</v>
+      </c>
+      <c r="I126" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="J126" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="K126" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="L126" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="M126" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="N126" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
+      <c r="A127" s="7">
+        <v>200131</v>
+      </c>
+      <c r="B127" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="C127" s="7">
+        <v>135</v>
+      </c>
+      <c r="D127" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E127" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F127" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H127" s="47" t="s">
+        <v>314</v>
+      </c>
+      <c r="I127" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="J127" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="K127" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="L127" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="M127" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="N127" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
+      <c r="A128" s="7">
+        <v>200132</v>
+      </c>
+      <c r="B128" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="C128" s="7">
+        <v>136</v>
+      </c>
+      <c r="D128" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E128" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F128" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H128" s="47" t="s">
+        <v>316</v>
+      </c>
+      <c r="I128" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="J128" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="K128" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="L128" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="M128" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="N128" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14">
+      <c r="A129" s="7">
+        <v>200133</v>
+      </c>
+      <c r="B129" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="C129" s="7">
+        <v>137</v>
+      </c>
+      <c r="D129" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E129" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F129" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H129" s="47" t="s">
+        <v>318</v>
+      </c>
+      <c r="I129" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="J129" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="K129" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="L129" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="M129" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="N129" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14">
+      <c r="A130" s="7">
+        <v>200134</v>
+      </c>
+      <c r="B130" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="C130" s="7">
+        <v>138</v>
+      </c>
+      <c r="D130" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E130" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F130" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G130" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H130" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="I130" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="J130" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="K130" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="L130" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="M130" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="N130" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14">
+      <c r="A131" s="7">
+        <v>200135</v>
+      </c>
+      <c r="B131" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="C131" s="7">
+        <v>139</v>
+      </c>
+      <c r="D131" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E131" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F131" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G131" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H131" s="47" t="s">
+        <v>322</v>
+      </c>
+      <c r="I131" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="J131" s="30">
+        <v>1</v>
+      </c>
+      <c r="K131" s="30">
+        <v>1</v>
+      </c>
+      <c r="L131" s="30">
+        <v>1</v>
+      </c>
+      <c r="M131" s="30">
+        <v>1</v>
+      </c>
+      <c r="N131" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14">
+      <c r="A132" s="7">
+        <v>200136</v>
+      </c>
+      <c r="B132" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="C132" s="7">
+        <v>140</v>
+      </c>
+      <c r="D132" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E132" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F132" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H132" s="47" t="s">
+        <v>324</v>
+      </c>
+      <c r="I132" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="J132" s="30">
+        <v>1</v>
+      </c>
+      <c r="K132" s="30">
+        <v>1</v>
+      </c>
+      <c r="L132" s="30">
+        <v>1</v>
+      </c>
+      <c r="M132" s="30">
+        <v>1</v>
+      </c>
+      <c r="N132" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14">
+      <c r="A133" s="7">
+        <v>200137</v>
+      </c>
+      <c r="B133" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="C133" s="7">
+        <v>141</v>
+      </c>
+      <c r="D133" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E133" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F133" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G133" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H133" s="47" t="s">
+        <v>326</v>
+      </c>
+      <c r="I133" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="J133" s="30">
+        <v>1</v>
+      </c>
+      <c r="K133" s="30">
+        <v>1</v>
+      </c>
+      <c r="L133" s="30">
+        <v>1</v>
+      </c>
+      <c r="M133" s="30">
+        <v>1</v>
+      </c>
+      <c r="N133" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14">
+      <c r="A134" s="7">
+        <v>200138</v>
+      </c>
+      <c r="B134" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="C134" s="7">
+        <v>142</v>
+      </c>
+      <c r="D134" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E134" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F134" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G134" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H134" s="47" t="s">
+        <v>328</v>
+      </c>
+      <c r="I134" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="J134" s="30">
+        <v>1</v>
+      </c>
+      <c r="K134" s="30">
+        <v>1</v>
+      </c>
+      <c r="L134" s="30">
+        <v>1</v>
+      </c>
+      <c r="M134" s="30">
+        <v>1</v>
+      </c>
+      <c r="N134" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14">
+      <c r="A135" s="7">
+        <v>200139</v>
+      </c>
+      <c r="B135" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="C135" s="7">
+        <v>143</v>
+      </c>
+      <c r="D135" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E135" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F135" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G135" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H135" s="47" t="s">
+        <v>330</v>
+      </c>
+      <c r="I135" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="J135" s="37">
+        <v>1</v>
+      </c>
+      <c r="K135" s="37">
+        <v>1</v>
+      </c>
+      <c r="L135" s="37">
+        <v>1</v>
+      </c>
+      <c r="M135" s="37">
+        <v>1</v>
+      </c>
+      <c r="N135" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14">
+      <c r="A136" s="7">
+        <v>200140</v>
+      </c>
+      <c r="B136" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="C136" s="7">
+        <v>144</v>
+      </c>
+      <c r="D136" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E136" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F136" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H136" s="48" t="s">
+        <v>335</v>
+      </c>
+      <c r="I136" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="J136" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="K136" s="39">
+        <v>1</v>
+      </c>
+      <c r="L136" s="37">
         <v>0</v>
       </c>
-      <c r="L111" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="M111" s="44">
-        <v>2</v>
-      </c>
-      <c r="N111" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="112" s="7" customFormat="1" spans="1:14">
-      <c r="A112" s="7">
-        <v>200110</v>
-      </c>
-      <c r="B112" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="C112" s="7">
-        <v>114</v>
-      </c>
-      <c r="D112" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E112" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F112" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G112" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H112" s="49" t="s">
-        <v>283</v>
-      </c>
-      <c r="I112" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="J112" s="36">
-        <v>1</v>
-      </c>
-      <c r="K112" s="36">
-        <v>1</v>
-      </c>
-      <c r="L112" s="36">
-        <v>1</v>
-      </c>
-      <c r="M112" s="36">
-        <v>1</v>
-      </c>
-      <c r="N112" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="M136" s="37">
+        <v>1</v>
+      </c>
+      <c r="N136" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14">
+      <c r="J137" s="27"/>
+    </row>
+    <row r="138" spans="1:14">
+      <c r="J138" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V112">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:V135"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1">
       <formula1>"等于,大于,小于,大于等于,小于等于"</formula1>
@@ -7561,39 +8123,38 @@
       <formula1>"'==,&gt;,&lt;,&gt;=,&lt;="</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18.75" customWidth="1"/>
-    <col min="2" max="2" width="11.8833333333333" customWidth="1"/>
-    <col min="7" max="7" width="13.3833333333333" customWidth="1"/>
-    <col min="8" max="8" width="15.8833333333333" customWidth="1"/>
-    <col min="9" max="9" width="16.3833333333333" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="8" max="8" width="15.875" customWidth="1"/>
+    <col min="9" max="9" width="16.375" customWidth="1"/>
     <col min="10" max="10" width="24" customWidth="1"/>
-    <col min="11" max="11" width="19.3833333333333" customWidth="1"/>
-    <col min="12" max="12" width="23.1333333333333" customWidth="1"/>
+    <col min="11" max="11" width="19.375" customWidth="1"/>
+    <col min="12" max="12" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="24" customHeight="1" spans="1:12">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="24" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -7631,17 +8192,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" ht="21" customHeight="1" spans="1:2">
+    <row r="4" spans="1:12" ht="21" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>286</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/customerView/客户视图.xlsx
+++ b/src/customerView/客户视图.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22485" windowHeight="9345"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="客户视图" sheetId="1" r:id="rId1"/>
     <sheet name="填写说明" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户视图!$A$1:$V$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户视图!$A$1:$V$138</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="344">
   <si>
     <t>CV 客户视图</t>
   </si>
@@ -657,7 +657,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -667,7 +666,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -677,7 +675,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>101005</t>
@@ -1047,32 +1044,56 @@
     <t>00704014</t>
   </si>
   <si>
+    <t>CV00140</t>
+  </si>
+  <si>
+    <t>00101004</t>
+  </si>
+  <si>
+    <t>custom-input-cstNum</t>
+  </si>
+  <si>
+    <t>CV00141</t>
+  </si>
+  <si>
+    <t>00504001</t>
+  </si>
+  <si>
+    <t>CV00142</t>
+  </si>
+  <si>
+    <t>00504003</t>
+  </si>
+  <si>
+    <t>custom-input-signAgmtNo</t>
+  </si>
+  <si>
+    <t>CV00143</t>
+  </si>
+  <si>
+    <t>00504002</t>
+  </si>
+  <si>
+    <t>custom-input_12</t>
+  </si>
+  <si>
     <t>必填：</t>
   </si>
   <si>
     <t>同一交易码如果多个条件且关系 此项 写成数字相同  否则都写成不同数字</t>
-  </si>
-  <si>
-    <t>CV00140</t>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>00101004</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>custom-input-cstNum</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1107,20 +1128,157 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1129,7 +1287,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79961546678060247"/>
+        <fgColor theme="3" tint="0.799615466780602"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1145,8 +1303,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1169,11 +1513,253 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1194,6 +1780,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1215,6 +1804,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1249,25 +1841,75 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1529,18 +2171,18 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:V138"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:V139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I140" sqref="I140"/>
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="I141" sqref="I141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1560,7 +2202,7 @@
     <col min="23" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="60.75">
+    <row r="1" ht="60.75" spans="1:22">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1653,7 +2295,7 @@
       <c r="H2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J2" s="11" t="s">
@@ -1675,7 +2317,7 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
-      <c r="S2" s="15"/>
+      <c r="S2" s="16"/>
       <c r="T2" s="10"/>
       <c r="U2" s="10"/>
       <c r="V2" s="10"/>
@@ -1705,7 +2347,7 @@
       <c r="H3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="14" t="s">
         <v>32</v>
       </c>
       <c r="J3" s="11" t="s">
@@ -1727,7 +2369,7 @@
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
-      <c r="S3" s="15"/>
+      <c r="S3" s="16"/>
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
       <c r="V3" s="10"/>
@@ -1779,7 +2421,7 @@
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
-      <c r="S4" s="15"/>
+      <c r="S4" s="16"/>
       <c r="T4" s="10"/>
       <c r="U4" s="10"/>
       <c r="V4" s="10"/>
@@ -1831,7 +2473,7 @@
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
-      <c r="S5" s="15"/>
+      <c r="S5" s="16"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
@@ -1883,7 +2525,7 @@
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
-      <c r="S6" s="15"/>
+      <c r="S6" s="16"/>
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
@@ -1935,7 +2577,7 @@
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
-      <c r="S7" s="15"/>
+      <c r="S7" s="16"/>
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
@@ -1987,7 +2629,7 @@
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
-      <c r="S8" s="15"/>
+      <c r="S8" s="16"/>
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
       <c r="V8" s="10"/>
@@ -2036,13 +2678,13 @@
         <v>30</v>
       </c>
       <c r="O9" s="10"/>
-      <c r="P9" s="14"/>
+      <c r="P9" s="15"/>
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
-      <c r="S9" s="15"/>
+      <c r="S9" s="16"/>
       <c r="T9" s="10"/>
       <c r="U9" s="10"/>
-      <c r="V9" s="14"/>
+      <c r="V9" s="15"/>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="10">
@@ -2088,10 +2730,10 @@
         <v>30</v>
       </c>
       <c r="O10" s="10"/>
-      <c r="P10" s="14"/>
+      <c r="P10" s="15"/>
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
-      <c r="S10" s="15"/>
+      <c r="S10" s="16"/>
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
       <c r="V10" s="10"/>
@@ -2143,7 +2785,7 @@
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
-      <c r="S11" s="15"/>
+      <c r="S11" s="16"/>
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
       <c r="V11" s="10"/>
@@ -2195,7 +2837,7 @@
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
-      <c r="S12" s="15"/>
+      <c r="S12" s="16"/>
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
       <c r="V12" s="10"/>
@@ -2247,7 +2889,7 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
-      <c r="S13" s="15"/>
+      <c r="S13" s="16"/>
       <c r="T13" s="10"/>
       <c r="U13" s="10"/>
       <c r="V13" s="10"/>
@@ -2299,7 +2941,7 @@
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
-      <c r="S14" s="15"/>
+      <c r="S14" s="16"/>
       <c r="T14" s="10"/>
       <c r="U14" s="10"/>
       <c r="V14" s="10"/>
@@ -2351,7 +2993,7 @@
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
-      <c r="S15" s="15"/>
+      <c r="S15" s="16"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
@@ -2403,7 +3045,7 @@
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
-      <c r="S16" s="15"/>
+      <c r="S16" s="16"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
@@ -2455,7 +3097,7 @@
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
-      <c r="S17" s="15"/>
+      <c r="S17" s="16"/>
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
       <c r="V17" s="10"/>
@@ -2507,7 +3149,7 @@
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
-      <c r="S18" s="15"/>
+      <c r="S18" s="16"/>
       <c r="T18" s="10"/>
       <c r="U18" s="10"/>
       <c r="V18" s="10"/>
@@ -2559,7 +3201,7 @@
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
-      <c r="S19" s="15"/>
+      <c r="S19" s="16"/>
       <c r="T19" s="10"/>
       <c r="U19" s="10"/>
       <c r="V19" s="10"/>
@@ -2611,7 +3253,7 @@
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
-      <c r="S20" s="15"/>
+      <c r="S20" s="16"/>
       <c r="T20" s="10"/>
       <c r="U20" s="10"/>
       <c r="V20" s="10"/>
@@ -2663,7 +3305,7 @@
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
-      <c r="S21" s="15"/>
+      <c r="S21" s="16"/>
       <c r="T21" s="10"/>
       <c r="U21" s="10"/>
       <c r="V21" s="10"/>
@@ -2715,7 +3357,7 @@
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
-      <c r="S22" s="15"/>
+      <c r="S22" s="16"/>
       <c r="T22" s="10"/>
       <c r="U22" s="10"/>
       <c r="V22" s="10"/>
@@ -2767,7 +3409,7 @@
       <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
       <c r="R23" s="10"/>
-      <c r="S23" s="15"/>
+      <c r="S23" s="16"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
@@ -2819,7 +3461,7 @@
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
-      <c r="S24" s="15"/>
+      <c r="S24" s="16"/>
       <c r="T24" s="10"/>
       <c r="U24" s="10"/>
       <c r="V24" s="10"/>
@@ -2871,7 +3513,7 @@
       <c r="P25" s="10"/>
       <c r="Q25" s="10"/>
       <c r="R25" s="10"/>
-      <c r="S25" s="15"/>
+      <c r="S25" s="16"/>
       <c r="T25" s="10"/>
       <c r="U25" s="10"/>
       <c r="V25" s="10"/>
@@ -2923,7 +3565,7 @@
       <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
       <c r="R26" s="10"/>
-      <c r="S26" s="15"/>
+      <c r="S26" s="16"/>
       <c r="T26" s="10"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
@@ -2975,7 +3617,7 @@
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
       <c r="R27" s="10"/>
-      <c r="S27" s="15"/>
+      <c r="S27" s="16"/>
       <c r="T27" s="10"/>
       <c r="U27" s="10"/>
       <c r="V27" s="10"/>
@@ -3027,7 +3669,7 @@
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
       <c r="R28" s="10"/>
-      <c r="S28" s="15"/>
+      <c r="S28" s="16"/>
       <c r="T28" s="10"/>
       <c r="U28" s="10"/>
       <c r="V28" s="10"/>
@@ -3079,7 +3721,7 @@
       <c r="P29" s="10"/>
       <c r="Q29" s="10"/>
       <c r="R29" s="10"/>
-      <c r="S29" s="15"/>
+      <c r="S29" s="16"/>
       <c r="T29" s="10"/>
       <c r="U29" s="10"/>
       <c r="V29" s="10"/>
@@ -3131,7 +3773,7 @@
       <c r="P30" s="10"/>
       <c r="Q30" s="10"/>
       <c r="R30" s="10"/>
-      <c r="S30" s="15"/>
+      <c r="S30" s="16"/>
       <c r="T30" s="10"/>
       <c r="U30" s="10"/>
       <c r="V30" s="10"/>
@@ -3158,7 +3800,7 @@
       <c r="G31" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H31" s="41" t="s">
+      <c r="H31" s="44" t="s">
         <v>96</v>
       </c>
       <c r="I31" s="11" t="s">
@@ -3183,7 +3825,7 @@
       <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
       <c r="R31" s="10"/>
-      <c r="S31" s="15"/>
+      <c r="S31" s="16"/>
       <c r="T31" s="10"/>
       <c r="U31" s="10"/>
       <c r="V31" s="10"/>
@@ -3210,7 +3852,7 @@
       <c r="G32" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H32" s="41" t="s">
+      <c r="H32" s="44" t="s">
         <v>98</v>
       </c>
       <c r="I32" s="11" t="s">
@@ -3235,7 +3877,7 @@
       <c r="P32" s="10"/>
       <c r="Q32" s="10"/>
       <c r="R32" s="10"/>
-      <c r="S32" s="15"/>
+      <c r="S32" s="16"/>
       <c r="T32" s="10"/>
       <c r="U32" s="10"/>
       <c r="V32" s="10"/>
@@ -3262,7 +3904,7 @@
       <c r="G33" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H33" s="41" t="s">
+      <c r="H33" s="44" t="s">
         <v>100</v>
       </c>
       <c r="I33" s="11" t="s">
@@ -3287,7 +3929,7 @@
       <c r="P33" s="10"/>
       <c r="Q33" s="10"/>
       <c r="R33" s="10"/>
-      <c r="S33" s="15"/>
+      <c r="S33" s="16"/>
       <c r="T33" s="10"/>
       <c r="U33" s="10"/>
       <c r="V33" s="10"/>
@@ -3339,7 +3981,7 @@
       <c r="P34" s="10"/>
       <c r="Q34" s="10"/>
       <c r="R34" s="10"/>
-      <c r="S34" s="15"/>
+      <c r="S34" s="16"/>
       <c r="T34" s="10"/>
       <c r="U34" s="10"/>
       <c r="V34" s="10"/>
@@ -3391,7 +4033,7 @@
       <c r="P35" s="10"/>
       <c r="Q35" s="10"/>
       <c r="R35" s="10"/>
-      <c r="S35" s="15"/>
+      <c r="S35" s="16"/>
       <c r="T35" s="10"/>
       <c r="U35" s="10"/>
       <c r="V35" s="10"/>
@@ -3443,7 +4085,7 @@
       <c r="P36" s="10"/>
       <c r="Q36" s="10"/>
       <c r="R36" s="10"/>
-      <c r="S36" s="15"/>
+      <c r="S36" s="16"/>
       <c r="T36" s="10"/>
       <c r="U36" s="10"/>
       <c r="V36" s="10"/>
@@ -3495,7 +4137,7 @@
       <c r="P37" s="10"/>
       <c r="Q37" s="10"/>
       <c r="R37" s="10"/>
-      <c r="S37" s="15"/>
+      <c r="S37" s="16"/>
       <c r="T37" s="10"/>
       <c r="U37" s="10"/>
       <c r="V37" s="10"/>
@@ -3547,7 +4189,7 @@
       <c r="P38" s="10"/>
       <c r="Q38" s="10"/>
       <c r="R38" s="10"/>
-      <c r="S38" s="15"/>
+      <c r="S38" s="16"/>
       <c r="T38" s="10"/>
       <c r="U38" s="10"/>
       <c r="V38" s="10"/>
@@ -3599,7 +4241,7 @@
       <c r="P39" s="10"/>
       <c r="Q39" s="10"/>
       <c r="R39" s="10"/>
-      <c r="S39" s="15"/>
+      <c r="S39" s="16"/>
       <c r="T39" s="10"/>
       <c r="U39" s="10"/>
       <c r="V39" s="10"/>
@@ -3651,7 +4293,7 @@
       <c r="P40" s="10"/>
       <c r="Q40" s="10"/>
       <c r="R40" s="10"/>
-      <c r="S40" s="15"/>
+      <c r="S40" s="16"/>
       <c r="T40" s="10"/>
       <c r="U40" s="10"/>
       <c r="V40" s="10"/>
@@ -3703,7 +4345,7 @@
       <c r="P41" s="10"/>
       <c r="Q41" s="10"/>
       <c r="R41" s="10"/>
-      <c r="S41" s="15"/>
+      <c r="S41" s="16"/>
       <c r="T41" s="10"/>
       <c r="U41" s="10"/>
       <c r="V41" s="10"/>
@@ -3755,7 +4397,7 @@
       <c r="P42" s="10"/>
       <c r="Q42" s="10"/>
       <c r="R42" s="10"/>
-      <c r="S42" s="15"/>
+      <c r="S42" s="16"/>
       <c r="T42" s="10"/>
       <c r="U42" s="10"/>
       <c r="V42" s="10"/>
@@ -3807,7 +4449,7 @@
       <c r="P43" s="10"/>
       <c r="Q43" s="10"/>
       <c r="R43" s="10"/>
-      <c r="S43" s="15"/>
+      <c r="S43" s="16"/>
       <c r="T43" s="10"/>
       <c r="U43" s="10"/>
       <c r="V43" s="10"/>
@@ -3859,7 +4501,7 @@
       <c r="P44" s="10"/>
       <c r="Q44" s="10"/>
       <c r="R44" s="10"/>
-      <c r="S44" s="15"/>
+      <c r="S44" s="16"/>
       <c r="T44" s="10"/>
       <c r="U44" s="10"/>
       <c r="V44" s="10"/>
@@ -3911,7 +4553,7 @@
       <c r="P45" s="10"/>
       <c r="Q45" s="10"/>
       <c r="R45" s="10"/>
-      <c r="S45" s="15"/>
+      <c r="S45" s="16"/>
       <c r="T45" s="10"/>
       <c r="U45" s="10"/>
       <c r="V45" s="10"/>
@@ -3963,7 +4605,7 @@
       <c r="P46" s="10"/>
       <c r="Q46" s="10"/>
       <c r="R46" s="10"/>
-      <c r="S46" s="15"/>
+      <c r="S46" s="16"/>
       <c r="T46" s="10"/>
       <c r="U46" s="10"/>
       <c r="V46" s="10"/>
@@ -4015,7 +4657,7 @@
       <c r="P47" s="10"/>
       <c r="Q47" s="10"/>
       <c r="R47" s="10"/>
-      <c r="S47" s="15"/>
+      <c r="S47" s="16"/>
       <c r="T47" s="10"/>
       <c r="U47" s="10"/>
       <c r="V47" s="10"/>
@@ -4067,7 +4709,7 @@
       <c r="P48" s="10"/>
       <c r="Q48" s="10"/>
       <c r="R48" s="10"/>
-      <c r="S48" s="15"/>
+      <c r="S48" s="16"/>
       <c r="T48" s="10"/>
       <c r="U48" s="10"/>
       <c r="V48" s="10"/>
@@ -4119,7 +4761,7 @@
       <c r="P49" s="10"/>
       <c r="Q49" s="10"/>
       <c r="R49" s="10"/>
-      <c r="S49" s="15"/>
+      <c r="S49" s="16"/>
       <c r="T49" s="10"/>
       <c r="U49" s="10"/>
       <c r="V49" s="10"/>
@@ -4171,7 +4813,7 @@
       <c r="P50" s="10"/>
       <c r="Q50" s="10"/>
       <c r="R50" s="10"/>
-      <c r="S50" s="15"/>
+      <c r="S50" s="16"/>
       <c r="T50" s="10"/>
       <c r="U50" s="10"/>
       <c r="V50" s="10"/>
@@ -4223,7 +4865,7 @@
       <c r="P51" s="10"/>
       <c r="Q51" s="10"/>
       <c r="R51" s="10"/>
-      <c r="S51" s="15"/>
+      <c r="S51" s="16"/>
       <c r="T51" s="10"/>
       <c r="U51" s="10"/>
       <c r="V51" s="10"/>
@@ -4275,7 +4917,7 @@
       <c r="P52" s="10"/>
       <c r="Q52" s="10"/>
       <c r="R52" s="10"/>
-      <c r="S52" s="15"/>
+      <c r="S52" s="16"/>
       <c r="T52" s="10"/>
       <c r="U52" s="10"/>
       <c r="V52" s="10"/>
@@ -4327,7 +4969,7 @@
       <c r="P53" s="10"/>
       <c r="Q53" s="10"/>
       <c r="R53" s="10"/>
-      <c r="S53" s="15"/>
+      <c r="S53" s="16"/>
       <c r="T53" s="10"/>
       <c r="U53" s="10"/>
       <c r="V53" s="10"/>
@@ -4379,7 +5021,7 @@
       <c r="P54" s="10"/>
       <c r="Q54" s="10"/>
       <c r="R54" s="10"/>
-      <c r="S54" s="15"/>
+      <c r="S54" s="16"/>
       <c r="T54" s="10"/>
       <c r="U54" s="10"/>
       <c r="V54" s="10"/>
@@ -4431,7 +5073,7 @@
       <c r="P55" s="10"/>
       <c r="Q55" s="10"/>
       <c r="R55" s="10"/>
-      <c r="S55" s="15"/>
+      <c r="S55" s="16"/>
       <c r="T55" s="10"/>
       <c r="U55" s="10"/>
       <c r="V55" s="10"/>
@@ -4483,7 +5125,7 @@
       <c r="P56" s="10"/>
       <c r="Q56" s="10"/>
       <c r="R56" s="10"/>
-      <c r="S56" s="15"/>
+      <c r="S56" s="16"/>
       <c r="T56" s="10"/>
       <c r="U56" s="10"/>
       <c r="V56" s="10"/>
@@ -4535,7 +5177,7 @@
       <c r="P57" s="10"/>
       <c r="Q57" s="10"/>
       <c r="R57" s="10"/>
-      <c r="S57" s="15"/>
+      <c r="S57" s="16"/>
       <c r="T57" s="10"/>
       <c r="U57" s="10"/>
       <c r="V57" s="10"/>
@@ -4587,7 +5229,7 @@
       <c r="P58" s="10"/>
       <c r="Q58" s="10"/>
       <c r="R58" s="10"/>
-      <c r="S58" s="15"/>
+      <c r="S58" s="16"/>
       <c r="T58" s="10"/>
       <c r="U58" s="10"/>
       <c r="V58" s="10"/>
@@ -4639,7 +5281,7 @@
       <c r="P59" s="10"/>
       <c r="Q59" s="10"/>
       <c r="R59" s="10"/>
-      <c r="S59" s="15"/>
+      <c r="S59" s="16"/>
       <c r="T59" s="10"/>
       <c r="U59" s="10"/>
       <c r="V59" s="10"/>
@@ -4691,7 +5333,7 @@
       <c r="P60" s="10"/>
       <c r="Q60" s="10"/>
       <c r="R60" s="10"/>
-      <c r="S60" s="15"/>
+      <c r="S60" s="16"/>
       <c r="T60" s="10"/>
       <c r="U60" s="10"/>
       <c r="V60" s="10"/>
@@ -4743,12 +5385,12 @@
       <c r="P61" s="10"/>
       <c r="Q61" s="10"/>
       <c r="R61" s="10"/>
-      <c r="S61" s="15"/>
+      <c r="S61" s="16"/>
       <c r="T61" s="10"/>
       <c r="U61" s="10"/>
       <c r="V61" s="10"/>
     </row>
-    <row r="62" spans="1:22" s="4" customFormat="1">
+    <row r="62" s="4" customFormat="1" spans="1:22">
       <c r="A62" s="5">
         <v>200060</v>
       </c>
@@ -4764,28 +5406,28 @@
       <c r="E62" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F62" s="12" t="s">
+      <c r="F62" s="13" t="s">
         <v>25</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H62" s="42" t="s">
+      <c r="H62" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="I62" s="12" t="s">
+      <c r="I62" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="J62" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K62" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L62" s="12" t="s">
+      <c r="J62" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K62" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L62" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="M62" s="12" t="s">
+      <c r="M62" s="13" t="s">
         <v>44</v>
       </c>
       <c r="N62" s="5" t="s">
@@ -4795,12 +5437,12 @@
       <c r="P62" s="5"/>
       <c r="Q62" s="5"/>
       <c r="R62" s="5"/>
-      <c r="S62" s="16"/>
+      <c r="S62" s="17"/>
       <c r="T62" s="5"/>
       <c r="U62" s="5"/>
       <c r="V62" s="5"/>
     </row>
-    <row r="63" spans="1:22" s="4" customFormat="1">
+    <row r="63" s="4" customFormat="1" spans="1:22">
       <c r="A63" s="5">
         <v>200061</v>
       </c>
@@ -4816,28 +5458,28 @@
       <c r="E63" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F63" s="12" t="s">
+      <c r="F63" s="13" t="s">
         <v>25</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H63" s="42" t="s">
+      <c r="H63" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="I63" s="12" t="s">
+      <c r="I63" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J63" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K63" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L63" s="12" t="s">
+      <c r="J63" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K63" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L63" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="M63" s="12" t="s">
+      <c r="M63" s="13" t="s">
         <v>44</v>
       </c>
       <c r="N63" s="5" t="s">
@@ -4847,12 +5489,12 @@
       <c r="P63" s="5"/>
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
-      <c r="S63" s="16"/>
+      <c r="S63" s="17"/>
       <c r="T63" s="5"/>
       <c r="U63" s="5"/>
       <c r="V63" s="5"/>
     </row>
-    <row r="64" spans="1:22" s="4" customFormat="1">
+    <row r="64" s="4" customFormat="1" spans="1:22">
       <c r="A64" s="5">
         <v>200062</v>
       </c>
@@ -4868,28 +5510,28 @@
       <c r="E64" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F64" s="12" t="s">
+      <c r="F64" s="13" t="s">
         <v>25</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H64" s="42" t="s">
+      <c r="H64" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="I64" s="12" t="s">
+      <c r="I64" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="J64" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K64" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L64" s="12" t="s">
+      <c r="J64" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K64" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L64" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="M64" s="12" t="s">
+      <c r="M64" s="13" t="s">
         <v>44</v>
       </c>
       <c r="N64" s="5" t="s">
@@ -4899,12 +5541,12 @@
       <c r="P64" s="5"/>
       <c r="Q64" s="5"/>
       <c r="R64" s="5"/>
-      <c r="S64" s="16"/>
+      <c r="S64" s="17"/>
       <c r="T64" s="5"/>
       <c r="U64" s="5"/>
       <c r="V64" s="5"/>
     </row>
-    <row r="65" spans="1:22" s="4" customFormat="1">
+    <row r="65" s="4" customFormat="1" spans="1:22">
       <c r="A65" s="5">
         <v>200063</v>
       </c>
@@ -4920,28 +5562,28 @@
       <c r="E65" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F65" s="12" t="s">
+      <c r="F65" s="13" t="s">
         <v>25</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H65" s="42" t="s">
+      <c r="H65" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="I65" s="12" t="s">
+      <c r="I65" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J65" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K65" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L65" s="12" t="s">
+      <c r="J65" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K65" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L65" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="M65" s="12" t="s">
+      <c r="M65" s="13" t="s">
         <v>44</v>
       </c>
       <c r="N65" s="5" t="s">
@@ -4951,12 +5593,12 @@
       <c r="P65" s="5"/>
       <c r="Q65" s="5"/>
       <c r="R65" s="5"/>
-      <c r="S65" s="16"/>
+      <c r="S65" s="17"/>
       <c r="T65" s="5"/>
       <c r="U65" s="5"/>
       <c r="V65" s="5"/>
     </row>
-    <row r="66" spans="1:22" s="4" customFormat="1">
+    <row r="66" s="4" customFormat="1" spans="1:22">
       <c r="A66" s="5">
         <v>200064</v>
       </c>
@@ -4972,28 +5614,28 @@
       <c r="E66" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F66" s="12" t="s">
+      <c r="F66" s="13" t="s">
         <v>25</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H66" s="42" t="s">
+      <c r="H66" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="I66" s="12" t="s">
+      <c r="I66" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J66" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K66" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L66" s="12" t="s">
+      <c r="J66" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K66" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L66" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="M66" s="12" t="s">
+      <c r="M66" s="13" t="s">
         <v>44</v>
       </c>
       <c r="N66" s="5" t="s">
@@ -5003,12 +5645,12 @@
       <c r="P66" s="5"/>
       <c r="Q66" s="5"/>
       <c r="R66" s="5"/>
-      <c r="S66" s="16"/>
+      <c r="S66" s="17"/>
       <c r="T66" s="5"/>
       <c r="U66" s="5"/>
       <c r="V66" s="5"/>
     </row>
-    <row r="67" spans="1:22" s="4" customFormat="1">
+    <row r="67" s="4" customFormat="1" spans="1:22">
       <c r="A67" s="5">
         <v>200065</v>
       </c>
@@ -5024,28 +5666,28 @@
       <c r="E67" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F67" s="12" t="s">
+      <c r="F67" s="13" t="s">
         <v>25</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H67" s="42" t="s">
+      <c r="H67" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="I67" s="12" t="s">
+      <c r="I67" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J67" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K67" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L67" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="M67" s="12" t="s">
+      <c r="J67" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K67" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L67" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M67" s="13" t="s">
         <v>29</v>
       </c>
       <c r="N67" s="5" t="s">
@@ -5055,12 +5697,12 @@
       <c r="P67" s="5"/>
       <c r="Q67" s="5"/>
       <c r="R67" s="5"/>
-      <c r="S67" s="16"/>
+      <c r="S67" s="17"/>
       <c r="T67" s="5"/>
       <c r="U67" s="5"/>
       <c r="V67" s="5"/>
     </row>
-    <row r="68" spans="1:22" s="5" customFormat="1">
+    <row r="68" s="5" customFormat="1" spans="1:14">
       <c r="A68" s="5">
         <v>200066</v>
       </c>
@@ -5076,35 +5718,35 @@
       <c r="E68" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F68" s="12" t="s">
+      <c r="F68" s="13" t="s">
         <v>25</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H68" s="43" t="s">
+      <c r="H68" s="46" t="s">
         <v>174</v>
       </c>
       <c r="I68" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="J68" s="12" t="s">
+      <c r="J68" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="K68" s="12" t="s">
+      <c r="K68" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="L68" s="12" t="s">
+      <c r="L68" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="M68" s="12" t="s">
+      <c r="M68" s="13" t="s">
         <v>29</v>
       </c>
       <c r="N68" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:22" s="5" customFormat="1">
+    <row r="69" s="5" customFormat="1" spans="1:14">
       <c r="A69" s="5">
         <v>200067</v>
       </c>
@@ -5120,35 +5762,35 @@
       <c r="E69" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F69" s="12" t="s">
+      <c r="F69" s="13" t="s">
         <v>25</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H69" s="43" t="s">
+      <c r="H69" s="46" t="s">
         <v>178</v>
       </c>
       <c r="I69" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="J69" s="12" t="s">
+      <c r="J69" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="K69" s="12" t="s">
+      <c r="K69" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="L69" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="M69" s="12" t="s">
+      <c r="L69" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M69" s="13" t="s">
         <v>29</v>
       </c>
       <c r="N69" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:22" s="5" customFormat="1">
+    <row r="70" s="5" customFormat="1" spans="1:14">
       <c r="A70" s="5">
         <v>200068</v>
       </c>
@@ -5164,35 +5806,35 @@
       <c r="E70" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F70" s="12" t="s">
+      <c r="F70" s="13" t="s">
         <v>25</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H70" s="43" t="s">
+      <c r="H70" s="46" t="s">
         <v>180</v>
       </c>
       <c r="I70" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="J70" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K70" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L70" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="M70" s="12" t="s">
+      <c r="J70" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K70" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L70" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M70" s="13" t="s">
         <v>29</v>
       </c>
       <c r="N70" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:22" s="5" customFormat="1">
+    <row r="71" s="5" customFormat="1" spans="1:14">
       <c r="A71" s="5">
         <v>200069</v>
       </c>
@@ -5208,35 +5850,35 @@
       <c r="E71" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F71" s="12" t="s">
+      <c r="F71" s="13" t="s">
         <v>25</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H71" s="43" t="s">
+      <c r="H71" s="46" t="s">
         <v>180</v>
       </c>
       <c r="I71" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="J71" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K71" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L71" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="M71" s="12" t="s">
+      <c r="J71" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K71" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L71" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M71" s="13" t="s">
         <v>29</v>
       </c>
       <c r="N71" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:22" s="5" customFormat="1">
+    <row r="72" s="5" customFormat="1" spans="1:14">
       <c r="A72" s="5">
         <v>200070</v>
       </c>
@@ -5252,35 +5894,35 @@
       <c r="E72" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F72" s="12" t="s">
+      <c r="F72" s="13" t="s">
         <v>25</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H72" s="43" t="s">
+      <c r="H72" s="46" t="s">
         <v>185</v>
       </c>
       <c r="I72" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="J72" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K72" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L72" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="M72" s="12" t="s">
+      <c r="J72" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K72" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L72" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M72" s="13" t="s">
         <v>29</v>
       </c>
       <c r="N72" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:22" s="4" customFormat="1">
+    <row r="73" s="4" customFormat="1" spans="1:14">
       <c r="A73" s="5">
         <v>200071</v>
       </c>
@@ -5296,35 +5938,35 @@
       <c r="E73" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F73" s="12" t="s">
+      <c r="F73" s="13" t="s">
         <v>25</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H73" s="42" t="s">
+      <c r="H73" s="45" t="s">
         <v>187</v>
       </c>
       <c r="I73" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="J73" s="27">
-        <v>1</v>
-      </c>
-      <c r="K73" s="28">
-        <v>1</v>
-      </c>
-      <c r="L73" s="29">
-        <v>1</v>
-      </c>
-      <c r="M73" s="29">
+      <c r="J73" s="29">
+        <v>1</v>
+      </c>
+      <c r="K73" s="30">
+        <v>1</v>
+      </c>
+      <c r="L73" s="31">
+        <v>1</v>
+      </c>
+      <c r="M73" s="31">
         <v>1</v>
       </c>
       <c r="N73" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:22" s="4" customFormat="1">
+    <row r="74" s="4" customFormat="1" spans="1:14">
       <c r="A74" s="5">
         <v>200071</v>
       </c>
@@ -5340,35 +5982,35 @@
       <c r="E74" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F74" s="12" t="s">
+      <c r="F74" s="13" t="s">
         <v>25</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H74" s="42" t="s">
+      <c r="H74" s="45" t="s">
         <v>189</v>
       </c>
       <c r="I74" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="J74" s="27">
-        <v>1</v>
-      </c>
-      <c r="K74" s="28">
-        <v>1</v>
-      </c>
-      <c r="L74" s="29">
-        <v>1</v>
-      </c>
-      <c r="M74" s="29">
+      <c r="J74" s="29">
+        <v>1</v>
+      </c>
+      <c r="K74" s="30">
+        <v>1</v>
+      </c>
+      <c r="L74" s="31">
+        <v>1</v>
+      </c>
+      <c r="M74" s="31">
         <v>1</v>
       </c>
       <c r="N74" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:22" s="4" customFormat="1">
+    <row r="75" s="4" customFormat="1" spans="1:14">
       <c r="A75" s="5">
         <v>200071</v>
       </c>
@@ -5384,344 +6026,344 @@
       <c r="E75" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F75" s="12" t="s">
+      <c r="F75" s="13" t="s">
         <v>25</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H75" s="42" t="s">
+      <c r="H75" s="45" t="s">
         <v>190</v>
       </c>
       <c r="I75" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="J75" s="27">
-        <v>1</v>
-      </c>
-      <c r="K75" s="28">
-        <v>1</v>
-      </c>
-      <c r="L75" s="29">
-        <v>1</v>
-      </c>
-      <c r="M75" s="29">
+      <c r="J75" s="29">
+        <v>1</v>
+      </c>
+      <c r="K75" s="30">
+        <v>1</v>
+      </c>
+      <c r="L75" s="31">
+        <v>1</v>
+      </c>
+      <c r="M75" s="31">
         <v>1</v>
       </c>
       <c r="N75" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:22" s="6" customFormat="1">
-      <c r="A76" s="17">
+    <row r="76" s="6" customFormat="1" spans="1:22">
+      <c r="A76" s="18">
         <v>200073</v>
       </c>
-      <c r="B76" s="17" t="s">
+      <c r="B76" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="C76" s="18">
+      <c r="C76" s="19">
         <v>80</v>
       </c>
-      <c r="D76" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E76" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F76" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G76" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H76" s="44" t="s">
+      <c r="D76" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E76" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F76" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G76" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H76" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="I76" s="17" t="s">
+      <c r="I76" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="J76" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="K76" s="31">
-        <v>1</v>
-      </c>
-      <c r="L76" s="19" t="s">
+      <c r="J76" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="K76" s="33">
+        <v>1</v>
+      </c>
+      <c r="L76" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="M76" s="19" t="s">
+      <c r="M76" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="N76" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
-      <c r="R76" s="17"/>
-      <c r="S76" s="17"/>
-      <c r="T76" s="17"/>
-      <c r="U76" s="17"/>
-      <c r="V76" s="17"/>
-    </row>
-    <row r="77" spans="1:22">
-      <c r="A77" s="20">
+      <c r="N76" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O76" s="18"/>
+      <c r="P76" s="18"/>
+      <c r="Q76" s="18"/>
+      <c r="R76" s="18"/>
+      <c r="S76" s="18"/>
+      <c r="T76" s="18"/>
+      <c r="U76" s="18"/>
+      <c r="V76" s="18"/>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="21">
         <v>200074</v>
       </c>
-      <c r="B77" s="20" t="s">
+      <c r="B77" s="21" t="s">
         <v>194</v>
       </c>
       <c r="C77" s="7">
         <v>81</v>
       </c>
-      <c r="D77" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E77" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F77" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G77" s="20" t="s">
+      <c r="D77" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E77" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F77" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G77" s="21" t="s">
         <v>26</v>
       </c>
       <c r="H77" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="I77" s="32" t="s">
+      <c r="I77" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="J77" s="33">
-        <v>1</v>
-      </c>
-      <c r="K77" s="34">
-        <v>1</v>
-      </c>
-      <c r="L77" s="35" t="s">
+      <c r="J77" s="35">
+        <v>1</v>
+      </c>
+      <c r="K77" s="36">
+        <v>1</v>
+      </c>
+      <c r="L77" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="M77" s="35">
-        <v>1</v>
-      </c>
-      <c r="N77" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22">
-      <c r="A78" s="20">
+      <c r="M77" s="37">
+        <v>1</v>
+      </c>
+      <c r="N77" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="21">
         <v>200075</v>
       </c>
-      <c r="B78" s="20" t="s">
+      <c r="B78" s="21" t="s">
         <v>197</v>
       </c>
       <c r="C78" s="7">
         <v>82</v>
       </c>
-      <c r="D78" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E78" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F78" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G78" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H78" s="45" t="s">
+      <c r="D78" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E78" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F78" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G78" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H78" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="I78" s="32" t="s">
+      <c r="I78" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="J78" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="K78" s="34">
-        <v>1</v>
-      </c>
-      <c r="L78" s="35" t="s">
+      <c r="J78" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="K78" s="36">
+        <v>1</v>
+      </c>
+      <c r="L78" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="M78" s="35" t="s">
+      <c r="M78" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="N78" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22">
-      <c r="A79" s="20">
+      <c r="N78" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="21">
         <v>200076</v>
       </c>
-      <c r="B79" s="20" t="s">
+      <c r="B79" s="21" t="s">
         <v>200</v>
       </c>
       <c r="C79" s="7">
         <v>83</v>
       </c>
-      <c r="D79" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E79" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F79" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G79" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H79" s="45" t="s">
+      <c r="D79" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E79" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F79" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G79" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H79" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="I79" s="32" t="s">
+      <c r="I79" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="J79" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="K79" s="34">
-        <v>1</v>
-      </c>
-      <c r="L79" s="34">
+      <c r="J79" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="K79" s="36">
+        <v>1</v>
+      </c>
+      <c r="L79" s="36">
         <v>0</v>
       </c>
-      <c r="M79" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="N79" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="80" spans="1:22" s="6" customFormat="1">
-      <c r="A80" s="17">
+      <c r="M79" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="N79" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" s="6" customFormat="1" spans="1:14">
+      <c r="A80" s="18">
         <v>200078</v>
       </c>
-      <c r="B80" s="17" t="s">
+      <c r="B80" s="18" t="s">
         <v>202</v>
       </c>
       <c r="C80" s="6">
         <v>84</v>
       </c>
-      <c r="D80" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E80" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F80" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="G80" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H80" s="46" t="s">
+      <c r="D80" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E80" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F80" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G80" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H80" s="49" t="s">
         <v>203</v>
       </c>
       <c r="I80" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="J80" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="K80" s="37">
-        <v>1</v>
-      </c>
-      <c r="L80" s="38" t="s">
+      <c r="J80" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="K80" s="39">
+        <v>1</v>
+      </c>
+      <c r="L80" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="M80" s="38" t="s">
+      <c r="M80" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="N80" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" s="6" customFormat="1">
-      <c r="A81" s="17">
+      <c r="N80" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" s="6" customFormat="1" spans="1:14">
+      <c r="A81" s="18">
         <v>200079</v>
       </c>
-      <c r="B81" s="17" t="s">
+      <c r="B81" s="18" t="s">
         <v>204</v>
       </c>
       <c r="C81" s="6">
         <v>85</v>
       </c>
-      <c r="D81" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E81" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F81" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="G81" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H81" s="46" t="s">
+      <c r="D81" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E81" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F81" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G81" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H81" s="49" t="s">
         <v>205</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="J81" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="K81" s="37">
-        <v>1</v>
-      </c>
-      <c r="L81" s="38" t="s">
+      <c r="J81" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="K81" s="39">
+        <v>1</v>
+      </c>
+      <c r="L81" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="M81" s="38" t="s">
+      <c r="M81" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="N81" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15">
-      <c r="A82" s="20">
+      <c r="N81" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" s="21">
         <v>200080</v>
       </c>
-      <c r="B82" s="20" t="s">
+      <c r="B82" s="21" t="s">
         <v>206</v>
       </c>
       <c r="C82" s="7">
         <v>86</v>
       </c>
-      <c r="D82" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E82" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F82" s="25" t="s">
+      <c r="D82" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E82" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F82" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H82" s="42" t="s">
+      <c r="H82" s="45" t="s">
         <v>207</v>
       </c>
       <c r="I82" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J82" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="K82" s="28">
-        <v>1</v>
-      </c>
-      <c r="L82" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="M82" s="29" t="s">
+      <c r="J82" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="K82" s="30">
+        <v>1</v>
+      </c>
+      <c r="L82" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="M82" s="31" t="s">
         <v>29</v>
       </c>
       <c r="N82" s="5" t="s">
@@ -5729,67 +6371,67 @@
       </c>
     </row>
     <row r="83" spans="1:15">
-      <c r="A83" s="20">
+      <c r="A83" s="21">
         <v>200085</v>
       </c>
-      <c r="B83" s="20" t="s">
+      <c r="B83" s="21" t="s">
         <v>208</v>
       </c>
       <c r="C83" s="7">
         <v>89</v>
       </c>
-      <c r="D83" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E83" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F83" s="25" t="s">
+      <c r="D83" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E83" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F83" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H83" s="26" t="s">
+      <c r="H83" s="27" t="s">
         <v>209</v>
       </c>
       <c r="I83" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="J83" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="K83" s="28">
-        <v>1</v>
-      </c>
-      <c r="L83" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="M83" s="21" t="s">
+      <c r="J83" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="K83" s="30">
+        <v>1</v>
+      </c>
+      <c r="L83" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="M83" s="22" t="s">
         <v>29</v>
       </c>
       <c r="N83" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="O83" s="40"/>
-    </row>
-    <row r="84" spans="1:15">
-      <c r="A84" s="20">
+      <c r="O83" s="42"/>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" s="21">
         <v>200086</v>
       </c>
-      <c r="B84" s="20" t="s">
+      <c r="B84" s="21" t="s">
         <v>211</v>
       </c>
       <c r="C84" s="7">
         <v>90</v>
       </c>
-      <c r="D84" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E84" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F84" s="25" t="s">
+      <c r="D84" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E84" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F84" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G84" s="5" t="s">
@@ -5801,60 +6443,60 @@
       <c r="I84" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="J84" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="K84" s="28">
-        <v>1</v>
-      </c>
-      <c r="L84" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="M84" s="29" t="s">
+      <c r="J84" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="K84" s="30">
+        <v>1</v>
+      </c>
+      <c r="L84" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="M84" s="31" t="s">
         <v>29</v>
       </c>
       <c r="N84" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:15">
-      <c r="A85" s="20">
+    <row r="85" spans="1:14">
+      <c r="A85" s="21">
         <v>200087</v>
       </c>
-      <c r="B85" s="20" t="s">
+      <c r="B85" s="21" t="s">
         <v>214</v>
       </c>
       <c r="C85" s="7">
         <v>91</v>
       </c>
-      <c r="D85" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E85" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F85" s="25" t="s">
+      <c r="D85" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E85" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F85" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H85" s="26" t="s">
+      <c r="H85" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="I85" s="40" t="s">
+      <c r="I85" s="42" t="s">
         <v>216</v>
       </c>
-      <c r="J85" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="K85" s="28">
-        <v>1</v>
-      </c>
-      <c r="L85" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="M85" s="21" t="s">
+      <c r="J85" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="K85" s="30">
+        <v>1</v>
+      </c>
+      <c r="L85" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="M85" s="22" t="s">
         <v>29</v>
       </c>
       <c r="N85" s="5" t="s">
@@ -5862,111 +6504,111 @@
       </c>
     </row>
     <row r="86" spans="1:15">
-      <c r="A86" s="20">
+      <c r="A86" s="21">
         <v>200088</v>
       </c>
-      <c r="B86" s="20" t="s">
+      <c r="B86" s="21" t="s">
         <v>217</v>
       </c>
       <c r="C86" s="7">
         <v>92</v>
       </c>
-      <c r="D86" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E86" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F86" s="25" t="s">
+      <c r="D86" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E86" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F86" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H86" s="26" t="s">
+      <c r="H86" s="27" t="s">
         <v>218</v>
       </c>
       <c r="I86" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="J86" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="K86" s="28">
-        <v>1</v>
-      </c>
-      <c r="L86" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="M86" s="21" t="s">
+      <c r="J86" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="K86" s="30">
+        <v>1</v>
+      </c>
+      <c r="L86" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="M86" s="22" t="s">
         <v>29</v>
       </c>
       <c r="N86" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="O86" s="40"/>
-    </row>
-    <row r="87" spans="1:15">
-      <c r="A87" s="20">
+      <c r="O86" s="42"/>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" s="21">
         <v>200089</v>
       </c>
-      <c r="B87" s="20" t="s">
+      <c r="B87" s="21" t="s">
         <v>220</v>
       </c>
       <c r="C87" s="7">
         <v>93</v>
       </c>
-      <c r="D87" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E87" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F87" s="25" t="s">
+      <c r="D87" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E87" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F87" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H87" s="26" t="s">
+      <c r="H87" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="I87" s="40" t="s">
+      <c r="I87" s="42" t="s">
         <v>219</v>
       </c>
-      <c r="J87" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="K87" s="28">
-        <v>1</v>
-      </c>
-      <c r="L87" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="M87" s="21" t="s">
+      <c r="J87" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="K87" s="30">
+        <v>1</v>
+      </c>
+      <c r="L87" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="M87" s="22" t="s">
         <v>29</v>
       </c>
       <c r="N87" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="88" spans="1:15">
-      <c r="A88" s="20">
+    <row r="88" spans="1:14">
+      <c r="A88" s="21">
         <v>200090</v>
       </c>
-      <c r="B88" s="20" t="s">
+      <c r="B88" s="21" t="s">
         <v>222</v>
       </c>
       <c r="C88" s="7">
         <v>94</v>
       </c>
-      <c r="D88" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E88" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F88" s="25" t="s">
+      <c r="D88" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E88" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F88" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G88" s="5" t="s">
@@ -5978,39 +6620,39 @@
       <c r="I88" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J88" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="K88" s="28">
-        <v>1</v>
-      </c>
-      <c r="L88" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="M88" s="21" t="s">
+      <c r="J88" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="K88" s="30">
+        <v>1</v>
+      </c>
+      <c r="L88" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="M88" s="22" t="s">
         <v>29</v>
       </c>
       <c r="N88" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:15">
-      <c r="A89" s="20">
+    <row r="89" spans="1:14">
+      <c r="A89" s="21">
         <v>200091</v>
       </c>
-      <c r="B89" s="20" t="s">
+      <c r="B89" s="21" t="s">
         <v>224</v>
       </c>
       <c r="C89" s="7">
         <v>95</v>
       </c>
-      <c r="D89" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E89" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F89" s="25" t="s">
+      <c r="D89" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E89" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F89" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G89" s="5" t="s">
@@ -6022,39 +6664,39 @@
       <c r="I89" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="J89" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="K89" s="28">
-        <v>1</v>
-      </c>
-      <c r="L89" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="M89" s="21" t="s">
+      <c r="J89" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="K89" s="30">
+        <v>1</v>
+      </c>
+      <c r="L89" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="M89" s="22" t="s">
         <v>29</v>
       </c>
       <c r="N89" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:15">
-      <c r="A90" s="20">
+    <row r="90" spans="1:14">
+      <c r="A90" s="21">
         <v>200092</v>
       </c>
-      <c r="B90" s="20" t="s">
+      <c r="B90" s="21" t="s">
         <v>226</v>
       </c>
       <c r="C90" s="7">
         <v>96</v>
       </c>
-      <c r="D90" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E90" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F90" s="25" t="s">
+      <c r="D90" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E90" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F90" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G90" s="5" t="s">
@@ -6066,39 +6708,39 @@
       <c r="I90" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J90" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="K90" s="28">
-        <v>1</v>
-      </c>
-      <c r="L90" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="M90" s="21" t="s">
+      <c r="J90" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="K90" s="30">
+        <v>1</v>
+      </c>
+      <c r="L90" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="M90" s="22" t="s">
         <v>29</v>
       </c>
       <c r="N90" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:15">
-      <c r="A91" s="20">
+    <row r="91" spans="1:14">
+      <c r="A91" s="21">
         <v>200093</v>
       </c>
-      <c r="B91" s="20" t="s">
+      <c r="B91" s="21" t="s">
         <v>228</v>
       </c>
       <c r="C91" s="7">
         <v>97</v>
       </c>
-      <c r="D91" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E91" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F91" s="25" t="s">
+      <c r="D91" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E91" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F91" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G91" s="5" t="s">
@@ -6110,259 +6752,259 @@
       <c r="I91" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="J91" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="K91" s="28">
-        <v>1</v>
-      </c>
-      <c r="L91" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="M91" s="21" t="s">
+      <c r="J91" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="K91" s="30">
+        <v>1</v>
+      </c>
+      <c r="L91" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="M91" s="22" t="s">
         <v>29</v>
       </c>
       <c r="N91" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="1:15">
-      <c r="A92" s="20">
+    <row r="92" spans="1:14">
+      <c r="A92" s="21">
         <v>200094</v>
       </c>
-      <c r="B92" s="20" t="s">
+      <c r="B92" s="21" t="s">
         <v>230</v>
       </c>
       <c r="C92" s="7">
         <v>98</v>
       </c>
-      <c r="D92" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E92" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F92" s="25" t="s">
+      <c r="D92" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E92" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F92" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G92" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H92" s="46" t="s">
+      <c r="H92" s="49" t="s">
         <v>231</v>
       </c>
       <c r="I92" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="J92" s="30">
-        <v>1</v>
-      </c>
-      <c r="K92" s="30">
-        <v>1</v>
-      </c>
-      <c r="L92" s="30" t="s">
+      <c r="J92" s="32">
+        <v>1</v>
+      </c>
+      <c r="K92" s="32">
+        <v>1</v>
+      </c>
+      <c r="L92" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="M92" s="30" t="s">
+      <c r="M92" s="32" t="s">
         <v>44</v>
       </c>
       <c r="N92" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="1:15">
-      <c r="A93" s="20">
+    <row r="93" spans="1:14">
+      <c r="A93" s="21">
         <v>200095</v>
       </c>
-      <c r="B93" s="20" t="s">
+      <c r="B93" s="21" t="s">
         <v>233</v>
       </c>
       <c r="C93" s="7">
         <v>99</v>
       </c>
-      <c r="D93" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E93" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F93" s="25" t="s">
+      <c r="D93" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E93" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F93" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G93" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H93" s="46" t="s">
+      <c r="H93" s="49" t="s">
         <v>234</v>
       </c>
       <c r="I93" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="J93" s="30">
-        <v>1</v>
-      </c>
-      <c r="K93" s="30" t="s">
+      <c r="J93" s="32">
+        <v>1</v>
+      </c>
+      <c r="K93" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="L93" s="30" t="s">
+      <c r="L93" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="M93" s="30" t="s">
+      <c r="M93" s="32" t="s">
         <v>44</v>
       </c>
       <c r="N93" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="1:15">
-      <c r="A94" s="20">
+    <row r="94" spans="1:14">
+      <c r="A94" s="21">
         <v>200096</v>
       </c>
-      <c r="B94" s="20" t="s">
+      <c r="B94" s="21" t="s">
         <v>236</v>
       </c>
       <c r="C94" s="7">
         <v>100</v>
       </c>
-      <c r="D94" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E94" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F94" s="25" t="s">
+      <c r="D94" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E94" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F94" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G94" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H94" s="46" t="s">
+      <c r="H94" s="49" t="s">
         <v>237</v>
       </c>
       <c r="I94" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="J94" s="30">
-        <v>1</v>
-      </c>
-      <c r="K94" s="30" t="s">
+      <c r="J94" s="32">
+        <v>1</v>
+      </c>
+      <c r="K94" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="L94" s="30" t="s">
+      <c r="L94" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="M94" s="30" t="s">
+      <c r="M94" s="32" t="s">
         <v>44</v>
       </c>
       <c r="N94" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="95" spans="1:15">
-      <c r="A95" s="20">
+    <row r="95" spans="1:14">
+      <c r="A95" s="21">
         <v>200097</v>
       </c>
-      <c r="B95" s="20" t="s">
+      <c r="B95" s="21" t="s">
         <v>238</v>
       </c>
       <c r="C95" s="7">
         <v>101</v>
       </c>
-      <c r="D95" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E95" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F95" s="25" t="s">
+      <c r="D95" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E95" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F95" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G95" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H95" s="46" t="s">
+      <c r="H95" s="49" t="s">
         <v>239</v>
       </c>
       <c r="I95" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="J95" s="30">
-        <v>1</v>
-      </c>
-      <c r="K95" s="30">
-        <v>1</v>
-      </c>
-      <c r="L95" s="30" t="s">
+      <c r="J95" s="32">
+        <v>1</v>
+      </c>
+      <c r="K95" s="32">
+        <v>1</v>
+      </c>
+      <c r="L95" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="M95" s="30" t="s">
+      <c r="M95" s="32" t="s">
         <v>44</v>
       </c>
       <c r="N95" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:14">
       <c r="A96" s="7">
         <v>200098</v>
       </c>
-      <c r="B96" s="20" t="s">
+      <c r="B96" s="21" t="s">
         <v>241</v>
       </c>
       <c r="C96" s="7">
         <v>102</v>
       </c>
-      <c r="D96" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E96" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F96" s="25" t="s">
+      <c r="D96" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E96" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F96" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G96" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H96" s="46" t="s">
+      <c r="H96" s="49" t="s">
         <v>242</v>
       </c>
       <c r="I96" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="J96" s="37">
-        <v>1</v>
-      </c>
-      <c r="K96" s="37">
-        <v>1</v>
-      </c>
-      <c r="L96" s="37">
+      <c r="J96" s="39">
+        <v>1</v>
+      </c>
+      <c r="K96" s="39">
+        <v>1</v>
+      </c>
+      <c r="L96" s="39">
         <v>0</v>
       </c>
-      <c r="M96" s="37">
+      <c r="M96" s="39">
         <v>2</v>
       </c>
       <c r="N96" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="97" spans="1:14" customFormat="1">
-      <c r="A97" s="20">
+    <row r="97" customFormat="1" spans="1:14">
+      <c r="A97" s="21">
         <v>200081</v>
       </c>
-      <c r="B97" s="20" t="s">
+      <c r="B97" s="21" t="s">
         <v>244</v>
       </c>
       <c r="C97" s="7">
         <v>85</v>
       </c>
-      <c r="D97" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E97" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F97" s="25" t="s">
+      <c r="D97" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E97" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F97" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G97" s="5" t="s">
@@ -6374,39 +7016,39 @@
       <c r="I97" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="J97" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="K97" s="28">
-        <v>1</v>
-      </c>
-      <c r="L97" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="M97" s="29">
+      <c r="J97" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="K97" s="30">
+        <v>1</v>
+      </c>
+      <c r="L97" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="M97" s="31">
         <v>1</v>
       </c>
       <c r="N97" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="1:14" customFormat="1">
-      <c r="A98" s="20">
+    <row r="98" customFormat="1" spans="1:14">
+      <c r="A98" s="21">
         <v>200082</v>
       </c>
-      <c r="B98" s="20" t="s">
+      <c r="B98" s="21" t="s">
         <v>247</v>
       </c>
       <c r="C98" s="7">
         <v>86</v>
       </c>
-      <c r="D98" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E98" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F98" s="25" t="s">
+      <c r="D98" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E98" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F98" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G98" s="5" t="s">
@@ -6418,39 +7060,39 @@
       <c r="I98" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="J98" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="K98" s="28">
-        <v>1</v>
-      </c>
-      <c r="L98" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="M98" s="29" t="s">
+      <c r="J98" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="K98" s="30">
+        <v>1</v>
+      </c>
+      <c r="L98" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="M98" s="31" t="s">
         <v>29</v>
       </c>
       <c r="N98" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="99" spans="1:14" customFormat="1">
-      <c r="A99" s="20">
+    <row r="99" customFormat="1" spans="1:14">
+      <c r="A99" s="21">
         <v>200083</v>
       </c>
-      <c r="B99" s="20" t="s">
+      <c r="B99" s="21" t="s">
         <v>249</v>
       </c>
       <c r="C99" s="7">
         <v>87</v>
       </c>
-      <c r="D99" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E99" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F99" s="25" t="s">
+      <c r="D99" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E99" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F99" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G99" s="5" t="s">
@@ -6462,39 +7104,39 @@
       <c r="I99" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="J99" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="K99" s="28">
-        <v>1</v>
-      </c>
-      <c r="L99" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="M99" s="29" t="s">
+      <c r="J99" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="K99" s="30">
+        <v>1</v>
+      </c>
+      <c r="L99" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="M99" s="31" t="s">
         <v>29</v>
       </c>
       <c r="N99" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="1:14" customFormat="1">
-      <c r="A100" s="20">
+    <row r="100" customFormat="1" spans="1:14">
+      <c r="A100" s="21">
         <v>200084</v>
       </c>
-      <c r="B100" s="20" t="s">
+      <c r="B100" s="21" t="s">
         <v>252</v>
       </c>
       <c r="C100" s="7">
         <v>88</v>
       </c>
-      <c r="D100" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E100" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F100" s="25" t="s">
+      <c r="D100" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E100" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F100" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G100" s="5" t="s">
@@ -6506,16 +7148,16 @@
       <c r="I100" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="J100" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="K100" s="28">
-        <v>1</v>
-      </c>
-      <c r="L100" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="M100" s="29" t="s">
+      <c r="J100" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="K100" s="30">
+        <v>1</v>
+      </c>
+      <c r="L100" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="M100" s="31" t="s">
         <v>29</v>
       </c>
       <c r="N100" s="5" t="s">
@@ -6526,40 +7168,40 @@
       <c r="A101" s="7">
         <v>200105</v>
       </c>
-      <c r="B101" s="20" t="s">
+      <c r="B101" s="21" t="s">
         <v>255</v>
       </c>
       <c r="C101" s="7">
         <v>109</v>
       </c>
-      <c r="D101" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E101" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F101" s="25" t="s">
+      <c r="D101" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E101" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F101" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G101" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H101" s="46" t="s">
+      <c r="H101" s="49" t="s">
         <v>256</v>
       </c>
       <c r="I101" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="J101" s="37">
-        <v>1</v>
-      </c>
-      <c r="K101" s="37">
-        <v>1</v>
-      </c>
-      <c r="L101" s="30" t="s">
+      <c r="J101" s="39">
+        <v>1</v>
+      </c>
+      <c r="K101" s="39">
+        <v>1</v>
+      </c>
+      <c r="L101" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="M101" s="37">
+      <c r="M101" s="39">
         <v>2</v>
       </c>
       <c r="N101" s="5" t="s">
@@ -6570,40 +7212,40 @@
       <c r="A102" s="7">
         <v>200106</v>
       </c>
-      <c r="B102" s="20" t="s">
+      <c r="B102" s="21" t="s">
         <v>258</v>
       </c>
       <c r="C102" s="7">
         <v>110</v>
       </c>
-      <c r="D102" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E102" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F102" s="25" t="s">
+      <c r="D102" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E102" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F102" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G102" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H102" s="46" t="s">
+      <c r="H102" s="49" t="s">
         <v>259</v>
       </c>
       <c r="I102" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="J102" s="37">
-        <v>1</v>
-      </c>
-      <c r="K102" s="37">
-        <v>1</v>
-      </c>
-      <c r="L102" s="30" t="s">
+      <c r="J102" s="39">
+        <v>1</v>
+      </c>
+      <c r="K102" s="39">
+        <v>1</v>
+      </c>
+      <c r="L102" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="M102" s="37">
+      <c r="M102" s="39">
         <v>2</v>
       </c>
       <c r="N102" s="5" t="s">
@@ -6614,40 +7256,40 @@
       <c r="A103" s="7">
         <v>200107</v>
       </c>
-      <c r="B103" s="20" t="s">
+      <c r="B103" s="21" t="s">
         <v>261</v>
       </c>
       <c r="C103" s="7">
         <v>111</v>
       </c>
-      <c r="D103" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E103" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F103" s="25" t="s">
+      <c r="D103" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E103" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F103" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G103" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H103" s="46" t="s">
+      <c r="H103" s="49" t="s">
         <v>262</v>
       </c>
       <c r="I103" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="J103" s="37">
-        <v>1</v>
-      </c>
-      <c r="K103" s="37">
-        <v>1</v>
-      </c>
-      <c r="L103" s="30" t="s">
+      <c r="J103" s="39">
+        <v>1</v>
+      </c>
+      <c r="K103" s="39">
+        <v>1</v>
+      </c>
+      <c r="L103" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="M103" s="37">
+      <c r="M103" s="39">
         <v>2</v>
       </c>
       <c r="N103" s="5" t="s">
@@ -6658,40 +7300,40 @@
       <c r="A104" s="7">
         <v>200108</v>
       </c>
-      <c r="B104" s="20" t="s">
+      <c r="B104" s="21" t="s">
         <v>264</v>
       </c>
       <c r="C104" s="7">
         <v>112</v>
       </c>
-      <c r="D104" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E104" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F104" s="25" t="s">
+      <c r="D104" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E104" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F104" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G104" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H104" s="46" t="s">
+      <c r="H104" s="49" t="s">
         <v>265</v>
       </c>
       <c r="I104" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="J104" s="37">
-        <v>1</v>
-      </c>
-      <c r="K104" s="37">
+      <c r="J104" s="39">
+        <v>1</v>
+      </c>
+      <c r="K104" s="39">
         <v>0</v>
       </c>
-      <c r="L104" s="30" t="s">
+      <c r="L104" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="M104" s="37">
+      <c r="M104" s="39">
         <v>2</v>
       </c>
       <c r="N104" s="5" t="s">
@@ -6702,19 +7344,19 @@
       <c r="A105" s="7">
         <v>200109</v>
       </c>
-      <c r="B105" s="20" t="s">
+      <c r="B105" s="21" t="s">
         <v>267</v>
       </c>
       <c r="C105" s="7">
         <v>113</v>
       </c>
-      <c r="D105" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E105" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F105" s="25" t="s">
+      <c r="D105" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E105" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F105" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G105" s="5" t="s">
@@ -6726,16 +7368,16 @@
       <c r="I105" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="J105" s="37">
-        <v>1</v>
-      </c>
-      <c r="K105" s="37">
+      <c r="J105" s="39">
+        <v>1</v>
+      </c>
+      <c r="K105" s="39">
         <v>0</v>
       </c>
-      <c r="L105" s="30" t="s">
+      <c r="L105" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="M105" s="37">
+      <c r="M105" s="39">
         <v>2</v>
       </c>
       <c r="N105" s="5" t="s">
@@ -6746,40 +7388,40 @@
       <c r="A106" s="7">
         <v>200110</v>
       </c>
-      <c r="B106" s="20" t="s">
+      <c r="B106" s="21" t="s">
         <v>269</v>
       </c>
       <c r="C106" s="7">
         <v>114</v>
       </c>
-      <c r="D106" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E106" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F106" s="25" t="s">
+      <c r="D106" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E106" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F106" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G106" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H106" s="45" t="s">
+      <c r="H106" s="48" t="s">
         <v>270</v>
       </c>
       <c r="I106" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="J106" s="34">
-        <v>1</v>
-      </c>
-      <c r="K106" s="34">
-        <v>1</v>
-      </c>
-      <c r="L106" s="34">
-        <v>1</v>
-      </c>
-      <c r="M106" s="34">
+      <c r="J106" s="36">
+        <v>1</v>
+      </c>
+      <c r="K106" s="36">
+        <v>1</v>
+      </c>
+      <c r="L106" s="36">
+        <v>1</v>
+      </c>
+      <c r="M106" s="36">
         <v>1</v>
       </c>
       <c r="N106" s="5" t="s">
@@ -6790,43 +7432,43 @@
       <c r="A107" s="7">
         <v>200111</v>
       </c>
-      <c r="B107" s="20" t="s">
+      <c r="B107" s="21" t="s">
         <v>272</v>
       </c>
       <c r="C107" s="7">
         <v>115</v>
       </c>
-      <c r="D107" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E107" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F107" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G107" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H107" s="47" t="s">
+      <c r="D107" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E107" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F107" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G107" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H107" s="50" t="s">
         <v>273</v>
       </c>
       <c r="I107" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="J107" s="34">
-        <v>1</v>
-      </c>
-      <c r="K107" s="34">
-        <v>1</v>
-      </c>
-      <c r="L107" s="34">
-        <v>1</v>
-      </c>
-      <c r="M107" s="34">
-        <v>1</v>
-      </c>
-      <c r="N107" s="18" t="s">
+      <c r="J107" s="36">
+        <v>1</v>
+      </c>
+      <c r="K107" s="36">
+        <v>1</v>
+      </c>
+      <c r="L107" s="36">
+        <v>1</v>
+      </c>
+      <c r="M107" s="36">
+        <v>1</v>
+      </c>
+      <c r="N107" s="19" t="s">
         <v>30</v>
       </c>
     </row>
@@ -6834,43 +7476,43 @@
       <c r="A108" s="7">
         <v>200112</v>
       </c>
-      <c r="B108" s="20" t="s">
+      <c r="B108" s="21" t="s">
         <v>275</v>
       </c>
       <c r="C108" s="7">
         <v>116</v>
       </c>
-      <c r="D108" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E108" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F108" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G108" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H108" s="47" t="s">
+      <c r="D108" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E108" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F108" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G108" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H108" s="50" t="s">
         <v>276</v>
       </c>
       <c r="I108" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="J108" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="K108" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="L108" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="M108" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="N108" s="18" t="s">
+      <c r="J108" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="K108" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="L108" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="M108" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="N108" s="19" t="s">
         <v>30</v>
       </c>
     </row>
@@ -6878,40 +7520,40 @@
       <c r="A109" s="7">
         <v>200113</v>
       </c>
-      <c r="B109" s="20" t="s">
+      <c r="B109" s="21" t="s">
         <v>277</v>
       </c>
       <c r="C109" s="7">
         <v>117</v>
       </c>
-      <c r="D109" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E109" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F109" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G109" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H109" s="47" t="s">
+      <c r="D109" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E109" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F109" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G109" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H109" s="50" t="s">
         <v>278</v>
       </c>
       <c r="I109" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="J109" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="K109" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="L109" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="M109" s="39" t="s">
+      <c r="J109" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="K109" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="L109" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="M109" s="41" t="s">
         <v>29</v>
       </c>
       <c r="N109" s="5" t="s">
@@ -6922,40 +7564,40 @@
       <c r="A110" s="7">
         <v>200114</v>
       </c>
-      <c r="B110" s="20" t="s">
+      <c r="B110" s="21" t="s">
         <v>279</v>
       </c>
       <c r="C110" s="7">
         <v>118</v>
       </c>
-      <c r="D110" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E110" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F110" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="G110" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H110" s="47" t="s">
+      <c r="D110" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E110" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F110" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G110" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H110" s="50" t="s">
         <v>280</v>
       </c>
       <c r="I110" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="J110" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="K110" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="L110" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="M110" s="39" t="s">
+      <c r="J110" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="K110" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="L110" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="M110" s="41" t="s">
         <v>29</v>
       </c>
       <c r="N110" s="5" t="s">
@@ -6966,40 +7608,40 @@
       <c r="A111" s="7">
         <v>200115</v>
       </c>
-      <c r="B111" s="20" t="s">
+      <c r="B111" s="21" t="s">
         <v>281</v>
       </c>
       <c r="C111" s="7">
         <v>119</v>
       </c>
-      <c r="D111" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E111" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F111" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="G111" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H111" s="47" t="s">
+      <c r="D111" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E111" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F111" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G111" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H111" s="50" t="s">
         <v>282</v>
       </c>
       <c r="I111" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="J111" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="K111" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="L111" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="M111" s="39" t="s">
+      <c r="J111" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="K111" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="L111" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="M111" s="41" t="s">
         <v>29</v>
       </c>
       <c r="N111" s="5" t="s">
@@ -7010,40 +7652,40 @@
       <c r="A112" s="7">
         <v>200116</v>
       </c>
-      <c r="B112" s="20" t="s">
+      <c r="B112" s="21" t="s">
         <v>283</v>
       </c>
       <c r="C112" s="7">
         <v>120</v>
       </c>
-      <c r="D112" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E112" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F112" s="25" t="s">
+      <c r="D112" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E112" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F112" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G112" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H112" s="47" t="s">
+      <c r="H112" s="50" t="s">
         <v>284</v>
       </c>
       <c r="I112" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="J112" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="K112" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="L112" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="M112" s="39" t="s">
+      <c r="J112" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="K112" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="L112" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="M112" s="41" t="s">
         <v>29</v>
       </c>
       <c r="N112" s="5" t="s">
@@ -7054,40 +7696,40 @@
       <c r="A113" s="7">
         <v>200117</v>
       </c>
-      <c r="B113" s="20" t="s">
+      <c r="B113" s="21" t="s">
         <v>285</v>
       </c>
       <c r="C113" s="7">
         <v>121</v>
       </c>
-      <c r="D113" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E113" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F113" s="25" t="s">
+      <c r="D113" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E113" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F113" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G113" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H113" s="47" t="s">
+      <c r="H113" s="50" t="s">
         <v>286</v>
       </c>
       <c r="I113" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="J113" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="K113" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="L113" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="M113" s="39" t="s">
+      <c r="J113" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="K113" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="L113" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="M113" s="41" t="s">
         <v>29</v>
       </c>
       <c r="N113" s="5" t="s">
@@ -7098,40 +7740,40 @@
       <c r="A114" s="7">
         <v>200118</v>
       </c>
-      <c r="B114" s="20" t="s">
+      <c r="B114" s="21" t="s">
         <v>287</v>
       </c>
       <c r="C114" s="7">
         <v>122</v>
       </c>
-      <c r="D114" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E114" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F114" s="25" t="s">
+      <c r="D114" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E114" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F114" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G114" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H114" s="47" t="s">
+      <c r="H114" s="50" t="s">
         <v>288</v>
       </c>
       <c r="I114" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="J114" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="K114" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="L114" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="M114" s="39" t="s">
+      <c r="J114" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="K114" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="L114" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="M114" s="41" t="s">
         <v>29</v>
       </c>
       <c r="N114" s="5" t="s">
@@ -7142,40 +7784,40 @@
       <c r="A115" s="7">
         <v>200119</v>
       </c>
-      <c r="B115" s="20" t="s">
+      <c r="B115" s="21" t="s">
         <v>289</v>
       </c>
       <c r="C115" s="7">
         <v>123</v>
       </c>
-      <c r="D115" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E115" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F115" s="25" t="s">
+      <c r="D115" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E115" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F115" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G115" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H115" s="47" t="s">
+      <c r="H115" s="50" t="s">
         <v>290</v>
       </c>
       <c r="I115" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="J115" s="30">
-        <v>1</v>
-      </c>
-      <c r="K115" s="30">
-        <v>1</v>
-      </c>
-      <c r="L115" s="30">
-        <v>1</v>
-      </c>
-      <c r="M115" s="30">
+      <c r="J115" s="32">
+        <v>1</v>
+      </c>
+      <c r="K115" s="32">
+        <v>1</v>
+      </c>
+      <c r="L115" s="32">
+        <v>1</v>
+      </c>
+      <c r="M115" s="32">
         <v>1</v>
       </c>
       <c r="N115" s="5" t="s">
@@ -7186,40 +7828,40 @@
       <c r="A116" s="7">
         <v>200120</v>
       </c>
-      <c r="B116" s="20" t="s">
+      <c r="B116" s="21" t="s">
         <v>291</v>
       </c>
       <c r="C116" s="7">
         <v>124</v>
       </c>
-      <c r="D116" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E116" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F116" s="25" t="s">
+      <c r="D116" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E116" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F116" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G116" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H116" s="47" t="s">
+      <c r="H116" s="50" t="s">
         <v>292</v>
       </c>
       <c r="I116" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="J116" s="30">
-        <v>1</v>
-      </c>
-      <c r="K116" s="30">
-        <v>1</v>
-      </c>
-      <c r="L116" s="30">
-        <v>1</v>
-      </c>
-      <c r="M116" s="30">
+      <c r="J116" s="32">
+        <v>1</v>
+      </c>
+      <c r="K116" s="32">
+        <v>1</v>
+      </c>
+      <c r="L116" s="32">
+        <v>1</v>
+      </c>
+      <c r="M116" s="32">
         <v>1</v>
       </c>
       <c r="N116" s="5" t="s">
@@ -7230,40 +7872,40 @@
       <c r="A117" s="7">
         <v>200121</v>
       </c>
-      <c r="B117" s="20" t="s">
+      <c r="B117" s="21" t="s">
         <v>293</v>
       </c>
       <c r="C117" s="7">
         <v>125</v>
       </c>
-      <c r="D117" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E117" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F117" s="25" t="s">
+      <c r="D117" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E117" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F117" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G117" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H117" s="47" t="s">
+      <c r="H117" s="50" t="s">
         <v>294</v>
       </c>
       <c r="I117" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="J117" s="30">
-        <v>1</v>
-      </c>
-      <c r="K117" s="30">
-        <v>1</v>
-      </c>
-      <c r="L117" s="30">
-        <v>1</v>
-      </c>
-      <c r="M117" s="30">
+      <c r="J117" s="32">
+        <v>1</v>
+      </c>
+      <c r="K117" s="32">
+        <v>1</v>
+      </c>
+      <c r="L117" s="32">
+        <v>1</v>
+      </c>
+      <c r="M117" s="32">
         <v>1</v>
       </c>
       <c r="N117" s="5" t="s">
@@ -7274,40 +7916,40 @@
       <c r="A118" s="7">
         <v>200122</v>
       </c>
-      <c r="B118" s="20" t="s">
+      <c r="B118" s="21" t="s">
         <v>295</v>
       </c>
       <c r="C118" s="7">
         <v>126</v>
       </c>
-      <c r="D118" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E118" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F118" s="25" t="s">
+      <c r="D118" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E118" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F118" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G118" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H118" s="47" t="s">
+      <c r="H118" s="50" t="s">
         <v>296</v>
       </c>
       <c r="I118" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="J118" s="30">
-        <v>1</v>
-      </c>
-      <c r="K118" s="30">
-        <v>1</v>
-      </c>
-      <c r="L118" s="30">
-        <v>1</v>
-      </c>
-      <c r="M118" s="30">
+      <c r="J118" s="32">
+        <v>1</v>
+      </c>
+      <c r="K118" s="32">
+        <v>1</v>
+      </c>
+      <c r="L118" s="32">
+        <v>1</v>
+      </c>
+      <c r="M118" s="32">
         <v>1</v>
       </c>
       <c r="N118" s="5" t="s">
@@ -7318,40 +7960,40 @@
       <c r="A119" s="7">
         <v>200123</v>
       </c>
-      <c r="B119" s="20" t="s">
+      <c r="B119" s="21" t="s">
         <v>297</v>
       </c>
       <c r="C119" s="7">
         <v>127</v>
       </c>
-      <c r="D119" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E119" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F119" s="25" t="s">
+      <c r="D119" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E119" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F119" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G119" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H119" s="47" t="s">
+      <c r="H119" s="50" t="s">
         <v>298</v>
       </c>
       <c r="I119" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="J119" s="37">
-        <v>1</v>
-      </c>
-      <c r="K119" s="37">
-        <v>1</v>
-      </c>
-      <c r="L119" s="37">
-        <v>1</v>
-      </c>
-      <c r="M119" s="37">
+      <c r="J119" s="39">
+        <v>1</v>
+      </c>
+      <c r="K119" s="39">
+        <v>1</v>
+      </c>
+      <c r="L119" s="39">
+        <v>1</v>
+      </c>
+      <c r="M119" s="39">
         <v>1</v>
       </c>
       <c r="N119" s="5" t="s">
@@ -7362,40 +8004,40 @@
       <c r="A120" s="7">
         <v>200124</v>
       </c>
-      <c r="B120" s="20" t="s">
+      <c r="B120" s="21" t="s">
         <v>299</v>
       </c>
       <c r="C120" s="7">
         <v>128</v>
       </c>
-      <c r="D120" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E120" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F120" s="25" t="s">
+      <c r="D120" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E120" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F120" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G120" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H120" s="47" t="s">
+      <c r="H120" s="50" t="s">
         <v>300</v>
       </c>
       <c r="I120" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="J120" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="K120" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="L120" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="M120" s="27" t="s">
+      <c r="J120" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="K120" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="L120" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="M120" s="29" t="s">
         <v>29</v>
       </c>
       <c r="N120" s="5" t="s">
@@ -7406,40 +8048,40 @@
       <c r="A121" s="7">
         <v>200125</v>
       </c>
-      <c r="B121" s="20" t="s">
+      <c r="B121" s="21" t="s">
         <v>301</v>
       </c>
       <c r="C121" s="7">
         <v>129</v>
       </c>
-      <c r="D121" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E121" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F121" s="25" t="s">
+      <c r="D121" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E121" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F121" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G121" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H121" s="47" t="s">
+      <c r="H121" s="50" t="s">
         <v>302</v>
       </c>
       <c r="I121" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="J121" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="K121" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="L121" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="M121" s="27" t="s">
+      <c r="J121" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="K121" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="L121" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="M121" s="29" t="s">
         <v>29</v>
       </c>
       <c r="N121" s="5" t="s">
@@ -7450,40 +8092,40 @@
       <c r="A122" s="7">
         <v>200126</v>
       </c>
-      <c r="B122" s="20" t="s">
+      <c r="B122" s="21" t="s">
         <v>303</v>
       </c>
       <c r="C122" s="7">
         <v>130</v>
       </c>
-      <c r="D122" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E122" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F122" s="25" t="s">
+      <c r="D122" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E122" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F122" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G122" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H122" s="47" t="s">
+      <c r="H122" s="50" t="s">
         <v>304</v>
       </c>
       <c r="I122" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="J122" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="K122" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="L122" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="M122" s="27" t="s">
+      <c r="J122" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="K122" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="L122" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="M122" s="29" t="s">
         <v>29</v>
       </c>
       <c r="N122" s="5" t="s">
@@ -7494,40 +8136,40 @@
       <c r="A123" s="7">
         <v>200127</v>
       </c>
-      <c r="B123" s="20" t="s">
+      <c r="B123" s="21" t="s">
         <v>305</v>
       </c>
       <c r="C123" s="7">
         <v>131</v>
       </c>
-      <c r="D123" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E123" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F123" s="25" t="s">
+      <c r="D123" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E123" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F123" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G123" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H123" s="47" t="s">
+      <c r="H123" s="50" t="s">
         <v>306</v>
       </c>
       <c r="I123" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="J123" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="K123" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="L123" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="M123" s="27" t="s">
+      <c r="J123" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="K123" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="L123" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="M123" s="29" t="s">
         <v>29</v>
       </c>
       <c r="N123" s="5" t="s">
@@ -7538,40 +8180,40 @@
       <c r="A124" s="7">
         <v>200128</v>
       </c>
-      <c r="B124" s="20" t="s">
+      <c r="B124" s="21" t="s">
         <v>307</v>
       </c>
       <c r="C124" s="7">
         <v>132</v>
       </c>
-      <c r="D124" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E124" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F124" s="25" t="s">
+      <c r="D124" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E124" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F124" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G124" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H124" s="47" t="s">
+      <c r="H124" s="50" t="s">
         <v>308</v>
       </c>
       <c r="I124" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="J124" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="K124" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="L124" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="M124" s="39" t="s">
+      <c r="J124" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="K124" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="L124" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="M124" s="41" t="s">
         <v>29</v>
       </c>
       <c r="N124" s="5" t="s">
@@ -7582,40 +8224,40 @@
       <c r="A125" s="7">
         <v>200129</v>
       </c>
-      <c r="B125" s="20" t="s">
+      <c r="B125" s="21" t="s">
         <v>309</v>
       </c>
       <c r="C125" s="7">
         <v>133</v>
       </c>
-      <c r="D125" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E125" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F125" s="25" t="s">
+      <c r="D125" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E125" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F125" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G125" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H125" s="47" t="s">
+      <c r="H125" s="50" t="s">
         <v>310</v>
       </c>
       <c r="I125" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="J125" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="K125" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="L125" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="M125" s="39" t="s">
+      <c r="J125" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="K125" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="L125" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="M125" s="41" t="s">
         <v>29</v>
       </c>
       <c r="N125" s="5" t="s">
@@ -7626,40 +8268,40 @@
       <c r="A126" s="7">
         <v>200130</v>
       </c>
-      <c r="B126" s="20" t="s">
+      <c r="B126" s="21" t="s">
         <v>311</v>
       </c>
       <c r="C126" s="7">
         <v>134</v>
       </c>
-      <c r="D126" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E126" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F126" s="25" t="s">
+      <c r="D126" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E126" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F126" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G126" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H126" s="47" t="s">
+      <c r="H126" s="50" t="s">
         <v>312</v>
       </c>
       <c r="I126" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="J126" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="K126" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="L126" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="M126" s="39" t="s">
+      <c r="J126" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="K126" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="L126" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="M126" s="41" t="s">
         <v>29</v>
       </c>
       <c r="N126" s="5" t="s">
@@ -7670,40 +8312,40 @@
       <c r="A127" s="7">
         <v>200131</v>
       </c>
-      <c r="B127" s="20" t="s">
+      <c r="B127" s="21" t="s">
         <v>313</v>
       </c>
       <c r="C127" s="7">
         <v>135</v>
       </c>
-      <c r="D127" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E127" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F127" s="25" t="s">
+      <c r="D127" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E127" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F127" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G127" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H127" s="47" t="s">
+      <c r="H127" s="50" t="s">
         <v>314</v>
       </c>
       <c r="I127" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="J127" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="K127" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="L127" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="M127" s="39" t="s">
+      <c r="J127" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="K127" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="L127" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="M127" s="41" t="s">
         <v>29</v>
       </c>
       <c r="N127" s="5" t="s">
@@ -7714,40 +8356,40 @@
       <c r="A128" s="7">
         <v>200132</v>
       </c>
-      <c r="B128" s="20" t="s">
+      <c r="B128" s="21" t="s">
         <v>315</v>
       </c>
       <c r="C128" s="7">
         <v>136</v>
       </c>
-      <c r="D128" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E128" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F128" s="25" t="s">
+      <c r="D128" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E128" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F128" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G128" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H128" s="47" t="s">
+      <c r="H128" s="50" t="s">
         <v>316</v>
       </c>
       <c r="I128" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="J128" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="K128" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="L128" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="M128" s="39" t="s">
+      <c r="J128" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="K128" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="L128" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="M128" s="41" t="s">
         <v>29</v>
       </c>
       <c r="N128" s="5" t="s">
@@ -7758,40 +8400,40 @@
       <c r="A129" s="7">
         <v>200133</v>
       </c>
-      <c r="B129" s="20" t="s">
+      <c r="B129" s="21" t="s">
         <v>317</v>
       </c>
       <c r="C129" s="7">
         <v>137</v>
       </c>
-      <c r="D129" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E129" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F129" s="25" t="s">
+      <c r="D129" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E129" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F129" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G129" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H129" s="47" t="s">
+      <c r="H129" s="50" t="s">
         <v>318</v>
       </c>
       <c r="I129" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="J129" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="K129" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="L129" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="M129" s="39" t="s">
+      <c r="J129" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="K129" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="L129" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="M129" s="41" t="s">
         <v>29</v>
       </c>
       <c r="N129" s="5" t="s">
@@ -7802,40 +8444,40 @@
       <c r="A130" s="7">
         <v>200134</v>
       </c>
-      <c r="B130" s="20" t="s">
+      <c r="B130" s="21" t="s">
         <v>319</v>
       </c>
       <c r="C130" s="7">
         <v>138</v>
       </c>
-      <c r="D130" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E130" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F130" s="25" t="s">
+      <c r="D130" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E130" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F130" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G130" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H130" s="47" t="s">
+      <c r="H130" s="50" t="s">
         <v>320</v>
       </c>
       <c r="I130" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="J130" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="K130" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="L130" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="M130" s="39" t="s">
+      <c r="J130" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="K130" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="L130" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="M130" s="41" t="s">
         <v>29</v>
       </c>
       <c r="N130" s="5" t="s">
@@ -7846,40 +8488,40 @@
       <c r="A131" s="7">
         <v>200135</v>
       </c>
-      <c r="B131" s="20" t="s">
+      <c r="B131" s="21" t="s">
         <v>321</v>
       </c>
       <c r="C131" s="7">
         <v>139</v>
       </c>
-      <c r="D131" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E131" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F131" s="25" t="s">
+      <c r="D131" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E131" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F131" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G131" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H131" s="47" t="s">
+      <c r="H131" s="50" t="s">
         <v>322</v>
       </c>
       <c r="I131" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="J131" s="30">
-        <v>1</v>
-      </c>
-      <c r="K131" s="30">
-        <v>1</v>
-      </c>
-      <c r="L131" s="30">
-        <v>1</v>
-      </c>
-      <c r="M131" s="30">
+      <c r="J131" s="32">
+        <v>1</v>
+      </c>
+      <c r="K131" s="32">
+        <v>1</v>
+      </c>
+      <c r="L131" s="32">
+        <v>1</v>
+      </c>
+      <c r="M131" s="32">
         <v>1</v>
       </c>
       <c r="N131" s="5" t="s">
@@ -7890,40 +8532,40 @@
       <c r="A132" s="7">
         <v>200136</v>
       </c>
-      <c r="B132" s="20" t="s">
+      <c r="B132" s="21" t="s">
         <v>323</v>
       </c>
       <c r="C132" s="7">
         <v>140</v>
       </c>
-      <c r="D132" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E132" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F132" s="25" t="s">
+      <c r="D132" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E132" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F132" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G132" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H132" s="47" t="s">
+      <c r="H132" s="50" t="s">
         <v>324</v>
       </c>
       <c r="I132" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="J132" s="30">
-        <v>1</v>
-      </c>
-      <c r="K132" s="30">
-        <v>1</v>
-      </c>
-      <c r="L132" s="30">
-        <v>1</v>
-      </c>
-      <c r="M132" s="30">
+      <c r="J132" s="32">
+        <v>1</v>
+      </c>
+      <c r="K132" s="32">
+        <v>1</v>
+      </c>
+      <c r="L132" s="32">
+        <v>1</v>
+      </c>
+      <c r="M132" s="32">
         <v>1</v>
       </c>
       <c r="N132" s="5" t="s">
@@ -7934,40 +8576,40 @@
       <c r="A133" s="7">
         <v>200137</v>
       </c>
-      <c r="B133" s="20" t="s">
+      <c r="B133" s="21" t="s">
         <v>325</v>
       </c>
       <c r="C133" s="7">
         <v>141</v>
       </c>
-      <c r="D133" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E133" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F133" s="25" t="s">
+      <c r="D133" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E133" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F133" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G133" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H133" s="47" t="s">
+      <c r="H133" s="50" t="s">
         <v>326</v>
       </c>
       <c r="I133" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="J133" s="30">
-        <v>1</v>
-      </c>
-      <c r="K133" s="30">
-        <v>1</v>
-      </c>
-      <c r="L133" s="30">
-        <v>1</v>
-      </c>
-      <c r="M133" s="30">
+      <c r="J133" s="32">
+        <v>1</v>
+      </c>
+      <c r="K133" s="32">
+        <v>1</v>
+      </c>
+      <c r="L133" s="32">
+        <v>1</v>
+      </c>
+      <c r="M133" s="32">
         <v>1</v>
       </c>
       <c r="N133" s="5" t="s">
@@ -7978,40 +8620,40 @@
       <c r="A134" s="7">
         <v>200138</v>
       </c>
-      <c r="B134" s="20" t="s">
+      <c r="B134" s="21" t="s">
         <v>327</v>
       </c>
       <c r="C134" s="7">
         <v>142</v>
       </c>
-      <c r="D134" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E134" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F134" s="25" t="s">
+      <c r="D134" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E134" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F134" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G134" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H134" s="47" t="s">
+      <c r="H134" s="50" t="s">
         <v>328</v>
       </c>
       <c r="I134" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="J134" s="30">
-        <v>1</v>
-      </c>
-      <c r="K134" s="30">
-        <v>1</v>
-      </c>
-      <c r="L134" s="30">
-        <v>1</v>
-      </c>
-      <c r="M134" s="30">
+      <c r="J134" s="32">
+        <v>1</v>
+      </c>
+      <c r="K134" s="32">
+        <v>1</v>
+      </c>
+      <c r="L134" s="32">
+        <v>1</v>
+      </c>
+      <c r="M134" s="32">
         <v>1</v>
       </c>
       <c r="N134" s="5" t="s">
@@ -8022,40 +8664,40 @@
       <c r="A135" s="7">
         <v>200139</v>
       </c>
-      <c r="B135" s="20" t="s">
+      <c r="B135" s="21" t="s">
         <v>329</v>
       </c>
       <c r="C135" s="7">
         <v>143</v>
       </c>
-      <c r="D135" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E135" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F135" s="25" t="s">
+      <c r="D135" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E135" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F135" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G135" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H135" s="47" t="s">
+      <c r="H135" s="50" t="s">
         <v>330</v>
       </c>
       <c r="I135" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="J135" s="37">
-        <v>1</v>
-      </c>
-      <c r="K135" s="37">
-        <v>1</v>
-      </c>
-      <c r="L135" s="37">
-        <v>1</v>
-      </c>
-      <c r="M135" s="37">
+      <c r="J135" s="39">
+        <v>1</v>
+      </c>
+      <c r="K135" s="39">
+        <v>1</v>
+      </c>
+      <c r="L135" s="39">
+        <v>1</v>
+      </c>
+      <c r="M135" s="39">
         <v>1</v>
       </c>
       <c r="N135" s="5" t="s">
@@ -8066,78 +8708,206 @@
       <c r="A136" s="7">
         <v>200140</v>
       </c>
-      <c r="B136" s="20" t="s">
-        <v>333</v>
+      <c r="B136" s="21" t="s">
+        <v>331</v>
       </c>
       <c r="C136" s="7">
         <v>144</v>
       </c>
-      <c r="D136" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E136" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F136" s="25" t="s">
+      <c r="D136" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E136" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F136" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G136" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H136" s="48" t="s">
+      <c r="H136" s="51" t="s">
+        <v>332</v>
+      </c>
+      <c r="I136" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J136" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="K136" s="41">
+        <v>1</v>
+      </c>
+      <c r="L136" s="39">
+        <v>0</v>
+      </c>
+      <c r="M136" s="39">
+        <v>1</v>
+      </c>
+      <c r="N136" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14">
+      <c r="A137" s="7">
+        <v>200141</v>
+      </c>
+      <c r="B137" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="C137" s="7">
+        <v>145</v>
+      </c>
+      <c r="D137" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E137" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F137" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G137" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H137" s="48" t="s">
         <v>335</v>
       </c>
-      <c r="I136" s="7" t="s">
+      <c r="I137" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J137" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="K137" s="36">
+        <v>1</v>
+      </c>
+      <c r="L137" s="36">
+        <v>1</v>
+      </c>
+      <c r="M137" s="36">
+        <v>1</v>
+      </c>
+      <c r="N137" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14">
+      <c r="A138" s="7">
+        <v>200142</v>
+      </c>
+      <c r="B138" s="21" t="s">
         <v>336</v>
       </c>
-      <c r="J136" s="27" t="s">
-        <v>334</v>
-      </c>
-      <c r="K136" s="39">
-        <v>1</v>
-      </c>
-      <c r="L136" s="37">
+      <c r="C138" s="7">
+        <v>146</v>
+      </c>
+      <c r="D138" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E138" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F138" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G138" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H138" s="48" t="s">
+        <v>337</v>
+      </c>
+      <c r="I138" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="J138" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="K138" s="36">
+        <v>1</v>
+      </c>
+      <c r="L138" s="36">
+        <v>1</v>
+      </c>
+      <c r="M138" s="36">
+        <v>1</v>
+      </c>
+      <c r="N138" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14">
+      <c r="A139" s="7">
+        <v>200143</v>
+      </c>
+      <c r="B139" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="C139" s="7">
+        <v>147</v>
+      </c>
+      <c r="D139" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E139" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F139" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G139" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H139" s="48" t="s">
+        <v>340</v>
+      </c>
+      <c r="I139" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="J139" s="7">
         <v>0</v>
       </c>
-      <c r="M136" s="37">
-        <v>1</v>
-      </c>
-      <c r="N136" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14">
-      <c r="J137" s="27"/>
-    </row>
-    <row r="138" spans="1:14">
-      <c r="J138" s="27"/>
+      <c r="K139" s="7">
+        <v>0</v>
+      </c>
+      <c r="L139" s="7">
+        <v>1</v>
+      </c>
+      <c r="M139" s="7">
+        <v>1</v>
+      </c>
+      <c r="N139" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V135"/>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <autoFilter ref="A1:V138">
+    <extLst/>
+  </autoFilter>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R67">
+      <formula1>"'==,&gt;,&lt;,&gt;=,&lt;="</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1">
       <formula1>"等于,大于,小于,大于等于,小于等于"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R67">
-      <formula1>"'==,&gt;,&lt;,&gt;=,&lt;="</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="18.75" customWidth="1"/>
     <col min="2" max="2" width="11.875" customWidth="1"/>
@@ -8149,12 +8919,12 @@
     <col min="12" max="12" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="24" customHeight="1">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="24" customHeight="1" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -8192,17 +8962,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="21" customHeight="1">
+    <row r="4" ht="21" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/customerView/客户视图.xlsx
+++ b/src/customerView/客户视图.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\渠道管理系统\02工程活动\04设计与实现\交易数据统计\交易规则统计\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9930"/>
   </bookViews>
@@ -23,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="349">
   <si>
     <t>CV 客户视图</t>
   </si>
@@ -671,6 +666,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -680,6 +676,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -689,6 +686,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>101005</t>
@@ -701,12 +699,6 @@
     <t>CV00086</t>
   </si>
   <si>
-    <t>00101003_1</t>
-  </si>
-  <si>
-    <t>custom-selector_1</t>
-  </si>
-  <si>
     <t>CV00087</t>
   </si>
   <si>
@@ -1098,14 +1090,26 @@
   </si>
   <si>
     <t>0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>aui-button_submit</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>00101003</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯强</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1143,6 +1147,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1588,14 +1593,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L93" sqref="L93"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W84" sqref="W84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.375" style="7" customWidth="1"/>
     <col min="2" max="2" width="15" style="7" customWidth="1"/>
@@ -1612,7 +1618,7 @@
     <col min="23" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="60.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="60.75">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1683,7 +1689,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23">
       <c r="A2" s="10">
         <v>200001</v>
       </c>
@@ -1735,7 +1741,7 @@
       <c r="U2" s="10"/>
       <c r="V2" s="10"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23">
       <c r="A3" s="10">
         <v>200001</v>
       </c>
@@ -1787,7 +1793,7 @@
       <c r="U3" s="10"/>
       <c r="V3" s="10"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23">
       <c r="A4" s="10">
         <v>200002</v>
       </c>
@@ -1842,7 +1848,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23">
       <c r="A5" s="10">
         <v>200003</v>
       </c>
@@ -1894,7 +1900,7 @@
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23">
       <c r="A6" s="10">
         <v>200004</v>
       </c>
@@ -1946,7 +1952,7 @@
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23">
       <c r="A7" s="10">
         <v>200005</v>
       </c>
@@ -1998,7 +2004,7 @@
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23">
       <c r="A8" s="10">
         <v>200006</v>
       </c>
@@ -2050,7 +2056,7 @@
       <c r="U8" s="10"/>
       <c r="V8" s="10"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23">
       <c r="A9" s="10">
         <v>200007</v>
       </c>
@@ -2102,7 +2108,7 @@
       <c r="U9" s="10"/>
       <c r="V9" s="14"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23">
       <c r="A10" s="10">
         <v>200008</v>
       </c>
@@ -2154,7 +2160,7 @@
       <c r="U10" s="10"/>
       <c r="V10" s="10"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23">
       <c r="A11" s="10">
         <v>200009</v>
       </c>
@@ -2206,7 +2212,7 @@
       <c r="U11" s="10"/>
       <c r="V11" s="10"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23">
       <c r="A12" s="10">
         <v>200010</v>
       </c>
@@ -2258,7 +2264,7 @@
       <c r="U12" s="10"/>
       <c r="V12" s="10"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23">
       <c r="A13" s="10">
         <v>200011</v>
       </c>
@@ -2310,7 +2316,7 @@
       <c r="U13" s="10"/>
       <c r="V13" s="10"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23">
       <c r="A14" s="10">
         <v>200012</v>
       </c>
@@ -2362,7 +2368,7 @@
       <c r="U14" s="10"/>
       <c r="V14" s="10"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23">
       <c r="A15" s="10">
         <v>200013</v>
       </c>
@@ -2414,7 +2420,7 @@
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23">
       <c r="A16" s="10">
         <v>200014</v>
       </c>
@@ -2466,7 +2472,7 @@
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23">
       <c r="A17" s="10">
         <v>200015</v>
       </c>
@@ -2518,7 +2524,7 @@
       <c r="U17" s="10"/>
       <c r="V17" s="10"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23">
       <c r="A18" s="10">
         <v>200016</v>
       </c>
@@ -2570,7 +2576,7 @@
       <c r="U18" s="10"/>
       <c r="V18" s="10"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23">
       <c r="A19" s="10">
         <v>200017</v>
       </c>
@@ -2622,7 +2628,7 @@
       <c r="U19" s="10"/>
       <c r="V19" s="10"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23">
       <c r="A20" s="10">
         <v>200018</v>
       </c>
@@ -2674,7 +2680,7 @@
       <c r="U20" s="10"/>
       <c r="V20" s="10"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23">
       <c r="A21" s="10">
         <v>200019</v>
       </c>
@@ -2726,7 +2732,7 @@
       <c r="U21" s="10"/>
       <c r="V21" s="10"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23">
       <c r="A22" s="10">
         <v>200020</v>
       </c>
@@ -2778,7 +2784,7 @@
       <c r="U22" s="10"/>
       <c r="V22" s="10"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23">
       <c r="A23" s="10">
         <v>200021</v>
       </c>
@@ -2830,7 +2836,7 @@
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23">
       <c r="A24" s="10">
         <v>200022</v>
       </c>
@@ -2882,7 +2888,7 @@
       <c r="U24" s="10"/>
       <c r="V24" s="10"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23">
       <c r="A25" s="10">
         <v>200023</v>
       </c>
@@ -2934,7 +2940,7 @@
       <c r="U25" s="10"/>
       <c r="V25" s="10"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23">
       <c r="A26" s="10">
         <v>200024</v>
       </c>
@@ -2986,7 +2992,7 @@
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23">
       <c r="A27" s="10">
         <v>200025</v>
       </c>
@@ -3038,7 +3044,7 @@
       <c r="U27" s="10"/>
       <c r="V27" s="10"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23">
       <c r="A28" s="10">
         <v>200026</v>
       </c>
@@ -3090,7 +3096,7 @@
       <c r="U28" s="10"/>
       <c r="V28" s="10"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23">
       <c r="A29" s="10">
         <v>200027</v>
       </c>
@@ -3142,7 +3148,7 @@
       <c r="U29" s="10"/>
       <c r="V29" s="10"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23">
       <c r="A30" s="10">
         <v>200028</v>
       </c>
@@ -3197,7 +3203,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23">
       <c r="A31" s="10">
         <v>200029</v>
       </c>
@@ -3252,7 +3258,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23">
       <c r="A32" s="10">
         <v>200030</v>
       </c>
@@ -3304,7 +3310,7 @@
       <c r="U32" s="10"/>
       <c r="V32" s="10"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23">
       <c r="A33" s="10">
         <v>200031</v>
       </c>
@@ -3359,7 +3365,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23">
       <c r="A34" s="10">
         <v>200032</v>
       </c>
@@ -3414,7 +3420,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23">
       <c r="A35" s="10">
         <v>200033</v>
       </c>
@@ -3466,7 +3472,7 @@
       <c r="U35" s="10"/>
       <c r="V35" s="10"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23">
       <c r="A36" s="10">
         <v>200034</v>
       </c>
@@ -3521,7 +3527,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23">
       <c r="A37" s="10">
         <v>200035</v>
       </c>
@@ -3576,7 +3582,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23">
       <c r="A38" s="10">
         <v>200036</v>
       </c>
@@ -3628,7 +3634,7 @@
       <c r="U38" s="10"/>
       <c r="V38" s="10"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23">
       <c r="A39" s="10">
         <v>200037</v>
       </c>
@@ -3683,7 +3689,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23">
       <c r="A40" s="10">
         <v>200038</v>
       </c>
@@ -3735,7 +3741,7 @@
       <c r="U40" s="10"/>
       <c r="V40" s="10"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23">
       <c r="A41" s="10">
         <v>200039</v>
       </c>
@@ -3790,7 +3796,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23">
       <c r="A42" s="10">
         <v>200040</v>
       </c>
@@ -3845,7 +3851,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23">
       <c r="A43" s="10">
         <v>200041</v>
       </c>
@@ -3900,7 +3906,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23">
       <c r="A44" s="10">
         <v>200042</v>
       </c>
@@ -3952,7 +3958,7 @@
       <c r="U44" s="10"/>
       <c r="V44" s="10"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23">
       <c r="A45" s="10">
         <v>200043</v>
       </c>
@@ -4004,7 +4010,7 @@
       <c r="U45" s="10"/>
       <c r="V45" s="10"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23">
       <c r="A46" s="10">
         <v>200044</v>
       </c>
@@ -4056,7 +4062,7 @@
       <c r="U46" s="10"/>
       <c r="V46" s="10"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23">
       <c r="A47" s="10">
         <v>200045</v>
       </c>
@@ -4108,7 +4114,7 @@
       <c r="U47" s="10"/>
       <c r="V47" s="10"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23">
       <c r="A48" s="10">
         <v>200046</v>
       </c>
@@ -4160,7 +4166,7 @@
       <c r="U48" s="10"/>
       <c r="V48" s="10"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23">
       <c r="A49" s="10">
         <v>200047</v>
       </c>
@@ -4212,7 +4218,7 @@
       <c r="U49" s="10"/>
       <c r="V49" s="10"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23">
       <c r="A50" s="10">
         <v>200048</v>
       </c>
@@ -4264,7 +4270,7 @@
       <c r="U50" s="10"/>
       <c r="V50" s="10"/>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23">
       <c r="A51" s="10">
         <v>200049</v>
       </c>
@@ -4316,7 +4322,7 @@
       <c r="U51" s="10"/>
       <c r="V51" s="10"/>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23">
       <c r="A52" s="10">
         <v>200050</v>
       </c>
@@ -4368,7 +4374,7 @@
       <c r="U52" s="10"/>
       <c r="V52" s="10"/>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23">
       <c r="A53" s="10">
         <v>200051</v>
       </c>
@@ -4420,7 +4426,7 @@
       <c r="U53" s="10"/>
       <c r="V53" s="10"/>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23">
       <c r="A54" s="10">
         <v>200052</v>
       </c>
@@ -4475,7 +4481,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23">
       <c r="A55" s="10">
         <v>200053</v>
       </c>
@@ -4527,7 +4533,7 @@
       <c r="U55" s="10"/>
       <c r="V55" s="10"/>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23">
       <c r="A56" s="10">
         <v>200054</v>
       </c>
@@ -4579,7 +4585,7 @@
       <c r="U56" s="10"/>
       <c r="V56" s="10"/>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23">
       <c r="A57" s="10">
         <v>200055</v>
       </c>
@@ -4634,7 +4640,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23">
       <c r="A58" s="10">
         <v>200056</v>
       </c>
@@ -4689,7 +4695,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23">
       <c r="A59" s="10">
         <v>200057</v>
       </c>
@@ -4741,7 +4747,7 @@
       <c r="U59" s="10"/>
       <c r="V59" s="10"/>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23">
       <c r="A60" s="10">
         <v>200058</v>
       </c>
@@ -4793,7 +4799,7 @@
       <c r="U60" s="10"/>
       <c r="V60" s="10"/>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23">
       <c r="A61" s="10">
         <v>200059</v>
       </c>
@@ -4845,7 +4851,7 @@
       <c r="U61" s="10"/>
       <c r="V61" s="10"/>
     </row>
-    <row r="62" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" s="4" customFormat="1">
       <c r="A62" s="5">
         <v>200060</v>
       </c>
@@ -4900,7 +4906,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" s="4" customFormat="1">
       <c r="A63" s="5">
         <v>200061</v>
       </c>
@@ -4955,7 +4961,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" s="4" customFormat="1">
       <c r="A64" s="5">
         <v>200062</v>
       </c>
@@ -5010,7 +5016,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" s="4" customFormat="1">
       <c r="A65" s="5">
         <v>200063</v>
       </c>
@@ -5065,7 +5071,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" s="4" customFormat="1">
       <c r="A66" s="5">
         <v>200064</v>
       </c>
@@ -5120,7 +5126,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" s="4" customFormat="1">
       <c r="A67" s="5">
         <v>200065</v>
       </c>
@@ -5172,7 +5178,7 @@
       <c r="U67" s="5"/>
       <c r="V67" s="5"/>
     </row>
-    <row r="68" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" s="5" customFormat="1">
       <c r="A68" s="5">
         <v>200066</v>
       </c>
@@ -5216,7 +5222,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" s="5" customFormat="1">
       <c r="A69" s="5">
         <v>200067</v>
       </c>
@@ -5260,7 +5266,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" s="5" customFormat="1">
       <c r="A70" s="5">
         <v>200068</v>
       </c>
@@ -5304,7 +5310,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" s="5" customFormat="1">
       <c r="A71" s="5">
         <v>200069</v>
       </c>
@@ -5348,7 +5354,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" s="5" customFormat="1">
       <c r="A72" s="5">
         <v>200070</v>
       </c>
@@ -5392,7 +5398,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" s="4" customFormat="1">
       <c r="A73" s="5">
         <v>200071</v>
       </c>
@@ -5436,7 +5442,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" s="4" customFormat="1">
       <c r="A74" s="5">
         <v>200071</v>
       </c>
@@ -5480,7 +5486,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" s="4" customFormat="1">
       <c r="A75" s="5">
         <v>200071</v>
       </c>
@@ -5524,7 +5530,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" s="6" customFormat="1">
       <c r="A76" s="17">
         <v>200073</v>
       </c>
@@ -5576,7 +5582,7 @@
       <c r="U76" s="17"/>
       <c r="V76" s="17"/>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23">
       <c r="A77" s="20">
         <v>200074</v>
       </c>
@@ -5620,7 +5626,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23">
       <c r="A78" s="20">
         <v>200075</v>
       </c>
@@ -5667,7 +5673,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23">
       <c r="A79" s="20">
         <v>200076</v>
       </c>
@@ -5714,7 +5720,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="80" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" s="6" customFormat="1">
       <c r="A80" s="17">
         <v>200078</v>
       </c>
@@ -5758,7 +5764,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23" s="6" customFormat="1">
       <c r="A81" s="17">
         <v>200079</v>
       </c>
@@ -5802,7 +5808,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:23">
       <c r="A82" s="20">
         <v>200080</v>
       </c>
@@ -5846,7 +5852,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:23">
       <c r="A83" s="20">
         <v>200085</v>
       </c>
@@ -5891,7 +5897,7 @@
       </c>
       <c r="O83" s="40"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:23">
       <c r="A84" s="20">
         <v>200086</v>
       </c>
@@ -5913,11 +5919,11 @@
       <c r="G84" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H84" s="4" t="s">
-        <v>215</v>
+      <c r="H84" s="29" t="s">
+        <v>347</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>216</v>
+        <v>346</v>
       </c>
       <c r="J84" s="27" t="s">
         <v>30</v>
@@ -5934,13 +5940,16 @@
       <c r="N84" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="W84" s="7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23">
       <c r="A85" s="20">
         <v>200087</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C85" s="7">
         <v>91</v>
@@ -5958,10 +5967,10 @@
         <v>27</v>
       </c>
       <c r="H85" s="26" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I85" s="40" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J85" s="39" t="s">
         <v>30</v>
@@ -5979,12 +5988,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:23">
       <c r="A86" s="20">
         <v>200088</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C86" s="7">
         <v>92</v>
@@ -6002,10 +6011,10 @@
         <v>27</v>
       </c>
       <c r="H86" s="26" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J86" s="39" t="s">
         <v>30</v>
@@ -6024,12 +6033,12 @@
       </c>
       <c r="O86" s="40"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:23">
       <c r="A87" s="20">
         <v>200089</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C87" s="7">
         <v>93</v>
@@ -6047,10 +6056,10 @@
         <v>27</v>
       </c>
       <c r="H87" s="26" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I87" s="40" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J87" s="39" t="s">
         <v>30</v>
@@ -6068,12 +6077,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:23">
       <c r="A88" s="20">
         <v>200090</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C88" s="7">
         <v>94</v>
@@ -6091,7 +6100,7 @@
         <v>27</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I88" s="7" t="s">
         <v>61</v>
@@ -6112,12 +6121,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:23">
       <c r="A89" s="20">
         <v>200091</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C89" s="7">
         <v>95</v>
@@ -6135,7 +6144,7 @@
         <v>27</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I89" s="7" t="s">
         <v>185</v>
@@ -6156,12 +6165,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:23">
       <c r="A90" s="20">
         <v>200092</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C90" s="7">
         <v>96</v>
@@ -6179,7 +6188,7 @@
         <v>27</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I90" s="7" t="s">
         <v>61</v>
@@ -6200,12 +6209,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:23">
       <c r="A91" s="20">
         <v>200093</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C91" s="7">
         <v>97</v>
@@ -6223,7 +6232,7 @@
         <v>27</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I91" s="7" t="s">
         <v>73</v>
@@ -6244,12 +6253,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:23">
       <c r="A92" s="20">
         <v>200094</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C92" s="7">
         <v>98</v>
@@ -6267,10 +6276,10 @@
         <v>27</v>
       </c>
       <c r="H92" s="46" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J92" s="30">
         <v>1</v>
@@ -6288,12 +6297,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:23">
       <c r="A93" s="20">
         <v>200095</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C93" s="7">
         <v>99</v>
@@ -6311,10 +6320,10 @@
         <v>27</v>
       </c>
       <c r="H93" s="46" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J93" s="30">
         <v>1</v>
@@ -6323,7 +6332,7 @@
         <v>178</v>
       </c>
       <c r="L93" s="49" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="M93" s="30" t="s">
         <v>46</v>
@@ -6332,12 +6341,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:23">
       <c r="A94" s="20">
         <v>200096</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C94" s="7">
         <v>100</v>
@@ -6355,10 +6364,10 @@
         <v>27</v>
       </c>
       <c r="H94" s="46" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J94" s="30">
         <v>1</v>
@@ -6376,12 +6385,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:23">
       <c r="A95" s="20">
         <v>200097</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C95" s="7">
         <v>101</v>
@@ -6399,10 +6408,10 @@
         <v>27</v>
       </c>
       <c r="H95" s="46" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J95" s="30">
         <v>1</v>
@@ -6420,12 +6429,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:23">
       <c r="A96" s="7">
         <v>200098</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C96" s="7">
         <v>102</v>
@@ -6443,10 +6452,10 @@
         <v>27</v>
       </c>
       <c r="H96" s="46" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J96" s="37">
         <v>1</v>
@@ -6464,12 +6473,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="97" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" customFormat="1">
       <c r="A97" s="20">
         <v>200081</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C97" s="7">
         <v>85</v>
@@ -6487,10 +6496,10 @@
         <v>27</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I97" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J97" s="27" t="s">
         <v>30</v>
@@ -6508,12 +6517,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="98" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" customFormat="1">
       <c r="A98" s="20">
         <v>200082</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C98" s="7">
         <v>86</v>
@@ -6531,10 +6540,10 @@
         <v>27</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J98" s="27" t="s">
         <v>30</v>
@@ -6552,12 +6561,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="99" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" customFormat="1">
       <c r="A99" s="20">
         <v>200083</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C99" s="7">
         <v>87</v>
@@ -6575,10 +6584,10 @@
         <v>27</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J99" s="27" t="s">
         <v>30</v>
@@ -6596,12 +6605,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" customFormat="1">
       <c r="A100" s="20">
         <v>200084</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C100" s="7">
         <v>88</v>
@@ -6619,10 +6628,10 @@
         <v>27</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I100" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J100" s="27" t="s">
         <v>30</v>
@@ -6640,12 +6649,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14">
       <c r="A101" s="7">
         <v>200105</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C101" s="7">
         <v>109</v>
@@ -6663,10 +6672,10 @@
         <v>27</v>
       </c>
       <c r="H101" s="46" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J101" s="37">
         <v>1</v>
@@ -6684,12 +6693,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14">
       <c r="A102" s="7">
         <v>200106</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C102" s="7">
         <v>110</v>
@@ -6707,10 +6716,10 @@
         <v>27</v>
       </c>
       <c r="H102" s="46" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J102" s="37">
         <v>1</v>
@@ -6728,12 +6737,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14">
       <c r="A103" s="7">
         <v>200107</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C103" s="7">
         <v>111</v>
@@ -6751,10 +6760,10 @@
         <v>27</v>
       </c>
       <c r="H103" s="46" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J103" s="37">
         <v>1</v>
@@ -6772,12 +6781,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14">
       <c r="A104" s="7">
         <v>200108</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C104" s="7">
         <v>112</v>
@@ -6795,10 +6804,10 @@
         <v>27</v>
       </c>
       <c r="H104" s="46" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J104" s="37">
         <v>1</v>
@@ -6816,12 +6825,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14">
       <c r="A105" s="7">
         <v>200109</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C105" s="7">
         <v>113</v>
@@ -6839,10 +6848,10 @@
         <v>27</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J105" s="37">
         <v>1</v>
@@ -6860,12 +6869,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14">
       <c r="A106" s="7">
         <v>200110</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C106" s="7">
         <v>114</v>
@@ -6883,10 +6892,10 @@
         <v>27</v>
       </c>
       <c r="H106" s="45" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I106" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J106" s="34">
         <v>1</v>
@@ -6904,12 +6913,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14">
       <c r="A107" s="7">
         <v>200111</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C107" s="7">
         <v>115</v>
@@ -6927,10 +6936,10 @@
         <v>27</v>
       </c>
       <c r="H107" s="47" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I107" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J107" s="34">
         <v>1</v>
@@ -6948,12 +6957,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14">
       <c r="A108" s="7">
         <v>200112</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C108" s="7">
         <v>116</v>
@@ -6971,10 +6980,10 @@
         <v>27</v>
       </c>
       <c r="H108" s="47" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I108" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J108" s="39" t="s">
         <v>30</v>
@@ -6992,12 +7001,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14">
       <c r="A109" s="7">
         <v>200113</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C109" s="7">
         <v>117</v>
@@ -7015,10 +7024,10 @@
         <v>27</v>
       </c>
       <c r="H109" s="47" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I109" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J109" s="39" t="s">
         <v>30</v>
@@ -7036,12 +7045,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14">
       <c r="A110" s="7">
         <v>200114</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C110" s="7">
         <v>118</v>
@@ -7059,10 +7068,10 @@
         <v>27</v>
       </c>
       <c r="H110" s="47" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I110" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J110" s="39" t="s">
         <v>30</v>
@@ -7080,12 +7089,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14">
       <c r="A111" s="7">
         <v>200115</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C111" s="7">
         <v>119</v>
@@ -7103,10 +7112,10 @@
         <v>27</v>
       </c>
       <c r="H111" s="47" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I111" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J111" s="39" t="s">
         <v>30</v>
@@ -7124,12 +7133,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14">
       <c r="A112" s="7">
         <v>200116</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C112" s="7">
         <v>120</v>
@@ -7147,10 +7156,10 @@
         <v>27</v>
       </c>
       <c r="H112" s="47" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I112" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J112" s="39" t="s">
         <v>30</v>
@@ -7168,12 +7177,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14">
       <c r="A113" s="7">
         <v>200117</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C113" s="7">
         <v>121</v>
@@ -7191,10 +7200,10 @@
         <v>27</v>
       </c>
       <c r="H113" s="47" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J113" s="39" t="s">
         <v>30</v>
@@ -7212,12 +7221,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14">
       <c r="A114" s="7">
         <v>200118</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C114" s="7">
         <v>122</v>
@@ -7235,10 +7244,10 @@
         <v>27</v>
       </c>
       <c r="H114" s="47" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I114" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J114" s="39" t="s">
         <v>30</v>
@@ -7256,12 +7265,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14">
       <c r="A115" s="7">
         <v>200119</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C115" s="7">
         <v>123</v>
@@ -7279,10 +7288,10 @@
         <v>27</v>
       </c>
       <c r="H115" s="47" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I115" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J115" s="30">
         <v>1</v>
@@ -7300,12 +7309,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14">
       <c r="A116" s="7">
         <v>200120</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C116" s="7">
         <v>124</v>
@@ -7323,10 +7332,10 @@
         <v>27</v>
       </c>
       <c r="H116" s="47" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I116" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J116" s="30">
         <v>1</v>
@@ -7344,12 +7353,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14">
       <c r="A117" s="7">
         <v>200121</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C117" s="7">
         <v>125</v>
@@ -7367,10 +7376,10 @@
         <v>27</v>
       </c>
       <c r="H117" s="47" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I117" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J117" s="30">
         <v>1</v>
@@ -7388,12 +7397,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14">
       <c r="A118" s="7">
         <v>200122</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C118" s="7">
         <v>126</v>
@@ -7411,10 +7420,10 @@
         <v>27</v>
       </c>
       <c r="H118" s="47" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I118" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J118" s="30">
         <v>1</v>
@@ -7432,12 +7441,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14">
       <c r="A119" s="7">
         <v>200123</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C119" s="7">
         <v>127</v>
@@ -7455,10 +7464,10 @@
         <v>27</v>
       </c>
       <c r="H119" s="47" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I119" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J119" s="37">
         <v>1</v>
@@ -7476,12 +7485,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14">
       <c r="A120" s="7">
         <v>200124</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C120" s="7">
         <v>128</v>
@@ -7499,10 +7508,10 @@
         <v>27</v>
       </c>
       <c r="H120" s="47" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I120" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J120" s="27" t="s">
         <v>30</v>
@@ -7520,12 +7529,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14">
       <c r="A121" s="7">
         <v>200125</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C121" s="7">
         <v>129</v>
@@ -7543,10 +7552,10 @@
         <v>27</v>
       </c>
       <c r="H121" s="47" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I121" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J121" s="27" t="s">
         <v>30</v>
@@ -7564,12 +7573,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14">
       <c r="A122" s="7">
         <v>200126</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C122" s="7">
         <v>130</v>
@@ -7587,10 +7596,10 @@
         <v>27</v>
       </c>
       <c r="H122" s="47" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I122" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J122" s="27" t="s">
         <v>30</v>
@@ -7608,12 +7617,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14">
       <c r="A123" s="7">
         <v>200127</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C123" s="7">
         <v>131</v>
@@ -7631,10 +7640,10 @@
         <v>27</v>
       </c>
       <c r="H123" s="47" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I123" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J123" s="27" t="s">
         <v>30</v>
@@ -7652,12 +7661,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14">
       <c r="A124" s="7">
         <v>200128</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C124" s="7">
         <v>132</v>
@@ -7675,10 +7684,10 @@
         <v>27</v>
       </c>
       <c r="H124" s="47" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I124" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J124" s="39" t="s">
         <v>30</v>
@@ -7696,12 +7705,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14">
       <c r="A125" s="7">
         <v>200129</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C125" s="7">
         <v>133</v>
@@ -7719,10 +7728,10 @@
         <v>27</v>
       </c>
       <c r="H125" s="47" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I125" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J125" s="39" t="s">
         <v>30</v>
@@ -7740,12 +7749,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14">
       <c r="A126" s="7">
         <v>200130</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C126" s="7">
         <v>134</v>
@@ -7763,10 +7772,10 @@
         <v>27</v>
       </c>
       <c r="H126" s="47" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I126" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J126" s="39" t="s">
         <v>30</v>
@@ -7784,12 +7793,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14">
       <c r="A127" s="7">
         <v>200131</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C127" s="7">
         <v>135</v>
@@ -7807,10 +7816,10 @@
         <v>27</v>
       </c>
       <c r="H127" s="47" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I127" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J127" s="39" t="s">
         <v>30</v>
@@ -7828,12 +7837,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14">
       <c r="A128" s="7">
         <v>200132</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C128" s="7">
         <v>136</v>
@@ -7851,10 +7860,10 @@
         <v>27</v>
       </c>
       <c r="H128" s="47" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I128" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J128" s="39" t="s">
         <v>30</v>
@@ -7872,12 +7881,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14">
       <c r="A129" s="7">
         <v>200133</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C129" s="7">
         <v>137</v>
@@ -7895,10 +7904,10 @@
         <v>27</v>
       </c>
       <c r="H129" s="47" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I129" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J129" s="39" t="s">
         <v>30</v>
@@ -7916,12 +7925,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14">
       <c r="A130" s="7">
         <v>200134</v>
       </c>
       <c r="B130" s="20" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C130" s="7">
         <v>138</v>
@@ -7939,10 +7948,10 @@
         <v>27</v>
       </c>
       <c r="H130" s="47" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I130" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J130" s="39" t="s">
         <v>30</v>
@@ -7960,12 +7969,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:14">
       <c r="A131" s="7">
         <v>200135</v>
       </c>
       <c r="B131" s="20" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C131" s="7">
         <v>139</v>
@@ -7983,10 +7992,10 @@
         <v>27</v>
       </c>
       <c r="H131" s="47" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I131" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J131" s="30">
         <v>1</v>
@@ -8004,12 +8013,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:14">
       <c r="A132" s="7">
         <v>200136</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C132" s="7">
         <v>140</v>
@@ -8027,10 +8036,10 @@
         <v>27</v>
       </c>
       <c r="H132" s="47" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I132" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J132" s="30">
         <v>1</v>
@@ -8048,12 +8057,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:14">
       <c r="A133" s="7">
         <v>200137</v>
       </c>
       <c r="B133" s="20" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C133" s="7">
         <v>141</v>
@@ -8071,10 +8080,10 @@
         <v>27</v>
       </c>
       <c r="H133" s="47" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I133" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J133" s="30">
         <v>1</v>
@@ -8092,12 +8101,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:14">
       <c r="A134" s="7">
         <v>200138</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C134" s="7">
         <v>142</v>
@@ -8115,10 +8124,10 @@
         <v>27</v>
       </c>
       <c r="H134" s="47" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I134" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J134" s="30">
         <v>1</v>
@@ -8136,12 +8145,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14">
       <c r="A135" s="7">
         <v>200139</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C135" s="7">
         <v>143</v>
@@ -8159,10 +8168,10 @@
         <v>27</v>
       </c>
       <c r="H135" s="47" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I135" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J135" s="37">
         <v>1</v>
@@ -8180,12 +8189,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14">
       <c r="A136" s="7">
         <v>200140</v>
       </c>
       <c r="B136" s="20" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C136" s="7">
         <v>144</v>
@@ -8203,10 +8212,10 @@
         <v>27</v>
       </c>
       <c r="H136" s="48" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I136" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J136" s="27" t="s">
         <v>30</v>
@@ -8224,12 +8233,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14">
       <c r="A137" s="7">
         <v>200141</v>
       </c>
       <c r="B137" s="20" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C137" s="7">
         <v>145</v>
@@ -8247,7 +8256,7 @@
         <v>27</v>
       </c>
       <c r="H137" s="45" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I137" s="7" t="s">
         <v>76</v>
@@ -8268,12 +8277,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:14">
       <c r="A138" s="7">
         <v>200142</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C138" s="7">
         <v>146</v>
@@ -8291,10 +8300,10 @@
         <v>27</v>
       </c>
       <c r="H138" s="45" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I138" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="J138" s="27" t="s">
         <v>30</v>
@@ -8312,12 +8321,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:14">
       <c r="A139" s="7">
         <v>200143</v>
       </c>
       <c r="B139" s="20" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C139" s="7">
         <v>147</v>
@@ -8335,10 +8344,10 @@
         <v>27</v>
       </c>
       <c r="H139" s="45" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I139" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J139" s="7">
         <v>0</v>
@@ -8374,13 +8383,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18.75" customWidth="1"/>
     <col min="2" max="2" width="11.875" customWidth="1"/>
@@ -8392,12 +8402,12 @@
     <col min="12" max="12" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="24" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -8435,12 +8445,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="21" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>

--- a/src/customerView/客户视图.xlsx
+++ b/src/customerView/客户视图.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9930"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="客户视图" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="349">
   <si>
     <t>CV 客户视图</t>
   </si>
@@ -666,7 +666,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -676,7 +675,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -686,7 +684,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>101005</t>
@@ -699,6 +696,15 @@
     <t>CV00086</t>
   </si>
   <si>
+    <t>00101003</t>
+  </si>
+  <si>
+    <t>aui-button_submit</t>
+  </si>
+  <si>
+    <t>冯强</t>
+  </si>
+  <si>
     <t>CV00087</t>
   </si>
   <si>
@@ -846,9 +852,6 @@
     <t>00407002</t>
   </si>
   <si>
-    <t>aui-button_submit</t>
-  </si>
-  <si>
     <t>CV00108</t>
   </si>
   <si>
@@ -1083,33 +1086,29 @@
     <t>custom-input_12</t>
   </si>
   <si>
+    <t>CV00144</t>
+  </si>
+  <si>
+    <t>00102002</t>
+  </si>
+  <si>
     <t>必填：</t>
   </si>
   <si>
     <t>同一交易码如果多个条件且关系 此项 写成数字相同  否则都写成不同数字</t>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>aui-button_submit</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>00101003</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>冯强</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1146,12 +1145,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1160,19 +1153,154 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1181,7 +1309,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79958494827112647"/>
+        <fgColor theme="3" tint="0.799584948271126"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1197,8 +1325,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1221,11 +1535,253 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1246,6 +1802,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1267,13 +1826,16 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1301,35 +1863,82 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1587,21 +2196,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W139"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:W140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W84" sqref="W84"/>
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="G144" sqref="G144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="16.375" style="7" customWidth="1"/>
     <col min="2" max="2" width="15" style="7" customWidth="1"/>
@@ -1618,7 +2227,7 @@
     <col min="23" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="60.75">
+    <row r="1" ht="60.75" spans="1:23">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1689,7 +2298,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:22">
       <c r="A2" s="10">
         <v>200001</v>
       </c>
@@ -1714,7 +2323,7 @@
       <c r="H2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="14" t="s">
         <v>29</v>
       </c>
       <c r="J2" s="11" t="s">
@@ -1736,12 +2345,12 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
-      <c r="S2" s="15"/>
+      <c r="S2" s="16"/>
       <c r="T2" s="10"/>
       <c r="U2" s="10"/>
       <c r="V2" s="10"/>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:22">
       <c r="A3" s="10">
         <v>200001</v>
       </c>
@@ -1766,7 +2375,7 @@
       <c r="H3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="14" t="s">
         <v>33</v>
       </c>
       <c r="J3" s="11" t="s">
@@ -1788,7 +2397,7 @@
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
-      <c r="S3" s="15"/>
+      <c r="S3" s="16"/>
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
       <c r="V3" s="10"/>
@@ -1840,7 +2449,7 @@
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
-      <c r="S4" s="15"/>
+      <c r="S4" s="16"/>
       <c r="T4" s="10"/>
       <c r="U4" s="10"/>
       <c r="V4" s="10"/>
@@ -1848,7 +2457,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:22">
       <c r="A5" s="10">
         <v>200003</v>
       </c>
@@ -1895,12 +2504,12 @@
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
-      <c r="S5" s="15"/>
+      <c r="S5" s="16"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:22">
       <c r="A6" s="10">
         <v>200004</v>
       </c>
@@ -1947,12 +2556,12 @@
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
-      <c r="S6" s="15"/>
+      <c r="S6" s="16"/>
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:22">
       <c r="A7" s="10">
         <v>200005</v>
       </c>
@@ -1999,12 +2608,12 @@
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
-      <c r="S7" s="15"/>
+      <c r="S7" s="16"/>
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:22">
       <c r="A8" s="10">
         <v>200006</v>
       </c>
@@ -2051,12 +2660,12 @@
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
-      <c r="S8" s="15"/>
+      <c r="S8" s="16"/>
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
       <c r="V8" s="10"/>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:22">
       <c r="A9" s="10">
         <v>200007</v>
       </c>
@@ -2100,15 +2709,15 @@
         <v>31</v>
       </c>
       <c r="O9" s="10"/>
-      <c r="P9" s="14"/>
+      <c r="P9" s="15"/>
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
-      <c r="S9" s="15"/>
+      <c r="S9" s="16"/>
       <c r="T9" s="10"/>
       <c r="U9" s="10"/>
-      <c r="V9" s="14"/>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="V9" s="15"/>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="10">
         <v>200008</v>
       </c>
@@ -2152,15 +2761,15 @@
         <v>31</v>
       </c>
       <c r="O10" s="10"/>
-      <c r="P10" s="14"/>
+      <c r="P10" s="15"/>
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
-      <c r="S10" s="15"/>
+      <c r="S10" s="16"/>
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
       <c r="V10" s="10"/>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:22">
       <c r="A11" s="10">
         <v>200009</v>
       </c>
@@ -2207,12 +2816,12 @@
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
-      <c r="S11" s="15"/>
+      <c r="S11" s="16"/>
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
       <c r="V11" s="10"/>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:22">
       <c r="A12" s="10">
         <v>200010</v>
       </c>
@@ -2259,12 +2868,12 @@
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
-      <c r="S12" s="15"/>
+      <c r="S12" s="16"/>
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
       <c r="V12" s="10"/>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:22">
       <c r="A13" s="10">
         <v>200011</v>
       </c>
@@ -2311,12 +2920,12 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
-      <c r="S13" s="15"/>
+      <c r="S13" s="16"/>
       <c r="T13" s="10"/>
       <c r="U13" s="10"/>
       <c r="V13" s="10"/>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:22">
       <c r="A14" s="10">
         <v>200012</v>
       </c>
@@ -2363,12 +2972,12 @@
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
-      <c r="S14" s="15"/>
+      <c r="S14" s="16"/>
       <c r="T14" s="10"/>
       <c r="U14" s="10"/>
       <c r="V14" s="10"/>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:22">
       <c r="A15" s="10">
         <v>200013</v>
       </c>
@@ -2415,12 +3024,12 @@
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
-      <c r="S15" s="15"/>
+      <c r="S15" s="16"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:22">
       <c r="A16" s="10">
         <v>200014</v>
       </c>
@@ -2467,12 +3076,12 @@
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
-      <c r="S16" s="15"/>
+      <c r="S16" s="16"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:22">
       <c r="A17" s="10">
         <v>200015</v>
       </c>
@@ -2519,12 +3128,12 @@
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
-      <c r="S17" s="15"/>
+      <c r="S17" s="16"/>
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
       <c r="V17" s="10"/>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:22">
       <c r="A18" s="10">
         <v>200016</v>
       </c>
@@ -2571,12 +3180,12 @@
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
-      <c r="S18" s="15"/>
+      <c r="S18" s="16"/>
       <c r="T18" s="10"/>
       <c r="U18" s="10"/>
       <c r="V18" s="10"/>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:22">
       <c r="A19" s="10">
         <v>200017</v>
       </c>
@@ -2623,12 +3232,12 @@
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
-      <c r="S19" s="15"/>
+      <c r="S19" s="16"/>
       <c r="T19" s="10"/>
       <c r="U19" s="10"/>
       <c r="V19" s="10"/>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:22">
       <c r="A20" s="10">
         <v>200018</v>
       </c>
@@ -2675,12 +3284,12 @@
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
-      <c r="S20" s="15"/>
+      <c r="S20" s="16"/>
       <c r="T20" s="10"/>
       <c r="U20" s="10"/>
       <c r="V20" s="10"/>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:22">
       <c r="A21" s="10">
         <v>200019</v>
       </c>
@@ -2727,12 +3336,12 @@
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
-      <c r="S21" s="15"/>
+      <c r="S21" s="16"/>
       <c r="T21" s="10"/>
       <c r="U21" s="10"/>
       <c r="V21" s="10"/>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:22">
       <c r="A22" s="10">
         <v>200020</v>
       </c>
@@ -2779,12 +3388,12 @@
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
-      <c r="S22" s="15"/>
+      <c r="S22" s="16"/>
       <c r="T22" s="10"/>
       <c r="U22" s="10"/>
       <c r="V22" s="10"/>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:22">
       <c r="A23" s="10">
         <v>200021</v>
       </c>
@@ -2831,12 +3440,12 @@
       <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
       <c r="R23" s="10"/>
-      <c r="S23" s="15"/>
+      <c r="S23" s="16"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:22">
       <c r="A24" s="10">
         <v>200022</v>
       </c>
@@ -2883,12 +3492,12 @@
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
-      <c r="S24" s="15"/>
+      <c r="S24" s="16"/>
       <c r="T24" s="10"/>
       <c r="U24" s="10"/>
       <c r="V24" s="10"/>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:22">
       <c r="A25" s="10">
         <v>200023</v>
       </c>
@@ -2935,12 +3544,12 @@
       <c r="P25" s="10"/>
       <c r="Q25" s="10"/>
       <c r="R25" s="10"/>
-      <c r="S25" s="15"/>
+      <c r="S25" s="16"/>
       <c r="T25" s="10"/>
       <c r="U25" s="10"/>
       <c r="V25" s="10"/>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:22">
       <c r="A26" s="10">
         <v>200024</v>
       </c>
@@ -2987,12 +3596,12 @@
       <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
       <c r="R26" s="10"/>
-      <c r="S26" s="15"/>
+      <c r="S26" s="16"/>
       <c r="T26" s="10"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:22">
       <c r="A27" s="10">
         <v>200025</v>
       </c>
@@ -3039,12 +3648,12 @@
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
       <c r="R27" s="10"/>
-      <c r="S27" s="15"/>
+      <c r="S27" s="16"/>
       <c r="T27" s="10"/>
       <c r="U27" s="10"/>
       <c r="V27" s="10"/>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:22">
       <c r="A28" s="10">
         <v>200026</v>
       </c>
@@ -3091,12 +3700,12 @@
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
       <c r="R28" s="10"/>
-      <c r="S28" s="15"/>
+      <c r="S28" s="16"/>
       <c r="T28" s="10"/>
       <c r="U28" s="10"/>
       <c r="V28" s="10"/>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:22">
       <c r="A29" s="10">
         <v>200027</v>
       </c>
@@ -3143,7 +3752,7 @@
       <c r="P29" s="10"/>
       <c r="Q29" s="10"/>
       <c r="R29" s="10"/>
-      <c r="S29" s="15"/>
+      <c r="S29" s="16"/>
       <c r="T29" s="10"/>
       <c r="U29" s="10"/>
       <c r="V29" s="10"/>
@@ -3195,7 +3804,7 @@
       <c r="P30" s="10"/>
       <c r="Q30" s="10"/>
       <c r="R30" s="10"/>
-      <c r="S30" s="15"/>
+      <c r="S30" s="16"/>
       <c r="T30" s="10"/>
       <c r="U30" s="10"/>
       <c r="V30" s="10"/>
@@ -3225,7 +3834,7 @@
       <c r="G31" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H31" s="41" t="s">
+      <c r="H31" s="45" t="s">
         <v>98</v>
       </c>
       <c r="I31" s="11" t="s">
@@ -3250,7 +3859,7 @@
       <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
       <c r="R31" s="10"/>
-      <c r="S31" s="15"/>
+      <c r="S31" s="16"/>
       <c r="T31" s="10"/>
       <c r="U31" s="10"/>
       <c r="V31" s="10"/>
@@ -3258,7 +3867,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:22">
       <c r="A32" s="10">
         <v>200030</v>
       </c>
@@ -3280,7 +3889,7 @@
       <c r="G32" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H32" s="41" t="s">
+      <c r="H32" s="45" t="s">
         <v>100</v>
       </c>
       <c r="I32" s="11" t="s">
@@ -3305,7 +3914,7 @@
       <c r="P32" s="10"/>
       <c r="Q32" s="10"/>
       <c r="R32" s="10"/>
-      <c r="S32" s="15"/>
+      <c r="S32" s="16"/>
       <c r="T32" s="10"/>
       <c r="U32" s="10"/>
       <c r="V32" s="10"/>
@@ -3332,7 +3941,7 @@
       <c r="G33" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H33" s="41" t="s">
+      <c r="H33" s="45" t="s">
         <v>102</v>
       </c>
       <c r="I33" s="11" t="s">
@@ -3357,7 +3966,7 @@
       <c r="P33" s="10"/>
       <c r="Q33" s="10"/>
       <c r="R33" s="10"/>
-      <c r="S33" s="15"/>
+      <c r="S33" s="16"/>
       <c r="T33" s="10"/>
       <c r="U33" s="10"/>
       <c r="V33" s="10"/>
@@ -3412,7 +4021,7 @@
       <c r="P34" s="10"/>
       <c r="Q34" s="10"/>
       <c r="R34" s="10"/>
-      <c r="S34" s="15"/>
+      <c r="S34" s="16"/>
       <c r="T34" s="10"/>
       <c r="U34" s="10"/>
       <c r="V34" s="10"/>
@@ -3420,7 +4029,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:22">
       <c r="A35" s="10">
         <v>200033</v>
       </c>
@@ -3467,7 +4076,7 @@
       <c r="P35" s="10"/>
       <c r="Q35" s="10"/>
       <c r="R35" s="10"/>
-      <c r="S35" s="15"/>
+      <c r="S35" s="16"/>
       <c r="T35" s="10"/>
       <c r="U35" s="10"/>
       <c r="V35" s="10"/>
@@ -3519,7 +4128,7 @@
       <c r="P36" s="10"/>
       <c r="Q36" s="10"/>
       <c r="R36" s="10"/>
-      <c r="S36" s="15"/>
+      <c r="S36" s="16"/>
       <c r="T36" s="10"/>
       <c r="U36" s="10"/>
       <c r="V36" s="10"/>
@@ -3574,7 +4183,7 @@
       <c r="P37" s="10"/>
       <c r="Q37" s="10"/>
       <c r="R37" s="10"/>
-      <c r="S37" s="15"/>
+      <c r="S37" s="16"/>
       <c r="T37" s="10"/>
       <c r="U37" s="10"/>
       <c r="V37" s="10"/>
@@ -3582,7 +4191,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:22">
       <c r="A38" s="10">
         <v>200036</v>
       </c>
@@ -3629,7 +4238,7 @@
       <c r="P38" s="10"/>
       <c r="Q38" s="10"/>
       <c r="R38" s="10"/>
-      <c r="S38" s="15"/>
+      <c r="S38" s="16"/>
       <c r="T38" s="10"/>
       <c r="U38" s="10"/>
       <c r="V38" s="10"/>
@@ -3681,7 +4290,7 @@
       <c r="P39" s="10"/>
       <c r="Q39" s="10"/>
       <c r="R39" s="10"/>
-      <c r="S39" s="15"/>
+      <c r="S39" s="16"/>
       <c r="T39" s="10"/>
       <c r="U39" s="10"/>
       <c r="V39" s="10"/>
@@ -3689,7 +4298,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:22">
       <c r="A40" s="10">
         <v>200038</v>
       </c>
@@ -3736,7 +4345,7 @@
       <c r="P40" s="10"/>
       <c r="Q40" s="10"/>
       <c r="R40" s="10"/>
-      <c r="S40" s="15"/>
+      <c r="S40" s="16"/>
       <c r="T40" s="10"/>
       <c r="U40" s="10"/>
       <c r="V40" s="10"/>
@@ -3788,7 +4397,7 @@
       <c r="P41" s="10"/>
       <c r="Q41" s="10"/>
       <c r="R41" s="10"/>
-      <c r="S41" s="15"/>
+      <c r="S41" s="16"/>
       <c r="T41" s="10"/>
       <c r="U41" s="10"/>
       <c r="V41" s="10"/>
@@ -3843,7 +4452,7 @@
       <c r="P42" s="10"/>
       <c r="Q42" s="10"/>
       <c r="R42" s="10"/>
-      <c r="S42" s="15"/>
+      <c r="S42" s="16"/>
       <c r="T42" s="10"/>
       <c r="U42" s="10"/>
       <c r="V42" s="10"/>
@@ -3898,7 +4507,7 @@
       <c r="P43" s="10"/>
       <c r="Q43" s="10"/>
       <c r="R43" s="10"/>
-      <c r="S43" s="15"/>
+      <c r="S43" s="16"/>
       <c r="T43" s="10"/>
       <c r="U43" s="10"/>
       <c r="V43" s="10"/>
@@ -3906,7 +4515,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:22">
       <c r="A44" s="10">
         <v>200042</v>
       </c>
@@ -3953,12 +4562,12 @@
       <c r="P44" s="10"/>
       <c r="Q44" s="10"/>
       <c r="R44" s="10"/>
-      <c r="S44" s="15"/>
+      <c r="S44" s="16"/>
       <c r="T44" s="10"/>
       <c r="U44" s="10"/>
       <c r="V44" s="10"/>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:22">
       <c r="A45" s="10">
         <v>200043</v>
       </c>
@@ -4005,12 +4614,12 @@
       <c r="P45" s="10"/>
       <c r="Q45" s="10"/>
       <c r="R45" s="10"/>
-      <c r="S45" s="15"/>
+      <c r="S45" s="16"/>
       <c r="T45" s="10"/>
       <c r="U45" s="10"/>
       <c r="V45" s="10"/>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:22">
       <c r="A46" s="10">
         <v>200044</v>
       </c>
@@ -4057,12 +4666,12 @@
       <c r="P46" s="10"/>
       <c r="Q46" s="10"/>
       <c r="R46" s="10"/>
-      <c r="S46" s="15"/>
+      <c r="S46" s="16"/>
       <c r="T46" s="10"/>
       <c r="U46" s="10"/>
       <c r="V46" s="10"/>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:22">
       <c r="A47" s="10">
         <v>200045</v>
       </c>
@@ -4109,12 +4718,12 @@
       <c r="P47" s="10"/>
       <c r="Q47" s="10"/>
       <c r="R47" s="10"/>
-      <c r="S47" s="15"/>
+      <c r="S47" s="16"/>
       <c r="T47" s="10"/>
       <c r="U47" s="10"/>
       <c r="V47" s="10"/>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:22">
       <c r="A48" s="10">
         <v>200046</v>
       </c>
@@ -4161,12 +4770,12 @@
       <c r="P48" s="10"/>
       <c r="Q48" s="10"/>
       <c r="R48" s="10"/>
-      <c r="S48" s="15"/>
+      <c r="S48" s="16"/>
       <c r="T48" s="10"/>
       <c r="U48" s="10"/>
       <c r="V48" s="10"/>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:22">
       <c r="A49" s="10">
         <v>200047</v>
       </c>
@@ -4213,12 +4822,12 @@
       <c r="P49" s="10"/>
       <c r="Q49" s="10"/>
       <c r="R49" s="10"/>
-      <c r="S49" s="15"/>
+      <c r="S49" s="16"/>
       <c r="T49" s="10"/>
       <c r="U49" s="10"/>
       <c r="V49" s="10"/>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:22">
       <c r="A50" s="10">
         <v>200048</v>
       </c>
@@ -4265,12 +4874,12 @@
       <c r="P50" s="10"/>
       <c r="Q50" s="10"/>
       <c r="R50" s="10"/>
-      <c r="S50" s="15"/>
+      <c r="S50" s="16"/>
       <c r="T50" s="10"/>
       <c r="U50" s="10"/>
       <c r="V50" s="10"/>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:22">
       <c r="A51" s="10">
         <v>200049</v>
       </c>
@@ -4317,12 +4926,12 @@
       <c r="P51" s="10"/>
       <c r="Q51" s="10"/>
       <c r="R51" s="10"/>
-      <c r="S51" s="15"/>
+      <c r="S51" s="16"/>
       <c r="T51" s="10"/>
       <c r="U51" s="10"/>
       <c r="V51" s="10"/>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:22">
       <c r="A52" s="10">
         <v>200050</v>
       </c>
@@ -4369,12 +4978,12 @@
       <c r="P52" s="10"/>
       <c r="Q52" s="10"/>
       <c r="R52" s="10"/>
-      <c r="S52" s="15"/>
+      <c r="S52" s="16"/>
       <c r="T52" s="10"/>
       <c r="U52" s="10"/>
       <c r="V52" s="10"/>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:22">
       <c r="A53" s="10">
         <v>200051</v>
       </c>
@@ -4421,7 +5030,7 @@
       <c r="P53" s="10"/>
       <c r="Q53" s="10"/>
       <c r="R53" s="10"/>
-      <c r="S53" s="15"/>
+      <c r="S53" s="16"/>
       <c r="T53" s="10"/>
       <c r="U53" s="10"/>
       <c r="V53" s="10"/>
@@ -4473,7 +5082,7 @@
       <c r="P54" s="10"/>
       <c r="Q54" s="10"/>
       <c r="R54" s="10"/>
-      <c r="S54" s="15"/>
+      <c r="S54" s="16"/>
       <c r="T54" s="10"/>
       <c r="U54" s="10"/>
       <c r="V54" s="10"/>
@@ -4481,7 +5090,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:22">
       <c r="A55" s="10">
         <v>200053</v>
       </c>
@@ -4528,12 +5137,12 @@
       <c r="P55" s="10"/>
       <c r="Q55" s="10"/>
       <c r="R55" s="10"/>
-      <c r="S55" s="15"/>
+      <c r="S55" s="16"/>
       <c r="T55" s="10"/>
       <c r="U55" s="10"/>
       <c r="V55" s="10"/>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:22">
       <c r="A56" s="10">
         <v>200054</v>
       </c>
@@ -4580,7 +5189,7 @@
       <c r="P56" s="10"/>
       <c r="Q56" s="10"/>
       <c r="R56" s="10"/>
-      <c r="S56" s="15"/>
+      <c r="S56" s="16"/>
       <c r="T56" s="10"/>
       <c r="U56" s="10"/>
       <c r="V56" s="10"/>
@@ -4632,7 +5241,7 @@
       <c r="P57" s="10"/>
       <c r="Q57" s="10"/>
       <c r="R57" s="10"/>
-      <c r="S57" s="15"/>
+      <c r="S57" s="16"/>
       <c r="T57" s="10"/>
       <c r="U57" s="10"/>
       <c r="V57" s="10"/>
@@ -4687,7 +5296,7 @@
       <c r="P58" s="10"/>
       <c r="Q58" s="10"/>
       <c r="R58" s="10"/>
-      <c r="S58" s="15"/>
+      <c r="S58" s="16"/>
       <c r="T58" s="10"/>
       <c r="U58" s="10"/>
       <c r="V58" s="10"/>
@@ -4695,7 +5304,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:22">
       <c r="A59" s="10">
         <v>200057</v>
       </c>
@@ -4742,12 +5351,12 @@
       <c r="P59" s="10"/>
       <c r="Q59" s="10"/>
       <c r="R59" s="10"/>
-      <c r="S59" s="15"/>
+      <c r="S59" s="16"/>
       <c r="T59" s="10"/>
       <c r="U59" s="10"/>
       <c r="V59" s="10"/>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:22">
       <c r="A60" s="10">
         <v>200058</v>
       </c>
@@ -4794,12 +5403,12 @@
       <c r="P60" s="10"/>
       <c r="Q60" s="10"/>
       <c r="R60" s="10"/>
-      <c r="S60" s="15"/>
+      <c r="S60" s="16"/>
       <c r="T60" s="10"/>
       <c r="U60" s="10"/>
       <c r="V60" s="10"/>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:22">
       <c r="A61" s="10">
         <v>200059</v>
       </c>
@@ -4846,12 +5455,12 @@
       <c r="P61" s="10"/>
       <c r="Q61" s="10"/>
       <c r="R61" s="10"/>
-      <c r="S61" s="15"/>
+      <c r="S61" s="16"/>
       <c r="T61" s="10"/>
       <c r="U61" s="10"/>
       <c r="V61" s="10"/>
     </row>
-    <row r="62" spans="1:23" s="4" customFormat="1">
+    <row r="62" s="4" customFormat="1" spans="1:23">
       <c r="A62" s="5">
         <v>200060</v>
       </c>
@@ -4867,28 +5476,28 @@
       <c r="E62" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F62" s="12" t="s">
+      <c r="F62" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H62" s="42" t="s">
+      <c r="H62" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="I62" s="12" t="s">
+      <c r="I62" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="J62" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K62" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L62" s="12" t="s">
+      <c r="J62" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K62" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L62" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="M62" s="12" t="s">
+      <c r="M62" s="13" t="s">
         <v>46</v>
       </c>
       <c r="N62" s="5" t="s">
@@ -4898,7 +5507,7 @@
       <c r="P62" s="5"/>
       <c r="Q62" s="5"/>
       <c r="R62" s="5"/>
-      <c r="S62" s="16"/>
+      <c r="S62" s="17"/>
       <c r="T62" s="5"/>
       <c r="U62" s="5"/>
       <c r="V62" s="5"/>
@@ -4906,7 +5515,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:23" s="4" customFormat="1">
+    <row r="63" s="4" customFormat="1" spans="1:23">
       <c r="A63" s="5">
         <v>200061</v>
       </c>
@@ -4922,28 +5531,28 @@
       <c r="E63" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F63" s="12" t="s">
+      <c r="F63" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H63" s="42" t="s">
+      <c r="H63" s="46" t="s">
         <v>166</v>
       </c>
-      <c r="I63" s="12" t="s">
+      <c r="I63" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="J63" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K63" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L63" s="12" t="s">
+      <c r="J63" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K63" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L63" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="M63" s="12" t="s">
+      <c r="M63" s="13" t="s">
         <v>46</v>
       </c>
       <c r="N63" s="5" t="s">
@@ -4953,7 +5562,7 @@
       <c r="P63" s="5"/>
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
-      <c r="S63" s="16"/>
+      <c r="S63" s="17"/>
       <c r="T63" s="5"/>
       <c r="U63" s="5"/>
       <c r="V63" s="5"/>
@@ -4961,7 +5570,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:23" s="4" customFormat="1">
+    <row r="64" s="4" customFormat="1" spans="1:23">
       <c r="A64" s="5">
         <v>200062</v>
       </c>
@@ -4977,28 +5586,28 @@
       <c r="E64" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F64" s="12" t="s">
+      <c r="F64" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H64" s="42" t="s">
+      <c r="H64" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="I64" s="12" t="s">
+      <c r="I64" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="J64" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K64" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L64" s="12" t="s">
+      <c r="J64" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K64" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L64" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="M64" s="12" t="s">
+      <c r="M64" s="13" t="s">
         <v>46</v>
       </c>
       <c r="N64" s="5" t="s">
@@ -5008,7 +5617,7 @@
       <c r="P64" s="5"/>
       <c r="Q64" s="5"/>
       <c r="R64" s="5"/>
-      <c r="S64" s="16"/>
+      <c r="S64" s="17"/>
       <c r="T64" s="5"/>
       <c r="U64" s="5"/>
       <c r="V64" s="5"/>
@@ -5016,7 +5625,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:23" s="4" customFormat="1">
+    <row r="65" s="4" customFormat="1" spans="1:23">
       <c r="A65" s="5">
         <v>200063</v>
       </c>
@@ -5032,28 +5641,28 @@
       <c r="E65" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F65" s="12" t="s">
+      <c r="F65" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H65" s="42" t="s">
+      <c r="H65" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="I65" s="12" t="s">
+      <c r="I65" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="J65" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K65" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L65" s="12" t="s">
+      <c r="J65" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K65" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L65" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="M65" s="12" t="s">
+      <c r="M65" s="13" t="s">
         <v>46</v>
       </c>
       <c r="N65" s="5" t="s">
@@ -5063,7 +5672,7 @@
       <c r="P65" s="5"/>
       <c r="Q65" s="5"/>
       <c r="R65" s="5"/>
-      <c r="S65" s="16"/>
+      <c r="S65" s="17"/>
       <c r="T65" s="5"/>
       <c r="U65" s="5"/>
       <c r="V65" s="5"/>
@@ -5071,7 +5680,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:23" s="4" customFormat="1">
+    <row r="66" s="4" customFormat="1" spans="1:23">
       <c r="A66" s="5">
         <v>200064</v>
       </c>
@@ -5087,28 +5696,28 @@
       <c r="E66" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F66" s="12" t="s">
+      <c r="F66" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H66" s="42" t="s">
+      <c r="H66" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="I66" s="12" t="s">
+      <c r="I66" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="J66" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K66" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L66" s="12" t="s">
+      <c r="J66" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K66" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L66" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="M66" s="12" t="s">
+      <c r="M66" s="13" t="s">
         <v>46</v>
       </c>
       <c r="N66" s="5" t="s">
@@ -5118,7 +5727,7 @@
       <c r="P66" s="5"/>
       <c r="Q66" s="5"/>
       <c r="R66" s="5"/>
-      <c r="S66" s="16"/>
+      <c r="S66" s="17"/>
       <c r="T66" s="5"/>
       <c r="U66" s="5"/>
       <c r="V66" s="5"/>
@@ -5126,7 +5735,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:23" s="4" customFormat="1">
+    <row r="67" s="4" customFormat="1" spans="1:22">
       <c r="A67" s="5">
         <v>200065</v>
       </c>
@@ -5142,28 +5751,28 @@
       <c r="E67" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F67" s="12" t="s">
+      <c r="F67" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H67" s="42" t="s">
+      <c r="H67" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="I67" s="12" t="s">
+      <c r="I67" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="J67" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K67" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L67" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M67" s="12" t="s">
+      <c r="J67" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K67" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L67" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="M67" s="13" t="s">
         <v>30</v>
       </c>
       <c r="N67" s="5" t="s">
@@ -5173,12 +5782,12 @@
       <c r="P67" s="5"/>
       <c r="Q67" s="5"/>
       <c r="R67" s="5"/>
-      <c r="S67" s="16"/>
+      <c r="S67" s="17"/>
       <c r="T67" s="5"/>
       <c r="U67" s="5"/>
       <c r="V67" s="5"/>
     </row>
-    <row r="68" spans="1:23" s="5" customFormat="1">
+    <row r="68" s="5" customFormat="1" spans="1:14">
       <c r="A68" s="5">
         <v>200066</v>
       </c>
@@ -5194,35 +5803,35 @@
       <c r="E68" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F68" s="12" t="s">
+      <c r="F68" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H68" s="43" t="s">
+      <c r="H68" s="47" t="s">
         <v>176</v>
       </c>
       <c r="I68" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="J68" s="12" t="s">
+      <c r="J68" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="K68" s="12" t="s">
+      <c r="K68" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="L68" s="12" t="s">
+      <c r="L68" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="M68" s="12" t="s">
+      <c r="M68" s="13" t="s">
         <v>30</v>
       </c>
       <c r="N68" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="1:23" s="5" customFormat="1">
+    <row r="69" s="5" customFormat="1" spans="1:14">
       <c r="A69" s="5">
         <v>200067</v>
       </c>
@@ -5238,35 +5847,35 @@
       <c r="E69" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F69" s="12" t="s">
+      <c r="F69" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H69" s="43" t="s">
+      <c r="H69" s="47" t="s">
         <v>180</v>
       </c>
       <c r="I69" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="J69" s="12" t="s">
+      <c r="J69" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="K69" s="12" t="s">
+      <c r="K69" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="L69" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M69" s="12" t="s">
+      <c r="L69" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="M69" s="13" t="s">
         <v>30</v>
       </c>
       <c r="N69" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:23" s="5" customFormat="1">
+    <row r="70" s="5" customFormat="1" spans="1:14">
       <c r="A70" s="5">
         <v>200068</v>
       </c>
@@ -5282,35 +5891,35 @@
       <c r="E70" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F70" s="12" t="s">
+      <c r="F70" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H70" s="43" t="s">
+      <c r="H70" s="47" t="s">
         <v>182</v>
       </c>
       <c r="I70" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="J70" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K70" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L70" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M70" s="12" t="s">
+      <c r="J70" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K70" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L70" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="M70" s="13" t="s">
         <v>30</v>
       </c>
       <c r="N70" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="1:23" s="5" customFormat="1">
+    <row r="71" s="5" customFormat="1" spans="1:14">
       <c r="A71" s="5">
         <v>200069</v>
       </c>
@@ -5326,35 +5935,35 @@
       <c r="E71" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F71" s="12" t="s">
+      <c r="F71" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H71" s="43" t="s">
+      <c r="H71" s="47" t="s">
         <v>182</v>
       </c>
       <c r="I71" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="J71" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K71" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L71" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M71" s="12" t="s">
+      <c r="J71" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K71" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L71" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="M71" s="13" t="s">
         <v>30</v>
       </c>
       <c r="N71" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:23" s="5" customFormat="1">
+    <row r="72" s="5" customFormat="1" spans="1:14">
       <c r="A72" s="5">
         <v>200070</v>
       </c>
@@ -5370,35 +5979,35 @@
       <c r="E72" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F72" s="12" t="s">
+      <c r="F72" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H72" s="43" t="s">
+      <c r="H72" s="47" t="s">
         <v>187</v>
       </c>
       <c r="I72" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="J72" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K72" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L72" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M72" s="12" t="s">
+      <c r="J72" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K72" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L72" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="M72" s="13" t="s">
         <v>30</v>
       </c>
       <c r="N72" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:23" s="4" customFormat="1">
+    <row r="73" s="4" customFormat="1" spans="1:14">
       <c r="A73" s="5">
         <v>200071</v>
       </c>
@@ -5414,35 +6023,35 @@
       <c r="E73" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F73" s="12" t="s">
+      <c r="F73" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H73" s="42" t="s">
+      <c r="H73" s="46" t="s">
         <v>189</v>
       </c>
       <c r="I73" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="J73" s="27">
-        <v>1</v>
-      </c>
-      <c r="K73" s="28">
-        <v>1</v>
-      </c>
-      <c r="L73" s="29">
-        <v>1</v>
-      </c>
-      <c r="M73" s="29">
+      <c r="J73" s="30">
+        <v>1</v>
+      </c>
+      <c r="K73" s="31">
+        <v>1</v>
+      </c>
+      <c r="L73" s="28">
+        <v>1</v>
+      </c>
+      <c r="M73" s="28">
         <v>1</v>
       </c>
       <c r="N73" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:23" s="4" customFormat="1">
+    <row r="74" s="4" customFormat="1" spans="1:14">
       <c r="A74" s="5">
         <v>200071</v>
       </c>
@@ -5458,35 +6067,35 @@
       <c r="E74" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F74" s="12" t="s">
+      <c r="F74" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H74" s="42" t="s">
+      <c r="H74" s="46" t="s">
         <v>191</v>
       </c>
       <c r="I74" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J74" s="27">
-        <v>1</v>
-      </c>
-      <c r="K74" s="28">
-        <v>1</v>
-      </c>
-      <c r="L74" s="29">
-        <v>1</v>
-      </c>
-      <c r="M74" s="29">
+      <c r="J74" s="30">
+        <v>1</v>
+      </c>
+      <c r="K74" s="31">
+        <v>1</v>
+      </c>
+      <c r="L74" s="28">
+        <v>1</v>
+      </c>
+      <c r="M74" s="28">
         <v>1</v>
       </c>
       <c r="N74" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:23" s="4" customFormat="1">
+    <row r="75" s="4" customFormat="1" spans="1:14">
       <c r="A75" s="5">
         <v>200071</v>
       </c>
@@ -5502,171 +6111,171 @@
       <c r="E75" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F75" s="12" t="s">
+      <c r="F75" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H75" s="42" t="s">
+      <c r="H75" s="46" t="s">
         <v>192</v>
       </c>
       <c r="I75" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J75" s="27">
-        <v>1</v>
-      </c>
-      <c r="K75" s="28">
-        <v>1</v>
-      </c>
-      <c r="L75" s="29">
-        <v>1</v>
-      </c>
-      <c r="M75" s="29">
+      <c r="J75" s="30">
+        <v>1</v>
+      </c>
+      <c r="K75" s="31">
+        <v>1</v>
+      </c>
+      <c r="L75" s="28">
+        <v>1</v>
+      </c>
+      <c r="M75" s="28">
         <v>1</v>
       </c>
       <c r="N75" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:23" s="6" customFormat="1">
-      <c r="A76" s="17">
+    <row r="76" s="6" customFormat="1" spans="1:22">
+      <c r="A76" s="18">
         <v>200073</v>
       </c>
-      <c r="B76" s="17" t="s">
+      <c r="B76" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="C76" s="18">
+      <c r="C76" s="19">
         <v>80</v>
       </c>
-      <c r="D76" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E76" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F76" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G76" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H76" s="44" t="s">
+      <c r="D76" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E76" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F76" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G76" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H76" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="I76" s="17" t="s">
+      <c r="I76" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="J76" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="K76" s="31">
-        <v>1</v>
-      </c>
-      <c r="L76" s="19" t="s">
+      <c r="J76" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="K76" s="33">
+        <v>1</v>
+      </c>
+      <c r="L76" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="M76" s="19" t="s">
+      <c r="M76" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="N76" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
-      <c r="R76" s="17"/>
-      <c r="S76" s="17"/>
-      <c r="T76" s="17"/>
-      <c r="U76" s="17"/>
-      <c r="V76" s="17"/>
-    </row>
-    <row r="77" spans="1:23">
-      <c r="A77" s="20">
+      <c r="N76" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="O76" s="18"/>
+      <c r="P76" s="18"/>
+      <c r="Q76" s="18"/>
+      <c r="R76" s="18"/>
+      <c r="S76" s="18"/>
+      <c r="T76" s="18"/>
+      <c r="U76" s="18"/>
+      <c r="V76" s="18"/>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="21">
         <v>200074</v>
       </c>
-      <c r="B77" s="20" t="s">
+      <c r="B77" s="21" t="s">
         <v>196</v>
       </c>
       <c r="C77" s="7">
         <v>81</v>
       </c>
-      <c r="D77" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E77" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F77" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G77" s="20" t="s">
+      <c r="D77" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E77" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F77" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G77" s="21" t="s">
         <v>27</v>
       </c>
       <c r="H77" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="I77" s="32" t="s">
+      <c r="I77" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="J77" s="33">
-        <v>1</v>
-      </c>
-      <c r="K77" s="34">
-        <v>1</v>
-      </c>
-      <c r="L77" s="35" t="s">
+      <c r="J77" s="35">
+        <v>1</v>
+      </c>
+      <c r="K77" s="36">
+        <v>1</v>
+      </c>
+      <c r="L77" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="M77" s="35">
-        <v>1</v>
-      </c>
-      <c r="N77" s="20" t="s">
+      <c r="M77" s="37">
+        <v>1</v>
+      </c>
+      <c r="N77" s="21" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="78" spans="1:23">
-      <c r="A78" s="20">
+      <c r="A78" s="21">
         <v>200075</v>
       </c>
-      <c r="B78" s="20" t="s">
+      <c r="B78" s="21" t="s">
         <v>199</v>
       </c>
       <c r="C78" s="7">
         <v>82</v>
       </c>
-      <c r="D78" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E78" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F78" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G78" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H78" s="45" t="s">
+      <c r="D78" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E78" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F78" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G78" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H78" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="I78" s="32" t="s">
+      <c r="I78" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="J78" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="K78" s="34">
-        <v>1</v>
-      </c>
-      <c r="L78" s="35" t="s">
+      <c r="J78" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="K78" s="36">
+        <v>1</v>
+      </c>
+      <c r="L78" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="M78" s="35" t="s">
+      <c r="M78" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="N78" s="20" t="s">
+      <c r="N78" s="21" t="s">
         <v>31</v>
       </c>
       <c r="W78" s="7" t="s">
@@ -5674,975 +6283,975 @@
       </c>
     </row>
     <row r="79" spans="1:23">
-      <c r="A79" s="20">
+      <c r="A79" s="21">
         <v>200076</v>
       </c>
-      <c r="B79" s="20" t="s">
+      <c r="B79" s="21" t="s">
         <v>203</v>
       </c>
       <c r="C79" s="7">
         <v>83</v>
       </c>
-      <c r="D79" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E79" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F79" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G79" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H79" s="45" t="s">
+      <c r="D79" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E79" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F79" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G79" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H79" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="I79" s="32" t="s">
+      <c r="I79" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="J79" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="K79" s="34">
-        <v>1</v>
-      </c>
-      <c r="L79" s="34">
+      <c r="J79" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="K79" s="36">
+        <v>1</v>
+      </c>
+      <c r="L79" s="36">
         <v>0</v>
       </c>
-      <c r="M79" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="N79" s="20" t="s">
+      <c r="M79" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="N79" s="21" t="s">
         <v>31</v>
       </c>
       <c r="W79" s="7" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="80" spans="1:23" s="6" customFormat="1">
-      <c r="A80" s="17">
+    <row r="80" s="6" customFormat="1" spans="1:14">
+      <c r="A80" s="18">
         <v>200078</v>
       </c>
-      <c r="B80" s="17" t="s">
+      <c r="B80" s="18" t="s">
         <v>205</v>
       </c>
       <c r="C80" s="6">
         <v>84</v>
       </c>
-      <c r="D80" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E80" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="F80" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G80" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H80" s="46" t="s">
+      <c r="D80" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E80" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F80" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G80" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H80" s="50" t="s">
         <v>206</v>
       </c>
       <c r="I80" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="J80" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="K80" s="37">
-        <v>1</v>
-      </c>
-      <c r="L80" s="38" t="s">
+      <c r="J80" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="K80" s="39">
+        <v>1</v>
+      </c>
+      <c r="L80" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="M80" s="38" t="s">
+      <c r="M80" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="N80" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23" s="6" customFormat="1">
-      <c r="A81" s="17">
+      <c r="N80" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" s="6" customFormat="1" spans="1:14">
+      <c r="A81" s="18">
         <v>200079</v>
       </c>
-      <c r="B81" s="17" t="s">
+      <c r="B81" s="18" t="s">
         <v>207</v>
       </c>
       <c r="C81" s="6">
         <v>85</v>
       </c>
-      <c r="D81" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E81" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="F81" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G81" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H81" s="46" t="s">
+      <c r="D81" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E81" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F81" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G81" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H81" s="50" t="s">
         <v>208</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="J81" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="K81" s="37">
-        <v>1</v>
-      </c>
-      <c r="L81" s="38" t="s">
+      <c r="J81" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="K81" s="39">
+        <v>1</v>
+      </c>
+      <c r="L81" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="M81" s="38" t="s">
+      <c r="M81" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="N81" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23">
-      <c r="A82" s="20">
+      <c r="N81" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" s="21">
         <v>200080</v>
       </c>
-      <c r="B82" s="20" t="s">
+      <c r="B82" s="21" t="s">
         <v>209</v>
       </c>
       <c r="C82" s="7">
         <v>86</v>
       </c>
-      <c r="D82" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E82" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F82" s="25" t="s">
+      <c r="D82" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E82" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F82" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H82" s="42" t="s">
+      <c r="H82" s="46" t="s">
         <v>210</v>
       </c>
       <c r="I82" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J82" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="K82" s="28">
-        <v>1</v>
-      </c>
-      <c r="L82" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="M82" s="29" t="s">
+      <c r="J82" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="K82" s="31">
+        <v>1</v>
+      </c>
+      <c r="L82" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="M82" s="28" t="s">
         <v>30</v>
       </c>
       <c r="N82" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="1:23">
-      <c r="A83" s="20">
+    <row r="83" spans="1:15">
+      <c r="A83" s="21">
         <v>200085</v>
       </c>
-      <c r="B83" s="20" t="s">
+      <c r="B83" s="21" t="s">
         <v>211</v>
       </c>
       <c r="C83" s="7">
         <v>89</v>
       </c>
-      <c r="D83" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E83" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F83" s="25" t="s">
+      <c r="D83" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F83" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H83" s="26" t="s">
+      <c r="H83" s="27" t="s">
         <v>212</v>
       </c>
       <c r="I83" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="J83" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="K83" s="28">
-        <v>1</v>
-      </c>
-      <c r="L83" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="M83" s="21" t="s">
+      <c r="J83" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K83" s="31">
+        <v>1</v>
+      </c>
+      <c r="L83" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M83" s="22" t="s">
         <v>30</v>
       </c>
       <c r="N83" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="O83" s="40"/>
+      <c r="O83" s="42"/>
     </row>
     <row r="84" spans="1:23">
-      <c r="A84" s="20">
+      <c r="A84" s="21">
         <v>200086</v>
       </c>
-      <c r="B84" s="20" t="s">
+      <c r="B84" s="21" t="s">
         <v>214</v>
       </c>
       <c r="C84" s="7">
         <v>90</v>
       </c>
-      <c r="D84" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E84" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F84" s="25" t="s">
+      <c r="D84" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E84" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F84" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G84" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H84" s="29" t="s">
-        <v>347</v>
+      <c r="H84" s="28" t="s">
+        <v>215</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="J84" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="K84" s="28">
-        <v>1</v>
-      </c>
-      <c r="L84" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="M84" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="J84" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="K84" s="31">
+        <v>1</v>
+      </c>
+      <c r="L84" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="M84" s="28" t="s">
         <v>30</v>
       </c>
       <c r="N84" s="5" t="s">
         <v>31</v>
       </c>
       <c r="W84" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="85" spans="1:23">
-      <c r="A85" s="20">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" s="21">
         <v>200087</v>
       </c>
-      <c r="B85" s="20" t="s">
-        <v>215</v>
+      <c r="B85" s="21" t="s">
+        <v>218</v>
       </c>
       <c r="C85" s="7">
         <v>91</v>
       </c>
-      <c r="D85" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E85" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F85" s="25" t="s">
+      <c r="D85" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E85" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F85" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H85" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="I85" s="40" t="s">
-        <v>217</v>
-      </c>
-      <c r="J85" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="K85" s="28">
-        <v>1</v>
-      </c>
-      <c r="L85" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="M85" s="21" t="s">
+      <c r="H85" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="I85" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="J85" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K85" s="31">
+        <v>1</v>
+      </c>
+      <c r="L85" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M85" s="22" t="s">
         <v>30</v>
       </c>
       <c r="N85" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:23">
-      <c r="A86" s="20">
+    <row r="86" spans="1:15">
+      <c r="A86" s="21">
         <v>200088</v>
       </c>
-      <c r="B86" s="20" t="s">
-        <v>218</v>
+      <c r="B86" s="21" t="s">
+        <v>221</v>
       </c>
       <c r="C86" s="7">
         <v>92</v>
       </c>
-      <c r="D86" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E86" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F86" s="25" t="s">
+      <c r="D86" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E86" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F86" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H86" s="26" t="s">
-        <v>219</v>
+      <c r="H86" s="27" t="s">
+        <v>222</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="J86" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="K86" s="28">
-        <v>1</v>
-      </c>
-      <c r="L86" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="M86" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="J86" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K86" s="31">
+        <v>1</v>
+      </c>
+      <c r="L86" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M86" s="22" t="s">
         <v>30</v>
       </c>
       <c r="N86" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="O86" s="40"/>
-    </row>
-    <row r="87" spans="1:23">
-      <c r="A87" s="20">
+      <c r="O86" s="42"/>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" s="21">
         <v>200089</v>
       </c>
-      <c r="B87" s="20" t="s">
-        <v>221</v>
+      <c r="B87" s="21" t="s">
+        <v>224</v>
       </c>
       <c r="C87" s="7">
         <v>93</v>
       </c>
-      <c r="D87" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E87" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F87" s="25" t="s">
+      <c r="D87" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E87" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F87" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H87" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="I87" s="40" t="s">
-        <v>220</v>
-      </c>
-      <c r="J87" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="K87" s="28">
-        <v>1</v>
-      </c>
-      <c r="L87" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="M87" s="21" t="s">
+      <c r="H87" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="I87" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="J87" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K87" s="31">
+        <v>1</v>
+      </c>
+      <c r="L87" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M87" s="22" t="s">
         <v>30</v>
       </c>
       <c r="N87" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="88" spans="1:23">
-      <c r="A88" s="20">
+    <row r="88" spans="1:14">
+      <c r="A88" s="21">
         <v>200090</v>
       </c>
-      <c r="B88" s="20" t="s">
-        <v>223</v>
+      <c r="B88" s="21" t="s">
+        <v>226</v>
       </c>
       <c r="C88" s="7">
         <v>94</v>
       </c>
-      <c r="D88" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E88" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F88" s="25" t="s">
+      <c r="D88" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E88" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F88" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G88" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I88" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="J88" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="K88" s="28">
-        <v>1</v>
-      </c>
-      <c r="L88" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="M88" s="21" t="s">
+      <c r="J88" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K88" s="31">
+        <v>1</v>
+      </c>
+      <c r="L88" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M88" s="22" t="s">
         <v>30</v>
       </c>
       <c r="N88" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:23">
-      <c r="A89" s="20">
+    <row r="89" spans="1:14">
+      <c r="A89" s="21">
         <v>200091</v>
       </c>
-      <c r="B89" s="20" t="s">
-        <v>225</v>
+      <c r="B89" s="21" t="s">
+        <v>228</v>
       </c>
       <c r="C89" s="7">
         <v>95</v>
       </c>
-      <c r="D89" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E89" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F89" s="25" t="s">
+      <c r="D89" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E89" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F89" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="I89" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="J89" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="K89" s="28">
-        <v>1</v>
-      </c>
-      <c r="L89" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="M89" s="21" t="s">
+      <c r="J89" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K89" s="31">
+        <v>1</v>
+      </c>
+      <c r="L89" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M89" s="22" t="s">
         <v>30</v>
       </c>
       <c r="N89" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="90" spans="1:23">
-      <c r="A90" s="20">
+    <row r="90" spans="1:14">
+      <c r="A90" s="21">
         <v>200092</v>
       </c>
-      <c r="B90" s="20" t="s">
-        <v>227</v>
+      <c r="B90" s="21" t="s">
+        <v>230</v>
       </c>
       <c r="C90" s="7">
         <v>96</v>
       </c>
-      <c r="D90" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E90" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F90" s="25" t="s">
+      <c r="D90" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E90" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F90" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G90" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="I90" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="J90" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="K90" s="28">
-        <v>1</v>
-      </c>
-      <c r="L90" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="M90" s="21" t="s">
+      <c r="J90" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K90" s="31">
+        <v>1</v>
+      </c>
+      <c r="L90" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M90" s="22" t="s">
         <v>30</v>
       </c>
       <c r="N90" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="1:23">
-      <c r="A91" s="20">
+    <row r="91" spans="1:14">
+      <c r="A91" s="21">
         <v>200093</v>
       </c>
-      <c r="B91" s="20" t="s">
-        <v>229</v>
+      <c r="B91" s="21" t="s">
+        <v>232</v>
       </c>
       <c r="C91" s="7">
         <v>97</v>
       </c>
-      <c r="D91" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E91" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F91" s="25" t="s">
+      <c r="D91" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E91" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F91" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G91" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="I91" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="J91" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="K91" s="28">
-        <v>1</v>
-      </c>
-      <c r="L91" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="M91" s="21" t="s">
+      <c r="J91" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K91" s="31">
+        <v>1</v>
+      </c>
+      <c r="L91" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M91" s="22" t="s">
         <v>30</v>
       </c>
       <c r="N91" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="92" spans="1:23">
-      <c r="A92" s="20">
+    <row r="92" spans="1:14">
+      <c r="A92" s="21">
         <v>200094</v>
       </c>
-      <c r="B92" s="20" t="s">
-        <v>231</v>
+      <c r="B92" s="21" t="s">
+        <v>234</v>
       </c>
       <c r="C92" s="7">
         <v>98</v>
       </c>
-      <c r="D92" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E92" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F92" s="25" t="s">
+      <c r="D92" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E92" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F92" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G92" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H92" s="46" t="s">
-        <v>232</v>
+      <c r="H92" s="50" t="s">
+        <v>235</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="J92" s="30">
-        <v>1</v>
-      </c>
-      <c r="K92" s="30">
-        <v>1</v>
-      </c>
-      <c r="L92" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="J92" s="32">
+        <v>1</v>
+      </c>
+      <c r="K92" s="32">
+        <v>1</v>
+      </c>
+      <c r="L92" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="M92" s="30" t="s">
+      <c r="M92" s="32" t="s">
         <v>46</v>
       </c>
       <c r="N92" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="93" spans="1:23">
-      <c r="A93" s="20">
+    <row r="93" spans="1:14">
+      <c r="A93" s="21">
         <v>200095</v>
       </c>
-      <c r="B93" s="20" t="s">
-        <v>234</v>
+      <c r="B93" s="21" t="s">
+        <v>237</v>
       </c>
       <c r="C93" s="7">
         <v>99</v>
       </c>
-      <c r="D93" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E93" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F93" s="25" t="s">
+      <c r="D93" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E93" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F93" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G93" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H93" s="46" t="s">
-        <v>235</v>
+      <c r="H93" s="50" t="s">
+        <v>238</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="J93" s="30">
-        <v>1</v>
-      </c>
-      <c r="K93" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="J93" s="32">
+        <v>1</v>
+      </c>
+      <c r="K93" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="L93" s="49" t="s">
-        <v>345</v>
-      </c>
-      <c r="M93" s="30" t="s">
+      <c r="L93" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="M93" s="32" t="s">
         <v>46</v>
       </c>
       <c r="N93" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="94" spans="1:23">
-      <c r="A94" s="20">
+    <row r="94" spans="1:14">
+      <c r="A94" s="21">
         <v>200096</v>
       </c>
-      <c r="B94" s="20" t="s">
-        <v>237</v>
+      <c r="B94" s="21" t="s">
+        <v>240</v>
       </c>
       <c r="C94" s="7">
         <v>100</v>
       </c>
-      <c r="D94" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E94" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F94" s="25" t="s">
+      <c r="D94" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E94" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F94" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G94" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H94" s="46" t="s">
-        <v>238</v>
+      <c r="H94" s="50" t="s">
+        <v>241</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="J94" s="30">
-        <v>1</v>
-      </c>
-      <c r="K94" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="J94" s="32">
+        <v>1</v>
+      </c>
+      <c r="K94" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="L94" s="30" t="s">
+      <c r="L94" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="M94" s="30" t="s">
+      <c r="M94" s="32" t="s">
         <v>46</v>
       </c>
       <c r="N94" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="95" spans="1:23">
-      <c r="A95" s="20">
+    <row r="95" spans="1:14">
+      <c r="A95" s="21">
         <v>200097</v>
       </c>
-      <c r="B95" s="20" t="s">
-        <v>239</v>
+      <c r="B95" s="21" t="s">
+        <v>242</v>
       </c>
       <c r="C95" s="7">
         <v>101</v>
       </c>
-      <c r="D95" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E95" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F95" s="25" t="s">
+      <c r="D95" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E95" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F95" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G95" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H95" s="46" t="s">
-        <v>240</v>
+      <c r="H95" s="50" t="s">
+        <v>243</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="J95" s="30">
-        <v>1</v>
-      </c>
-      <c r="K95" s="30">
-        <v>1</v>
-      </c>
-      <c r="L95" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="J95" s="32">
+        <v>1</v>
+      </c>
+      <c r="K95" s="32">
+        <v>1</v>
+      </c>
+      <c r="L95" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="M95" s="30" t="s">
+      <c r="M95" s="32" t="s">
         <v>46</v>
       </c>
       <c r="N95" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:14">
       <c r="A96" s="7">
         <v>200098</v>
       </c>
-      <c r="B96" s="20" t="s">
-        <v>242</v>
+      <c r="B96" s="21" t="s">
+        <v>245</v>
       </c>
       <c r="C96" s="7">
         <v>102</v>
       </c>
-      <c r="D96" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E96" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F96" s="25" t="s">
+      <c r="D96" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E96" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F96" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G96" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H96" s="46" t="s">
-        <v>243</v>
+      <c r="H96" s="50" t="s">
+        <v>246</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="J96" s="37">
-        <v>1</v>
-      </c>
-      <c r="K96" s="37">
-        <v>1</v>
-      </c>
-      <c r="L96" s="37">
+        <v>247</v>
+      </c>
+      <c r="J96" s="39">
+        <v>1</v>
+      </c>
+      <c r="K96" s="39">
+        <v>1</v>
+      </c>
+      <c r="L96" s="39">
         <v>0</v>
       </c>
-      <c r="M96" s="37">
+      <c r="M96" s="39">
         <v>2</v>
       </c>
       <c r="N96" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="97" spans="1:14" customFormat="1">
-      <c r="A97" s="20">
+    <row r="97" customFormat="1" spans="1:14">
+      <c r="A97" s="21">
         <v>200081</v>
       </c>
-      <c r="B97" s="20" t="s">
-        <v>245</v>
+      <c r="B97" s="21" t="s">
+        <v>248</v>
       </c>
       <c r="C97" s="7">
         <v>85</v>
       </c>
-      <c r="D97" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E97" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F97" s="25" t="s">
+      <c r="D97" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E97" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F97" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G97" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="I97" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="J97" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="K97" s="28">
-        <v>1</v>
-      </c>
-      <c r="L97" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="M97" s="29">
+        <v>250</v>
+      </c>
+      <c r="J97" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="K97" s="31">
+        <v>1</v>
+      </c>
+      <c r="L97" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="M97" s="28">
         <v>1</v>
       </c>
       <c r="N97" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="98" spans="1:14" customFormat="1">
-      <c r="A98" s="20">
+    <row r="98" customFormat="1" spans="1:14">
+      <c r="A98" s="21">
         <v>200082</v>
       </c>
-      <c r="B98" s="20" t="s">
-        <v>248</v>
+      <c r="B98" s="21" t="s">
+        <v>251</v>
       </c>
       <c r="C98" s="7">
         <v>86</v>
       </c>
-      <c r="D98" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E98" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F98" s="25" t="s">
+      <c r="D98" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E98" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F98" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G98" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="J98" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="K98" s="28">
-        <v>1</v>
-      </c>
-      <c r="L98" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="M98" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="J98" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="K98" s="31">
+        <v>1</v>
+      </c>
+      <c r="L98" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="M98" s="28" t="s">
         <v>30</v>
       </c>
       <c r="N98" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="99" spans="1:14" customFormat="1">
-      <c r="A99" s="20">
+    <row r="99" customFormat="1" spans="1:14">
+      <c r="A99" s="21">
         <v>200083</v>
       </c>
-      <c r="B99" s="20" t="s">
-        <v>250</v>
+      <c r="B99" s="21" t="s">
+        <v>253</v>
       </c>
       <c r="C99" s="7">
         <v>87</v>
       </c>
-      <c r="D99" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E99" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F99" s="25" t="s">
+      <c r="D99" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E99" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F99" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G99" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="J99" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="K99" s="28">
-        <v>1</v>
-      </c>
-      <c r="L99" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="M99" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="J99" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="K99" s="31">
+        <v>1</v>
+      </c>
+      <c r="L99" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="M99" s="28" t="s">
         <v>30</v>
       </c>
       <c r="N99" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="1:14" customFormat="1">
-      <c r="A100" s="20">
+    <row r="100" customFormat="1" spans="1:14">
+      <c r="A100" s="21">
         <v>200084</v>
       </c>
-      <c r="B100" s="20" t="s">
-        <v>253</v>
+      <c r="B100" s="21" t="s">
+        <v>256</v>
       </c>
       <c r="C100" s="7">
         <v>88</v>
       </c>
-      <c r="D100" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E100" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F100" s="25" t="s">
+      <c r="D100" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E100" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F100" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G100" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="I100" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="J100" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="K100" s="28">
-        <v>1</v>
-      </c>
-      <c r="L100" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="M100" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="J100" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="K100" s="31">
+        <v>1</v>
+      </c>
+      <c r="L100" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="M100" s="28" t="s">
         <v>30</v>
       </c>
       <c r="N100" s="5" t="s">
@@ -6653,40 +7262,40 @@
       <c r="A101" s="7">
         <v>200105</v>
       </c>
-      <c r="B101" s="20" t="s">
-        <v>256</v>
+      <c r="B101" s="21" t="s">
+        <v>259</v>
       </c>
       <c r="C101" s="7">
         <v>109</v>
       </c>
-      <c r="D101" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E101" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F101" s="25" t="s">
+      <c r="D101" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E101" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F101" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G101" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H101" s="46" t="s">
-        <v>257</v>
+      <c r="H101" s="50" t="s">
+        <v>260</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="J101" s="37">
-        <v>1</v>
-      </c>
-      <c r="K101" s="37">
-        <v>1</v>
-      </c>
-      <c r="L101" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="J101" s="39">
+        <v>1</v>
+      </c>
+      <c r="K101" s="39">
+        <v>1</v>
+      </c>
+      <c r="L101" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="M101" s="37">
+      <c r="M101" s="39">
         <v>2</v>
       </c>
       <c r="N101" s="5" t="s">
@@ -6697,40 +7306,40 @@
       <c r="A102" s="7">
         <v>200106</v>
       </c>
-      <c r="B102" s="20" t="s">
-        <v>259</v>
+      <c r="B102" s="21" t="s">
+        <v>262</v>
       </c>
       <c r="C102" s="7">
         <v>110</v>
       </c>
-      <c r="D102" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E102" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F102" s="25" t="s">
+      <c r="D102" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E102" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F102" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G102" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H102" s="46" t="s">
-        <v>260</v>
+      <c r="H102" s="50" t="s">
+        <v>263</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="J102" s="37">
-        <v>1</v>
-      </c>
-      <c r="K102" s="37">
-        <v>1</v>
-      </c>
-      <c r="L102" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="J102" s="39">
+        <v>1</v>
+      </c>
+      <c r="K102" s="39">
+        <v>1</v>
+      </c>
+      <c r="L102" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="M102" s="37">
+      <c r="M102" s="39">
         <v>2</v>
       </c>
       <c r="N102" s="5" t="s">
@@ -6741,40 +7350,40 @@
       <c r="A103" s="7">
         <v>200107</v>
       </c>
-      <c r="B103" s="20" t="s">
-        <v>262</v>
+      <c r="B103" s="21" t="s">
+        <v>265</v>
       </c>
       <c r="C103" s="7">
         <v>111</v>
       </c>
-      <c r="D103" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E103" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F103" s="25" t="s">
+      <c r="D103" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E103" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F103" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G103" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H103" s="46" t="s">
-        <v>263</v>
+      <c r="H103" s="50" t="s">
+        <v>266</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="J103" s="37">
-        <v>1</v>
-      </c>
-      <c r="K103" s="37">
-        <v>1</v>
-      </c>
-      <c r="L103" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="J103" s="39">
+        <v>1</v>
+      </c>
+      <c r="K103" s="39">
+        <v>1</v>
+      </c>
+      <c r="L103" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="M103" s="37">
+      <c r="M103" s="39">
         <v>2</v>
       </c>
       <c r="N103" s="5" t="s">
@@ -6785,40 +7394,40 @@
       <c r="A104" s="7">
         <v>200108</v>
       </c>
-      <c r="B104" s="20" t="s">
-        <v>265</v>
+      <c r="B104" s="21" t="s">
+        <v>267</v>
       </c>
       <c r="C104" s="7">
         <v>112</v>
       </c>
-      <c r="D104" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E104" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F104" s="25" t="s">
+      <c r="D104" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E104" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F104" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G104" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H104" s="46" t="s">
-        <v>266</v>
+      <c r="H104" s="50" t="s">
+        <v>268</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="J104" s="37">
-        <v>1</v>
-      </c>
-      <c r="K104" s="37">
+        <v>269</v>
+      </c>
+      <c r="J104" s="39">
+        <v>1</v>
+      </c>
+      <c r="K104" s="39">
         <v>0</v>
       </c>
-      <c r="L104" s="30" t="s">
+      <c r="L104" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="M104" s="37">
+      <c r="M104" s="39">
         <v>2</v>
       </c>
       <c r="N104" s="5" t="s">
@@ -6829,40 +7438,40 @@
       <c r="A105" s="7">
         <v>200109</v>
       </c>
-      <c r="B105" s="20" t="s">
-        <v>268</v>
+      <c r="B105" s="21" t="s">
+        <v>270</v>
       </c>
       <c r="C105" s="7">
         <v>113</v>
       </c>
-      <c r="D105" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E105" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F105" s="25" t="s">
+      <c r="D105" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E105" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F105" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G105" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H105" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="I105" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="I105" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="J105" s="37">
-        <v>1</v>
-      </c>
-      <c r="K105" s="37">
+      <c r="J105" s="39">
+        <v>1</v>
+      </c>
+      <c r="K105" s="39">
         <v>0</v>
       </c>
-      <c r="L105" s="30" t="s">
+      <c r="L105" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="M105" s="37">
+      <c r="M105" s="39">
         <v>2</v>
       </c>
       <c r="N105" s="5" t="s">
@@ -6873,40 +7482,40 @@
       <c r="A106" s="7">
         <v>200110</v>
       </c>
-      <c r="B106" s="20" t="s">
-        <v>270</v>
+      <c r="B106" s="21" t="s">
+        <v>272</v>
       </c>
       <c r="C106" s="7">
         <v>114</v>
       </c>
-      <c r="D106" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E106" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F106" s="25" t="s">
+      <c r="D106" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E106" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F106" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G106" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H106" s="45" t="s">
-        <v>271</v>
+      <c r="H106" s="49" t="s">
+        <v>273</v>
       </c>
       <c r="I106" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="J106" s="34">
-        <v>1</v>
-      </c>
-      <c r="K106" s="34">
-        <v>1</v>
-      </c>
-      <c r="L106" s="34">
-        <v>1</v>
-      </c>
-      <c r="M106" s="34">
+        <v>274</v>
+      </c>
+      <c r="J106" s="36">
+        <v>1</v>
+      </c>
+      <c r="K106" s="36">
+        <v>1</v>
+      </c>
+      <c r="L106" s="36">
+        <v>1</v>
+      </c>
+      <c r="M106" s="36">
         <v>1</v>
       </c>
       <c r="N106" s="5" t="s">
@@ -6917,43 +7526,43 @@
       <c r="A107" s="7">
         <v>200111</v>
       </c>
-      <c r="B107" s="20" t="s">
-        <v>273</v>
+      <c r="B107" s="21" t="s">
+        <v>275</v>
       </c>
       <c r="C107" s="7">
         <v>115</v>
       </c>
-      <c r="D107" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E107" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F107" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G107" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H107" s="47" t="s">
-        <v>274</v>
+      <c r="D107" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E107" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F107" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G107" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H107" s="51" t="s">
+        <v>276</v>
       </c>
       <c r="I107" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="J107" s="34">
-        <v>1</v>
-      </c>
-      <c r="K107" s="34">
-        <v>1</v>
-      </c>
-      <c r="L107" s="34">
-        <v>1</v>
-      </c>
-      <c r="M107" s="34">
-        <v>1</v>
-      </c>
-      <c r="N107" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="J107" s="36">
+        <v>1</v>
+      </c>
+      <c r="K107" s="36">
+        <v>1</v>
+      </c>
+      <c r="L107" s="36">
+        <v>1</v>
+      </c>
+      <c r="M107" s="36">
+        <v>1</v>
+      </c>
+      <c r="N107" s="19" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6961,43 +7570,43 @@
       <c r="A108" s="7">
         <v>200112</v>
       </c>
-      <c r="B108" s="20" t="s">
-        <v>276</v>
+      <c r="B108" s="21" t="s">
+        <v>278</v>
       </c>
       <c r="C108" s="7">
         <v>116</v>
       </c>
-      <c r="D108" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E108" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F108" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G108" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H108" s="47" t="s">
+      <c r="D108" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E108" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F108" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G108" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H108" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="I108" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="I108" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="J108" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="K108" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="L108" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="M108" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="N108" s="18" t="s">
+      <c r="J108" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K108" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="L108" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="M108" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="N108" s="19" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7005,40 +7614,40 @@
       <c r="A109" s="7">
         <v>200113</v>
       </c>
-      <c r="B109" s="20" t="s">
-        <v>278</v>
+      <c r="B109" s="21" t="s">
+        <v>280</v>
       </c>
       <c r="C109" s="7">
         <v>117</v>
       </c>
-      <c r="D109" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E109" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F109" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G109" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H109" s="47" t="s">
-        <v>279</v>
+      <c r="D109" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E109" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F109" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G109" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H109" s="51" t="s">
+        <v>281</v>
       </c>
       <c r="I109" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="J109" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="K109" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="L109" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="M109" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="J109" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K109" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="L109" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="M109" s="41" t="s">
         <v>30</v>
       </c>
       <c r="N109" s="5" t="s">
@@ -7049,40 +7658,40 @@
       <c r="A110" s="7">
         <v>200114</v>
       </c>
-      <c r="B110" s="20" t="s">
-        <v>280</v>
+      <c r="B110" s="21" t="s">
+        <v>282</v>
       </c>
       <c r="C110" s="7">
         <v>118</v>
       </c>
-      <c r="D110" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E110" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F110" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G110" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H110" s="47" t="s">
-        <v>281</v>
+      <c r="D110" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E110" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F110" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G110" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H110" s="51" t="s">
+        <v>283</v>
       </c>
       <c r="I110" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="J110" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="K110" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="L110" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="M110" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="J110" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K110" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="L110" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="M110" s="41" t="s">
         <v>30</v>
       </c>
       <c r="N110" s="5" t="s">
@@ -7093,40 +7702,40 @@
       <c r="A111" s="7">
         <v>200115</v>
       </c>
-      <c r="B111" s="20" t="s">
-        <v>282</v>
+      <c r="B111" s="21" t="s">
+        <v>284</v>
       </c>
       <c r="C111" s="7">
         <v>119</v>
       </c>
-      <c r="D111" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E111" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F111" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G111" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H111" s="47" t="s">
-        <v>283</v>
+      <c r="D111" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E111" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F111" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G111" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H111" s="51" t="s">
+        <v>285</v>
       </c>
       <c r="I111" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="J111" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="K111" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="L111" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="M111" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="J111" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K111" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="L111" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="M111" s="41" t="s">
         <v>30</v>
       </c>
       <c r="N111" s="5" t="s">
@@ -7137,40 +7746,40 @@
       <c r="A112" s="7">
         <v>200116</v>
       </c>
-      <c r="B112" s="20" t="s">
-        <v>284</v>
+      <c r="B112" s="21" t="s">
+        <v>286</v>
       </c>
       <c r="C112" s="7">
         <v>120</v>
       </c>
-      <c r="D112" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E112" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F112" s="25" t="s">
+      <c r="D112" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E112" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F112" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G112" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H112" s="47" t="s">
-        <v>285</v>
+      <c r="H112" s="51" t="s">
+        <v>287</v>
       </c>
       <c r="I112" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="J112" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="K112" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="L112" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="M112" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="J112" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K112" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="L112" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="M112" s="41" t="s">
         <v>30</v>
       </c>
       <c r="N112" s="5" t="s">
@@ -7181,40 +7790,40 @@
       <c r="A113" s="7">
         <v>200117</v>
       </c>
-      <c r="B113" s="20" t="s">
-        <v>286</v>
+      <c r="B113" s="21" t="s">
+        <v>288</v>
       </c>
       <c r="C113" s="7">
         <v>121</v>
       </c>
-      <c r="D113" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E113" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F113" s="25" t="s">
+      <c r="D113" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E113" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F113" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G113" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H113" s="47" t="s">
-        <v>287</v>
+      <c r="H113" s="51" t="s">
+        <v>289</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="J113" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="K113" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="L113" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="M113" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="J113" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K113" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="L113" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="M113" s="41" t="s">
         <v>30</v>
       </c>
       <c r="N113" s="5" t="s">
@@ -7225,40 +7834,40 @@
       <c r="A114" s="7">
         <v>200118</v>
       </c>
-      <c r="B114" s="20" t="s">
-        <v>288</v>
+      <c r="B114" s="21" t="s">
+        <v>290</v>
       </c>
       <c r="C114" s="7">
         <v>122</v>
       </c>
-      <c r="D114" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E114" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F114" s="25" t="s">
+      <c r="D114" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E114" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F114" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G114" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H114" s="47" t="s">
-        <v>289</v>
+      <c r="H114" s="51" t="s">
+        <v>291</v>
       </c>
       <c r="I114" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="J114" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="K114" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="L114" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="M114" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="J114" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K114" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="L114" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="M114" s="41" t="s">
         <v>30</v>
       </c>
       <c r="N114" s="5" t="s">
@@ -7269,40 +7878,40 @@
       <c r="A115" s="7">
         <v>200119</v>
       </c>
-      <c r="B115" s="20" t="s">
-        <v>290</v>
+      <c r="B115" s="21" t="s">
+        <v>292</v>
       </c>
       <c r="C115" s="7">
         <v>123</v>
       </c>
-      <c r="D115" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E115" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F115" s="25" t="s">
+      <c r="D115" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E115" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F115" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G115" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H115" s="47" t="s">
-        <v>291</v>
+      <c r="H115" s="51" t="s">
+        <v>293</v>
       </c>
       <c r="I115" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="J115" s="30">
-        <v>1</v>
-      </c>
-      <c r="K115" s="30">
-        <v>1</v>
-      </c>
-      <c r="L115" s="30">
-        <v>1</v>
-      </c>
-      <c r="M115" s="30">
+        <v>277</v>
+      </c>
+      <c r="J115" s="32">
+        <v>1</v>
+      </c>
+      <c r="K115" s="32">
+        <v>1</v>
+      </c>
+      <c r="L115" s="32">
+        <v>1</v>
+      </c>
+      <c r="M115" s="32">
         <v>1</v>
       </c>
       <c r="N115" s="5" t="s">
@@ -7313,40 +7922,40 @@
       <c r="A116" s="7">
         <v>200120</v>
       </c>
-      <c r="B116" s="20" t="s">
-        <v>292</v>
+      <c r="B116" s="21" t="s">
+        <v>294</v>
       </c>
       <c r="C116" s="7">
         <v>124</v>
       </c>
-      <c r="D116" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E116" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F116" s="25" t="s">
+      <c r="D116" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E116" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F116" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G116" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H116" s="47" t="s">
-        <v>293</v>
+      <c r="H116" s="51" t="s">
+        <v>295</v>
       </c>
       <c r="I116" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="J116" s="30">
-        <v>1</v>
-      </c>
-      <c r="K116" s="30">
-        <v>1</v>
-      </c>
-      <c r="L116" s="30">
-        <v>1</v>
-      </c>
-      <c r="M116" s="30">
+        <v>277</v>
+      </c>
+      <c r="J116" s="32">
+        <v>1</v>
+      </c>
+      <c r="K116" s="32">
+        <v>1</v>
+      </c>
+      <c r="L116" s="32">
+        <v>1</v>
+      </c>
+      <c r="M116" s="32">
         <v>1</v>
       </c>
       <c r="N116" s="5" t="s">
@@ -7357,40 +7966,40 @@
       <c r="A117" s="7">
         <v>200121</v>
       </c>
-      <c r="B117" s="20" t="s">
-        <v>294</v>
+      <c r="B117" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="C117" s="7">
         <v>125</v>
       </c>
-      <c r="D117" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E117" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F117" s="25" t="s">
+      <c r="D117" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E117" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F117" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G117" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H117" s="47" t="s">
-        <v>295</v>
+      <c r="H117" s="51" t="s">
+        <v>297</v>
       </c>
       <c r="I117" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="J117" s="30">
-        <v>1</v>
-      </c>
-      <c r="K117" s="30">
-        <v>1</v>
-      </c>
-      <c r="L117" s="30">
-        <v>1</v>
-      </c>
-      <c r="M117" s="30">
+        <v>277</v>
+      </c>
+      <c r="J117" s="32">
+        <v>1</v>
+      </c>
+      <c r="K117" s="32">
+        <v>1</v>
+      </c>
+      <c r="L117" s="32">
+        <v>1</v>
+      </c>
+      <c r="M117" s="32">
         <v>1</v>
       </c>
       <c r="N117" s="5" t="s">
@@ -7401,40 +8010,40 @@
       <c r="A118" s="7">
         <v>200122</v>
       </c>
-      <c r="B118" s="20" t="s">
-        <v>296</v>
+      <c r="B118" s="21" t="s">
+        <v>298</v>
       </c>
       <c r="C118" s="7">
         <v>126</v>
       </c>
-      <c r="D118" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E118" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F118" s="25" t="s">
+      <c r="D118" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E118" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F118" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G118" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H118" s="47" t="s">
-        <v>297</v>
+      <c r="H118" s="51" t="s">
+        <v>299</v>
       </c>
       <c r="I118" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="J118" s="30">
-        <v>1</v>
-      </c>
-      <c r="K118" s="30">
-        <v>1</v>
-      </c>
-      <c r="L118" s="30">
-        <v>1</v>
-      </c>
-      <c r="M118" s="30">
+        <v>277</v>
+      </c>
+      <c r="J118" s="32">
+        <v>1</v>
+      </c>
+      <c r="K118" s="32">
+        <v>1</v>
+      </c>
+      <c r="L118" s="32">
+        <v>1</v>
+      </c>
+      <c r="M118" s="32">
         <v>1</v>
       </c>
       <c r="N118" s="5" t="s">
@@ -7445,40 +8054,40 @@
       <c r="A119" s="7">
         <v>200123</v>
       </c>
-      <c r="B119" s="20" t="s">
-        <v>298</v>
+      <c r="B119" s="21" t="s">
+        <v>300</v>
       </c>
       <c r="C119" s="7">
         <v>127</v>
       </c>
-      <c r="D119" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E119" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F119" s="25" t="s">
+      <c r="D119" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E119" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F119" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G119" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H119" s="47" t="s">
-        <v>299</v>
+      <c r="H119" s="51" t="s">
+        <v>301</v>
       </c>
       <c r="I119" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="J119" s="37">
-        <v>1</v>
-      </c>
-      <c r="K119" s="37">
-        <v>1</v>
-      </c>
-      <c r="L119" s="37">
-        <v>1</v>
-      </c>
-      <c r="M119" s="37">
+        <v>277</v>
+      </c>
+      <c r="J119" s="39">
+        <v>1</v>
+      </c>
+      <c r="K119" s="39">
+        <v>1</v>
+      </c>
+      <c r="L119" s="39">
+        <v>1</v>
+      </c>
+      <c r="M119" s="39">
         <v>1</v>
       </c>
       <c r="N119" s="5" t="s">
@@ -7489,40 +8098,40 @@
       <c r="A120" s="7">
         <v>200124</v>
       </c>
-      <c r="B120" s="20" t="s">
-        <v>300</v>
+      <c r="B120" s="21" t="s">
+        <v>302</v>
       </c>
       <c r="C120" s="7">
         <v>128</v>
       </c>
-      <c r="D120" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E120" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F120" s="25" t="s">
+      <c r="D120" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E120" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F120" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G120" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H120" s="47" t="s">
-        <v>301</v>
+      <c r="H120" s="51" t="s">
+        <v>303</v>
       </c>
       <c r="I120" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="J120" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="K120" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="L120" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="M120" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="J120" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="K120" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="L120" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="M120" s="30" t="s">
         <v>30</v>
       </c>
       <c r="N120" s="5" t="s">
@@ -7533,40 +8142,40 @@
       <c r="A121" s="7">
         <v>200125</v>
       </c>
-      <c r="B121" s="20" t="s">
-        <v>302</v>
+      <c r="B121" s="21" t="s">
+        <v>304</v>
       </c>
       <c r="C121" s="7">
         <v>129</v>
       </c>
-      <c r="D121" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E121" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F121" s="25" t="s">
+      <c r="D121" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E121" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F121" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G121" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H121" s="47" t="s">
-        <v>303</v>
+      <c r="H121" s="51" t="s">
+        <v>305</v>
       </c>
       <c r="I121" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="J121" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="K121" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="L121" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="M121" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="J121" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="K121" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="L121" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="M121" s="30" t="s">
         <v>30</v>
       </c>
       <c r="N121" s="5" t="s">
@@ -7577,40 +8186,40 @@
       <c r="A122" s="7">
         <v>200126</v>
       </c>
-      <c r="B122" s="20" t="s">
-        <v>304</v>
+      <c r="B122" s="21" t="s">
+        <v>306</v>
       </c>
       <c r="C122" s="7">
         <v>130</v>
       </c>
-      <c r="D122" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E122" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F122" s="25" t="s">
+      <c r="D122" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E122" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F122" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G122" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H122" s="47" t="s">
-        <v>305</v>
+      <c r="H122" s="51" t="s">
+        <v>307</v>
       </c>
       <c r="I122" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="J122" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="K122" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="L122" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="M122" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="J122" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="K122" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="L122" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="M122" s="30" t="s">
         <v>30</v>
       </c>
       <c r="N122" s="5" t="s">
@@ -7621,40 +8230,40 @@
       <c r="A123" s="7">
         <v>200127</v>
       </c>
-      <c r="B123" s="20" t="s">
-        <v>306</v>
+      <c r="B123" s="21" t="s">
+        <v>308</v>
       </c>
       <c r="C123" s="7">
         <v>131</v>
       </c>
-      <c r="D123" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E123" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F123" s="25" t="s">
+      <c r="D123" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E123" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F123" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G123" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H123" s="47" t="s">
-        <v>307</v>
+      <c r="H123" s="51" t="s">
+        <v>309</v>
       </c>
       <c r="I123" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="J123" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="K123" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="L123" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="M123" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="J123" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="K123" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="L123" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="M123" s="30" t="s">
         <v>30</v>
       </c>
       <c r="N123" s="5" t="s">
@@ -7665,40 +8274,40 @@
       <c r="A124" s="7">
         <v>200128</v>
       </c>
-      <c r="B124" s="20" t="s">
-        <v>308</v>
+      <c r="B124" s="21" t="s">
+        <v>310</v>
       </c>
       <c r="C124" s="7">
         <v>132</v>
       </c>
-      <c r="D124" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E124" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F124" s="25" t="s">
+      <c r="D124" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E124" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F124" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G124" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H124" s="47" t="s">
-        <v>309</v>
+      <c r="H124" s="51" t="s">
+        <v>311</v>
       </c>
       <c r="I124" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="J124" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="K124" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="L124" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="M124" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="J124" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K124" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="L124" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="M124" s="41" t="s">
         <v>30</v>
       </c>
       <c r="N124" s="5" t="s">
@@ -7709,40 +8318,40 @@
       <c r="A125" s="7">
         <v>200129</v>
       </c>
-      <c r="B125" s="20" t="s">
-        <v>310</v>
+      <c r="B125" s="21" t="s">
+        <v>312</v>
       </c>
       <c r="C125" s="7">
         <v>133</v>
       </c>
-      <c r="D125" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E125" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F125" s="25" t="s">
+      <c r="D125" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E125" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F125" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G125" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H125" s="47" t="s">
-        <v>311</v>
+      <c r="H125" s="51" t="s">
+        <v>313</v>
       </c>
       <c r="I125" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="J125" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="K125" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="L125" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="M125" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="J125" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K125" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="L125" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="M125" s="41" t="s">
         <v>30</v>
       </c>
       <c r="N125" s="5" t="s">
@@ -7753,40 +8362,40 @@
       <c r="A126" s="7">
         <v>200130</v>
       </c>
-      <c r="B126" s="20" t="s">
-        <v>312</v>
+      <c r="B126" s="21" t="s">
+        <v>314</v>
       </c>
       <c r="C126" s="7">
         <v>134</v>
       </c>
-      <c r="D126" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E126" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F126" s="25" t="s">
+      <c r="D126" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E126" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F126" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G126" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H126" s="47" t="s">
-        <v>313</v>
+      <c r="H126" s="51" t="s">
+        <v>315</v>
       </c>
       <c r="I126" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="J126" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="K126" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="L126" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="M126" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="J126" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K126" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="L126" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="M126" s="41" t="s">
         <v>30</v>
       </c>
       <c r="N126" s="5" t="s">
@@ -7797,40 +8406,40 @@
       <c r="A127" s="7">
         <v>200131</v>
       </c>
-      <c r="B127" s="20" t="s">
-        <v>314</v>
+      <c r="B127" s="21" t="s">
+        <v>316</v>
       </c>
       <c r="C127" s="7">
         <v>135</v>
       </c>
-      <c r="D127" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E127" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F127" s="25" t="s">
+      <c r="D127" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E127" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F127" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G127" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H127" s="47" t="s">
-        <v>315</v>
+      <c r="H127" s="51" t="s">
+        <v>317</v>
       </c>
       <c r="I127" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="J127" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="K127" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="L127" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="M127" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="J127" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K127" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="L127" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="M127" s="41" t="s">
         <v>30</v>
       </c>
       <c r="N127" s="5" t="s">
@@ -7841,40 +8450,40 @@
       <c r="A128" s="7">
         <v>200132</v>
       </c>
-      <c r="B128" s="20" t="s">
-        <v>316</v>
+      <c r="B128" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="C128" s="7">
         <v>136</v>
       </c>
-      <c r="D128" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E128" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F128" s="25" t="s">
+      <c r="D128" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E128" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F128" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G128" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H128" s="47" t="s">
-        <v>317</v>
+      <c r="H128" s="51" t="s">
+        <v>319</v>
       </c>
       <c r="I128" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="J128" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="K128" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="L128" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="M128" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="J128" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K128" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="L128" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="M128" s="41" t="s">
         <v>30</v>
       </c>
       <c r="N128" s="5" t="s">
@@ -7885,40 +8494,40 @@
       <c r="A129" s="7">
         <v>200133</v>
       </c>
-      <c r="B129" s="20" t="s">
-        <v>318</v>
+      <c r="B129" s="21" t="s">
+        <v>320</v>
       </c>
       <c r="C129" s="7">
         <v>137</v>
       </c>
-      <c r="D129" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E129" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F129" s="25" t="s">
+      <c r="D129" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E129" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F129" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G129" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H129" s="47" t="s">
-        <v>319</v>
+      <c r="H129" s="51" t="s">
+        <v>321</v>
       </c>
       <c r="I129" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="J129" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="K129" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="L129" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="M129" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="J129" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K129" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="L129" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="M129" s="41" t="s">
         <v>30</v>
       </c>
       <c r="N129" s="5" t="s">
@@ -7929,40 +8538,40 @@
       <c r="A130" s="7">
         <v>200134</v>
       </c>
-      <c r="B130" s="20" t="s">
-        <v>320</v>
+      <c r="B130" s="21" t="s">
+        <v>322</v>
       </c>
       <c r="C130" s="7">
         <v>138</v>
       </c>
-      <c r="D130" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E130" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F130" s="25" t="s">
+      <c r="D130" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E130" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F130" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G130" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H130" s="47" t="s">
-        <v>321</v>
+      <c r="H130" s="51" t="s">
+        <v>323</v>
       </c>
       <c r="I130" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="J130" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="K130" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="L130" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="M130" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="J130" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K130" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="L130" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="M130" s="41" t="s">
         <v>30</v>
       </c>
       <c r="N130" s="5" t="s">
@@ -7973,40 +8582,40 @@
       <c r="A131" s="7">
         <v>200135</v>
       </c>
-      <c r="B131" s="20" t="s">
-        <v>322</v>
+      <c r="B131" s="21" t="s">
+        <v>324</v>
       </c>
       <c r="C131" s="7">
         <v>139</v>
       </c>
-      <c r="D131" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E131" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F131" s="25" t="s">
+      <c r="D131" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E131" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F131" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G131" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H131" s="47" t="s">
-        <v>323</v>
+      <c r="H131" s="51" t="s">
+        <v>325</v>
       </c>
       <c r="I131" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="J131" s="30">
-        <v>1</v>
-      </c>
-      <c r="K131" s="30">
-        <v>1</v>
-      </c>
-      <c r="L131" s="30">
-        <v>1</v>
-      </c>
-      <c r="M131" s="30">
+        <v>277</v>
+      </c>
+      <c r="J131" s="32">
+        <v>1</v>
+      </c>
+      <c r="K131" s="32">
+        <v>1</v>
+      </c>
+      <c r="L131" s="32">
+        <v>1</v>
+      </c>
+      <c r="M131" s="32">
         <v>1</v>
       </c>
       <c r="N131" s="5" t="s">
@@ -8017,40 +8626,40 @@
       <c r="A132" s="7">
         <v>200136</v>
       </c>
-      <c r="B132" s="20" t="s">
-        <v>324</v>
+      <c r="B132" s="21" t="s">
+        <v>326</v>
       </c>
       <c r="C132" s="7">
         <v>140</v>
       </c>
-      <c r="D132" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E132" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F132" s="25" t="s">
+      <c r="D132" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E132" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F132" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G132" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H132" s="47" t="s">
-        <v>325</v>
+      <c r="H132" s="51" t="s">
+        <v>327</v>
       </c>
       <c r="I132" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="J132" s="30">
-        <v>1</v>
-      </c>
-      <c r="K132" s="30">
-        <v>1</v>
-      </c>
-      <c r="L132" s="30">
-        <v>1</v>
-      </c>
-      <c r="M132" s="30">
+        <v>277</v>
+      </c>
+      <c r="J132" s="32">
+        <v>1</v>
+      </c>
+      <c r="K132" s="32">
+        <v>1</v>
+      </c>
+      <c r="L132" s="32">
+        <v>1</v>
+      </c>
+      <c r="M132" s="32">
         <v>1</v>
       </c>
       <c r="N132" s="5" t="s">
@@ -8061,40 +8670,40 @@
       <c r="A133" s="7">
         <v>200137</v>
       </c>
-      <c r="B133" s="20" t="s">
-        <v>326</v>
+      <c r="B133" s="21" t="s">
+        <v>328</v>
       </c>
       <c r="C133" s="7">
         <v>141</v>
       </c>
-      <c r="D133" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E133" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F133" s="25" t="s">
+      <c r="D133" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E133" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F133" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G133" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H133" s="47" t="s">
-        <v>327</v>
+      <c r="H133" s="51" t="s">
+        <v>329</v>
       </c>
       <c r="I133" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="J133" s="30">
-        <v>1</v>
-      </c>
-      <c r="K133" s="30">
-        <v>1</v>
-      </c>
-      <c r="L133" s="30">
-        <v>1</v>
-      </c>
-      <c r="M133" s="30">
+        <v>277</v>
+      </c>
+      <c r="J133" s="32">
+        <v>1</v>
+      </c>
+      <c r="K133" s="32">
+        <v>1</v>
+      </c>
+      <c r="L133" s="32">
+        <v>1</v>
+      </c>
+      <c r="M133" s="32">
         <v>1</v>
       </c>
       <c r="N133" s="5" t="s">
@@ -8105,40 +8714,40 @@
       <c r="A134" s="7">
         <v>200138</v>
       </c>
-      <c r="B134" s="20" t="s">
-        <v>328</v>
+      <c r="B134" s="21" t="s">
+        <v>330</v>
       </c>
       <c r="C134" s="7">
         <v>142</v>
       </c>
-      <c r="D134" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E134" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F134" s="25" t="s">
+      <c r="D134" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E134" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F134" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G134" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H134" s="47" t="s">
-        <v>329</v>
+      <c r="H134" s="51" t="s">
+        <v>331</v>
       </c>
       <c r="I134" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="J134" s="30">
-        <v>1</v>
-      </c>
-      <c r="K134" s="30">
-        <v>1</v>
-      </c>
-      <c r="L134" s="30">
-        <v>1</v>
-      </c>
-      <c r="M134" s="30">
+        <v>277</v>
+      </c>
+      <c r="J134" s="32">
+        <v>1</v>
+      </c>
+      <c r="K134" s="32">
+        <v>1</v>
+      </c>
+      <c r="L134" s="32">
+        <v>1</v>
+      </c>
+      <c r="M134" s="32">
         <v>1</v>
       </c>
       <c r="N134" s="5" t="s">
@@ -8149,40 +8758,40 @@
       <c r="A135" s="7">
         <v>200139</v>
       </c>
-      <c r="B135" s="20" t="s">
-        <v>330</v>
+      <c r="B135" s="21" t="s">
+        <v>332</v>
       </c>
       <c r="C135" s="7">
         <v>143</v>
       </c>
-      <c r="D135" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E135" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F135" s="25" t="s">
+      <c r="D135" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E135" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F135" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G135" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H135" s="47" t="s">
-        <v>331</v>
+      <c r="H135" s="51" t="s">
+        <v>333</v>
       </c>
       <c r="I135" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="J135" s="37">
-        <v>1</v>
-      </c>
-      <c r="K135" s="37">
-        <v>1</v>
-      </c>
-      <c r="L135" s="37">
-        <v>1</v>
-      </c>
-      <c r="M135" s="37">
+        <v>277</v>
+      </c>
+      <c r="J135" s="39">
+        <v>1</v>
+      </c>
+      <c r="K135" s="39">
+        <v>1</v>
+      </c>
+      <c r="L135" s="39">
+        <v>1</v>
+      </c>
+      <c r="M135" s="39">
         <v>1</v>
       </c>
       <c r="N135" s="5" t="s">
@@ -8193,40 +8802,40 @@
       <c r="A136" s="7">
         <v>200140</v>
       </c>
-      <c r="B136" s="20" t="s">
-        <v>332</v>
+      <c r="B136" s="21" t="s">
+        <v>334</v>
       </c>
       <c r="C136" s="7">
         <v>144</v>
       </c>
-      <c r="D136" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E136" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F136" s="25" t="s">
+      <c r="D136" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E136" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F136" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G136" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H136" s="48" t="s">
-        <v>333</v>
+      <c r="H136" s="52" t="s">
+        <v>335</v>
       </c>
       <c r="I136" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="J136" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="K136" s="39">
-        <v>1</v>
-      </c>
-      <c r="L136" s="37">
+        <v>336</v>
+      </c>
+      <c r="J136" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="K136" s="41">
+        <v>1</v>
+      </c>
+      <c r="L136" s="39">
         <v>0</v>
       </c>
-      <c r="M136" s="37">
+      <c r="M136" s="39">
         <v>1</v>
       </c>
       <c r="N136" s="5" t="s">
@@ -8237,40 +8846,40 @@
       <c r="A137" s="7">
         <v>200141</v>
       </c>
-      <c r="B137" s="20" t="s">
-        <v>335</v>
+      <c r="B137" s="21" t="s">
+        <v>337</v>
       </c>
       <c r="C137" s="7">
         <v>145</v>
       </c>
-      <c r="D137" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E137" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F137" s="25" t="s">
+      <c r="D137" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E137" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F137" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G137" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H137" s="45" t="s">
-        <v>336</v>
+      <c r="H137" s="49" t="s">
+        <v>338</v>
       </c>
       <c r="I137" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="J137" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="K137" s="34">
-        <v>1</v>
-      </c>
-      <c r="L137" s="34">
-        <v>1</v>
-      </c>
-      <c r="M137" s="34">
+      <c r="J137" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="K137" s="36">
+        <v>1</v>
+      </c>
+      <c r="L137" s="36">
+        <v>1</v>
+      </c>
+      <c r="M137" s="36">
         <v>1</v>
       </c>
       <c r="N137" s="5" t="s">
@@ -8281,40 +8890,40 @@
       <c r="A138" s="7">
         <v>200142</v>
       </c>
-      <c r="B138" s="20" t="s">
-        <v>337</v>
+      <c r="B138" s="21" t="s">
+        <v>339</v>
       </c>
       <c r="C138" s="7">
         <v>146</v>
       </c>
-      <c r="D138" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E138" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F138" s="25" t="s">
+      <c r="D138" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E138" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F138" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G138" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H138" s="45" t="s">
-        <v>338</v>
+      <c r="H138" s="49" t="s">
+        <v>340</v>
       </c>
       <c r="I138" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="J138" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="K138" s="34">
-        <v>1</v>
-      </c>
-      <c r="L138" s="34">
-        <v>1</v>
-      </c>
-      <c r="M138" s="34">
+        <v>341</v>
+      </c>
+      <c r="J138" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="K138" s="36">
+        <v>1</v>
+      </c>
+      <c r="L138" s="36">
+        <v>1</v>
+      </c>
+      <c r="M138" s="36">
         <v>1</v>
       </c>
       <c r="N138" s="5" t="s">
@@ -8325,29 +8934,29 @@
       <c r="A139" s="7">
         <v>200143</v>
       </c>
-      <c r="B139" s="20" t="s">
-        <v>340</v>
+      <c r="B139" s="21" t="s">
+        <v>342</v>
       </c>
       <c r="C139" s="7">
         <v>147</v>
       </c>
-      <c r="D139" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E139" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F139" s="25" t="s">
+      <c r="D139" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E139" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F139" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G139" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H139" s="45" t="s">
-        <v>341</v>
+      <c r="H139" s="49" t="s">
+        <v>343</v>
       </c>
       <c r="I139" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="J139" s="7">
         <v>0</v>
@@ -8365,9 +8974,54 @@
         <v>31</v>
       </c>
     </row>
+    <row r="140" s="7" customFormat="1" spans="1:14">
+      <c r="A140" s="7">
+        <v>200144</v>
+      </c>
+      <c r="B140" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="C140" s="7">
+        <v>148</v>
+      </c>
+      <c r="D140" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E140" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F140" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H140" s="49" t="s">
+        <v>346</v>
+      </c>
+      <c r="I140" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="J140" s="7">
+        <v>1</v>
+      </c>
+      <c r="K140" s="7">
+        <v>0</v>
+      </c>
+      <c r="L140" s="7">
+        <v>0</v>
+      </c>
+      <c r="M140" s="7">
+        <v>0</v>
+      </c>
+      <c r="N140" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:V139"/>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <autoFilter ref="A1:V139">
+    <extLst/>
+  </autoFilter>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1">
       <formula1>"等于,大于,小于,大于等于,小于等于"</formula1>
@@ -8376,21 +9030,22 @@
       <formula1>"'==,&gt;,&lt;,&gt;=,&lt;="</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="18.75" customWidth="1"/>
     <col min="2" max="2" width="11.875" customWidth="1"/>
@@ -8402,12 +9057,12 @@
     <col min="12" max="12" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="24" customHeight="1">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="24" customHeight="1" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -8445,17 +9100,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="21" customHeight="1">
+    <row r="4" ht="21" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/customerView/客户视图.xlsx
+++ b/src/customerView/客户视图.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24EB1A5-696B-458B-A35D-EED9BC8360CF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="客户视图" sheetId="1" r:id="rId1"/>
     <sheet name="填写说明" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户视图!$A$1:$V$139</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户视图!$A$1:$V$140</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="351">
   <si>
     <t>CV 客户视图</t>
   </si>
@@ -1097,18 +1103,20 @@
   <si>
     <t>同一交易码如果多个条件且关系 此项 写成数字相同  否则都写成不同数字</t>
   </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1152,81 +1160,11 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1235,72 +1173,20 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1309,7 +1195,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799584948271126"/>
+        <fgColor theme="3" tint="0.79955442976165048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1325,194 +1211,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1535,253 +1235,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1802,9 +1260,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1827,9 +1282,6 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1866,79 +1318,34 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2196,21 +1603,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="G144" sqref="G144"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.375" style="7" customWidth="1"/>
     <col min="2" max="2" width="15" style="7" customWidth="1"/>
@@ -2227,7 +1633,7 @@
     <col min="23" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="60.75" spans="1:23">
+    <row r="1" spans="1:23" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2298,7 +1704,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>200001</v>
       </c>
@@ -2323,7 +1729,7 @@
       <c r="H2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="13" t="s">
         <v>29</v>
       </c>
       <c r="J2" s="11" t="s">
@@ -2345,12 +1751,12 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
-      <c r="S2" s="16"/>
+      <c r="S2" s="15"/>
       <c r="T2" s="10"/>
       <c r="U2" s="10"/>
       <c r="V2" s="10"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>200001</v>
       </c>
@@ -2375,7 +1781,7 @@
       <c r="H3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>33</v>
       </c>
       <c r="J3" s="11" t="s">
@@ -2397,12 +1803,12 @@
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
-      <c r="S3" s="16"/>
+      <c r="S3" s="15"/>
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
       <c r="V3" s="10"/>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>200002</v>
       </c>
@@ -2449,7 +1855,7 @@
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
-      <c r="S4" s="16"/>
+      <c r="S4" s="15"/>
       <c r="T4" s="10"/>
       <c r="U4" s="10"/>
       <c r="V4" s="10"/>
@@ -2457,7 +1863,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>200003</v>
       </c>
@@ -2504,12 +1910,12 @@
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
-      <c r="S5" s="16"/>
+      <c r="S5" s="15"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>200004</v>
       </c>
@@ -2556,12 +1962,12 @@
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
-      <c r="S6" s="16"/>
+      <c r="S6" s="15"/>
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>200005</v>
       </c>
@@ -2608,12 +2014,12 @@
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
-      <c r="S7" s="16"/>
+      <c r="S7" s="15"/>
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>200006</v>
       </c>
@@ -2660,12 +2066,12 @@
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
-      <c r="S8" s="16"/>
+      <c r="S8" s="15"/>
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
       <c r="V8" s="10"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>200007</v>
       </c>
@@ -2709,15 +2115,15 @@
         <v>31</v>
       </c>
       <c r="O9" s="10"/>
-      <c r="P9" s="15"/>
+      <c r="P9" s="14"/>
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
-      <c r="S9" s="16"/>
+      <c r="S9" s="15"/>
       <c r="T9" s="10"/>
       <c r="U9" s="10"/>
-      <c r="V9" s="15"/>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="V9" s="14"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>200008</v>
       </c>
@@ -2761,15 +2167,15 @@
         <v>31</v>
       </c>
       <c r="O10" s="10"/>
-      <c r="P10" s="15"/>
+      <c r="P10" s="14"/>
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
-      <c r="S10" s="16"/>
+      <c r="S10" s="15"/>
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
       <c r="V10" s="10"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>200009</v>
       </c>
@@ -2816,12 +2222,12 @@
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
-      <c r="S11" s="16"/>
+      <c r="S11" s="15"/>
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
       <c r="V11" s="10"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>200010</v>
       </c>
@@ -2868,12 +2274,12 @@
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
-      <c r="S12" s="16"/>
+      <c r="S12" s="15"/>
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
       <c r="V12" s="10"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>200011</v>
       </c>
@@ -2920,12 +2326,12 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
-      <c r="S13" s="16"/>
+      <c r="S13" s="15"/>
       <c r="T13" s="10"/>
       <c r="U13" s="10"/>
       <c r="V13" s="10"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>200012</v>
       </c>
@@ -2972,12 +2378,12 @@
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
-      <c r="S14" s="16"/>
+      <c r="S14" s="15"/>
       <c r="T14" s="10"/>
       <c r="U14" s="10"/>
       <c r="V14" s="10"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>200013</v>
       </c>
@@ -3024,12 +2430,12 @@
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
-      <c r="S15" s="16"/>
+      <c r="S15" s="15"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>200014</v>
       </c>
@@ -3076,12 +2482,12 @@
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
-      <c r="S16" s="16"/>
+      <c r="S16" s="15"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>200015</v>
       </c>
@@ -3128,12 +2534,12 @@
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
-      <c r="S17" s="16"/>
+      <c r="S17" s="15"/>
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
       <c r="V17" s="10"/>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>200016</v>
       </c>
@@ -3180,12 +2586,12 @@
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
-      <c r="S18" s="16"/>
+      <c r="S18" s="15"/>
       <c r="T18" s="10"/>
       <c r="U18" s="10"/>
       <c r="V18" s="10"/>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>200017</v>
       </c>
@@ -3232,12 +2638,12 @@
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
-      <c r="S19" s="16"/>
+      <c r="S19" s="15"/>
       <c r="T19" s="10"/>
       <c r="U19" s="10"/>
       <c r="V19" s="10"/>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>200018</v>
       </c>
@@ -3284,12 +2690,12 @@
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
-      <c r="S20" s="16"/>
+      <c r="S20" s="15"/>
       <c r="T20" s="10"/>
       <c r="U20" s="10"/>
       <c r="V20" s="10"/>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>200019</v>
       </c>
@@ -3336,12 +2742,12 @@
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
-      <c r="S21" s="16"/>
+      <c r="S21" s="15"/>
       <c r="T21" s="10"/>
       <c r="U21" s="10"/>
       <c r="V21" s="10"/>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>200020</v>
       </c>
@@ -3388,12 +2794,12 @@
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
-      <c r="S22" s="16"/>
+      <c r="S22" s="15"/>
       <c r="T22" s="10"/>
       <c r="U22" s="10"/>
       <c r="V22" s="10"/>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>200021</v>
       </c>
@@ -3440,12 +2846,12 @@
       <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
       <c r="R23" s="10"/>
-      <c r="S23" s="16"/>
+      <c r="S23" s="15"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>200022</v>
       </c>
@@ -3479,11 +2885,11 @@
       <c r="K24" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L24" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="11" t="s">
-        <v>30</v>
+      <c r="L24" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="M24" s="50" t="s">
+        <v>350</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>31</v>
@@ -3492,12 +2898,12 @@
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
-      <c r="S24" s="16"/>
+      <c r="S24" s="15"/>
       <c r="T24" s="10"/>
       <c r="U24" s="10"/>
       <c r="V24" s="10"/>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>200023</v>
       </c>
@@ -3531,11 +2937,11 @@
       <c r="K25" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L25" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="M25" s="11" t="s">
-        <v>30</v>
+      <c r="L25" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="M25" s="50" t="s">
+        <v>350</v>
       </c>
       <c r="N25" s="10" t="s">
         <v>31</v>
@@ -3544,12 +2950,12 @@
       <c r="P25" s="10"/>
       <c r="Q25" s="10"/>
       <c r="R25" s="10"/>
-      <c r="S25" s="16"/>
+      <c r="S25" s="15"/>
       <c r="T25" s="10"/>
       <c r="U25" s="10"/>
       <c r="V25" s="10"/>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>200024</v>
       </c>
@@ -3583,11 +2989,11 @@
       <c r="K26" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L26" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="M26" s="11" t="s">
-        <v>30</v>
+      <c r="L26" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="M26" s="50" t="s">
+        <v>350</v>
       </c>
       <c r="N26" s="10" t="s">
         <v>31</v>
@@ -3596,12 +3002,12 @@
       <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
       <c r="R26" s="10"/>
-      <c r="S26" s="16"/>
+      <c r="S26" s="15"/>
       <c r="T26" s="10"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>200025</v>
       </c>
@@ -3635,11 +3041,11 @@
       <c r="K27" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L27" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="M27" s="11" t="s">
-        <v>30</v>
+      <c r="L27" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="M27" s="50" t="s">
+        <v>350</v>
       </c>
       <c r="N27" s="10" t="s">
         <v>31</v>
@@ -3648,12 +3054,12 @@
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
       <c r="R27" s="10"/>
-      <c r="S27" s="16"/>
+      <c r="S27" s="15"/>
       <c r="T27" s="10"/>
       <c r="U27" s="10"/>
       <c r="V27" s="10"/>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>200026</v>
       </c>
@@ -3687,11 +3093,11 @@
       <c r="K28" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L28" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="M28" s="11" t="s">
-        <v>30</v>
+      <c r="L28" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="M28" s="50" t="s">
+        <v>350</v>
       </c>
       <c r="N28" s="10" t="s">
         <v>31</v>
@@ -3700,12 +3106,12 @@
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
       <c r="R28" s="10"/>
-      <c r="S28" s="16"/>
+      <c r="S28" s="15"/>
       <c r="T28" s="10"/>
       <c r="U28" s="10"/>
       <c r="V28" s="10"/>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>200027</v>
       </c>
@@ -3739,11 +3145,11 @@
       <c r="K29" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L29" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="M29" s="11" t="s">
-        <v>30</v>
+      <c r="L29" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="M29" s="50" t="s">
+        <v>350</v>
       </c>
       <c r="N29" s="10" t="s">
         <v>31</v>
@@ -3752,12 +3158,12 @@
       <c r="P29" s="10"/>
       <c r="Q29" s="10"/>
       <c r="R29" s="10"/>
-      <c r="S29" s="16"/>
+      <c r="S29" s="15"/>
       <c r="T29" s="10"/>
       <c r="U29" s="10"/>
       <c r="V29" s="10"/>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>200028</v>
       </c>
@@ -3804,7 +3210,7 @@
       <c r="P30" s="10"/>
       <c r="Q30" s="10"/>
       <c r="R30" s="10"/>
-      <c r="S30" s="16"/>
+      <c r="S30" s="15"/>
       <c r="T30" s="10"/>
       <c r="U30" s="10"/>
       <c r="V30" s="10"/>
@@ -3812,7 +3218,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
         <v>200029</v>
       </c>
@@ -3834,7 +3240,7 @@
       <c r="G31" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H31" s="45" t="s">
+      <c r="H31" s="42" t="s">
         <v>98</v>
       </c>
       <c r="I31" s="11" t="s">
@@ -3859,7 +3265,7 @@
       <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
       <c r="R31" s="10"/>
-      <c r="S31" s="16"/>
+      <c r="S31" s="15"/>
       <c r="T31" s="10"/>
       <c r="U31" s="10"/>
       <c r="V31" s="10"/>
@@ -3867,7 +3273,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="10">
         <v>200030</v>
       </c>
@@ -3889,7 +3295,7 @@
       <c r="G32" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H32" s="45" t="s">
+      <c r="H32" s="42" t="s">
         <v>100</v>
       </c>
       <c r="I32" s="11" t="s">
@@ -3914,12 +3320,12 @@
       <c r="P32" s="10"/>
       <c r="Q32" s="10"/>
       <c r="R32" s="10"/>
-      <c r="S32" s="16"/>
+      <c r="S32" s="15"/>
       <c r="T32" s="10"/>
       <c r="U32" s="10"/>
       <c r="V32" s="10"/>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
         <v>200031</v>
       </c>
@@ -3941,7 +3347,7 @@
       <c r="G33" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H33" s="45" t="s">
+      <c r="H33" s="42" t="s">
         <v>102</v>
       </c>
       <c r="I33" s="11" t="s">
@@ -3966,7 +3372,7 @@
       <c r="P33" s="10"/>
       <c r="Q33" s="10"/>
       <c r="R33" s="10"/>
-      <c r="S33" s="16"/>
+      <c r="S33" s="15"/>
       <c r="T33" s="10"/>
       <c r="U33" s="10"/>
       <c r="V33" s="10"/>
@@ -3974,7 +3380,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="10">
         <v>200032</v>
       </c>
@@ -4021,7 +3427,7 @@
       <c r="P34" s="10"/>
       <c r="Q34" s="10"/>
       <c r="R34" s="10"/>
-      <c r="S34" s="16"/>
+      <c r="S34" s="15"/>
       <c r="T34" s="10"/>
       <c r="U34" s="10"/>
       <c r="V34" s="10"/>
@@ -4029,7 +3435,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="10">
         <v>200033</v>
       </c>
@@ -4076,12 +3482,12 @@
       <c r="P35" s="10"/>
       <c r="Q35" s="10"/>
       <c r="R35" s="10"/>
-      <c r="S35" s="16"/>
+      <c r="S35" s="15"/>
       <c r="T35" s="10"/>
       <c r="U35" s="10"/>
       <c r="V35" s="10"/>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="10">
         <v>200034</v>
       </c>
@@ -4128,7 +3534,7 @@
       <c r="P36" s="10"/>
       <c r="Q36" s="10"/>
       <c r="R36" s="10"/>
-      <c r="S36" s="16"/>
+      <c r="S36" s="15"/>
       <c r="T36" s="10"/>
       <c r="U36" s="10"/>
       <c r="V36" s="10"/>
@@ -4136,7 +3542,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
         <v>200035</v>
       </c>
@@ -4183,7 +3589,7 @@
       <c r="P37" s="10"/>
       <c r="Q37" s="10"/>
       <c r="R37" s="10"/>
-      <c r="S37" s="16"/>
+      <c r="S37" s="15"/>
       <c r="T37" s="10"/>
       <c r="U37" s="10"/>
       <c r="V37" s="10"/>
@@ -4191,7 +3597,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
         <v>200036</v>
       </c>
@@ -4238,12 +3644,12 @@
       <c r="P38" s="10"/>
       <c r="Q38" s="10"/>
       <c r="R38" s="10"/>
-      <c r="S38" s="16"/>
+      <c r="S38" s="15"/>
       <c r="T38" s="10"/>
       <c r="U38" s="10"/>
       <c r="V38" s="10"/>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="10">
         <v>200037</v>
       </c>
@@ -4290,7 +3696,7 @@
       <c r="P39" s="10"/>
       <c r="Q39" s="10"/>
       <c r="R39" s="10"/>
-      <c r="S39" s="16"/>
+      <c r="S39" s="15"/>
       <c r="T39" s="10"/>
       <c r="U39" s="10"/>
       <c r="V39" s="10"/>
@@ -4298,7 +3704,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="10">
         <v>200038</v>
       </c>
@@ -4345,12 +3751,12 @@
       <c r="P40" s="10"/>
       <c r="Q40" s="10"/>
       <c r="R40" s="10"/>
-      <c r="S40" s="16"/>
+      <c r="S40" s="15"/>
       <c r="T40" s="10"/>
       <c r="U40" s="10"/>
       <c r="V40" s="10"/>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="10">
         <v>200039</v>
       </c>
@@ -4397,7 +3803,7 @@
       <c r="P41" s="10"/>
       <c r="Q41" s="10"/>
       <c r="R41" s="10"/>
-      <c r="S41" s="16"/>
+      <c r="S41" s="15"/>
       <c r="T41" s="10"/>
       <c r="U41" s="10"/>
       <c r="V41" s="10"/>
@@ -4405,7 +3811,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="10">
         <v>200040</v>
       </c>
@@ -4452,7 +3858,7 @@
       <c r="P42" s="10"/>
       <c r="Q42" s="10"/>
       <c r="R42" s="10"/>
-      <c r="S42" s="16"/>
+      <c r="S42" s="15"/>
       <c r="T42" s="10"/>
       <c r="U42" s="10"/>
       <c r="V42" s="10"/>
@@ -4460,7 +3866,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="10">
         <v>200041</v>
       </c>
@@ -4507,7 +3913,7 @@
       <c r="P43" s="10"/>
       <c r="Q43" s="10"/>
       <c r="R43" s="10"/>
-      <c r="S43" s="16"/>
+      <c r="S43" s="15"/>
       <c r="T43" s="10"/>
       <c r="U43" s="10"/>
       <c r="V43" s="10"/>
@@ -4515,7 +3921,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="10">
         <v>200042</v>
       </c>
@@ -4562,12 +3968,12 @@
       <c r="P44" s="10"/>
       <c r="Q44" s="10"/>
       <c r="R44" s="10"/>
-      <c r="S44" s="16"/>
+      <c r="S44" s="15"/>
       <c r="T44" s="10"/>
       <c r="U44" s="10"/>
       <c r="V44" s="10"/>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="10">
         <v>200043</v>
       </c>
@@ -4601,11 +4007,11 @@
       <c r="K45" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L45" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="M45" s="11" t="s">
-        <v>30</v>
+      <c r="L45" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="M45" s="50" t="s">
+        <v>350</v>
       </c>
       <c r="N45" s="10" t="s">
         <v>31</v>
@@ -4614,12 +4020,12 @@
       <c r="P45" s="10"/>
       <c r="Q45" s="10"/>
       <c r="R45" s="10"/>
-      <c r="S45" s="16"/>
+      <c r="S45" s="15"/>
       <c r="T45" s="10"/>
       <c r="U45" s="10"/>
       <c r="V45" s="10"/>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="10">
         <v>200044</v>
       </c>
@@ -4653,11 +4059,11 @@
       <c r="K46" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L46" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="M46" s="11" t="s">
-        <v>30</v>
+      <c r="L46" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="M46" s="50" t="s">
+        <v>350</v>
       </c>
       <c r="N46" s="10" t="s">
         <v>31</v>
@@ -4666,12 +4072,12 @@
       <c r="P46" s="10"/>
       <c r="Q46" s="10"/>
       <c r="R46" s="10"/>
-      <c r="S46" s="16"/>
+      <c r="S46" s="15"/>
       <c r="T46" s="10"/>
       <c r="U46" s="10"/>
       <c r="V46" s="10"/>
     </row>
-    <row r="47" spans="1:22">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="10">
         <v>200045</v>
       </c>
@@ -4705,11 +4111,11 @@
       <c r="K47" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L47" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="M47" s="11" t="s">
-        <v>30</v>
+      <c r="L47" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="M47" s="50" t="s">
+        <v>350</v>
       </c>
       <c r="N47" s="10" t="s">
         <v>31</v>
@@ -4718,12 +4124,12 @@
       <c r="P47" s="10"/>
       <c r="Q47" s="10"/>
       <c r="R47" s="10"/>
-      <c r="S47" s="16"/>
+      <c r="S47" s="15"/>
       <c r="T47" s="10"/>
       <c r="U47" s="10"/>
       <c r="V47" s="10"/>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="10">
         <v>200046</v>
       </c>
@@ -4770,12 +4176,12 @@
       <c r="P48" s="10"/>
       <c r="Q48" s="10"/>
       <c r="R48" s="10"/>
-      <c r="S48" s="16"/>
+      <c r="S48" s="15"/>
       <c r="T48" s="10"/>
       <c r="U48" s="10"/>
       <c r="V48" s="10"/>
     </row>
-    <row r="49" spans="1:22">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="10">
         <v>200047</v>
       </c>
@@ -4822,12 +4228,12 @@
       <c r="P49" s="10"/>
       <c r="Q49" s="10"/>
       <c r="R49" s="10"/>
-      <c r="S49" s="16"/>
+      <c r="S49" s="15"/>
       <c r="T49" s="10"/>
       <c r="U49" s="10"/>
       <c r="V49" s="10"/>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="10">
         <v>200048</v>
       </c>
@@ -4874,12 +4280,12 @@
       <c r="P50" s="10"/>
       <c r="Q50" s="10"/>
       <c r="R50" s="10"/>
-      <c r="S50" s="16"/>
+      <c r="S50" s="15"/>
       <c r="T50" s="10"/>
       <c r="U50" s="10"/>
       <c r="V50" s="10"/>
     </row>
-    <row r="51" spans="1:22">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" s="10">
         <v>200049</v>
       </c>
@@ -4926,12 +4332,12 @@
       <c r="P51" s="10"/>
       <c r="Q51" s="10"/>
       <c r="R51" s="10"/>
-      <c r="S51" s="16"/>
+      <c r="S51" s="15"/>
       <c r="T51" s="10"/>
       <c r="U51" s="10"/>
       <c r="V51" s="10"/>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" s="10">
         <v>200050</v>
       </c>
@@ -4978,12 +4384,12 @@
       <c r="P52" s="10"/>
       <c r="Q52" s="10"/>
       <c r="R52" s="10"/>
-      <c r="S52" s="16"/>
+      <c r="S52" s="15"/>
       <c r="T52" s="10"/>
       <c r="U52" s="10"/>
       <c r="V52" s="10"/>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" s="10">
         <v>200051</v>
       </c>
@@ -5030,12 +4436,12 @@
       <c r="P53" s="10"/>
       <c r="Q53" s="10"/>
       <c r="R53" s="10"/>
-      <c r="S53" s="16"/>
+      <c r="S53" s="15"/>
       <c r="T53" s="10"/>
       <c r="U53" s="10"/>
       <c r="V53" s="10"/>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" s="10">
         <v>200052</v>
       </c>
@@ -5082,7 +4488,7 @@
       <c r="P54" s="10"/>
       <c r="Q54" s="10"/>
       <c r="R54" s="10"/>
-      <c r="S54" s="16"/>
+      <c r="S54" s="15"/>
       <c r="T54" s="10"/>
       <c r="U54" s="10"/>
       <c r="V54" s="10"/>
@@ -5090,7 +4496,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:22">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" s="10">
         <v>200053</v>
       </c>
@@ -5137,12 +4543,12 @@
       <c r="P55" s="10"/>
       <c r="Q55" s="10"/>
       <c r="R55" s="10"/>
-      <c r="S55" s="16"/>
+      <c r="S55" s="15"/>
       <c r="T55" s="10"/>
       <c r="U55" s="10"/>
       <c r="V55" s="10"/>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" s="10">
         <v>200054</v>
       </c>
@@ -5189,12 +4595,12 @@
       <c r="P56" s="10"/>
       <c r="Q56" s="10"/>
       <c r="R56" s="10"/>
-      <c r="S56" s="16"/>
+      <c r="S56" s="15"/>
       <c r="T56" s="10"/>
       <c r="U56" s="10"/>
       <c r="V56" s="10"/>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" s="10">
         <v>200055</v>
       </c>
@@ -5241,7 +4647,7 @@
       <c r="P57" s="10"/>
       <c r="Q57" s="10"/>
       <c r="R57" s="10"/>
-      <c r="S57" s="16"/>
+      <c r="S57" s="15"/>
       <c r="T57" s="10"/>
       <c r="U57" s="10"/>
       <c r="V57" s="10"/>
@@ -5249,7 +4655,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" s="10">
         <v>200056</v>
       </c>
@@ -5296,7 +4702,7 @@
       <c r="P58" s="10"/>
       <c r="Q58" s="10"/>
       <c r="R58" s="10"/>
-      <c r="S58" s="16"/>
+      <c r="S58" s="15"/>
       <c r="T58" s="10"/>
       <c r="U58" s="10"/>
       <c r="V58" s="10"/>
@@ -5304,7 +4710,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:22">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" s="10">
         <v>200057</v>
       </c>
@@ -5351,12 +4757,12 @@
       <c r="P59" s="10"/>
       <c r="Q59" s="10"/>
       <c r="R59" s="10"/>
-      <c r="S59" s="16"/>
+      <c r="S59" s="15"/>
       <c r="T59" s="10"/>
       <c r="U59" s="10"/>
       <c r="V59" s="10"/>
     </row>
-    <row r="60" spans="1:22">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" s="10">
         <v>200058</v>
       </c>
@@ -5403,12 +4809,12 @@
       <c r="P60" s="10"/>
       <c r="Q60" s="10"/>
       <c r="R60" s="10"/>
-      <c r="S60" s="16"/>
+      <c r="S60" s="15"/>
       <c r="T60" s="10"/>
       <c r="U60" s="10"/>
       <c r="V60" s="10"/>
     </row>
-    <row r="61" spans="1:22">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" s="10">
         <v>200059</v>
       </c>
@@ -5455,12 +4861,12 @@
       <c r="P61" s="10"/>
       <c r="Q61" s="10"/>
       <c r="R61" s="10"/>
-      <c r="S61" s="16"/>
+      <c r="S61" s="15"/>
       <c r="T61" s="10"/>
       <c r="U61" s="10"/>
       <c r="V61" s="10"/>
     </row>
-    <row r="62" s="4" customFormat="1" spans="1:23">
+    <row r="62" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>200060</v>
       </c>
@@ -5476,28 +4882,28 @@
       <c r="E62" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F62" s="13" t="s">
+      <c r="F62" s="12" t="s">
         <v>26</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H62" s="46" t="s">
+      <c r="H62" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="I62" s="13" t="s">
+      <c r="I62" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="J62" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K62" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L62" s="13" t="s">
+      <c r="J62" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K62" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L62" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="M62" s="13" t="s">
+      <c r="M62" s="12" t="s">
         <v>46</v>
       </c>
       <c r="N62" s="5" t="s">
@@ -5507,7 +4913,7 @@
       <c r="P62" s="5"/>
       <c r="Q62" s="5"/>
       <c r="R62" s="5"/>
-      <c r="S62" s="17"/>
+      <c r="S62" s="16"/>
       <c r="T62" s="5"/>
       <c r="U62" s="5"/>
       <c r="V62" s="5"/>
@@ -5515,7 +4921,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" s="4" customFormat="1" spans="1:23">
+    <row r="63" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>200061</v>
       </c>
@@ -5531,28 +4937,28 @@
       <c r="E63" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F63" s="13" t="s">
+      <c r="F63" s="12" t="s">
         <v>26</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H63" s="46" t="s">
+      <c r="H63" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="I63" s="13" t="s">
+      <c r="I63" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="J63" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K63" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L63" s="13" t="s">
+      <c r="J63" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K63" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L63" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="M63" s="13" t="s">
+      <c r="M63" s="12" t="s">
         <v>46</v>
       </c>
       <c r="N63" s="5" t="s">
@@ -5562,7 +4968,7 @@
       <c r="P63" s="5"/>
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
-      <c r="S63" s="17"/>
+      <c r="S63" s="16"/>
       <c r="T63" s="5"/>
       <c r="U63" s="5"/>
       <c r="V63" s="5"/>
@@ -5570,7 +4976,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" s="4" customFormat="1" spans="1:23">
+    <row r="64" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>200062</v>
       </c>
@@ -5586,28 +4992,28 @@
       <c r="E64" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F64" s="13" t="s">
+      <c r="F64" s="12" t="s">
         <v>26</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H64" s="46" t="s">
+      <c r="H64" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="I64" s="13" t="s">
+      <c r="I64" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="J64" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K64" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L64" s="13" t="s">
+      <c r="J64" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K64" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L64" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="M64" s="13" t="s">
+      <c r="M64" s="12" t="s">
         <v>46</v>
       </c>
       <c r="N64" s="5" t="s">
@@ -5617,7 +5023,7 @@
       <c r="P64" s="5"/>
       <c r="Q64" s="5"/>
       <c r="R64" s="5"/>
-      <c r="S64" s="17"/>
+      <c r="S64" s="16"/>
       <c r="T64" s="5"/>
       <c r="U64" s="5"/>
       <c r="V64" s="5"/>
@@ -5625,7 +5031,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" s="4" customFormat="1" spans="1:23">
+    <row r="65" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>200063</v>
       </c>
@@ -5641,28 +5047,28 @@
       <c r="E65" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F65" s="13" t="s">
+      <c r="F65" s="12" t="s">
         <v>26</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H65" s="46" t="s">
+      <c r="H65" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="I65" s="13" t="s">
+      <c r="I65" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="J65" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K65" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L65" s="13" t="s">
+      <c r="J65" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K65" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L65" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="M65" s="13" t="s">
+      <c r="M65" s="12" t="s">
         <v>46</v>
       </c>
       <c r="N65" s="5" t="s">
@@ -5672,7 +5078,7 @@
       <c r="P65" s="5"/>
       <c r="Q65" s="5"/>
       <c r="R65" s="5"/>
-      <c r="S65" s="17"/>
+      <c r="S65" s="16"/>
       <c r="T65" s="5"/>
       <c r="U65" s="5"/>
       <c r="V65" s="5"/>
@@ -5680,7 +5086,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" s="4" customFormat="1" spans="1:23">
+    <row r="66" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>200064</v>
       </c>
@@ -5696,28 +5102,28 @@
       <c r="E66" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F66" s="13" t="s">
+      <c r="F66" s="12" t="s">
         <v>26</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H66" s="46" t="s">
+      <c r="H66" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="I66" s="13" t="s">
+      <c r="I66" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="J66" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K66" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L66" s="13" t="s">
+      <c r="J66" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K66" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L66" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="M66" s="13" t="s">
+      <c r="M66" s="12" t="s">
         <v>46</v>
       </c>
       <c r="N66" s="5" t="s">
@@ -5727,7 +5133,7 @@
       <c r="P66" s="5"/>
       <c r="Q66" s="5"/>
       <c r="R66" s="5"/>
-      <c r="S66" s="17"/>
+      <c r="S66" s="16"/>
       <c r="T66" s="5"/>
       <c r="U66" s="5"/>
       <c r="V66" s="5"/>
@@ -5735,7 +5141,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" s="4" customFormat="1" spans="1:22">
+    <row r="67" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>200065</v>
       </c>
@@ -5751,28 +5157,28 @@
       <c r="E67" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F67" s="13" t="s">
+      <c r="F67" s="12" t="s">
         <v>26</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H67" s="46" t="s">
+      <c r="H67" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="I67" s="13" t="s">
+      <c r="I67" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="J67" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K67" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L67" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="M67" s="13" t="s">
+      <c r="J67" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K67" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L67" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M67" s="12" t="s">
         <v>30</v>
       </c>
       <c r="N67" s="5" t="s">
@@ -5782,12 +5188,12 @@
       <c r="P67" s="5"/>
       <c r="Q67" s="5"/>
       <c r="R67" s="5"/>
-      <c r="S67" s="17"/>
+      <c r="S67" s="16"/>
       <c r="T67" s="5"/>
       <c r="U67" s="5"/>
       <c r="V67" s="5"/>
     </row>
-    <row r="68" s="5" customFormat="1" spans="1:14">
+    <row r="68" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>200066</v>
       </c>
@@ -5803,35 +5209,35 @@
       <c r="E68" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F68" s="13" t="s">
+      <c r="F68" s="12" t="s">
         <v>26</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H68" s="47" t="s">
+      <c r="H68" s="44" t="s">
         <v>176</v>
       </c>
       <c r="I68" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="J68" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="K68" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="L68" s="13" t="s">
+      <c r="J68" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="K68" s="50" t="s">
+        <v>349</v>
+      </c>
+      <c r="L68" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="M68" s="13" t="s">
-        <v>30</v>
+      <c r="M68" s="50" t="s">
+        <v>350</v>
       </c>
       <c r="N68" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="69" s="5" customFormat="1" spans="1:14">
+    <row r="69" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>200067</v>
       </c>
@@ -5847,35 +5253,35 @@
       <c r="E69" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F69" s="13" t="s">
+      <c r="F69" s="12" t="s">
         <v>26</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H69" s="47" t="s">
+      <c r="H69" s="44" t="s">
         <v>180</v>
       </c>
       <c r="I69" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="J69" s="13" t="s">
+      <c r="J69" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="K69" s="13" t="s">
+      <c r="K69" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="L69" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="M69" s="13" t="s">
+      <c r="L69" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M69" s="12" t="s">
         <v>30</v>
       </c>
       <c r="N69" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="70" s="5" customFormat="1" spans="1:14">
+    <row r="70" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>200068</v>
       </c>
@@ -5891,35 +5297,35 @@
       <c r="E70" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F70" s="13" t="s">
+      <c r="F70" s="12" t="s">
         <v>26</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H70" s="47" t="s">
+      <c r="H70" s="44" t="s">
         <v>182</v>
       </c>
       <c r="I70" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="J70" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K70" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L70" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="M70" s="13" t="s">
-        <v>30</v>
+      <c r="J70" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K70" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L70" s="50" t="s">
+        <v>350</v>
+      </c>
+      <c r="M70" s="50" t="s">
+        <v>350</v>
       </c>
       <c r="N70" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="71" s="5" customFormat="1" spans="1:14">
+    <row r="71" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>200069</v>
       </c>
@@ -5935,35 +5341,35 @@
       <c r="E71" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F71" s="13" t="s">
+      <c r="F71" s="12" t="s">
         <v>26</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H71" s="47" t="s">
+      <c r="H71" s="44" t="s">
         <v>182</v>
       </c>
       <c r="I71" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="J71" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K71" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L71" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="M71" s="13" t="s">
-        <v>30</v>
+      <c r="J71" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K71" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L71" s="50" t="s">
+        <v>350</v>
+      </c>
+      <c r="M71" s="50" t="s">
+        <v>350</v>
       </c>
       <c r="N71" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="72" s="5" customFormat="1" spans="1:14">
+    <row r="72" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>200070</v>
       </c>
@@ -5979,35 +5385,35 @@
       <c r="E72" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F72" s="13" t="s">
+      <c r="F72" s="12" t="s">
         <v>26</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H72" s="47" t="s">
+      <c r="H72" s="44" t="s">
         <v>187</v>
       </c>
       <c r="I72" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="J72" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K72" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L72" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="M72" s="13" t="s">
+      <c r="J72" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K72" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L72" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M72" s="12" t="s">
         <v>30</v>
       </c>
       <c r="N72" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="73" s="4" customFormat="1" spans="1:14">
+    <row r="73" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>200071</v>
       </c>
@@ -6023,35 +5429,35 @@
       <c r="E73" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F73" s="13" t="s">
+      <c r="F73" s="12" t="s">
         <v>26</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H73" s="46" t="s">
+      <c r="H73" s="43" t="s">
         <v>189</v>
       </c>
       <c r="I73" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="J73" s="30">
-        <v>1</v>
-      </c>
-      <c r="K73" s="31">
-        <v>1</v>
-      </c>
-      <c r="L73" s="28">
-        <v>1</v>
-      </c>
-      <c r="M73" s="28">
+      <c r="J73" s="28">
+        <v>1</v>
+      </c>
+      <c r="K73" s="29">
+        <v>1</v>
+      </c>
+      <c r="L73" s="27">
+        <v>1</v>
+      </c>
+      <c r="M73" s="27">
         <v>1</v>
       </c>
       <c r="N73" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="74" s="4" customFormat="1" spans="1:14">
+    <row r="74" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>200071</v>
       </c>
@@ -6067,35 +5473,35 @@
       <c r="E74" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F74" s="13" t="s">
+      <c r="F74" s="12" t="s">
         <v>26</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H74" s="46" t="s">
+      <c r="H74" s="43" t="s">
         <v>191</v>
       </c>
       <c r="I74" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J74" s="30">
-        <v>1</v>
-      </c>
-      <c r="K74" s="31">
-        <v>1</v>
-      </c>
-      <c r="L74" s="28">
-        <v>1</v>
-      </c>
-      <c r="M74" s="28">
+      <c r="J74" s="28">
+        <v>1</v>
+      </c>
+      <c r="K74" s="29">
+        <v>1</v>
+      </c>
+      <c r="L74" s="27">
+        <v>1</v>
+      </c>
+      <c r="M74" s="27">
         <v>1</v>
       </c>
       <c r="N74" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="75" s="4" customFormat="1" spans="1:14">
+    <row r="75" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>200071</v>
       </c>
@@ -6111,439 +5517,439 @@
       <c r="E75" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F75" s="13" t="s">
+      <c r="F75" s="12" t="s">
         <v>26</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H75" s="46" t="s">
+      <c r="H75" s="43" t="s">
         <v>192</v>
       </c>
       <c r="I75" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J75" s="30">
-        <v>1</v>
-      </c>
-      <c r="K75" s="31">
-        <v>1</v>
-      </c>
-      <c r="L75" s="28">
-        <v>1</v>
-      </c>
-      <c r="M75" s="28">
+      <c r="J75" s="28">
+        <v>1</v>
+      </c>
+      <c r="K75" s="29">
+        <v>1</v>
+      </c>
+      <c r="L75" s="27">
+        <v>1</v>
+      </c>
+      <c r="M75" s="27">
         <v>1</v>
       </c>
       <c r="N75" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="76" s="6" customFormat="1" spans="1:22">
-      <c r="A76" s="18">
+    <row r="76" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="17">
         <v>200073</v>
       </c>
-      <c r="B76" s="18" t="s">
+      <c r="B76" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="C76" s="19">
+      <c r="C76" s="18">
         <v>80</v>
       </c>
-      <c r="D76" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E76" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F76" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G76" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H76" s="48" t="s">
+      <c r="D76" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F76" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G76" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H76" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="I76" s="18" t="s">
+      <c r="I76" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="J76" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="K76" s="33">
-        <v>1</v>
-      </c>
-      <c r="L76" s="20" t="s">
+      <c r="J76" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="K76" s="31">
+        <v>1</v>
+      </c>
+      <c r="L76" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="M76" s="20" t="s">
+      <c r="M76" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="N76" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="O76" s="18"/>
-      <c r="P76" s="18"/>
-      <c r="Q76" s="18"/>
-      <c r="R76" s="18"/>
-      <c r="S76" s="18"/>
-      <c r="T76" s="18"/>
-      <c r="U76" s="18"/>
-      <c r="V76" s="18"/>
-    </row>
-    <row r="77" spans="1:14">
-      <c r="A77" s="21">
+      <c r="N76" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
+      <c r="R76" s="17"/>
+      <c r="S76" s="17"/>
+      <c r="T76" s="17"/>
+      <c r="U76" s="17"/>
+      <c r="V76" s="17"/>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A77" s="20">
         <v>200074</v>
       </c>
-      <c r="B77" s="21" t="s">
+      <c r="B77" s="20" t="s">
         <v>196</v>
       </c>
       <c r="C77" s="7">
         <v>81</v>
       </c>
-      <c r="D77" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E77" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F77" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G77" s="21" t="s">
+      <c r="D77" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E77" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F77" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G77" s="20" t="s">
         <v>27</v>
       </c>
       <c r="H77" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="I77" s="34" t="s">
+      <c r="I77" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="J77" s="35">
-        <v>1</v>
-      </c>
-      <c r="K77" s="36">
-        <v>1</v>
-      </c>
-      <c r="L77" s="37" t="s">
+      <c r="J77" s="33">
+        <v>1</v>
+      </c>
+      <c r="K77" s="34">
+        <v>1</v>
+      </c>
+      <c r="L77" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="M77" s="37">
-        <v>1</v>
-      </c>
-      <c r="N77" s="21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23">
-      <c r="A78" s="21">
+      <c r="M77" s="35">
+        <v>1</v>
+      </c>
+      <c r="N77" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A78" s="20">
         <v>200075</v>
       </c>
-      <c r="B78" s="21" t="s">
+      <c r="B78" s="20" t="s">
         <v>199</v>
       </c>
       <c r="C78" s="7">
         <v>82</v>
       </c>
-      <c r="D78" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E78" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F78" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G78" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="H78" s="49" t="s">
+      <c r="D78" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E78" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F78" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G78" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H78" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="I78" s="34" t="s">
+      <c r="I78" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="J78" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="K78" s="36">
-        <v>1</v>
-      </c>
-      <c r="L78" s="37" t="s">
+      <c r="J78" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="K78" s="34">
+        <v>1</v>
+      </c>
+      <c r="L78" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="M78" s="37" t="s">
+      <c r="M78" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="N78" s="21" t="s">
+      <c r="N78" s="20" t="s">
         <v>31</v>
       </c>
       <c r="W78" s="7" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="79" spans="1:23">
-      <c r="A79" s="21">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A79" s="20">
         <v>200076</v>
       </c>
-      <c r="B79" s="21" t="s">
+      <c r="B79" s="20" t="s">
         <v>203</v>
       </c>
       <c r="C79" s="7">
         <v>83</v>
       </c>
-      <c r="D79" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E79" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F79" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G79" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="H79" s="49" t="s">
+      <c r="D79" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E79" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F79" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G79" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H79" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="I79" s="34" t="s">
+      <c r="I79" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="J79" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="K79" s="36">
-        <v>1</v>
-      </c>
-      <c r="L79" s="36">
+      <c r="J79" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="K79" s="34">
+        <v>1</v>
+      </c>
+      <c r="L79" s="34">
         <v>0</v>
       </c>
-      <c r="M79" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="N79" s="21" t="s">
+      <c r="M79" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="N79" s="20" t="s">
         <v>31</v>
       </c>
       <c r="W79" s="7" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="80" s="6" customFormat="1" spans="1:14">
-      <c r="A80" s="18">
+    <row r="80" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="17">
         <v>200078</v>
       </c>
-      <c r="B80" s="18" t="s">
+      <c r="B80" s="17" t="s">
         <v>205</v>
       </c>
       <c r="C80" s="6">
         <v>84</v>
       </c>
-      <c r="D80" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E80" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F80" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G80" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H80" s="50" t="s">
+      <c r="D80" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E80" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F80" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G80" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H80" s="47" t="s">
         <v>206</v>
       </c>
       <c r="I80" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="J80" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="K80" s="39">
-        <v>1</v>
-      </c>
-      <c r="L80" s="40" t="s">
+      <c r="J80" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="K80" s="37">
+        <v>1</v>
+      </c>
+      <c r="L80" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="M80" s="40" t="s">
+      <c r="M80" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="N80" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="81" s="6" customFormat="1" spans="1:14">
-      <c r="A81" s="18">
+      <c r="N80" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="17">
         <v>200079</v>
       </c>
-      <c r="B81" s="18" t="s">
+      <c r="B81" s="17" t="s">
         <v>207</v>
       </c>
       <c r="C81" s="6">
         <v>85</v>
       </c>
-      <c r="D81" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E81" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F81" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G81" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H81" s="50" t="s">
+      <c r="D81" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E81" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F81" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G81" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H81" s="47" t="s">
         <v>208</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="J81" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="K81" s="39">
-        <v>1</v>
-      </c>
-      <c r="L81" s="40" t="s">
+      <c r="J81" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="K81" s="37">
+        <v>1</v>
+      </c>
+      <c r="L81" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="M81" s="40" t="s">
+      <c r="M81" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="N81" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14">
-      <c r="A82" s="21">
+      <c r="N81" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A82" s="20">
         <v>200080</v>
       </c>
-      <c r="B82" s="21" t="s">
+      <c r="B82" s="20" t="s">
         <v>209</v>
       </c>
       <c r="C82" s="7">
         <v>86</v>
       </c>
-      <c r="D82" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E82" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F82" s="26" t="s">
+      <c r="D82" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E82" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F82" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H82" s="46" t="s">
+      <c r="H82" s="43" t="s">
         <v>210</v>
       </c>
       <c r="I82" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J82" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="K82" s="31">
-        <v>1</v>
-      </c>
-      <c r="L82" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="M82" s="28" t="s">
+      <c r="J82" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="K82" s="29">
+        <v>1</v>
+      </c>
+      <c r="L82" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="M82" s="27" t="s">
         <v>30</v>
       </c>
       <c r="N82" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="1:15">
-      <c r="A83" s="21">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A83" s="20">
         <v>200085</v>
       </c>
-      <c r="B83" s="21" t="s">
+      <c r="B83" s="20" t="s">
         <v>211</v>
       </c>
       <c r="C83" s="7">
         <v>89</v>
       </c>
-      <c r="D83" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E83" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F83" s="26" t="s">
+      <c r="D83" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F83" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H83" s="27" t="s">
+      <c r="H83" s="26" t="s">
         <v>212</v>
       </c>
       <c r="I83" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="J83" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K83" s="31">
-        <v>1</v>
-      </c>
-      <c r="L83" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="M83" s="22" t="s">
+      <c r="J83" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="K83" s="29">
+        <v>1</v>
+      </c>
+      <c r="L83" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M83" s="21" t="s">
         <v>30</v>
       </c>
       <c r="N83" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="O83" s="42"/>
-    </row>
-    <row r="84" spans="1:23">
-      <c r="A84" s="21">
+      <c r="O83" s="40"/>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A84" s="20">
         <v>200086</v>
       </c>
-      <c r="B84" s="21" t="s">
+      <c r="B84" s="20" t="s">
         <v>214</v>
       </c>
       <c r="C84" s="7">
         <v>90</v>
       </c>
-      <c r="D84" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E84" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F84" s="26" t="s">
+      <c r="D84" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E84" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F84" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G84" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H84" s="28" t="s">
+      <c r="H84" s="27" t="s">
         <v>215</v>
       </c>
       <c r="I84" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="J84" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="K84" s="31">
-        <v>1</v>
-      </c>
-      <c r="L84" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="M84" s="28" t="s">
+      <c r="J84" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="K84" s="29">
+        <v>1</v>
+      </c>
+      <c r="L84" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="M84" s="27" t="s">
         <v>30</v>
       </c>
       <c r="N84" s="5" t="s">
@@ -6553,156 +5959,156 @@
         <v>217</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
-      <c r="A85" s="21">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A85" s="20">
         <v>200087</v>
       </c>
-      <c r="B85" s="21" t="s">
+      <c r="B85" s="20" t="s">
         <v>218</v>
       </c>
       <c r="C85" s="7">
         <v>91</v>
       </c>
-      <c r="D85" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E85" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F85" s="26" t="s">
+      <c r="D85" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E85" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F85" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H85" s="27" t="s">
+      <c r="H85" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="I85" s="42" t="s">
+      <c r="I85" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="J85" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K85" s="31">
-        <v>1</v>
-      </c>
-      <c r="L85" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="M85" s="22" t="s">
-        <v>30</v>
+      <c r="J85" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="K85" s="29">
+        <v>1</v>
+      </c>
+      <c r="L85" s="51" t="s">
+        <v>350</v>
+      </c>
+      <c r="M85" s="51" t="s">
+        <v>350</v>
       </c>
       <c r="N85" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:15">
-      <c r="A86" s="21">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A86" s="20">
         <v>200088</v>
       </c>
-      <c r="B86" s="21" t="s">
+      <c r="B86" s="20" t="s">
         <v>221</v>
       </c>
       <c r="C86" s="7">
         <v>92</v>
       </c>
-      <c r="D86" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E86" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F86" s="26" t="s">
+      <c r="D86" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E86" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F86" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H86" s="27" t="s">
+      <c r="H86" s="26" t="s">
         <v>222</v>
       </c>
       <c r="I86" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="J86" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K86" s="31">
-        <v>1</v>
-      </c>
-      <c r="L86" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="M86" s="22" t="s">
+      <c r="J86" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="K86" s="29">
+        <v>1</v>
+      </c>
+      <c r="L86" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M86" s="21" t="s">
         <v>30</v>
       </c>
       <c r="N86" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="O86" s="42"/>
-    </row>
-    <row r="87" spans="1:14">
-      <c r="A87" s="21">
+      <c r="O86" s="40"/>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A87" s="20">
         <v>200089</v>
       </c>
-      <c r="B87" s="21" t="s">
+      <c r="B87" s="20" t="s">
         <v>224</v>
       </c>
       <c r="C87" s="7">
         <v>93</v>
       </c>
-      <c r="D87" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E87" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F87" s="26" t="s">
+      <c r="D87" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E87" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F87" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H87" s="27" t="s">
+      <c r="H87" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="I87" s="42" t="s">
+      <c r="I87" s="40" t="s">
         <v>223</v>
       </c>
-      <c r="J87" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K87" s="31">
-        <v>1</v>
-      </c>
-      <c r="L87" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="M87" s="22" t="s">
+      <c r="J87" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="K87" s="29">
+        <v>1</v>
+      </c>
+      <c r="L87" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M87" s="21" t="s">
         <v>30</v>
       </c>
       <c r="N87" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
-      <c r="A88" s="21">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A88" s="20">
         <v>200090</v>
       </c>
-      <c r="B88" s="21" t="s">
+      <c r="B88" s="20" t="s">
         <v>226</v>
       </c>
       <c r="C88" s="7">
         <v>94</v>
       </c>
-      <c r="D88" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E88" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F88" s="26" t="s">
+      <c r="D88" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E88" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F88" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G88" s="5" t="s">
@@ -6714,39 +6120,39 @@
       <c r="I88" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="J88" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K88" s="31">
-        <v>1</v>
-      </c>
-      <c r="L88" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="M88" s="22" t="s">
+      <c r="J88" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="K88" s="29">
+        <v>1</v>
+      </c>
+      <c r="L88" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M88" s="21" t="s">
         <v>30</v>
       </c>
       <c r="N88" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
-      <c r="A89" s="21">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A89" s="20">
         <v>200091</v>
       </c>
-      <c r="B89" s="21" t="s">
+      <c r="B89" s="20" t="s">
         <v>228</v>
       </c>
       <c r="C89" s="7">
         <v>95</v>
       </c>
-      <c r="D89" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E89" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F89" s="26" t="s">
+      <c r="D89" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E89" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F89" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G89" s="5" t="s">
@@ -6758,39 +6164,39 @@
       <c r="I89" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="J89" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K89" s="31">
-        <v>1</v>
-      </c>
-      <c r="L89" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="M89" s="22" t="s">
+      <c r="J89" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="K89" s="29">
+        <v>1</v>
+      </c>
+      <c r="L89" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M89" s="21" t="s">
         <v>30</v>
       </c>
       <c r="N89" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
-      <c r="A90" s="21">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A90" s="20">
         <v>200092</v>
       </c>
-      <c r="B90" s="21" t="s">
+      <c r="B90" s="20" t="s">
         <v>230</v>
       </c>
       <c r="C90" s="7">
         <v>96</v>
       </c>
-      <c r="D90" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E90" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F90" s="26" t="s">
+      <c r="D90" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E90" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F90" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G90" s="5" t="s">
@@ -6802,39 +6208,39 @@
       <c r="I90" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="J90" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K90" s="31">
-        <v>1</v>
-      </c>
-      <c r="L90" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="M90" s="22" t="s">
+      <c r="J90" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="K90" s="29">
+        <v>1</v>
+      </c>
+      <c r="L90" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M90" s="21" t="s">
         <v>30</v>
       </c>
       <c r="N90" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
-      <c r="A91" s="21">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A91" s="20">
         <v>200093</v>
       </c>
-      <c r="B91" s="21" t="s">
+      <c r="B91" s="20" t="s">
         <v>232</v>
       </c>
       <c r="C91" s="7">
         <v>97</v>
       </c>
-      <c r="D91" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E91" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F91" s="26" t="s">
+      <c r="D91" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E91" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F91" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G91" s="5" t="s">
@@ -6846,259 +6252,259 @@
       <c r="I91" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="J91" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K91" s="31">
-        <v>1</v>
-      </c>
-      <c r="L91" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="M91" s="22" t="s">
+      <c r="J91" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="K91" s="29">
+        <v>1</v>
+      </c>
+      <c r="L91" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M91" s="21" t="s">
         <v>30</v>
       </c>
       <c r="N91" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
-      <c r="A92" s="21">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A92" s="20">
         <v>200094</v>
       </c>
-      <c r="B92" s="21" t="s">
+      <c r="B92" s="20" t="s">
         <v>234</v>
       </c>
       <c r="C92" s="7">
         <v>98</v>
       </c>
-      <c r="D92" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E92" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F92" s="26" t="s">
+      <c r="D92" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E92" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F92" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G92" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H92" s="50" t="s">
+      <c r="H92" s="47" t="s">
         <v>235</v>
       </c>
       <c r="I92" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="J92" s="32">
-        <v>1</v>
-      </c>
-      <c r="K92" s="32">
-        <v>1</v>
-      </c>
-      <c r="L92" s="32" t="s">
+      <c r="J92" s="30">
+        <v>1</v>
+      </c>
+      <c r="K92" s="30">
+        <v>1</v>
+      </c>
+      <c r="L92" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="M92" s="32" t="s">
+      <c r="M92" s="30" t="s">
         <v>46</v>
       </c>
       <c r="N92" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
-      <c r="A93" s="21">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A93" s="20">
         <v>200095</v>
       </c>
-      <c r="B93" s="21" t="s">
+      <c r="B93" s="20" t="s">
         <v>237</v>
       </c>
       <c r="C93" s="7">
         <v>99</v>
       </c>
-      <c r="D93" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E93" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F93" s="26" t="s">
+      <c r="D93" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E93" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F93" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G93" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H93" s="50" t="s">
+      <c r="H93" s="47" t="s">
         <v>238</v>
       </c>
       <c r="I93" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="J93" s="32">
-        <v>1</v>
-      </c>
-      <c r="K93" s="32" t="s">
+      <c r="J93" s="30">
+        <v>1</v>
+      </c>
+      <c r="K93" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="L93" s="43" t="s">
+      <c r="L93" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="M93" s="32" t="s">
+      <c r="M93" s="30" t="s">
         <v>46</v>
       </c>
       <c r="N93" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
-      <c r="A94" s="21">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A94" s="20">
         <v>200096</v>
       </c>
-      <c r="B94" s="21" t="s">
+      <c r="B94" s="20" t="s">
         <v>240</v>
       </c>
       <c r="C94" s="7">
         <v>100</v>
       </c>
-      <c r="D94" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E94" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F94" s="26" t="s">
+      <c r="D94" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E94" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F94" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G94" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H94" s="50" t="s">
+      <c r="H94" s="47" t="s">
         <v>241</v>
       </c>
       <c r="I94" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="J94" s="32">
-        <v>1</v>
-      </c>
-      <c r="K94" s="32" t="s">
+      <c r="J94" s="30">
+        <v>1</v>
+      </c>
+      <c r="K94" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="L94" s="32" t="s">
+      <c r="L94" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="M94" s="32" t="s">
+      <c r="M94" s="30" t="s">
         <v>46</v>
       </c>
       <c r="N94" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
-      <c r="A95" s="21">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A95" s="20">
         <v>200097</v>
       </c>
-      <c r="B95" s="21" t="s">
+      <c r="B95" s="20" t="s">
         <v>242</v>
       </c>
       <c r="C95" s="7">
         <v>101</v>
       </c>
-      <c r="D95" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E95" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F95" s="26" t="s">
+      <c r="D95" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E95" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F95" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G95" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H95" s="50" t="s">
+      <c r="H95" s="47" t="s">
         <v>243</v>
       </c>
       <c r="I95" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="J95" s="32">
-        <v>1</v>
-      </c>
-      <c r="K95" s="32">
-        <v>1</v>
-      </c>
-      <c r="L95" s="32" t="s">
+      <c r="J95" s="30">
+        <v>1</v>
+      </c>
+      <c r="K95" s="30">
+        <v>1</v>
+      </c>
+      <c r="L95" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="M95" s="32" t="s">
+      <c r="M95" s="30" t="s">
         <v>46</v>
       </c>
       <c r="N95" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" s="7">
         <v>200098</v>
       </c>
-      <c r="B96" s="21" t="s">
+      <c r="B96" s="20" t="s">
         <v>245</v>
       </c>
       <c r="C96" s="7">
         <v>102</v>
       </c>
-      <c r="D96" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E96" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F96" s="26" t="s">
+      <c r="D96" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E96" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F96" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G96" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H96" s="50" t="s">
+      <c r="H96" s="47" t="s">
         <v>246</v>
       </c>
       <c r="I96" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="J96" s="39">
-        <v>1</v>
-      </c>
-      <c r="K96" s="39">
-        <v>1</v>
-      </c>
-      <c r="L96" s="39">
+      <c r="J96" s="37">
+        <v>1</v>
+      </c>
+      <c r="K96" s="37">
+        <v>1</v>
+      </c>
+      <c r="L96" s="37">
         <v>0</v>
       </c>
-      <c r="M96" s="39">
+      <c r="M96" s="37">
         <v>2</v>
       </c>
       <c r="N96" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="97" customFormat="1" spans="1:14">
-      <c r="A97" s="21">
+    <row r="97" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="20">
         <v>200081</v>
       </c>
-      <c r="B97" s="21" t="s">
+      <c r="B97" s="20" t="s">
         <v>248</v>
       </c>
       <c r="C97" s="7">
         <v>85</v>
       </c>
-      <c r="D97" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E97" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F97" s="26" t="s">
+      <c r="D97" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E97" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F97" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G97" s="5" t="s">
@@ -7110,39 +6516,39 @@
       <c r="I97" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="J97" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="K97" s="31">
-        <v>1</v>
-      </c>
-      <c r="L97" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="M97" s="28">
+      <c r="J97" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="K97" s="29">
+        <v>1</v>
+      </c>
+      <c r="L97" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="M97" s="27">
         <v>1</v>
       </c>
       <c r="N97" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="98" customFormat="1" spans="1:14">
-      <c r="A98" s="21">
+    <row r="98" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="20">
         <v>200082</v>
       </c>
-      <c r="B98" s="21" t="s">
+      <c r="B98" s="20" t="s">
         <v>251</v>
       </c>
       <c r="C98" s="7">
         <v>86</v>
       </c>
-      <c r="D98" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E98" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F98" s="26" t="s">
+      <c r="D98" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E98" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F98" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G98" s="5" t="s">
@@ -7154,39 +6560,39 @@
       <c r="I98" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="J98" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="K98" s="31">
-        <v>1</v>
-      </c>
-      <c r="L98" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="M98" s="28" t="s">
+      <c r="J98" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="K98" s="29">
+        <v>1</v>
+      </c>
+      <c r="L98" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="M98" s="27" t="s">
         <v>30</v>
       </c>
       <c r="N98" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="99" customFormat="1" spans="1:14">
-      <c r="A99" s="21">
+    <row r="99" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="20">
         <v>200083</v>
       </c>
-      <c r="B99" s="21" t="s">
+      <c r="B99" s="20" t="s">
         <v>253</v>
       </c>
       <c r="C99" s="7">
         <v>87</v>
       </c>
-      <c r="D99" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E99" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F99" s="26" t="s">
+      <c r="D99" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E99" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F99" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G99" s="5" t="s">
@@ -7198,39 +6604,39 @@
       <c r="I99" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="J99" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="K99" s="31">
-        <v>1</v>
-      </c>
-      <c r="L99" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="M99" s="28" t="s">
+      <c r="J99" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="K99" s="29">
+        <v>1</v>
+      </c>
+      <c r="L99" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="M99" s="27" t="s">
         <v>30</v>
       </c>
       <c r="N99" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="100" customFormat="1" spans="1:14">
-      <c r="A100" s="21">
+    <row r="100" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="20">
         <v>200084</v>
       </c>
-      <c r="B100" s="21" t="s">
+      <c r="B100" s="20" t="s">
         <v>256</v>
       </c>
       <c r="C100" s="7">
         <v>88</v>
       </c>
-      <c r="D100" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E100" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F100" s="26" t="s">
+      <c r="D100" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E100" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F100" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G100" s="5" t="s">
@@ -7242,215 +6648,215 @@
       <c r="I100" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="J100" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="K100" s="31">
-        <v>1</v>
-      </c>
-      <c r="L100" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="M100" s="28" t="s">
+      <c r="J100" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="K100" s="29">
+        <v>1</v>
+      </c>
+      <c r="L100" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="M100" s="27" t="s">
         <v>30</v>
       </c>
       <c r="N100" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="7">
         <v>200105</v>
       </c>
-      <c r="B101" s="21" t="s">
+      <c r="B101" s="20" t="s">
         <v>259</v>
       </c>
       <c r="C101" s="7">
         <v>109</v>
       </c>
-      <c r="D101" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E101" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F101" s="26" t="s">
+      <c r="D101" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E101" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F101" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G101" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H101" s="50" t="s">
+      <c r="H101" s="47" t="s">
         <v>260</v>
       </c>
       <c r="I101" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="J101" s="39">
-        <v>1</v>
-      </c>
-      <c r="K101" s="39">
-        <v>1</v>
-      </c>
-      <c r="L101" s="32" t="s">
+      <c r="J101" s="37">
+        <v>1</v>
+      </c>
+      <c r="K101" s="37">
+        <v>1</v>
+      </c>
+      <c r="L101" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="M101" s="39">
+      <c r="M101" s="37">
         <v>2</v>
       </c>
       <c r="N101" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="7">
         <v>200106</v>
       </c>
-      <c r="B102" s="21" t="s">
+      <c r="B102" s="20" t="s">
         <v>262</v>
       </c>
       <c r="C102" s="7">
         <v>110</v>
       </c>
-      <c r="D102" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E102" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F102" s="26" t="s">
+      <c r="D102" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E102" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F102" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G102" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H102" s="50" t="s">
+      <c r="H102" s="47" t="s">
         <v>263</v>
       </c>
       <c r="I102" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="J102" s="39">
-        <v>1</v>
-      </c>
-      <c r="K102" s="39">
-        <v>1</v>
-      </c>
-      <c r="L102" s="32" t="s">
+      <c r="J102" s="37">
+        <v>1</v>
+      </c>
+      <c r="K102" s="37">
+        <v>1</v>
+      </c>
+      <c r="L102" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="M102" s="39">
+      <c r="M102" s="37">
         <v>2</v>
       </c>
       <c r="N102" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="7">
         <v>200107</v>
       </c>
-      <c r="B103" s="21" t="s">
+      <c r="B103" s="20" t="s">
         <v>265</v>
       </c>
       <c r="C103" s="7">
         <v>111</v>
       </c>
-      <c r="D103" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E103" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F103" s="26" t="s">
+      <c r="D103" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E103" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F103" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G103" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H103" s="50" t="s">
+      <c r="H103" s="47" t="s">
         <v>266</v>
       </c>
       <c r="I103" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="J103" s="39">
-        <v>1</v>
-      </c>
-      <c r="K103" s="39">
-        <v>1</v>
-      </c>
-      <c r="L103" s="32" t="s">
+      <c r="J103" s="37">
+        <v>1</v>
+      </c>
+      <c r="K103" s="37">
+        <v>1</v>
+      </c>
+      <c r="L103" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="M103" s="39">
+      <c r="M103" s="37">
         <v>2</v>
       </c>
       <c r="N103" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="7">
         <v>200108</v>
       </c>
-      <c r="B104" s="21" t="s">
+      <c r="B104" s="20" t="s">
         <v>267</v>
       </c>
       <c r="C104" s="7">
         <v>112</v>
       </c>
-      <c r="D104" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E104" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F104" s="26" t="s">
+      <c r="D104" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E104" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F104" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G104" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H104" s="50" t="s">
+      <c r="H104" s="47" t="s">
         <v>268</v>
       </c>
       <c r="I104" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="J104" s="39">
-        <v>1</v>
-      </c>
-      <c r="K104" s="39">
+      <c r="J104" s="37">
+        <v>1</v>
+      </c>
+      <c r="K104" s="37">
         <v>0</v>
       </c>
-      <c r="L104" s="32" t="s">
+      <c r="L104" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="M104" s="39">
+      <c r="M104" s="37">
         <v>2</v>
       </c>
       <c r="N104" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="7">
         <v>200109</v>
       </c>
-      <c r="B105" s="21" t="s">
+      <c r="B105" s="20" t="s">
         <v>270</v>
       </c>
       <c r="C105" s="7">
         <v>113</v>
       </c>
-      <c r="D105" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E105" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F105" s="26" t="s">
+      <c r="D105" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E105" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F105" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G105" s="5" t="s">
@@ -7462,1497 +6868,1497 @@
       <c r="I105" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="J105" s="39">
-        <v>1</v>
-      </c>
-      <c r="K105" s="39">
+      <c r="J105" s="37">
+        <v>1</v>
+      </c>
+      <c r="K105" s="37">
         <v>0</v>
       </c>
-      <c r="L105" s="32" t="s">
+      <c r="L105" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="M105" s="39">
+      <c r="M105" s="37">
         <v>2</v>
       </c>
       <c r="N105" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="7">
         <v>200110</v>
       </c>
-      <c r="B106" s="21" t="s">
+      <c r="B106" s="20" t="s">
         <v>272</v>
       </c>
       <c r="C106" s="7">
         <v>114</v>
       </c>
-      <c r="D106" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E106" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F106" s="26" t="s">
+      <c r="D106" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E106" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F106" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G106" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H106" s="49" t="s">
+      <c r="H106" s="46" t="s">
         <v>273</v>
       </c>
       <c r="I106" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="J106" s="36">
-        <v>1</v>
-      </c>
-      <c r="K106" s="36">
-        <v>1</v>
-      </c>
-      <c r="L106" s="36">
-        <v>1</v>
-      </c>
-      <c r="M106" s="36">
+      <c r="J106" s="34">
+        <v>1</v>
+      </c>
+      <c r="K106" s="34">
+        <v>1</v>
+      </c>
+      <c r="L106" s="34">
+        <v>1</v>
+      </c>
+      <c r="M106" s="34">
         <v>1</v>
       </c>
       <c r="N106" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="7">
         <v>200111</v>
       </c>
-      <c r="B107" s="21" t="s">
+      <c r="B107" s="20" t="s">
         <v>275</v>
       </c>
       <c r="C107" s="7">
         <v>115</v>
       </c>
-      <c r="D107" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E107" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F107" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G107" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="H107" s="51" t="s">
+      <c r="D107" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E107" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F107" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G107" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H107" s="48" t="s">
         <v>276</v>
       </c>
       <c r="I107" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J107" s="36">
-        <v>1</v>
-      </c>
-      <c r="K107" s="36">
-        <v>1</v>
-      </c>
-      <c r="L107" s="36">
-        <v>1</v>
-      </c>
-      <c r="M107" s="36">
-        <v>1</v>
-      </c>
-      <c r="N107" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14">
+      <c r="J107" s="34">
+        <v>1</v>
+      </c>
+      <c r="K107" s="34">
+        <v>1</v>
+      </c>
+      <c r="L107" s="34">
+        <v>1</v>
+      </c>
+      <c r="M107" s="34">
+        <v>1</v>
+      </c>
+      <c r="N107" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="7">
         <v>200112</v>
       </c>
-      <c r="B108" s="21" t="s">
+      <c r="B108" s="20" t="s">
         <v>278</v>
       </c>
       <c r="C108" s="7">
         <v>116</v>
       </c>
-      <c r="D108" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E108" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F108" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G108" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="H108" s="51" t="s">
+      <c r="D108" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E108" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F108" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G108" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H108" s="48" t="s">
         <v>279</v>
       </c>
       <c r="I108" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J108" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K108" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="L108" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="M108" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="N108" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14">
+      <c r="J108" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="K108" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="L108" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="M108" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="N108" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="7">
         <v>200113</v>
       </c>
-      <c r="B109" s="21" t="s">
+      <c r="B109" s="20" t="s">
         <v>280</v>
       </c>
       <c r="C109" s="7">
         <v>117</v>
       </c>
-      <c r="D109" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E109" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F109" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G109" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="H109" s="51" t="s">
+      <c r="D109" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E109" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F109" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G109" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H109" s="48" t="s">
         <v>281</v>
       </c>
       <c r="I109" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J109" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K109" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="L109" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="M109" s="41" t="s">
+      <c r="J109" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="K109" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="L109" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="M109" s="39" t="s">
         <v>30</v>
       </c>
       <c r="N109" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="7">
         <v>200114</v>
       </c>
-      <c r="B110" s="21" t="s">
+      <c r="B110" s="20" t="s">
         <v>282</v>
       </c>
       <c r="C110" s="7">
         <v>118</v>
       </c>
-      <c r="D110" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E110" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F110" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G110" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H110" s="51" t="s">
+      <c r="D110" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E110" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F110" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G110" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H110" s="48" t="s">
         <v>283</v>
       </c>
       <c r="I110" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J110" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K110" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="L110" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="M110" s="41" t="s">
+      <c r="J110" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="K110" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="L110" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="M110" s="39" t="s">
         <v>30</v>
       </c>
       <c r="N110" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="7">
         <v>200115</v>
       </c>
-      <c r="B111" s="21" t="s">
+      <c r="B111" s="20" t="s">
         <v>284</v>
       </c>
       <c r="C111" s="7">
         <v>119</v>
       </c>
-      <c r="D111" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E111" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F111" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G111" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H111" s="51" t="s">
+      <c r="D111" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E111" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F111" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G111" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H111" s="48" t="s">
         <v>285</v>
       </c>
       <c r="I111" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J111" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K111" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="L111" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="M111" s="41" t="s">
+      <c r="J111" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="K111" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="L111" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="M111" s="39" t="s">
         <v>30</v>
       </c>
       <c r="N111" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="7">
         <v>200116</v>
       </c>
-      <c r="B112" s="21" t="s">
+      <c r="B112" s="20" t="s">
         <v>286</v>
       </c>
       <c r="C112" s="7">
         <v>120</v>
       </c>
-      <c r="D112" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E112" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F112" s="26" t="s">
+      <c r="D112" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E112" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F112" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G112" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H112" s="51" t="s">
+      <c r="H112" s="48" t="s">
         <v>287</v>
       </c>
       <c r="I112" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J112" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K112" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="L112" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="M112" s="41" t="s">
+      <c r="J112" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="K112" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="L112" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="M112" s="39" t="s">
         <v>30</v>
       </c>
       <c r="N112" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="7">
         <v>200117</v>
       </c>
-      <c r="B113" s="21" t="s">
+      <c r="B113" s="20" t="s">
         <v>288</v>
       </c>
       <c r="C113" s="7">
         <v>121</v>
       </c>
-      <c r="D113" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E113" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F113" s="26" t="s">
+      <c r="D113" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E113" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F113" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G113" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H113" s="51" t="s">
+      <c r="H113" s="48" t="s">
         <v>289</v>
       </c>
       <c r="I113" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J113" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K113" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="L113" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="M113" s="41" t="s">
+      <c r="J113" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="K113" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="L113" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="M113" s="39" t="s">
         <v>30</v>
       </c>
       <c r="N113" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="7">
         <v>200118</v>
       </c>
-      <c r="B114" s="21" t="s">
+      <c r="B114" s="20" t="s">
         <v>290</v>
       </c>
       <c r="C114" s="7">
         <v>122</v>
       </c>
-      <c r="D114" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E114" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F114" s="26" t="s">
+      <c r="D114" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E114" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F114" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G114" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H114" s="51" t="s">
+      <c r="H114" s="48" t="s">
         <v>291</v>
       </c>
       <c r="I114" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J114" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K114" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="L114" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="M114" s="41" t="s">
+      <c r="J114" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="K114" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="L114" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="M114" s="39" t="s">
         <v>30</v>
       </c>
       <c r="N114" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="7">
         <v>200119</v>
       </c>
-      <c r="B115" s="21" t="s">
+      <c r="B115" s="20" t="s">
         <v>292</v>
       </c>
       <c r="C115" s="7">
         <v>123</v>
       </c>
-      <c r="D115" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E115" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F115" s="26" t="s">
+      <c r="D115" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E115" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F115" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G115" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H115" s="51" t="s">
+      <c r="H115" s="48" t="s">
         <v>293</v>
       </c>
       <c r="I115" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J115" s="32">
-        <v>1</v>
-      </c>
-      <c r="K115" s="32">
-        <v>1</v>
-      </c>
-      <c r="L115" s="32">
-        <v>1</v>
-      </c>
-      <c r="M115" s="32">
+      <c r="J115" s="30">
+        <v>1</v>
+      </c>
+      <c r="K115" s="30">
+        <v>1</v>
+      </c>
+      <c r="L115" s="30">
+        <v>1</v>
+      </c>
+      <c r="M115" s="30">
         <v>1</v>
       </c>
       <c r="N115" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="7">
         <v>200120</v>
       </c>
-      <c r="B116" s="21" t="s">
+      <c r="B116" s="20" t="s">
         <v>294</v>
       </c>
       <c r="C116" s="7">
         <v>124</v>
       </c>
-      <c r="D116" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E116" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F116" s="26" t="s">
+      <c r="D116" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E116" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F116" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G116" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H116" s="51" t="s">
+      <c r="H116" s="48" t="s">
         <v>295</v>
       </c>
       <c r="I116" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J116" s="32">
-        <v>1</v>
-      </c>
-      <c r="K116" s="32">
-        <v>1</v>
-      </c>
-      <c r="L116" s="32">
-        <v>1</v>
-      </c>
-      <c r="M116" s="32">
+      <c r="J116" s="30">
+        <v>1</v>
+      </c>
+      <c r="K116" s="30">
+        <v>1</v>
+      </c>
+      <c r="L116" s="30">
+        <v>1</v>
+      </c>
+      <c r="M116" s="30">
         <v>1</v>
       </c>
       <c r="N116" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="7">
         <v>200121</v>
       </c>
-      <c r="B117" s="21" t="s">
+      <c r="B117" s="20" t="s">
         <v>296</v>
       </c>
       <c r="C117" s="7">
         <v>125</v>
       </c>
-      <c r="D117" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E117" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F117" s="26" t="s">
+      <c r="D117" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E117" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F117" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G117" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H117" s="51" t="s">
+      <c r="H117" s="48" t="s">
         <v>297</v>
       </c>
       <c r="I117" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J117" s="32">
-        <v>1</v>
-      </c>
-      <c r="K117" s="32">
-        <v>1</v>
-      </c>
-      <c r="L117" s="32">
-        <v>1</v>
-      </c>
-      <c r="M117" s="32">
+      <c r="J117" s="30">
+        <v>1</v>
+      </c>
+      <c r="K117" s="30">
+        <v>1</v>
+      </c>
+      <c r="L117" s="30">
+        <v>1</v>
+      </c>
+      <c r="M117" s="30">
         <v>1</v>
       </c>
       <c r="N117" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="7">
         <v>200122</v>
       </c>
-      <c r="B118" s="21" t="s">
+      <c r="B118" s="20" t="s">
         <v>298</v>
       </c>
       <c r="C118" s="7">
         <v>126</v>
       </c>
-      <c r="D118" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E118" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F118" s="26" t="s">
+      <c r="D118" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E118" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F118" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G118" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H118" s="51" t="s">
+      <c r="H118" s="48" t="s">
         <v>299</v>
       </c>
       <c r="I118" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J118" s="32">
-        <v>1</v>
-      </c>
-      <c r="K118" s="32">
-        <v>1</v>
-      </c>
-      <c r="L118" s="32">
-        <v>1</v>
-      </c>
-      <c r="M118" s="32">
+      <c r="J118" s="30">
+        <v>1</v>
+      </c>
+      <c r="K118" s="30">
+        <v>1</v>
+      </c>
+      <c r="L118" s="30">
+        <v>1</v>
+      </c>
+      <c r="M118" s="30">
         <v>1</v>
       </c>
       <c r="N118" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="7">
         <v>200123</v>
       </c>
-      <c r="B119" s="21" t="s">
+      <c r="B119" s="20" t="s">
         <v>300</v>
       </c>
       <c r="C119" s="7">
         <v>127</v>
       </c>
-      <c r="D119" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E119" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F119" s="26" t="s">
+      <c r="D119" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E119" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F119" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G119" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H119" s="51" t="s">
+      <c r="H119" s="48" t="s">
         <v>301</v>
       </c>
       <c r="I119" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J119" s="39">
-        <v>1</v>
-      </c>
-      <c r="K119" s="39">
-        <v>1</v>
-      </c>
-      <c r="L119" s="39">
-        <v>1</v>
-      </c>
-      <c r="M119" s="39">
+      <c r="J119" s="37">
+        <v>1</v>
+      </c>
+      <c r="K119" s="37">
+        <v>1</v>
+      </c>
+      <c r="L119" s="37">
+        <v>1</v>
+      </c>
+      <c r="M119" s="37">
         <v>1</v>
       </c>
       <c r="N119" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="7">
         <v>200124</v>
       </c>
-      <c r="B120" s="21" t="s">
+      <c r="B120" s="20" t="s">
         <v>302</v>
       </c>
       <c r="C120" s="7">
         <v>128</v>
       </c>
-      <c r="D120" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E120" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F120" s="26" t="s">
+      <c r="D120" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E120" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F120" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G120" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H120" s="51" t="s">
+      <c r="H120" s="48" t="s">
         <v>303</v>
       </c>
       <c r="I120" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J120" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="K120" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="L120" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="M120" s="30" t="s">
+      <c r="J120" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="K120" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="L120" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="M120" s="28" t="s">
         <v>30</v>
       </c>
       <c r="N120" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="7">
         <v>200125</v>
       </c>
-      <c r="B121" s="21" t="s">
+      <c r="B121" s="20" t="s">
         <v>304</v>
       </c>
       <c r="C121" s="7">
         <v>129</v>
       </c>
-      <c r="D121" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E121" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F121" s="26" t="s">
+      <c r="D121" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E121" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F121" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G121" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H121" s="51" t="s">
+      <c r="H121" s="48" t="s">
         <v>305</v>
       </c>
       <c r="I121" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J121" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="K121" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="L121" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="M121" s="30" t="s">
+      <c r="J121" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="K121" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="L121" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="M121" s="28" t="s">
         <v>30</v>
       </c>
       <c r="N121" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="7">
         <v>200126</v>
       </c>
-      <c r="B122" s="21" t="s">
+      <c r="B122" s="20" t="s">
         <v>306</v>
       </c>
       <c r="C122" s="7">
         <v>130</v>
       </c>
-      <c r="D122" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E122" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F122" s="26" t="s">
+      <c r="D122" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E122" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F122" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G122" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H122" s="51" t="s">
+      <c r="H122" s="48" t="s">
         <v>307</v>
       </c>
       <c r="I122" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J122" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="K122" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="L122" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="M122" s="30" t="s">
+      <c r="J122" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="K122" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="L122" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="M122" s="28" t="s">
         <v>30</v>
       </c>
       <c r="N122" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="7">
         <v>200127</v>
       </c>
-      <c r="B123" s="21" t="s">
+      <c r="B123" s="20" t="s">
         <v>308</v>
       </c>
       <c r="C123" s="7">
         <v>131</v>
       </c>
-      <c r="D123" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E123" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F123" s="26" t="s">
+      <c r="D123" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E123" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F123" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G123" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H123" s="51" t="s">
+      <c r="H123" s="48" t="s">
         <v>309</v>
       </c>
       <c r="I123" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J123" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="K123" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="L123" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="M123" s="30" t="s">
+      <c r="J123" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="K123" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="L123" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="M123" s="28" t="s">
         <v>30</v>
       </c>
       <c r="N123" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="7">
         <v>200128</v>
       </c>
-      <c r="B124" s="21" t="s">
+      <c r="B124" s="20" t="s">
         <v>310</v>
       </c>
       <c r="C124" s="7">
         <v>132</v>
       </c>
-      <c r="D124" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E124" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F124" s="26" t="s">
+      <c r="D124" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E124" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F124" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G124" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H124" s="51" t="s">
+      <c r="H124" s="48" t="s">
         <v>311</v>
       </c>
       <c r="I124" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J124" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K124" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="L124" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="M124" s="41" t="s">
+      <c r="J124" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="K124" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="L124" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="M124" s="39" t="s">
         <v>30</v>
       </c>
       <c r="N124" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="7">
         <v>200129</v>
       </c>
-      <c r="B125" s="21" t="s">
+      <c r="B125" s="20" t="s">
         <v>312</v>
       </c>
       <c r="C125" s="7">
         <v>133</v>
       </c>
-      <c r="D125" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E125" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F125" s="26" t="s">
+      <c r="D125" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E125" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F125" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G125" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H125" s="51" t="s">
+      <c r="H125" s="48" t="s">
         <v>313</v>
       </c>
       <c r="I125" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J125" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K125" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="L125" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="M125" s="41" t="s">
+      <c r="J125" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="K125" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="L125" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="M125" s="39" t="s">
         <v>30</v>
       </c>
       <c r="N125" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="7">
         <v>200130</v>
       </c>
-      <c r="B126" s="21" t="s">
+      <c r="B126" s="20" t="s">
         <v>314</v>
       </c>
       <c r="C126" s="7">
         <v>134</v>
       </c>
-      <c r="D126" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E126" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F126" s="26" t="s">
+      <c r="D126" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E126" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F126" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G126" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H126" s="51" t="s">
+      <c r="H126" s="48" t="s">
         <v>315</v>
       </c>
       <c r="I126" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J126" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K126" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="L126" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="M126" s="41" t="s">
+      <c r="J126" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="K126" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="L126" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="M126" s="39" t="s">
         <v>30</v>
       </c>
       <c r="N126" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="7">
         <v>200131</v>
       </c>
-      <c r="B127" s="21" t="s">
+      <c r="B127" s="20" t="s">
         <v>316</v>
       </c>
       <c r="C127" s="7">
         <v>135</v>
       </c>
-      <c r="D127" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E127" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F127" s="26" t="s">
+      <c r="D127" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E127" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F127" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G127" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H127" s="51" t="s">
+      <c r="H127" s="48" t="s">
         <v>317</v>
       </c>
       <c r="I127" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J127" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K127" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="L127" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="M127" s="41" t="s">
+      <c r="J127" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="K127" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="L127" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="M127" s="39" t="s">
         <v>30</v>
       </c>
       <c r="N127" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="7">
         <v>200132</v>
       </c>
-      <c r="B128" s="21" t="s">
+      <c r="B128" s="20" t="s">
         <v>318</v>
       </c>
       <c r="C128" s="7">
         <v>136</v>
       </c>
-      <c r="D128" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E128" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F128" s="26" t="s">
+      <c r="D128" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E128" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F128" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G128" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H128" s="51" t="s">
+      <c r="H128" s="48" t="s">
         <v>319</v>
       </c>
       <c r="I128" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J128" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K128" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="L128" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="M128" s="41" t="s">
+      <c r="J128" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="K128" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="L128" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="M128" s="39" t="s">
         <v>30</v>
       </c>
       <c r="N128" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" s="7">
         <v>200133</v>
       </c>
-      <c r="B129" s="21" t="s">
+      <c r="B129" s="20" t="s">
         <v>320</v>
       </c>
       <c r="C129" s="7">
         <v>137</v>
       </c>
-      <c r="D129" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E129" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F129" s="26" t="s">
+      <c r="D129" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E129" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F129" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G129" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H129" s="51" t="s">
+      <c r="H129" s="48" t="s">
         <v>321</v>
       </c>
       <c r="I129" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J129" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K129" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="L129" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="M129" s="41" t="s">
+      <c r="J129" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="K129" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="L129" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="M129" s="39" t="s">
         <v>30</v>
       </c>
       <c r="N129" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" s="7">
         <v>200134</v>
       </c>
-      <c r="B130" s="21" t="s">
+      <c r="B130" s="20" t="s">
         <v>322</v>
       </c>
       <c r="C130" s="7">
         <v>138</v>
       </c>
-      <c r="D130" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E130" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F130" s="26" t="s">
+      <c r="D130" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E130" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F130" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G130" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H130" s="51" t="s">
+      <c r="H130" s="48" t="s">
         <v>323</v>
       </c>
       <c r="I130" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J130" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K130" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="L130" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="M130" s="41" t="s">
+      <c r="J130" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="K130" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="L130" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="M130" s="39" t="s">
         <v>30</v>
       </c>
       <c r="N130" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" s="7">
         <v>200135</v>
       </c>
-      <c r="B131" s="21" t="s">
+      <c r="B131" s="20" t="s">
         <v>324</v>
       </c>
       <c r="C131" s="7">
         <v>139</v>
       </c>
-      <c r="D131" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E131" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F131" s="26" t="s">
+      <c r="D131" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E131" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F131" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G131" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H131" s="51" t="s">
+      <c r="H131" s="48" t="s">
         <v>325</v>
       </c>
       <c r="I131" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J131" s="32">
-        <v>1</v>
-      </c>
-      <c r="K131" s="32">
-        <v>1</v>
-      </c>
-      <c r="L131" s="32">
-        <v>1</v>
-      </c>
-      <c r="M131" s="32">
+      <c r="J131" s="30">
+        <v>1</v>
+      </c>
+      <c r="K131" s="30">
+        <v>1</v>
+      </c>
+      <c r="L131" s="30">
+        <v>1</v>
+      </c>
+      <c r="M131" s="30">
         <v>1</v>
       </c>
       <c r="N131" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" s="7">
         <v>200136</v>
       </c>
-      <c r="B132" s="21" t="s">
+      <c r="B132" s="20" t="s">
         <v>326</v>
       </c>
       <c r="C132" s="7">
         <v>140</v>
       </c>
-      <c r="D132" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E132" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F132" s="26" t="s">
+      <c r="D132" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E132" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F132" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G132" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H132" s="51" t="s">
+      <c r="H132" s="48" t="s">
         <v>327</v>
       </c>
       <c r="I132" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J132" s="32">
-        <v>1</v>
-      </c>
-      <c r="K132" s="32">
-        <v>1</v>
-      </c>
-      <c r="L132" s="32">
-        <v>1</v>
-      </c>
-      <c r="M132" s="32">
+      <c r="J132" s="30">
+        <v>1</v>
+      </c>
+      <c r="K132" s="30">
+        <v>1</v>
+      </c>
+      <c r="L132" s="30">
+        <v>1</v>
+      </c>
+      <c r="M132" s="30">
         <v>1</v>
       </c>
       <c r="N132" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" s="7">
         <v>200137</v>
       </c>
-      <c r="B133" s="21" t="s">
+      <c r="B133" s="20" t="s">
         <v>328</v>
       </c>
       <c r="C133" s="7">
         <v>141</v>
       </c>
-      <c r="D133" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E133" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F133" s="26" t="s">
+      <c r="D133" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E133" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F133" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G133" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H133" s="51" t="s">
+      <c r="H133" s="48" t="s">
         <v>329</v>
       </c>
       <c r="I133" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J133" s="32">
-        <v>1</v>
-      </c>
-      <c r="K133" s="32">
-        <v>1</v>
-      </c>
-      <c r="L133" s="32">
-        <v>1</v>
-      </c>
-      <c r="M133" s="32">
+      <c r="J133" s="30">
+        <v>1</v>
+      </c>
+      <c r="K133" s="30">
+        <v>1</v>
+      </c>
+      <c r="L133" s="30">
+        <v>1</v>
+      </c>
+      <c r="M133" s="30">
         <v>1</v>
       </c>
       <c r="N133" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" s="7">
         <v>200138</v>
       </c>
-      <c r="B134" s="21" t="s">
+      <c r="B134" s="20" t="s">
         <v>330</v>
       </c>
       <c r="C134" s="7">
         <v>142</v>
       </c>
-      <c r="D134" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E134" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F134" s="26" t="s">
+      <c r="D134" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E134" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F134" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G134" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H134" s="51" t="s">
+      <c r="H134" s="48" t="s">
         <v>331</v>
       </c>
       <c r="I134" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J134" s="32">
-        <v>1</v>
-      </c>
-      <c r="K134" s="32">
-        <v>1</v>
-      </c>
-      <c r="L134" s="32">
-        <v>1</v>
-      </c>
-      <c r="M134" s="32">
+      <c r="J134" s="30">
+        <v>1</v>
+      </c>
+      <c r="K134" s="30">
+        <v>1</v>
+      </c>
+      <c r="L134" s="30">
+        <v>1</v>
+      </c>
+      <c r="M134" s="30">
         <v>1</v>
       </c>
       <c r="N134" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" s="7">
         <v>200139</v>
       </c>
-      <c r="B135" s="21" t="s">
+      <c r="B135" s="20" t="s">
         <v>332</v>
       </c>
       <c r="C135" s="7">
         <v>143</v>
       </c>
-      <c r="D135" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E135" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F135" s="26" t="s">
+      <c r="D135" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E135" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F135" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G135" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H135" s="51" t="s">
+      <c r="H135" s="48" t="s">
         <v>333</v>
       </c>
       <c r="I135" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J135" s="39">
-        <v>1</v>
-      </c>
-      <c r="K135" s="39">
-        <v>1</v>
-      </c>
-      <c r="L135" s="39">
-        <v>1</v>
-      </c>
-      <c r="M135" s="39">
+      <c r="J135" s="37">
+        <v>1</v>
+      </c>
+      <c r="K135" s="37">
+        <v>1</v>
+      </c>
+      <c r="L135" s="37">
+        <v>1</v>
+      </c>
+      <c r="M135" s="37">
         <v>1</v>
       </c>
       <c r="N135" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" s="7">
         <v>200140</v>
       </c>
-      <c r="B136" s="21" t="s">
+      <c r="B136" s="20" t="s">
         <v>334</v>
       </c>
       <c r="C136" s="7">
         <v>144</v>
       </c>
-      <c r="D136" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E136" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F136" s="26" t="s">
+      <c r="D136" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E136" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F136" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G136" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H136" s="52" t="s">
+      <c r="H136" s="49" t="s">
         <v>335</v>
       </c>
       <c r="I136" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="J136" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="K136" s="41">
-        <v>1</v>
-      </c>
-      <c r="L136" s="39">
+      <c r="J136" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="K136" s="39">
+        <v>1</v>
+      </c>
+      <c r="L136" s="37">
         <v>0</v>
       </c>
-      <c r="M136" s="39">
+      <c r="M136" s="37">
         <v>1</v>
       </c>
       <c r="N136" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" s="7">
         <v>200141</v>
       </c>
-      <c r="B137" s="21" t="s">
+      <c r="B137" s="20" t="s">
         <v>337</v>
       </c>
       <c r="C137" s="7">
         <v>145</v>
       </c>
-      <c r="D137" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E137" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F137" s="26" t="s">
+      <c r="D137" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E137" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F137" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G137" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H137" s="49" t="s">
+      <c r="H137" s="46" t="s">
         <v>338</v>
       </c>
       <c r="I137" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="J137" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="K137" s="36">
-        <v>1</v>
-      </c>
-      <c r="L137" s="36">
-        <v>1</v>
-      </c>
-      <c r="M137" s="36">
+      <c r="J137" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="K137" s="34">
+        <v>1</v>
+      </c>
+      <c r="L137" s="34">
+        <v>1</v>
+      </c>
+      <c r="M137" s="34">
         <v>1</v>
       </c>
       <c r="N137" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" s="7">
         <v>200142</v>
       </c>
-      <c r="B138" s="21" t="s">
+      <c r="B138" s="20" t="s">
         <v>339</v>
       </c>
       <c r="C138" s="7">
         <v>146</v>
       </c>
-      <c r="D138" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E138" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F138" s="26" t="s">
+      <c r="D138" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E138" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F138" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G138" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H138" s="49" t="s">
+      <c r="H138" s="46" t="s">
         <v>340</v>
       </c>
       <c r="I138" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="J138" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="K138" s="36">
-        <v>1</v>
-      </c>
-      <c r="L138" s="36">
-        <v>1</v>
-      </c>
-      <c r="M138" s="36">
+      <c r="J138" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="K138" s="34">
+        <v>1</v>
+      </c>
+      <c r="L138" s="34">
+        <v>1</v>
+      </c>
+      <c r="M138" s="34">
         <v>1</v>
       </c>
       <c r="N138" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" s="7">
         <v>200143</v>
       </c>
-      <c r="B139" s="21" t="s">
+      <c r="B139" s="20" t="s">
         <v>342</v>
       </c>
       <c r="C139" s="7">
         <v>147</v>
       </c>
-      <c r="D139" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E139" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F139" s="26" t="s">
+      <c r="D139" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E139" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F139" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G139" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H139" s="49" t="s">
+      <c r="H139" s="46" t="s">
         <v>343</v>
       </c>
       <c r="I139" s="7" t="s">
@@ -8974,29 +8380,29 @@
         <v>31</v>
       </c>
     </row>
-    <row r="140" s="7" customFormat="1" spans="1:14">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" s="7">
         <v>200144</v>
       </c>
-      <c r="B140" s="21" t="s">
+      <c r="B140" s="20" t="s">
         <v>345</v>
       </c>
       <c r="C140" s="7">
         <v>148</v>
       </c>
-      <c r="D140" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E140" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F140" s="26" t="s">
+      <c r="D140" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E140" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F140" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G140" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H140" s="49" t="s">
+      <c r="H140" s="46" t="s">
         <v>346</v>
       </c>
       <c r="I140" s="7" t="s">
@@ -9019,33 +8425,30 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V139">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:V140" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"等于,大于,小于,大于等于,小于等于"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R67">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R67" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"'==,&gt;,&lt;,&gt;=,&lt;="</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.75" customWidth="1"/>
     <col min="2" max="2" width="11.875" customWidth="1"/>
@@ -9057,12 +8460,12 @@
     <col min="12" max="12" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="24" customHeight="1" spans="1:12">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -9100,7 +8503,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" ht="21" customHeight="1" spans="1:2">
+    <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -9109,8 +8512,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/customerView/客户视图.xlsx
+++ b/src/customerView/客户视图.xlsx
@@ -1,30 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24EB1A5-696B-458B-A35D-EED9BC8360CF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="客户视图" sheetId="1" r:id="rId1"/>
     <sheet name="填写说明" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户视图!$A$1:$V$140</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户视图!$A$1:$V$145</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="363">
   <si>
     <t>CV 客户视图</t>
   </si>
@@ -358,6 +352,9 @@
     <t>custom-input_Acct_Num</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>CV00034</t>
   </si>
   <si>
@@ -563,9 +560,6 @@
   </si>
   <si>
     <t>custom_input_1</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>CV00067</t>
@@ -1098,25 +1092,113 @@
     <t>00102002</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CV0014</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <t>00306001</t>
+  </si>
+  <si>
+    <t>custom-input-applctAcctNo</t>
+  </si>
+  <si>
+    <t>CV00146</t>
+  </si>
+  <si>
+    <t>custom-input_13</t>
+  </si>
+  <si>
+    <t>CV00147</t>
+  </si>
+  <si>
+    <t>custom-input_acc</t>
+  </si>
+  <si>
+    <t>CV00148</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>101007</t>
+    </r>
+  </si>
+  <si>
+    <t>custom-input-inAcctNum</t>
+  </si>
+  <si>
+    <t>CV00149</t>
+  </si>
+  <si>
+    <t>acct_black_list</t>
+  </si>
+  <si>
+    <t>CV00150</t>
+  </si>
+  <si>
+    <t>00201017</t>
+  </si>
+  <si>
     <t>必填：</t>
   </si>
   <si>
     <t>同一交易码如果多个条件且关系 此项 写成数字相同  否则都写成不同数字</t>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1154,7 +1236,144 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1163,30 +1382,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1195,7 +1392,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79955442976165048"/>
+        <fgColor theme="3" tint="0.799523911252174"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1211,8 +1408,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1235,11 +1618,253 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1260,6 +1885,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1282,6 +1910,9 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1315,37 +1946,80 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1603,37 +2277,38 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W140"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:W146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="I149" sqref="I149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="16.3833333333333" style="7" customWidth="1"/>
     <col min="2" max="2" width="15" style="7" customWidth="1"/>
-    <col min="3" max="4" width="9.625" style="7" customWidth="1"/>
+    <col min="3" max="4" width="9.63333333333333" style="7" customWidth="1"/>
     <col min="5" max="7" width="7" style="7" customWidth="1"/>
     <col min="8" max="8" width="14.75" style="7" customWidth="1"/>
     <col min="9" max="9" width="25.75" style="7" customWidth="1"/>
-    <col min="10" max="13" width="17.625" style="7" customWidth="1"/>
-    <col min="14" max="14" width="12.375" style="7" customWidth="1"/>
+    <col min="10" max="13" width="17.6333333333333" style="7" customWidth="1"/>
+    <col min="14" max="14" width="12.3833333333333" style="7" customWidth="1"/>
     <col min="15" max="15" width="16.75" style="7" customWidth="1"/>
     <col min="16" max="16" width="9" style="7"/>
     <col min="17" max="21" width="7" style="7" customWidth="1"/>
-    <col min="22" max="22" width="29.625" style="7" customWidth="1"/>
+    <col min="22" max="22" width="29.6333333333333" style="7" customWidth="1"/>
     <col min="23" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="60.75" x14ac:dyDescent="0.2">
+    <row r="1" ht="60.75" spans="1:23">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1704,7 +2379,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22">
       <c r="A2" s="10">
         <v>200001</v>
       </c>
@@ -1729,7 +2404,7 @@
       <c r="H2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="14" t="s">
         <v>29</v>
       </c>
       <c r="J2" s="11" t="s">
@@ -1751,12 +2426,12 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
-      <c r="S2" s="15"/>
+      <c r="S2" s="16"/>
       <c r="T2" s="10"/>
       <c r="U2" s="10"/>
       <c r="V2" s="10"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22">
       <c r="A3" s="10">
         <v>200001</v>
       </c>
@@ -1781,7 +2456,7 @@
       <c r="H3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="14" t="s">
         <v>33</v>
       </c>
       <c r="J3" s="11" t="s">
@@ -1803,12 +2478,12 @@
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
-      <c r="S3" s="15"/>
+      <c r="S3" s="16"/>
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
       <c r="V3" s="10"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23">
       <c r="A4" s="10">
         <v>200002</v>
       </c>
@@ -1855,7 +2530,7 @@
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
-      <c r="S4" s="15"/>
+      <c r="S4" s="16"/>
       <c r="T4" s="10"/>
       <c r="U4" s="10"/>
       <c r="V4" s="10"/>
@@ -1863,7 +2538,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22">
       <c r="A5" s="10">
         <v>200003</v>
       </c>
@@ -1910,12 +2585,12 @@
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
-      <c r="S5" s="15"/>
+      <c r="S5" s="16"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22">
       <c r="A6" s="10">
         <v>200004</v>
       </c>
@@ -1962,12 +2637,12 @@
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
-      <c r="S6" s="15"/>
+      <c r="S6" s="16"/>
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22">
       <c r="A7" s="10">
         <v>200005</v>
       </c>
@@ -2014,12 +2689,12 @@
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
-      <c r="S7" s="15"/>
+      <c r="S7" s="16"/>
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22">
       <c r="A8" s="10">
         <v>200006</v>
       </c>
@@ -2066,12 +2741,12 @@
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
-      <c r="S8" s="15"/>
+      <c r="S8" s="16"/>
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
       <c r="V8" s="10"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22">
       <c r="A9" s="10">
         <v>200007</v>
       </c>
@@ -2115,15 +2790,15 @@
         <v>31</v>
       </c>
       <c r="O9" s="10"/>
-      <c r="P9" s="14"/>
+      <c r="P9" s="15"/>
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
-      <c r="S9" s="15"/>
+      <c r="S9" s="16"/>
       <c r="T9" s="10"/>
       <c r="U9" s="10"/>
-      <c r="V9" s="14"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V9" s="15"/>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="10">
         <v>200008</v>
       </c>
@@ -2167,15 +2842,15 @@
         <v>31</v>
       </c>
       <c r="O10" s="10"/>
-      <c r="P10" s="14"/>
+      <c r="P10" s="15"/>
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
-      <c r="S10" s="15"/>
+      <c r="S10" s="16"/>
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
       <c r="V10" s="10"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22">
       <c r="A11" s="10">
         <v>200009</v>
       </c>
@@ -2222,12 +2897,12 @@
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
-      <c r="S11" s="15"/>
+      <c r="S11" s="16"/>
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
       <c r="V11" s="10"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22">
       <c r="A12" s="10">
         <v>200010</v>
       </c>
@@ -2274,12 +2949,12 @@
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
-      <c r="S12" s="15"/>
+      <c r="S12" s="16"/>
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
       <c r="V12" s="10"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22">
       <c r="A13" s="10">
         <v>200011</v>
       </c>
@@ -2326,12 +3001,12 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
-      <c r="S13" s="15"/>
+      <c r="S13" s="16"/>
       <c r="T13" s="10"/>
       <c r="U13" s="10"/>
       <c r="V13" s="10"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22">
       <c r="A14" s="10">
         <v>200012</v>
       </c>
@@ -2378,12 +3053,12 @@
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
-      <c r="S14" s="15"/>
+      <c r="S14" s="16"/>
       <c r="T14" s="10"/>
       <c r="U14" s="10"/>
       <c r="V14" s="10"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22">
       <c r="A15" s="10">
         <v>200013</v>
       </c>
@@ -2430,12 +3105,12 @@
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
-      <c r="S15" s="15"/>
+      <c r="S15" s="16"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22">
       <c r="A16" s="10">
         <v>200014</v>
       </c>
@@ -2482,12 +3157,12 @@
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
-      <c r="S16" s="15"/>
+      <c r="S16" s="16"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22">
       <c r="A17" s="10">
         <v>200015</v>
       </c>
@@ -2534,12 +3209,12 @@
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
-      <c r="S17" s="15"/>
+      <c r="S17" s="16"/>
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
       <c r="V17" s="10"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22">
       <c r="A18" s="10">
         <v>200016</v>
       </c>
@@ -2586,12 +3261,12 @@
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
-      <c r="S18" s="15"/>
+      <c r="S18" s="16"/>
       <c r="T18" s="10"/>
       <c r="U18" s="10"/>
       <c r="V18" s="10"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22">
       <c r="A19" s="10">
         <v>200017</v>
       </c>
@@ -2638,12 +3313,12 @@
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
-      <c r="S19" s="15"/>
+      <c r="S19" s="16"/>
       <c r="T19" s="10"/>
       <c r="U19" s="10"/>
       <c r="V19" s="10"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22">
       <c r="A20" s="10">
         <v>200018</v>
       </c>
@@ -2690,12 +3365,12 @@
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
-      <c r="S20" s="15"/>
+      <c r="S20" s="16"/>
       <c r="T20" s="10"/>
       <c r="U20" s="10"/>
       <c r="V20" s="10"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22">
       <c r="A21" s="10">
         <v>200019</v>
       </c>
@@ -2742,12 +3417,12 @@
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
-      <c r="S21" s="15"/>
+      <c r="S21" s="16"/>
       <c r="T21" s="10"/>
       <c r="U21" s="10"/>
       <c r="V21" s="10"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22">
       <c r="A22" s="10">
         <v>200020</v>
       </c>
@@ -2794,12 +3469,12 @@
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
-      <c r="S22" s="15"/>
+      <c r="S22" s="16"/>
       <c r="T22" s="10"/>
       <c r="U22" s="10"/>
       <c r="V22" s="10"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22">
       <c r="A23" s="10">
         <v>200021</v>
       </c>
@@ -2846,12 +3521,12 @@
       <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
       <c r="R23" s="10"/>
-      <c r="S23" s="15"/>
+      <c r="S23" s="16"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22">
       <c r="A24" s="10">
         <v>200022</v>
       </c>
@@ -2885,11 +3560,11 @@
       <c r="K24" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L24" s="12" t="s">
+      <c r="L24" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="M24" s="50" t="s">
-        <v>350</v>
+      <c r="M24" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>31</v>
@@ -2898,12 +3573,12 @@
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
-      <c r="S24" s="15"/>
+      <c r="S24" s="16"/>
       <c r="T24" s="10"/>
       <c r="U24" s="10"/>
       <c r="V24" s="10"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22">
       <c r="A25" s="10">
         <v>200023</v>
       </c>
@@ -2937,11 +3612,11 @@
       <c r="K25" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L25" s="12" t="s">
+      <c r="L25" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="M25" s="50" t="s">
-        <v>350</v>
+      <c r="M25" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="N25" s="10" t="s">
         <v>31</v>
@@ -2950,12 +3625,12 @@
       <c r="P25" s="10"/>
       <c r="Q25" s="10"/>
       <c r="R25" s="10"/>
-      <c r="S25" s="15"/>
+      <c r="S25" s="16"/>
       <c r="T25" s="10"/>
       <c r="U25" s="10"/>
       <c r="V25" s="10"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22">
       <c r="A26" s="10">
         <v>200024</v>
       </c>
@@ -2989,11 +3664,11 @@
       <c r="K26" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L26" s="12" t="s">
+      <c r="L26" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="M26" s="50" t="s">
-        <v>350</v>
+      <c r="M26" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="N26" s="10" t="s">
         <v>31</v>
@@ -3002,12 +3677,12 @@
       <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
       <c r="R26" s="10"/>
-      <c r="S26" s="15"/>
+      <c r="S26" s="16"/>
       <c r="T26" s="10"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22">
       <c r="A27" s="10">
         <v>200025</v>
       </c>
@@ -3041,11 +3716,11 @@
       <c r="K27" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L27" s="12" t="s">
+      <c r="L27" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="M27" s="50" t="s">
-        <v>350</v>
+      <c r="M27" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="N27" s="10" t="s">
         <v>31</v>
@@ -3054,12 +3729,12 @@
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
       <c r="R27" s="10"/>
-      <c r="S27" s="15"/>
+      <c r="S27" s="16"/>
       <c r="T27" s="10"/>
       <c r="U27" s="10"/>
       <c r="V27" s="10"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22">
       <c r="A28" s="10">
         <v>200026</v>
       </c>
@@ -3093,11 +3768,11 @@
       <c r="K28" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L28" s="12" t="s">
+      <c r="L28" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="M28" s="50" t="s">
-        <v>350</v>
+      <c r="M28" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="N28" s="10" t="s">
         <v>31</v>
@@ -3106,12 +3781,12 @@
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
       <c r="R28" s="10"/>
-      <c r="S28" s="15"/>
+      <c r="S28" s="16"/>
       <c r="T28" s="10"/>
       <c r="U28" s="10"/>
       <c r="V28" s="10"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22">
       <c r="A29" s="10">
         <v>200027</v>
       </c>
@@ -3145,11 +3820,11 @@
       <c r="K29" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L29" s="12" t="s">
+      <c r="L29" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="M29" s="50" t="s">
-        <v>350</v>
+      <c r="M29" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="N29" s="10" t="s">
         <v>31</v>
@@ -3158,12 +3833,12 @@
       <c r="P29" s="10"/>
       <c r="Q29" s="10"/>
       <c r="R29" s="10"/>
-      <c r="S29" s="15"/>
+      <c r="S29" s="16"/>
       <c r="T29" s="10"/>
       <c r="U29" s="10"/>
       <c r="V29" s="10"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23">
       <c r="A30" s="10">
         <v>200028</v>
       </c>
@@ -3210,7 +3885,7 @@
       <c r="P30" s="10"/>
       <c r="Q30" s="10"/>
       <c r="R30" s="10"/>
-      <c r="S30" s="15"/>
+      <c r="S30" s="16"/>
       <c r="T30" s="10"/>
       <c r="U30" s="10"/>
       <c r="V30" s="10"/>
@@ -3218,7 +3893,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23">
       <c r="A31" s="10">
         <v>200029</v>
       </c>
@@ -3240,7 +3915,7 @@
       <c r="G31" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H31" s="42" t="s">
+      <c r="H31" s="44" t="s">
         <v>98</v>
       </c>
       <c r="I31" s="11" t="s">
@@ -3265,7 +3940,7 @@
       <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
       <c r="R31" s="10"/>
-      <c r="S31" s="15"/>
+      <c r="S31" s="16"/>
       <c r="T31" s="10"/>
       <c r="U31" s="10"/>
       <c r="V31" s="10"/>
@@ -3273,7 +3948,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22">
       <c r="A32" s="10">
         <v>200030</v>
       </c>
@@ -3295,7 +3970,7 @@
       <c r="G32" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H32" s="42" t="s">
+      <c r="H32" s="44" t="s">
         <v>100</v>
       </c>
       <c r="I32" s="11" t="s">
@@ -3320,12 +3995,12 @@
       <c r="P32" s="10"/>
       <c r="Q32" s="10"/>
       <c r="R32" s="10"/>
-      <c r="S32" s="15"/>
+      <c r="S32" s="16"/>
       <c r="T32" s="10"/>
       <c r="U32" s="10"/>
       <c r="V32" s="10"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23">
       <c r="A33" s="10">
         <v>200031</v>
       </c>
@@ -3347,7 +4022,7 @@
       <c r="G33" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H33" s="42" t="s">
+      <c r="H33" s="44" t="s">
         <v>102</v>
       </c>
       <c r="I33" s="11" t="s">
@@ -3372,7 +4047,7 @@
       <c r="P33" s="10"/>
       <c r="Q33" s="10"/>
       <c r="R33" s="10"/>
-      <c r="S33" s="15"/>
+      <c r="S33" s="16"/>
       <c r="T33" s="10"/>
       <c r="U33" s="10"/>
       <c r="V33" s="10"/>
@@ -3380,7 +4055,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23">
       <c r="A34" s="10">
         <v>200032</v>
       </c>
@@ -3427,7 +4102,7 @@
       <c r="P34" s="10"/>
       <c r="Q34" s="10"/>
       <c r="R34" s="10"/>
-      <c r="S34" s="15"/>
+      <c r="S34" s="16"/>
       <c r="T34" s="10"/>
       <c r="U34" s="10"/>
       <c r="V34" s="10"/>
@@ -3435,7 +4110,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22">
       <c r="A35" s="10">
         <v>200033</v>
       </c>
@@ -3464,16 +4139,16 @@
         <v>108</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="K35" s="11" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="L35" s="11" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="N35" s="10" t="s">
         <v>31</v>
@@ -3482,17 +4157,17 @@
       <c r="P35" s="10"/>
       <c r="Q35" s="10"/>
       <c r="R35" s="10"/>
-      <c r="S35" s="15"/>
+      <c r="S35" s="16"/>
       <c r="T35" s="10"/>
       <c r="U35" s="10"/>
       <c r="V35" s="10"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23">
       <c r="A36" s="10">
         <v>200034</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C36" s="10">
         <v>35</v>
@@ -3510,7 +4185,7 @@
         <v>27</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I36" s="11" t="s">
         <v>59</v>
@@ -3534,7 +4209,7 @@
       <c r="P36" s="10"/>
       <c r="Q36" s="10"/>
       <c r="R36" s="10"/>
-      <c r="S36" s="15"/>
+      <c r="S36" s="16"/>
       <c r="T36" s="10"/>
       <c r="U36" s="10"/>
       <c r="V36" s="10"/>
@@ -3542,12 +4217,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23">
       <c r="A37" s="10">
         <v>200035</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C37" s="10">
         <v>36</v>
@@ -3565,7 +4240,7 @@
         <v>27</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I37" s="11" t="s">
         <v>59</v>
@@ -3589,7 +4264,7 @@
       <c r="P37" s="10"/>
       <c r="Q37" s="10"/>
       <c r="R37" s="10"/>
-      <c r="S37" s="15"/>
+      <c r="S37" s="16"/>
       <c r="T37" s="10"/>
       <c r="U37" s="10"/>
       <c r="V37" s="10"/>
@@ -3597,12 +4272,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22">
       <c r="A38" s="10">
         <v>200036</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C38" s="10">
         <v>37</v>
@@ -3620,7 +4295,7 @@
         <v>27</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I38" s="11" t="s">
         <v>33</v>
@@ -3644,17 +4319,17 @@
       <c r="P38" s="10"/>
       <c r="Q38" s="10"/>
       <c r="R38" s="10"/>
-      <c r="S38" s="15"/>
+      <c r="S38" s="16"/>
       <c r="T38" s="10"/>
       <c r="U38" s="10"/>
       <c r="V38" s="10"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23">
       <c r="A39" s="10">
         <v>200037</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C39" s="10">
         <v>38</v>
@@ -3672,7 +4347,7 @@
         <v>27</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I39" s="11" t="s">
         <v>59</v>
@@ -3696,7 +4371,7 @@
       <c r="P39" s="10"/>
       <c r="Q39" s="10"/>
       <c r="R39" s="10"/>
-      <c r="S39" s="15"/>
+      <c r="S39" s="16"/>
       <c r="T39" s="10"/>
       <c r="U39" s="10"/>
       <c r="V39" s="10"/>
@@ -3704,12 +4379,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22">
       <c r="A40" s="10">
         <v>200038</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C40" s="10">
         <v>39</v>
@@ -3727,7 +4402,7 @@
         <v>27</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I40" s="11" t="s">
         <v>59</v>
@@ -3751,17 +4426,17 @@
       <c r="P40" s="10"/>
       <c r="Q40" s="10"/>
       <c r="R40" s="10"/>
-      <c r="S40" s="15"/>
+      <c r="S40" s="16"/>
       <c r="T40" s="10"/>
       <c r="U40" s="10"/>
       <c r="V40" s="10"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23">
       <c r="A41" s="10">
         <v>200039</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C41" s="10">
         <v>40</v>
@@ -3779,7 +4454,7 @@
         <v>27</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I41" s="11" t="s">
         <v>59</v>
@@ -3803,7 +4478,7 @@
       <c r="P41" s="10"/>
       <c r="Q41" s="10"/>
       <c r="R41" s="10"/>
-      <c r="S41" s="15"/>
+      <c r="S41" s="16"/>
       <c r="T41" s="10"/>
       <c r="U41" s="10"/>
       <c r="V41" s="10"/>
@@ -3811,12 +4486,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23">
       <c r="A42" s="10">
         <v>200040</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C42" s="10">
         <v>41</v>
@@ -3834,7 +4509,7 @@
         <v>27</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I42" s="11" t="s">
         <v>33</v>
@@ -3858,7 +4533,7 @@
       <c r="P42" s="10"/>
       <c r="Q42" s="10"/>
       <c r="R42" s="10"/>
-      <c r="S42" s="15"/>
+      <c r="S42" s="16"/>
       <c r="T42" s="10"/>
       <c r="U42" s="10"/>
       <c r="V42" s="10"/>
@@ -3866,12 +4541,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23">
       <c r="A43" s="10">
         <v>200041</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C43" s="10">
         <v>42</v>
@@ -3889,7 +4564,7 @@
         <v>27</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I43" s="11" t="s">
         <v>33</v>
@@ -3913,7 +4588,7 @@
       <c r="P43" s="10"/>
       <c r="Q43" s="10"/>
       <c r="R43" s="10"/>
-      <c r="S43" s="15"/>
+      <c r="S43" s="16"/>
       <c r="T43" s="10"/>
       <c r="U43" s="10"/>
       <c r="V43" s="10"/>
@@ -3921,12 +4596,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22">
       <c r="A44" s="10">
         <v>200042</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C44" s="10">
         <v>43</v>
@@ -3968,17 +4643,17 @@
       <c r="P44" s="10"/>
       <c r="Q44" s="10"/>
       <c r="R44" s="10"/>
-      <c r="S44" s="15"/>
+      <c r="S44" s="16"/>
       <c r="T44" s="10"/>
       <c r="U44" s="10"/>
       <c r="V44" s="10"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22">
       <c r="A45" s="10">
         <v>200043</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C45" s="10">
         <v>44</v>
@@ -3996,10 +4671,10 @@
         <v>27</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J45" s="11" t="s">
         <v>30</v>
@@ -4007,11 +4682,11 @@
       <c r="K45" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L45" s="12" t="s">
+      <c r="L45" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="M45" s="50" t="s">
-        <v>350</v>
+      <c r="M45" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="N45" s="10" t="s">
         <v>31</v>
@@ -4020,17 +4695,17 @@
       <c r="P45" s="10"/>
       <c r="Q45" s="10"/>
       <c r="R45" s="10"/>
-      <c r="S45" s="15"/>
+      <c r="S45" s="16"/>
       <c r="T45" s="10"/>
       <c r="U45" s="10"/>
       <c r="V45" s="10"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22">
       <c r="A46" s="10">
         <v>200044</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C46" s="10">
         <v>45</v>
@@ -4048,10 +4723,10 @@
         <v>27</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J46" s="11" t="s">
         <v>30</v>
@@ -4059,11 +4734,11 @@
       <c r="K46" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L46" s="12" t="s">
+      <c r="L46" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="M46" s="50" t="s">
-        <v>350</v>
+      <c r="M46" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="N46" s="10" t="s">
         <v>31</v>
@@ -4072,17 +4747,17 @@
       <c r="P46" s="10"/>
       <c r="Q46" s="10"/>
       <c r="R46" s="10"/>
-      <c r="S46" s="15"/>
+      <c r="S46" s="16"/>
       <c r="T46" s="10"/>
       <c r="U46" s="10"/>
       <c r="V46" s="10"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22">
       <c r="A47" s="10">
         <v>200045</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C47" s="10">
         <v>46</v>
@@ -4100,7 +4775,7 @@
         <v>27</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I47" s="11" t="s">
         <v>59</v>
@@ -4111,11 +4786,11 @@
       <c r="K47" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L47" s="12" t="s">
+      <c r="L47" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="M47" s="50" t="s">
-        <v>350</v>
+      <c r="M47" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="N47" s="10" t="s">
         <v>31</v>
@@ -4124,17 +4799,17 @@
       <c r="P47" s="10"/>
       <c r="Q47" s="10"/>
       <c r="R47" s="10"/>
-      <c r="S47" s="15"/>
+      <c r="S47" s="16"/>
       <c r="T47" s="10"/>
       <c r="U47" s="10"/>
       <c r="V47" s="10"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22">
       <c r="A48" s="10">
         <v>200046</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C48" s="10">
         <v>47</v>
@@ -4152,7 +4827,7 @@
         <v>27</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I48" s="11" t="s">
         <v>59</v>
@@ -4176,17 +4851,17 @@
       <c r="P48" s="10"/>
       <c r="Q48" s="10"/>
       <c r="R48" s="10"/>
-      <c r="S48" s="15"/>
+      <c r="S48" s="16"/>
       <c r="T48" s="10"/>
       <c r="U48" s="10"/>
       <c r="V48" s="10"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22">
       <c r="A49" s="10">
         <v>200047</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C49" s="10">
         <v>48</v>
@@ -4204,7 +4879,7 @@
         <v>27</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I49" s="11" t="s">
         <v>59</v>
@@ -4228,17 +4903,17 @@
       <c r="P49" s="10"/>
       <c r="Q49" s="10"/>
       <c r="R49" s="10"/>
-      <c r="S49" s="15"/>
+      <c r="S49" s="16"/>
       <c r="T49" s="10"/>
       <c r="U49" s="10"/>
       <c r="V49" s="10"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22">
       <c r="A50" s="10">
         <v>200048</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C50" s="10">
         <v>49</v>
@@ -4256,7 +4931,7 @@
         <v>27</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I50" s="11" t="s">
         <v>59</v>
@@ -4280,17 +4955,17 @@
       <c r="P50" s="10"/>
       <c r="Q50" s="10"/>
       <c r="R50" s="10"/>
-      <c r="S50" s="15"/>
+      <c r="S50" s="16"/>
       <c r="T50" s="10"/>
       <c r="U50" s="10"/>
       <c r="V50" s="10"/>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22">
       <c r="A51" s="10">
         <v>200049</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C51" s="10">
         <v>50</v>
@@ -4308,7 +4983,7 @@
         <v>27</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I51" s="11" t="s">
         <v>59</v>
@@ -4332,17 +5007,17 @@
       <c r="P51" s="10"/>
       <c r="Q51" s="10"/>
       <c r="R51" s="10"/>
-      <c r="S51" s="15"/>
+      <c r="S51" s="16"/>
       <c r="T51" s="10"/>
       <c r="U51" s="10"/>
       <c r="V51" s="10"/>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22">
       <c r="A52" s="10">
         <v>200050</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C52" s="10">
         <v>51</v>
@@ -4360,7 +5035,7 @@
         <v>27</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I52" s="11" t="s">
         <v>59</v>
@@ -4384,17 +5059,17 @@
       <c r="P52" s="10"/>
       <c r="Q52" s="10"/>
       <c r="R52" s="10"/>
-      <c r="S52" s="15"/>
+      <c r="S52" s="16"/>
       <c r="T52" s="10"/>
       <c r="U52" s="10"/>
       <c r="V52" s="10"/>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:22">
       <c r="A53" s="10">
         <v>200051</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C53" s="10">
         <v>52</v>
@@ -4412,7 +5087,7 @@
         <v>27</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I53" s="11" t="s">
         <v>59</v>
@@ -4436,17 +5111,17 @@
       <c r="P53" s="10"/>
       <c r="Q53" s="10"/>
       <c r="R53" s="10"/>
-      <c r="S53" s="15"/>
+      <c r="S53" s="16"/>
       <c r="T53" s="10"/>
       <c r="U53" s="10"/>
       <c r="V53" s="10"/>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23">
       <c r="A54" s="10">
         <v>200052</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C54" s="10">
         <v>53</v>
@@ -4464,7 +5139,7 @@
         <v>27</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I54" s="11" t="s">
         <v>59</v>
@@ -4488,7 +5163,7 @@
       <c r="P54" s="10"/>
       <c r="Q54" s="10"/>
       <c r="R54" s="10"/>
-      <c r="S54" s="15"/>
+      <c r="S54" s="16"/>
       <c r="T54" s="10"/>
       <c r="U54" s="10"/>
       <c r="V54" s="10"/>
@@ -4496,12 +5171,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22">
       <c r="A55" s="10">
         <v>200053</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C55" s="10">
         <v>54</v>
@@ -4519,10 +5194,10 @@
         <v>27</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J55" s="11" t="s">
         <v>30</v>
@@ -4543,17 +5218,17 @@
       <c r="P55" s="10"/>
       <c r="Q55" s="10"/>
       <c r="R55" s="10"/>
-      <c r="S55" s="15"/>
+      <c r="S55" s="16"/>
       <c r="T55" s="10"/>
       <c r="U55" s="10"/>
       <c r="V55" s="10"/>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22">
       <c r="A56" s="10">
         <v>200054</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C56" s="10">
         <v>55</v>
@@ -4571,10 +5246,10 @@
         <v>27</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J56" s="11" t="s">
         <v>30</v>
@@ -4595,17 +5270,17 @@
       <c r="P56" s="10"/>
       <c r="Q56" s="10"/>
       <c r="R56" s="10"/>
-      <c r="S56" s="15"/>
+      <c r="S56" s="16"/>
       <c r="T56" s="10"/>
       <c r="U56" s="10"/>
       <c r="V56" s="10"/>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23">
       <c r="A57" s="10">
         <v>200055</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C57" s="10">
         <v>56</v>
@@ -4623,10 +5298,10 @@
         <v>27</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J57" s="11" t="s">
         <v>30</v>
@@ -4647,7 +5322,7 @@
       <c r="P57" s="10"/>
       <c r="Q57" s="10"/>
       <c r="R57" s="10"/>
-      <c r="S57" s="15"/>
+      <c r="S57" s="16"/>
       <c r="T57" s="10"/>
       <c r="U57" s="10"/>
       <c r="V57" s="10"/>
@@ -4655,12 +5330,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23">
       <c r="A58" s="10">
         <v>200056</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C58" s="10">
         <v>57</v>
@@ -4678,7 +5353,7 @@
         <v>27</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I58" s="11" t="s">
         <v>59</v>
@@ -4702,7 +5377,7 @@
       <c r="P58" s="10"/>
       <c r="Q58" s="10"/>
       <c r="R58" s="10"/>
-      <c r="S58" s="15"/>
+      <c r="S58" s="16"/>
       <c r="T58" s="10"/>
       <c r="U58" s="10"/>
       <c r="V58" s="10"/>
@@ -4710,12 +5385,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:22">
       <c r="A59" s="10">
         <v>200057</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C59" s="10">
         <v>58</v>
@@ -4733,7 +5408,7 @@
         <v>27</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I59" s="11" t="s">
         <v>59</v>
@@ -4757,17 +5432,17 @@
       <c r="P59" s="10"/>
       <c r="Q59" s="10"/>
       <c r="R59" s="10"/>
-      <c r="S59" s="15"/>
+      <c r="S59" s="16"/>
       <c r="T59" s="10"/>
       <c r="U59" s="10"/>
       <c r="V59" s="10"/>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:22">
       <c r="A60" s="10">
         <v>200058</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C60" s="10">
         <v>59</v>
@@ -4785,7 +5460,7 @@
         <v>27</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I60" s="11" t="s">
         <v>59</v>
@@ -4809,17 +5484,17 @@
       <c r="P60" s="10"/>
       <c r="Q60" s="10"/>
       <c r="R60" s="10"/>
-      <c r="S60" s="15"/>
+      <c r="S60" s="16"/>
       <c r="T60" s="10"/>
       <c r="U60" s="10"/>
       <c r="V60" s="10"/>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:22">
       <c r="A61" s="10">
         <v>200059</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C61" s="10">
         <v>60</v>
@@ -4837,7 +5512,7 @@
         <v>27</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I61" s="11" t="s">
         <v>59</v>
@@ -4861,17 +5536,17 @@
       <c r="P61" s="10"/>
       <c r="Q61" s="10"/>
       <c r="R61" s="10"/>
-      <c r="S61" s="15"/>
+      <c r="S61" s="16"/>
       <c r="T61" s="10"/>
       <c r="U61" s="10"/>
       <c r="V61" s="10"/>
     </row>
-    <row r="62" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" s="4" customFormat="1" spans="1:23">
       <c r="A62" s="5">
         <v>200060</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C62" s="5">
         <v>61</v>
@@ -4882,28 +5557,28 @@
       <c r="E62" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F62" s="12" t="s">
+      <c r="F62" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H62" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="I62" s="12" t="s">
+      <c r="H62" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="J62" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K62" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L62" s="12" t="s">
+      <c r="I62" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="J62" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K62" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L62" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="M62" s="12" t="s">
+      <c r="M62" s="13" t="s">
         <v>46</v>
       </c>
       <c r="N62" s="5" t="s">
@@ -4913,7 +5588,7 @@
       <c r="P62" s="5"/>
       <c r="Q62" s="5"/>
       <c r="R62" s="5"/>
-      <c r="S62" s="16"/>
+      <c r="S62" s="17"/>
       <c r="T62" s="5"/>
       <c r="U62" s="5"/>
       <c r="V62" s="5"/>
@@ -4921,12 +5596,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" s="4" customFormat="1" spans="1:23">
       <c r="A63" s="5">
         <v>200061</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C63" s="5">
         <v>62</v>
@@ -4937,28 +5612,28 @@
       <c r="E63" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F63" s="12" t="s">
+      <c r="F63" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H63" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="I63" s="12" t="s">
+      <c r="H63" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="I63" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="J63" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K63" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L63" s="12" t="s">
+      <c r="J63" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K63" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L63" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="M63" s="12" t="s">
+      <c r="M63" s="13" t="s">
         <v>46</v>
       </c>
       <c r="N63" s="5" t="s">
@@ -4968,7 +5643,7 @@
       <c r="P63" s="5"/>
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
-      <c r="S63" s="16"/>
+      <c r="S63" s="17"/>
       <c r="T63" s="5"/>
       <c r="U63" s="5"/>
       <c r="V63" s="5"/>
@@ -4976,12 +5651,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" s="4" customFormat="1" spans="1:23">
       <c r="A64" s="5">
         <v>200062</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C64" s="5">
         <v>63</v>
@@ -4992,28 +5667,28 @@
       <c r="E64" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F64" s="12" t="s">
+      <c r="F64" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H64" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="I64" s="12" t="s">
+      <c r="H64" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="I64" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="J64" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K64" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L64" s="12" t="s">
+      <c r="J64" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K64" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L64" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="M64" s="12" t="s">
+      <c r="M64" s="13" t="s">
         <v>46</v>
       </c>
       <c r="N64" s="5" t="s">
@@ -5023,7 +5698,7 @@
       <c r="P64" s="5"/>
       <c r="Q64" s="5"/>
       <c r="R64" s="5"/>
-      <c r="S64" s="16"/>
+      <c r="S64" s="17"/>
       <c r="T64" s="5"/>
       <c r="U64" s="5"/>
       <c r="V64" s="5"/>
@@ -5031,12 +5706,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" s="4" customFormat="1" spans="1:23">
       <c r="A65" s="5">
         <v>200063</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C65" s="5">
         <v>64</v>
@@ -5047,28 +5722,28 @@
       <c r="E65" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F65" s="12" t="s">
+      <c r="F65" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H65" s="43" t="s">
-        <v>170</v>
-      </c>
-      <c r="I65" s="12" t="s">
+      <c r="H65" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="I65" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="J65" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K65" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L65" s="12" t="s">
+      <c r="J65" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K65" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L65" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="M65" s="12" t="s">
+      <c r="M65" s="13" t="s">
         <v>46</v>
       </c>
       <c r="N65" s="5" t="s">
@@ -5078,7 +5753,7 @@
       <c r="P65" s="5"/>
       <c r="Q65" s="5"/>
       <c r="R65" s="5"/>
-      <c r="S65" s="16"/>
+      <c r="S65" s="17"/>
       <c r="T65" s="5"/>
       <c r="U65" s="5"/>
       <c r="V65" s="5"/>
@@ -5086,12 +5761,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" s="4" customFormat="1" spans="1:23">
       <c r="A66" s="5">
         <v>200064</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C66" s="5">
         <v>65</v>
@@ -5102,28 +5777,28 @@
       <c r="E66" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F66" s="12" t="s">
+      <c r="F66" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H66" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="I66" s="12" t="s">
+      <c r="H66" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="I66" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="J66" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K66" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L66" s="12" t="s">
+      <c r="J66" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K66" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L66" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="M66" s="12" t="s">
+      <c r="M66" s="13" t="s">
         <v>46</v>
       </c>
       <c r="N66" s="5" t="s">
@@ -5133,7 +5808,7 @@
       <c r="P66" s="5"/>
       <c r="Q66" s="5"/>
       <c r="R66" s="5"/>
-      <c r="S66" s="16"/>
+      <c r="S66" s="17"/>
       <c r="T66" s="5"/>
       <c r="U66" s="5"/>
       <c r="V66" s="5"/>
@@ -5141,12 +5816,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" s="4" customFormat="1" spans="1:22">
       <c r="A67" s="5">
         <v>200065</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C67" s="5">
         <v>66</v>
@@ -5157,28 +5832,28 @@
       <c r="E67" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F67" s="12" t="s">
+      <c r="F67" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H67" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="I67" s="12" t="s">
+      <c r="H67" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="I67" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="J67" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K67" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L67" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M67" s="12" t="s">
+      <c r="J67" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K67" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L67" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="M67" s="13" t="s">
         <v>30</v>
       </c>
       <c r="N67" s="5" t="s">
@@ -5188,17 +5863,17 @@
       <c r="P67" s="5"/>
       <c r="Q67" s="5"/>
       <c r="R67" s="5"/>
-      <c r="S67" s="16"/>
+      <c r="S67" s="17"/>
       <c r="T67" s="5"/>
       <c r="U67" s="5"/>
       <c r="V67" s="5"/>
     </row>
-    <row r="68" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" s="5" customFormat="1" spans="1:14">
       <c r="A68" s="5">
         <v>200066</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C68" s="5">
         <v>67</v>
@@ -5209,35 +5884,35 @@
       <c r="E68" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F68" s="12" t="s">
+      <c r="F68" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H68" s="44" t="s">
-        <v>176</v>
+      <c r="H68" s="46" t="s">
+        <v>177</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="J68" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="K68" s="50" t="s">
-        <v>349</v>
-      </c>
-      <c r="L68" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="J68" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K68" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L68" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="M68" s="50" t="s">
-        <v>350</v>
+      <c r="M68" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="N68" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" s="5" customFormat="1" spans="1:14">
       <c r="A69" s="5">
         <v>200067</v>
       </c>
@@ -5253,35 +5928,35 @@
       <c r="E69" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F69" s="12" t="s">
+      <c r="F69" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H69" s="44" t="s">
+      <c r="H69" s="46" t="s">
         <v>180</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="J69" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="K69" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="L69" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M69" s="12" t="s">
+      <c r="J69" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="K69" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="L69" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="M69" s="13" t="s">
         <v>30</v>
       </c>
       <c r="N69" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" s="5" customFormat="1" spans="1:14">
       <c r="A70" s="5">
         <v>200068</v>
       </c>
@@ -5297,35 +5972,35 @@
       <c r="E70" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F70" s="12" t="s">
+      <c r="F70" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H70" s="44" t="s">
+      <c r="H70" s="46" t="s">
         <v>182</v>
       </c>
       <c r="I70" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="J70" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K70" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L70" s="50" t="s">
-        <v>350</v>
-      </c>
-      <c r="M70" s="50" t="s">
-        <v>350</v>
+      <c r="J70" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K70" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L70" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="M70" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="N70" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" s="5" customFormat="1" spans="1:14">
       <c r="A71" s="5">
         <v>200069</v>
       </c>
@@ -5341,35 +6016,35 @@
       <c r="E71" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F71" s="12" t="s">
+      <c r="F71" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H71" s="44" t="s">
+      <c r="H71" s="46" t="s">
         <v>182</v>
       </c>
       <c r="I71" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="J71" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K71" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L71" s="50" t="s">
-        <v>350</v>
-      </c>
-      <c r="M71" s="50" t="s">
-        <v>350</v>
+      <c r="J71" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K71" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L71" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="M71" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="N71" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" s="5" customFormat="1" spans="1:14">
       <c r="A72" s="5">
         <v>200070</v>
       </c>
@@ -5385,35 +6060,35 @@
       <c r="E72" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F72" s="12" t="s">
+      <c r="F72" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H72" s="44" t="s">
+      <c r="H72" s="46" t="s">
         <v>187</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="J72" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K72" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L72" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M72" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="J72" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K72" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L72" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="M72" s="13" t="s">
         <v>30</v>
       </c>
       <c r="N72" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" s="4" customFormat="1" spans="1:14">
       <c r="A73" s="5">
         <v>200071</v>
       </c>
@@ -5429,35 +6104,35 @@
       <c r="E73" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F73" s="12" t="s">
+      <c r="F73" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H73" s="43" t="s">
+      <c r="H73" s="45" t="s">
         <v>189</v>
       </c>
       <c r="I73" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="J73" s="28">
-        <v>1</v>
-      </c>
-      <c r="K73" s="29">
-        <v>1</v>
-      </c>
-      <c r="L73" s="27">
-        <v>1</v>
-      </c>
-      <c r="M73" s="27">
+      <c r="J73" s="30">
+        <v>1</v>
+      </c>
+      <c r="K73" s="31">
+        <v>1</v>
+      </c>
+      <c r="L73" s="28">
+        <v>1</v>
+      </c>
+      <c r="M73" s="28">
         <v>1</v>
       </c>
       <c r="N73" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" s="4" customFormat="1" spans="1:14">
       <c r="A74" s="5">
         <v>200071</v>
       </c>
@@ -5473,35 +6148,35 @@
       <c r="E74" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F74" s="12" t="s">
+      <c r="F74" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H74" s="43" t="s">
+      <c r="H74" s="45" t="s">
         <v>191</v>
       </c>
       <c r="I74" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J74" s="28">
-        <v>1</v>
-      </c>
-      <c r="K74" s="29">
-        <v>1</v>
-      </c>
-      <c r="L74" s="27">
-        <v>1</v>
-      </c>
-      <c r="M74" s="27">
+      <c r="J74" s="30">
+        <v>1</v>
+      </c>
+      <c r="K74" s="31">
+        <v>1</v>
+      </c>
+      <c r="L74" s="28">
+        <v>1</v>
+      </c>
+      <c r="M74" s="28">
         <v>1</v>
       </c>
       <c r="N74" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" s="4" customFormat="1" spans="1:14">
       <c r="A75" s="5">
         <v>200071</v>
       </c>
@@ -5517,439 +6192,439 @@
       <c r="E75" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F75" s="12" t="s">
+      <c r="F75" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H75" s="43" t="s">
+      <c r="H75" s="45" t="s">
         <v>192</v>
       </c>
       <c r="I75" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J75" s="28">
-        <v>1</v>
-      </c>
-      <c r="K75" s="29">
-        <v>1</v>
-      </c>
-      <c r="L75" s="27">
-        <v>1</v>
-      </c>
-      <c r="M75" s="27">
+      <c r="J75" s="30">
+        <v>1</v>
+      </c>
+      <c r="K75" s="31">
+        <v>1</v>
+      </c>
+      <c r="L75" s="28">
+        <v>1</v>
+      </c>
+      <c r="M75" s="28">
         <v>1</v>
       </c>
       <c r="N75" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="17">
+    <row r="76" s="6" customFormat="1" spans="1:22">
+      <c r="A76" s="18">
         <v>200073</v>
       </c>
-      <c r="B76" s="17" t="s">
+      <c r="B76" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="C76" s="18">
+      <c r="C76" s="19">
         <v>80</v>
       </c>
-      <c r="D76" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E76" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F76" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G76" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H76" s="45" t="s">
+      <c r="D76" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E76" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F76" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G76" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H76" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="I76" s="17" t="s">
+      <c r="I76" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="J76" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="K76" s="31">
-        <v>1</v>
-      </c>
-      <c r="L76" s="19" t="s">
+      <c r="J76" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="K76" s="33">
+        <v>1</v>
+      </c>
+      <c r="L76" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="M76" s="19" t="s">
+      <c r="M76" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="N76" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
-      <c r="R76" s="17"/>
-      <c r="S76" s="17"/>
-      <c r="T76" s="17"/>
-      <c r="U76" s="17"/>
-      <c r="V76" s="17"/>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A77" s="20">
+      <c r="N76" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="O76" s="18"/>
+      <c r="P76" s="18"/>
+      <c r="Q76" s="18"/>
+      <c r="R76" s="18"/>
+      <c r="S76" s="18"/>
+      <c r="T76" s="18"/>
+      <c r="U76" s="18"/>
+      <c r="V76" s="18"/>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="21">
         <v>200074</v>
       </c>
-      <c r="B77" s="20" t="s">
+      <c r="B77" s="21" t="s">
         <v>196</v>
       </c>
       <c r="C77" s="7">
         <v>81</v>
       </c>
-      <c r="D77" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E77" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F77" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G77" s="20" t="s">
+      <c r="D77" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E77" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F77" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G77" s="21" t="s">
         <v>27</v>
       </c>
       <c r="H77" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="I77" s="32" t="s">
+      <c r="I77" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="J77" s="33">
-        <v>1</v>
-      </c>
-      <c r="K77" s="34">
-        <v>1</v>
-      </c>
-      <c r="L77" s="35" t="s">
+      <c r="J77" s="35">
+        <v>1</v>
+      </c>
+      <c r="K77" s="36">
+        <v>1</v>
+      </c>
+      <c r="L77" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="M77" s="35">
-        <v>1</v>
-      </c>
-      <c r="N77" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A78" s="20">
+      <c r="M77" s="37">
+        <v>1</v>
+      </c>
+      <c r="N77" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23">
+      <c r="A78" s="21">
         <v>200075</v>
       </c>
-      <c r="B78" s="20" t="s">
+      <c r="B78" s="21" t="s">
         <v>199</v>
       </c>
       <c r="C78" s="7">
         <v>82</v>
       </c>
-      <c r="D78" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E78" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F78" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G78" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H78" s="46" t="s">
+      <c r="D78" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E78" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F78" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G78" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H78" s="48" t="s">
         <v>200</v>
       </c>
-      <c r="I78" s="32" t="s">
+      <c r="I78" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="J78" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="K78" s="34">
-        <v>1</v>
-      </c>
-      <c r="L78" s="35" t="s">
+      <c r="J78" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="K78" s="36">
+        <v>1</v>
+      </c>
+      <c r="L78" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="M78" s="35" t="s">
+      <c r="M78" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="N78" s="20" t="s">
+      <c r="N78" s="21" t="s">
         <v>31</v>
       </c>
       <c r="W78" s="7" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A79" s="20">
+    <row r="79" spans="1:23">
+      <c r="A79" s="21">
         <v>200076</v>
       </c>
-      <c r="B79" s="20" t="s">
+      <c r="B79" s="21" t="s">
         <v>203</v>
       </c>
       <c r="C79" s="7">
         <v>83</v>
       </c>
-      <c r="D79" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E79" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F79" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G79" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H79" s="46" t="s">
+      <c r="D79" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E79" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F79" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G79" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H79" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="I79" s="32" t="s">
+      <c r="I79" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="J79" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="K79" s="34">
-        <v>1</v>
-      </c>
-      <c r="L79" s="34">
+      <c r="J79" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="K79" s="36">
+        <v>1</v>
+      </c>
+      <c r="L79" s="36">
         <v>0</v>
       </c>
-      <c r="M79" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="N79" s="20" t="s">
+      <c r="M79" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="N79" s="21" t="s">
         <v>31</v>
       </c>
       <c r="W79" s="7" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="80" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="17">
+    <row r="80" s="6" customFormat="1" spans="1:14">
+      <c r="A80" s="18">
         <v>200078</v>
       </c>
-      <c r="B80" s="17" t="s">
+      <c r="B80" s="18" t="s">
         <v>205</v>
       </c>
       <c r="C80" s="6">
         <v>84</v>
       </c>
-      <c r="D80" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E80" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="F80" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G80" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H80" s="47" t="s">
+      <c r="D80" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E80" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F80" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G80" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H80" s="49" t="s">
         <v>206</v>
       </c>
       <c r="I80" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="J80" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="K80" s="37">
-        <v>1</v>
-      </c>
-      <c r="L80" s="38" t="s">
+      <c r="J80" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="K80" s="39">
+        <v>1</v>
+      </c>
+      <c r="L80" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="M80" s="38" t="s">
+      <c r="M80" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="N80" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="17">
+      <c r="N80" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" s="6" customFormat="1" spans="1:14">
+      <c r="A81" s="18">
         <v>200079</v>
       </c>
-      <c r="B81" s="17" t="s">
+      <c r="B81" s="18" t="s">
         <v>207</v>
       </c>
       <c r="C81" s="6">
         <v>85</v>
       </c>
-      <c r="D81" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E81" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="F81" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G81" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H81" s="47" t="s">
+      <c r="D81" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E81" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F81" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G81" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H81" s="49" t="s">
         <v>208</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="J81" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="K81" s="37">
-        <v>1</v>
-      </c>
-      <c r="L81" s="38" t="s">
+      <c r="J81" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="K81" s="39">
+        <v>1</v>
+      </c>
+      <c r="L81" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="M81" s="38" t="s">
+      <c r="M81" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="N81" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A82" s="20">
+      <c r="N81" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" s="21">
         <v>200080</v>
       </c>
-      <c r="B82" s="20" t="s">
+      <c r="B82" s="21" t="s">
         <v>209</v>
       </c>
       <c r="C82" s="7">
         <v>86</v>
       </c>
-      <c r="D82" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E82" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F82" s="25" t="s">
+      <c r="D82" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E82" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F82" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H82" s="43" t="s">
+      <c r="H82" s="45" t="s">
         <v>210</v>
       </c>
       <c r="I82" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J82" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="K82" s="29">
-        <v>1</v>
-      </c>
-      <c r="L82" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="M82" s="27" t="s">
+      <c r="J82" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="K82" s="31">
+        <v>1</v>
+      </c>
+      <c r="L82" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="M82" s="28" t="s">
         <v>30</v>
       </c>
       <c r="N82" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A83" s="20">
+    <row r="83" spans="1:15">
+      <c r="A83" s="21">
         <v>200085</v>
       </c>
-      <c r="B83" s="20" t="s">
+      <c r="B83" s="21" t="s">
         <v>211</v>
       </c>
       <c r="C83" s="7">
         <v>89</v>
       </c>
-      <c r="D83" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E83" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F83" s="25" t="s">
+      <c r="D83" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F83" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H83" s="26" t="s">
+      <c r="H83" s="27" t="s">
         <v>212</v>
       </c>
       <c r="I83" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="J83" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="K83" s="29">
-        <v>1</v>
-      </c>
-      <c r="L83" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="M83" s="21" t="s">
+      <c r="J83" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K83" s="31">
+        <v>1</v>
+      </c>
+      <c r="L83" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M83" s="22" t="s">
         <v>30</v>
       </c>
       <c r="N83" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="O83" s="40"/>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A84" s="20">
+      <c r="O83" s="42"/>
+    </row>
+    <row r="84" spans="1:23">
+      <c r="A84" s="21">
         <v>200086</v>
       </c>
-      <c r="B84" s="20" t="s">
+      <c r="B84" s="21" t="s">
         <v>214</v>
       </c>
       <c r="C84" s="7">
         <v>90</v>
       </c>
-      <c r="D84" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E84" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F84" s="25" t="s">
+      <c r="D84" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E84" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F84" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G84" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H84" s="27" t="s">
+      <c r="H84" s="28" t="s">
         <v>215</v>
       </c>
       <c r="I84" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="J84" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="K84" s="29">
-        <v>1</v>
-      </c>
-      <c r="L84" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="M84" s="27" t="s">
+      <c r="J84" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="K84" s="31">
+        <v>1</v>
+      </c>
+      <c r="L84" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="M84" s="28" t="s">
         <v>30</v>
       </c>
       <c r="N84" s="5" t="s">
@@ -5959,156 +6634,156 @@
         <v>217</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A85" s="20">
+    <row r="85" spans="1:14">
+      <c r="A85" s="21">
         <v>200087</v>
       </c>
-      <c r="B85" s="20" t="s">
+      <c r="B85" s="21" t="s">
         <v>218</v>
       </c>
       <c r="C85" s="7">
         <v>91</v>
       </c>
-      <c r="D85" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E85" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F85" s="25" t="s">
+      <c r="D85" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E85" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F85" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H85" s="26" t="s">
+      <c r="H85" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="I85" s="40" t="s">
+      <c r="I85" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="J85" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="K85" s="29">
-        <v>1</v>
-      </c>
-      <c r="L85" s="51" t="s">
-        <v>350</v>
-      </c>
-      <c r="M85" s="51" t="s">
-        <v>350</v>
+      <c r="J85" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K85" s="31">
+        <v>1</v>
+      </c>
+      <c r="L85" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="M85" s="22" t="s">
+        <v>46</v>
       </c>
       <c r="N85" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A86" s="20">
+    <row r="86" spans="1:15">
+      <c r="A86" s="21">
         <v>200088</v>
       </c>
-      <c r="B86" s="20" t="s">
+      <c r="B86" s="21" t="s">
         <v>221</v>
       </c>
       <c r="C86" s="7">
         <v>92</v>
       </c>
-      <c r="D86" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E86" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F86" s="25" t="s">
+      <c r="D86" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E86" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F86" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H86" s="26" t="s">
+      <c r="H86" s="27" t="s">
         <v>222</v>
       </c>
       <c r="I86" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="J86" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="K86" s="29">
-        <v>1</v>
-      </c>
-      <c r="L86" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="M86" s="21" t="s">
+      <c r="J86" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K86" s="31">
+        <v>1</v>
+      </c>
+      <c r="L86" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M86" s="22" t="s">
         <v>30</v>
       </c>
       <c r="N86" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="O86" s="40"/>
-    </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A87" s="20">
+      <c r="O86" s="42"/>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" s="21">
         <v>200089</v>
       </c>
-      <c r="B87" s="20" t="s">
+      <c r="B87" s="21" t="s">
         <v>224</v>
       </c>
       <c r="C87" s="7">
         <v>93</v>
       </c>
-      <c r="D87" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E87" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F87" s="25" t="s">
+      <c r="D87" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E87" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F87" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H87" s="26" t="s">
+      <c r="H87" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="I87" s="40" t="s">
+      <c r="I87" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="J87" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="K87" s="29">
-        <v>1</v>
-      </c>
-      <c r="L87" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="M87" s="21" t="s">
+      <c r="J87" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K87" s="31">
+        <v>1</v>
+      </c>
+      <c r="L87" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M87" s="22" t="s">
         <v>30</v>
       </c>
       <c r="N87" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A88" s="20">
+    <row r="88" spans="1:14">
+      <c r="A88" s="21">
         <v>200090</v>
       </c>
-      <c r="B88" s="20" t="s">
+      <c r="B88" s="21" t="s">
         <v>226</v>
       </c>
       <c r="C88" s="7">
         <v>94</v>
       </c>
-      <c r="D88" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E88" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F88" s="25" t="s">
+      <c r="D88" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E88" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F88" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G88" s="5" t="s">
@@ -6120,39 +6795,39 @@
       <c r="I88" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="J88" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="K88" s="29">
-        <v>1</v>
-      </c>
-      <c r="L88" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="M88" s="21" t="s">
+      <c r="J88" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K88" s="31">
+        <v>1</v>
+      </c>
+      <c r="L88" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M88" s="22" t="s">
         <v>30</v>
       </c>
       <c r="N88" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A89" s="20">
+    <row r="89" spans="1:14">
+      <c r="A89" s="21">
         <v>200091</v>
       </c>
-      <c r="B89" s="20" t="s">
+      <c r="B89" s="21" t="s">
         <v>228</v>
       </c>
       <c r="C89" s="7">
         <v>95</v>
       </c>
-      <c r="D89" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E89" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F89" s="25" t="s">
+      <c r="D89" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E89" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F89" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G89" s="5" t="s">
@@ -6164,39 +6839,39 @@
       <c r="I89" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="J89" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="K89" s="29">
-        <v>1</v>
-      </c>
-      <c r="L89" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="M89" s="21" t="s">
+      <c r="J89" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K89" s="31">
+        <v>1</v>
+      </c>
+      <c r="L89" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M89" s="22" t="s">
         <v>30</v>
       </c>
       <c r="N89" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A90" s="20">
+    <row r="90" spans="1:14">
+      <c r="A90" s="21">
         <v>200092</v>
       </c>
-      <c r="B90" s="20" t="s">
+      <c r="B90" s="21" t="s">
         <v>230</v>
       </c>
       <c r="C90" s="7">
         <v>96</v>
       </c>
-      <c r="D90" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E90" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F90" s="25" t="s">
+      <c r="D90" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E90" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F90" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G90" s="5" t="s">
@@ -6208,39 +6883,39 @@
       <c r="I90" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="J90" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="K90" s="29">
-        <v>1</v>
-      </c>
-      <c r="L90" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="M90" s="21" t="s">
+      <c r="J90" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K90" s="31">
+        <v>1</v>
+      </c>
+      <c r="L90" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M90" s="22" t="s">
         <v>30</v>
       </c>
       <c r="N90" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A91" s="20">
+    <row r="91" spans="1:14">
+      <c r="A91" s="21">
         <v>200093</v>
       </c>
-      <c r="B91" s="20" t="s">
+      <c r="B91" s="21" t="s">
         <v>232</v>
       </c>
       <c r="C91" s="7">
         <v>97</v>
       </c>
-      <c r="D91" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E91" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F91" s="25" t="s">
+      <c r="D91" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E91" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F91" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G91" s="5" t="s">
@@ -6252,259 +6927,259 @@
       <c r="I91" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="J91" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="K91" s="29">
-        <v>1</v>
-      </c>
-      <c r="L91" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="M91" s="21" t="s">
+      <c r="J91" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K91" s="31">
+        <v>1</v>
+      </c>
+      <c r="L91" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M91" s="22" t="s">
         <v>30</v>
       </c>
       <c r="N91" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A92" s="20">
+    <row r="92" spans="1:14">
+      <c r="A92" s="21">
         <v>200094</v>
       </c>
-      <c r="B92" s="20" t="s">
+      <c r="B92" s="21" t="s">
         <v>234</v>
       </c>
       <c r="C92" s="7">
         <v>98</v>
       </c>
-      <c r="D92" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E92" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F92" s="25" t="s">
+      <c r="D92" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E92" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F92" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G92" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H92" s="47" t="s">
+      <c r="H92" s="49" t="s">
         <v>235</v>
       </c>
       <c r="I92" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="J92" s="30">
-        <v>1</v>
-      </c>
-      <c r="K92" s="30">
-        <v>1</v>
-      </c>
-      <c r="L92" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="M92" s="30" t="s">
+      <c r="J92" s="32">
+        <v>1</v>
+      </c>
+      <c r="K92" s="32">
+        <v>1</v>
+      </c>
+      <c r="L92" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="M92" s="32" t="s">
         <v>46</v>
       </c>
       <c r="N92" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A93" s="20">
+    <row r="93" spans="1:14">
+      <c r="A93" s="21">
         <v>200095</v>
       </c>
-      <c r="B93" s="20" t="s">
+      <c r="B93" s="21" t="s">
         <v>237</v>
       </c>
       <c r="C93" s="7">
         <v>99</v>
       </c>
-      <c r="D93" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E93" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F93" s="25" t="s">
+      <c r="D93" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E93" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F93" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G93" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H93" s="47" t="s">
+      <c r="H93" s="49" t="s">
         <v>238</v>
       </c>
       <c r="I93" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="J93" s="30">
-        <v>1</v>
-      </c>
-      <c r="K93" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="L93" s="41" t="s">
-        <v>178</v>
-      </c>
-      <c r="M93" s="30" t="s">
+      <c r="J93" s="32">
+        <v>1</v>
+      </c>
+      <c r="K93" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="L93" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="M93" s="32" t="s">
         <v>46</v>
       </c>
       <c r="N93" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A94" s="20">
+    <row r="94" spans="1:14">
+      <c r="A94" s="21">
         <v>200096</v>
       </c>
-      <c r="B94" s="20" t="s">
+      <c r="B94" s="21" t="s">
         <v>240</v>
       </c>
       <c r="C94" s="7">
         <v>100</v>
       </c>
-      <c r="D94" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E94" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F94" s="25" t="s">
+      <c r="D94" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E94" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F94" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G94" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H94" s="47" t="s">
+      <c r="H94" s="49" t="s">
         <v>241</v>
       </c>
       <c r="I94" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="J94" s="30">
-        <v>1</v>
-      </c>
-      <c r="K94" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="L94" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="M94" s="30" t="s">
+      <c r="J94" s="32">
+        <v>1</v>
+      </c>
+      <c r="K94" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="L94" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="M94" s="32" t="s">
         <v>46</v>
       </c>
       <c r="N94" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A95" s="20">
+    <row r="95" spans="1:14">
+      <c r="A95" s="21">
         <v>200097</v>
       </c>
-      <c r="B95" s="20" t="s">
+      <c r="B95" s="21" t="s">
         <v>242</v>
       </c>
       <c r="C95" s="7">
         <v>101</v>
       </c>
-      <c r="D95" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E95" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F95" s="25" t="s">
+      <c r="D95" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E95" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F95" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G95" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H95" s="47" t="s">
+      <c r="H95" s="49" t="s">
         <v>243</v>
       </c>
       <c r="I95" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="J95" s="30">
-        <v>1</v>
-      </c>
-      <c r="K95" s="30">
-        <v>1</v>
-      </c>
-      <c r="L95" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="M95" s="30" t="s">
+      <c r="J95" s="32">
+        <v>1</v>
+      </c>
+      <c r="K95" s="32">
+        <v>1</v>
+      </c>
+      <c r="L95" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="M95" s="32" t="s">
         <v>46</v>
       </c>
       <c r="N95" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14">
       <c r="A96" s="7">
         <v>200098</v>
       </c>
-      <c r="B96" s="20" t="s">
+      <c r="B96" s="21" t="s">
         <v>245</v>
       </c>
       <c r="C96" s="7">
         <v>102</v>
       </c>
-      <c r="D96" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E96" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F96" s="25" t="s">
+      <c r="D96" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E96" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F96" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G96" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H96" s="47" t="s">
+      <c r="H96" s="49" t="s">
         <v>246</v>
       </c>
       <c r="I96" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="J96" s="37">
-        <v>1</v>
-      </c>
-      <c r="K96" s="37">
-        <v>1</v>
-      </c>
-      <c r="L96" s="37">
+      <c r="J96" s="39">
+        <v>1</v>
+      </c>
+      <c r="K96" s="39">
+        <v>1</v>
+      </c>
+      <c r="L96" s="39">
         <v>0</v>
       </c>
-      <c r="M96" s="37">
+      <c r="M96" s="39">
         <v>2</v>
       </c>
       <c r="N96" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="97" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="20">
+    <row r="97" customFormat="1" spans="1:14">
+      <c r="A97" s="21">
         <v>200081</v>
       </c>
-      <c r="B97" s="20" t="s">
+      <c r="B97" s="21" t="s">
         <v>248</v>
       </c>
       <c r="C97" s="7">
         <v>85</v>
       </c>
-      <c r="D97" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E97" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F97" s="25" t="s">
+      <c r="D97" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E97" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F97" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G97" s="5" t="s">
@@ -6516,39 +7191,39 @@
       <c r="I97" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="J97" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="K97" s="29">
-        <v>1</v>
-      </c>
-      <c r="L97" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="M97" s="27">
+      <c r="J97" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="K97" s="31">
+        <v>1</v>
+      </c>
+      <c r="L97" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="M97" s="28">
         <v>1</v>
       </c>
       <c r="N97" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="98" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="20">
+    <row r="98" customFormat="1" spans="1:14">
+      <c r="A98" s="21">
         <v>200082</v>
       </c>
-      <c r="B98" s="20" t="s">
+      <c r="B98" s="21" t="s">
         <v>251</v>
       </c>
       <c r="C98" s="7">
         <v>86</v>
       </c>
-      <c r="D98" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E98" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F98" s="25" t="s">
+      <c r="D98" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E98" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F98" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G98" s="5" t="s">
@@ -6560,39 +7235,39 @@
       <c r="I98" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="J98" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="K98" s="29">
-        <v>1</v>
-      </c>
-      <c r="L98" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="M98" s="27" t="s">
+      <c r="J98" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="K98" s="31">
+        <v>1</v>
+      </c>
+      <c r="L98" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="M98" s="28" t="s">
         <v>30</v>
       </c>
       <c r="N98" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="99" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="20">
+    <row r="99" customFormat="1" spans="1:14">
+      <c r="A99" s="21">
         <v>200083</v>
       </c>
-      <c r="B99" s="20" t="s">
+      <c r="B99" s="21" t="s">
         <v>253</v>
       </c>
       <c r="C99" s="7">
         <v>87</v>
       </c>
-      <c r="D99" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E99" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F99" s="25" t="s">
+      <c r="D99" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E99" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F99" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G99" s="5" t="s">
@@ -6604,39 +7279,39 @@
       <c r="I99" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="J99" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="K99" s="29">
-        <v>1</v>
-      </c>
-      <c r="L99" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="M99" s="27" t="s">
+      <c r="J99" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="K99" s="31">
+        <v>1</v>
+      </c>
+      <c r="L99" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="M99" s="28" t="s">
         <v>30</v>
       </c>
       <c r="N99" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="20">
+    <row r="100" customFormat="1" spans="1:14">
+      <c r="A100" s="21">
         <v>200084</v>
       </c>
-      <c r="B100" s="20" t="s">
+      <c r="B100" s="21" t="s">
         <v>256</v>
       </c>
       <c r="C100" s="7">
         <v>88</v>
       </c>
-      <c r="D100" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E100" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F100" s="25" t="s">
+      <c r="D100" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E100" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F100" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G100" s="5" t="s">
@@ -6648,215 +7323,215 @@
       <c r="I100" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="J100" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="K100" s="29">
-        <v>1</v>
-      </c>
-      <c r="L100" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="M100" s="27" t="s">
+      <c r="J100" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="K100" s="31">
+        <v>1</v>
+      </c>
+      <c r="L100" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="M100" s="28" t="s">
         <v>30</v>
       </c>
       <c r="N100" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14">
       <c r="A101" s="7">
         <v>200105</v>
       </c>
-      <c r="B101" s="20" t="s">
+      <c r="B101" s="21" t="s">
         <v>259</v>
       </c>
       <c r="C101" s="7">
         <v>109</v>
       </c>
-      <c r="D101" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E101" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F101" s="25" t="s">
+      <c r="D101" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E101" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F101" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G101" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H101" s="47" t="s">
+      <c r="H101" s="49" t="s">
         <v>260</v>
       </c>
       <c r="I101" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="J101" s="37">
-        <v>1</v>
-      </c>
-      <c r="K101" s="37">
-        <v>1</v>
-      </c>
-      <c r="L101" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="M101" s="37">
+      <c r="J101" s="39">
+        <v>1</v>
+      </c>
+      <c r="K101" s="39">
+        <v>1</v>
+      </c>
+      <c r="L101" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="M101" s="39">
         <v>2</v>
       </c>
       <c r="N101" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14">
       <c r="A102" s="7">
         <v>200106</v>
       </c>
-      <c r="B102" s="20" t="s">
+      <c r="B102" s="21" t="s">
         <v>262</v>
       </c>
       <c r="C102" s="7">
         <v>110</v>
       </c>
-      <c r="D102" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E102" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F102" s="25" t="s">
+      <c r="D102" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E102" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F102" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G102" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H102" s="47" t="s">
+      <c r="H102" s="49" t="s">
         <v>263</v>
       </c>
       <c r="I102" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="J102" s="37">
-        <v>1</v>
-      </c>
-      <c r="K102" s="37">
-        <v>1</v>
-      </c>
-      <c r="L102" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="M102" s="37">
+      <c r="J102" s="39">
+        <v>1</v>
+      </c>
+      <c r="K102" s="39">
+        <v>1</v>
+      </c>
+      <c r="L102" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="M102" s="39">
         <v>2</v>
       </c>
       <c r="N102" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14">
       <c r="A103" s="7">
         <v>200107</v>
       </c>
-      <c r="B103" s="20" t="s">
+      <c r="B103" s="21" t="s">
         <v>265</v>
       </c>
       <c r="C103" s="7">
         <v>111</v>
       </c>
-      <c r="D103" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E103" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F103" s="25" t="s">
+      <c r="D103" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E103" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F103" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G103" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H103" s="47" t="s">
+      <c r="H103" s="49" t="s">
         <v>266</v>
       </c>
       <c r="I103" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="J103" s="37">
-        <v>1</v>
-      </c>
-      <c r="K103" s="37">
-        <v>1</v>
-      </c>
-      <c r="L103" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="M103" s="37">
+      <c r="J103" s="39">
+        <v>1</v>
+      </c>
+      <c r="K103" s="39">
+        <v>1</v>
+      </c>
+      <c r="L103" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="M103" s="39">
         <v>2</v>
       </c>
       <c r="N103" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14">
       <c r="A104" s="7">
         <v>200108</v>
       </c>
-      <c r="B104" s="20" t="s">
+      <c r="B104" s="21" t="s">
         <v>267</v>
       </c>
       <c r="C104" s="7">
         <v>112</v>
       </c>
-      <c r="D104" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E104" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F104" s="25" t="s">
+      <c r="D104" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E104" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F104" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G104" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H104" s="47" t="s">
+      <c r="H104" s="49" t="s">
         <v>268</v>
       </c>
       <c r="I104" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="J104" s="37">
-        <v>1</v>
-      </c>
-      <c r="K104" s="37">
+      <c r="J104" s="39">
+        <v>1</v>
+      </c>
+      <c r="K104" s="39">
         <v>0</v>
       </c>
-      <c r="L104" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="M104" s="37">
+      <c r="L104" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="M104" s="39">
         <v>2</v>
       </c>
       <c r="N104" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14">
       <c r="A105" s="7">
         <v>200109</v>
       </c>
-      <c r="B105" s="20" t="s">
+      <c r="B105" s="21" t="s">
         <v>270</v>
       </c>
       <c r="C105" s="7">
         <v>113</v>
       </c>
-      <c r="D105" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E105" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F105" s="25" t="s">
+      <c r="D105" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E105" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F105" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G105" s="5" t="s">
@@ -6868,1497 +7543,1497 @@
       <c r="I105" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="J105" s="37">
-        <v>1</v>
-      </c>
-      <c r="K105" s="37">
+      <c r="J105" s="39">
+        <v>1</v>
+      </c>
+      <c r="K105" s="39">
         <v>0</v>
       </c>
-      <c r="L105" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="M105" s="37">
+      <c r="L105" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="M105" s="39">
         <v>2</v>
       </c>
       <c r="N105" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14">
       <c r="A106" s="7">
         <v>200110</v>
       </c>
-      <c r="B106" s="20" t="s">
+      <c r="B106" s="21" t="s">
         <v>272</v>
       </c>
       <c r="C106" s="7">
         <v>114</v>
       </c>
-      <c r="D106" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E106" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F106" s="25" t="s">
+      <c r="D106" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E106" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F106" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G106" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H106" s="46" t="s">
+      <c r="H106" s="48" t="s">
         <v>273</v>
       </c>
       <c r="I106" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="J106" s="34">
-        <v>1</v>
-      </c>
-      <c r="K106" s="34">
-        <v>1</v>
-      </c>
-      <c r="L106" s="34">
-        <v>1</v>
-      </c>
-      <c r="M106" s="34">
+      <c r="J106" s="36">
+        <v>1</v>
+      </c>
+      <c r="K106" s="36">
+        <v>1</v>
+      </c>
+      <c r="L106" s="36">
+        <v>1</v>
+      </c>
+      <c r="M106" s="36">
         <v>1</v>
       </c>
       <c r="N106" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14">
       <c r="A107" s="7">
         <v>200111</v>
       </c>
-      <c r="B107" s="20" t="s">
+      <c r="B107" s="21" t="s">
         <v>275</v>
       </c>
       <c r="C107" s="7">
         <v>115</v>
       </c>
-      <c r="D107" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E107" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F107" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G107" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H107" s="48" t="s">
+      <c r="D107" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E107" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F107" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G107" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H107" s="50" t="s">
         <v>276</v>
       </c>
       <c r="I107" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J107" s="34">
-        <v>1</v>
-      </c>
-      <c r="K107" s="34">
-        <v>1</v>
-      </c>
-      <c r="L107" s="34">
-        <v>1</v>
-      </c>
-      <c r="M107" s="34">
-        <v>1</v>
-      </c>
-      <c r="N107" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J107" s="36">
+        <v>1</v>
+      </c>
+      <c r="K107" s="36">
+        <v>1</v>
+      </c>
+      <c r="L107" s="36">
+        <v>1</v>
+      </c>
+      <c r="M107" s="36">
+        <v>1</v>
+      </c>
+      <c r="N107" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
       <c r="A108" s="7">
         <v>200112</v>
       </c>
-      <c r="B108" s="20" t="s">
+      <c r="B108" s="21" t="s">
         <v>278</v>
       </c>
       <c r="C108" s="7">
         <v>116</v>
       </c>
-      <c r="D108" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E108" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F108" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G108" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H108" s="48" t="s">
+      <c r="D108" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E108" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F108" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G108" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H108" s="50" t="s">
         <v>279</v>
       </c>
       <c r="I108" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J108" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="K108" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="L108" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="M108" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="N108" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J108" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K108" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="L108" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="M108" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="N108" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
       <c r="A109" s="7">
         <v>200113</v>
       </c>
-      <c r="B109" s="20" t="s">
+      <c r="B109" s="21" t="s">
         <v>280</v>
       </c>
       <c r="C109" s="7">
         <v>117</v>
       </c>
-      <c r="D109" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E109" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F109" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G109" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H109" s="48" t="s">
+      <c r="D109" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E109" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F109" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G109" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H109" s="50" t="s">
         <v>281</v>
       </c>
       <c r="I109" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J109" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="K109" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="L109" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="M109" s="39" t="s">
+      <c r="J109" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K109" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="L109" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="M109" s="41" t="s">
         <v>30</v>
       </c>
       <c r="N109" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14">
       <c r="A110" s="7">
         <v>200114</v>
       </c>
-      <c r="B110" s="20" t="s">
+      <c r="B110" s="21" t="s">
         <v>282</v>
       </c>
       <c r="C110" s="7">
         <v>118</v>
       </c>
-      <c r="D110" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E110" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F110" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G110" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H110" s="48" t="s">
+      <c r="D110" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E110" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F110" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G110" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H110" s="50" t="s">
         <v>283</v>
       </c>
       <c r="I110" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J110" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="K110" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="L110" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="M110" s="39" t="s">
+      <c r="J110" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K110" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="L110" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="M110" s="41" t="s">
         <v>30</v>
       </c>
       <c r="N110" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14">
       <c r="A111" s="7">
         <v>200115</v>
       </c>
-      <c r="B111" s="20" t="s">
+      <c r="B111" s="21" t="s">
         <v>284</v>
       </c>
       <c r="C111" s="7">
         <v>119</v>
       </c>
-      <c r="D111" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E111" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F111" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G111" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H111" s="48" t="s">
+      <c r="D111" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E111" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F111" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G111" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H111" s="50" t="s">
         <v>285</v>
       </c>
       <c r="I111" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J111" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="K111" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="L111" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="M111" s="39" t="s">
+      <c r="J111" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K111" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="L111" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="M111" s="41" t="s">
         <v>30</v>
       </c>
       <c r="N111" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14">
       <c r="A112" s="7">
         <v>200116</v>
       </c>
-      <c r="B112" s="20" t="s">
+      <c r="B112" s="21" t="s">
         <v>286</v>
       </c>
       <c r="C112" s="7">
         <v>120</v>
       </c>
-      <c r="D112" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E112" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F112" s="25" t="s">
+      <c r="D112" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E112" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F112" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G112" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H112" s="48" t="s">
+      <c r="H112" s="50" t="s">
         <v>287</v>
       </c>
       <c r="I112" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J112" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="K112" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="L112" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="M112" s="39" t="s">
+      <c r="J112" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K112" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="L112" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="M112" s="41" t="s">
         <v>30</v>
       </c>
       <c r="N112" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14">
       <c r="A113" s="7">
         <v>200117</v>
       </c>
-      <c r="B113" s="20" t="s">
+      <c r="B113" s="21" t="s">
         <v>288</v>
       </c>
       <c r="C113" s="7">
         <v>121</v>
       </c>
-      <c r="D113" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E113" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F113" s="25" t="s">
+      <c r="D113" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E113" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F113" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G113" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H113" s="48" t="s">
+      <c r="H113" s="50" t="s">
         <v>289</v>
       </c>
       <c r="I113" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J113" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="K113" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="L113" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="M113" s="39" t="s">
+      <c r="J113" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K113" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="L113" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="M113" s="41" t="s">
         <v>30</v>
       </c>
       <c r="N113" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14">
       <c r="A114" s="7">
         <v>200118</v>
       </c>
-      <c r="B114" s="20" t="s">
+      <c r="B114" s="21" t="s">
         <v>290</v>
       </c>
       <c r="C114" s="7">
         <v>122</v>
       </c>
-      <c r="D114" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E114" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F114" s="25" t="s">
+      <c r="D114" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E114" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F114" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G114" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H114" s="48" t="s">
+      <c r="H114" s="50" t="s">
         <v>291</v>
       </c>
       <c r="I114" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J114" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="K114" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="L114" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="M114" s="39" t="s">
+      <c r="J114" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K114" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="L114" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="M114" s="41" t="s">
         <v>30</v>
       </c>
       <c r="N114" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14">
       <c r="A115" s="7">
         <v>200119</v>
       </c>
-      <c r="B115" s="20" t="s">
+      <c r="B115" s="21" t="s">
         <v>292</v>
       </c>
       <c r="C115" s="7">
         <v>123</v>
       </c>
-      <c r="D115" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E115" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F115" s="25" t="s">
+      <c r="D115" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E115" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F115" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G115" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H115" s="48" t="s">
+      <c r="H115" s="50" t="s">
         <v>293</v>
       </c>
       <c r="I115" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J115" s="30">
-        <v>1</v>
-      </c>
-      <c r="K115" s="30">
-        <v>1</v>
-      </c>
-      <c r="L115" s="30">
-        <v>1</v>
-      </c>
-      <c r="M115" s="30">
+      <c r="J115" s="32">
+        <v>1</v>
+      </c>
+      <c r="K115" s="32">
+        <v>1</v>
+      </c>
+      <c r="L115" s="32">
+        <v>1</v>
+      </c>
+      <c r="M115" s="32">
         <v>1</v>
       </c>
       <c r="N115" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14">
       <c r="A116" s="7">
         <v>200120</v>
       </c>
-      <c r="B116" s="20" t="s">
+      <c r="B116" s="21" t="s">
         <v>294</v>
       </c>
       <c r="C116" s="7">
         <v>124</v>
       </c>
-      <c r="D116" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E116" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F116" s="25" t="s">
+      <c r="D116" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E116" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F116" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G116" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H116" s="48" t="s">
+      <c r="H116" s="50" t="s">
         <v>295</v>
       </c>
       <c r="I116" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J116" s="30">
-        <v>1</v>
-      </c>
-      <c r="K116" s="30">
-        <v>1</v>
-      </c>
-      <c r="L116" s="30">
-        <v>1</v>
-      </c>
-      <c r="M116" s="30">
+      <c r="J116" s="32">
+        <v>1</v>
+      </c>
+      <c r="K116" s="32">
+        <v>1</v>
+      </c>
+      <c r="L116" s="32">
+        <v>1</v>
+      </c>
+      <c r="M116" s="32">
         <v>1</v>
       </c>
       <c r="N116" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14">
       <c r="A117" s="7">
         <v>200121</v>
       </c>
-      <c r="B117" s="20" t="s">
+      <c r="B117" s="21" t="s">
         <v>296</v>
       </c>
       <c r="C117" s="7">
         <v>125</v>
       </c>
-      <c r="D117" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E117" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F117" s="25" t="s">
+      <c r="D117" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E117" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F117" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G117" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H117" s="48" t="s">
+      <c r="H117" s="50" t="s">
         <v>297</v>
       </c>
       <c r="I117" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J117" s="30">
-        <v>1</v>
-      </c>
-      <c r="K117" s="30">
-        <v>1</v>
-      </c>
-      <c r="L117" s="30">
-        <v>1</v>
-      </c>
-      <c r="M117" s="30">
+      <c r="J117" s="32">
+        <v>1</v>
+      </c>
+      <c r="K117" s="32">
+        <v>1</v>
+      </c>
+      <c r="L117" s="32">
+        <v>1</v>
+      </c>
+      <c r="M117" s="32">
         <v>1</v>
       </c>
       <c r="N117" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14">
       <c r="A118" s="7">
         <v>200122</v>
       </c>
-      <c r="B118" s="20" t="s">
+      <c r="B118" s="21" t="s">
         <v>298</v>
       </c>
       <c r="C118" s="7">
         <v>126</v>
       </c>
-      <c r="D118" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E118" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F118" s="25" t="s">
+      <c r="D118" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E118" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F118" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G118" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H118" s="48" t="s">
+      <c r="H118" s="50" t="s">
         <v>299</v>
       </c>
       <c r="I118" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J118" s="30">
-        <v>1</v>
-      </c>
-      <c r="K118" s="30">
-        <v>1</v>
-      </c>
-      <c r="L118" s="30">
-        <v>1</v>
-      </c>
-      <c r="M118" s="30">
+      <c r="J118" s="32">
+        <v>1</v>
+      </c>
+      <c r="K118" s="32">
+        <v>1</v>
+      </c>
+      <c r="L118" s="32">
+        <v>1</v>
+      </c>
+      <c r="M118" s="32">
         <v>1</v>
       </c>
       <c r="N118" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14">
       <c r="A119" s="7">
         <v>200123</v>
       </c>
-      <c r="B119" s="20" t="s">
+      <c r="B119" s="21" t="s">
         <v>300</v>
       </c>
       <c r="C119" s="7">
         <v>127</v>
       </c>
-      <c r="D119" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E119" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F119" s="25" t="s">
+      <c r="D119" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E119" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F119" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G119" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H119" s="48" t="s">
+      <c r="H119" s="50" t="s">
         <v>301</v>
       </c>
       <c r="I119" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J119" s="37">
-        <v>1</v>
-      </c>
-      <c r="K119" s="37">
-        <v>1</v>
-      </c>
-      <c r="L119" s="37">
-        <v>1</v>
-      </c>
-      <c r="M119" s="37">
+      <c r="J119" s="39">
+        <v>1</v>
+      </c>
+      <c r="K119" s="39">
+        <v>1</v>
+      </c>
+      <c r="L119" s="39">
+        <v>1</v>
+      </c>
+      <c r="M119" s="39">
         <v>1</v>
       </c>
       <c r="N119" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14">
       <c r="A120" s="7">
         <v>200124</v>
       </c>
-      <c r="B120" s="20" t="s">
+      <c r="B120" s="21" t="s">
         <v>302</v>
       </c>
       <c r="C120" s="7">
         <v>128</v>
       </c>
-      <c r="D120" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E120" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F120" s="25" t="s">
+      <c r="D120" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E120" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F120" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G120" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H120" s="48" t="s">
+      <c r="H120" s="50" t="s">
         <v>303</v>
       </c>
       <c r="I120" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J120" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="K120" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="L120" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="M120" s="28" t="s">
+      <c r="J120" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="K120" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="L120" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="M120" s="30" t="s">
         <v>30</v>
       </c>
       <c r="N120" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14">
       <c r="A121" s="7">
         <v>200125</v>
       </c>
-      <c r="B121" s="20" t="s">
+      <c r="B121" s="21" t="s">
         <v>304</v>
       </c>
       <c r="C121" s="7">
         <v>129</v>
       </c>
-      <c r="D121" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E121" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F121" s="25" t="s">
+      <c r="D121" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E121" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F121" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G121" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H121" s="48" t="s">
+      <c r="H121" s="50" t="s">
         <v>305</v>
       </c>
       <c r="I121" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J121" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="K121" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="L121" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="M121" s="28" t="s">
+      <c r="J121" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="K121" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="L121" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="M121" s="30" t="s">
         <v>30</v>
       </c>
       <c r="N121" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14">
       <c r="A122" s="7">
         <v>200126</v>
       </c>
-      <c r="B122" s="20" t="s">
+      <c r="B122" s="21" t="s">
         <v>306</v>
       </c>
       <c r="C122" s="7">
         <v>130</v>
       </c>
-      <c r="D122" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E122" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F122" s="25" t="s">
+      <c r="D122" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E122" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F122" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G122" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H122" s="48" t="s">
+      <c r="H122" s="50" t="s">
         <v>307</v>
       </c>
       <c r="I122" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J122" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="K122" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="L122" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="M122" s="28" t="s">
+      <c r="J122" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="K122" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="L122" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="M122" s="30" t="s">
         <v>30</v>
       </c>
       <c r="N122" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14">
       <c r="A123" s="7">
         <v>200127</v>
       </c>
-      <c r="B123" s="20" t="s">
+      <c r="B123" s="21" t="s">
         <v>308</v>
       </c>
       <c r="C123" s="7">
         <v>131</v>
       </c>
-      <c r="D123" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E123" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F123" s="25" t="s">
+      <c r="D123" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E123" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F123" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G123" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H123" s="48" t="s">
+      <c r="H123" s="50" t="s">
         <v>309</v>
       </c>
       <c r="I123" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J123" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="K123" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="L123" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="M123" s="28" t="s">
+      <c r="J123" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="K123" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="L123" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="M123" s="30" t="s">
         <v>30</v>
       </c>
       <c r="N123" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14">
       <c r="A124" s="7">
         <v>200128</v>
       </c>
-      <c r="B124" s="20" t="s">
+      <c r="B124" s="21" t="s">
         <v>310</v>
       </c>
       <c r="C124" s="7">
         <v>132</v>
       </c>
-      <c r="D124" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E124" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F124" s="25" t="s">
+      <c r="D124" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E124" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F124" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G124" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H124" s="48" t="s">
+      <c r="H124" s="50" t="s">
         <v>311</v>
       </c>
       <c r="I124" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J124" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="K124" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="L124" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="M124" s="39" t="s">
+      <c r="J124" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K124" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="L124" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="M124" s="41" t="s">
         <v>30</v>
       </c>
       <c r="N124" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14">
       <c r="A125" s="7">
         <v>200129</v>
       </c>
-      <c r="B125" s="20" t="s">
+      <c r="B125" s="21" t="s">
         <v>312</v>
       </c>
       <c r="C125" s="7">
         <v>133</v>
       </c>
-      <c r="D125" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E125" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F125" s="25" t="s">
+      <c r="D125" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E125" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F125" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G125" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H125" s="48" t="s">
+      <c r="H125" s="50" t="s">
         <v>313</v>
       </c>
       <c r="I125" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J125" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="K125" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="L125" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="M125" s="39" t="s">
+      <c r="J125" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K125" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="L125" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="M125" s="41" t="s">
         <v>30</v>
       </c>
       <c r="N125" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14">
       <c r="A126" s="7">
         <v>200130</v>
       </c>
-      <c r="B126" s="20" t="s">
+      <c r="B126" s="21" t="s">
         <v>314</v>
       </c>
       <c r="C126" s="7">
         <v>134</v>
       </c>
-      <c r="D126" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E126" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F126" s="25" t="s">
+      <c r="D126" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E126" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F126" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G126" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H126" s="48" t="s">
+      <c r="H126" s="50" t="s">
         <v>315</v>
       </c>
       <c r="I126" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J126" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="K126" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="L126" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="M126" s="39" t="s">
+      <c r="J126" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K126" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="L126" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="M126" s="41" t="s">
         <v>30</v>
       </c>
       <c r="N126" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14">
       <c r="A127" s="7">
         <v>200131</v>
       </c>
-      <c r="B127" s="20" t="s">
+      <c r="B127" s="21" t="s">
         <v>316</v>
       </c>
       <c r="C127" s="7">
         <v>135</v>
       </c>
-      <c r="D127" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E127" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F127" s="25" t="s">
+      <c r="D127" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E127" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F127" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G127" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H127" s="48" t="s">
+      <c r="H127" s="50" t="s">
         <v>317</v>
       </c>
       <c r="I127" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J127" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="K127" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="L127" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="M127" s="39" t="s">
+      <c r="J127" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K127" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="L127" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="M127" s="41" t="s">
         <v>30</v>
       </c>
       <c r="N127" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14">
       <c r="A128" s="7">
         <v>200132</v>
       </c>
-      <c r="B128" s="20" t="s">
+      <c r="B128" s="21" t="s">
         <v>318</v>
       </c>
       <c r="C128" s="7">
         <v>136</v>
       </c>
-      <c r="D128" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E128" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F128" s="25" t="s">
+      <c r="D128" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E128" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F128" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G128" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H128" s="48" t="s">
+      <c r="H128" s="50" t="s">
         <v>319</v>
       </c>
       <c r="I128" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J128" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="K128" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="L128" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="M128" s="39" t="s">
+      <c r="J128" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K128" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="L128" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="M128" s="41" t="s">
         <v>30</v>
       </c>
       <c r="N128" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14">
       <c r="A129" s="7">
         <v>200133</v>
       </c>
-      <c r="B129" s="20" t="s">
+      <c r="B129" s="21" t="s">
         <v>320</v>
       </c>
       <c r="C129" s="7">
         <v>137</v>
       </c>
-      <c r="D129" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E129" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F129" s="25" t="s">
+      <c r="D129" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E129" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F129" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G129" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H129" s="48" t="s">
+      <c r="H129" s="50" t="s">
         <v>321</v>
       </c>
       <c r="I129" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J129" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="K129" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="L129" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="M129" s="39" t="s">
+      <c r="J129" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K129" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="L129" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="M129" s="41" t="s">
         <v>30</v>
       </c>
       <c r="N129" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14">
       <c r="A130" s="7">
         <v>200134</v>
       </c>
-      <c r="B130" s="20" t="s">
+      <c r="B130" s="21" t="s">
         <v>322</v>
       </c>
       <c r="C130" s="7">
         <v>138</v>
       </c>
-      <c r="D130" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E130" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F130" s="25" t="s">
+      <c r="D130" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E130" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F130" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G130" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H130" s="48" t="s">
+      <c r="H130" s="50" t="s">
         <v>323</v>
       </c>
       <c r="I130" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J130" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="K130" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="L130" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="M130" s="39" t="s">
+      <c r="J130" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K130" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="L130" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="M130" s="41" t="s">
         <v>30</v>
       </c>
       <c r="N130" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:14">
       <c r="A131" s="7">
         <v>200135</v>
       </c>
-      <c r="B131" s="20" t="s">
+      <c r="B131" s="21" t="s">
         <v>324</v>
       </c>
       <c r="C131" s="7">
         <v>139</v>
       </c>
-      <c r="D131" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E131" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F131" s="25" t="s">
+      <c r="D131" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E131" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F131" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G131" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H131" s="48" t="s">
+      <c r="H131" s="50" t="s">
         <v>325</v>
       </c>
       <c r="I131" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J131" s="30">
-        <v>1</v>
-      </c>
-      <c r="K131" s="30">
-        <v>1</v>
-      </c>
-      <c r="L131" s="30">
-        <v>1</v>
-      </c>
-      <c r="M131" s="30">
+      <c r="J131" s="32">
+        <v>1</v>
+      </c>
+      <c r="K131" s="32">
+        <v>1</v>
+      </c>
+      <c r="L131" s="32">
+        <v>1</v>
+      </c>
+      <c r="M131" s="32">
         <v>1</v>
       </c>
       <c r="N131" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:14">
       <c r="A132" s="7">
         <v>200136</v>
       </c>
-      <c r="B132" s="20" t="s">
+      <c r="B132" s="21" t="s">
         <v>326</v>
       </c>
       <c r="C132" s="7">
         <v>140</v>
       </c>
-      <c r="D132" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E132" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F132" s="25" t="s">
+      <c r="D132" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E132" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F132" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G132" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H132" s="48" t="s">
+      <c r="H132" s="50" t="s">
         <v>327</v>
       </c>
       <c r="I132" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J132" s="30">
-        <v>1</v>
-      </c>
-      <c r="K132" s="30">
-        <v>1</v>
-      </c>
-      <c r="L132" s="30">
-        <v>1</v>
-      </c>
-      <c r="M132" s="30">
+      <c r="J132" s="32">
+        <v>1</v>
+      </c>
+      <c r="K132" s="32">
+        <v>1</v>
+      </c>
+      <c r="L132" s="32">
+        <v>1</v>
+      </c>
+      <c r="M132" s="32">
         <v>1</v>
       </c>
       <c r="N132" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:14">
       <c r="A133" s="7">
         <v>200137</v>
       </c>
-      <c r="B133" s="20" t="s">
+      <c r="B133" s="21" t="s">
         <v>328</v>
       </c>
       <c r="C133" s="7">
         <v>141</v>
       </c>
-      <c r="D133" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E133" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F133" s="25" t="s">
+      <c r="D133" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E133" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F133" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G133" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H133" s="48" t="s">
+      <c r="H133" s="50" t="s">
         <v>329</v>
       </c>
       <c r="I133" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J133" s="30">
-        <v>1</v>
-      </c>
-      <c r="K133" s="30">
-        <v>1</v>
-      </c>
-      <c r="L133" s="30">
-        <v>1</v>
-      </c>
-      <c r="M133" s="30">
+      <c r="J133" s="32">
+        <v>1</v>
+      </c>
+      <c r="K133" s="32">
+        <v>1</v>
+      </c>
+      <c r="L133" s="32">
+        <v>1</v>
+      </c>
+      <c r="M133" s="32">
         <v>1</v>
       </c>
       <c r="N133" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:14">
       <c r="A134" s="7">
         <v>200138</v>
       </c>
-      <c r="B134" s="20" t="s">
+      <c r="B134" s="21" t="s">
         <v>330</v>
       </c>
       <c r="C134" s="7">
         <v>142</v>
       </c>
-      <c r="D134" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E134" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F134" s="25" t="s">
+      <c r="D134" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E134" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F134" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G134" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H134" s="48" t="s">
+      <c r="H134" s="50" t="s">
         <v>331</v>
       </c>
       <c r="I134" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J134" s="30">
-        <v>1</v>
-      </c>
-      <c r="K134" s="30">
-        <v>1</v>
-      </c>
-      <c r="L134" s="30">
-        <v>1</v>
-      </c>
-      <c r="M134" s="30">
+      <c r="J134" s="32">
+        <v>1</v>
+      </c>
+      <c r="K134" s="32">
+        <v>1</v>
+      </c>
+      <c r="L134" s="32">
+        <v>1</v>
+      </c>
+      <c r="M134" s="32">
         <v>1</v>
       </c>
       <c r="N134" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14">
       <c r="A135" s="7">
         <v>200139</v>
       </c>
-      <c r="B135" s="20" t="s">
+      <c r="B135" s="21" t="s">
         <v>332</v>
       </c>
       <c r="C135" s="7">
         <v>143</v>
       </c>
-      <c r="D135" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E135" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F135" s="25" t="s">
+      <c r="D135" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E135" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F135" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G135" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H135" s="48" t="s">
+      <c r="H135" s="50" t="s">
         <v>333</v>
       </c>
       <c r="I135" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J135" s="37">
-        <v>1</v>
-      </c>
-      <c r="K135" s="37">
-        <v>1</v>
-      </c>
-      <c r="L135" s="37">
-        <v>1</v>
-      </c>
-      <c r="M135" s="37">
+      <c r="J135" s="39">
+        <v>1</v>
+      </c>
+      <c r="K135" s="39">
+        <v>1</v>
+      </c>
+      <c r="L135" s="39">
+        <v>1</v>
+      </c>
+      <c r="M135" s="39">
         <v>1</v>
       </c>
       <c r="N135" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14">
       <c r="A136" s="7">
         <v>200140</v>
       </c>
-      <c r="B136" s="20" t="s">
+      <c r="B136" s="21" t="s">
         <v>334</v>
       </c>
       <c r="C136" s="7">
         <v>144</v>
       </c>
-      <c r="D136" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E136" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F136" s="25" t="s">
+      <c r="D136" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E136" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F136" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G136" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H136" s="49" t="s">
+      <c r="H136" s="51" t="s">
         <v>335</v>
       </c>
       <c r="I136" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="J136" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="K136" s="39">
-        <v>1</v>
-      </c>
-      <c r="L136" s="37">
+      <c r="J136" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="K136" s="41">
+        <v>1</v>
+      </c>
+      <c r="L136" s="39">
         <v>0</v>
       </c>
-      <c r="M136" s="37">
+      <c r="M136" s="39">
         <v>1</v>
       </c>
       <c r="N136" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14">
       <c r="A137" s="7">
         <v>200141</v>
       </c>
-      <c r="B137" s="20" t="s">
+      <c r="B137" s="21" t="s">
         <v>337</v>
       </c>
       <c r="C137" s="7">
         <v>145</v>
       </c>
-      <c r="D137" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E137" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F137" s="25" t="s">
+      <c r="D137" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E137" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F137" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G137" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H137" s="46" t="s">
+      <c r="H137" s="48" t="s">
         <v>338</v>
       </c>
       <c r="I137" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="J137" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="K137" s="34">
-        <v>1</v>
-      </c>
-      <c r="L137" s="34">
-        <v>1</v>
-      </c>
-      <c r="M137" s="34">
+      <c r="J137" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="K137" s="36">
+        <v>1</v>
+      </c>
+      <c r="L137" s="36">
+        <v>1</v>
+      </c>
+      <c r="M137" s="36">
         <v>1</v>
       </c>
       <c r="N137" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:14">
       <c r="A138" s="7">
         <v>200142</v>
       </c>
-      <c r="B138" s="20" t="s">
+      <c r="B138" s="21" t="s">
         <v>339</v>
       </c>
       <c r="C138" s="7">
         <v>146</v>
       </c>
-      <c r="D138" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E138" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F138" s="25" t="s">
+      <c r="D138" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E138" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F138" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G138" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H138" s="46" t="s">
+      <c r="H138" s="48" t="s">
         <v>340</v>
       </c>
       <c r="I138" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="J138" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="K138" s="34">
-        <v>1</v>
-      </c>
-      <c r="L138" s="34">
-        <v>1</v>
-      </c>
-      <c r="M138" s="34">
+      <c r="J138" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="K138" s="36">
+        <v>1</v>
+      </c>
+      <c r="L138" s="36">
+        <v>1</v>
+      </c>
+      <c r="M138" s="36">
         <v>1</v>
       </c>
       <c r="N138" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:14">
       <c r="A139" s="7">
         <v>200143</v>
       </c>
-      <c r="B139" s="20" t="s">
+      <c r="B139" s="21" t="s">
         <v>342</v>
       </c>
       <c r="C139" s="7">
         <v>147</v>
       </c>
-      <c r="D139" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E139" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F139" s="25" t="s">
+      <c r="D139" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E139" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F139" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G139" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H139" s="46" t="s">
+      <c r="H139" s="48" t="s">
         <v>343</v>
       </c>
       <c r="I139" s="7" t="s">
@@ -8380,29 +9055,29 @@
         <v>31</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14">
       <c r="A140" s="7">
         <v>200144</v>
       </c>
-      <c r="B140" s="20" t="s">
+      <c r="B140" s="21" t="s">
         <v>345</v>
       </c>
       <c r="C140" s="7">
         <v>148</v>
       </c>
-      <c r="D140" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E140" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F140" s="25" t="s">
+      <c r="D140" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E140" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F140" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G140" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H140" s="46" t="s">
+      <c r="H140" s="48" t="s">
         <v>346</v>
       </c>
       <c r="I140" s="7" t="s">
@@ -8424,48 +9099,337 @@
         <v>31</v>
       </c>
     </row>
+    <row r="141" spans="1:14">
+      <c r="A141" s="7">
+        <v>200145</v>
+      </c>
+      <c r="B141" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="C141" s="7">
+        <v>149</v>
+      </c>
+      <c r="D141" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E141" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F141" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G141" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H141" s="52" t="s">
+        <v>348</v>
+      </c>
+      <c r="I141" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="J141" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="K141" s="37">
+        <v>0</v>
+      </c>
+      <c r="L141" s="37">
+        <v>0</v>
+      </c>
+      <c r="M141" s="37">
+        <v>0</v>
+      </c>
+      <c r="N141" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14">
+      <c r="A142" s="7">
+        <v>200146</v>
+      </c>
+      <c r="B142" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="C142" s="7">
+        <v>150</v>
+      </c>
+      <c r="D142" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E142" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F142" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H142" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="I142" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="J142" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="K142" s="37">
+        <v>0</v>
+      </c>
+      <c r="L142" s="37">
+        <v>0</v>
+      </c>
+      <c r="M142" s="37">
+        <v>0</v>
+      </c>
+      <c r="N142" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22">
+      <c r="A143" s="10">
+        <v>200147</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="C143" s="10">
+        <v>151</v>
+      </c>
+      <c r="D143" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E143" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F143" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G143" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H143" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="I143" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="J143" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K143" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L143" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M143" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="N143" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O143" s="10"/>
+      <c r="P143" s="10"/>
+      <c r="Q143" s="10"/>
+      <c r="R143" s="10"/>
+      <c r="S143" s="16"/>
+      <c r="T143" s="10"/>
+      <c r="U143" s="10"/>
+      <c r="V143" s="10"/>
+    </row>
+    <row r="144" spans="1:14">
+      <c r="A144" s="7">
+        <v>200148</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="C144" s="10">
+        <v>151</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E144" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F144" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G144" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H144" s="27" t="s">
+        <v>355</v>
+      </c>
+      <c r="I144" s="42" t="s">
+        <v>356</v>
+      </c>
+      <c r="J144" s="37">
+        <v>0</v>
+      </c>
+      <c r="K144" s="37">
+        <v>0</v>
+      </c>
+      <c r="L144" s="37">
+        <v>0</v>
+      </c>
+      <c r="M144" s="37">
+        <v>0</v>
+      </c>
+      <c r="N144" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23">
+      <c r="A145" s="7">
+        <v>200149</v>
+      </c>
+      <c r="B145" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="C145" s="7">
+        <v>152</v>
+      </c>
+      <c r="D145" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E145" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F145" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G145" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H145" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="I145" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="J145" s="37">
+        <v>0</v>
+      </c>
+      <c r="K145" s="37">
+        <v>0</v>
+      </c>
+      <c r="L145" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="M145" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="N145" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="W145" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="146" s="7" customFormat="1" spans="1:23">
+      <c r="A146" s="7">
+        <v>200149</v>
+      </c>
+      <c r="B146" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="C146" s="7">
+        <v>153</v>
+      </c>
+      <c r="D146" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E146" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F146" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G146" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H146" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="I146" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="J146" s="37">
+        <v>0</v>
+      </c>
+      <c r="K146" s="37">
+        <v>0</v>
+      </c>
+      <c r="L146" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="M146" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="N146" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O146" s="7"/>
+      <c r="P146" s="7"/>
+      <c r="Q146" s="7"/>
+      <c r="R146" s="7"/>
+      <c r="S146" s="7"/>
+      <c r="T146" s="7"/>
+      <c r="U146" s="7"/>
+      <c r="V146" s="7"/>
+      <c r="W146" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:V140" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <autoFilter ref="A1:V145">
+    <extLst/>
+  </autoFilter>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1">
       <formula1>"等于,大于,小于,大于等于,小于等于"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R67" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R143 R1:R67">
       <formula1>"'==,&gt;,&lt;,&gt;=,&lt;="</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="18.75" customWidth="1"/>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
-    <col min="7" max="7" width="13.375" customWidth="1"/>
-    <col min="8" max="8" width="15.875" customWidth="1"/>
-    <col min="9" max="9" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="11.8833333333333" customWidth="1"/>
+    <col min="7" max="7" width="13.3833333333333" customWidth="1"/>
+    <col min="8" max="8" width="15.8833333333333" customWidth="1"/>
+    <col min="9" max="9" width="16.3833333333333" customWidth="1"/>
     <col min="10" max="10" width="24" customWidth="1"/>
-    <col min="11" max="11" width="19.375" customWidth="1"/>
-    <col min="12" max="12" width="23.125" customWidth="1"/>
+    <col min="11" max="11" width="19.3833333333333" customWidth="1"/>
+    <col min="12" max="12" width="23.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="24" customHeight="1" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -8503,17 +9467,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="21" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/customerView/客户视图.xlsx
+++ b/src/customerView/客户视图.xlsx
@@ -11,14 +11,14 @@
     <sheet name="填写说明" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户视图!$A$1:$V$145</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户视图!$A$1:$V$157</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="393">
   <si>
     <t>CV 客户视图</t>
   </si>
@@ -850,6 +850,41 @@
   </si>
   <si>
     <t>00407002</t>
+  </si>
+  <si>
+    <t>条件触发</t>
+  </si>
+  <si>
+    <t>PROD_CD_APP_ID</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产品账户应用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>!=</t>
+  </si>
+  <si>
+    <t>IN</t>
   </si>
   <si>
     <t>CV00108</t>
@@ -1182,6 +1217,78 @@
     <t>00201017</t>
   </si>
   <si>
+    <t>CV00151</t>
+  </si>
+  <si>
+    <t>00102001_1</t>
+  </si>
+  <si>
+    <t>梁强</t>
+  </si>
+  <si>
+    <t>CV00152</t>
+  </si>
+  <si>
+    <t>custom-input_11</t>
+  </si>
+  <si>
+    <t>CV00153</t>
+  </si>
+  <si>
+    <t>input-recvrAcctNo</t>
+  </si>
+  <si>
+    <t>CV00154</t>
+  </si>
+  <si>
+    <t>custom-input-recvrAcctNo</t>
+  </si>
+  <si>
+    <t>CV00155</t>
+  </si>
+  <si>
+    <t>custom-input_17</t>
+  </si>
+  <si>
+    <t>CV00156</t>
+  </si>
+  <si>
+    <t>CV00157</t>
+  </si>
+  <si>
+    <t>CV00158</t>
+  </si>
+  <si>
+    <t>00303002_3</t>
+  </si>
+  <si>
+    <t>custom-input-ACCT_NO</t>
+  </si>
+  <si>
+    <t>CV00159</t>
+  </si>
+  <si>
+    <t>00303003_2</t>
+  </si>
+  <si>
+    <t>custom-input_PayrAcctNum</t>
+  </si>
+  <si>
+    <t>CV00160</t>
+  </si>
+  <si>
+    <t>00201009</t>
+  </si>
+  <si>
+    <t>CV00161</t>
+  </si>
+  <si>
+    <t>CV00162</t>
+  </si>
+  <si>
+    <t>00102005</t>
+  </si>
+  <si>
     <t>必填：</t>
   </si>
   <si>
@@ -1193,12 +1300,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1233,6 +1340,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12.75"/>
+      <color rgb="FF001080"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF008000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -1241,7 +1372,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1255,7 +1386,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1276,14 +1407,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -1298,8 +1421,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1331,7 +1463,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1355,17 +1487,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1382,8 +1506,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF008000"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1392,7 +1522,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799523911252174"/>
+        <fgColor theme="3" tint="0.799493392742698"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1410,13 +1540,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1434,7 +1588,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1446,19 +1660,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1470,31 +1678,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1512,43 +1696,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1566,31 +1726,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1652,26 +1788,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1688,16 +1824,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1722,10 +1858,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1734,137 +1870,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1904,6 +2040,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1946,8 +2084,20 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1955,8 +2105,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
@@ -2283,28 +2435,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W146"/>
+  <dimension ref="A1:W158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I149" sqref="I149"/>
+      <selection pane="bottomLeft" activeCell="K162" sqref="K162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.3833333333333" style="7" customWidth="1"/>
+    <col min="1" max="1" width="16.3333333333333" style="7" customWidth="1"/>
     <col min="2" max="2" width="15" style="7" customWidth="1"/>
-    <col min="3" max="4" width="9.63333333333333" style="7" customWidth="1"/>
+    <col min="3" max="4" width="9.66666666666667" style="7" customWidth="1"/>
     <col min="5" max="7" width="7" style="7" customWidth="1"/>
-    <col min="8" max="8" width="14.75" style="7" customWidth="1"/>
-    <col min="9" max="9" width="25.75" style="7" customWidth="1"/>
-    <col min="10" max="13" width="17.6333333333333" style="7" customWidth="1"/>
-    <col min="14" max="14" width="12.3833333333333" style="7" customWidth="1"/>
-    <col min="15" max="15" width="16.75" style="7" customWidth="1"/>
-    <col min="16" max="16" width="9" style="7"/>
+    <col min="8" max="8" width="14.775" style="7" customWidth="1"/>
+    <col min="9" max="9" width="25.775" style="7" customWidth="1"/>
+    <col min="10" max="13" width="17.6666666666667" style="7" customWidth="1"/>
+    <col min="14" max="14" width="12.3333333333333" style="7" customWidth="1"/>
+    <col min="15" max="15" width="16.775" style="7" customWidth="1"/>
+    <col min="16" max="16" width="16.1083333333333" style="7" customWidth="1"/>
     <col min="17" max="21" width="7" style="7" customWidth="1"/>
-    <col min="22" max="22" width="29.6333333333333" style="7" customWidth="1"/>
+    <col min="22" max="22" width="29.6666666666667" style="7" customWidth="1"/>
     <col min="23" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
@@ -3915,7 +4067,7 @@
       <c r="G31" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H31" s="44" t="s">
+      <c r="H31" s="50" t="s">
         <v>98</v>
       </c>
       <c r="I31" s="11" t="s">
@@ -3970,7 +4122,7 @@
       <c r="G32" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H32" s="44" t="s">
+      <c r="H32" s="50" t="s">
         <v>100</v>
       </c>
       <c r="I32" s="11" t="s">
@@ -4022,7 +4174,7 @@
       <c r="G33" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H33" s="44" t="s">
+      <c r="H33" s="50" t="s">
         <v>102</v>
       </c>
       <c r="I33" s="11" t="s">
@@ -5563,7 +5715,7 @@
       <c r="G62" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H62" s="45" t="s">
+      <c r="H62" s="51" t="s">
         <v>164</v>
       </c>
       <c r="I62" s="13" t="s">
@@ -5618,7 +5770,7 @@
       <c r="G63" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H63" s="45" t="s">
+      <c r="H63" s="51" t="s">
         <v>167</v>
       </c>
       <c r="I63" s="13" t="s">
@@ -5673,7 +5825,7 @@
       <c r="G64" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H64" s="45" t="s">
+      <c r="H64" s="51" t="s">
         <v>169</v>
       </c>
       <c r="I64" s="13" t="s">
@@ -5728,7 +5880,7 @@
       <c r="G65" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H65" s="45" t="s">
+      <c r="H65" s="51" t="s">
         <v>171</v>
       </c>
       <c r="I65" s="13" t="s">
@@ -5783,7 +5935,7 @@
       <c r="G66" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H66" s="45" t="s">
+      <c r="H66" s="51" t="s">
         <v>173</v>
       </c>
       <c r="I66" s="13" t="s">
@@ -5838,7 +5990,7 @@
       <c r="G67" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H67" s="45" t="s">
+      <c r="H67" s="51" t="s">
         <v>175</v>
       </c>
       <c r="I67" s="13" t="s">
@@ -5890,7 +6042,7 @@
       <c r="G68" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H68" s="46" t="s">
+      <c r="H68" s="52" t="s">
         <v>177</v>
       </c>
       <c r="I68" s="5" t="s">
@@ -5934,7 +6086,7 @@
       <c r="G69" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H69" s="46" t="s">
+      <c r="H69" s="52" t="s">
         <v>180</v>
       </c>
       <c r="I69" s="5" t="s">
@@ -5978,7 +6130,7 @@
       <c r="G70" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H70" s="46" t="s">
+      <c r="H70" s="52" t="s">
         <v>182</v>
       </c>
       <c r="I70" s="5" t="s">
@@ -6022,7 +6174,7 @@
       <c r="G71" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H71" s="46" t="s">
+      <c r="H71" s="52" t="s">
         <v>182</v>
       </c>
       <c r="I71" s="5" t="s">
@@ -6066,7 +6218,7 @@
       <c r="G72" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H72" s="46" t="s">
+      <c r="H72" s="52" t="s">
         <v>187</v>
       </c>
       <c r="I72" s="5" t="s">
@@ -6110,22 +6262,22 @@
       <c r="G73" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H73" s="45" t="s">
+      <c r="H73" s="51" t="s">
         <v>189</v>
       </c>
       <c r="I73" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="J73" s="30">
-        <v>1</v>
-      </c>
-      <c r="K73" s="31">
-        <v>1</v>
-      </c>
-      <c r="L73" s="28">
-        <v>1</v>
-      </c>
-      <c r="M73" s="28">
+      <c r="J73" s="32">
+        <v>1</v>
+      </c>
+      <c r="K73" s="33">
+        <v>1</v>
+      </c>
+      <c r="L73" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="M73" s="30">
         <v>1</v>
       </c>
       <c r="N73" s="5" t="s">
@@ -6154,22 +6306,22 @@
       <c r="G74" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H74" s="45" t="s">
+      <c r="H74" s="51" t="s">
         <v>191</v>
       </c>
       <c r="I74" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J74" s="30">
-        <v>1</v>
-      </c>
-      <c r="K74" s="31">
-        <v>1</v>
-      </c>
-      <c r="L74" s="28">
-        <v>1</v>
-      </c>
-      <c r="M74" s="28">
+      <c r="J74" s="32">
+        <v>1</v>
+      </c>
+      <c r="K74" s="33">
+        <v>1</v>
+      </c>
+      <c r="L74" s="30">
+        <v>1</v>
+      </c>
+      <c r="M74" s="30">
         <v>1</v>
       </c>
       <c r="N74" s="5" t="s">
@@ -6198,22 +6350,22 @@
       <c r="G75" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H75" s="45" t="s">
+      <c r="H75" s="51" t="s">
         <v>192</v>
       </c>
       <c r="I75" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J75" s="30">
-        <v>1</v>
-      </c>
-      <c r="K75" s="31">
-        <v>1</v>
-      </c>
-      <c r="L75" s="28">
-        <v>1</v>
-      </c>
-      <c r="M75" s="28">
+      <c r="J75" s="32">
+        <v>1</v>
+      </c>
+      <c r="K75" s="33">
+        <v>1</v>
+      </c>
+      <c r="L75" s="30">
+        <v>1</v>
+      </c>
+      <c r="M75" s="30">
         <v>1</v>
       </c>
       <c r="N75" s="5" t="s">
@@ -6242,16 +6394,16 @@
       <c r="G76" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H76" s="47" t="s">
+      <c r="H76" s="53" t="s">
         <v>194</v>
       </c>
       <c r="I76" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="J76" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="K76" s="33">
+      <c r="J76" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K76" s="35">
         <v>1</v>
       </c>
       <c r="L76" s="20" t="s">
@@ -6297,19 +6449,19 @@
       <c r="H77" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="I77" s="34" t="s">
+      <c r="I77" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="J77" s="35">
-        <v>1</v>
-      </c>
-      <c r="K77" s="36">
-        <v>1</v>
-      </c>
-      <c r="L77" s="37" t="s">
+      <c r="J77" s="37">
+        <v>1</v>
+      </c>
+      <c r="K77" s="38">
+        <v>1</v>
+      </c>
+      <c r="L77" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="M77" s="37">
+      <c r="M77" s="39">
         <v>1</v>
       </c>
       <c r="N77" s="21" t="s">
@@ -6338,22 +6490,22 @@
       <c r="G78" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="H78" s="48" t="s">
+      <c r="H78" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="I78" s="34" t="s">
+      <c r="I78" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="J78" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="K78" s="36">
-        <v>1</v>
-      </c>
-      <c r="L78" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="M78" s="37" t="s">
+      <c r="J78" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="K78" s="38">
+        <v>1</v>
+      </c>
+      <c r="L78" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="M78" s="39" t="s">
         <v>46</v>
       </c>
       <c r="N78" s="21" t="s">
@@ -6385,22 +6537,22 @@
       <c r="G79" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="H79" s="48" t="s">
+      <c r="H79" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="I79" s="34" t="s">
+      <c r="I79" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="J79" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="K79" s="36">
-        <v>1</v>
-      </c>
-      <c r="L79" s="36">
+      <c r="J79" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="K79" s="38">
+        <v>1</v>
+      </c>
+      <c r="L79" s="38">
         <v>0</v>
       </c>
-      <c r="M79" s="37" t="s">
+      <c r="M79" s="39" t="s">
         <v>30</v>
       </c>
       <c r="N79" s="21" t="s">
@@ -6420,34 +6572,34 @@
       <c r="C80" s="6">
         <v>84</v>
       </c>
-      <c r="D80" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E80" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F80" s="24" t="s">
+      <c r="D80" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E80" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F80" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G80" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="49" t="s">
+      <c r="H80" s="56" t="s">
         <v>206</v>
       </c>
       <c r="I80" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="J80" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="K80" s="39">
-        <v>1</v>
-      </c>
-      <c r="L80" s="40" t="s">
+      <c r="J80" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="K80" s="41">
+        <v>1</v>
+      </c>
+      <c r="L80" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="M80" s="40" t="s">
+      <c r="M80" s="42" t="s">
         <v>46</v>
       </c>
       <c r="N80" s="19" t="s">
@@ -6464,34 +6616,34 @@
       <c r="C81" s="6">
         <v>85</v>
       </c>
-      <c r="D81" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E81" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F81" s="24" t="s">
+      <c r="D81" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E81" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F81" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G81" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H81" s="49" t="s">
+      <c r="H81" s="56" t="s">
         <v>208</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="J81" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="K81" s="39">
-        <v>1</v>
-      </c>
-      <c r="L81" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="M81" s="40" t="s">
+      <c r="J81" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="K81" s="41">
+        <v>1</v>
+      </c>
+      <c r="L81" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="M81" s="42" t="s">
         <v>46</v>
       </c>
       <c r="N81" s="19" t="s">
@@ -6508,34 +6660,34 @@
       <c r="C82" s="7">
         <v>86</v>
       </c>
-      <c r="D82" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E82" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F82" s="26" t="s">
+      <c r="D82" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E82" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F82" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H82" s="45" t="s">
+      <c r="H82" s="51" t="s">
         <v>210</v>
       </c>
       <c r="I82" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J82" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="K82" s="31">
-        <v>1</v>
-      </c>
-      <c r="L82" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="M82" s="28" t="s">
+      <c r="J82" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="K82" s="33">
+        <v>1</v>
+      </c>
+      <c r="L82" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="M82" s="30" t="s">
         <v>30</v>
       </c>
       <c r="N82" s="5" t="s">
@@ -6552,28 +6704,28 @@
       <c r="C83" s="7">
         <v>89</v>
       </c>
-      <c r="D83" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E83" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F83" s="26" t="s">
+      <c r="D83" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F83" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H83" s="27" t="s">
+      <c r="H83" s="29" t="s">
         <v>212</v>
       </c>
       <c r="I83" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="J83" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K83" s="31">
+      <c r="J83" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K83" s="33">
         <v>1</v>
       </c>
       <c r="L83" s="22" t="s">
@@ -6585,7 +6737,7 @@
       <c r="N83" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="O83" s="42"/>
+      <c r="O83" s="44"/>
     </row>
     <row r="84" spans="1:23">
       <c r="A84" s="21">
@@ -6597,34 +6749,34 @@
       <c r="C84" s="7">
         <v>90</v>
       </c>
-      <c r="D84" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E84" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F84" s="26" t="s">
+      <c r="D84" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E84" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F84" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G84" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H84" s="28" t="s">
+      <c r="H84" s="30" t="s">
         <v>215</v>
       </c>
       <c r="I84" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="J84" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="K84" s="31">
-        <v>1</v>
-      </c>
-      <c r="L84" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="M84" s="28" t="s">
+      <c r="J84" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="K84" s="33">
+        <v>1</v>
+      </c>
+      <c r="L84" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="M84" s="30" t="s">
         <v>30</v>
       </c>
       <c r="N84" s="5" t="s">
@@ -6644,28 +6796,28 @@
       <c r="C85" s="7">
         <v>91</v>
       </c>
-      <c r="D85" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E85" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F85" s="26" t="s">
+      <c r="D85" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E85" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F85" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H85" s="27" t="s">
+      <c r="H85" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="I85" s="42" t="s">
+      <c r="I85" s="44" t="s">
         <v>220</v>
       </c>
-      <c r="J85" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K85" s="31">
+      <c r="J85" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K85" s="33">
         <v>1</v>
       </c>
       <c r="L85" s="22" t="s">
@@ -6688,28 +6840,28 @@
       <c r="C86" s="7">
         <v>92</v>
       </c>
-      <c r="D86" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E86" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F86" s="26" t="s">
+      <c r="D86" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E86" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F86" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H86" s="27" t="s">
+      <c r="H86" s="29" t="s">
         <v>222</v>
       </c>
       <c r="I86" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="J86" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K86" s="31">
+      <c r="J86" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K86" s="33">
         <v>1</v>
       </c>
       <c r="L86" s="22" t="s">
@@ -6721,7 +6873,7 @@
       <c r="N86" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="O86" s="42"/>
+      <c r="O86" s="44"/>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="21">
@@ -6733,28 +6885,28 @@
       <c r="C87" s="7">
         <v>93</v>
       </c>
-      <c r="D87" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E87" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F87" s="26" t="s">
+      <c r="D87" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E87" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F87" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H87" s="27" t="s">
+      <c r="H87" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="I87" s="42" t="s">
+      <c r="I87" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="J87" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K87" s="31">
+      <c r="J87" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K87" s="33">
         <v>1</v>
       </c>
       <c r="L87" s="22" t="s">
@@ -6777,13 +6929,13 @@
       <c r="C88" s="7">
         <v>94</v>
       </c>
-      <c r="D88" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E88" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F88" s="26" t="s">
+      <c r="D88" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E88" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F88" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G88" s="5" t="s">
@@ -6795,10 +6947,10 @@
       <c r="I88" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="J88" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K88" s="31">
+      <c r="J88" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K88" s="33">
         <v>1</v>
       </c>
       <c r="L88" s="22" t="s">
@@ -6821,13 +6973,13 @@
       <c r="C89" s="7">
         <v>95</v>
       </c>
-      <c r="D89" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E89" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F89" s="26" t="s">
+      <c r="D89" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E89" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F89" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G89" s="5" t="s">
@@ -6839,10 +6991,10 @@
       <c r="I89" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="J89" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K89" s="31">
+      <c r="J89" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K89" s="33">
         <v>1</v>
       </c>
       <c r="L89" s="22" t="s">
@@ -6865,13 +7017,13 @@
       <c r="C90" s="7">
         <v>96</v>
       </c>
-      <c r="D90" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E90" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F90" s="26" t="s">
+      <c r="D90" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E90" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F90" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G90" s="5" t="s">
@@ -6883,10 +7035,10 @@
       <c r="I90" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="J90" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K90" s="31">
+      <c r="J90" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K90" s="33">
         <v>1</v>
       </c>
       <c r="L90" s="22" t="s">
@@ -6909,13 +7061,13 @@
       <c r="C91" s="7">
         <v>97</v>
       </c>
-      <c r="D91" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E91" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F91" s="26" t="s">
+      <c r="D91" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E91" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F91" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G91" s="5" t="s">
@@ -6927,10 +7079,10 @@
       <c r="I91" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="J91" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K91" s="31">
+      <c r="J91" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K91" s="33">
         <v>1</v>
       </c>
       <c r="L91" s="22" t="s">
@@ -6953,34 +7105,34 @@
       <c r="C92" s="7">
         <v>98</v>
       </c>
-      <c r="D92" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E92" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F92" s="26" t="s">
+      <c r="D92" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E92" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F92" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G92" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H92" s="49" t="s">
+      <c r="H92" s="56" t="s">
         <v>235</v>
       </c>
       <c r="I92" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="J92" s="32">
-        <v>1</v>
-      </c>
-      <c r="K92" s="32">
-        <v>1</v>
-      </c>
-      <c r="L92" s="32" t="s">
+      <c r="J92" s="34">
+        <v>1</v>
+      </c>
+      <c r="K92" s="34">
+        <v>1</v>
+      </c>
+      <c r="L92" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="M92" s="32" t="s">
+      <c r="M92" s="34" t="s">
         <v>46</v>
       </c>
       <c r="N92" s="5" t="s">
@@ -6997,34 +7149,34 @@
       <c r="C93" s="7">
         <v>99</v>
       </c>
-      <c r="D93" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E93" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F93" s="26" t="s">
+      <c r="D93" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E93" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F93" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G93" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H93" s="49" t="s">
+      <c r="H93" s="56" t="s">
         <v>238</v>
       </c>
       <c r="I93" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="J93" s="32">
-        <v>1</v>
-      </c>
-      <c r="K93" s="32" t="s">
+      <c r="J93" s="34">
+        <v>1</v>
+      </c>
+      <c r="K93" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="L93" s="32" t="s">
+      <c r="L93" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="M93" s="32" t="s">
+      <c r="M93" s="34" t="s">
         <v>46</v>
       </c>
       <c r="N93" s="5" t="s">
@@ -7041,34 +7193,34 @@
       <c r="C94" s="7">
         <v>100</v>
       </c>
-      <c r="D94" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E94" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F94" s="26" t="s">
+      <c r="D94" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E94" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F94" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G94" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H94" s="49" t="s">
+      <c r="H94" s="56" t="s">
         <v>241</v>
       </c>
       <c r="I94" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="J94" s="32">
-        <v>1</v>
-      </c>
-      <c r="K94" s="32" t="s">
+      <c r="J94" s="34">
+        <v>1</v>
+      </c>
+      <c r="K94" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="L94" s="32" t="s">
+      <c r="L94" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="M94" s="32" t="s">
+      <c r="M94" s="34" t="s">
         <v>46</v>
       </c>
       <c r="N94" s="5" t="s">
@@ -7085,34 +7237,34 @@
       <c r="C95" s="7">
         <v>101</v>
       </c>
-      <c r="D95" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E95" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F95" s="26" t="s">
+      <c r="D95" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E95" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F95" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G95" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H95" s="49" t="s">
+      <c r="H95" s="56" t="s">
         <v>243</v>
       </c>
       <c r="I95" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="J95" s="32">
-        <v>1</v>
-      </c>
-      <c r="K95" s="32">
-        <v>1</v>
-      </c>
-      <c r="L95" s="32" t="s">
+      <c r="J95" s="34">
+        <v>1</v>
+      </c>
+      <c r="K95" s="34">
+        <v>1</v>
+      </c>
+      <c r="L95" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="M95" s="32" t="s">
+      <c r="M95" s="34" t="s">
         <v>46</v>
       </c>
       <c r="N95" s="5" t="s">
@@ -7129,34 +7281,34 @@
       <c r="C96" s="7">
         <v>102</v>
       </c>
-      <c r="D96" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E96" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F96" s="26" t="s">
+      <c r="D96" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E96" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F96" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G96" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H96" s="49" t="s">
+      <c r="H96" s="56" t="s">
         <v>246</v>
       </c>
       <c r="I96" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="J96" s="39">
-        <v>1</v>
-      </c>
-      <c r="K96" s="39">
-        <v>1</v>
-      </c>
-      <c r="L96" s="39">
+      <c r="J96" s="41">
+        <v>1</v>
+      </c>
+      <c r="K96" s="41">
+        <v>1</v>
+      </c>
+      <c r="L96" s="41">
         <v>0</v>
       </c>
-      <c r="M96" s="39">
+      <c r="M96" s="41">
         <v>2</v>
       </c>
       <c r="N96" s="5" t="s">
@@ -7173,13 +7325,13 @@
       <c r="C97" s="7">
         <v>85</v>
       </c>
-      <c r="D97" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E97" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F97" s="26" t="s">
+      <c r="D97" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E97" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F97" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G97" s="5" t="s">
@@ -7191,16 +7343,16 @@
       <c r="I97" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="J97" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="K97" s="31">
-        <v>1</v>
-      </c>
-      <c r="L97" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="M97" s="28">
+      <c r="J97" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="K97" s="33">
+        <v>1</v>
+      </c>
+      <c r="L97" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="M97" s="30">
         <v>1</v>
       </c>
       <c r="N97" s="5" t="s">
@@ -7217,13 +7369,13 @@
       <c r="C98" s="7">
         <v>86</v>
       </c>
-      <c r="D98" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E98" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F98" s="26" t="s">
+      <c r="D98" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E98" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F98" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G98" s="5" t="s">
@@ -7235,16 +7387,16 @@
       <c r="I98" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="J98" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="K98" s="31">
-        <v>1</v>
-      </c>
-      <c r="L98" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="M98" s="28" t="s">
+      <c r="J98" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="K98" s="33">
+        <v>1</v>
+      </c>
+      <c r="L98" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="M98" s="30" t="s">
         <v>30</v>
       </c>
       <c r="N98" s="5" t="s">
@@ -7261,13 +7413,13 @@
       <c r="C99" s="7">
         <v>87</v>
       </c>
-      <c r="D99" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E99" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F99" s="26" t="s">
+      <c r="D99" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E99" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F99" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G99" s="5" t="s">
@@ -7279,16 +7431,16 @@
       <c r="I99" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="J99" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="K99" s="31">
-        <v>1</v>
-      </c>
-      <c r="L99" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="M99" s="28" t="s">
+      <c r="J99" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="K99" s="33">
+        <v>1</v>
+      </c>
+      <c r="L99" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="M99" s="30" t="s">
         <v>30</v>
       </c>
       <c r="N99" s="5" t="s">
@@ -7305,13 +7457,13 @@
       <c r="C100" s="7">
         <v>88</v>
       </c>
-      <c r="D100" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E100" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F100" s="26" t="s">
+      <c r="D100" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E100" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F100" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G100" s="5" t="s">
@@ -7323,16 +7475,16 @@
       <c r="I100" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="J100" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="K100" s="31">
-        <v>1</v>
-      </c>
-      <c r="L100" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="M100" s="28" t="s">
+      <c r="J100" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="K100" s="33">
+        <v>1</v>
+      </c>
+      <c r="L100" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="M100" s="30" t="s">
         <v>30</v>
       </c>
       <c r="N100" s="5" t="s">
@@ -7349,34 +7501,34 @@
       <c r="C101" s="7">
         <v>109</v>
       </c>
-      <c r="D101" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E101" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F101" s="26" t="s">
+      <c r="D101" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E101" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F101" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G101" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H101" s="49" t="s">
+      <c r="H101" s="56" t="s">
         <v>260</v>
       </c>
       <c r="I101" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="J101" s="39">
-        <v>1</v>
-      </c>
-      <c r="K101" s="39">
-        <v>1</v>
-      </c>
-      <c r="L101" s="32" t="s">
+      <c r="J101" s="41">
+        <v>1</v>
+      </c>
+      <c r="K101" s="41">
+        <v>1</v>
+      </c>
+      <c r="L101" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="M101" s="39">
+      <c r="M101" s="41">
         <v>2</v>
       </c>
       <c r="N101" s="5" t="s">
@@ -7393,41 +7545,41 @@
       <c r="C102" s="7">
         <v>110</v>
       </c>
-      <c r="D102" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E102" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F102" s="26" t="s">
+      <c r="D102" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E102" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F102" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G102" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H102" s="49" t="s">
+      <c r="H102" s="56" t="s">
         <v>263</v>
       </c>
       <c r="I102" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="J102" s="39">
-        <v>1</v>
-      </c>
-      <c r="K102" s="39">
-        <v>1</v>
-      </c>
-      <c r="L102" s="32" t="s">
+      <c r="J102" s="41">
+        <v>1</v>
+      </c>
+      <c r="K102" s="41">
+        <v>1</v>
+      </c>
+      <c r="L102" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="M102" s="39">
+      <c r="M102" s="41">
         <v>2</v>
       </c>
       <c r="N102" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" ht="16.5" spans="1:19">
       <c r="A103" s="7">
         <v>200107</v>
       </c>
@@ -7437,38 +7589,53 @@
       <c r="C103" s="7">
         <v>111</v>
       </c>
-      <c r="D103" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E103" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F103" s="26" t="s">
+      <c r="D103" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E103" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F103" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G103" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H103" s="49" t="s">
+      <c r="H103" s="56" t="s">
         <v>266</v>
       </c>
       <c r="I103" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="J103" s="39">
-        <v>1</v>
-      </c>
-      <c r="K103" s="39">
-        <v>1</v>
-      </c>
-      <c r="L103" s="32" t="s">
+      <c r="J103" s="41">
+        <v>1</v>
+      </c>
+      <c r="K103" s="41">
+        <v>1</v>
+      </c>
+      <c r="L103" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="M103" s="39">
+      <c r="M103" s="41">
         <v>2</v>
       </c>
       <c r="N103" s="5" t="s">
-        <v>31</v>
+        <v>267</v>
+      </c>
+      <c r="O103" s="45" t="s">
+        <v>268</v>
+      </c>
+      <c r="P103" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q103" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="R103" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="S103" s="7" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -7476,39 +7643,39 @@
         <v>200108</v>
       </c>
       <c r="B104" s="21" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C104" s="7">
         <v>112</v>
       </c>
-      <c r="D104" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E104" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F104" s="26" t="s">
+      <c r="D104" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E104" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F104" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G104" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H104" s="49" t="s">
-        <v>268</v>
+      <c r="H104" s="56" t="s">
+        <v>274</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="J104" s="39">
-        <v>1</v>
-      </c>
-      <c r="K104" s="39">
+        <v>275</v>
+      </c>
+      <c r="J104" s="41">
+        <v>1</v>
+      </c>
+      <c r="K104" s="41">
         <v>0</v>
       </c>
-      <c r="L104" s="32" t="s">
+      <c r="L104" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="M104" s="39">
+      <c r="M104" s="41">
         <v>2</v>
       </c>
       <c r="N104" s="5" t="s">
@@ -7520,39 +7687,39 @@
         <v>200109</v>
       </c>
       <c r="B105" s="21" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C105" s="7">
         <v>113</v>
       </c>
-      <c r="D105" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E105" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F105" s="26" t="s">
+      <c r="D105" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E105" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F105" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G105" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="J105" s="39">
-        <v>1</v>
-      </c>
-      <c r="K105" s="39">
+        <v>275</v>
+      </c>
+      <c r="J105" s="41">
+        <v>1</v>
+      </c>
+      <c r="K105" s="41">
         <v>0</v>
       </c>
-      <c r="L105" s="32" t="s">
+      <c r="L105" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="M105" s="39">
+      <c r="M105" s="41">
         <v>2</v>
       </c>
       <c r="N105" s="5" t="s">
@@ -7564,39 +7731,39 @@
         <v>200110</v>
       </c>
       <c r="B106" s="21" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C106" s="7">
         <v>114</v>
       </c>
-      <c r="D106" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E106" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F106" s="26" t="s">
+      <c r="D106" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E106" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F106" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G106" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H106" s="48" t="s">
-        <v>273</v>
+      <c r="H106" s="57" t="s">
+        <v>279</v>
       </c>
       <c r="I106" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="J106" s="36">
-        <v>1</v>
-      </c>
-      <c r="K106" s="36">
-        <v>1</v>
-      </c>
-      <c r="L106" s="36">
-        <v>1</v>
-      </c>
-      <c r="M106" s="36">
+        <v>280</v>
+      </c>
+      <c r="J106" s="38">
+        <v>1</v>
+      </c>
+      <c r="K106" s="38">
+        <v>1</v>
+      </c>
+      <c r="L106" s="38">
+        <v>1</v>
+      </c>
+      <c r="M106" s="38">
         <v>1</v>
       </c>
       <c r="N106" s="5" t="s">
@@ -7608,15 +7775,15 @@
         <v>200111</v>
       </c>
       <c r="B107" s="21" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C107" s="7">
         <v>115</v>
       </c>
-      <c r="D107" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E107" s="25" t="s">
+      <c r="D107" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E107" s="27" t="s">
         <v>25</v>
       </c>
       <c r="F107" s="22" t="s">
@@ -7625,22 +7792,22 @@
       <c r="G107" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="H107" s="50" t="s">
-        <v>276</v>
+      <c r="H107" s="58" t="s">
+        <v>282</v>
       </c>
       <c r="I107" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="J107" s="36">
-        <v>1</v>
-      </c>
-      <c r="K107" s="36">
-        <v>1</v>
-      </c>
-      <c r="L107" s="36">
-        <v>1</v>
-      </c>
-      <c r="M107" s="36">
+        <v>283</v>
+      </c>
+      <c r="J107" s="38">
+        <v>1</v>
+      </c>
+      <c r="K107" s="38">
+        <v>1</v>
+      </c>
+      <c r="L107" s="38">
+        <v>2</v>
+      </c>
+      <c r="M107" s="38">
         <v>1</v>
       </c>
       <c r="N107" s="19" t="s">
@@ -7652,15 +7819,15 @@
         <v>200112</v>
       </c>
       <c r="B108" s="21" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C108" s="7">
         <v>116</v>
       </c>
-      <c r="D108" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E108" s="25" t="s">
+      <c r="D108" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E108" s="27" t="s">
         <v>25</v>
       </c>
       <c r="F108" s="22" t="s">
@@ -7669,22 +7836,22 @@
       <c r="G108" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="H108" s="50" t="s">
-        <v>279</v>
+      <c r="H108" s="58" t="s">
+        <v>285</v>
       </c>
       <c r="I108" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="J108" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K108" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="L108" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="M108" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="J108" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K108" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="L108" s="38">
+        <v>2</v>
+      </c>
+      <c r="M108" s="43" t="s">
         <v>30</v>
       </c>
       <c r="N108" s="19" t="s">
@@ -7696,15 +7863,15 @@
         <v>200113</v>
       </c>
       <c r="B109" s="21" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C109" s="7">
         <v>117</v>
       </c>
-      <c r="D109" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E109" s="25" t="s">
+      <c r="D109" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E109" s="27" t="s">
         <v>25</v>
       </c>
       <c r="F109" s="22" t="s">
@@ -7713,22 +7880,22 @@
       <c r="G109" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="H109" s="50" t="s">
-        <v>281</v>
+      <c r="H109" s="58" t="s">
+        <v>287</v>
       </c>
       <c r="I109" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="J109" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K109" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="L109" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="M109" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="J109" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K109" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="L109" s="38">
+        <v>2</v>
+      </c>
+      <c r="M109" s="43" t="s">
         <v>30</v>
       </c>
       <c r="N109" s="5" t="s">
@@ -7740,39 +7907,39 @@
         <v>200114</v>
       </c>
       <c r="B110" s="21" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C110" s="7">
         <v>118</v>
       </c>
-      <c r="D110" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E110" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F110" s="24" t="s">
+      <c r="D110" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E110" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F110" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G110" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H110" s="50" t="s">
+      <c r="H110" s="58" t="s">
+        <v>289</v>
+      </c>
+      <c r="I110" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="I110" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="J110" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K110" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="L110" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="M110" s="41" t="s">
+      <c r="J110" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K110" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="L110" s="38">
+        <v>2</v>
+      </c>
+      <c r="M110" s="43" t="s">
         <v>30</v>
       </c>
       <c r="N110" s="5" t="s">
@@ -7784,39 +7951,39 @@
         <v>200115</v>
       </c>
       <c r="B111" s="21" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C111" s="7">
         <v>119</v>
       </c>
-      <c r="D111" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E111" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F111" s="24" t="s">
+      <c r="D111" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E111" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F111" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G111" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H111" s="50" t="s">
-        <v>285</v>
+      <c r="H111" s="58" t="s">
+        <v>291</v>
       </c>
       <c r="I111" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="J111" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K111" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="L111" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="M111" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="J111" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K111" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="L111" s="38">
+        <v>2</v>
+      </c>
+      <c r="M111" s="43" t="s">
         <v>30</v>
       </c>
       <c r="N111" s="5" t="s">
@@ -7828,39 +7995,39 @@
         <v>200116</v>
       </c>
       <c r="B112" s="21" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C112" s="7">
         <v>120</v>
       </c>
-      <c r="D112" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E112" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F112" s="26" t="s">
+      <c r="D112" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E112" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F112" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G112" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H112" s="50" t="s">
-        <v>287</v>
+      <c r="H112" s="58" t="s">
+        <v>293</v>
       </c>
       <c r="I112" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="J112" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K112" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="L112" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="M112" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="J112" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K112" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="L112" s="38">
+        <v>2</v>
+      </c>
+      <c r="M112" s="43" t="s">
         <v>30</v>
       </c>
       <c r="N112" s="5" t="s">
@@ -7872,39 +8039,39 @@
         <v>200117</v>
       </c>
       <c r="B113" s="21" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C113" s="7">
         <v>121</v>
       </c>
-      <c r="D113" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E113" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F113" s="26" t="s">
+      <c r="D113" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E113" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F113" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G113" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H113" s="50" t="s">
-        <v>289</v>
+      <c r="H113" s="58" t="s">
+        <v>295</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="J113" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K113" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="L113" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="M113" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="J113" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K113" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="L113" s="38">
+        <v>2</v>
+      </c>
+      <c r="M113" s="43" t="s">
         <v>30</v>
       </c>
       <c r="N113" s="5" t="s">
@@ -7916,39 +8083,39 @@
         <v>200118</v>
       </c>
       <c r="B114" s="21" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C114" s="7">
         <v>122</v>
       </c>
-      <c r="D114" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E114" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F114" s="26" t="s">
+      <c r="D114" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E114" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F114" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G114" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H114" s="50" t="s">
-        <v>291</v>
+      <c r="H114" s="58" t="s">
+        <v>297</v>
       </c>
       <c r="I114" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="J114" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K114" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="L114" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="M114" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="J114" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K114" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="L114" s="38">
+        <v>2</v>
+      </c>
+      <c r="M114" s="43" t="s">
         <v>30</v>
       </c>
       <c r="N114" s="5" t="s">
@@ -7960,39 +8127,39 @@
         <v>200119</v>
       </c>
       <c r="B115" s="21" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C115" s="7">
         <v>123</v>
       </c>
-      <c r="D115" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E115" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F115" s="26" t="s">
+      <c r="D115" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E115" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F115" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G115" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H115" s="50" t="s">
-        <v>293</v>
+      <c r="H115" s="58" t="s">
+        <v>299</v>
       </c>
       <c r="I115" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="J115" s="32">
-        <v>1</v>
-      </c>
-      <c r="K115" s="32">
-        <v>1</v>
-      </c>
-      <c r="L115" s="32">
-        <v>1</v>
-      </c>
-      <c r="M115" s="32">
+        <v>283</v>
+      </c>
+      <c r="J115" s="34">
+        <v>1</v>
+      </c>
+      <c r="K115" s="34">
+        <v>1</v>
+      </c>
+      <c r="L115" s="38">
+        <v>2</v>
+      </c>
+      <c r="M115" s="34">
         <v>1</v>
       </c>
       <c r="N115" s="5" t="s">
@@ -8004,39 +8171,39 @@
         <v>200120</v>
       </c>
       <c r="B116" s="21" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C116" s="7">
         <v>124</v>
       </c>
-      <c r="D116" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E116" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F116" s="26" t="s">
+      <c r="D116" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E116" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F116" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G116" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H116" s="50" t="s">
-        <v>295</v>
+      <c r="H116" s="58" t="s">
+        <v>301</v>
       </c>
       <c r="I116" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="J116" s="32">
-        <v>1</v>
-      </c>
-      <c r="K116" s="32">
-        <v>1</v>
-      </c>
-      <c r="L116" s="32">
-        <v>1</v>
-      </c>
-      <c r="M116" s="32">
+        <v>283</v>
+      </c>
+      <c r="J116" s="34">
+        <v>1</v>
+      </c>
+      <c r="K116" s="34">
+        <v>1</v>
+      </c>
+      <c r="L116" s="38">
+        <v>2</v>
+      </c>
+      <c r="M116" s="34">
         <v>1</v>
       </c>
       <c r="N116" s="5" t="s">
@@ -8048,39 +8215,39 @@
         <v>200121</v>
       </c>
       <c r="B117" s="21" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C117" s="7">
         <v>125</v>
       </c>
-      <c r="D117" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E117" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F117" s="26" t="s">
+      <c r="D117" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E117" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F117" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G117" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H117" s="50" t="s">
-        <v>297</v>
+      <c r="H117" s="58" t="s">
+        <v>303</v>
       </c>
       <c r="I117" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="J117" s="32">
-        <v>1</v>
-      </c>
-      <c r="K117" s="32">
-        <v>1</v>
-      </c>
-      <c r="L117" s="32">
-        <v>1</v>
-      </c>
-      <c r="M117" s="32">
+        <v>283</v>
+      </c>
+      <c r="J117" s="34">
+        <v>1</v>
+      </c>
+      <c r="K117" s="34">
+        <v>1</v>
+      </c>
+      <c r="L117" s="38">
+        <v>2</v>
+      </c>
+      <c r="M117" s="34">
         <v>1</v>
       </c>
       <c r="N117" s="5" t="s">
@@ -8092,39 +8259,39 @@
         <v>200122</v>
       </c>
       <c r="B118" s="21" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C118" s="7">
         <v>126</v>
       </c>
-      <c r="D118" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E118" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F118" s="26" t="s">
+      <c r="D118" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E118" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F118" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G118" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H118" s="50" t="s">
-        <v>299</v>
+      <c r="H118" s="58" t="s">
+        <v>305</v>
       </c>
       <c r="I118" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="J118" s="32">
-        <v>1</v>
-      </c>
-      <c r="K118" s="32">
-        <v>1</v>
-      </c>
-      <c r="L118" s="32">
-        <v>1</v>
-      </c>
-      <c r="M118" s="32">
+        <v>283</v>
+      </c>
+      <c r="J118" s="34">
+        <v>1</v>
+      </c>
+      <c r="K118" s="34">
+        <v>1</v>
+      </c>
+      <c r="L118" s="38">
+        <v>2</v>
+      </c>
+      <c r="M118" s="34">
         <v>1</v>
       </c>
       <c r="N118" s="5" t="s">
@@ -8136,39 +8303,39 @@
         <v>200123</v>
       </c>
       <c r="B119" s="21" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C119" s="7">
         <v>127</v>
       </c>
-      <c r="D119" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E119" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F119" s="26" t="s">
+      <c r="D119" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E119" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F119" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G119" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H119" s="50" t="s">
-        <v>301</v>
+      <c r="H119" s="58" t="s">
+        <v>307</v>
       </c>
       <c r="I119" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="J119" s="39">
-        <v>1</v>
-      </c>
-      <c r="K119" s="39">
-        <v>1</v>
-      </c>
-      <c r="L119" s="39">
-        <v>1</v>
-      </c>
-      <c r="M119" s="39">
+        <v>283</v>
+      </c>
+      <c r="J119" s="41">
+        <v>1</v>
+      </c>
+      <c r="K119" s="41">
+        <v>1</v>
+      </c>
+      <c r="L119" s="38">
+        <v>2</v>
+      </c>
+      <c r="M119" s="41">
         <v>1</v>
       </c>
       <c r="N119" s="5" t="s">
@@ -8180,39 +8347,39 @@
         <v>200124</v>
       </c>
       <c r="B120" s="21" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C120" s="7">
         <v>128</v>
       </c>
-      <c r="D120" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E120" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F120" s="26" t="s">
+      <c r="D120" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E120" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F120" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G120" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H120" s="50" t="s">
-        <v>303</v>
+      <c r="H120" s="58" t="s">
+        <v>309</v>
       </c>
       <c r="I120" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="J120" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="K120" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="L120" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="M120" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="J120" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="K120" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="L120" s="38">
+        <v>1</v>
+      </c>
+      <c r="M120" s="32" t="s">
         <v>30</v>
       </c>
       <c r="N120" s="5" t="s">
@@ -8224,39 +8391,39 @@
         <v>200125</v>
       </c>
       <c r="B121" s="21" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C121" s="7">
         <v>129</v>
       </c>
-      <c r="D121" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E121" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F121" s="26" t="s">
+      <c r="D121" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E121" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F121" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G121" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H121" s="50" t="s">
-        <v>305</v>
+      <c r="H121" s="58" t="s">
+        <v>311</v>
       </c>
       <c r="I121" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="J121" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="J121" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="K121" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="L121" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="M121" s="30" t="s">
+      <c r="K121" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="L121" s="38">
+        <v>2</v>
+      </c>
+      <c r="M121" s="32" t="s">
         <v>30</v>
       </c>
       <c r="N121" s="5" t="s">
@@ -8268,39 +8435,39 @@
         <v>200126</v>
       </c>
       <c r="B122" s="21" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C122" s="7">
         <v>130</v>
       </c>
-      <c r="D122" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E122" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F122" s="26" t="s">
+      <c r="D122" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E122" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F122" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G122" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H122" s="50" t="s">
-        <v>307</v>
+      <c r="H122" s="58" t="s">
+        <v>313</v>
       </c>
       <c r="I122" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="J122" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="K122" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="L122" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="M122" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="J122" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="K122" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="L122" s="38">
+        <v>1</v>
+      </c>
+      <c r="M122" s="32" t="s">
         <v>30</v>
       </c>
       <c r="N122" s="5" t="s">
@@ -8312,39 +8479,39 @@
         <v>200127</v>
       </c>
       <c r="B123" s="21" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C123" s="7">
         <v>131</v>
       </c>
-      <c r="D123" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E123" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F123" s="26" t="s">
+      <c r="D123" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E123" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F123" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G123" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H123" s="50" t="s">
-        <v>309</v>
+      <c r="H123" s="58" t="s">
+        <v>315</v>
       </c>
       <c r="I123" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="J123" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="K123" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="L123" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="M123" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="J123" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="K123" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="L123" s="38">
+        <v>2</v>
+      </c>
+      <c r="M123" s="32" t="s">
         <v>30</v>
       </c>
       <c r="N123" s="5" t="s">
@@ -8356,39 +8523,39 @@
         <v>200128</v>
       </c>
       <c r="B124" s="21" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C124" s="7">
         <v>132</v>
       </c>
-      <c r="D124" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E124" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F124" s="26" t="s">
+      <c r="D124" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E124" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F124" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G124" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H124" s="50" t="s">
-        <v>311</v>
+      <c r="H124" s="58" t="s">
+        <v>317</v>
       </c>
       <c r="I124" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="J124" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K124" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="L124" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="M124" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="J124" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K124" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="L124" s="38">
+        <v>2</v>
+      </c>
+      <c r="M124" s="43" t="s">
         <v>30</v>
       </c>
       <c r="N124" s="5" t="s">
@@ -8400,39 +8567,39 @@
         <v>200129</v>
       </c>
       <c r="B125" s="21" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C125" s="7">
         <v>133</v>
       </c>
-      <c r="D125" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E125" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F125" s="26" t="s">
+      <c r="D125" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E125" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F125" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G125" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H125" s="50" t="s">
-        <v>313</v>
+      <c r="H125" s="58" t="s">
+        <v>319</v>
       </c>
       <c r="I125" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="J125" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K125" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="L125" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="M125" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="J125" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K125" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="L125" s="38">
+        <v>2</v>
+      </c>
+      <c r="M125" s="43" t="s">
         <v>30</v>
       </c>
       <c r="N125" s="5" t="s">
@@ -8444,39 +8611,39 @@
         <v>200130</v>
       </c>
       <c r="B126" s="21" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C126" s="7">
         <v>134</v>
       </c>
-      <c r="D126" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E126" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F126" s="26" t="s">
+      <c r="D126" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E126" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F126" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G126" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H126" s="50" t="s">
-        <v>315</v>
+      <c r="H126" s="58" t="s">
+        <v>321</v>
       </c>
       <c r="I126" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="J126" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K126" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="L126" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="M126" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="J126" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K126" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="L126" s="38">
+        <v>2</v>
+      </c>
+      <c r="M126" s="43" t="s">
         <v>30</v>
       </c>
       <c r="N126" s="5" t="s">
@@ -8488,39 +8655,39 @@
         <v>200131</v>
       </c>
       <c r="B127" s="21" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="C127" s="7">
         <v>135</v>
       </c>
-      <c r="D127" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E127" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F127" s="26" t="s">
+      <c r="D127" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E127" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F127" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G127" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H127" s="50" t="s">
-        <v>317</v>
+      <c r="H127" s="58" t="s">
+        <v>323</v>
       </c>
       <c r="I127" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="J127" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K127" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="L127" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="M127" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="J127" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K127" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="L127" s="38">
+        <v>2</v>
+      </c>
+      <c r="M127" s="43" t="s">
         <v>30</v>
       </c>
       <c r="N127" s="5" t="s">
@@ -8532,39 +8699,39 @@
         <v>200132</v>
       </c>
       <c r="B128" s="21" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C128" s="7">
         <v>136</v>
       </c>
-      <c r="D128" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E128" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F128" s="26" t="s">
+      <c r="D128" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E128" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F128" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G128" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H128" s="50" t="s">
-        <v>319</v>
+      <c r="H128" s="58" t="s">
+        <v>325</v>
       </c>
       <c r="I128" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="J128" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K128" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="L128" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="M128" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="J128" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K128" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="L128" s="38">
+        <v>1</v>
+      </c>
+      <c r="M128" s="43" t="s">
         <v>30</v>
       </c>
       <c r="N128" s="5" t="s">
@@ -8576,39 +8743,39 @@
         <v>200133</v>
       </c>
       <c r="B129" s="21" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C129" s="7">
         <v>137</v>
       </c>
-      <c r="D129" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E129" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F129" s="26" t="s">
+      <c r="D129" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E129" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F129" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G129" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H129" s="50" t="s">
-        <v>321</v>
+      <c r="H129" s="58" t="s">
+        <v>327</v>
       </c>
       <c r="I129" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="J129" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K129" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="L129" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="M129" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="J129" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K129" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="L129" s="38">
+        <v>2</v>
+      </c>
+      <c r="M129" s="43" t="s">
         <v>30</v>
       </c>
       <c r="N129" s="5" t="s">
@@ -8620,39 +8787,39 @@
         <v>200134</v>
       </c>
       <c r="B130" s="21" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C130" s="7">
         <v>138</v>
       </c>
-      <c r="D130" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E130" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F130" s="26" t="s">
+      <c r="D130" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E130" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F130" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G130" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H130" s="50" t="s">
-        <v>323</v>
+      <c r="H130" s="58" t="s">
+        <v>329</v>
       </c>
       <c r="I130" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="J130" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K130" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="L130" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="M130" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="J130" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K130" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="L130" s="38">
+        <v>2</v>
+      </c>
+      <c r="M130" s="43" t="s">
         <v>30</v>
       </c>
       <c r="N130" s="5" t="s">
@@ -8664,39 +8831,39 @@
         <v>200135</v>
       </c>
       <c r="B131" s="21" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C131" s="7">
         <v>139</v>
       </c>
-      <c r="D131" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E131" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F131" s="26" t="s">
+      <c r="D131" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E131" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F131" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G131" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H131" s="50" t="s">
-        <v>325</v>
+      <c r="H131" s="58" t="s">
+        <v>331</v>
       </c>
       <c r="I131" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="J131" s="32">
-        <v>1</v>
-      </c>
-      <c r="K131" s="32">
-        <v>1</v>
-      </c>
-      <c r="L131" s="32">
-        <v>1</v>
-      </c>
-      <c r="M131" s="32">
+        <v>283</v>
+      </c>
+      <c r="J131" s="34">
+        <v>1</v>
+      </c>
+      <c r="K131" s="34">
+        <v>1</v>
+      </c>
+      <c r="L131" s="38">
+        <v>2</v>
+      </c>
+      <c r="M131" s="34">
         <v>1</v>
       </c>
       <c r="N131" s="5" t="s">
@@ -8708,39 +8875,39 @@
         <v>200136</v>
       </c>
       <c r="B132" s="21" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C132" s="7">
         <v>140</v>
       </c>
-      <c r="D132" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E132" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F132" s="26" t="s">
+      <c r="D132" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E132" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F132" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G132" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H132" s="50" t="s">
-        <v>327</v>
+      <c r="H132" s="58" t="s">
+        <v>333</v>
       </c>
       <c r="I132" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="J132" s="32">
-        <v>1</v>
-      </c>
-      <c r="K132" s="32">
-        <v>1</v>
-      </c>
-      <c r="L132" s="32">
-        <v>1</v>
-      </c>
-      <c r="M132" s="32">
+        <v>283</v>
+      </c>
+      <c r="J132" s="34">
+        <v>1</v>
+      </c>
+      <c r="K132" s="34">
+        <v>1</v>
+      </c>
+      <c r="L132" s="38">
+        <v>2</v>
+      </c>
+      <c r="M132" s="34">
         <v>1</v>
       </c>
       <c r="N132" s="5" t="s">
@@ -8752,39 +8919,39 @@
         <v>200137</v>
       </c>
       <c r="B133" s="21" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C133" s="7">
         <v>141</v>
       </c>
-      <c r="D133" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E133" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F133" s="26" t="s">
+      <c r="D133" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E133" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F133" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G133" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H133" s="50" t="s">
-        <v>329</v>
+      <c r="H133" s="58" t="s">
+        <v>335</v>
       </c>
       <c r="I133" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="J133" s="32">
-        <v>1</v>
-      </c>
-      <c r="K133" s="32">
-        <v>1</v>
-      </c>
-      <c r="L133" s="32">
-        <v>1</v>
-      </c>
-      <c r="M133" s="32">
+        <v>283</v>
+      </c>
+      <c r="J133" s="34">
+        <v>1</v>
+      </c>
+      <c r="K133" s="34">
+        <v>1</v>
+      </c>
+      <c r="L133" s="38">
+        <v>2</v>
+      </c>
+      <c r="M133" s="34">
         <v>1</v>
       </c>
       <c r="N133" s="5" t="s">
@@ -8796,39 +8963,39 @@
         <v>200138</v>
       </c>
       <c r="B134" s="21" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C134" s="7">
         <v>142</v>
       </c>
-      <c r="D134" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E134" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F134" s="26" t="s">
+      <c r="D134" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E134" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F134" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G134" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H134" s="50" t="s">
-        <v>331</v>
+      <c r="H134" s="58" t="s">
+        <v>337</v>
       </c>
       <c r="I134" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="J134" s="32">
-        <v>1</v>
-      </c>
-      <c r="K134" s="32">
-        <v>1</v>
-      </c>
-      <c r="L134" s="32">
-        <v>1</v>
-      </c>
-      <c r="M134" s="32">
+        <v>283</v>
+      </c>
+      <c r="J134" s="34">
+        <v>1</v>
+      </c>
+      <c r="K134" s="34">
+        <v>1</v>
+      </c>
+      <c r="L134" s="38">
+        <v>2</v>
+      </c>
+      <c r="M134" s="34">
         <v>1</v>
       </c>
       <c r="N134" s="5" t="s">
@@ -8840,39 +9007,39 @@
         <v>200139</v>
       </c>
       <c r="B135" s="21" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C135" s="7">
         <v>143</v>
       </c>
-      <c r="D135" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E135" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F135" s="26" t="s">
+      <c r="D135" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E135" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F135" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G135" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H135" s="50" t="s">
-        <v>333</v>
+      <c r="H135" s="58" t="s">
+        <v>339</v>
       </c>
       <c r="I135" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="J135" s="39">
-        <v>1</v>
-      </c>
-      <c r="K135" s="39">
-        <v>1</v>
-      </c>
-      <c r="L135" s="39">
-        <v>1</v>
-      </c>
-      <c r="M135" s="39">
+        <v>283</v>
+      </c>
+      <c r="J135" s="41">
+        <v>1</v>
+      </c>
+      <c r="K135" s="41">
+        <v>1</v>
+      </c>
+      <c r="L135" s="38">
+        <v>2</v>
+      </c>
+      <c r="M135" s="41">
         <v>1</v>
       </c>
       <c r="N135" s="5" t="s">
@@ -8884,39 +9051,39 @@
         <v>200140</v>
       </c>
       <c r="B136" s="21" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C136" s="7">
         <v>144</v>
       </c>
-      <c r="D136" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E136" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F136" s="26" t="s">
+      <c r="D136" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E136" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F136" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G136" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H136" s="51" t="s">
-        <v>335</v>
+      <c r="H136" s="59" t="s">
+        <v>341</v>
       </c>
       <c r="I136" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="J136" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="K136" s="41">
-        <v>1</v>
-      </c>
-      <c r="L136" s="39">
+        <v>342</v>
+      </c>
+      <c r="J136" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="K136" s="43">
+        <v>1</v>
+      </c>
+      <c r="L136" s="41">
         <v>0</v>
       </c>
-      <c r="M136" s="39">
+      <c r="M136" s="41">
         <v>1</v>
       </c>
       <c r="N136" s="5" t="s">
@@ -8928,39 +9095,39 @@
         <v>200141</v>
       </c>
       <c r="B137" s="21" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="C137" s="7">
         <v>145</v>
       </c>
-      <c r="D137" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E137" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F137" s="26" t="s">
+      <c r="D137" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E137" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F137" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G137" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H137" s="48" t="s">
-        <v>338</v>
+      <c r="H137" s="57" t="s">
+        <v>344</v>
       </c>
       <c r="I137" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="J137" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="K137" s="36">
-        <v>1</v>
-      </c>
-      <c r="L137" s="36">
-        <v>1</v>
-      </c>
-      <c r="M137" s="36">
+      <c r="J137" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="K137" s="38">
+        <v>1</v>
+      </c>
+      <c r="L137" s="38">
+        <v>1</v>
+      </c>
+      <c r="M137" s="38">
         <v>1</v>
       </c>
       <c r="N137" s="5" t="s">
@@ -8972,39 +9139,39 @@
         <v>200142</v>
       </c>
       <c r="B138" s="21" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C138" s="7">
         <v>146</v>
       </c>
-      <c r="D138" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E138" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F138" s="26" t="s">
+      <c r="D138" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E138" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F138" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G138" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H138" s="48" t="s">
-        <v>340</v>
+      <c r="H138" s="57" t="s">
+        <v>346</v>
       </c>
       <c r="I138" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="J138" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="K138" s="36">
-        <v>1</v>
-      </c>
-      <c r="L138" s="36">
-        <v>1</v>
-      </c>
-      <c r="M138" s="36">
+        <v>347</v>
+      </c>
+      <c r="J138" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="K138" s="38">
+        <v>1</v>
+      </c>
+      <c r="L138" s="38">
+        <v>1</v>
+      </c>
+      <c r="M138" s="38">
         <v>1</v>
       </c>
       <c r="N138" s="5" t="s">
@@ -9016,28 +9183,28 @@
         <v>200143</v>
       </c>
       <c r="B139" s="21" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="C139" s="7">
         <v>147</v>
       </c>
-      <c r="D139" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E139" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F139" s="26" t="s">
+      <c r="D139" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E139" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F139" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G139" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H139" s="48" t="s">
-        <v>343</v>
+      <c r="H139" s="57" t="s">
+        <v>349</v>
       </c>
       <c r="I139" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="J139" s="7">
         <v>0</v>
@@ -9060,25 +9227,25 @@
         <v>200144</v>
       </c>
       <c r="B140" s="21" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="C140" s="7">
         <v>148</v>
       </c>
-      <c r="D140" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E140" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F140" s="26" t="s">
+      <c r="D140" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E140" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F140" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G140" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H140" s="48" t="s">
-        <v>346</v>
+      <c r="H140" s="57" t="s">
+        <v>352</v>
       </c>
       <c r="I140" s="7" t="s">
         <v>201</v>
@@ -9104,39 +9271,39 @@
         <v>200145</v>
       </c>
       <c r="B141" s="21" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C141" s="7">
         <v>149</v>
       </c>
-      <c r="D141" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E141" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F141" s="26" t="s">
+      <c r="D141" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E141" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F141" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G141" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H141" s="52" t="s">
-        <v>348</v>
+      <c r="H141" s="60" t="s">
+        <v>354</v>
       </c>
       <c r="I141" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="J141" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="K141" s="37">
+        <v>355</v>
+      </c>
+      <c r="J141" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="K141" s="39">
         <v>0</v>
       </c>
-      <c r="L141" s="37">
+      <c r="L141" s="39">
         <v>0</v>
       </c>
-      <c r="M141" s="37">
+      <c r="M141" s="39">
         <v>0</v>
       </c>
       <c r="N141" s="5" t="s">
@@ -9148,39 +9315,39 @@
         <v>200146</v>
       </c>
       <c r="B142" s="21" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C142" s="7">
         <v>150</v>
       </c>
-      <c r="D142" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E142" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F142" s="26" t="s">
+      <c r="D142" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E142" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F142" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G142" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H142" s="52" t="s">
+      <c r="H142" s="60" t="s">
         <v>175</v>
       </c>
       <c r="I142" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="J142" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="J142" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="K142" s="37">
+      <c r="K142" s="39">
         <v>0</v>
       </c>
-      <c r="L142" s="37">
+      <c r="L142" s="39">
         <v>0</v>
       </c>
-      <c r="M142" s="37">
+      <c r="M142" s="39">
         <v>0</v>
       </c>
       <c r="N142" s="5" t="s">
@@ -9192,7 +9359,7 @@
         <v>200147</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="C143" s="10">
         <v>151</v>
@@ -9210,10 +9377,10 @@
         <v>27</v>
       </c>
       <c r="H143" s="11" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="I143" s="11" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="J143" s="11" t="s">
         <v>109</v>
@@ -9244,7 +9411,7 @@
         <v>200148</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C144" s="10">
         <v>151</v>
@@ -9261,22 +9428,22 @@
       <c r="G144" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H144" s="27" t="s">
-        <v>355</v>
-      </c>
-      <c r="I144" s="42" t="s">
-        <v>356</v>
-      </c>
-      <c r="J144" s="37">
+      <c r="H144" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="I144" s="44" t="s">
+        <v>362</v>
+      </c>
+      <c r="J144" s="39">
         <v>0</v>
       </c>
-      <c r="K144" s="37">
+      <c r="K144" s="39">
         <v>0</v>
       </c>
-      <c r="L144" s="37">
+      <c r="L144" s="39">
         <v>0</v>
       </c>
-      <c r="M144" s="37">
+      <c r="M144" s="39">
         <v>0</v>
       </c>
       <c r="N144" s="10" t="s">
@@ -9288,7 +9455,7 @@
         <v>200149</v>
       </c>
       <c r="B145" s="21" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C145" s="7">
         <v>152</v>
@@ -9305,22 +9472,22 @@
       <c r="G145" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H145" s="37" t="s">
-        <v>335</v>
+      <c r="H145" s="39" t="s">
+        <v>341</v>
       </c>
       <c r="I145" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="J145" s="37">
+        <v>364</v>
+      </c>
+      <c r="J145" s="39">
         <v>0</v>
       </c>
-      <c r="K145" s="37">
+      <c r="K145" s="39">
         <v>0</v>
       </c>
-      <c r="L145" s="37" t="s">
+      <c r="L145" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="M145" s="37" t="s">
+      <c r="M145" s="39" t="s">
         <v>109</v>
       </c>
       <c r="N145" s="10" t="s">
@@ -9330,12 +9497,12 @@
         <v>217</v>
       </c>
     </row>
-    <row r="146" s="7" customFormat="1" spans="1:23">
+    <row r="146" spans="1:23">
       <c r="A146" s="7">
         <v>200149</v>
       </c>
       <c r="B146" s="21" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C146" s="7">
         <v>153</v>
@@ -9352,41 +9519,564 @@
       <c r="G146" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H146" s="37" t="s">
-        <v>360</v>
+      <c r="H146" s="39" t="s">
+        <v>366</v>
       </c>
       <c r="I146" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="J146" s="37">
+        <v>364</v>
+      </c>
+      <c r="J146" s="39">
         <v>0</v>
       </c>
-      <c r="K146" s="37">
+      <c r="K146" s="39">
         <v>0</v>
       </c>
-      <c r="L146" s="37" t="s">
+      <c r="L146" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="M146" s="37" t="s">
+      <c r="M146" s="39" t="s">
         <v>109</v>
       </c>
       <c r="N146" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="O146" s="7"/>
-      <c r="P146" s="7"/>
-      <c r="Q146" s="7"/>
-      <c r="R146" s="7"/>
-      <c r="S146" s="7"/>
-      <c r="T146" s="7"/>
-      <c r="U146" s="7"/>
-      <c r="V146" s="7"/>
       <c r="W146" s="7" t="s">
         <v>217</v>
       </c>
     </row>
+    <row r="147" spans="2:23">
+      <c r="B147" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="C147" s="7">
+        <v>154</v>
+      </c>
+      <c r="D147" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E147" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F147" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G147" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H147" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="I147" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="J147" s="7">
+        <v>1</v>
+      </c>
+      <c r="K147" s="7">
+        <v>1</v>
+      </c>
+      <c r="L147" s="7">
+        <v>1</v>
+      </c>
+      <c r="M147" s="7">
+        <v>1</v>
+      </c>
+      <c r="N147" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="W147" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14">
+      <c r="A148" s="7">
+        <v>200152</v>
+      </c>
+      <c r="B148" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="C148" s="7">
+        <v>155</v>
+      </c>
+      <c r="D148" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E148" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F148" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G148" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H148" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="I148" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="J148" s="39">
+        <v>0</v>
+      </c>
+      <c r="K148" s="39">
+        <v>0</v>
+      </c>
+      <c r="L148" s="39">
+        <v>0</v>
+      </c>
+      <c r="M148" s="39">
+        <v>0</v>
+      </c>
+      <c r="N148" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14">
+      <c r="A149" s="7">
+        <v>200153</v>
+      </c>
+      <c r="B149" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="C149" s="7">
+        <v>156</v>
+      </c>
+      <c r="D149" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E149" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F149" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G149" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H149" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="I149" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="J149" s="39">
+        <v>0</v>
+      </c>
+      <c r="K149" s="39">
+        <v>0</v>
+      </c>
+      <c r="L149" s="39">
+        <v>0</v>
+      </c>
+      <c r="M149" s="39">
+        <v>0</v>
+      </c>
+      <c r="N149" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14">
+      <c r="A150" s="7">
+        <v>200154</v>
+      </c>
+      <c r="B150" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="C150" s="7">
+        <v>157</v>
+      </c>
+      <c r="D150" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E150" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F150" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G150" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H150" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="I150" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="J150" s="39">
+        <v>0</v>
+      </c>
+      <c r="K150" s="39">
+        <v>0</v>
+      </c>
+      <c r="L150" s="39">
+        <v>0</v>
+      </c>
+      <c r="M150" s="39">
+        <v>0</v>
+      </c>
+      <c r="N150" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14">
+      <c r="A151" s="7">
+        <v>200155</v>
+      </c>
+      <c r="B151" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="C151" s="7">
+        <v>158</v>
+      </c>
+      <c r="D151" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E151" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F151" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G151" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H151" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="I151" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="J151" s="39">
+        <v>0</v>
+      </c>
+      <c r="K151" s="39">
+        <v>0</v>
+      </c>
+      <c r="L151" s="39">
+        <v>0</v>
+      </c>
+      <c r="M151" s="39">
+        <v>0</v>
+      </c>
+      <c r="N151" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14">
+      <c r="A152" s="7">
+        <v>200156</v>
+      </c>
+      <c r="B152" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="C152" s="7">
+        <v>159</v>
+      </c>
+      <c r="D152" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E152" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F152" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G152" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H152" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="I152" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="J152" s="39">
+        <v>0</v>
+      </c>
+      <c r="K152" s="39">
+        <v>0</v>
+      </c>
+      <c r="L152" s="39">
+        <v>0</v>
+      </c>
+      <c r="M152" s="39">
+        <v>0</v>
+      </c>
+      <c r="N152" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14">
+      <c r="A153" s="7">
+        <v>200157</v>
+      </c>
+      <c r="B153" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="C153" s="7">
+        <v>160</v>
+      </c>
+      <c r="D153" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E153" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F153" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G153" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H153" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="I153" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="J153" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="K153" s="39">
+        <v>0</v>
+      </c>
+      <c r="L153" s="39">
+        <v>0</v>
+      </c>
+      <c r="M153" s="39">
+        <v>0</v>
+      </c>
+      <c r="N153" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14">
+      <c r="A154" s="7">
+        <v>200158</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C154" s="7">
+        <v>161</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F154" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G154" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H154" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="I154" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="J154" s="39">
+        <v>0</v>
+      </c>
+      <c r="K154" s="39">
+        <v>0</v>
+      </c>
+      <c r="L154" s="39">
+        <v>0</v>
+      </c>
+      <c r="M154" s="39">
+        <v>0</v>
+      </c>
+      <c r="N154" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14">
+      <c r="A155" s="7">
+        <v>200159</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="C155" s="7">
+        <v>162</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F155" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G155" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H155" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="I155" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="J155" s="39">
+        <v>0</v>
+      </c>
+      <c r="K155" s="39">
+        <v>0</v>
+      </c>
+      <c r="L155" s="39">
+        <v>0</v>
+      </c>
+      <c r="M155" s="39">
+        <v>0</v>
+      </c>
+      <c r="N155" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14">
+      <c r="A156" s="7">
+        <v>200160</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="C156" s="7">
+        <v>163</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F156" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G156" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H156" s="57" t="s">
+        <v>387</v>
+      </c>
+      <c r="I156" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J156" s="39">
+        <v>0</v>
+      </c>
+      <c r="K156" s="39">
+        <v>0</v>
+      </c>
+      <c r="L156" s="39">
+        <v>0</v>
+      </c>
+      <c r="M156" s="39">
+        <v>0</v>
+      </c>
+      <c r="N156" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="157" spans="1:23">
+      <c r="A157" s="7">
+        <v>200161</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="C157" s="7">
+        <v>164</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F157" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G157" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H157" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="I157" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J157" s="39">
+        <v>0</v>
+      </c>
+      <c r="K157" s="39">
+        <v>0</v>
+      </c>
+      <c r="L157" s="39">
+        <v>0</v>
+      </c>
+      <c r="M157" s="39">
+        <v>0</v>
+      </c>
+      <c r="N157" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W157" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14">
+      <c r="A158" s="7">
+        <v>200162</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="C158" s="7">
+        <v>165</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E158" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F158" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G158" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H158" s="57" t="s">
+        <v>390</v>
+      </c>
+      <c r="I158" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="J158" s="49">
+        <v>1</v>
+      </c>
+      <c r="K158" s="49">
+        <v>1</v>
+      </c>
+      <c r="L158" s="49">
+        <v>1</v>
+      </c>
+      <c r="M158" s="49">
+        <v>1</v>
+      </c>
+      <c r="N158" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:V145">
+  <autoFilter ref="A1:V157">
     <extLst/>
   </autoFilter>
   <dataValidations count="2">
@@ -9414,19 +10104,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="18.75" customWidth="1"/>
+    <col min="1" max="1" width="18.775" customWidth="1"/>
     <col min="2" max="2" width="11.8833333333333" customWidth="1"/>
-    <col min="7" max="7" width="13.3833333333333" customWidth="1"/>
+    <col min="7" max="7" width="13.3333333333333" customWidth="1"/>
     <col min="8" max="8" width="15.8833333333333" customWidth="1"/>
-    <col min="9" max="9" width="16.3833333333333" customWidth="1"/>
+    <col min="9" max="9" width="16.3333333333333" customWidth="1"/>
     <col min="10" max="10" width="24" customWidth="1"/>
-    <col min="11" max="11" width="19.3833333333333" customWidth="1"/>
-    <col min="12" max="12" width="23.1333333333333" customWidth="1"/>
+    <col min="11" max="11" width="19.3333333333333" customWidth="1"/>
+    <col min="12" max="12" width="23.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="24" customHeight="1" spans="1:12">
@@ -9472,7 +10162,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>362</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>

--- a/src/customerView/客户视图.xlsx
+++ b/src/customerView/客户视图.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="24345" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="客户视图" sheetId="1" r:id="rId1"/>
     <sheet name="填写说明" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户视图!$A$1:$V$157</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户视图!$A$1:$V$158</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="395">
   <si>
     <t>CV 客户视图</t>
   </si>
@@ -1289,6 +1289,12 @@
     <t>00102005</t>
   </si>
   <si>
+    <t>CV00163</t>
+  </si>
+  <si>
+    <t>00102001</t>
+  </si>
+  <si>
     <t>必填：</t>
   </si>
   <si>
@@ -1300,9 +1306,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -1357,10 +1363,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1372,7 +1379,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1386,84 +1393,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1479,7 +1409,68 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1495,7 +1486,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1546,7 +1552,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1558,61 +1696,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1630,103 +1720,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1751,15 +1757,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1803,22 +1800,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1838,17 +1839,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1858,10 +1864,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1870,133 +1876,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2435,12 +2441,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W158"/>
+  <dimension ref="A1:W159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K162" sqref="K162"/>
+      <selection pane="bottomLeft" activeCell="K160" sqref="K160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7608,16 +7614,16 @@
         <v>216</v>
       </c>
       <c r="J103" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K103" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L103" s="34" t="s">
         <v>109</v>
       </c>
       <c r="M103" s="41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N103" s="5" t="s">
         <v>267</v>
@@ -10075,8 +10081,52 @@
         <v>31</v>
       </c>
     </row>
+    <row r="159" spans="1:14">
+      <c r="A159" s="7">
+        <v>200163</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="C159" s="7">
+        <v>166</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E159" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F159" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G159" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H159" s="57" t="s">
+        <v>392</v>
+      </c>
+      <c r="I159" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="J159" s="49">
+        <v>1</v>
+      </c>
+      <c r="K159" s="49">
+        <v>0</v>
+      </c>
+      <c r="L159" s="49">
+        <v>0</v>
+      </c>
+      <c r="M159" s="49">
+        <v>0</v>
+      </c>
+      <c r="N159" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:V157">
+  <autoFilter ref="A1:V158">
     <extLst/>
   </autoFilter>
   <dataValidations count="2">
@@ -10099,7 +10149,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
@@ -10116,7 +10166,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="24" customHeight="1" spans="1:12">
@@ -10162,7 +10212,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>

--- a/src/customerView/客户视图.xlsx
+++ b/src/customerView/客户视图.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9420"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="客户视图" sheetId="1" r:id="rId1"/>
     <sheet name="填写说明" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户视图!$A$1:$V$160</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户视图!$A$1:$V$163</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="402">
   <si>
     <t>CV 客户视图</t>
   </si>
@@ -1170,38 +1170,6 @@
     <t>CV00148</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>101007</t>
-    </r>
-  </si>
-  <si>
     <t>custom-input-inAcctNum</t>
   </si>
   <si>
@@ -1299,6 +1267,24 @@
   </si>
   <si>
     <t>00802003</t>
+  </si>
+  <si>
+    <t>CV00165</t>
+  </si>
+  <si>
+    <t>CV00166</t>
+  </si>
+  <si>
+    <t>CV00167</t>
+  </si>
+  <si>
+    <t>CV00168</t>
+  </si>
+  <si>
+    <t>00201023</t>
+  </si>
+  <si>
+    <t>陆海</t>
   </si>
   <si>
     <t>必填：</t>
@@ -1314,8 +1300,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1369,6 +1355,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -1378,15 +1379,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1399,31 +1392,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1438,7 +1415,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1452,9 +1444,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1468,46 +1491,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1558,7 +1544,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1570,19 +1664,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1600,127 +1706,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1738,7 +1724,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1768,21 +1754,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1799,9 +1770,59 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1823,41 +1844,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1870,10 +1856,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1882,34 +1868,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1918,101 +1907,98 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2106,7 +2092,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2452,32 +2437,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W163"/>
+  <dimension ref="A1:W164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J162" sqref="J162"/>
+      <selection pane="bottomLeft" activeCell="J168" sqref="J168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="16.3333333333333" style="8" customWidth="1"/>
     <col min="2" max="2" width="15" style="8" customWidth="1"/>
     <col min="3" max="4" width="9.66666666666667" style="8" customWidth="1"/>
     <col min="5" max="7" width="7" style="8" customWidth="1"/>
-    <col min="8" max="8" width="14.7777777777778" style="8" customWidth="1"/>
-    <col min="9" max="9" width="25.7777777777778" style="8" customWidth="1"/>
+    <col min="8" max="8" width="14.775" style="8" customWidth="1"/>
+    <col min="9" max="9" width="25.775" style="8" customWidth="1"/>
     <col min="10" max="13" width="17.6666666666667" style="8" customWidth="1"/>
     <col min="14" max="14" width="12.3333333333333" style="8" customWidth="1"/>
-    <col min="15" max="15" width="16.7777777777778" style="8" customWidth="1"/>
-    <col min="16" max="16" width="16.1111111111111" style="8" customWidth="1"/>
+    <col min="15" max="15" width="16.775" style="8" customWidth="1"/>
+    <col min="16" max="16" width="16.1083333333333" style="8" customWidth="1"/>
     <col min="17" max="21" width="7" style="8" customWidth="1"/>
     <col min="22" max="22" width="29.6666666666667" style="8" customWidth="1"/>
     <col min="23" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="61.2" spans="1:23">
+    <row r="1" ht="60.75" spans="1:23">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4084,7 +4069,7 @@
       <c r="G31" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H31" s="53" t="s">
+      <c r="H31" s="52" t="s">
         <v>98</v>
       </c>
       <c r="I31" s="12" t="s">
@@ -4139,7 +4124,7 @@
       <c r="G32" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H32" s="53" t="s">
+      <c r="H32" s="52" t="s">
         <v>100</v>
       </c>
       <c r="I32" s="12" t="s">
@@ -4191,7 +4176,7 @@
       <c r="G33" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H33" s="53" t="s">
+      <c r="H33" s="52" t="s">
         <v>102</v>
       </c>
       <c r="I33" s="12" t="s">
@@ -5732,7 +5717,7 @@
       <c r="G62" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H62" s="54" t="s">
+      <c r="H62" s="53" t="s">
         <v>164</v>
       </c>
       <c r="I62" s="14" t="s">
@@ -5787,7 +5772,7 @@
       <c r="G63" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H63" s="54" t="s">
+      <c r="H63" s="53" t="s">
         <v>167</v>
       </c>
       <c r="I63" s="14" t="s">
@@ -5842,7 +5827,7 @@
       <c r="G64" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H64" s="54" t="s">
+      <c r="H64" s="53" t="s">
         <v>169</v>
       </c>
       <c r="I64" s="14" t="s">
@@ -5897,7 +5882,7 @@
       <c r="G65" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H65" s="54" t="s">
+      <c r="H65" s="53" t="s">
         <v>171</v>
       </c>
       <c r="I65" s="14" t="s">
@@ -5952,7 +5937,7 @@
       <c r="G66" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H66" s="54" t="s">
+      <c r="H66" s="53" t="s">
         <v>173</v>
       </c>
       <c r="I66" s="14" t="s">
@@ -6007,7 +5992,7 @@
       <c r="G67" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H67" s="54" t="s">
+      <c r="H67" s="53" t="s">
         <v>175</v>
       </c>
       <c r="I67" s="14" t="s">
@@ -6059,7 +6044,7 @@
       <c r="G68" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H68" s="55" t="s">
+      <c r="H68" s="54" t="s">
         <v>177</v>
       </c>
       <c r="I68" s="5" t="s">
@@ -6103,7 +6088,7 @@
       <c r="G69" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H69" s="55" t="s">
+      <c r="H69" s="54" t="s">
         <v>180</v>
       </c>
       <c r="I69" s="5" t="s">
@@ -6147,7 +6132,7 @@
       <c r="G70" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H70" s="55" t="s">
+      <c r="H70" s="54" t="s">
         <v>182</v>
       </c>
       <c r="I70" s="5" t="s">
@@ -6191,7 +6176,7 @@
       <c r="G71" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H71" s="55" t="s">
+      <c r="H71" s="54" t="s">
         <v>182</v>
       </c>
       <c r="I71" s="5" t="s">
@@ -6235,7 +6220,7 @@
       <c r="G72" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H72" s="55" t="s">
+      <c r="H72" s="54" t="s">
         <v>187</v>
       </c>
       <c r="I72" s="5" t="s">
@@ -6279,7 +6264,7 @@
       <c r="G73" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H73" s="54" t="s">
+      <c r="H73" s="53" t="s">
         <v>189</v>
       </c>
       <c r="I73" s="4" t="s">
@@ -6323,7 +6308,7 @@
       <c r="G74" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H74" s="54" t="s">
+      <c r="H74" s="53" t="s">
         <v>191</v>
       </c>
       <c r="I74" s="4" t="s">
@@ -6367,7 +6352,7 @@
       <c r="G75" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H75" s="54" t="s">
+      <c r="H75" s="53" t="s">
         <v>192</v>
       </c>
       <c r="I75" s="4" t="s">
@@ -6411,7 +6396,7 @@
       <c r="G76" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H76" s="56" t="s">
+      <c r="H76" s="55" t="s">
         <v>194</v>
       </c>
       <c r="I76" s="19" t="s">
@@ -6507,7 +6492,7 @@
       <c r="G78" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="H78" s="57" t="s">
+      <c r="H78" s="56" t="s">
         <v>200</v>
       </c>
       <c r="I78" s="37" t="s">
@@ -6554,7 +6539,7 @@
       <c r="G79" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="H79" s="58" t="s">
+      <c r="H79" s="57" t="s">
         <v>204</v>
       </c>
       <c r="I79" s="37" t="s">
@@ -6601,7 +6586,7 @@
       <c r="G80" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="59" t="s">
+      <c r="H80" s="58" t="s">
         <v>206</v>
       </c>
       <c r="I80" s="6" t="s">
@@ -6645,7 +6630,7 @@
       <c r="G81" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H81" s="59" t="s">
+      <c r="H81" s="58" t="s">
         <v>208</v>
       </c>
       <c r="I81" s="6" t="s">
@@ -6689,7 +6674,7 @@
       <c r="G82" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H82" s="54" t="s">
+      <c r="H82" s="53" t="s">
         <v>210</v>
       </c>
       <c r="I82" s="8" t="s">
@@ -6711,7 +6696,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="83" ht="14.4" spans="1:15">
+    <row r="83" spans="1:15">
       <c r="A83" s="22">
         <v>200085</v>
       </c>
@@ -7134,7 +7119,7 @@
       <c r="G92" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H92" s="59" t="s">
+      <c r="H92" s="58" t="s">
         <v>235</v>
       </c>
       <c r="I92" s="6" t="s">
@@ -7178,7 +7163,7 @@
       <c r="G93" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H93" s="59" t="s">
+      <c r="H93" s="58" t="s">
         <v>238</v>
       </c>
       <c r="I93" s="6" t="s">
@@ -7222,7 +7207,7 @@
       <c r="G94" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H94" s="59" t="s">
+      <c r="H94" s="58" t="s">
         <v>241</v>
       </c>
       <c r="I94" s="6" t="s">
@@ -7266,7 +7251,7 @@
       <c r="G95" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H95" s="59" t="s">
+      <c r="H95" s="58" t="s">
         <v>243</v>
       </c>
       <c r="I95" s="6" t="s">
@@ -7310,7 +7295,7 @@
       <c r="G96" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H96" s="59" t="s">
+      <c r="H96" s="58" t="s">
         <v>246</v>
       </c>
       <c r="I96" s="6" t="s">
@@ -7530,7 +7515,7 @@
       <c r="G101" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H101" s="59" t="s">
+      <c r="H101" s="58" t="s">
         <v>260</v>
       </c>
       <c r="I101" s="6" t="s">
@@ -7574,7 +7559,7 @@
       <c r="G102" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H102" s="59" t="s">
+      <c r="H102" s="58" t="s">
         <v>263</v>
       </c>
       <c r="I102" s="6" t="s">
@@ -7596,7 +7581,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="103" ht="34.2" spans="1:19">
+    <row r="103" ht="16.5" spans="1:19">
       <c r="A103" s="8">
         <v>200107</v>
       </c>
@@ -7618,7 +7603,7 @@
       <c r="G103" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H103" s="59" t="s">
+      <c r="H103" s="58" t="s">
         <v>266</v>
       </c>
       <c r="I103" s="6" t="s">
@@ -7677,7 +7662,7 @@
       <c r="G104" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H104" s="59" t="s">
+      <c r="H104" s="58" t="s">
         <v>274</v>
       </c>
       <c r="I104" s="6" t="s">
@@ -7765,7 +7750,7 @@
       <c r="G106" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H106" s="60" t="s">
+      <c r="H106" s="59" t="s">
         <v>279</v>
       </c>
       <c r="I106" s="8" t="s">
@@ -7809,7 +7794,7 @@
       <c r="G107" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="H107" s="61" t="s">
+      <c r="H107" s="60" t="s">
         <v>282</v>
       </c>
       <c r="I107" s="8" t="s">
@@ -7853,7 +7838,7 @@
       <c r="G108" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="H108" s="61" t="s">
+      <c r="H108" s="60" t="s">
         <v>285</v>
       </c>
       <c r="I108" s="8" t="s">
@@ -7897,7 +7882,7 @@
       <c r="G109" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="H109" s="61" t="s">
+      <c r="H109" s="60" t="s">
         <v>287</v>
       </c>
       <c r="I109" s="8" t="s">
@@ -7941,7 +7926,7 @@
       <c r="G110" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H110" s="61" t="s">
+      <c r="H110" s="60" t="s">
         <v>289</v>
       </c>
       <c r="I110" s="8" t="s">
@@ -7985,7 +7970,7 @@
       <c r="G111" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H111" s="61" t="s">
+      <c r="H111" s="60" t="s">
         <v>291</v>
       </c>
       <c r="I111" s="8" t="s">
@@ -8029,7 +8014,7 @@
       <c r="G112" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H112" s="61" t="s">
+      <c r="H112" s="60" t="s">
         <v>293</v>
       </c>
       <c r="I112" s="8" t="s">
@@ -8073,7 +8058,7 @@
       <c r="G113" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H113" s="61" t="s">
+      <c r="H113" s="60" t="s">
         <v>295</v>
       </c>
       <c r="I113" s="8" t="s">
@@ -8117,7 +8102,7 @@
       <c r="G114" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H114" s="61" t="s">
+      <c r="H114" s="60" t="s">
         <v>297</v>
       </c>
       <c r="I114" s="8" t="s">
@@ -8161,7 +8146,7 @@
       <c r="G115" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H115" s="61" t="s">
+      <c r="H115" s="60" t="s">
         <v>299</v>
       </c>
       <c r="I115" s="8" t="s">
@@ -8205,7 +8190,7 @@
       <c r="G116" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H116" s="61" t="s">
+      <c r="H116" s="60" t="s">
         <v>301</v>
       </c>
       <c r="I116" s="8" t="s">
@@ -8249,7 +8234,7 @@
       <c r="G117" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H117" s="61" t="s">
+      <c r="H117" s="60" t="s">
         <v>303</v>
       </c>
       <c r="I117" s="8" t="s">
@@ -8293,7 +8278,7 @@
       <c r="G118" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H118" s="61" t="s">
+      <c r="H118" s="60" t="s">
         <v>305</v>
       </c>
       <c r="I118" s="8" t="s">
@@ -8337,7 +8322,7 @@
       <c r="G119" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H119" s="61" t="s">
+      <c r="H119" s="60" t="s">
         <v>307</v>
       </c>
       <c r="I119" s="8" t="s">
@@ -8381,7 +8366,7 @@
       <c r="G120" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H120" s="61" t="s">
+      <c r="H120" s="60" t="s">
         <v>309</v>
       </c>
       <c r="I120" s="8" t="s">
@@ -8425,7 +8410,7 @@
       <c r="G121" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H121" s="61" t="s">
+      <c r="H121" s="60" t="s">
         <v>311</v>
       </c>
       <c r="I121" s="8" t="s">
@@ -8469,7 +8454,7 @@
       <c r="G122" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H122" s="61" t="s">
+      <c r="H122" s="60" t="s">
         <v>313</v>
       </c>
       <c r="I122" s="8" t="s">
@@ -8513,7 +8498,7 @@
       <c r="G123" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H123" s="61" t="s">
+      <c r="H123" s="60" t="s">
         <v>315</v>
       </c>
       <c r="I123" s="8" t="s">
@@ -8557,7 +8542,7 @@
       <c r="G124" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H124" s="61" t="s">
+      <c r="H124" s="60" t="s">
         <v>317</v>
       </c>
       <c r="I124" s="8" t="s">
@@ -8601,7 +8586,7 @@
       <c r="G125" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H125" s="61" t="s">
+      <c r="H125" s="60" t="s">
         <v>319</v>
       </c>
       <c r="I125" s="8" t="s">
@@ -8645,7 +8630,7 @@
       <c r="G126" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H126" s="61" t="s">
+      <c r="H126" s="60" t="s">
         <v>321</v>
       </c>
       <c r="I126" s="8" t="s">
@@ -8689,7 +8674,7 @@
       <c r="G127" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H127" s="61" t="s">
+      <c r="H127" s="60" t="s">
         <v>323</v>
       </c>
       <c r="I127" s="8" t="s">
@@ -8733,7 +8718,7 @@
       <c r="G128" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H128" s="61" t="s">
+      <c r="H128" s="60" t="s">
         <v>325</v>
       </c>
       <c r="I128" s="8" t="s">
@@ -8777,7 +8762,7 @@
       <c r="G129" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H129" s="61" t="s">
+      <c r="H129" s="60" t="s">
         <v>327</v>
       </c>
       <c r="I129" s="8" t="s">
@@ -8821,7 +8806,7 @@
       <c r="G130" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H130" s="61" t="s">
+      <c r="H130" s="60" t="s">
         <v>329</v>
       </c>
       <c r="I130" s="8" t="s">
@@ -8865,7 +8850,7 @@
       <c r="G131" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H131" s="61" t="s">
+      <c r="H131" s="60" t="s">
         <v>331</v>
       </c>
       <c r="I131" s="8" t="s">
@@ -8909,7 +8894,7 @@
       <c r="G132" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H132" s="61" t="s">
+      <c r="H132" s="60" t="s">
         <v>333</v>
       </c>
       <c r="I132" s="8" t="s">
@@ -8953,7 +8938,7 @@
       <c r="G133" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H133" s="61" t="s">
+      <c r="H133" s="60" t="s">
         <v>335</v>
       </c>
       <c r="I133" s="8" t="s">
@@ -8997,7 +8982,7 @@
       <c r="G134" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H134" s="61" t="s">
+      <c r="H134" s="60" t="s">
         <v>337</v>
       </c>
       <c r="I134" s="8" t="s">
@@ -9041,7 +9026,7 @@
       <c r="G135" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H135" s="61" t="s">
+      <c r="H135" s="60" t="s">
         <v>339</v>
       </c>
       <c r="I135" s="8" t="s">
@@ -9085,7 +9070,7 @@
       <c r="G136" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H136" s="62" t="s">
+      <c r="H136" s="61" t="s">
         <v>341</v>
       </c>
       <c r="I136" s="8" t="s">
@@ -9129,7 +9114,7 @@
       <c r="G137" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H137" s="60" t="s">
+      <c r="H137" s="59" t="s">
         <v>344</v>
       </c>
       <c r="I137" s="8" t="s">
@@ -9173,7 +9158,7 @@
       <c r="G138" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H138" s="60" t="s">
+      <c r="H138" s="59" t="s">
         <v>346</v>
       </c>
       <c r="I138" s="8" t="s">
@@ -9217,7 +9202,7 @@
       <c r="G139" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H139" s="60" t="s">
+      <c r="H139" s="59" t="s">
         <v>349</v>
       </c>
       <c r="I139" s="8" t="s">
@@ -9261,7 +9246,7 @@
       <c r="G140" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H140" s="60" t="s">
+      <c r="H140" s="59" t="s">
         <v>352</v>
       </c>
       <c r="I140" s="8" t="s">
@@ -9305,7 +9290,7 @@
       <c r="G141" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H141" s="63" t="s">
+      <c r="H141" s="62" t="s">
         <v>354</v>
       </c>
       <c r="I141" s="8" t="s">
@@ -9349,7 +9334,7 @@
       <c r="G142" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H142" s="63" t="s">
+      <c r="H142" s="62" t="s">
         <v>175</v>
       </c>
       <c r="I142" s="8" t="s">
@@ -9446,10 +9431,10 @@
         <v>27</v>
       </c>
       <c r="H144" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="I144" s="45" t="s">
         <v>361</v>
-      </c>
-      <c r="I144" s="45" t="s">
-        <v>362</v>
       </c>
       <c r="J144" s="40">
         <v>0</v>
@@ -9472,7 +9457,7 @@
         <v>200149</v>
       </c>
       <c r="B145" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C145" s="8">
         <v>152</v>
@@ -9493,7 +9478,7 @@
         <v>341</v>
       </c>
       <c r="I145" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J145" s="40">
         <v>0</v>
@@ -9519,7 +9504,7 @@
         <v>200149</v>
       </c>
       <c r="B146" s="22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C146" s="8">
         <v>153</v>
@@ -9537,10 +9522,10 @@
         <v>27</v>
       </c>
       <c r="H146" s="40" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I146" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J146" s="40">
         <v>0</v>
@@ -9561,9 +9546,12 @@
         <v>217</v>
       </c>
     </row>
-    <row r="147" spans="2:23">
+    <row r="147" spans="1:23">
+      <c r="A147" s="8">
+        <v>200150</v>
+      </c>
       <c r="B147" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C147" s="8">
         <v>154</v>
@@ -9581,7 +9569,7 @@
         <v>27</v>
       </c>
       <c r="H147" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I147" s="8" t="s">
         <v>216</v>
@@ -9602,7 +9590,7 @@
         <v>31</v>
       </c>
       <c r="W147" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="148" spans="1:14">
@@ -9610,7 +9598,7 @@
         <v>200152</v>
       </c>
       <c r="B148" s="22" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C148" s="8">
         <v>155</v>
@@ -9627,11 +9615,11 @@
       <c r="G148" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H148" s="60" t="s">
+      <c r="H148" s="59" t="s">
         <v>119</v>
       </c>
       <c r="I148" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J148" s="40">
         <v>0</v>
@@ -9654,7 +9642,7 @@
         <v>200153</v>
       </c>
       <c r="B149" s="22" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C149" s="8">
         <v>156</v>
@@ -9671,11 +9659,11 @@
       <c r="G149" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H149" s="60" t="s">
+      <c r="H149" s="59" t="s">
         <v>152</v>
       </c>
       <c r="I149" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J149" s="40">
         <v>0</v>
@@ -9698,7 +9686,7 @@
         <v>200154</v>
       </c>
       <c r="B150" s="22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C150" s="8">
         <v>157</v>
@@ -9715,11 +9703,11 @@
       <c r="G150" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H150" s="60" t="s">
+      <c r="H150" s="59" t="s">
         <v>32</v>
       </c>
       <c r="I150" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J150" s="40">
         <v>0</v>
@@ -9742,7 +9730,7 @@
         <v>200155</v>
       </c>
       <c r="B151" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C151" s="8">
         <v>158</v>
@@ -9759,11 +9747,11 @@
       <c r="G151" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H151" s="60" t="s">
+      <c r="H151" s="59" t="s">
         <v>137</v>
       </c>
       <c r="I151" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J151" s="40">
         <v>0</v>
@@ -9786,7 +9774,7 @@
         <v>200156</v>
       </c>
       <c r="B152" s="22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C152" s="8">
         <v>159</v>
@@ -9803,11 +9791,11 @@
       <c r="G152" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H152" s="60" t="s">
+      <c r="H152" s="59" t="s">
         <v>100</v>
       </c>
       <c r="I152" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J152" s="40">
         <v>0</v>
@@ -9830,7 +9818,7 @@
         <v>200157</v>
       </c>
       <c r="B153" s="22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C153" s="8">
         <v>160</v>
@@ -9847,11 +9835,11 @@
       <c r="G153" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H153" s="60" t="s">
+      <c r="H153" s="59" t="s">
         <v>149</v>
       </c>
       <c r="I153" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J153" s="40" t="s">
         <v>109</v>
@@ -9874,7 +9862,7 @@
         <v>200158</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C154" s="8">
         <v>161</v>
@@ -9892,10 +9880,10 @@
         <v>27</v>
       </c>
       <c r="H154" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="I154" s="8" t="s">
         <v>381</v>
-      </c>
-      <c r="I154" s="8" t="s">
-        <v>382</v>
       </c>
       <c r="J154" s="40">
         <v>0</v>
@@ -9918,7 +9906,7 @@
         <v>200159</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C155" s="8">
         <v>162</v>
@@ -9936,10 +9924,10 @@
         <v>27</v>
       </c>
       <c r="H155" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="I155" s="8" t="s">
         <v>384</v>
-      </c>
-      <c r="I155" s="8" t="s">
-        <v>385</v>
       </c>
       <c r="J155" s="40">
         <v>0</v>
@@ -9962,7 +9950,7 @@
         <v>200160</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C156" s="8">
         <v>163</v>
@@ -9979,8 +9967,8 @@
       <c r="G156" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H156" s="60" t="s">
-        <v>387</v>
+      <c r="H156" s="59" t="s">
+        <v>386</v>
       </c>
       <c r="I156" s="8" t="s">
         <v>59</v>
@@ -10006,7 +9994,7 @@
         <v>200161</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C157" s="8">
         <v>164</v>
@@ -10023,7 +10011,7 @@
       <c r="G157" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H157" s="60" t="s">
+      <c r="H157" s="59" t="s">
         <v>204</v>
       </c>
       <c r="I157" s="8" t="s">
@@ -10048,12 +10036,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="158" ht="14.4" spans="1:14">
+    <row r="158" spans="1:14">
       <c r="A158" s="8">
         <v>200162</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C158" s="8">
         <v>165</v>
@@ -10070,34 +10058,34 @@
       <c r="G158" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H158" s="60" t="s">
-        <v>390</v>
-      </c>
-      <c r="I158" s="51" t="s">
+      <c r="H158" s="59" t="s">
+        <v>389</v>
+      </c>
+      <c r="I158" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="J158" s="52">
-        <v>1</v>
-      </c>
-      <c r="K158" s="52">
-        <v>1</v>
-      </c>
-      <c r="L158" s="52">
-        <v>1</v>
-      </c>
-      <c r="M158" s="52">
+      <c r="J158" s="51">
+        <v>1</v>
+      </c>
+      <c r="K158" s="51">
+        <v>1</v>
+      </c>
+      <c r="L158" s="51">
+        <v>1</v>
+      </c>
+      <c r="M158" s="51">
         <v>1</v>
       </c>
       <c r="N158" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="159" ht="14.4" spans="1:14">
+    <row r="159" spans="1:14">
       <c r="A159" s="8">
         <v>200163</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C159" s="8">
         <v>166</v>
@@ -10114,22 +10102,22 @@
       <c r="G159" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H159" s="60" t="s">
-        <v>392</v>
-      </c>
-      <c r="I159" s="51" t="s">
+      <c r="H159" s="59" t="s">
+        <v>391</v>
+      </c>
+      <c r="I159" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="J159" s="52">
-        <v>1</v>
-      </c>
-      <c r="K159" s="52">
+      <c r="J159" s="51">
+        <v>1</v>
+      </c>
+      <c r="K159" s="51">
         <v>0</v>
       </c>
-      <c r="L159" s="52">
+      <c r="L159" s="51">
         <v>0</v>
       </c>
-      <c r="M159" s="52">
+      <c r="M159" s="51">
         <v>0</v>
       </c>
       <c r="N159" s="8" t="s">
@@ -10141,7 +10129,7 @@
         <v>200164</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C160" s="8">
         <v>167</v>
@@ -10158,8 +10146,8 @@
       <c r="G160" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H160" s="60" t="s">
-        <v>394</v>
+      <c r="H160" s="59" t="s">
+        <v>393</v>
       </c>
       <c r="I160" s="8" t="s">
         <v>220</v>
@@ -10180,122 +10168,187 @@
         <v>31</v>
       </c>
     </row>
-    <row r="161" s="7" customFormat="1" spans="3:14">
+    <row r="161" s="7" customFormat="1" spans="1:14">
+      <c r="A161" s="8">
+        <v>200165</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>394</v>
+      </c>
       <c r="C161" s="7">
         <v>168</v>
       </c>
-      <c r="D161" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="E161" s="49" t="s">
+      <c r="D161" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E161" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F161" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G161" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="H161" s="50">
+      <c r="G161" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H161" s="49">
         <v>10301001</v>
       </c>
-      <c r="I161" s="49" t="s">
+      <c r="I161" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J161" s="50">
-        <v>1</v>
-      </c>
-      <c r="K161" s="50">
-        <v>1</v>
-      </c>
-      <c r="L161" s="50">
+      <c r="J161" s="49">
+        <v>1</v>
+      </c>
+      <c r="K161" s="49">
+        <v>1</v>
+      </c>
+      <c r="L161" s="49">
         <v>2</v>
       </c>
-      <c r="M161" s="50">
-        <v>1</v>
-      </c>
-      <c r="N161" s="49" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="162" s="7" customFormat="1" spans="3:14">
+      <c r="M161" s="49">
+        <v>1</v>
+      </c>
+      <c r="N161" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="162" s="7" customFormat="1" spans="1:14">
+      <c r="A162" s="8">
+        <v>200166</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>395</v>
+      </c>
       <c r="C162" s="7">
         <v>169</v>
       </c>
-      <c r="D162" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="E162" s="49" t="s">
+      <c r="D162" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E162" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F162" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G162" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="H162" s="50">
+      <c r="G162" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H162" s="49">
         <v>10301008</v>
       </c>
-      <c r="I162" s="49" t="s">
+      <c r="I162" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J162" s="50">
-        <v>1</v>
-      </c>
-      <c r="K162" s="50">
-        <v>1</v>
-      </c>
-      <c r="L162" s="50">
-        <v>1</v>
-      </c>
-      <c r="M162" s="50">
-        <v>1</v>
-      </c>
-      <c r="N162" s="49" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="163" s="7" customFormat="1" spans="3:14">
+      <c r="J162" s="49">
+        <v>1</v>
+      </c>
+      <c r="K162" s="49">
+        <v>1</v>
+      </c>
+      <c r="L162" s="49">
+        <v>1</v>
+      </c>
+      <c r="M162" s="49">
+        <v>1</v>
+      </c>
+      <c r="N162" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="163" s="7" customFormat="1" spans="1:14">
+      <c r="A163" s="8">
+        <v>200167</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>396</v>
+      </c>
       <c r="C163" s="7">
         <v>170</v>
       </c>
-      <c r="D163" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="E163" s="49" t="s">
+      <c r="D163" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E163" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F163" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G163" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="H163" s="50">
+      <c r="G163" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H163" s="49">
         <v>10302001</v>
       </c>
-      <c r="I163" s="49" t="s">
+      <c r="I163" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J163" s="50">
-        <v>1</v>
-      </c>
-      <c r="K163" s="50">
-        <v>1</v>
-      </c>
-      <c r="L163" s="50">
-        <v>1</v>
-      </c>
-      <c r="M163" s="50">
-        <v>1</v>
-      </c>
-      <c r="N163" s="49" t="s">
-        <v>31</v>
+      <c r="J163" s="49">
+        <v>1</v>
+      </c>
+      <c r="K163" s="49">
+        <v>1</v>
+      </c>
+      <c r="L163" s="49">
+        <v>1</v>
+      </c>
+      <c r="M163" s="49">
+        <v>1</v>
+      </c>
+      <c r="N163" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="164" s="7" customFormat="1" spans="1:23">
+      <c r="A164" s="8">
+        <v>200168</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="C164" s="7">
+        <v>170</v>
+      </c>
+      <c r="D164" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E164" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F164" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G164" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H164" s="59" t="s">
+        <v>398</v>
+      </c>
+      <c r="I164" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J164" s="49">
+        <v>1</v>
+      </c>
+      <c r="K164" s="49">
+        <v>1</v>
+      </c>
+      <c r="L164" s="49">
+        <v>1</v>
+      </c>
+      <c r="M164" s="49">
+        <v>1</v>
+      </c>
+      <c r="N164" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W164" s="7" t="s">
+        <v>399</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V160">
+  <autoFilter ref="A1:V163">
     <extLst/>
   </autoFilter>
   <dataValidations count="2">
@@ -10321,21 +10374,21 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="18.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="11.8796296296296" customWidth="1"/>
+    <col min="1" max="1" width="18.775" customWidth="1"/>
+    <col min="2" max="2" width="11.8833333333333" customWidth="1"/>
     <col min="7" max="7" width="13.3333333333333" customWidth="1"/>
-    <col min="8" max="8" width="15.8796296296296" customWidth="1"/>
+    <col min="8" max="8" width="15.8833333333333" customWidth="1"/>
     <col min="9" max="9" width="16.3333333333333" customWidth="1"/>
     <col min="10" max="10" width="24" customWidth="1"/>
     <col min="11" max="11" width="19.3333333333333" customWidth="1"/>
-    <col min="12" max="12" width="23.1111111111111" customWidth="1"/>
+    <col min="12" max="12" width="23.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="24" customHeight="1" spans="1:12">
@@ -10381,7 +10434,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>

--- a/src/customerView/客户视图.xlsx
+++ b/src/customerView/客户视图.xlsx
@@ -11,7 +11,7 @@
     <sheet name="填写说明" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户视图!$A$1:$V$163</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户视图!$A$1:$V$164</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1355,18 +1355,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1377,9 +1377,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1393,38 +1392,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1437,10 +1415,17 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1459,14 +1444,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1475,7 +1452,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -1491,9 +1475,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1544,7 +1544,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1556,13 +1574,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1580,151 +1724,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1754,6 +1754,78 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1778,88 +1850,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1868,133 +1868,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2440,9 +2440,9 @@
   <dimension ref="A1:W164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J168" sqref="J168"/>
+      <selection pane="bottomLeft" activeCell="M104" sqref="H104:M105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7669,7 +7669,7 @@
         <v>275</v>
       </c>
       <c r="J104" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K104" s="42">
         <v>0</v>
@@ -7713,7 +7713,7 @@
         <v>275</v>
       </c>
       <c r="J105" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K105" s="42">
         <v>0</v>
@@ -10348,15 +10348,15 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V163">
+  <autoFilter ref="A1:V164">
     <extLst/>
   </autoFilter>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R143 R1:R67">
+      <formula1>"'==,&gt;,&lt;,&gt;=,&lt;="</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1">
       <formula1>"等于,大于,小于,大于等于,小于等于"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R143 R1:R67">
-      <formula1>"'==,&gt;,&lt;,&gt;=,&lt;="</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/customerView/客户视图.xlsx
+++ b/src/customerView/客户视图.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="22943" windowHeight="9924"/>
   </bookViews>
   <sheets>
     <sheet name="客户视图" sheetId="1" r:id="rId1"/>
     <sheet name="填写说明" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户视图!$A$1:$V$164</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户视图!$A$1:$V$165</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406">
   <si>
     <t>CV 客户视图</t>
   </si>
@@ -1285,6 +1285,18 @@
   </si>
   <si>
     <t>陆海</t>
+  </si>
+  <si>
+    <t>CV00169</t>
+  </si>
+  <si>
+    <t>00305013</t>
+  </si>
+  <si>
+    <t>custom-input-unitAcctNo</t>
+  </si>
+  <si>
+    <t>孙飞</t>
   </si>
   <si>
     <t>必填：</t>
@@ -1356,74 +1368,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1438,9 +1383,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1452,32 +1397,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1492,8 +1427,85 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1520,7 +1532,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799493392742698"/>
+        <fgColor theme="3" tint="0.799462874233222"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1544,7 +1556,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1556,7 +1586,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1568,37 +1610,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1610,37 +1628,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1652,25 +1640,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1688,7 +1658,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1700,31 +1724,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1754,16 +1766,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1777,32 +1789,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1825,6 +1833,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1839,27 +1862,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1868,133 +1880,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2437,32 +2449,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W164"/>
+  <dimension ref="A1:W166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M104" sqref="H104:M105"/>
+      <selection pane="bottomLeft" activeCell="L79" sqref="L79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="16.3333333333333" style="8" customWidth="1"/>
     <col min="2" max="2" width="15" style="8" customWidth="1"/>
     <col min="3" max="4" width="9.66666666666667" style="8" customWidth="1"/>
     <col min="5" max="7" width="7" style="8" customWidth="1"/>
-    <col min="8" max="8" width="14.775" style="8" customWidth="1"/>
-    <col min="9" max="9" width="25.775" style="8" customWidth="1"/>
+    <col min="8" max="8" width="14.7777777777778" style="8" customWidth="1"/>
+    <col min="9" max="9" width="25.7777777777778" style="8" customWidth="1"/>
     <col min="10" max="13" width="17.6666666666667" style="8" customWidth="1"/>
     <col min="14" max="14" width="12.3333333333333" style="8" customWidth="1"/>
-    <col min="15" max="15" width="16.775" style="8" customWidth="1"/>
-    <col min="16" max="16" width="16.1083333333333" style="8" customWidth="1"/>
+    <col min="15" max="15" width="16.7777777777778" style="8" customWidth="1"/>
+    <col min="16" max="16" width="16.1111111111111" style="8" customWidth="1"/>
     <col min="17" max="21" width="7" style="8" customWidth="1"/>
     <col min="22" max="22" width="29.6666666666667" style="8" customWidth="1"/>
     <col min="23" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="60.75" spans="1:23">
+    <row r="1" ht="61.2" spans="1:23">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -6552,7 +6564,7 @@
         <v>1</v>
       </c>
       <c r="L79" s="39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M79" s="40" t="s">
         <v>30</v>
@@ -6696,7 +6708,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" ht="14.4" spans="1:15">
       <c r="A83" s="22">
         <v>200085</v>
       </c>
@@ -7581,7 +7593,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="103" ht="16.5" spans="1:19">
+    <row r="103" ht="34.2" spans="1:19">
       <c r="A103" s="8">
         <v>200107</v>
       </c>
@@ -10036,7 +10048,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="158" spans="1:14">
+    <row r="158" ht="14.4" spans="1:14">
       <c r="A158" s="8">
         <v>200162</v>
       </c>
@@ -10080,7 +10092,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" ht="14.4" spans="1:14">
       <c r="A159" s="8">
         <v>200163</v>
       </c>
@@ -10308,7 +10320,7 @@
         <v>397</v>
       </c>
       <c r="C164" s="7">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D164" s="7" t="s">
         <v>24</v>
@@ -10347,16 +10359,87 @@
         <v>399</v>
       </c>
     </row>
+    <row r="165" s="7" customFormat="1" spans="1:23">
+      <c r="A165" s="8">
+        <v>200169</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="C165" s="7">
+        <v>171</v>
+      </c>
+      <c r="D165" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E165" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F165" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G165" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H165" s="59" t="s">
+        <v>401</v>
+      </c>
+      <c r="I165" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="J165" s="49">
+        <v>1</v>
+      </c>
+      <c r="K165" s="49">
+        <v>1</v>
+      </c>
+      <c r="L165" s="49">
+        <v>1</v>
+      </c>
+      <c r="M165" s="49">
+        <v>1</v>
+      </c>
+      <c r="N165" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W165" s="7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="166" s="4" customFormat="1" spans="1:23">
+      <c r="A166" s="8"/>
+      <c r="B166" s="8"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="14"/>
+      <c r="G166" s="5"/>
+      <c r="I166" s="14"/>
+      <c r="J166" s="14"/>
+      <c r="K166" s="14"/>
+      <c r="L166" s="14"/>
+      <c r="M166" s="14"/>
+      <c r="N166" s="5"/>
+      <c r="O166" s="5"/>
+      <c r="P166" s="5"/>
+      <c r="Q166" s="5"/>
+      <c r="R166" s="5"/>
+      <c r="S166" s="18"/>
+      <c r="T166" s="5"/>
+      <c r="U166" s="5"/>
+      <c r="V166" s="5"/>
+      <c r="W166" s="8"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:V164">
+  <autoFilter ref="A1:V165">
     <extLst/>
   </autoFilter>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R143 R1:R67">
-      <formula1>"'==,&gt;,&lt;,&gt;=,&lt;="</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1">
       <formula1>"等于,大于,小于,大于等于,小于等于"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R143 R166 R1:R67">
+      <formula1>"'==,&gt;,&lt;,&gt;=,&lt;="</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10374,21 +10457,21 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="18.775" customWidth="1"/>
-    <col min="2" max="2" width="11.8833333333333" customWidth="1"/>
+    <col min="1" max="1" width="18.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="11.8888888888889" customWidth="1"/>
     <col min="7" max="7" width="13.3333333333333" customWidth="1"/>
-    <col min="8" max="8" width="15.8833333333333" customWidth="1"/>
+    <col min="8" max="8" width="15.8888888888889" customWidth="1"/>
     <col min="9" max="9" width="16.3333333333333" customWidth="1"/>
     <col min="10" max="10" width="24" customWidth="1"/>
     <col min="11" max="11" width="19.3333333333333" customWidth="1"/>
-    <col min="12" max="12" width="23.1083333333333" customWidth="1"/>
+    <col min="12" max="12" width="23.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="24" customHeight="1" spans="1:12">
@@ -10434,7 +10517,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>

--- a/src/customerView/客户视图.xlsx
+++ b/src/customerView/客户视图.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\工作资料\四川农信\SVN文档\02工程活动\04设计与实现\交易数据统计\交易规则统计\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924"/>
+    <workbookView xWindow="936" yWindow="0" windowWidth="20496" windowHeight="7932"/>
   </bookViews>
   <sheets>
     <sheet name="客户视图" sheetId="1" r:id="rId1"/>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="407">
   <si>
     <t>CV 客户视图</t>
   </si>
@@ -872,7 +877,7 @@
         <sz val="13"/>
         <color rgb="FF008000"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>ID</t>
     </r>
@@ -1304,18 +1309,16 @@
   <si>
     <t>同一交易码如果多个条件且关系 此项 写成数字相同  否则都写成不同数字</t>
   </si>
+  <si>
+    <t>custom-input_OldCardNumber</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1353,7 +1356,7 @@
       <sz val="12.75"/>
       <color rgb="FF001080"/>
       <name val="Consolas"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="13"/>
@@ -1364,151 +1367,7 @@
     <font>
       <sz val="10.5"/>
       <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1520,10 +1379,23 @@
       <sz val="13"/>
       <color rgb="FF008000"/>
       <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1532,7 +1404,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799462874233222"/>
+        <fgColor theme="3" tint="0.79940183721427049"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1554,194 +1426,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1764,253 +1450,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2032,9 +1476,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2051,17 +1492,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2101,9 +1537,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2113,79 +1546,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2443,38 +1832,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W166"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="L79" sqref="L79"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.3333333333333" style="8" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="8" customWidth="1"/>
     <col min="2" max="2" width="15" style="8" customWidth="1"/>
-    <col min="3" max="4" width="9.66666666666667" style="8" customWidth="1"/>
+    <col min="3" max="4" width="9.6640625" style="8" customWidth="1"/>
     <col min="5" max="7" width="7" style="8" customWidth="1"/>
-    <col min="8" max="8" width="14.7777777777778" style="8" customWidth="1"/>
-    <col min="9" max="9" width="25.7777777777778" style="8" customWidth="1"/>
-    <col min="10" max="13" width="17.6666666666667" style="8" customWidth="1"/>
-    <col min="14" max="14" width="12.3333333333333" style="8" customWidth="1"/>
-    <col min="15" max="15" width="16.7777777777778" style="8" customWidth="1"/>
-    <col min="16" max="16" width="16.1111111111111" style="8" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="25.77734375" style="8" customWidth="1"/>
+    <col min="10" max="13" width="17.6640625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" style="8" customWidth="1"/>
+    <col min="15" max="15" width="16.77734375" style="8" customWidth="1"/>
+    <col min="16" max="16" width="16.109375" style="8" customWidth="1"/>
     <col min="17" max="21" width="7" style="8" customWidth="1"/>
-    <col min="22" max="22" width="29.6666666666667" style="8" customWidth="1"/>
+    <col min="22" max="22" width="29.6640625" style="8" customWidth="1"/>
     <col min="23" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="61.2" spans="1:23">
+    <row r="1" spans="1:23" ht="61.2" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2545,7 +1933,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>200001</v>
       </c>
@@ -2570,7 +1958,7 @@
       <c r="H2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="14" t="s">
         <v>29</v>
       </c>
       <c r="J2" s="12" t="s">
@@ -2592,12 +1980,12 @@
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
-      <c r="S2" s="17"/>
+      <c r="S2" s="16"/>
       <c r="T2" s="11"/>
       <c r="U2" s="11"/>
       <c r="V2" s="11"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>200001</v>
       </c>
@@ -2622,7 +2010,7 @@
       <c r="H3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="14" t="s">
         <v>33</v>
       </c>
       <c r="J3" s="12" t="s">
@@ -2644,12 +2032,12 @@
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
-      <c r="S3" s="17"/>
+      <c r="S3" s="16"/>
       <c r="T3" s="11"/>
       <c r="U3" s="11"/>
       <c r="V3" s="11"/>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>200002</v>
       </c>
@@ -2696,7 +2084,7 @@
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
-      <c r="S4" s="17"/>
+      <c r="S4" s="16"/>
       <c r="T4" s="11"/>
       <c r="U4" s="11"/>
       <c r="V4" s="11"/>
@@ -2704,7 +2092,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>200003</v>
       </c>
@@ -2751,12 +2139,12 @@
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
-      <c r="S5" s="17"/>
+      <c r="S5" s="16"/>
       <c r="T5" s="11"/>
       <c r="U5" s="11"/>
       <c r="V5" s="11"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>200004</v>
       </c>
@@ -2803,12 +2191,12 @@
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
-      <c r="S6" s="17"/>
+      <c r="S6" s="16"/>
       <c r="T6" s="11"/>
       <c r="U6" s="11"/>
       <c r="V6" s="11"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>200005</v>
       </c>
@@ -2855,12 +2243,12 @@
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
-      <c r="S7" s="17"/>
+      <c r="S7" s="16"/>
       <c r="T7" s="11"/>
       <c r="U7" s="11"/>
       <c r="V7" s="11"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>200006</v>
       </c>
@@ -2907,12 +2295,12 @@
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
-      <c r="S8" s="17"/>
+      <c r="S8" s="16"/>
       <c r="T8" s="11"/>
       <c r="U8" s="11"/>
       <c r="V8" s="11"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>200007</v>
       </c>
@@ -2956,15 +2344,15 @@
         <v>31</v>
       </c>
       <c r="O9" s="11"/>
-      <c r="P9" s="16"/>
+      <c r="P9" s="15"/>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
-      <c r="S9" s="17"/>
+      <c r="S9" s="16"/>
       <c r="T9" s="11"/>
       <c r="U9" s="11"/>
-      <c r="V9" s="16"/>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="V9" s="15"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>200008</v>
       </c>
@@ -3008,15 +2396,15 @@
         <v>31</v>
       </c>
       <c r="O10" s="11"/>
-      <c r="P10" s="16"/>
+      <c r="P10" s="15"/>
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
-      <c r="S10" s="17"/>
+      <c r="S10" s="16"/>
       <c r="T10" s="11"/>
       <c r="U10" s="11"/>
       <c r="V10" s="11"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>200009</v>
       </c>
@@ -3063,12 +2451,12 @@
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
-      <c r="S11" s="17"/>
+      <c r="S11" s="16"/>
       <c r="T11" s="11"/>
       <c r="U11" s="11"/>
       <c r="V11" s="11"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>200010</v>
       </c>
@@ -3115,12 +2503,12 @@
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
-      <c r="S12" s="17"/>
+      <c r="S12" s="16"/>
       <c r="T12" s="11"/>
       <c r="U12" s="11"/>
       <c r="V12" s="11"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>200011</v>
       </c>
@@ -3167,12 +2555,12 @@
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
-      <c r="S13" s="17"/>
+      <c r="S13" s="16"/>
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
       <c r="V13" s="11"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>200012</v>
       </c>
@@ -3219,12 +2607,12 @@
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
-      <c r="S14" s="17"/>
+      <c r="S14" s="16"/>
       <c r="T14" s="11"/>
       <c r="U14" s="11"/>
       <c r="V14" s="11"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>200013</v>
       </c>
@@ -3271,12 +2659,12 @@
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
-      <c r="S15" s="17"/>
+      <c r="S15" s="16"/>
       <c r="T15" s="11"/>
       <c r="U15" s="11"/>
       <c r="V15" s="11"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>200014</v>
       </c>
@@ -3323,12 +2711,12 @@
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
-      <c r="S16" s="17"/>
+      <c r="S16" s="16"/>
       <c r="T16" s="11"/>
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>200015</v>
       </c>
@@ -3375,12 +2763,12 @@
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
-      <c r="S17" s="17"/>
+      <c r="S17" s="16"/>
       <c r="T17" s="11"/>
       <c r="U17" s="11"/>
       <c r="V17" s="11"/>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>200016</v>
       </c>
@@ -3427,12 +2815,12 @@
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
-      <c r="S18" s="17"/>
+      <c r="S18" s="16"/>
       <c r="T18" s="11"/>
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>200017</v>
       </c>
@@ -3479,12 +2867,12 @@
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
-      <c r="S19" s="17"/>
+      <c r="S19" s="16"/>
       <c r="T19" s="11"/>
       <c r="U19" s="11"/>
       <c r="V19" s="11"/>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>200018</v>
       </c>
@@ -3531,12 +2919,12 @@
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
-      <c r="S20" s="17"/>
+      <c r="S20" s="16"/>
       <c r="T20" s="11"/>
       <c r="U20" s="11"/>
       <c r="V20" s="11"/>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>200019</v>
       </c>
@@ -3583,12 +2971,12 @@
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
-      <c r="S21" s="17"/>
+      <c r="S21" s="16"/>
       <c r="T21" s="11"/>
       <c r="U21" s="11"/>
       <c r="V21" s="11"/>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>200020</v>
       </c>
@@ -3635,12 +3023,12 @@
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
-      <c r="S22" s="17"/>
+      <c r="S22" s="16"/>
       <c r="T22" s="11"/>
       <c r="U22" s="11"/>
       <c r="V22" s="11"/>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>200021</v>
       </c>
@@ -3666,7 +3054,7 @@
         <v>82</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>49</v>
+        <v>406</v>
       </c>
       <c r="J23" s="12" t="s">
         <v>30</v>
@@ -3687,12 +3075,12 @@
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
-      <c r="S23" s="17"/>
+      <c r="S23" s="16"/>
       <c r="T23" s="11"/>
       <c r="U23" s="11"/>
       <c r="V23" s="11"/>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>200022</v>
       </c>
@@ -3726,10 +3114,10 @@
       <c r="K24" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L24" s="14" t="s">
+      <c r="L24" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="M24" s="14" t="s">
+      <c r="M24" s="13" t="s">
         <v>46</v>
       </c>
       <c r="N24" s="11" t="s">
@@ -3739,12 +3127,12 @@
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
-      <c r="S24" s="17"/>
+      <c r="S24" s="16"/>
       <c r="T24" s="11"/>
       <c r="U24" s="11"/>
       <c r="V24" s="11"/>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>200023</v>
       </c>
@@ -3778,10 +3166,10 @@
       <c r="K25" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L25" s="14" t="s">
+      <c r="L25" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="M25" s="14" t="s">
+      <c r="M25" s="13" t="s">
         <v>46</v>
       </c>
       <c r="N25" s="11" t="s">
@@ -3791,12 +3179,12 @@
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
       <c r="R25" s="11"/>
-      <c r="S25" s="17"/>
+      <c r="S25" s="16"/>
       <c r="T25" s="11"/>
       <c r="U25" s="11"/>
       <c r="V25" s="11"/>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>200024</v>
       </c>
@@ -3830,10 +3218,10 @@
       <c r="K26" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L26" s="14" t="s">
+      <c r="L26" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="M26" s="14" t="s">
+      <c r="M26" s="13" t="s">
         <v>46</v>
       </c>
       <c r="N26" s="11" t="s">
@@ -3843,12 +3231,12 @@
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
       <c r="R26" s="11"/>
-      <c r="S26" s="17"/>
+      <c r="S26" s="16"/>
       <c r="T26" s="11"/>
       <c r="U26" s="11"/>
       <c r="V26" s="11"/>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>200025</v>
       </c>
@@ -3882,10 +3270,10 @@
       <c r="K27" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L27" s="14" t="s">
+      <c r="L27" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="M27" s="14" t="s">
+      <c r="M27" s="13" t="s">
         <v>46</v>
       </c>
       <c r="N27" s="11" t="s">
@@ -3895,12 +3283,12 @@
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
       <c r="R27" s="11"/>
-      <c r="S27" s="17"/>
+      <c r="S27" s="16"/>
       <c r="T27" s="11"/>
       <c r="U27" s="11"/>
       <c r="V27" s="11"/>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>200026</v>
       </c>
@@ -3934,10 +3322,10 @@
       <c r="K28" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L28" s="14" t="s">
+      <c r="L28" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="M28" s="14" t="s">
+      <c r="M28" s="13" t="s">
         <v>46</v>
       </c>
       <c r="N28" s="11" t="s">
@@ -3947,12 +3335,12 @@
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
       <c r="R28" s="11"/>
-      <c r="S28" s="17"/>
+      <c r="S28" s="16"/>
       <c r="T28" s="11"/>
       <c r="U28" s="11"/>
       <c r="V28" s="11"/>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>200027</v>
       </c>
@@ -3986,10 +3374,10 @@
       <c r="K29" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L29" s="14" t="s">
+      <c r="L29" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="M29" s="14" t="s">
+      <c r="M29" s="13" t="s">
         <v>46</v>
       </c>
       <c r="N29" s="11" t="s">
@@ -3999,12 +3387,12 @@
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
       <c r="R29" s="11"/>
-      <c r="S29" s="17"/>
+      <c r="S29" s="16"/>
       <c r="T29" s="11"/>
       <c r="U29" s="11"/>
       <c r="V29" s="11"/>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>200028</v>
       </c>
@@ -4051,7 +3439,7 @@
       <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
       <c r="R30" s="11"/>
-      <c r="S30" s="17"/>
+      <c r="S30" s="16"/>
       <c r="T30" s="11"/>
       <c r="U30" s="11"/>
       <c r="V30" s="11"/>
@@ -4059,7 +3447,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>200029</v>
       </c>
@@ -4081,7 +3469,7 @@
       <c r="G31" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H31" s="52" t="s">
+      <c r="H31" s="47" t="s">
         <v>98</v>
       </c>
       <c r="I31" s="12" t="s">
@@ -4106,7 +3494,7 @@
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
       <c r="R31" s="11"/>
-      <c r="S31" s="17"/>
+      <c r="S31" s="16"/>
       <c r="T31" s="11"/>
       <c r="U31" s="11"/>
       <c r="V31" s="11"/>
@@ -4114,7 +3502,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>200030</v>
       </c>
@@ -4136,7 +3524,7 @@
       <c r="G32" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H32" s="52" t="s">
+      <c r="H32" s="47" t="s">
         <v>100</v>
       </c>
       <c r="I32" s="12" t="s">
@@ -4161,12 +3549,12 @@
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
       <c r="R32" s="11"/>
-      <c r="S32" s="17"/>
+      <c r="S32" s="16"/>
       <c r="T32" s="11"/>
       <c r="U32" s="11"/>
       <c r="V32" s="11"/>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>200031</v>
       </c>
@@ -4188,7 +3576,7 @@
       <c r="G33" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H33" s="52" t="s">
+      <c r="H33" s="47" t="s">
         <v>102</v>
       </c>
       <c r="I33" s="12" t="s">
@@ -4213,7 +3601,7 @@
       <c r="P33" s="11"/>
       <c r="Q33" s="11"/>
       <c r="R33" s="11"/>
-      <c r="S33" s="17"/>
+      <c r="S33" s="16"/>
       <c r="T33" s="11"/>
       <c r="U33" s="11"/>
       <c r="V33" s="11"/>
@@ -4221,7 +3609,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>200032</v>
       </c>
@@ -4268,7 +3656,7 @@
       <c r="P34" s="11"/>
       <c r="Q34" s="11"/>
       <c r="R34" s="11"/>
-      <c r="S34" s="17"/>
+      <c r="S34" s="16"/>
       <c r="T34" s="11"/>
       <c r="U34" s="11"/>
       <c r="V34" s="11"/>
@@ -4276,7 +3664,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>200033</v>
       </c>
@@ -4323,12 +3711,12 @@
       <c r="P35" s="11"/>
       <c r="Q35" s="11"/>
       <c r="R35" s="11"/>
-      <c r="S35" s="17"/>
+      <c r="S35" s="16"/>
       <c r="T35" s="11"/>
       <c r="U35" s="11"/>
       <c r="V35" s="11"/>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>200034</v>
       </c>
@@ -4375,7 +3763,7 @@
       <c r="P36" s="11"/>
       <c r="Q36" s="11"/>
       <c r="R36" s="11"/>
-      <c r="S36" s="17"/>
+      <c r="S36" s="16"/>
       <c r="T36" s="11"/>
       <c r="U36" s="11"/>
       <c r="V36" s="11"/>
@@ -4383,7 +3771,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>200035</v>
       </c>
@@ -4430,7 +3818,7 @@
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
       <c r="R37" s="11"/>
-      <c r="S37" s="17"/>
+      <c r="S37" s="16"/>
       <c r="T37" s="11"/>
       <c r="U37" s="11"/>
       <c r="V37" s="11"/>
@@ -4438,7 +3826,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>200036</v>
       </c>
@@ -4485,12 +3873,12 @@
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
       <c r="R38" s="11"/>
-      <c r="S38" s="17"/>
+      <c r="S38" s="16"/>
       <c r="T38" s="11"/>
       <c r="U38" s="11"/>
       <c r="V38" s="11"/>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>200037</v>
       </c>
@@ -4537,7 +3925,7 @@
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
       <c r="R39" s="11"/>
-      <c r="S39" s="17"/>
+      <c r="S39" s="16"/>
       <c r="T39" s="11"/>
       <c r="U39" s="11"/>
       <c r="V39" s="11"/>
@@ -4545,7 +3933,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>200038</v>
       </c>
@@ -4592,12 +3980,12 @@
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
       <c r="R40" s="11"/>
-      <c r="S40" s="17"/>
+      <c r="S40" s="16"/>
       <c r="T40" s="11"/>
       <c r="U40" s="11"/>
       <c r="V40" s="11"/>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>200039</v>
       </c>
@@ -4644,7 +4032,7 @@
       <c r="P41" s="11"/>
       <c r="Q41" s="11"/>
       <c r="R41" s="11"/>
-      <c r="S41" s="17"/>
+      <c r="S41" s="16"/>
       <c r="T41" s="11"/>
       <c r="U41" s="11"/>
       <c r="V41" s="11"/>
@@ -4652,7 +4040,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>200040</v>
       </c>
@@ -4699,7 +4087,7 @@
       <c r="P42" s="11"/>
       <c r="Q42" s="11"/>
       <c r="R42" s="11"/>
-      <c r="S42" s="17"/>
+      <c r="S42" s="16"/>
       <c r="T42" s="11"/>
       <c r="U42" s="11"/>
       <c r="V42" s="11"/>
@@ -4707,7 +4095,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>200041</v>
       </c>
@@ -4754,7 +4142,7 @@
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
       <c r="R43" s="11"/>
-      <c r="S43" s="17"/>
+      <c r="S43" s="16"/>
       <c r="T43" s="11"/>
       <c r="U43" s="11"/>
       <c r="V43" s="11"/>
@@ -4762,7 +4150,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>200042</v>
       </c>
@@ -4809,12 +4197,12 @@
       <c r="P44" s="11"/>
       <c r="Q44" s="11"/>
       <c r="R44" s="11"/>
-      <c r="S44" s="17"/>
+      <c r="S44" s="16"/>
       <c r="T44" s="11"/>
       <c r="U44" s="11"/>
       <c r="V44" s="11"/>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>200043</v>
       </c>
@@ -4848,10 +4236,10 @@
       <c r="K45" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L45" s="14" t="s">
+      <c r="L45" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="M45" s="14" t="s">
+      <c r="M45" s="13" t="s">
         <v>46</v>
       </c>
       <c r="N45" s="11" t="s">
@@ -4861,12 +4249,12 @@
       <c r="P45" s="11"/>
       <c r="Q45" s="11"/>
       <c r="R45" s="11"/>
-      <c r="S45" s="17"/>
+      <c r="S45" s="16"/>
       <c r="T45" s="11"/>
       <c r="U45" s="11"/>
       <c r="V45" s="11"/>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>200044</v>
       </c>
@@ -4900,10 +4288,10 @@
       <c r="K46" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L46" s="14" t="s">
+      <c r="L46" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="M46" s="14" t="s">
+      <c r="M46" s="13" t="s">
         <v>46</v>
       </c>
       <c r="N46" s="11" t="s">
@@ -4913,12 +4301,12 @@
       <c r="P46" s="11"/>
       <c r="Q46" s="11"/>
       <c r="R46" s="11"/>
-      <c r="S46" s="17"/>
+      <c r="S46" s="16"/>
       <c r="T46" s="11"/>
       <c r="U46" s="11"/>
       <c r="V46" s="11"/>
     </row>
-    <row r="47" spans="1:22">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>200045</v>
       </c>
@@ -4952,10 +4340,10 @@
       <c r="K47" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L47" s="14" t="s">
+      <c r="L47" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="M47" s="14" t="s">
+      <c r="M47" s="13" t="s">
         <v>46</v>
       </c>
       <c r="N47" s="11" t="s">
@@ -4965,12 +4353,12 @@
       <c r="P47" s="11"/>
       <c r="Q47" s="11"/>
       <c r="R47" s="11"/>
-      <c r="S47" s="17"/>
+      <c r="S47" s="16"/>
       <c r="T47" s="11"/>
       <c r="U47" s="11"/>
       <c r="V47" s="11"/>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>200046</v>
       </c>
@@ -5017,12 +4405,12 @@
       <c r="P48" s="11"/>
       <c r="Q48" s="11"/>
       <c r="R48" s="11"/>
-      <c r="S48" s="17"/>
+      <c r="S48" s="16"/>
       <c r="T48" s="11"/>
       <c r="U48" s="11"/>
       <c r="V48" s="11"/>
     </row>
-    <row r="49" spans="1:22">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>200047</v>
       </c>
@@ -5069,12 +4457,12 @@
       <c r="P49" s="11"/>
       <c r="Q49" s="11"/>
       <c r="R49" s="11"/>
-      <c r="S49" s="17"/>
+      <c r="S49" s="16"/>
       <c r="T49" s="11"/>
       <c r="U49" s="11"/>
       <c r="V49" s="11"/>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>200048</v>
       </c>
@@ -5121,12 +4509,12 @@
       <c r="P50" s="11"/>
       <c r="Q50" s="11"/>
       <c r="R50" s="11"/>
-      <c r="S50" s="17"/>
+      <c r="S50" s="16"/>
       <c r="T50" s="11"/>
       <c r="U50" s="11"/>
       <c r="V50" s="11"/>
     </row>
-    <row r="51" spans="1:22">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>200049</v>
       </c>
@@ -5173,12 +4561,12 @@
       <c r="P51" s="11"/>
       <c r="Q51" s="11"/>
       <c r="R51" s="11"/>
-      <c r="S51" s="17"/>
+      <c r="S51" s="16"/>
       <c r="T51" s="11"/>
       <c r="U51" s="11"/>
       <c r="V51" s="11"/>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
         <v>200050</v>
       </c>
@@ -5225,12 +4613,12 @@
       <c r="P52" s="11"/>
       <c r="Q52" s="11"/>
       <c r="R52" s="11"/>
-      <c r="S52" s="17"/>
+      <c r="S52" s="16"/>
       <c r="T52" s="11"/>
       <c r="U52" s="11"/>
       <c r="V52" s="11"/>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>200051</v>
       </c>
@@ -5277,12 +4665,12 @@
       <c r="P53" s="11"/>
       <c r="Q53" s="11"/>
       <c r="R53" s="11"/>
-      <c r="S53" s="17"/>
+      <c r="S53" s="16"/>
       <c r="T53" s="11"/>
       <c r="U53" s="11"/>
       <c r="V53" s="11"/>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>200052</v>
       </c>
@@ -5329,7 +4717,7 @@
       <c r="P54" s="11"/>
       <c r="Q54" s="11"/>
       <c r="R54" s="11"/>
-      <c r="S54" s="17"/>
+      <c r="S54" s="16"/>
       <c r="T54" s="11"/>
       <c r="U54" s="11"/>
       <c r="V54" s="11"/>
@@ -5337,7 +4725,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:22">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
         <v>200053</v>
       </c>
@@ -5384,12 +4772,12 @@
       <c r="P55" s="11"/>
       <c r="Q55" s="11"/>
       <c r="R55" s="11"/>
-      <c r="S55" s="17"/>
+      <c r="S55" s="16"/>
       <c r="T55" s="11"/>
       <c r="U55" s="11"/>
       <c r="V55" s="11"/>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>200054</v>
       </c>
@@ -5436,12 +4824,12 @@
       <c r="P56" s="11"/>
       <c r="Q56" s="11"/>
       <c r="R56" s="11"/>
-      <c r="S56" s="17"/>
+      <c r="S56" s="16"/>
       <c r="T56" s="11"/>
       <c r="U56" s="11"/>
       <c r="V56" s="11"/>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
         <v>200055</v>
       </c>
@@ -5488,7 +4876,7 @@
       <c r="P57" s="11"/>
       <c r="Q57" s="11"/>
       <c r="R57" s="11"/>
-      <c r="S57" s="17"/>
+      <c r="S57" s="16"/>
       <c r="T57" s="11"/>
       <c r="U57" s="11"/>
       <c r="V57" s="11"/>
@@ -5496,7 +4884,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
         <v>200056</v>
       </c>
@@ -5543,7 +4931,7 @@
       <c r="P58" s="11"/>
       <c r="Q58" s="11"/>
       <c r="R58" s="11"/>
-      <c r="S58" s="17"/>
+      <c r="S58" s="16"/>
       <c r="T58" s="11"/>
       <c r="U58" s="11"/>
       <c r="V58" s="11"/>
@@ -5551,7 +4939,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:22">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
         <v>200057</v>
       </c>
@@ -5598,12 +4986,12 @@
       <c r="P59" s="11"/>
       <c r="Q59" s="11"/>
       <c r="R59" s="11"/>
-      <c r="S59" s="17"/>
+      <c r="S59" s="16"/>
       <c r="T59" s="11"/>
       <c r="U59" s="11"/>
       <c r="V59" s="11"/>
     </row>
-    <row r="60" spans="1:22">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
         <v>200058</v>
       </c>
@@ -5650,12 +5038,12 @@
       <c r="P60" s="11"/>
       <c r="Q60" s="11"/>
       <c r="R60" s="11"/>
-      <c r="S60" s="17"/>
+      <c r="S60" s="16"/>
       <c r="T60" s="11"/>
       <c r="U60" s="11"/>
       <c r="V60" s="11"/>
     </row>
-    <row r="61" spans="1:22">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <v>200059</v>
       </c>
@@ -5702,12 +5090,12 @@
       <c r="P61" s="11"/>
       <c r="Q61" s="11"/>
       <c r="R61" s="11"/>
-      <c r="S61" s="17"/>
+      <c r="S61" s="16"/>
       <c r="T61" s="11"/>
       <c r="U61" s="11"/>
       <c r="V61" s="11"/>
     </row>
-    <row r="62" s="4" customFormat="1" spans="1:23">
+    <row r="62" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>200060</v>
       </c>
@@ -5723,28 +5111,28 @@
       <c r="E62" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F62" s="14" t="s">
+      <c r="F62" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H62" s="53" t="s">
+      <c r="H62" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="I62" s="14" t="s">
+      <c r="I62" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="J62" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="K62" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="L62" s="14" t="s">
+      <c r="J62" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K62" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L62" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="M62" s="14" t="s">
+      <c r="M62" s="13" t="s">
         <v>46</v>
       </c>
       <c r="N62" s="5" t="s">
@@ -5754,7 +5142,7 @@
       <c r="P62" s="5"/>
       <c r="Q62" s="5"/>
       <c r="R62" s="5"/>
-      <c r="S62" s="18"/>
+      <c r="S62" s="17"/>
       <c r="T62" s="5"/>
       <c r="U62" s="5"/>
       <c r="V62" s="5"/>
@@ -5762,7 +5150,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" s="4" customFormat="1" spans="1:23">
+    <row r="63" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>200061</v>
       </c>
@@ -5778,28 +5166,28 @@
       <c r="E63" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F63" s="14" t="s">
+      <c r="F63" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H63" s="53" t="s">
+      <c r="H63" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="I63" s="14" t="s">
+      <c r="I63" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="J63" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="K63" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="L63" s="14" t="s">
+      <c r="J63" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K63" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L63" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="M63" s="14" t="s">
+      <c r="M63" s="13" t="s">
         <v>46</v>
       </c>
       <c r="N63" s="5" t="s">
@@ -5809,7 +5197,7 @@
       <c r="P63" s="5"/>
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
-      <c r="S63" s="18"/>
+      <c r="S63" s="17"/>
       <c r="T63" s="5"/>
       <c r="U63" s="5"/>
       <c r="V63" s="5"/>
@@ -5817,7 +5205,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" s="4" customFormat="1" spans="1:23">
+    <row r="64" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>200062</v>
       </c>
@@ -5833,28 +5221,28 @@
       <c r="E64" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F64" s="14" t="s">
+      <c r="F64" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H64" s="53" t="s">
+      <c r="H64" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="I64" s="14" t="s">
+      <c r="I64" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="J64" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="K64" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="L64" s="14" t="s">
+      <c r="J64" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K64" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L64" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="M64" s="14" t="s">
+      <c r="M64" s="13" t="s">
         <v>46</v>
       </c>
       <c r="N64" s="5" t="s">
@@ -5864,7 +5252,7 @@
       <c r="P64" s="5"/>
       <c r="Q64" s="5"/>
       <c r="R64" s="5"/>
-      <c r="S64" s="18"/>
+      <c r="S64" s="17"/>
       <c r="T64" s="5"/>
       <c r="U64" s="5"/>
       <c r="V64" s="5"/>
@@ -5872,7 +5260,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" s="4" customFormat="1" spans="1:23">
+    <row r="65" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>200063</v>
       </c>
@@ -5888,28 +5276,28 @@
       <c r="E65" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F65" s="14" t="s">
+      <c r="F65" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H65" s="53" t="s">
+      <c r="H65" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="I65" s="14" t="s">
+      <c r="I65" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="J65" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="K65" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="L65" s="14" t="s">
+      <c r="J65" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K65" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L65" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="M65" s="14" t="s">
+      <c r="M65" s="13" t="s">
         <v>46</v>
       </c>
       <c r="N65" s="5" t="s">
@@ -5919,7 +5307,7 @@
       <c r="P65" s="5"/>
       <c r="Q65" s="5"/>
       <c r="R65" s="5"/>
-      <c r="S65" s="18"/>
+      <c r="S65" s="17"/>
       <c r="T65" s="5"/>
       <c r="U65" s="5"/>
       <c r="V65" s="5"/>
@@ -5927,7 +5315,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" s="4" customFormat="1" spans="1:23">
+    <row r="66" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>200064</v>
       </c>
@@ -5943,28 +5331,28 @@
       <c r="E66" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F66" s="14" t="s">
+      <c r="F66" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H66" s="53" t="s">
+      <c r="H66" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="I66" s="14" t="s">
+      <c r="I66" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="J66" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="K66" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="L66" s="14" t="s">
+      <c r="J66" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K66" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L66" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="M66" s="14" t="s">
+      <c r="M66" s="13" t="s">
         <v>46</v>
       </c>
       <c r="N66" s="5" t="s">
@@ -5974,7 +5362,7 @@
       <c r="P66" s="5"/>
       <c r="Q66" s="5"/>
       <c r="R66" s="5"/>
-      <c r="S66" s="18"/>
+      <c r="S66" s="17"/>
       <c r="T66" s="5"/>
       <c r="U66" s="5"/>
       <c r="V66" s="5"/>
@@ -5982,7 +5370,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" s="4" customFormat="1" spans="1:22">
+    <row r="67" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>200065</v>
       </c>
@@ -5998,28 +5386,28 @@
       <c r="E67" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F67" s="14" t="s">
+      <c r="F67" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H67" s="53" t="s">
+      <c r="H67" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="I67" s="14" t="s">
+      <c r="I67" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="J67" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="K67" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="L67" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="M67" s="14" t="s">
+      <c r="J67" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K67" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L67" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="M67" s="13" t="s">
         <v>30</v>
       </c>
       <c r="N67" s="5" t="s">
@@ -6029,12 +5417,12 @@
       <c r="P67" s="5"/>
       <c r="Q67" s="5"/>
       <c r="R67" s="5"/>
-      <c r="S67" s="18"/>
+      <c r="S67" s="17"/>
       <c r="T67" s="5"/>
       <c r="U67" s="5"/>
       <c r="V67" s="5"/>
     </row>
-    <row r="68" s="5" customFormat="1" spans="1:14">
+    <row r="68" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>200066</v>
       </c>
@@ -6050,35 +5438,35 @@
       <c r="E68" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F68" s="14" t="s">
+      <c r="F68" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H68" s="54" t="s">
+      <c r="H68" s="49" t="s">
         <v>177</v>
       </c>
       <c r="I68" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="J68" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="K68" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="L68" s="14" t="s">
+      <c r="J68" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K68" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L68" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="M68" s="14" t="s">
+      <c r="M68" s="13" t="s">
         <v>46</v>
       </c>
       <c r="N68" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="69" s="5" customFormat="1" spans="1:14">
+    <row r="69" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>200067</v>
       </c>
@@ -6094,35 +5482,35 @@
       <c r="E69" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F69" s="14" t="s">
+      <c r="F69" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H69" s="54" t="s">
+      <c r="H69" s="49" t="s">
         <v>180</v>
       </c>
       <c r="I69" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="J69" s="14" t="s">
+      <c r="J69" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="K69" s="14" t="s">
+      <c r="K69" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="L69" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="M69" s="14" t="s">
+      <c r="L69" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="M69" s="13" t="s">
         <v>30</v>
       </c>
       <c r="N69" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="70" s="5" customFormat="1" spans="1:14">
+    <row r="70" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>200068</v>
       </c>
@@ -6138,35 +5526,35 @@
       <c r="E70" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F70" s="14" t="s">
+      <c r="F70" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H70" s="54" t="s">
+      <c r="H70" s="49" t="s">
         <v>182</v>
       </c>
       <c r="I70" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="J70" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="K70" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="L70" s="14" t="s">
+      <c r="J70" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K70" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L70" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="M70" s="14" t="s">
+      <c r="M70" s="13" t="s">
         <v>46</v>
       </c>
       <c r="N70" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="71" s="5" customFormat="1" spans="1:14">
+    <row r="71" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>200069</v>
       </c>
@@ -6182,35 +5570,35 @@
       <c r="E71" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F71" s="14" t="s">
+      <c r="F71" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H71" s="54" t="s">
+      <c r="H71" s="49" t="s">
         <v>182</v>
       </c>
       <c r="I71" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="J71" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="K71" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="L71" s="14" t="s">
+      <c r="J71" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K71" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L71" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="M71" s="14" t="s">
+      <c r="M71" s="13" t="s">
         <v>46</v>
       </c>
       <c r="N71" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="72" s="5" customFormat="1" spans="1:14">
+    <row r="72" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>200070</v>
       </c>
@@ -6226,35 +5614,35 @@
       <c r="E72" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F72" s="14" t="s">
+      <c r="F72" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H72" s="54" t="s">
+      <c r="H72" s="49" t="s">
         <v>187</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="J72" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="K72" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="L72" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="M72" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J72" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K72" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L72" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="M72" s="13" t="s">
         <v>30</v>
       </c>
       <c r="N72" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="73" s="4" customFormat="1" spans="1:14">
+    <row r="73" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>200071</v>
       </c>
@@ -6270,35 +5658,35 @@
       <c r="E73" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F73" s="14" t="s">
+      <c r="F73" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H73" s="53" t="s">
+      <c r="H73" s="48" t="s">
         <v>189</v>
       </c>
       <c r="I73" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="J73" s="33">
-        <v>1</v>
-      </c>
-      <c r="K73" s="34">
-        <v>1</v>
-      </c>
-      <c r="L73" s="31" t="s">
+      <c r="J73" s="29">
+        <v>1</v>
+      </c>
+      <c r="K73" s="30">
+        <v>1</v>
+      </c>
+      <c r="L73" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="M73" s="31">
+      <c r="M73" s="28">
         <v>1</v>
       </c>
       <c r="N73" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="74" s="4" customFormat="1" spans="1:14">
+    <row r="74" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>200071</v>
       </c>
@@ -6314,35 +5702,35 @@
       <c r="E74" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F74" s="14" t="s">
+      <c r="F74" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H74" s="53" t="s">
+      <c r="H74" s="48" t="s">
         <v>191</v>
       </c>
       <c r="I74" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J74" s="33">
-        <v>1</v>
-      </c>
-      <c r="K74" s="34">
-        <v>1</v>
-      </c>
-      <c r="L74" s="31">
-        <v>1</v>
-      </c>
-      <c r="M74" s="31">
+      <c r="J74" s="29">
+        <v>1</v>
+      </c>
+      <c r="K74" s="30">
+        <v>1</v>
+      </c>
+      <c r="L74" s="28">
+        <v>1</v>
+      </c>
+      <c r="M74" s="28">
         <v>1</v>
       </c>
       <c r="N74" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="75" s="4" customFormat="1" spans="1:14">
+    <row r="75" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>200071</v>
       </c>
@@ -6358,439 +5746,439 @@
       <c r="E75" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F75" s="14" t="s">
+      <c r="F75" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H75" s="53" t="s">
+      <c r="H75" s="48" t="s">
         <v>192</v>
       </c>
       <c r="I75" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J75" s="33">
-        <v>1</v>
-      </c>
-      <c r="K75" s="34">
-        <v>1</v>
-      </c>
-      <c r="L75" s="31">
-        <v>1</v>
-      </c>
-      <c r="M75" s="31">
+      <c r="J75" s="29">
+        <v>1</v>
+      </c>
+      <c r="K75" s="30">
+        <v>1</v>
+      </c>
+      <c r="L75" s="28">
+        <v>1</v>
+      </c>
+      <c r="M75" s="28">
         <v>1</v>
       </c>
       <c r="N75" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="76" s="6" customFormat="1" spans="1:22">
-      <c r="A76" s="19">
+    <row r="76" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="18">
         <v>200073</v>
       </c>
-      <c r="B76" s="19" t="s">
+      <c r="B76" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="C76" s="20">
+      <c r="C76" s="19">
         <v>80</v>
       </c>
-      <c r="D76" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E76" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F76" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G76" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H76" s="55" t="s">
+      <c r="D76" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E76" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F76" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G76" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H76" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="I76" s="19" t="s">
+      <c r="I76" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="J76" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="K76" s="36">
-        <v>1</v>
-      </c>
-      <c r="L76" s="21" t="s">
+      <c r="J76" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="K76" s="32">
+        <v>1</v>
+      </c>
+      <c r="L76" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="M76" s="21" t="s">
+      <c r="M76" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="N76" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="O76" s="19"/>
-      <c r="P76" s="19"/>
-      <c r="Q76" s="19"/>
-      <c r="R76" s="19"/>
-      <c r="S76" s="19"/>
-      <c r="T76" s="19"/>
-      <c r="U76" s="19"/>
-      <c r="V76" s="19"/>
-    </row>
-    <row r="77" spans="1:14">
-      <c r="A77" s="22">
+      <c r="N76" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="O76" s="18"/>
+      <c r="P76" s="18"/>
+      <c r="Q76" s="18"/>
+      <c r="R76" s="18"/>
+      <c r="S76" s="18"/>
+      <c r="T76" s="18"/>
+      <c r="U76" s="18"/>
+      <c r="V76" s="18"/>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A77" s="21">
         <v>200074</v>
       </c>
-      <c r="B77" s="22" t="s">
+      <c r="B77" s="21" t="s">
         <v>196</v>
       </c>
       <c r="C77" s="8">
         <v>81</v>
       </c>
-      <c r="D77" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E77" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="F77" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G77" s="22" t="s">
+      <c r="D77" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E77" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F77" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G77" s="21" t="s">
         <v>27</v>
       </c>
       <c r="H77" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="I77" s="37" t="s">
+      <c r="I77" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="J77" s="38">
-        <v>1</v>
-      </c>
-      <c r="K77" s="39">
-        <v>1</v>
-      </c>
-      <c r="L77" s="40" t="s">
+      <c r="J77" s="34">
+        <v>1</v>
+      </c>
+      <c r="K77" s="35">
+        <v>1</v>
+      </c>
+      <c r="L77" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="M77" s="40">
-        <v>1</v>
-      </c>
-      <c r="N77" s="22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23">
-      <c r="A78" s="22">
+      <c r="M77" s="36">
+        <v>1</v>
+      </c>
+      <c r="N77" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A78" s="21">
         <v>200075</v>
       </c>
-      <c r="B78" s="22" t="s">
+      <c r="B78" s="21" t="s">
         <v>199</v>
       </c>
       <c r="C78" s="8">
         <v>82</v>
       </c>
-      <c r="D78" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E78" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="F78" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G78" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H78" s="56" t="s">
+      <c r="D78" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E78" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F78" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G78" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H78" s="51" t="s">
         <v>200</v>
       </c>
-      <c r="I78" s="37" t="s">
+      <c r="I78" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="J78" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="K78" s="39">
-        <v>1</v>
-      </c>
-      <c r="L78" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="M78" s="40" t="s">
+      <c r="J78" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K78" s="35">
+        <v>1</v>
+      </c>
+      <c r="L78" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="M78" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="N78" s="22" t="s">
+      <c r="N78" s="21" t="s">
         <v>31</v>
       </c>
       <c r="W78" s="8" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="79" spans="1:23">
-      <c r="A79" s="22">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A79" s="21">
         <v>200076</v>
       </c>
-      <c r="B79" s="22" t="s">
+      <c r="B79" s="21" t="s">
         <v>203</v>
       </c>
       <c r="C79" s="8">
         <v>83</v>
       </c>
-      <c r="D79" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E79" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="F79" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G79" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H79" s="57" t="s">
+      <c r="D79" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E79" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F79" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G79" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H79" s="52" t="s">
         <v>204</v>
       </c>
-      <c r="I79" s="37" t="s">
+      <c r="I79" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="J79" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="K79" s="39">
-        <v>1</v>
-      </c>
-      <c r="L79" s="39">
+      <c r="J79" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K79" s="35">
+        <v>1</v>
+      </c>
+      <c r="L79" s="35">
         <v>2</v>
       </c>
-      <c r="M79" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="N79" s="22" t="s">
+      <c r="M79" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="N79" s="21" t="s">
         <v>31</v>
       </c>
       <c r="W79" s="8" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="80" s="6" customFormat="1" spans="1:14">
-      <c r="A80" s="19">
+    <row r="80" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="18">
         <v>200078</v>
       </c>
-      <c r="B80" s="19" t="s">
+      <c r="B80" s="18" t="s">
         <v>205</v>
       </c>
       <c r="C80" s="6">
         <v>84</v>
       </c>
-      <c r="D80" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E80" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="F80" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="G80" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H80" s="58" t="s">
+      <c r="D80" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E80" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F80" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G80" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H80" s="53" t="s">
         <v>206</v>
       </c>
       <c r="I80" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="J80" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K80" s="42">
-        <v>1</v>
-      </c>
-      <c r="L80" s="43" t="s">
+      <c r="J80" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="K80" s="38">
+        <v>1</v>
+      </c>
+      <c r="L80" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="M80" s="43" t="s">
+      <c r="M80" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="N80" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="81" s="6" customFormat="1" spans="1:14">
-      <c r="A81" s="19">
+      <c r="N80" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="18">
         <v>200079</v>
       </c>
-      <c r="B81" s="19" t="s">
+      <c r="B81" s="18" t="s">
         <v>207</v>
       </c>
       <c r="C81" s="6">
         <v>85</v>
       </c>
-      <c r="D81" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E81" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="F81" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="G81" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H81" s="58" t="s">
+      <c r="D81" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E81" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F81" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G81" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H81" s="53" t="s">
         <v>208</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="J81" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K81" s="42">
-        <v>1</v>
-      </c>
-      <c r="L81" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="M81" s="43" t="s">
+      <c r="J81" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="K81" s="38">
+        <v>1</v>
+      </c>
+      <c r="L81" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="M81" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="N81" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14">
-      <c r="A82" s="22">
+      <c r="N81" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A82" s="21">
         <v>200080</v>
       </c>
-      <c r="B82" s="22" t="s">
+      <c r="B82" s="21" t="s">
         <v>209</v>
       </c>
       <c r="C82" s="8">
         <v>86</v>
       </c>
-      <c r="D82" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E82" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="F82" s="29" t="s">
+      <c r="D82" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E82" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F82" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H82" s="53" t="s">
+      <c r="H82" s="48" t="s">
         <v>210</v>
       </c>
       <c r="I82" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="J82" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="K82" s="34">
-        <v>1</v>
-      </c>
-      <c r="L82" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="M82" s="31" t="s">
+      <c r="J82" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="K82" s="30">
+        <v>1</v>
+      </c>
+      <c r="L82" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="M82" s="28" t="s">
         <v>30</v>
       </c>
       <c r="N82" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="83" ht="14.4" spans="1:15">
-      <c r="A83" s="22">
+    <row r="83" spans="1:23" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A83" s="21">
         <v>200085</v>
       </c>
-      <c r="B83" s="22" t="s">
+      <c r="B83" s="21" t="s">
         <v>211</v>
       </c>
       <c r="C83" s="8">
         <v>89</v>
       </c>
-      <c r="D83" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E83" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="F83" s="29" t="s">
+      <c r="D83" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F83" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H83" s="30" t="s">
+      <c r="H83" s="27" t="s">
         <v>212</v>
       </c>
       <c r="I83" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="J83" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="K83" s="34">
-        <v>1</v>
-      </c>
-      <c r="L83" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="M83" s="23" t="s">
+      <c r="J83" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="K83" s="30">
+        <v>1</v>
+      </c>
+      <c r="L83" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M83" s="22" t="s">
         <v>30</v>
       </c>
       <c r="N83" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="O83" s="45"/>
-    </row>
-    <row r="84" spans="1:23">
-      <c r="A84" s="22">
+      <c r="O83" s="41"/>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A84" s="21">
         <v>200086</v>
       </c>
-      <c r="B84" s="22" t="s">
+      <c r="B84" s="21" t="s">
         <v>214</v>
       </c>
       <c r="C84" s="8">
         <v>90</v>
       </c>
-      <c r="D84" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E84" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="F84" s="29" t="s">
+      <c r="D84" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E84" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F84" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G84" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H84" s="31" t="s">
+      <c r="H84" s="28" t="s">
         <v>215</v>
       </c>
       <c r="I84" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="J84" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="K84" s="34">
-        <v>1</v>
-      </c>
-      <c r="L84" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="M84" s="31" t="s">
+      <c r="J84" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="K84" s="30">
+        <v>1</v>
+      </c>
+      <c r="L84" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="M84" s="28" t="s">
         <v>30</v>
       </c>
       <c r="N84" s="5" t="s">
@@ -6800,156 +6188,156 @@
         <v>217</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
-      <c r="A85" s="22">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A85" s="21">
         <v>200087</v>
       </c>
-      <c r="B85" s="22" t="s">
+      <c r="B85" s="21" t="s">
         <v>218</v>
       </c>
       <c r="C85" s="8">
         <v>91</v>
       </c>
-      <c r="D85" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E85" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="F85" s="29" t="s">
+      <c r="D85" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E85" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F85" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H85" s="30" t="s">
+      <c r="H85" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="I85" s="45" t="s">
+      <c r="I85" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="J85" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="K85" s="34">
-        <v>1</v>
-      </c>
-      <c r="L85" s="23" t="s">
+      <c r="J85" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="K85" s="30">
+        <v>1</v>
+      </c>
+      <c r="L85" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="M85" s="23" t="s">
+      <c r="M85" s="22" t="s">
         <v>46</v>
       </c>
       <c r="N85" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:15">
-      <c r="A86" s="22">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A86" s="21">
         <v>200088</v>
       </c>
-      <c r="B86" s="22" t="s">
+      <c r="B86" s="21" t="s">
         <v>221</v>
       </c>
       <c r="C86" s="8">
         <v>92</v>
       </c>
-      <c r="D86" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E86" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="F86" s="29" t="s">
+      <c r="D86" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E86" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F86" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H86" s="30" t="s">
+      <c r="H86" s="27" t="s">
         <v>222</v>
       </c>
       <c r="I86" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="J86" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="K86" s="34">
-        <v>1</v>
-      </c>
-      <c r="L86" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="M86" s="23" t="s">
+      <c r="J86" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="K86" s="30">
+        <v>1</v>
+      </c>
+      <c r="L86" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M86" s="22" t="s">
         <v>30</v>
       </c>
       <c r="N86" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="O86" s="45"/>
-    </row>
-    <row r="87" spans="1:14">
-      <c r="A87" s="22">
+      <c r="O86" s="41"/>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A87" s="21">
         <v>200089</v>
       </c>
-      <c r="B87" s="22" t="s">
+      <c r="B87" s="21" t="s">
         <v>224</v>
       </c>
       <c r="C87" s="8">
         <v>93</v>
       </c>
-      <c r="D87" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E87" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="F87" s="29" t="s">
+      <c r="D87" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E87" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F87" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H87" s="30" t="s">
+      <c r="H87" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="I87" s="45" t="s">
+      <c r="I87" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="J87" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="K87" s="34">
-        <v>1</v>
-      </c>
-      <c r="L87" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="M87" s="23" t="s">
+      <c r="J87" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="K87" s="30">
+        <v>1</v>
+      </c>
+      <c r="L87" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M87" s="22" t="s">
         <v>30</v>
       </c>
       <c r="N87" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
-      <c r="A88" s="22">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A88" s="21">
         <v>200090</v>
       </c>
-      <c r="B88" s="22" t="s">
+      <c r="B88" s="21" t="s">
         <v>226</v>
       </c>
       <c r="C88" s="8">
         <v>94</v>
       </c>
-      <c r="D88" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E88" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="F88" s="29" t="s">
+      <c r="D88" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E88" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F88" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G88" s="5" t="s">
@@ -6961,39 +6349,39 @@
       <c r="I88" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="J88" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="K88" s="34">
-        <v>1</v>
-      </c>
-      <c r="L88" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="M88" s="23" t="s">
+      <c r="J88" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="K88" s="30">
+        <v>1</v>
+      </c>
+      <c r="L88" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M88" s="22" t="s">
         <v>30</v>
       </c>
       <c r="N88" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
-      <c r="A89" s="22">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A89" s="21">
         <v>200091</v>
       </c>
-      <c r="B89" s="22" t="s">
+      <c r="B89" s="21" t="s">
         <v>228</v>
       </c>
       <c r="C89" s="8">
         <v>95</v>
       </c>
-      <c r="D89" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E89" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="F89" s="29" t="s">
+      <c r="D89" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E89" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F89" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G89" s="5" t="s">
@@ -7005,39 +6393,39 @@
       <c r="I89" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="J89" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="K89" s="34">
-        <v>1</v>
-      </c>
-      <c r="L89" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="M89" s="23" t="s">
+      <c r="J89" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="K89" s="30">
+        <v>1</v>
+      </c>
+      <c r="L89" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M89" s="22" t="s">
         <v>30</v>
       </c>
       <c r="N89" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
-      <c r="A90" s="22">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A90" s="21">
         <v>200092</v>
       </c>
-      <c r="B90" s="22" t="s">
+      <c r="B90" s="21" t="s">
         <v>230</v>
       </c>
       <c r="C90" s="8">
         <v>96</v>
       </c>
-      <c r="D90" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E90" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="F90" s="29" t="s">
+      <c r="D90" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E90" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F90" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G90" s="5" t="s">
@@ -7049,39 +6437,39 @@
       <c r="I90" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="J90" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="K90" s="34">
-        <v>1</v>
-      </c>
-      <c r="L90" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="M90" s="23" t="s">
+      <c r="J90" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="K90" s="30">
+        <v>1</v>
+      </c>
+      <c r="L90" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M90" s="22" t="s">
         <v>30</v>
       </c>
       <c r="N90" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
-      <c r="A91" s="22">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A91" s="21">
         <v>200093</v>
       </c>
-      <c r="B91" s="22" t="s">
+      <c r="B91" s="21" t="s">
         <v>232</v>
       </c>
       <c r="C91" s="8">
         <v>97</v>
       </c>
-      <c r="D91" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E91" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="F91" s="29" t="s">
+      <c r="D91" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E91" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F91" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G91" s="5" t="s">
@@ -7093,259 +6481,259 @@
       <c r="I91" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="J91" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="K91" s="34">
-        <v>1</v>
-      </c>
-      <c r="L91" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="M91" s="23" t="s">
+      <c r="J91" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="K91" s="30">
+        <v>1</v>
+      </c>
+      <c r="L91" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M91" s="22" t="s">
         <v>30</v>
       </c>
       <c r="N91" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
-      <c r="A92" s="22">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A92" s="21">
         <v>200094</v>
       </c>
-      <c r="B92" s="22" t="s">
+      <c r="B92" s="21" t="s">
         <v>234</v>
       </c>
       <c r="C92" s="8">
         <v>98</v>
       </c>
-      <c r="D92" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E92" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="F92" s="29" t="s">
+      <c r="D92" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E92" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F92" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G92" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H92" s="58" t="s">
+      <c r="H92" s="53" t="s">
         <v>235</v>
       </c>
       <c r="I92" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="J92" s="35">
-        <v>1</v>
-      </c>
-      <c r="K92" s="35">
-        <v>1</v>
-      </c>
-      <c r="L92" s="35" t="s">
+      <c r="J92" s="31">
+        <v>1</v>
+      </c>
+      <c r="K92" s="31">
+        <v>1</v>
+      </c>
+      <c r="L92" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="M92" s="35" t="s">
+      <c r="M92" s="31" t="s">
         <v>46</v>
       </c>
       <c r="N92" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
-      <c r="A93" s="22">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A93" s="21">
         <v>200095</v>
       </c>
-      <c r="B93" s="22" t="s">
+      <c r="B93" s="21" t="s">
         <v>237</v>
       </c>
       <c r="C93" s="8">
         <v>99</v>
       </c>
-      <c r="D93" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E93" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="F93" s="29" t="s">
+      <c r="D93" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E93" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F93" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G93" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H93" s="58" t="s">
+      <c r="H93" s="53" t="s">
         <v>238</v>
       </c>
       <c r="I93" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="J93" s="35">
-        <v>1</v>
-      </c>
-      <c r="K93" s="35" t="s">
+      <c r="J93" s="31">
+        <v>1</v>
+      </c>
+      <c r="K93" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="L93" s="35" t="s">
+      <c r="L93" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="M93" s="35" t="s">
+      <c r="M93" s="31" t="s">
         <v>46</v>
       </c>
       <c r="N93" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
-      <c r="A94" s="22">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A94" s="21">
         <v>200096</v>
       </c>
-      <c r="B94" s="22" t="s">
+      <c r="B94" s="21" t="s">
         <v>240</v>
       </c>
       <c r="C94" s="8">
         <v>100</v>
       </c>
-      <c r="D94" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E94" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="F94" s="29" t="s">
+      <c r="D94" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E94" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F94" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G94" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H94" s="58" t="s">
+      <c r="H94" s="53" t="s">
         <v>241</v>
       </c>
       <c r="I94" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="J94" s="35">
-        <v>1</v>
-      </c>
-      <c r="K94" s="35" t="s">
+      <c r="J94" s="31">
+        <v>1</v>
+      </c>
+      <c r="K94" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="L94" s="35" t="s">
+      <c r="L94" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="M94" s="35" t="s">
+      <c r="M94" s="31" t="s">
         <v>46</v>
       </c>
       <c r="N94" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
-      <c r="A95" s="22">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A95" s="21">
         <v>200097</v>
       </c>
-      <c r="B95" s="22" t="s">
+      <c r="B95" s="21" t="s">
         <v>242</v>
       </c>
       <c r="C95" s="8">
         <v>101</v>
       </c>
-      <c r="D95" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E95" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="F95" s="29" t="s">
+      <c r="D95" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E95" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F95" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G95" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H95" s="58" t="s">
+      <c r="H95" s="53" t="s">
         <v>243</v>
       </c>
       <c r="I95" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="J95" s="35">
-        <v>1</v>
-      </c>
-      <c r="K95" s="35">
-        <v>1</v>
-      </c>
-      <c r="L95" s="35" t="s">
+      <c r="J95" s="31">
+        <v>1</v>
+      </c>
+      <c r="K95" s="31">
+        <v>1</v>
+      </c>
+      <c r="L95" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="M95" s="35" t="s">
+      <c r="M95" s="31" t="s">
         <v>46</v>
       </c>
       <c r="N95" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
         <v>200098</v>
       </c>
-      <c r="B96" s="22" t="s">
+      <c r="B96" s="21" t="s">
         <v>245</v>
       </c>
       <c r="C96" s="8">
         <v>102</v>
       </c>
-      <c r="D96" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E96" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="F96" s="29" t="s">
+      <c r="D96" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E96" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F96" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G96" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H96" s="58" t="s">
+      <c r="H96" s="53" t="s">
         <v>246</v>
       </c>
       <c r="I96" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="J96" s="42">
-        <v>1</v>
-      </c>
-      <c r="K96" s="42">
-        <v>1</v>
-      </c>
-      <c r="L96" s="42">
+      <c r="J96" s="38">
+        <v>1</v>
+      </c>
+      <c r="K96" s="38">
+        <v>1</v>
+      </c>
+      <c r="L96" s="38">
         <v>0</v>
       </c>
-      <c r="M96" s="42">
+      <c r="M96" s="38">
         <v>2</v>
       </c>
       <c r="N96" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="97" customFormat="1" spans="1:14">
-      <c r="A97" s="22">
+    <row r="97" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="21">
         <v>200081</v>
       </c>
-      <c r="B97" s="22" t="s">
+      <c r="B97" s="21" t="s">
         <v>248</v>
       </c>
       <c r="C97" s="8">
         <v>85</v>
       </c>
-      <c r="D97" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E97" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="F97" s="29" t="s">
+      <c r="D97" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E97" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F97" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G97" s="5" t="s">
@@ -7357,39 +6745,39 @@
       <c r="I97" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="J97" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="K97" s="34">
-        <v>1</v>
-      </c>
-      <c r="L97" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="M97" s="31">
+      <c r="J97" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="K97" s="30">
+        <v>1</v>
+      </c>
+      <c r="L97" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="M97" s="28">
         <v>1</v>
       </c>
       <c r="N97" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="98" customFormat="1" spans="1:14">
-      <c r="A98" s="22">
+    <row r="98" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="21">
         <v>200082</v>
       </c>
-      <c r="B98" s="22" t="s">
+      <c r="B98" s="21" t="s">
         <v>251</v>
       </c>
       <c r="C98" s="8">
         <v>86</v>
       </c>
-      <c r="D98" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E98" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="F98" s="29" t="s">
+      <c r="D98" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E98" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F98" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G98" s="5" t="s">
@@ -7401,39 +6789,39 @@
       <c r="I98" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="J98" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="K98" s="34">
-        <v>1</v>
-      </c>
-      <c r="L98" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="M98" s="31" t="s">
+      <c r="J98" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="K98" s="30">
+        <v>1</v>
+      </c>
+      <c r="L98" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="M98" s="28" t="s">
         <v>30</v>
       </c>
       <c r="N98" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="99" customFormat="1" spans="1:14">
-      <c r="A99" s="22">
+    <row r="99" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="21">
         <v>200083</v>
       </c>
-      <c r="B99" s="22" t="s">
+      <c r="B99" s="21" t="s">
         <v>253</v>
       </c>
       <c r="C99" s="8">
         <v>87</v>
       </c>
-      <c r="D99" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E99" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="F99" s="29" t="s">
+      <c r="D99" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E99" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F99" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G99" s="5" t="s">
@@ -7445,39 +6833,39 @@
       <c r="I99" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="J99" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="K99" s="34">
-        <v>1</v>
-      </c>
-      <c r="L99" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="M99" s="31" t="s">
+      <c r="J99" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="K99" s="30">
+        <v>1</v>
+      </c>
+      <c r="L99" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="M99" s="28" t="s">
         <v>30</v>
       </c>
       <c r="N99" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="100" customFormat="1" spans="1:14">
-      <c r="A100" s="22">
+    <row r="100" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="21">
         <v>200084</v>
       </c>
-      <c r="B100" s="22" t="s">
+      <c r="B100" s="21" t="s">
         <v>256</v>
       </c>
       <c r="C100" s="8">
         <v>88</v>
       </c>
-      <c r="D100" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E100" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="F100" s="29" t="s">
+      <c r="D100" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E100" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F100" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G100" s="5" t="s">
@@ -7489,157 +6877,157 @@
       <c r="I100" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="J100" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="K100" s="34">
-        <v>1</v>
-      </c>
-      <c r="L100" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="M100" s="31" t="s">
+      <c r="J100" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="K100" s="30">
+        <v>1</v>
+      </c>
+      <c r="L100" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="M100" s="28" t="s">
         <v>30</v>
       </c>
       <c r="N100" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="8">
         <v>200105</v>
       </c>
-      <c r="B101" s="22" t="s">
+      <c r="B101" s="21" t="s">
         <v>259</v>
       </c>
       <c r="C101" s="8">
         <v>109</v>
       </c>
-      <c r="D101" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E101" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="F101" s="29" t="s">
+      <c r="D101" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E101" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F101" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G101" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H101" s="58" t="s">
+      <c r="H101" s="53" t="s">
         <v>260</v>
       </c>
       <c r="I101" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="J101" s="42">
-        <v>1</v>
-      </c>
-      <c r="K101" s="42">
-        <v>1</v>
-      </c>
-      <c r="L101" s="35" t="s">
+      <c r="J101" s="38">
+        <v>1</v>
+      </c>
+      <c r="K101" s="38">
+        <v>1</v>
+      </c>
+      <c r="L101" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="M101" s="42">
+      <c r="M101" s="38">
         <v>2</v>
       </c>
       <c r="N101" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="8">
         <v>200106</v>
       </c>
-      <c r="B102" s="22" t="s">
+      <c r="B102" s="21" t="s">
         <v>262</v>
       </c>
       <c r="C102" s="8">
         <v>110</v>
       </c>
-      <c r="D102" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E102" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="F102" s="29" t="s">
+      <c r="D102" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E102" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F102" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G102" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H102" s="58" t="s">
+      <c r="H102" s="53" t="s">
         <v>263</v>
       </c>
       <c r="I102" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="J102" s="42">
-        <v>1</v>
-      </c>
-      <c r="K102" s="42">
-        <v>1</v>
-      </c>
-      <c r="L102" s="35" t="s">
+      <c r="J102" s="38">
+        <v>1</v>
+      </c>
+      <c r="K102" s="38">
+        <v>1</v>
+      </c>
+      <c r="L102" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="M102" s="42">
+      <c r="M102" s="38">
         <v>2</v>
       </c>
       <c r="N102" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="103" ht="34.2" spans="1:19">
+    <row r="103" spans="1:19" ht="34.200000000000003" x14ac:dyDescent="0.35">
       <c r="A103" s="8">
         <v>200107</v>
       </c>
-      <c r="B103" s="22" t="s">
+      <c r="B103" s="21" t="s">
         <v>265</v>
       </c>
       <c r="C103" s="8">
         <v>111</v>
       </c>
-      <c r="D103" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E103" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="F103" s="29" t="s">
+      <c r="D103" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E103" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F103" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G103" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H103" s="58" t="s">
+      <c r="H103" s="53" t="s">
         <v>266</v>
       </c>
       <c r="I103" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="J103" s="42">
+      <c r="J103" s="38">
         <v>0</v>
       </c>
-      <c r="K103" s="42">
+      <c r="K103" s="38">
         <v>0</v>
       </c>
-      <c r="L103" s="35" t="s">
+      <c r="L103" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="M103" s="42">
+      <c r="M103" s="38">
         <v>0</v>
       </c>
       <c r="N103" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="O103" s="46" t="s">
+      <c r="O103" s="42" t="s">
         <v>268</v>
       </c>
-      <c r="P103" s="47" t="s">
+      <c r="P103" s="43" t="s">
         <v>269</v>
       </c>
       <c r="Q103" s="8" t="s">
@@ -7652,67 +7040,67 @@
         <v>272</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="8">
         <v>200108</v>
       </c>
-      <c r="B104" s="22" t="s">
+      <c r="B104" s="21" t="s">
         <v>273</v>
       </c>
       <c r="C104" s="8">
         <v>112</v>
       </c>
-      <c r="D104" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E104" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="F104" s="29" t="s">
+      <c r="D104" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E104" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F104" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G104" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H104" s="58" t="s">
+      <c r="H104" s="53" t="s">
         <v>274</v>
       </c>
       <c r="I104" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="J104" s="42">
+      <c r="J104" s="38">
         <v>0</v>
       </c>
-      <c r="K104" s="42">
+      <c r="K104" s="38">
         <v>0</v>
       </c>
-      <c r="L104" s="35" t="s">
+      <c r="L104" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="M104" s="42">
+      <c r="M104" s="38">
         <v>2</v>
       </c>
       <c r="N104" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="8">
         <v>200109</v>
       </c>
-      <c r="B105" s="22" t="s">
+      <c r="B105" s="21" t="s">
         <v>276</v>
       </c>
       <c r="C105" s="8">
         <v>113</v>
       </c>
-      <c r="D105" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E105" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="F105" s="29" t="s">
+      <c r="D105" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E105" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F105" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G105" s="5" t="s">
@@ -7724,1497 +7112,1497 @@
       <c r="I105" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="J105" s="42">
+      <c r="J105" s="38">
         <v>0</v>
       </c>
-      <c r="K105" s="42">
+      <c r="K105" s="38">
         <v>0</v>
       </c>
-      <c r="L105" s="35" t="s">
+      <c r="L105" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="M105" s="42">
+      <c r="M105" s="38">
         <v>2</v>
       </c>
       <c r="N105" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
         <v>200110</v>
       </c>
-      <c r="B106" s="22" t="s">
+      <c r="B106" s="21" t="s">
         <v>278</v>
       </c>
       <c r="C106" s="8">
         <v>114</v>
       </c>
-      <c r="D106" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E106" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="F106" s="29" t="s">
+      <c r="D106" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E106" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F106" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G106" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H106" s="59" t="s">
+      <c r="H106" s="54" t="s">
         <v>279</v>
       </c>
       <c r="I106" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J106" s="39">
-        <v>1</v>
-      </c>
-      <c r="K106" s="39">
-        <v>1</v>
-      </c>
-      <c r="L106" s="39">
-        <v>1</v>
-      </c>
-      <c r="M106" s="39">
+      <c r="J106" s="35">
+        <v>1</v>
+      </c>
+      <c r="K106" s="35">
+        <v>1</v>
+      </c>
+      <c r="L106" s="35">
+        <v>1</v>
+      </c>
+      <c r="M106" s="35">
         <v>1</v>
       </c>
       <c r="N106" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="8">
         <v>200111</v>
       </c>
-      <c r="B107" s="22" t="s">
+      <c r="B107" s="21" t="s">
         <v>281</v>
       </c>
       <c r="C107" s="8">
         <v>115</v>
       </c>
-      <c r="D107" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E107" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="F107" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G107" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H107" s="60" t="s">
+      <c r="D107" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E107" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F107" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G107" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H107" s="55" t="s">
         <v>282</v>
       </c>
       <c r="I107" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="J107" s="39">
-        <v>1</v>
-      </c>
-      <c r="K107" s="39">
-        <v>1</v>
-      </c>
-      <c r="L107" s="39">
+      <c r="J107" s="35">
+        <v>1</v>
+      </c>
+      <c r="K107" s="35">
+        <v>1</v>
+      </c>
+      <c r="L107" s="35">
         <v>2</v>
       </c>
-      <c r="M107" s="39">
-        <v>1</v>
-      </c>
-      <c r="N107" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14">
+      <c r="M107" s="35">
+        <v>1</v>
+      </c>
+      <c r="N107" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="8">
         <v>200112</v>
       </c>
-      <c r="B108" s="22" t="s">
+      <c r="B108" s="21" t="s">
         <v>284</v>
       </c>
       <c r="C108" s="8">
         <v>116</v>
       </c>
-      <c r="D108" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E108" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="F108" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G108" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H108" s="60" t="s">
+      <c r="D108" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E108" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F108" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G108" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H108